--- a/static/input_files/ACFR_template.xlsx
+++ b/static/input_files/ACFR_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/static/input_files/acfrs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908DFE4B-89B3-384D-853E-FBC5105F040A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1CCF02-A629-104E-861B-3299B168D1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="500" windowWidth="24180" windowHeight="17500" tabRatio="834" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="24180" windowHeight="17500" tabRatio="834" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -5978,31 +5978,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -6134,6 +6110,14 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -15398,8 +15382,8 @@
   </sheetPr>
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -16845,18 +16829,18 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <conditionalFormatting sqref="C101:F101">
-    <cfRule type="cellIs" dxfId="32" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="18" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="20" operator="notEqual">
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F101 C23 C37 C50 C65 C76:C77 C89 C101">
-    <cfRule type="expression" dxfId="29" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="2" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16898,7 +16882,7 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -18525,74 +18509,64 @@
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
-  <conditionalFormatting sqref="C23 C37 C50 D53:G63 D74:H77 J74:J77 I74 I78:I99">
-    <cfRule type="expression" dxfId="28" priority="49" stopIfTrue="1">
+  <conditionalFormatting sqref="C23 C37 C50 D53:G63 D74:H77 J74:J77">
+    <cfRule type="expression" dxfId="26" priority="49" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:J64">
-    <cfRule type="expression" dxfId="27" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="34" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:J72">
-    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="10" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F6 D52:F52">
-    <cfRule type="expression" dxfId="25" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="46" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:G51">
-    <cfRule type="expression" dxfId="24" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65:J65 D66:H70 J66:J70">
-    <cfRule type="expression" dxfId="23" priority="16" stopIfTrue="1">
+  <conditionalFormatting sqref="D65:J70">
+    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H50">
-    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="5" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:I38">
-    <cfRule type="expression" dxfId="21" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="43" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:J6 D7:I37 I39:I51">
-    <cfRule type="expression" dxfId="20" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="39" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52:J53 H54:H63 J54:J63">
-    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
+  <conditionalFormatting sqref="H52:J63">
+    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:J50">
-    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
-      <formula>J$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54:I63">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="I74:I99">
+    <cfRule type="expression" dxfId="16" priority="1" stopIfTrue="1">
       <formula>I$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66:I70">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>I$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75:I77">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>I$6=""</formula>
+  <conditionalFormatting sqref="J7:J50">
+    <cfRule type="expression" dxfId="15" priority="4" stopIfTrue="1">
+      <formula>J$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -18619,7 +18593,7 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -19974,7 +19948,7 @@
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="D7:I7 D8:J23 C23 D25:J36 C36 C37:J37 D38:J71 C60:J60 C70">
-    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21324,31 +21298,31 @@
     <mergeCell ref="B25:E25"/>
   </mergeCells>
   <conditionalFormatting sqref="C102">
-    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="equal">
       <formula>$C$102</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="notEqual">
       <formula>$C$102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102:E102">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="equal">
       <formula>$D$102</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="notEqual">
       <formula>$D$102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>$E$102</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>$E$102</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22682,31 +22656,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C101">
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
       <formula>$C$101</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="notEqual">
       <formula>$C$101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101:E101">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D101">
-    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
       <formula>$D$101</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="notEqual">
       <formula>$D$101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>$E$101</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>$E$101</formula>
     </cfRule>
   </conditionalFormatting>

--- a/static/input_files/ACFR_template.xlsx
+++ b/static/input_files/ACFR_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/static/input_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byflow/Documents/Research/process-xbrl/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1CCF02-A629-104E-861B-3299B168D1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE15D284-3CAD-C943-A8B7-B3909F0F3BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="500" windowWidth="24180" windowHeight="17500" tabRatio="834" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="15000" windowHeight="18900" tabRatio="834" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -18,12 +18,13 @@
     <sheet name="Master Info" sheetId="13" r:id="rId3"/>
     <sheet name="Statement of Net Position" sheetId="9" r:id="rId4"/>
     <sheet name="Statement of Activities" sheetId="19" r:id="rId5"/>
-    <sheet name="GovFund Stmt of Rev Exp and Chg" sheetId="15" r:id="rId6"/>
-    <sheet name="Prop Fund Stmt of Net Position" sheetId="11" state="hidden" r:id="rId7"/>
-    <sheet name="Prop Fund Stmt of Rev Exp Bal" sheetId="12" state="hidden" r:id="rId8"/>
+    <sheet name="GovFund Balance Sheet" sheetId="22" r:id="rId6"/>
+    <sheet name="GovFund Stmt of Rev Exp and Chg" sheetId="15" r:id="rId7"/>
+    <sheet name="Prop Fund Stmt of Net Position" sheetId="11" state="hidden" r:id="rId8"/>
+    <sheet name="Prop Fund Stmt of Rev Exp Bal" sheetId="12" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'GovFund Stmt of Rev Exp and Chg'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'GovFund Stmt of Rev Exp and Chg'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Label Dropdowns'!$A$1:$C$522</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Statement of Activities'!$B$25:$B$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Statement of Net Position'!$B$25:$B$36</definedName>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="1744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="1756">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -5310,6 +5311,42 @@
   </si>
   <si>
     <t>acfr:ProgramRevenues,acfr:Expenses,acfr:NetExpenseRevenue</t>
+  </si>
+  <si>
+    <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t>Landscape Maintenance District</t>
+  </si>
+  <si>
+    <t>Successor Housing Agency</t>
+  </si>
+  <si>
+    <t>LIABILITIES, DEFERRED INFLOWS OF RESOURCES AND FUND BALANCES</t>
+  </si>
+  <si>
+    <t>Liabilities:</t>
+  </si>
+  <si>
+    <t>Deferred Inflows of Resources:</t>
+  </si>
+  <si>
+    <t>Fund Balance:</t>
+  </si>
+  <si>
+    <t>acfr:</t>
+  </si>
+  <si>
+    <t>Total Liabilities, Deferred Inflows of Resources and Fund Balances</t>
+  </si>
+  <si>
+    <t>American Rescue Plan Act</t>
+  </si>
+  <si>
+    <t>Capital Improvement Program</t>
+  </si>
+  <si>
+    <t>Other Governmental Funds</t>
   </si>
 </sst>
 </file>
@@ -5320,7 +5357,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5450,8 +5487,32 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5527,6 +5588,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA6A6A6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF595959"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF262626"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -5775,7 +5866,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5972,13 +6063,62 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="23" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="24" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="23" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="23" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="23" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="23" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="55">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -6110,6 +6250,198 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6555,7 +6887,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C522"/>
   <sheetViews>
-    <sheetView topLeftCell="A316" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -12322,8 +12654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF490C29-31E1-3E46-B6B7-83D944E71A74}">
   <dimension ref="A1:H218"/>
   <sheetViews>
-    <sheetView topLeftCell="A165" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView topLeftCell="A65" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -15382,8 +15714,8 @@
   </sheetPr>
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A29" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -16829,18 +17161,18 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <conditionalFormatting sqref="C101:F101">
-    <cfRule type="cellIs" dxfId="30" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="18" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="notEqual">
+    <cfRule type="cellIs" dxfId="52" priority="20" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F101 C23 C37 C50 C65 C76:C77 C89 C101">
-    <cfRule type="expression" dxfId="27" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="2" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18510,62 +18842,62 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <conditionalFormatting sqref="C23 C37 C50 D53:G63 D74:H77 J74:J77">
-    <cfRule type="expression" dxfId="26" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="49" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:J64">
-    <cfRule type="expression" dxfId="25" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="34" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:J72">
-    <cfRule type="expression" dxfId="24" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="10" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F6 D52:F52">
-    <cfRule type="expression" dxfId="23" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="46" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:G51">
-    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="6" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:J70">
-    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="2" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H50">
-    <cfRule type="expression" dxfId="20" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="5" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:I38">
-    <cfRule type="expression" dxfId="19" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="43" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:J6 D7:I37 I39:I51">
-    <cfRule type="expression" dxfId="18" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="39" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:J63">
-    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="3" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74:I99">
-    <cfRule type="expression" dxfId="16" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="1" stopIfTrue="1">
       <formula>I$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J50">
-    <cfRule type="expression" dxfId="15" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="4" stopIfTrue="1">
       <formula>J$6=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18586,14 +18918,773 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62560919-E4A0-3A4F-9164-3F35B35B852C}">
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="121" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17">
+      <c r="A1" s="45" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B1" s="113" t="str">
+        <f>_xlfn.CONCAT('Master Info'!C2, ", ", 'Master Info'!$C$3)</f>
+        <v>City of Clayton, California</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" ht="17">
+      <c r="A2" s="46" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="1:9" ht="17">
+      <c r="A3" s="46" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+    </row>
+    <row r="4" spans="1:9" ht="17" thickBot="1">
+      <c r="A4" s="48" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B4" s="114">
+        <f>'Master Info'!C4</f>
+        <v>44742</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+    </row>
+    <row r="5" spans="1:9" ht="16">
+      <c r="A5" s="56"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+    </row>
+    <row r="6" spans="1:9" ht="48">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="115"/>
+      <c r="C6" s="12" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>1754</v>
+      </c>
+      <c r="H6" s="105" t="s">
+        <v>1755</v>
+      </c>
+      <c r="I6" s="105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16">
+      <c r="A7" s="7"/>
+      <c r="B7" s="116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+    </row>
+    <row r="8" spans="1:9" ht="15">
+      <c r="A8" s="8" t="str">
+        <f>IF(B8="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B8,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B8" s="117"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107">
+        <f>SUM(C8:H8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15">
+      <c r="A9" s="8" t="str">
+        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B9" s="117"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107">
+        <f>SUM(C9:H9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15">
+      <c r="A10" s="8" t="str">
+        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B10" s="117"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107">
+        <f>SUM(C10:H10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15">
+      <c r="A11" s="8" t="str">
+        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B11" s="117"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107">
+        <f>SUM(C11:H11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="8" t="str">
+        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B12" s="117"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107">
+        <f>SUM(C12:H12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="8" t="str">
+        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B13" s="117"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107">
+        <f>SUM(C13:H13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="8" t="str">
+        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B14" s="117"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107">
+        <f t="shared" ref="I14:I15" si="0">SUM(C14:H14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" s="8" t="str">
+        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B15" s="117"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="8" t="str">
+        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B16" s="117"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107">
+        <f>SUM(C16:H16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16">
+      <c r="A17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="118" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="23">
+        <f>SUM(C8:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="23">
+        <f>SUM(D8:D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="23">
+        <f t="shared" ref="E17:H17" si="1">SUM(E8:E16)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="108">
+        <f>SUM(C17:H17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="32">
+      <c r="B18" s="116" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+    </row>
+    <row r="19" spans="1:9" ht="16">
+      <c r="B19" s="119" t="s">
+        <v>1748</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15">
+      <c r="A20" s="8" t="str">
+        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B20" s="117"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109">
+        <f>SUM(C20:H20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15">
+      <c r="A21" s="8" t="str">
+        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B21" s="117"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="109">
+        <f t="shared" ref="I21:I24" si="2">SUM(C21:H21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15">
+      <c r="A22" s="8" t="str">
+        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B22" s="117"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15">
+      <c r="A23" s="8" t="str">
+        <f>IF(B23="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B23,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B23" s="117"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15">
+      <c r="A24" s="8" t="str">
+        <f>IF(B24="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B24,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B24" s="117"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16">
+      <c r="A25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="120" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="104">
+        <f>SUM(C20:C24)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="104">
+        <f t="shared" ref="D25:H25" si="3">SUM(D20:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="111">
+        <f>SUM(C25:H25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16">
+      <c r="B26" s="119" t="s">
+        <v>1749</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="15">
+      <c r="A27" s="8" t="str">
+        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B27" s="117"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="112"/>
+    </row>
+    <row r="28" spans="1:9" ht="16">
+      <c r="A28" s="8" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B28" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="17">
+        <f>SUM(C27)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="17">
+        <f>SUM(D27)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" ref="E28:H28" si="4">SUM(E27)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="17">
+        <f>SUM(I27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16">
+      <c r="B29" s="119" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="15">
+      <c r="A30" s="8" t="str">
+        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B30" s="117"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109">
+        <f>SUM(C30:H30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15">
+      <c r="A31" s="8" t="str">
+        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B31" s="117"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110">
+        <f>SUM(C31:H31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15">
+      <c r="A32" s="8" t="str">
+        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B32" s="117"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107">
+        <f>SUM(C32:H32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15">
+      <c r="A33" s="8" t="str">
+        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B33" s="117"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107">
+        <f>SUM(C33:H33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15">
+      <c r="A34" s="8" t="str">
+        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B34" s="117"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107">
+        <f>SUM(C34:H34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16">
+      <c r="A35" s="8" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B35" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="17">
+        <f>SUM(C30:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="17">
+        <f>SUM(D30:D34)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="17">
+        <f>SUM(E30:E34)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="17">
+        <f>SUM(F30:F34)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="17">
+        <f>SUM(G30:G34)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="111">
+        <f>SUM(H30:H34)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="111">
+        <f>SUM(C35:H35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="32">
+      <c r="A36" s="9" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B36" s="118" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D6:E7">
+    <cfRule type="expression" dxfId="38" priority="23" stopIfTrue="1">
+      <formula>D$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D16">
+    <cfRule type="expression" dxfId="37" priority="22" stopIfTrue="1">
+      <formula>D$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E16">
+    <cfRule type="expression" dxfId="36" priority="21" stopIfTrue="1">
+      <formula>E$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:G18">
+    <cfRule type="expression" dxfId="35" priority="20" stopIfTrue="1">
+      <formula>D$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D24">
+    <cfRule type="expression" dxfId="32" priority="18" stopIfTrue="1">
+      <formula>D$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E24">
+    <cfRule type="expression" dxfId="31" priority="17" stopIfTrue="1">
+      <formula>E$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:H25">
+    <cfRule type="expression" dxfId="30" priority="16" stopIfTrue="1">
+      <formula>C$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="29" priority="15" stopIfTrue="1">
+      <formula>D$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:G27">
+    <cfRule type="expression" dxfId="28" priority="14" stopIfTrue="1">
+      <formula>E$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D34">
+    <cfRule type="expression" dxfId="27" priority="13" stopIfTrue="1">
+      <formula>D$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E34">
+    <cfRule type="expression" dxfId="26" priority="12" stopIfTrue="1">
+      <formula>E$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:I28">
+    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
+      <formula>C$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:G35">
+    <cfRule type="expression" dxfId="24" priority="10" stopIfTrue="1">
+      <formula>C$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="23" priority="9" stopIfTrue="1">
+      <formula>D$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F7">
+    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
+      <formula>F$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F16">
+    <cfRule type="expression" dxfId="21" priority="7" stopIfTrue="1">
+      <formula>F$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F24">
+    <cfRule type="expression" dxfId="20" priority="6" stopIfTrue="1">
+      <formula>F$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:F34">
+    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
+      <formula>F$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G7">
+    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
+      <formula>G$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G16">
+    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
+      <formula>G$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G24">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+      <formula>G$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:G34">
+    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
+      <formula>G$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B16 B27" xr:uid="{C05164A8-FCB4-D447-A641-AF82C1FC0132}">
+      <formula1>current_assets</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:B24 B30:B34" xr:uid="{E7758463-A14F-B541-9130-AEC634E9AF3C}">
+      <formula1>current_liabilities</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A741F4-D4C9-9A45-AFFB-14EF6B58F69B}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -19980,7 +21071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788A9A8B-CD70-4E43-B731-FB7C17794303}">
   <dimension ref="A1:E102"/>
   <sheetViews>
@@ -21353,7 +22444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A27AB5-4C32-7545-9FCB-B1E2421FAC8B}">
   <dimension ref="A1:E101"/>
   <sheetViews>

--- a/static/input_files/ACFR_template.xlsx
+++ b/static/input_files/ACFR_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byflow/Documents/Research/process-xbrl/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE15D284-3CAD-C943-A8B7-B3909F0F3BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF7CA85-55E7-7740-A446-D1B9505F8085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="15000" windowHeight="18900" tabRatio="834" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11700" yWindow="760" windowWidth="15000" windowHeight="18880" tabRatio="834" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -6054,15 +6054,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="44" fontId="13" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -6112,13 +6103,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="40">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -6250,126 +6250,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -17161,18 +17041,18 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <conditionalFormatting sqref="C101:F101">
-    <cfRule type="cellIs" dxfId="54" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="18" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="20" operator="notEqual">
+    <cfRule type="cellIs" dxfId="37" priority="20" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F101 C23 C37 C50 C65 C76:C77 C89 C101">
-    <cfRule type="expression" dxfId="51" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="2" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18842,62 +18722,62 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <conditionalFormatting sqref="C23 C37 C50 D53:G63 D74:H77 J74:J77">
-    <cfRule type="expression" dxfId="50" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="49" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:J64">
-    <cfRule type="expression" dxfId="49" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="34" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:J72">
-    <cfRule type="expression" dxfId="48" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="10" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F6 D52:F52">
-    <cfRule type="expression" dxfId="47" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="46" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:G51">
-    <cfRule type="expression" dxfId="46" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="6" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:J70">
-    <cfRule type="expression" dxfId="45" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="2" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H50">
-    <cfRule type="expression" dxfId="44" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="5" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:I38">
-    <cfRule type="expression" dxfId="43" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="43" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:J6 D7:I37 I39:I51">
-    <cfRule type="expression" dxfId="42" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="39" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:J63">
-    <cfRule type="expression" dxfId="41" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="3" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74:I99">
-    <cfRule type="expression" dxfId="40" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="1" stopIfTrue="1">
       <formula>I$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J50">
-    <cfRule type="expression" dxfId="39" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="4" stopIfTrue="1">
       <formula>J$6=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18921,21 +18801,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62560919-E4A0-3A4F-9164-3F35B35B852C}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="121" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="118" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17">
       <c r="A1" s="45" t="s">
         <v>1074</v>
       </c>
-      <c r="B1" s="113" t="str">
+      <c r="B1" s="110" t="str">
         <f>_xlfn.CONCAT('Master Info'!C2, ", ", 'Master Info'!$C$3)</f>
         <v>City of Clayton, California</v>
       </c>
@@ -18948,7 +18828,7 @@
         <v>1105</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>1106</v>
+        <v>1081</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="49"/>
@@ -18969,7 +18849,7 @@
       <c r="A4" s="48" t="s">
         <v>1076</v>
       </c>
-      <c r="B4" s="114">
+      <c r="B4" s="111">
         <f>'Master Info'!C4</f>
         <v>44742</v>
       </c>
@@ -18988,7 +18868,7 @@
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="115"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="12" t="s">
         <v>1083</v>
       </c>
@@ -19004,16 +18884,16 @@
       <c r="G6" s="12" t="s">
         <v>1754</v>
       </c>
-      <c r="H6" s="105" t="s">
+      <c r="H6" s="102" t="s">
         <v>1755</v>
       </c>
-      <c r="I6" s="105" t="s">
+      <c r="I6" s="102" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16">
       <c r="A7" s="7"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="113" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="14"/>
@@ -19021,23 +18901,23 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="8" t="str">
         <f>IF(B8="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B8,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B8" s="117"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107">
-        <f>SUM(C8:H8)</f>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104">
+        <f t="shared" ref="I8:I13" si="0">SUM(C8:H8)</f>
         <v>0</v>
       </c>
     </row>
@@ -19046,15 +18926,15 @@
         <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B9" s="117"/>
+      <c r="B9" s="114"/>
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107">
-        <f>SUM(C9:H9)</f>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -19063,15 +18943,15 @@
         <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B10" s="117"/>
+      <c r="B10" s="114"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107">
-        <f>SUM(C10:H10)</f>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -19080,15 +18960,15 @@
         <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B11" s="117"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="19"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107">
-        <f>SUM(C11:H11)</f>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -19097,15 +18977,15 @@
         <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B12" s="117"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107">
-        <f>SUM(C12:H12)</f>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -19114,15 +18994,15 @@
         <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B13" s="117"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="19"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107">
-        <f>SUM(C13:H13)</f>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -19131,15 +19011,15 @@
         <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B14" s="117"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107">
-        <f t="shared" ref="I14:I15" si="0">SUM(C14:H14)</f>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104">
+        <f t="shared" ref="I14:I15" si="1">SUM(C14:H14)</f>
         <v>0</v>
       </c>
     </row>
@@ -19148,15 +19028,15 @@
         <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B15" s="117"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="19"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107">
-        <f t="shared" si="0"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -19165,14 +19045,14 @@
         <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B16" s="117"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107">
+      <c r="H16" s="104"/>
+      <c r="I16" s="104">
         <f>SUM(C16:H16)</f>
         <v>0</v>
       </c>
@@ -19181,7 +19061,7 @@
       <c r="A17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="118" t="s">
+      <c r="B17" s="115" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="23">
@@ -19193,28 +19073,28 @@
         <v>0</v>
       </c>
       <c r="E17" s="23">
-        <f t="shared" ref="E17:H17" si="1">SUM(E8:E16)</f>
+        <f t="shared" ref="E17:H17" si="2">SUM(E8:E16)</f>
         <v>0</v>
       </c>
       <c r="F17" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G17" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H17" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="105">
         <f>SUM(C17:H17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="32">
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="113" t="s">
         <v>1747</v>
       </c>
       <c r="C18" s="14"/>
@@ -19222,11 +19102,11 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
     </row>
     <row r="19" spans="1:9" ht="16">
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="116" t="s">
         <v>1748</v>
       </c>
       <c r="H19" s="2"/>
@@ -19237,14 +19117,14 @@
         <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B20" s="117"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109">
+      <c r="H20" s="106"/>
+      <c r="I20" s="106">
         <f>SUM(C20:H20)</f>
         <v>0</v>
       </c>
@@ -19254,15 +19134,15 @@
         <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B21" s="117"/>
+      <c r="B21" s="114"/>
       <c r="C21" s="20"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="109">
-        <f t="shared" ref="I21:I24" si="2">SUM(C21:H21)</f>
+      <c r="H21" s="107"/>
+      <c r="I21" s="106">
+        <f t="shared" ref="I21:I24" si="3">SUM(C21:H21)</f>
         <v>0</v>
       </c>
     </row>
@@ -19271,15 +19151,15 @@
         <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B22" s="117"/>
+      <c r="B22" s="114"/>
       <c r="C22" s="19"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="109">
-        <f t="shared" si="2"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="106">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -19288,15 +19168,15 @@
         <f>IF(B23="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B23,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B23" s="117"/>
+      <c r="B23" s="114"/>
       <c r="C23" s="19"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="109">
-        <f t="shared" si="2"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="106">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -19305,15 +19185,15 @@
         <f>IF(B24="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B24,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B24" s="117"/>
+      <c r="B24" s="114"/>
       <c r="C24" s="19"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="109">
-        <f t="shared" si="2"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="106">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -19321,40 +19201,40 @@
       <c r="A25" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="104">
+      <c r="C25" s="101">
         <f>SUM(C20:C24)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="104">
-        <f t="shared" ref="D25:H25" si="3">SUM(D20:D24)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="111">
+      <c r="D25" s="101">
+        <f t="shared" ref="D25:H25" si="4">SUM(D20:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="108">
         <f>SUM(C25:H25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16">
-      <c r="B26" s="119" t="s">
+      <c r="B26" s="116" t="s">
         <v>1749</v>
       </c>
       <c r="H26" s="2"/>
@@ -19365,20 +19245,20 @@
         <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B27" s="117"/>
+      <c r="B27" s="114"/>
       <c r="C27" s="19"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
     </row>
     <row r="28" spans="1:9" ht="16">
       <c r="A28" s="8" t="s">
         <v>1751</v>
       </c>
-      <c r="B28" s="120" t="s">
+      <c r="B28" s="117" t="s">
         <v>46</v>
       </c>
       <c r="C28" s="17">
@@ -19390,19 +19270,19 @@
         <v>0</v>
       </c>
       <c r="E28" s="17">
-        <f t="shared" ref="E28:H28" si="4">SUM(E27)</f>
+        <f t="shared" ref="E28:H28" si="5">SUM(E27)</f>
         <v>0</v>
       </c>
       <c r="F28" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G28" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H28" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I28" s="17">
@@ -19411,7 +19291,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="16">
-      <c r="B29" s="119" t="s">
+      <c r="B29" s="116" t="s">
         <v>1750</v>
       </c>
       <c r="H29" s="2"/>
@@ -19422,15 +19302,15 @@
         <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B30" s="117"/>
+      <c r="B30" s="114"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109">
-        <f>SUM(C30:H30)</f>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106">
+        <f t="shared" ref="I30:I35" si="6">SUM(C30:H30)</f>
         <v>0</v>
       </c>
     </row>
@@ -19439,15 +19319,15 @@
         <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B31" s="117"/>
+      <c r="B31" s="114"/>
       <c r="C31" s="20"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110">
-        <f>SUM(C31:H31)</f>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -19456,15 +19336,15 @@
         <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B32" s="117"/>
+      <c r="B32" s="114"/>
       <c r="C32" s="19"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107">
-        <f>SUM(C32:H32)</f>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -19473,15 +19353,15 @@
         <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B33" s="117"/>
+      <c r="B33" s="114"/>
       <c r="C33" s="19"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107">
-        <f>SUM(C33:H33)</f>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -19490,15 +19370,15 @@
         <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B34" s="117"/>
+      <c r="B34" s="114"/>
       <c r="C34" s="19"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107">
-        <f>SUM(C34:H34)</f>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -19506,35 +19386,35 @@
       <c r="A35" s="8" t="s">
         <v>1751</v>
       </c>
-      <c r="B35" s="120" t="s">
+      <c r="B35" s="117" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="17">
-        <f>SUM(C30:C34)</f>
+        <f t="shared" ref="C35:H35" si="7">SUM(C30:C34)</f>
         <v>0</v>
       </c>
       <c r="D35" s="17">
-        <f>SUM(D30:D34)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E35" s="17">
-        <f>SUM(E30:E34)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F35" s="17">
-        <f>SUM(F30:F34)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G35" s="17">
-        <f>SUM(G30:G34)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="111">
-        <f>SUM(H30:H34)</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="111">
-        <f>SUM(C35:H35)</f>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="108">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="108">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -19542,7 +19422,7 @@
       <c r="A36" s="9" t="s">
         <v>1751</v>
       </c>
-      <c r="B36" s="118" t="s">
+      <c r="B36" s="115" t="s">
         <v>1752</v>
       </c>
       <c r="C36" s="23"/>
@@ -19550,118 +19430,53 @@
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="108"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D6:E7">
-    <cfRule type="expression" dxfId="38" priority="23" stopIfTrue="1">
-      <formula>D$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D16">
-    <cfRule type="expression" dxfId="37" priority="22" stopIfTrue="1">
-      <formula>D$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E16">
-    <cfRule type="expression" dxfId="36" priority="21" stopIfTrue="1">
-      <formula>E$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:G18">
-    <cfRule type="expression" dxfId="35" priority="20" stopIfTrue="1">
-      <formula>D$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D24">
-    <cfRule type="expression" dxfId="32" priority="18" stopIfTrue="1">
-      <formula>D$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E24">
-    <cfRule type="expression" dxfId="31" priority="17" stopIfTrue="1">
-      <formula>E$6=""</formula>
+  <conditionalFormatting sqref="C35:G35">
+    <cfRule type="expression" dxfId="23" priority="10" stopIfTrue="1">
+      <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:H25">
-    <cfRule type="expression" dxfId="30" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="16" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="29" priority="15" stopIfTrue="1">
-      <formula>D$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:G27">
-    <cfRule type="expression" dxfId="28" priority="14" stopIfTrue="1">
-      <formula>E$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D34">
-    <cfRule type="expression" dxfId="27" priority="13" stopIfTrue="1">
-      <formula>D$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E34">
-    <cfRule type="expression" dxfId="26" priority="12" stopIfTrue="1">
-      <formula>E$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C28:I28">
-    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
-      <formula>C$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35:G35">
-    <cfRule type="expression" dxfId="24" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="11" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="23" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="9" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F7">
-    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
-      <formula>F$6=""</formula>
+  <conditionalFormatting sqref="D6:G16">
+    <cfRule type="expression" dxfId="19" priority="3" stopIfTrue="1">
+      <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F16">
-    <cfRule type="expression" dxfId="21" priority="7" stopIfTrue="1">
-      <formula>F$6=""</formula>
+  <conditionalFormatting sqref="D18:G18">
+    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
+      <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F24">
-    <cfRule type="expression" dxfId="20" priority="6" stopIfTrue="1">
-      <formula>F$6=""</formula>
+  <conditionalFormatting sqref="D20:G24">
+    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
+      <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F34">
-    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
-      <formula>F$6=""</formula>
+  <conditionalFormatting sqref="D27:G27">
+    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
+      <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G7">
-    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
-      <formula>G$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G16">
-    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
-      <formula>G$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G24">
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
-      <formula>G$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:G34">
+  <conditionalFormatting sqref="D30:G34">
     <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
-      <formula>G$6=""</formula>
+      <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -21367,12 +21182,12 @@
     </row>
     <row r="25" spans="1:5" ht="15">
       <c r="A25" s="7"/>
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="103"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="121"/>
     </row>
     <row r="26" spans="1:5" ht="15">
       <c r="A26" s="8" t="str">

--- a/static/input_files/ACFR_template.xlsx
+++ b/static/input_files/ACFR_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byflow/Documents/Research/process-xbrl/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF7CA85-55E7-7740-A446-D1B9505F8085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C61D5B-432A-EC44-8BB8-338F754C0CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="760" windowWidth="15000" windowHeight="18880" tabRatio="834" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11720" yWindow="740" windowWidth="18520" windowHeight="18900" tabRatio="834" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="1756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="1755">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -5316,12 +5316,6 @@
     <t>Balance Sheet</t>
   </si>
   <si>
-    <t>Landscape Maintenance District</t>
-  </si>
-  <si>
-    <t>Successor Housing Agency</t>
-  </si>
-  <si>
     <t>LIABILITIES, DEFERRED INFLOWS OF RESOURCES AND FUND BALANCES</t>
   </si>
   <si>
@@ -5334,19 +5328,22 @@
     <t>Fund Balance:</t>
   </si>
   <si>
-    <t>acfr:</t>
-  </si>
-  <si>
     <t>Total Liabilities, Deferred Inflows of Resources and Fund Balances</t>
   </si>
   <si>
-    <t>American Rescue Plan Act</t>
-  </si>
-  <si>
-    <t>Capital Improvement Program</t>
-  </si>
-  <si>
-    <t>Other Governmental Funds</t>
+    <t>Total Fund Balances</t>
+  </si>
+  <si>
+    <t>acfr:LiabilitiesAndDeferredInflowsOfResourcesAndFundBalancesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>acfr:DeferredInflowsOfResourcesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>acfr:LiabilitiesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>acfr:AssetsModifiedAccrual</t>
   </si>
 </sst>
 </file>
@@ -5357,7 +5354,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5488,13 +5485,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -5512,7 +5502,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5588,12 +5578,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA6A6A6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF595959"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -5866,7 +5850,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6055,23 +6039,19 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="13" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="23" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="22" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="24" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="23" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="44" fontId="23" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="22" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="23" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="44" fontId="22" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="23" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="23" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="22" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -6112,13 +6092,26 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="23" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="44" fontId="23" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="44" fontId="23" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="44" fontId="23" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="23" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="23" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="34">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -6250,54 +6243,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -17041,18 +16986,18 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <conditionalFormatting sqref="C101:F101">
-    <cfRule type="cellIs" dxfId="39" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="18" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="20" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="20" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F101 C23 C37 C50 C65 C76:C77 C89 C101">
-    <cfRule type="expression" dxfId="36" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="2" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18722,62 +18667,62 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <conditionalFormatting sqref="C23 C37 C50 D53:G63 D74:H77 J74:J77">
-    <cfRule type="expression" dxfId="35" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="49" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:J64">
-    <cfRule type="expression" dxfId="34" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="34" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:J72">
-    <cfRule type="expression" dxfId="33" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="10" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F6 D52:F52">
-    <cfRule type="expression" dxfId="32" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="46" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:G51">
-    <cfRule type="expression" dxfId="31" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="6" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:J70">
-    <cfRule type="expression" dxfId="30" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="2" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H50">
-    <cfRule type="expression" dxfId="29" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:I38">
-    <cfRule type="expression" dxfId="28" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="43" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:J6 D7:I37 I39:I51">
-    <cfRule type="expression" dxfId="27" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="39" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:J63">
-    <cfRule type="expression" dxfId="26" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74:I99">
-    <cfRule type="expression" dxfId="25" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
       <formula>I$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J50">
-    <cfRule type="expression" dxfId="24" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
       <formula>J$6=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18799,23 +18744,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62560919-E4A0-3A4F-9164-3F35B35B852C}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="118" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="116" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
+    <row r="1" spans="1:10" ht="17">
       <c r="A1" s="45" t="s">
         <v>1074</v>
       </c>
-      <c r="B1" s="110" t="str">
+      <c r="B1" s="108" t="str">
         <f>_xlfn.CONCAT('Master Info'!C2, ", ", 'Master Info'!$C$3)</f>
         <v>City of Clayton, California</v>
       </c>
@@ -18823,7 +18768,7 @@
       <c r="D1" s="49"/>
       <c r="E1" s="49"/>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:10" ht="17">
       <c r="A2" s="46" t="s">
         <v>1105</v>
       </c>
@@ -18834,7 +18779,7 @@
       <c r="D2" s="49"/>
       <c r="E2" s="49"/>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:10" ht="17">
       <c r="A3" s="46" t="s">
         <v>1075</v>
       </c>
@@ -18845,11 +18790,11 @@
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
     </row>
-    <row r="4" spans="1:9" ht="17" thickBot="1">
+    <row r="4" spans="1:10" ht="17" thickBot="1">
       <c r="A4" s="48" t="s">
         <v>1076</v>
       </c>
-      <c r="B4" s="111">
+      <c r="B4" s="109">
         <f>'Master Info'!C4</f>
         <v>44742</v>
       </c>
@@ -18857,634 +18802,1061 @@
       <c r="D4" s="49"/>
       <c r="E4" s="49"/>
     </row>
-    <row r="5" spans="1:9" ht="16">
+    <row r="5" spans="1:10" ht="16">
       <c r="A5" s="56"/>
       <c r="B5" s="87"/>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
     </row>
-    <row r="6" spans="1:9" ht="48">
+    <row r="6" spans="1:10" ht="57">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="68" t="s">
         <v>1083</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>1745</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>1746</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>1753</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>1754</v>
-      </c>
-      <c r="H6" s="102" t="s">
-        <v>1755</v>
-      </c>
-      <c r="I6" s="102" t="s">
+      <c r="D6" s="70" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J6" s="120"/>
+    </row>
+    <row r="7" spans="1:10" ht="32">
+      <c r="B7" s="11"/>
+      <c r="C7" s="62" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H7" s="71" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I7" s="71" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J7" s="63" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16">
-      <c r="A7" s="7"/>
-      <c r="B7" s="113" t="s">
+    <row r="8" spans="1:10" ht="16">
+      <c r="A8" s="7"/>
+      <c r="B8" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-    </row>
-    <row r="8" spans="1:9" ht="15">
-      <c r="A8" s="8" t="str">
-        <f>IF(B8="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B8,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104">
-        <f t="shared" ref="I8:I13" si="0">SUM(C8:H8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+    </row>
+    <row r="9" spans="1:10" ht="15">
       <c r="A9" s="8" t="str">
         <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B9" s="114"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15">
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="124">
+        <f>SUM(C9:I9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="8" t="str">
         <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B10" s="114"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15">
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="124">
+        <f t="shared" ref="J10:J18" si="0">SUM(C10:I10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15">
       <c r="A11" s="8" t="str">
         <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B11" s="114"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="19"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104">
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="124">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:10" ht="15">
       <c r="A12" s="8" t="str">
         <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B12" s="114"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104">
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="124">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="8" t="str">
         <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B13" s="114"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="19"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104">
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="124">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="8" t="str">
         <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B14" s="114"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104">
-        <f t="shared" ref="I14:I15" si="1">SUM(C14:H14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="124">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15">
       <c r="A15" s="8" t="str">
         <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B15" s="114"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="19"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="124">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="8" t="str">
         <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B16" s="114"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104">
-        <f>SUM(C16:H16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16">
-      <c r="A17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="115" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="23">
-        <f>SUM(C8:C16)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="23">
-        <f>SUM(D8:D16)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="23">
-        <f t="shared" ref="E17:H17" si="2">SUM(E8:E16)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="105">
-        <f>SUM(C17:H17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="32">
-      <c r="B18" s="113" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="124">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15">
+      <c r="A17" s="8" t="str">
+        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B17" s="112"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="124">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15">
+      <c r="A18" s="8" t="str">
+        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B18" s="112"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="103"/>
       <c r="I18" s="103"/>
-    </row>
-    <row r="19" spans="1:9" ht="16">
-      <c r="B19" s="116" t="s">
-        <v>1748</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="15">
-      <c r="A20" s="8" t="str">
-        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106">
-        <f>SUM(C20:H20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15">
-      <c r="A21" s="8" t="str">
-        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="106">
-        <f t="shared" ref="I21:I24" si="3">SUM(C21:H21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15">
+      <c r="J18" s="124">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16">
+      <c r="A19" s="9" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B19" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="23">
+        <f>SUM(C9:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="23">
+        <f>SUM(D9:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="23">
+        <f t="shared" ref="E19:H19" si="1">SUM(E9:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="23">
+        <f t="shared" ref="I19" si="2">SUM(I9:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="121">
+        <f>SUM(C19:I19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="32">
+      <c r="B20" s="111" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+    </row>
+    <row r="21" spans="1:10" ht="16">
+      <c r="B21" s="114" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="15">
       <c r="A22" s="8" t="str">
         <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B22" s="114"/>
+      <c r="B22" s="112"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="122">
+        <f>SUM(C22:I22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15">
       <c r="A23" s="8" t="str">
         <f>IF(B23="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B23,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B23" s="114"/>
+      <c r="B23" s="112"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="122">
+        <f t="shared" ref="J23:J27" si="3">SUM(C23:I23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15">
       <c r="A24" s="8" t="str">
         <f>IF(B24="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B24,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B24" s="114"/>
+      <c r="B24" s="112"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="106">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="122">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16">
-      <c r="A25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="117" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="101">
-        <f>SUM(C20:C24)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="101">
-        <f t="shared" ref="D25:H25" si="4">SUM(D20:D24)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="101">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="101">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="101">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="101">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="108">
-        <f>SUM(C25:H25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16">
-      <c r="B26" s="116" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="25" spans="1:10" ht="15">
+      <c r="A25" s="8" t="str">
+        <f>IF(B25="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B25,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B25" s="112"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="122">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15">
+      <c r="A26" s="8" t="str">
+        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B26" s="112"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="122">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15">
       <c r="A27" s="8" t="str">
         <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B27" s="114"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-    </row>
-    <row r="28" spans="1:9" ht="16">
-      <c r="A28" s="8" t="s">
-        <v>1751</v>
-      </c>
-      <c r="B28" s="117" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="17">
-        <f>SUM(C27)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="17">
-        <f>SUM(D27)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="17">
-        <f t="shared" ref="E28:H28" si="5">SUM(E27)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="17">
-        <f>SUM(I27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16">
-      <c r="B29" s="116" t="s">
-        <v>1750</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" ht="15">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="122">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15">
+      <c r="A28" s="8" t="str">
+        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B28" s="112"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="122">
+        <f t="shared" ref="J28:J31" si="4">SUM(C28:I28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15">
+      <c r="A29" s="8" t="str">
+        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B29" s="112"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="122">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15">
       <c r="A30" s="8" t="str">
         <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B30" s="114"/>
+      <c r="B30" s="112"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106">
-        <f t="shared" ref="I30:I35" si="6">SUM(C30:H30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15">
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="122">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15">
       <c r="A31" s="8" t="str">
         <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B31" s="114"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15">
-      <c r="A32" s="8" t="str">
-        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B32" s="114"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15">
-      <c r="A33" s="8" t="str">
-        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B33" s="114"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15">
+      <c r="B31" s="112"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="122">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="16">
+      <c r="A32" s="8" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B32" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="101">
+        <f>SUM(C22:C31)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="101">
+        <f t="shared" ref="D32:H32" si="5">SUM(D22:D31)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="101">
+        <f t="shared" ref="I32" si="6">SUM(I22:I31)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="123">
+        <f>SUM(C32:I32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16">
+      <c r="B33" s="114" t="s">
+        <v>1747</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="15">
       <c r="A34" s="8" t="str">
         <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B34" s="114"/>
+      <c r="B34" s="112"/>
       <c r="C34" s="19"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="16">
-      <c r="A35" s="8" t="s">
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="126">
+        <f>SUM(C34:I34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15">
+      <c r="A35" s="8" t="str">
+        <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B35,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B35" s="112"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="126">
+        <f>SUM(C35:I35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15">
+      <c r="A36" s="8" t="str">
+        <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B36,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B36" s="112"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="126">
+        <f t="shared" ref="J36:J43" si="7">SUM(C36:I36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15">
+      <c r="A37" s="8" t="str">
+        <f>IF(B37="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B37,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B37" s="112"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="126">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15">
+      <c r="A38" s="8" t="str">
+        <f>IF(B38="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B38,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B38" s="112"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="126">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15">
+      <c r="A39" s="8" t="str">
+        <f>IF(B39="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B39,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B39" s="112"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="126">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15">
+      <c r="A40" s="8" t="str">
+        <f>IF(B40="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B40,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B40" s="112"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="126">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15">
+      <c r="A41" s="8" t="str">
+        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B41,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B41" s="112"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="126">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15">
+      <c r="A42" s="8" t="str">
+        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B42" s="112"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="126">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15">
+      <c r="A43" s="8" t="str">
+        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B43" s="112"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="126">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="16">
+      <c r="A44" s="8" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B44" s="115" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="101">
+        <f>SUM(C34:C43)</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="101">
+        <f>SUM(D34:D43)</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="101">
+        <f>SUM(E34:E43)</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="101">
+        <f>SUM(F34:F43)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="101">
+        <f>SUM(G34:G43)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="101">
+        <f>SUM(H34:H43)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="101">
+        <f>SUM(I34:I43)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="101">
+        <f>SUM(C44:I44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="16">
+      <c r="B45" s="114" t="s">
+        <v>1748</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" ht="15">
+      <c r="A46" s="8" t="str">
+        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B46" s="112"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="105"/>
+      <c r="J46" s="122">
+        <f>SUM(C46:I46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15">
+      <c r="A47" s="8" t="str">
+        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B47" s="112"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="106"/>
+      <c r="J47" s="122">
+        <f t="shared" ref="J47:J56" si="8">SUM(C47:I47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15">
+      <c r="A48" s="8" t="str">
+        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B48" s="112"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="122">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15">
+      <c r="A49" s="8" t="str">
+        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B49" s="112"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="122">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15">
+      <c r="A50" s="8" t="str">
+        <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B50" s="112"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="122">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15">
+      <c r="A51" s="8" t="str">
+        <f>IF(B51="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B51,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B51" s="112"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="122">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15">
+      <c r="A52" s="8" t="str">
+        <f>IF(B52="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B52,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B52" s="112"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="103"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="122">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15">
+      <c r="A53" s="8" t="str">
+        <f>IF(B53="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B53,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B53" s="112"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="103"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="122">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15">
+      <c r="A54" s="8" t="str">
+        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B54" s="112"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="103"/>
+      <c r="J54" s="122">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15">
+      <c r="A55" s="8" t="str">
+        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B55" s="112"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="103"/>
+      <c r="I55" s="103"/>
+      <c r="J55" s="122">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15">
+      <c r="A56" s="8" t="str">
+        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B56" s="112"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="103"/>
+      <c r="I56" s="103"/>
+      <c r="J56" s="122">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="16">
+      <c r="A57" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B57" s="115" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C57" s="101">
+        <f t="shared" ref="C57:H57" si="9">SUM(C46:C56)</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="101">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="101">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="101">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="101">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="125">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="125">
+        <f t="shared" ref="I57" si="10">SUM(I46:I56)</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="123">
+        <f>SUM(C57:I57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="32">
+      <c r="A58" s="9" t="s">
         <v>1751</v>
       </c>
-      <c r="B35" s="117" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="17">
-        <f t="shared" ref="C35:H35" si="7">SUM(C30:C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="108">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="108">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="32">
-      <c r="A36" s="9" t="s">
-        <v>1751</v>
-      </c>
-      <c r="B36" s="115" t="s">
-        <v>1752</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
+      <c r="B58" s="113" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="104"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C35:G35">
-    <cfRule type="expression" dxfId="23" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="C57:G57 D58 D8:G18 D20:G20 D22:G31 D34:G43 D46:G56 C32:I32 C44:I44">
+    <cfRule type="expression" dxfId="17" priority="51" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:H25">
-    <cfRule type="expression" dxfId="22" priority="16" stopIfTrue="1">
-      <formula>C$6=""</formula>
+  <conditionalFormatting sqref="D7:I7">
+    <cfRule type="expression" dxfId="16" priority="1" stopIfTrue="1">
+      <formula>D$7=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:I28">
-    <cfRule type="expression" dxfId="21" priority="11" stopIfTrue="1">
-      <formula>C$6=""</formula>
+  <conditionalFormatting sqref="J44">
+    <cfRule type="expression" dxfId="15" priority="53" stopIfTrue="1">
+      <formula>I$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="20" priority="9" stopIfTrue="1">
-      <formula>D$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:G16">
-    <cfRule type="expression" dxfId="19" priority="3" stopIfTrue="1">
-      <formula>D$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:G18">
-    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
-      <formula>D$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:G24">
-    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
-      <formula>D$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:G27">
-    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
-      <formula>D$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30:G34">
-    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
-      <formula>D$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B16 B27" xr:uid="{C05164A8-FCB4-D447-A641-AF82C1FC0132}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B18 B34:B43" xr:uid="{C05164A8-FCB4-D447-A641-AF82C1FC0132}">
       <formula1>current_assets</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:B24 B30:B34" xr:uid="{E7758463-A14F-B541-9130-AEC634E9AF3C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:B31 B46:B56" xr:uid="{E7758463-A14F-B541-9130-AEC634E9AF3C}">
       <formula1>current_liabilities</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:J6" xr:uid="{B34980F1-F3F1-3843-BC5A-2A296C0C0599}">
+      <formula1>"Select fund type or delete column, General Fund, Special Revenue Fund, Capital Project, Debt Service, Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{F6E02613-D880-4D46-8748-5B833C7CAEEC}">
+      <formula1>"General Fund, Special Revenue Fund, Capital Project, Debt Service, Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19498,8 +19870,8 @@
   </sheetPr>
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView topLeftCell="A25" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -19916,7 +20288,7 @@
         <v>1086</v>
       </c>
       <c r="C23" s="26">
-        <f t="shared" ref="C23:J23" si="1">IF(C7="","",SUM(C9:C22))</f>
+        <f t="shared" ref="C23:I23" si="1">IF(C7="","",SUM(C9:C22))</f>
         <v>0</v>
       </c>
       <c r="D23" s="26">
@@ -19944,7 +20316,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="26">
-        <f t="shared" si="1"/>
+        <f>IF(J7="","",SUM(J9:J22))</f>
         <v>0</v>
       </c>
     </row>
@@ -21182,12 +21554,12 @@
     </row>
     <row r="25" spans="1:5" ht="15">
       <c r="A25" s="7"/>
-      <c r="B25" s="119" t="s">
+      <c r="B25" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="121"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="119"/>
     </row>
     <row r="26" spans="1:5" ht="15">
       <c r="A26" s="8" t="str">

--- a/static/input_files/ACFR_template.xlsx
+++ b/static/input_files/ACFR_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byflow/Documents/Research/process-xbrl/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C61D5B-432A-EC44-8BB8-338F754C0CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB8607D-4C2E-F541-9C2C-40FA22542E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11720" yWindow="740" windowWidth="18520" windowHeight="18900" tabRatio="834" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" tabRatio="834" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -19,12 +19,13 @@
     <sheet name="Statement of Net Position" sheetId="9" r:id="rId4"/>
     <sheet name="Statement of Activities" sheetId="19" r:id="rId5"/>
     <sheet name="GovFund Balance Sheet" sheetId="22" r:id="rId6"/>
-    <sheet name="GovFund Stmt of Rev Exp and Chg" sheetId="15" r:id="rId7"/>
-    <sheet name="Prop Fund Stmt of Net Position" sheetId="11" state="hidden" r:id="rId8"/>
-    <sheet name="Prop Fund Stmt of Rev Exp Bal" sheetId="12" state="hidden" r:id="rId9"/>
+    <sheet name="Reconciliation Table" sheetId="23" r:id="rId7"/>
+    <sheet name="GovFund Stmt of Rev Exp and Chg" sheetId="15" r:id="rId8"/>
+    <sheet name="Prop Fund Stmt of Net Position" sheetId="11" state="hidden" r:id="rId9"/>
+    <sheet name="Prop Fund Stmt of Rev Exp Bal" sheetId="12" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'GovFund Stmt of Rev Exp and Chg'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'GovFund Stmt of Rev Exp and Chg'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Label Dropdowns'!$A$1:$C$522</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Statement of Activities'!$B$25:$B$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Statement of Net Position'!$B$25:$B$36</definedName>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="1755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="1772">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -5344,6 +5345,59 @@
   </si>
   <si>
     <t>acfr:AssetsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>Reconciliation of Governmental Funds Balance Sheet to the Statement of Net Position</t>
+  </si>
+  <si>
+    <t>CAPITAL ASSETS</t>
+  </si>
+  <si>
+    <t>Non-depreciable capital assets</t>
+  </si>
+  <si>
+    <t>Depreciable capital assets</t>
+  </si>
+  <si>
+    <t>ACCRUAL OF NON-CURRENT REVENEUS AND EXPENSES</t>
+  </si>
+  <si>
+    <t>Net OPEB liability not reported on the Governmental Funds Balance Sheet</t>
+  </si>
+  <si>
+    <t>Compensated absences payable</t>
+  </si>
+  <si>
+    <t>Lease liability not reported on the Governmental Funds Balance Sheet</t>
+  </si>
+  <si>
+    <t>Net pension liability not reported on the Governmental Funds Balance Sheet</t>
+  </si>
+  <si>
+    <t>DEFERRED INFLOWS AND OUTFLOWS</t>
+  </si>
+  <si>
+    <t>Deferred outflows of resources for net pension liability</t>
+  </si>
+  <si>
+    <t>Deferred inflows of resources for net pension liability</t>
+  </si>
+  <si>
+    <t>Deferred outflows of resources for net OPEB liability</t>
+  </si>
+  <si>
+    <t>Deferred inflows of resources for net OPEB liability</t>
+  </si>
+  <si>
+    <t>ALLOCATION OF INTERNAL SERVICE FUND NET POSITION</t>
+  </si>
+  <si>
+    <t>Internal service funds are used by management to charge the costs of certain activities to
+individual funds. The assets and liabilities of the internal service funds are included in the
+governmental activities in the Government-wide Statement of Net Position.</t>
+  </si>
+  <si>
+    <t>Net Position of Governmental Activities</t>
   </si>
 </sst>
 </file>
@@ -12475,6 +12529,1364 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A27AB5-4C32-7545-9FCB-B1E2421FAC8B}">
+  <dimension ref="A1:E101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="35.1640625" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16">
+      <c r="A1" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+    </row>
+    <row r="2" spans="1:5" ht="16">
+      <c r="A2" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" ht="34" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+    </row>
+    <row r="4" spans="1:5" ht="16">
+      <c r="A4" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="1:5" ht="32">
+      <c r="A6" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="13" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="8" t="str">
+        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="17">
+        <f>SUM(C9:D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="8" t="str">
+        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="17">
+        <f t="shared" ref="E10:E22" si="0">SUM(C10:D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="8" t="str">
+        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="8" t="str">
+        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="8" t="str">
+        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="8" t="str">
+        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="8" t="str">
+        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="8" t="str">
+        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" s="8" t="str">
+        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15">
+      <c r="A18" s="8" t="str">
+        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15">
+      <c r="A19" s="8" t="str">
+        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" s="8" t="str">
+        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15">
+      <c r="A21" s="8" t="str">
+        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15">
+      <c r="A22" s="8" t="str">
+        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C23" s="17" cm="1">
+        <f t="array" aca="1" ref="C23" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="17" cm="1">
+        <f t="array" aca="1" ref="D23" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <f ca="1">SUM(C23:D23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="13" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" ht="15">
+      <c r="A25" s="8" t="str">
+        <f>IF(B25="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B25,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="17">
+        <f t="shared" ref="E25:E38" si="1">SUM(C25:D25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15">
+      <c r="A26" s="8" t="str">
+        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15">
+      <c r="A27" s="8" t="str">
+        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15">
+      <c r="A28" s="8" t="str">
+        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15">
+      <c r="A29" s="8" t="str">
+        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15">
+      <c r="A30" s="8" t="str">
+        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15">
+      <c r="A31" s="8" t="str">
+        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15">
+      <c r="A32" s="8" t="str">
+        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15">
+      <c r="A33" s="8" t="str">
+        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15">
+      <c r="A34" s="8" t="str">
+        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15">
+      <c r="A35" s="8" t="str">
+        <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B35,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15">
+      <c r="A36" s="8" t="str">
+        <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B36,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15">
+      <c r="A37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="17" cm="1">
+        <f t="array" aca="1" ref="C37" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="17" cm="1">
+        <f t="array" aca="1" ref="D37" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15">
+      <c r="A38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="23" t="e">
+        <f>SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,C:C)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D38" s="23" t="e">
+        <f>SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,D:D),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,D:D)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E38" s="23" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="1:5" ht="15">
+      <c r="A40" s="7"/>
+      <c r="B40" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:5" ht="15">
+      <c r="A41" s="8" t="str">
+        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B41,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="17">
+        <f t="shared" ref="E41:E50" si="2">SUM(C41:D41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15">
+      <c r="A42" s="8" t="str">
+        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15">
+      <c r="A43" s="8" t="str">
+        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15">
+      <c r="A44" s="8" t="str">
+        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15">
+      <c r="A45" s="8" t="str">
+        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15">
+      <c r="A46" s="8" t="str">
+        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15">
+      <c r="A47" s="8" t="str">
+        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15">
+      <c r="A48" s="8" t="str">
+        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15">
+      <c r="A49" s="8" t="str">
+        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15">
+      <c r="A50" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="25" cm="1">
+        <f t="array" aca="1" ref="C50" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED OUTFLOW OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="25" cm="1">
+        <f t="array" aca="1" ref="D50" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED OUTFLOW OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="26">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="24"/>
+    </row>
+    <row r="52" spans="1:5" ht="15">
+      <c r="A52" s="7"/>
+      <c r="B52" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="1:5" ht="15">
+      <c r="A53" s="7"/>
+      <c r="B53" s="15" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+    </row>
+    <row r="54" spans="1:5" ht="15">
+      <c r="A54" s="8" t="str">
+        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="17">
+        <f t="shared" ref="E54:E77" si="3">SUM(C54:D54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15">
+      <c r="A55" s="8" t="str">
+        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15">
+      <c r="A56" s="8" t="str">
+        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15">
+      <c r="A57" s="8" t="str">
+        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15">
+      <c r="A58" s="8" t="str">
+        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15">
+      <c r="A59" s="8" t="str">
+        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15">
+      <c r="A60" s="8" t="str">
+        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15">
+      <c r="A61" s="8" t="str">
+        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15">
+      <c r="A62" s="8" t="str">
+        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15">
+      <c r="A63" s="8" t="str">
+        <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15">
+      <c r="A64" s="8" t="str">
+        <f>IF(B64="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B64,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15">
+      <c r="A65" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="17" cm="1">
+        <f t="array" aca="1" ref="C65" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="17" cm="1">
+        <f t="array" aca="1" ref="D65" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="17">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15">
+      <c r="A66" s="7"/>
+      <c r="B66" s="15" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+    </row>
+    <row r="67" spans="1:5" ht="15">
+      <c r="A67" s="8" t="str">
+        <f>IF(B67="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B67,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15">
+      <c r="A68" s="8" t="str">
+        <f>IF(B68="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B68,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15">
+      <c r="A69" s="8" t="str">
+        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15">
+      <c r="A70" s="8" t="str">
+        <f>IF(B70="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B70,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15">
+      <c r="A71" s="8" t="str">
+        <f>IF(B71="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B71,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15">
+      <c r="A72" s="8" t="str">
+        <f>IF(B72="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B72,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15">
+      <c r="A73" s="8" t="str">
+        <f>IF(B73="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B73,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15">
+      <c r="A74" s="8" t="str">
+        <f>IF(B74="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B74,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B74" s="18"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15">
+      <c r="A75" s="8" t="str">
+        <f>IF(B75="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B75,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B75" s="18"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15">
+      <c r="A76" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="17" cm="1">
+        <f t="array" aca="1" ref="C76" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="17" cm="1">
+        <f t="array" aca="1" ref="D76" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="17">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15">
+      <c r="A77" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="23">
+        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,C:C)))</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="23">
+        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,D:D),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,D:D)))</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+    </row>
+    <row r="79" spans="1:5" ht="15">
+      <c r="A79" s="7"/>
+      <c r="B79" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+    </row>
+    <row r="80" spans="1:5" ht="15">
+      <c r="A80" s="8" t="str">
+        <f>IF(B80="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B80,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="28">
+        <f t="shared" ref="E80:E89" si="4">SUM(C80:D80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15">
+      <c r="A81" s="8" t="str">
+        <f>IF(B81="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B81,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B81" s="18"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15">
+      <c r="A82" s="8" t="str">
+        <f>IF(B82="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B82,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B82" s="18"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15">
+      <c r="A83" s="8" t="str">
+        <f>IF(B83="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B83,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B83" s="18"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15">
+      <c r="A84" s="8" t="str">
+        <f>IF(B84="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B84,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B84" s="18"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15">
+      <c r="A85" s="8" t="str">
+        <f>IF(B85="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B85,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B85" s="18"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15">
+      <c r="A86" s="8" t="str">
+        <f>IF(B86="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B86,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B86" s="18"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15">
+      <c r="A87" s="8" t="str">
+        <f>IF(B87="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B87,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B87" s="18"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15">
+      <c r="A88" s="8" t="str">
+        <f>IF(B88="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B88,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B88" s="18"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15">
+      <c r="A89" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="26" cm="1">
+        <f t="array" aca="1" ref="C89" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED INFLOWS OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="26" cm="1">
+        <f t="array" aca="1" ref="D89" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED INFLOWS OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="26">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15">
+      <c r="A90" s="7"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+    </row>
+    <row r="91" spans="1:5" ht="15">
+      <c r="A91" s="7"/>
+      <c r="B91" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+    </row>
+    <row r="92" spans="1:5" ht="15">
+      <c r="A92" s="8" t="str">
+        <f>IF(B92="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B92,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B92" s="18"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="17">
+        <f t="shared" ref="E92:E100" si="5">SUM(C92:D92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15">
+      <c r="A93" s="8" t="str">
+        <f>IF(B93="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B93,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B93" s="18"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15">
+      <c r="A94" s="8" t="str">
+        <f>IF(B94="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B94,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B94" s="18"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15">
+      <c r="A95" s="8" t="str">
+        <f>IF(B95="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B95,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B95" s="18"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15">
+      <c r="A96" s="8" t="str">
+        <f>IF(B96="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B96,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B96" s="18"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15">
+      <c r="A97" s="8" t="str">
+        <f>IF(B97="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B97,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B97" s="18"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15">
+      <c r="A98" s="8" t="str">
+        <f>IF(B98="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B98,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B98" s="18"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15">
+      <c r="A99" s="8" t="str">
+        <f>IF(B99="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B99,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B99" s="18"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15">
+      <c r="A100" s="8" t="str">
+        <f>IF(B100="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B100,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B100" s="18"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15">
+      <c r="A101" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" s="23" cm="1">
+        <f t="array" aca="1" ref="C101" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D101" s="23" cm="1">
+        <f t="array" aca="1" ref="D101" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="23" cm="1">
+        <f t="array" aca="1" ref="E101" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C101">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+      <formula>$C$101</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="notEqual">
+      <formula>$C$101</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C101:E101">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D101">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
+      <formula>$D$101</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="notEqual">
+      <formula>$D$101</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="notEqual">
+      <formula>$E$101</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+      <formula>$E$101</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41:B49" xr:uid="{9BC0AF47-8E6A-144C-B8AC-ED095E97A81D}">
+      <formula1>deferred_outflows</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54:B64" xr:uid="{5C058698-9073-DC49-8BB5-F4FB5112E246}">
+      <formula1>current_liabilities</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67:B75" xr:uid="{3F616EBA-A90E-4541-9183-0F01CFC3F5F8}">
+      <formula1>noncurrent_liabilities</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B88" xr:uid="{EBEC4932-F8CB-1846-89BE-0CC169CA7F33}">
+      <formula1>deferred_inflows</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92:B100" xr:uid="{8A04D23E-8118-1A4B-8A84-8F6AD5B16721}">
+      <formula1>net_position</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B36" xr:uid="{FA5EF3AC-325A-BC4B-874B-CA2CF2946D73}">
+      <formula1>noncurrent_assets</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B22" xr:uid="{5C4A5840-DD0A-C841-8FFC-758CD4B37D08}">
+      <formula1>current_assets</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF490C29-31E1-3E46-B6B7-83D944E71A74}">
   <dimension ref="A1:H218"/>
@@ -15539,7 +16951,7 @@
   </sheetPr>
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -18746,8 +20158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62560919-E4A0-3A4F-9164-3F35B35B852C}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -19864,6 +21276,153 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAF299C-3D3B-8F47-AA92-8FD95A662E81}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="34">
+      <c r="A1" s="45" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B1" s="108" t="str">
+        <f>_xlfn.CONCAT('Master Info'!C2, ", ", 'Master Info'!$C$3)</f>
+        <v>City of Clayton, California</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
+      <c r="A2" s="46" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="85">
+      <c r="A3" s="46" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17" thickBot="1">
+      <c r="A4" s="48" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B4" s="109">
+        <f>'Master Info'!C4</f>
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="110"/>
+    </row>
+    <row r="7" spans="1:2" ht="16">
+      <c r="A7" s="111" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B7" s="111"/>
+    </row>
+    <row r="8" spans="1:2" ht="34">
+      <c r="A8" s="61" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="34">
+      <c r="A9" s="61" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="48">
+      <c r="A10" s="111" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B10" s="111"/>
+    </row>
+    <row r="11" spans="1:2" ht="68">
+      <c r="A11" s="61" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="34">
+      <c r="A12" s="61" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="68">
+      <c r="A13" s="61" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="68">
+      <c r="A14" s="61" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="32">
+      <c r="A15" s="111" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B15" s="111"/>
+    </row>
+    <row r="16" spans="1:2" ht="51">
+      <c r="A16" s="61" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="51">
+      <c r="A17" s="61" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="51">
+      <c r="A18" s="61" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="51">
+      <c r="A19" s="61" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="48">
+      <c r="A20" s="111" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B20" s="111"/>
+    </row>
+    <row r="21" spans="1:2" ht="221">
+      <c r="A21" s="61" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="32">
+      <c r="A22" s="111" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B22">
+        <f>SUM(B21, B16:B19, B11:B14, B8:B9)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A741F4-D4C9-9A45-AFFB-14EF6B58F69B}">
   <sheetPr>
     <tabColor theme="6"/>
@@ -21258,7 +22817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788A9A8B-CD70-4E43-B731-FB7C17794303}">
   <dimension ref="A1:E102"/>
   <sheetViews>
@@ -22629,1362 +24188,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A27AB5-4C32-7545-9FCB-B1E2421FAC8B}">
-  <dimension ref="A1:E101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="35.1640625" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16">
-      <c r="A1" s="4" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-    </row>
-    <row r="2" spans="1:5" ht="16">
-      <c r="A2" s="4" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-    </row>
-    <row r="3" spans="1:5" ht="34" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-    </row>
-    <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="5" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-    </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="37"/>
-    </row>
-    <row r="6" spans="1:5" ht="32">
-      <c r="A6" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="13" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="8" t="str">
-        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="17">
-        <f>SUM(C9:D9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="8" t="str">
-        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="17">
-        <f t="shared" ref="E10:E22" si="0">SUM(C10:D10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="8" t="str">
-        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15">
-      <c r="A12" s="8" t="str">
-        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15">
-      <c r="A13" s="8" t="str">
-        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15">
-      <c r="A14" s="8" t="str">
-        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15">
-      <c r="A15" s="8" t="str">
-        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15">
-      <c r="A16" s="8" t="str">
-        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15">
-      <c r="A17" s="8" t="str">
-        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15">
-      <c r="A18" s="8" t="str">
-        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15">
-      <c r="A19" s="8" t="str">
-        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15">
-      <c r="A20" s="8" t="str">
-        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15">
-      <c r="A21" s="8" t="str">
-        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15">
-      <c r="A22" s="8" t="str">
-        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C23" s="17" cm="1">
-        <f t="array" aca="1" ref="C23" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="17" cm="1">
-        <f t="array" aca="1" ref="D23" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="17">
-        <f ca="1">SUM(C23:D23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="13" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" ht="15">
-      <c r="A25" s="8" t="str">
-        <f>IF(B25="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B25,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="17">
-        <f t="shared" ref="E25:E38" si="1">SUM(C25:D25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15">
-      <c r="A26" s="8" t="str">
-        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15">
-      <c r="A27" s="8" t="str">
-        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15">
-      <c r="A28" s="8" t="str">
-        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15">
-      <c r="A29" s="8" t="str">
-        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15">
-      <c r="A30" s="8" t="str">
-        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15">
-      <c r="A31" s="8" t="str">
-        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15">
-      <c r="A32" s="8" t="str">
-        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15">
-      <c r="A33" s="8" t="str">
-        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15">
-      <c r="A34" s="8" t="str">
-        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15">
-      <c r="A35" s="8" t="str">
-        <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B35,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15">
-      <c r="A36" s="8" t="str">
-        <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B36,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15">
-      <c r="A37" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="17" cm="1">
-        <f t="array" aca="1" ref="C37" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="17" cm="1">
-        <f t="array" aca="1" ref="D37" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15">
-      <c r="A38" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="23" t="e">
-        <f>SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,C:C)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D38" s="23" t="e">
-        <f>SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,D:D),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,D:D)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E38" s="23" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-    </row>
-    <row r="40" spans="1:5" ht="15">
-      <c r="A40" s="7"/>
-      <c r="B40" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="1:5" ht="15">
-      <c r="A41" s="8" t="str">
-        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B41,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="17">
-        <f t="shared" ref="E41:E50" si="2">SUM(C41:D41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15">
-      <c r="A42" s="8" t="str">
-        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15">
-      <c r="A43" s="8" t="str">
-        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15">
-      <c r="A44" s="8" t="str">
-        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15">
-      <c r="A45" s="8" t="str">
-        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15">
-      <c r="A46" s="8" t="str">
-        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15">
-      <c r="A47" s="8" t="str">
-        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15">
-      <c r="A48" s="8" t="str">
-        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15">
-      <c r="A49" s="8" t="str">
-        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15">
-      <c r="A50" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="25" cm="1">
-        <f t="array" aca="1" ref="C50" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED OUTFLOW OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="25" cm="1">
-        <f t="array" aca="1" ref="D50" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED OUTFLOW OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="26">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="24"/>
-    </row>
-    <row r="52" spans="1:5" ht="15">
-      <c r="A52" s="7"/>
-      <c r="B52" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-    </row>
-    <row r="53" spans="1:5" ht="15">
-      <c r="A53" s="7"/>
-      <c r="B53" s="15" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-    </row>
-    <row r="54" spans="1:5" ht="15">
-      <c r="A54" s="8" t="str">
-        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="17">
-        <f t="shared" ref="E54:E77" si="3">SUM(C54:D54)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15">
-      <c r="A55" s="8" t="str">
-        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15">
-      <c r="A56" s="8" t="str">
-        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15">
-      <c r="A57" s="8" t="str">
-        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15">
-      <c r="A58" s="8" t="str">
-        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15">
-      <c r="A59" s="8" t="str">
-        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15">
-      <c r="A60" s="8" t="str">
-        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B60" s="18"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15">
-      <c r="A61" s="8" t="str">
-        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15">
-      <c r="A62" s="8" t="str">
-        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15">
-      <c r="A63" s="8" t="str">
-        <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15">
-      <c r="A64" s="8" t="str">
-        <f>IF(B64="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B64,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15">
-      <c r="A65" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="17" cm="1">
-        <f t="array" aca="1" ref="C65" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="17" cm="1">
-        <f t="array" aca="1" ref="D65" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="17">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15">
-      <c r="A66" s="7"/>
-      <c r="B66" s="15" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-    </row>
-    <row r="67" spans="1:5" ht="15">
-      <c r="A67" s="8" t="str">
-        <f>IF(B67="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B67,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B67" s="18"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15">
-      <c r="A68" s="8" t="str">
-        <f>IF(B68="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B68,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15">
-      <c r="A69" s="8" t="str">
-        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B69" s="18"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15">
-      <c r="A70" s="8" t="str">
-        <f>IF(B70="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B70,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15">
-      <c r="A71" s="8" t="str">
-        <f>IF(B71="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B71,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15">
-      <c r="A72" s="8" t="str">
-        <f>IF(B72="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B72,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15">
-      <c r="A73" s="8" t="str">
-        <f>IF(B73="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B73,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15">
-      <c r="A74" s="8" t="str">
-        <f>IF(B74="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B74,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15">
-      <c r="A75" s="8" t="str">
-        <f>IF(B75="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B75,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15">
-      <c r="A76" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="17" cm="1">
-        <f t="array" aca="1" ref="C76" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="D76" s="17" cm="1">
-        <f t="array" aca="1" ref="D76" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="E76" s="17">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15">
-      <c r="A77" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C77" s="23">
-        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,C:C)))</f>
-        <v>0</v>
-      </c>
-      <c r="D77" s="23">
-        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,D:D),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,D:D)))</f>
-        <v>0</v>
-      </c>
-      <c r="E77" s="23">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-    </row>
-    <row r="79" spans="1:5" ht="15">
-      <c r="A79" s="7"/>
-      <c r="B79" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-    </row>
-    <row r="80" spans="1:5" ht="15">
-      <c r="A80" s="8" t="str">
-        <f>IF(B80="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B80,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="28">
-        <f t="shared" ref="E80:E89" si="4">SUM(C80:D80)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15">
-      <c r="A81" s="8" t="str">
-        <f>IF(B81="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B81,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15">
-      <c r="A82" s="8" t="str">
-        <f>IF(B82="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B82,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15">
-      <c r="A83" s="8" t="str">
-        <f>IF(B83="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B83,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15">
-      <c r="A84" s="8" t="str">
-        <f>IF(B84="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B84,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15">
-      <c r="A85" s="8" t="str">
-        <f>IF(B85="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B85,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B85" s="18"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15">
-      <c r="A86" s="8" t="str">
-        <f>IF(B86="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B86,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B86" s="18"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15">
-      <c r="A87" s="8" t="str">
-        <f>IF(B87="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B87,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B87" s="18"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15">
-      <c r="A88" s="8" t="str">
-        <f>IF(B88="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B88,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B88" s="18"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15">
-      <c r="A89" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C89" s="26" cm="1">
-        <f t="array" aca="1" ref="C89" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED INFLOWS OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="D89" s="26" cm="1">
-        <f t="array" aca="1" ref="D89" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED INFLOWS OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="E89" s="26">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15">
-      <c r="A90" s="7"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-    </row>
-    <row r="91" spans="1:5" ht="15">
-      <c r="A91" s="7"/>
-      <c r="B91" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-    </row>
-    <row r="92" spans="1:5" ht="15">
-      <c r="A92" s="8" t="str">
-        <f>IF(B92="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B92,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B92" s="18"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="17">
-        <f t="shared" ref="E92:E100" si="5">SUM(C92:D92)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15">
-      <c r="A93" s="8" t="str">
-        <f>IF(B93="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B93,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B93" s="18"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="15">
-      <c r="A94" s="8" t="str">
-        <f>IF(B94="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B94,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B94" s="18"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="15">
-      <c r="A95" s="8" t="str">
-        <f>IF(B95="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B95,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B95" s="18"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15">
-      <c r="A96" s="8" t="str">
-        <f>IF(B96="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B96,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B96" s="18"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15">
-      <c r="A97" s="8" t="str">
-        <f>IF(B97="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B97,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B97" s="18"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15">
-      <c r="A98" s="8" t="str">
-        <f>IF(B98="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B98,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B98" s="18"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15">
-      <c r="A99" s="8" t="str">
-        <f>IF(B99="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B99,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B99" s="18"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15">
-      <c r="A100" s="8" t="str">
-        <f>IF(B100="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B100,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B100" s="18"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15">
-      <c r="A101" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C101" s="23" cm="1">
-        <f t="array" aca="1" ref="C101" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="D101" s="23" cm="1">
-        <f t="array" aca="1" ref="D101" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="E101" s="23" cm="1">
-        <f t="array" aca="1" ref="E101" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C101">
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
-      <formula>$C$101</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="notEqual">
-      <formula>$C$101</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C101:E101">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D101">
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
-      <formula>$D$101</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="notEqual">
-      <formula>$D$101</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="notEqual">
-      <formula>$E$101</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
-      <formula>$E$101</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41:B49" xr:uid="{9BC0AF47-8E6A-144C-B8AC-ED095E97A81D}">
-      <formula1>deferred_outflows</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54:B64" xr:uid="{5C058698-9073-DC49-8BB5-F4FB5112E246}">
-      <formula1>current_liabilities</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67:B75" xr:uid="{3F616EBA-A90E-4541-9183-0F01CFC3F5F8}">
-      <formula1>noncurrent_liabilities</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B88" xr:uid="{EBEC4932-F8CB-1846-89BE-0CC169CA7F33}">
-      <formula1>deferred_inflows</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92:B100" xr:uid="{8A04D23E-8118-1A4B-8A84-8F6AD5B16721}">
-      <formula1>net_position</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B36" xr:uid="{FA5EF3AC-325A-BC4B-874B-CA2CF2946D73}">
-      <formula1>noncurrent_assets</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B22" xr:uid="{5C4A5840-DD0A-C841-8FFC-758CD4B37D08}">
-      <formula1>current_assets</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/static/input_files/ACFR_template.xlsx
+++ b/static/input_files/ACFR_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byflow/Documents/Research/process-xbrl/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB8607D-4C2E-F541-9C2C-40FA22542E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E77C92A-9CCE-E849-9CC9-142D71CB248F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" tabRatio="834" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19400" yWindow="0" windowWidth="19000" windowHeight="21600" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="1772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="1764">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -5353,51 +5353,25 @@
     <t>CAPITAL ASSETS</t>
   </si>
   <si>
-    <t>Non-depreciable capital assets</t>
-  </si>
-  <si>
-    <t>Depreciable capital assets</t>
-  </si>
-  <si>
     <t>ACCRUAL OF NON-CURRENT REVENEUS AND EXPENSES</t>
   </si>
   <si>
-    <t>Net OPEB liability not reported on the Governmental Funds Balance Sheet</t>
-  </si>
-  <si>
-    <t>Compensated absences payable</t>
-  </si>
-  <si>
-    <t>Lease liability not reported on the Governmental Funds Balance Sheet</t>
-  </si>
-  <si>
-    <t>Net pension liability not reported on the Governmental Funds Balance Sheet</t>
-  </si>
-  <si>
     <t>DEFERRED INFLOWS AND OUTFLOWS</t>
   </si>
   <si>
-    <t>Deferred outflows of resources for net pension liability</t>
-  </si>
-  <si>
-    <t>Deferred inflows of resources for net pension liability</t>
-  </si>
-  <si>
-    <t>Deferred outflows of resources for net OPEB liability</t>
-  </si>
-  <si>
-    <t>Deferred inflows of resources for net OPEB liability</t>
-  </si>
-  <si>
     <t>ALLOCATION OF INTERNAL SERVICE FUND NET POSITION</t>
   </si>
   <si>
-    <t>Internal service funds are used by management to charge the costs of certain activities to
-individual funds. The assets and liabilities of the internal service funds are included in the
-governmental activities in the Government-wide Statement of Net Position.</t>
-  </si>
-  <si>
     <t>Net Position of Governmental Activities</t>
+  </si>
+  <si>
+    <t>Fund balances for governmental funds</t>
+  </si>
+  <si>
+    <t>acfr:AccountsReceivableModifiedAccrual</t>
+  </si>
+  <si>
+    <t>XBRL Modified Label</t>
   </si>
 </sst>
 </file>
@@ -5904,7 +5878,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6137,6 +6111,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="23" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="23" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="23" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="23" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6145,19 +6130,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="23" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="44" fontId="23" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="44" fontId="23" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="44" fontId="23" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="23" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="23" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6764,10 +6736,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE09D81-CE0E-407C-B6C2-C3432BAC9950}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C522"/>
+  <dimension ref="A1:D522"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -6777,7 +6749,7 @@
     <col min="3" max="3" width="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -6787,19 +6759,25 @@
       <c r="C1" s="1" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>314</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="2" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -6810,7 +6788,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -6821,7 +6799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -6832,7 +6810,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -6843,7 +6821,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -6854,7 +6832,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -6865,7 +6843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -6876,7 +6854,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -6887,7 +6865,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -6898,7 +6876,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -6909,7 +6887,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -6920,7 +6898,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -6931,7 +6909,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -6942,7 +6920,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -12520,7 +12498,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C522">
     <sortCondition ref="A2:A522"/>
     <sortCondition ref="B2:B522"/>
@@ -16951,7 +16928,7 @@
   </sheetPr>
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -20158,8 +20135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62560919-E4A0-3A4F-9164-3F35B35B852C}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -20247,7 +20224,7 @@
       <c r="I6" s="70" t="s">
         <v>1115</v>
       </c>
-      <c r="J6" s="120"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="1:10" ht="32">
       <c r="B7" s="11"/>
@@ -20303,7 +20280,7 @@
       <c r="G9" s="20"/>
       <c r="H9" s="103"/>
       <c r="I9" s="103"/>
-      <c r="J9" s="124">
+      <c r="J9" s="120">
         <f>SUM(C9:I9)</f>
         <v>0</v>
       </c>
@@ -20321,7 +20298,7 @@
       <c r="G10" s="20"/>
       <c r="H10" s="103"/>
       <c r="I10" s="103"/>
-      <c r="J10" s="124">
+      <c r="J10" s="120">
         <f t="shared" ref="J10:J18" si="0">SUM(C10:I10)</f>
         <v>0</v>
       </c>
@@ -20339,7 +20316,7 @@
       <c r="G11" s="20"/>
       <c r="H11" s="103"/>
       <c r="I11" s="103"/>
-      <c r="J11" s="124">
+      <c r="J11" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20357,7 +20334,7 @@
       <c r="G12" s="20"/>
       <c r="H12" s="103"/>
       <c r="I12" s="103"/>
-      <c r="J12" s="124">
+      <c r="J12" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20375,7 +20352,7 @@
       <c r="G13" s="20"/>
       <c r="H13" s="103"/>
       <c r="I13" s="103"/>
-      <c r="J13" s="124">
+      <c r="J13" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20393,7 +20370,7 @@
       <c r="G14" s="20"/>
       <c r="H14" s="103"/>
       <c r="I14" s="103"/>
-      <c r="J14" s="124">
+      <c r="J14" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20411,7 +20388,7 @@
       <c r="G15" s="20"/>
       <c r="H15" s="103"/>
       <c r="I15" s="103"/>
-      <c r="J15" s="124">
+      <c r="J15" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20429,7 +20406,7 @@
       <c r="G16" s="20"/>
       <c r="H16" s="103"/>
       <c r="I16" s="103"/>
-      <c r="J16" s="124">
+      <c r="J16" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20447,7 +20424,7 @@
       <c r="G17" s="20"/>
       <c r="H17" s="103"/>
       <c r="I17" s="103"/>
-      <c r="J17" s="124">
+      <c r="J17" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20465,7 +20442,7 @@
       <c r="G18" s="20"/>
       <c r="H18" s="103"/>
       <c r="I18" s="103"/>
-      <c r="J18" s="124">
+      <c r="J18" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20505,7 +20482,7 @@
         <f t="shared" ref="I19" si="2">SUM(I9:I18)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="121">
+      <c r="J19" s="104">
         <f>SUM(C19:I19)</f>
         <v>0</v>
       </c>
@@ -20544,7 +20521,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="105"/>
       <c r="I22" s="105"/>
-      <c r="J22" s="122">
+      <c r="J22" s="118">
         <f>SUM(C22:I22)</f>
         <v>0</v>
       </c>
@@ -20562,7 +20539,7 @@
       <c r="G23" s="19"/>
       <c r="H23" s="106"/>
       <c r="I23" s="106"/>
-      <c r="J23" s="122">
+      <c r="J23" s="118">
         <f t="shared" ref="J23:J27" si="3">SUM(C23:I23)</f>
         <v>0</v>
       </c>
@@ -20580,7 +20557,7 @@
       <c r="G24" s="19"/>
       <c r="H24" s="106"/>
       <c r="I24" s="106"/>
-      <c r="J24" s="122">
+      <c r="J24" s="118">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -20598,7 +20575,7 @@
       <c r="G25" s="19"/>
       <c r="H25" s="106"/>
       <c r="I25" s="106"/>
-      <c r="J25" s="122">
+      <c r="J25" s="118">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -20616,7 +20593,7 @@
       <c r="G26" s="19"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
-      <c r="J26" s="122">
+      <c r="J26" s="118">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -20634,7 +20611,7 @@
       <c r="G27" s="19"/>
       <c r="H27" s="106"/>
       <c r="I27" s="106"/>
-      <c r="J27" s="122">
+      <c r="J27" s="118">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -20652,7 +20629,7 @@
       <c r="G28" s="19"/>
       <c r="H28" s="106"/>
       <c r="I28" s="106"/>
-      <c r="J28" s="122">
+      <c r="J28" s="118">
         <f t="shared" ref="J28:J31" si="4">SUM(C28:I28)</f>
         <v>0</v>
       </c>
@@ -20670,7 +20647,7 @@
       <c r="G29" s="20"/>
       <c r="H29" s="103"/>
       <c r="I29" s="103"/>
-      <c r="J29" s="122">
+      <c r="J29" s="118">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -20688,7 +20665,7 @@
       <c r="G30" s="20"/>
       <c r="H30" s="103"/>
       <c r="I30" s="103"/>
-      <c r="J30" s="122">
+      <c r="J30" s="118">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -20706,7 +20683,7 @@
       <c r="G31" s="20"/>
       <c r="H31" s="103"/>
       <c r="I31" s="103"/>
-      <c r="J31" s="122">
+      <c r="J31" s="118">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -20746,7 +20723,7 @@
         <f t="shared" ref="I32" si="6">SUM(I22:I31)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="123">
+      <c r="J32" s="119">
         <f>SUM(C32:I32)</f>
         <v>0</v>
       </c>
@@ -20772,7 +20749,7 @@
       <c r="G34" s="20"/>
       <c r="H34" s="107"/>
       <c r="I34" s="107"/>
-      <c r="J34" s="126">
+      <c r="J34" s="121">
         <f>SUM(C34:I34)</f>
         <v>0</v>
       </c>
@@ -20790,7 +20767,7 @@
       <c r="G35" s="20"/>
       <c r="H35" s="107"/>
       <c r="I35" s="107"/>
-      <c r="J35" s="126">
+      <c r="J35" s="121">
         <f>SUM(C35:I35)</f>
         <v>0</v>
       </c>
@@ -20808,7 +20785,7 @@
       <c r="G36" s="20"/>
       <c r="H36" s="107"/>
       <c r="I36" s="107"/>
-      <c r="J36" s="126">
+      <c r="J36" s="121">
         <f t="shared" ref="J36:J43" si="7">SUM(C36:I36)</f>
         <v>0</v>
       </c>
@@ -20826,7 +20803,7 @@
       <c r="G37" s="20"/>
       <c r="H37" s="107"/>
       <c r="I37" s="107"/>
-      <c r="J37" s="126">
+      <c r="J37" s="121">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20844,7 +20821,7 @@
       <c r="G38" s="20"/>
       <c r="H38" s="107"/>
       <c r="I38" s="107"/>
-      <c r="J38" s="126">
+      <c r="J38" s="121">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20862,7 +20839,7 @@
       <c r="G39" s="20"/>
       <c r="H39" s="107"/>
       <c r="I39" s="107"/>
-      <c r="J39" s="126">
+      <c r="J39" s="121">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20880,7 +20857,7 @@
       <c r="G40" s="20"/>
       <c r="H40" s="107"/>
       <c r="I40" s="107"/>
-      <c r="J40" s="126">
+      <c r="J40" s="121">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20898,7 +20875,7 @@
       <c r="G41" s="20"/>
       <c r="H41" s="107"/>
       <c r="I41" s="107"/>
-      <c r="J41" s="126">
+      <c r="J41" s="121">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20916,7 +20893,7 @@
       <c r="G42" s="20"/>
       <c r="H42" s="107"/>
       <c r="I42" s="107"/>
-      <c r="J42" s="126">
+      <c r="J42" s="121">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20934,7 +20911,7 @@
       <c r="G43" s="20"/>
       <c r="H43" s="107"/>
       <c r="I43" s="107"/>
-      <c r="J43" s="126">
+      <c r="J43" s="121">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -20947,31 +20924,31 @@
         <v>46</v>
       </c>
       <c r="C44" s="101">
-        <f>SUM(C34:C43)</f>
+        <f t="shared" ref="C44:I44" si="8">SUM(C34:C43)</f>
         <v>0</v>
       </c>
       <c r="D44" s="101">
-        <f>SUM(D34:D43)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E44" s="101">
-        <f>SUM(E34:E43)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F44" s="101">
-        <f>SUM(F34:F43)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G44" s="101">
-        <f>SUM(G34:G43)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H44" s="101">
-        <f>SUM(H34:H43)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I44" s="101">
-        <f>SUM(I34:I43)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J44" s="101">
@@ -21000,7 +20977,7 @@
       <c r="G46" s="19"/>
       <c r="H46" s="105"/>
       <c r="I46" s="105"/>
-      <c r="J46" s="122">
+      <c r="J46" s="118">
         <f>SUM(C46:I46)</f>
         <v>0</v>
       </c>
@@ -21018,8 +20995,8 @@
       <c r="G47" s="19"/>
       <c r="H47" s="106"/>
       <c r="I47" s="106"/>
-      <c r="J47" s="122">
-        <f t="shared" ref="J47:J56" si="8">SUM(C47:I47)</f>
+      <c r="J47" s="118">
+        <f t="shared" ref="J47:J56" si="9">SUM(C47:I47)</f>
         <v>0</v>
       </c>
     </row>
@@ -21036,8 +21013,8 @@
       <c r="G48" s="20"/>
       <c r="H48" s="103"/>
       <c r="I48" s="103"/>
-      <c r="J48" s="122">
-        <f t="shared" si="8"/>
+      <c r="J48" s="118">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21054,17 +21031,19 @@
       <c r="G49" s="20"/>
       <c r="H49" s="103"/>
       <c r="I49" s="103"/>
-      <c r="J49" s="122">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15">
+      <c r="J49" s="118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="16">
       <c r="A50" s="8" t="str">
         <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B50" s="112"/>
+        <v>acfr:AccruedConnectionFees</v>
+      </c>
+      <c r="B50" s="112" t="s">
+        <v>571</v>
+      </c>
       <c r="C50" s="19"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
@@ -21072,8 +21051,8 @@
       <c r="G50" s="20"/>
       <c r="H50" s="103"/>
       <c r="I50" s="103"/>
-      <c r="J50" s="122">
-        <f t="shared" si="8"/>
+      <c r="J50" s="118">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21090,8 +21069,8 @@
       <c r="G51" s="20"/>
       <c r="H51" s="103"/>
       <c r="I51" s="103"/>
-      <c r="J51" s="122">
-        <f t="shared" si="8"/>
+      <c r="J51" s="118">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21108,8 +21087,8 @@
       <c r="G52" s="20"/>
       <c r="H52" s="103"/>
       <c r="I52" s="103"/>
-      <c r="J52" s="122">
-        <f t="shared" si="8"/>
+      <c r="J52" s="118">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21126,8 +21105,8 @@
       <c r="G53" s="20"/>
       <c r="H53" s="103"/>
       <c r="I53" s="103"/>
-      <c r="J53" s="122">
-        <f t="shared" si="8"/>
+      <c r="J53" s="118">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21144,8 +21123,8 @@
       <c r="G54" s="20"/>
       <c r="H54" s="103"/>
       <c r="I54" s="103"/>
-      <c r="J54" s="122">
-        <f t="shared" si="8"/>
+      <c r="J54" s="118">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21162,8 +21141,8 @@
       <c r="G55" s="20"/>
       <c r="H55" s="103"/>
       <c r="I55" s="103"/>
-      <c r="J55" s="122">
-        <f t="shared" si="8"/>
+      <c r="J55" s="118">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21180,8 +21159,8 @@
       <c r="G56" s="20"/>
       <c r="H56" s="103"/>
       <c r="I56" s="103"/>
-      <c r="J56" s="122">
-        <f t="shared" si="8"/>
+      <c r="J56" s="118">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21193,34 +21172,34 @@
         <v>1750</v>
       </c>
       <c r="C57" s="101">
-        <f t="shared" ref="C57:H57" si="9">SUM(C46:C56)</f>
+        <f t="shared" ref="C57:H57" si="10">SUM(C46:C56)</f>
         <v>0</v>
       </c>
       <c r="D57" s="101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E57" s="101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F57" s="101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G57" s="101">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="125">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="125">
-        <f t="shared" ref="I57" si="10">SUM(I46:I56)</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="123">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="119">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="119">
+        <f t="shared" ref="I57" si="11">SUM(I46:I56)</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="119">
         <f>SUM(C57:I57)</f>
         <v>0</v>
       </c>
@@ -21242,7 +21221,7 @@
       <c r="J58" s="104"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C57:G57 D58 D8:G18 D20:G20 D22:G31 D34:G43 D46:G56 C32:I32 C44:I44">
+  <conditionalFormatting sqref="D8:G18 D20:G20 D22:G31 C32:I32 D34:G43 C44:I44 D46:G56 C57:G57 D58">
     <cfRule type="expression" dxfId="17" priority="51" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
@@ -21277,10 +21256,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAF299C-3D3B-8F47-AA92-8FD95A662E81}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -21323,101 +21302,127 @@
         <v>44742</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15">
-      <c r="A6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="110"/>
-    </row>
-    <row r="7" spans="1:2" ht="16">
-      <c r="A7" s="111" t="s">
+    <row r="6" spans="1:2" ht="32">
+      <c r="A6" s="111" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B6" s="111"/>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="112"/>
+      <c r="B7" s="112"/>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8" s="111" t="s">
         <v>1756</v>
       </c>
-      <c r="B7" s="111"/>
-    </row>
-    <row r="8" spans="1:2" ht="34">
-      <c r="A8" s="61" t="s">
+      <c r="B8" s="111"/>
+    </row>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="112"/>
+      <c r="B9" s="112"/>
+    </row>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="112"/>
+      <c r="B10" s="112"/>
+    </row>
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" s="112"/>
+      <c r="B11" s="112"/>
+    </row>
+    <row r="12" spans="1:2" ht="15">
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+    </row>
+    <row r="13" spans="1:2" ht="15">
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
+    </row>
+    <row r="14" spans="1:2" ht="48">
+      <c r="A14" s="111" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="34">
-      <c r="A9" s="61" t="s">
+      <c r="B14" s="111"/>
+    </row>
+    <row r="15" spans="1:2" ht="15">
+      <c r="A15" s="112"/>
+      <c r="B15" s="112"/>
+    </row>
+    <row r="16" spans="1:2" ht="15">
+      <c r="A16" s="112"/>
+      <c r="B16" s="112"/>
+    </row>
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" s="112"/>
+      <c r="B17" s="112"/>
+    </row>
+    <row r="18" spans="1:2" ht="15">
+      <c r="A18" s="112"/>
+      <c r="B18" s="112"/>
+    </row>
+    <row r="19" spans="1:2" ht="15">
+      <c r="A19" s="112"/>
+      <c r="B19" s="112"/>
+    </row>
+    <row r="20" spans="1:2" ht="32">
+      <c r="A20" s="111" t="s">
         <v>1758</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="48">
-      <c r="A10" s="111" t="s">
+      <c r="B20" s="111"/>
+    </row>
+    <row r="21" spans="1:2" ht="15">
+      <c r="A21" s="112"/>
+      <c r="B21" s="112"/>
+    </row>
+    <row r="22" spans="1:2" ht="15">
+      <c r="A22" s="112"/>
+      <c r="B22" s="112"/>
+    </row>
+    <row r="23" spans="1:2" ht="15">
+      <c r="A23" s="112"/>
+      <c r="B23" s="112"/>
+    </row>
+    <row r="24" spans="1:2" ht="15">
+      <c r="A24" s="112"/>
+      <c r="B24" s="112"/>
+    </row>
+    <row r="25" spans="1:2" ht="15">
+      <c r="A25" s="112"/>
+      <c r="B25" s="112"/>
+    </row>
+    <row r="26" spans="1:2" ht="48">
+      <c r="A26" s="111" t="s">
         <v>1759</v>
       </c>
-      <c r="B10" s="111"/>
-    </row>
-    <row r="11" spans="1:2" ht="68">
-      <c r="A11" s="61" t="s">
+      <c r="B26" s="111"/>
+    </row>
+    <row r="27" spans="1:2" ht="15">
+      <c r="A27" s="112"/>
+      <c r="B27" s="112"/>
+    </row>
+    <row r="28" spans="1:2" ht="15">
+      <c r="A28" s="112"/>
+      <c r="B28" s="112"/>
+    </row>
+    <row r="29" spans="1:2" ht="15">
+      <c r="A29" s="112"/>
+      <c r="B29" s="112"/>
+    </row>
+    <row r="30" spans="1:2" ht="15">
+      <c r="A30" s="112"/>
+      <c r="B30" s="112"/>
+    </row>
+    <row r="31" spans="1:2" ht="32">
+      <c r="A31" s="111" t="s">
         <v>1760</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="34">
-      <c r="A12" s="61" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="68">
-      <c r="A13" s="61" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="68">
-      <c r="A14" s="61" t="s">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="32">
-      <c r="A15" s="111" t="s">
-        <v>1764</v>
-      </c>
-      <c r="B15" s="111"/>
-    </row>
-    <row r="16" spans="1:2" ht="51">
-      <c r="A16" s="61" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="51">
-      <c r="A17" s="61" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="51">
-      <c r="A18" s="61" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="51">
-      <c r="A19" s="61" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="48">
-      <c r="A20" s="111" t="s">
-        <v>1769</v>
-      </c>
-      <c r="B20" s="111"/>
-    </row>
-    <row r="21" spans="1:2" ht="221">
-      <c r="A21" s="61" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="32">
-      <c r="A22" s="111" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B22">
-        <f>SUM(B21, B16:B19, B11:B14, B8:B9)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15:B19 A9:B13 A21:B25 A27:B30 A7:B7" xr:uid="{A0810FF0-C7CF-774D-8C40-611438650983}">
+      <formula1>current_liabilities</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -23113,12 +23118,12 @@
     </row>
     <row r="25" spans="1:5" ht="15">
       <c r="A25" s="7"/>
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="119"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="124"/>
     </row>
     <row r="26" spans="1:5" ht="15">
       <c r="A26" s="8" t="str">

--- a/static/input_files/ACFR_template.xlsx
+++ b/static/input_files/ACFR_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byflow/Documents/Research/process-xbrl/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E77C92A-9CCE-E849-9CC9-142D71CB248F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0365E7B6-84E2-AC46-8A1E-4420972A1F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19400" yWindow="0" windowWidth="19000" windowHeight="21600" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -6738,8 +6738,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="B335" workbookViewId="0">
+      <selection activeCell="G523" sqref="G523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -6747,6 +6747,7 @@
     <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="91.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="84" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
@@ -6787,6 +6788,10 @@
       <c r="C3" t="s">
         <v>587</v>
       </c>
+      <c r="D3" t="str">
+        <f>C3&amp;"ModifiedAccrual"</f>
+        <v>acfr:AccountsReceivableAllowanceModifiedAccrual</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -6798,6 +6803,10 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D67" si="0">C4&amp;"ModifiedAccrual"</f>
+        <v>acfr:AccountsReceivableNetOfAllowanceModifiedAccrual</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
@@ -6809,6 +6818,10 @@
       <c r="C5" t="s">
         <v>591</v>
       </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:AccountsReceivableUnbilledModifiedAccrual</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -6820,6 +6833,10 @@
       <c r="C6" t="s">
         <v>592</v>
       </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:AccountsReceivableUnbilledAllowanceModifiedAccrual</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
@@ -6831,6 +6848,10 @@
       <c r="C7" t="s">
         <v>593</v>
       </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:AccountsReceivableUnbilledNetOfAllowanceModifiedAccrual</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -6842,6 +6863,10 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:AccruedInterestReceivableModifiedAccrual</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
@@ -6853,6 +6878,10 @@
       <c r="C9" t="s">
         <v>594</v>
       </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:AccruedInterestReceivableNetOfAllowanceModifiedAccrual</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -6864,6 +6893,10 @@
       <c r="C10" t="s">
         <v>595</v>
       </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:AdvancesReceivableModifiedAccrual</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
@@ -6875,6 +6908,10 @@
       <c r="C11" t="s">
         <v>596</v>
       </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:AdvancesToDevelopersModifiedAccrual</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
@@ -6886,6 +6923,10 @@
       <c r="C12" t="s">
         <v>600</v>
       </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:AllowanceForReceivablesModifiedAccrual</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
@@ -6897,6 +6938,10 @@
       <c r="C13" t="s">
         <v>601</v>
       </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:AssessmentsReceivableModifiedAccrual</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
@@ -6908,6 +6953,10 @@
       <c r="C14" t="s">
         <v>602</v>
       </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:AssessmentsReceivableAllowanceModifiedAccrual</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
@@ -6919,6 +6968,10 @@
       <c r="C15" t="s">
         <v>603</v>
       </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:AssessmentsReceivableNetOfAllowanceModifiedAccrual</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
@@ -6930,8 +6983,12 @@
       <c r="C16" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:AssetRetirementObligationsPrincipalDueWithinOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -6941,8 +6998,12 @@
       <c r="C17" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:AssetsHeldForSaleModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -6952,8 +7013,12 @@
       <c r="C18" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:BondPremiumPrincipalDueWithinOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -6963,8 +7028,12 @@
       <c r="C19" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:BondsPayableDueWithinOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -6974,8 +7043,12 @@
       <c r="C20" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:CashModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -6985,8 +7058,12 @@
       <c r="C21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:CashAndCashEquivalentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -6996,8 +7073,12 @@
       <c r="C22" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:CashAndCashEquivalentsAndInvestmentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -7007,8 +7088,12 @@
       <c r="C23" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:CashAndCashEquivalentsAndInvestmentsAbtract_1ModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -7018,8 +7103,12 @@
       <c r="C24" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:CashAndCashEquivalentsOthersModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -7029,8 +7118,12 @@
       <c r="C25" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:CashAndCashEquivalentsWithFiscalAndEscrowAndOtherAgentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -7040,8 +7133,12 @@
       <c r="C26" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" t="str">
+        <f>C26&amp;"ModifiedAccrual"</f>
+        <v>acfr:CashAndCashEquivalentsWithTreasurerModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -7051,8 +7148,12 @@
       <c r="C27" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:CashAndCashEquivalentsWithTrusteeModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -7062,8 +7163,12 @@
       <c r="C28" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:CashCheckingModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -7073,8 +7178,12 @@
       <c r="C29" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:CashEquivalentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -7084,8 +7193,12 @@
       <c r="C30" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:CashInBankModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -7095,8 +7208,12 @@
       <c r="C31" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:CashOnHandModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -7106,8 +7223,12 @@
       <c r="C32" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:CashPayrollBankAccountModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -7117,8 +7238,12 @@
       <c r="C33" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" t="str">
+        <f>C33&amp;"ModifiedAccrual"</f>
+        <v>acfr:CashSavingsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -7128,8 +7253,12 @@
       <c r="C34" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:CertificatesOfDepositModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -7139,8 +7268,12 @@
       <c r="C35" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:ClaimsAndJudgmentsPayableDueWithinOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -7150,8 +7283,12 @@
       <c r="C36" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:ClaimsAndJudgmentsReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -7161,8 +7298,12 @@
       <c r="C37" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:ClaimsAndJudgmentsReceivableAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -7172,8 +7313,12 @@
       <c r="C38" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:ClaimsAndJudgmentsReceivableNetOfAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -7183,8 +7328,12 @@
       <c r="C39" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:ComputerSoftwareModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -7194,8 +7343,12 @@
       <c r="C40" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:ConnectionFeesReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -7205,8 +7358,12 @@
       <c r="C41" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:ConnectionFeesReceivableAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -7216,8 +7373,12 @@
       <c r="C42" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:ConnectionFeesReceivableNetOfAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -7227,8 +7388,12 @@
       <c r="C43" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:ContractorsAdvancesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -7238,8 +7403,12 @@
       <c r="C44" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:ContractsPayableDueWithinOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -7249,8 +7418,12 @@
       <c r="C45" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:CourtOrdersReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -7260,8 +7433,12 @@
       <c r="C46" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:CurrentAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -7271,8 +7448,12 @@
       <c r="C47" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:CurrentAssetsCustomModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -7282,8 +7463,12 @@
       <c r="C48" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:CustomerAndOtherGovernmentReceivableAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -7293,8 +7478,12 @@
       <c r="C49" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:CustomerAndOtherGovernmentReceivablesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -7304,8 +7493,12 @@
       <c r="C50" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:CustomerAndOtherGovernmentReceivablesNetOfAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -7315,8 +7508,12 @@
       <c r="C51" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:DelinquentTaxesReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -7326,8 +7523,12 @@
       <c r="C52" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:DelinquentUtilityBillsReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -7337,8 +7538,12 @@
       <c r="C53" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:DepositsReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -7348,8 +7553,12 @@
       <c r="C54" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:DepositsReceivableAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -7359,8 +7568,12 @@
       <c r="C55" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:DepositsReceivableNetOfAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -7370,8 +7583,12 @@
       <c r="C56" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" t="str">
+        <f>C56&amp;"ModifiedAccrual"</f>
+        <v>acfr:DepositsWithFiscalAgentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -7381,8 +7598,12 @@
       <c r="C57" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:DerivativeInstrumentsAssetsCurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -7392,8 +7613,12 @@
       <c r="C58" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:DerivativeInstrumentsLiabilityCurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -7403,8 +7628,12 @@
       <c r="C59" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" t="str">
+        <f>C59&amp;"ModifiedAccrual"</f>
+        <v>acfr:DueFromCitiesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -7414,8 +7643,12 @@
       <c r="C60" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:DueFromComponentUnitModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -7425,8 +7658,12 @@
       <c r="C61" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:DueFromCountiesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -7436,8 +7673,12 @@
       <c r="C62" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:DueFromCustodialFundsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -7447,8 +7688,12 @@
       <c r="C63" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:DueFromEmployeesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -7458,8 +7703,12 @@
       <c r="C64" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:DueFromEnterpriseFundsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -7469,8 +7718,12 @@
       <c r="C65" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:DueFromFederalGovernmentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -7480,8 +7733,12 @@
       <c r="C66" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:DueFromFiduciaryFundsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -7491,8 +7748,12 @@
       <c r="C67" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:DueFromGovernmentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>60</v>
       </c>
@@ -7502,8 +7763,12 @@
       <c r="C68" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" t="str">
+        <f t="shared" ref="D68:D131" si="1">C68&amp;"ModifiedAccrual"</f>
+        <v>acfr:DueFromLibrariesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>60</v>
       </c>
@@ -7513,8 +7778,12 @@
       <c r="C69" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:DueFromOtherFundsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -7524,8 +7793,12 @@
       <c r="C70" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:DueFromOtherGovernmentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -7535,8 +7808,12 @@
       <c r="C71" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:DueFromPrimaryGovernmentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>60</v>
       </c>
@@ -7546,8 +7823,12 @@
       <c r="C72" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:DueFromRelatedPartiesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>60</v>
       </c>
@@ -7557,8 +7838,12 @@
       <c r="C73" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:DueFromRetirementSystemModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -7568,8 +7853,12 @@
       <c r="C74" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:DueFromRoadCommissionsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>60</v>
       </c>
@@ -7579,8 +7868,12 @@
       <c r="C75" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:DueFromSchoolsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -7590,8 +7883,12 @@
       <c r="C76" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:DueFromStateGovernmentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>60</v>
       </c>
@@ -7601,8 +7898,12 @@
       <c r="C77" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:DueFromTaxCollectionFundsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>60</v>
       </c>
@@ -7612,8 +7913,12 @@
       <c r="C78" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:DueFromTownshipsExceptRoadAgreementsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>60</v>
       </c>
@@ -7623,8 +7928,12 @@
       <c r="C79" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:DueFromTownshipsRoadAgreementsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>60</v>
       </c>
@@ -7634,8 +7943,12 @@
       <c r="C80" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:DueFromVillagesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>60</v>
       </c>
@@ -7645,8 +7958,12 @@
       <c r="C81" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:EasementsRightOfWayModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>60</v>
       </c>
@@ -7656,8 +7973,12 @@
       <c r="C82" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ForfeitureCertificateRecordingFeesReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>60</v>
       </c>
@@ -7667,8 +7988,12 @@
       <c r="C83" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:GeneralObligationBondsPayableDueWithinOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -7678,8 +8003,12 @@
       <c r="C84" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:GovernmentClaimsReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>60</v>
       </c>
@@ -7689,8 +8018,12 @@
       <c r="C85" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:GovernmentClaimsReceivableAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>60</v>
       </c>
@@ -7700,8 +8033,12 @@
       <c r="C86" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:GovernmentClaimsReceivableNetOfAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -7711,8 +8048,12 @@
       <c r="C87" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:GrantsAndContractsReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>60</v>
       </c>
@@ -7722,8 +8063,12 @@
       <c r="C88" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:GrantsAndContractsReceivableAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -7733,8 +8078,12 @@
       <c r="C89" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:GrantsAndContractsReceivableNetOfAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>60</v>
       </c>
@@ -7744,8 +8093,12 @@
       <c r="C90" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:IncomeTaxReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>60</v>
       </c>
@@ -7755,8 +8108,12 @@
       <c r="C91" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:InstallmentDebtPrincipalDueWithinOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>60</v>
       </c>
@@ -7766,8 +8123,12 @@
       <c r="C92" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:IntangibleAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>60</v>
       </c>
@@ -7777,8 +8138,12 @@
       <c r="C93" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:IntangibleAssetsNetOfAccumulatedAmortizationModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>60</v>
       </c>
@@ -7788,8 +8153,12 @@
       <c r="C94" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:InterGovernmentalReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>60</v>
       </c>
@@ -7799,8 +8168,12 @@
       <c r="C95" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:InterGovernmentalReceivableAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>60</v>
       </c>
@@ -7810,8 +8183,12 @@
       <c r="C96" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:InterGovernmentalReceivableNetOfAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>60</v>
       </c>
@@ -7821,8 +8198,12 @@
       <c r="C97" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:InterestAndPenaltiesReceivableOnTaxesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>60</v>
       </c>
@@ -7832,8 +8213,12 @@
       <c r="C98" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:InterestReceivableAllowancesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>60</v>
       </c>
@@ -7843,8 +8228,12 @@
       <c r="C99" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:IntergovernmentalAgreementPayablePrincipalDueWithinOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>60</v>
       </c>
@@ -7854,8 +8243,12 @@
       <c r="C100" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:InternalBalanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>60</v>
       </c>
@@ -7865,8 +8258,12 @@
       <c r="C101" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:InventoryModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>60</v>
       </c>
@@ -7876,8 +8273,12 @@
       <c r="C102" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:InventoryEquipmentMaterialsAndPartsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>60</v>
       </c>
@@ -7887,8 +8288,12 @@
       <c r="C103" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:InventoryRoadMaterialsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>60</v>
       </c>
@@ -7898,8 +8303,12 @@
       <c r="C104" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:InvestmentsAbtractModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>60</v>
       </c>
@@ -7909,8 +8318,12 @@
       <c r="C105" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:InvestmentsCurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>60</v>
       </c>
@@ -7920,8 +8333,12 @@
       <c r="C106" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:InvestmentsHeldByThirdPartiesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>60</v>
       </c>
@@ -7931,8 +8348,12 @@
       <c r="C107" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:InvestmentsRestrictedModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>60</v>
       </c>
@@ -7942,8 +8363,12 @@
       <c r="C108" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:InvestmentsWithFiscalAgentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>60</v>
       </c>
@@ -7953,8 +8378,12 @@
       <c r="C109" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:InvestmentsWithStateTreasuryModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>60</v>
       </c>
@@ -7964,8 +8393,12 @@
       <c r="C110" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:LandContractsPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>60</v>
       </c>
@@ -7975,8 +8408,12 @@
       <c r="C111" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:LandContractsReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>60</v>
       </c>
@@ -7986,8 +8423,12 @@
       <c r="C112" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:LandContractsReceivablesAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>60</v>
       </c>
@@ -7997,8 +8438,12 @@
       <c r="C113" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:LandContractsReceivablesNetOfAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>60</v>
       </c>
@@ -8008,8 +8453,12 @@
       <c r="C114" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:LeaseAssetsRightOfUseModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>60</v>
       </c>
@@ -8019,8 +8468,12 @@
       <c r="C115" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:LeasesPayableDueWithinOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>60</v>
       </c>
@@ -8030,8 +8483,12 @@
       <c r="C116" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:LeasesReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -8041,8 +8498,12 @@
       <c r="C117" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:LeasesReceivableAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>60</v>
       </c>
@@ -8052,8 +8513,12 @@
       <c r="C118" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:LeasesReceivableNetOfAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>60</v>
       </c>
@@ -8063,8 +8528,12 @@
       <c r="C119" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:LimitedTaxBondsPrincipalDueWithinOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>60</v>
       </c>
@@ -8074,8 +8543,12 @@
       <c r="C120" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:LoansAndNotesReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>60</v>
       </c>
@@ -8085,8 +8558,12 @@
       <c r="C121" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:LoansAndNotesReceivableAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>60</v>
       </c>
@@ -8096,8 +8573,12 @@
       <c r="C122" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:LoansAndNotesReceivableNetOfAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>60</v>
       </c>
@@ -8107,8 +8588,12 @@
       <c r="C123" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:LoansPayableDueWithinOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>60</v>
       </c>
@@ -8118,8 +8603,12 @@
       <c r="C124" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:LoansReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>60</v>
       </c>
@@ -8129,8 +8618,12 @@
       <c r="C125" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:LoansReceivableAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>60</v>
       </c>
@@ -8140,8 +8633,12 @@
       <c r="C126" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:LoansReceivableNetOfAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>60</v>
       </c>
@@ -8151,8 +8648,12 @@
       <c r="C127" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:LocalUnitShareOfAssessmentImprovementCostsReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>60</v>
       </c>
@@ -8162,8 +8663,12 @@
       <c r="C128" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:LongTermDebtDueWithinOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>60</v>
       </c>
@@ -8173,8 +8678,12 @@
       <c r="C129" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:LotteryTicketInventoriesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>60</v>
       </c>
@@ -8184,8 +8693,12 @@
       <c r="C130" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:NotesPayableDueWithinOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>60</v>
       </c>
@@ -8195,8 +8708,12 @@
       <c r="C131" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:NotesReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>60</v>
       </c>
@@ -8206,8 +8723,12 @@
       <c r="C132" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132" t="str">
+        <f t="shared" ref="D132:D195" si="2">C132&amp;"ModifiedAccrual"</f>
+        <v>acfr:NotesReceivableAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>60</v>
       </c>
@@ -8217,8 +8738,12 @@
       <c r="C133" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:NotesReceivableNetOfAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>60</v>
       </c>
@@ -8228,8 +8753,12 @@
       <c r="C134" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:OtherAccountsReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>60</v>
       </c>
@@ -8239,8 +8768,12 @@
       <c r="C135" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:OtherAccountsReceivableAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>60</v>
       </c>
@@ -8250,8 +8783,12 @@
       <c r="C136" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:OtherAccountsReceivableNetModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>60</v>
       </c>
@@ -8261,8 +8798,12 @@
       <c r="C137" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:OtherCurrentAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>60</v>
       </c>
@@ -8272,8 +8813,12 @@
       <c r="C138" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:OtherCurrentInvestmentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>60</v>
       </c>
@@ -8283,8 +8828,12 @@
       <c r="C139" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:OtherReceivablesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>60</v>
       </c>
@@ -8294,8 +8843,12 @@
       <c r="C140" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:OtherRestrictedAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>60</v>
       </c>
@@ -8305,8 +8858,12 @@
       <c r="C141" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:OtherTaxesReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>60</v>
       </c>
@@ -8316,8 +8873,12 @@
       <c r="C142" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:PatentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>60</v>
       </c>
@@ -8327,8 +8888,12 @@
       <c r="C143" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:PaymentsInLieuOfTaxesReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>60</v>
       </c>
@@ -8338,8 +8903,12 @@
       <c r="C144" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:PenaltiesReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>60</v>
       </c>
@@ -8349,8 +8918,12 @@
       <c r="C145" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:PenaltiesReceivableAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>60</v>
       </c>
@@ -8360,8 +8933,12 @@
       <c r="C146" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:PenaltiesReceivableNetOfAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>60</v>
       </c>
@@ -8371,8 +8948,12 @@
       <c r="C147" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:PerformanceBondsPayableDueWithinOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>60</v>
       </c>
@@ -8382,8 +8963,12 @@
       <c r="C148" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:PooledCashAndInvestmentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>60</v>
       </c>
@@ -8393,8 +8978,12 @@
       <c r="C149" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:PrepaidDepositsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>60</v>
       </c>
@@ -8404,8 +8993,12 @@
       <c r="C150" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:PrepaidExpensesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>60</v>
       </c>
@@ -8415,8 +9008,12 @@
       <c r="C151" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:PrepaidsAndOtherAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>60</v>
       </c>
@@ -8426,8 +9023,12 @@
       <c r="C152" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:PropertyTaxesReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>60</v>
       </c>
@@ -8437,8 +9038,12 @@
       <c r="C153" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:PropertyTaxesReceivableAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>60</v>
       </c>
@@ -8448,8 +9053,12 @@
       <c r="C154" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:PropertyTaxesReceivableNetOfAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>60</v>
       </c>
@@ -8459,8 +9068,12 @@
       <c r="C155" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:ReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>60</v>
       </c>
@@ -8470,8 +9083,12 @@
       <c r="C156" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:ReceivablesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>60</v>
       </c>
@@ -8481,8 +9098,12 @@
       <c r="C157" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:RegulatoryAssetsCurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>60</v>
       </c>
@@ -8492,8 +9113,12 @@
       <c r="C158" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:RestrictedAccountsReceivableNetOfAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>60</v>
       </c>
@@ -8503,8 +9128,12 @@
       <c r="C159" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="D159" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:RestrictedAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>60</v>
       </c>
@@ -8514,8 +9143,12 @@
       <c r="C160" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="D160" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:RestrictedAssetsCustomModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>60</v>
       </c>
@@ -8525,8 +9158,12 @@
       <c r="C161" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="D161" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:RestrictedBondAndInterestRedemptionModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>60</v>
       </c>
@@ -8536,8 +9173,12 @@
       <c r="C162" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="D162" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:RestrictedBondReserveModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>60</v>
       </c>
@@ -8547,8 +9188,12 @@
       <c r="C163" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:RestrictedCashModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>60</v>
       </c>
@@ -8558,8 +9203,12 @@
       <c r="C164" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:RestrictedCashAndCashEquivalentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>60</v>
       </c>
@@ -8569,8 +9218,12 @@
       <c r="C165" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:RestrictedCashAndInvestmentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>60</v>
       </c>
@@ -8580,8 +9233,12 @@
       <c r="C166" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="D166" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:RestrictedCashDebtRetirementModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>60</v>
       </c>
@@ -8591,8 +9248,12 @@
       <c r="C167" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="D167" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:RestrictedCashDebtServiceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>60</v>
       </c>
@@ -8602,8 +9263,12 @@
       <c r="C168" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="D168" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:RestrictedCashRepairsReplacementAndImprovementsReserveModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>60</v>
       </c>
@@ -8613,8 +9278,12 @@
       <c r="C169" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="170" spans="1:3">
+      <c r="D169" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:RestrictedCertificatesOfDepositModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>60</v>
       </c>
@@ -8624,8 +9293,12 @@
       <c r="C170" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="D170" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:RestrictedReceivablesAndDepositsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>60</v>
       </c>
@@ -8635,8 +9308,12 @@
       <c r="C171" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="D171" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:RevenueBondsPayableDueWithinOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>60</v>
       </c>
@@ -8646,8 +9323,12 @@
       <c r="C172" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="173" spans="1:3">
+      <c r="D172" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:SalesTaxReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>60</v>
       </c>
@@ -8657,8 +9338,12 @@
       <c r="C173" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="174" spans="1:3">
+      <c r="D173" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:SecuritiesLendingCollateralAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>60</v>
       </c>
@@ -8668,8 +9353,12 @@
       <c r="C174" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="D174" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:SecuritiesLendingObligationsLiabilityModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>60</v>
       </c>
@@ -8679,8 +9368,12 @@
       <c r="C175" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="176" spans="1:3">
+      <c r="D175" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:SelfInsuranceLiabilitiesCurrentPortionModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>60</v>
       </c>
@@ -8690,8 +9383,12 @@
       <c r="C176" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="D176" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:ServiceFeesReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>60</v>
       </c>
@@ -8701,8 +9398,12 @@
       <c r="C177" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
+      <c r="D177" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:SpecialAssessmentTaxesReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>60</v>
       </c>
@@ -8712,8 +9413,12 @@
       <c r="C178" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="D178" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:SpecialAssessmentTaxesReceivableUnavailableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>60</v>
       </c>
@@ -8723,8 +9428,12 @@
       <c r="C179" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="D179" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:SpecialAssessmentsReceivableDelinquentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>60</v>
       </c>
@@ -8734,8 +9443,12 @@
       <c r="C180" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="D180" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:TaxesReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>60</v>
       </c>
@@ -8745,8 +9458,12 @@
       <c r="C181" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="182" spans="1:3">
+      <c r="D181" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:TaxesReceivableDelinquentPersonalPropertyModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>60</v>
       </c>
@@ -8756,8 +9473,12 @@
       <c r="C182" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="D182" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:TaxesReceivableDelinquentRealPropertyModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>60</v>
       </c>
@@ -8767,8 +9488,12 @@
       <c r="C183" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="D183" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:TaxesReceivablePersonalPropertyCurrentLevyModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>60</v>
       </c>
@@ -8778,8 +9503,12 @@
       <c r="C184" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
+      <c r="D184" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:TaxesReceivableRealPropertyCurrentLevyModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>60</v>
       </c>
@@ -8789,8 +9518,12 @@
       <c r="C185" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="186" spans="1:3">
+      <c r="D185" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:TenantAccountsReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>60</v>
       </c>
@@ -8800,8 +9533,12 @@
       <c r="C186" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
+      <c r="D186" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:TenantAccountsReceivableAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>60</v>
       </c>
@@ -8811,8 +9548,12 @@
       <c r="C187" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="188" spans="1:3">
+      <c r="D187" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:TenantAccountsReceivableNetOfAllowancesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>60</v>
       </c>
@@ -8822,8 +9563,12 @@
       <c r="C188" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="189" spans="1:3">
+      <c r="D188" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:TimberRightsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>60</v>
       </c>
@@ -8833,8 +9578,12 @@
       <c r="C189" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="190" spans="1:3">
+      <c r="D189" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:TradeReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>60</v>
       </c>
@@ -8844,8 +9593,12 @@
       <c r="C190" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
+      <c r="D190" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:TradeReceivableAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>60</v>
       </c>
@@ -8855,8 +9608,12 @@
       <c r="C191" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="192" spans="1:3">
+      <c r="D191" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:TradeReceivableNetOfAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>60</v>
       </c>
@@ -8866,8 +9623,12 @@
       <c r="C192" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="193" spans="1:3">
+      <c r="D192" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:TrademarksModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>60</v>
       </c>
@@ -8877,8 +9638,12 @@
       <c r="C193" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="194" spans="1:3">
+      <c r="D193" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:TuitionAndFeesAllowancesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>60</v>
       </c>
@@ -8888,8 +9653,12 @@
       <c r="C194" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
+      <c r="D194" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:TuitionAndFeesReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>60</v>
       </c>
@@ -8899,8 +9668,12 @@
       <c r="C195" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="D195" t="str">
+        <f t="shared" si="2"/>
+        <v>acfr:TuitionAndFeesReceivableNetOfAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>60</v>
       </c>
@@ -8910,8 +9683,12 @@
       <c r="C196" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
+      <c r="D196" t="str">
+        <f t="shared" ref="D196:D259" si="3">C196&amp;"ModifiedAccrual"</f>
+        <v>acfr:UnamortizedPremiumOnBondsPrincipalDueWithinOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>60</v>
       </c>
@@ -8921,8 +9698,12 @@
       <c r="C197" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="198" spans="1:3">
+      <c r="D197" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:UnbilledRevenueModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>60</v>
       </c>
@@ -8932,8 +9713,12 @@
       <c r="C198" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="199" spans="1:3">
+      <c r="D198" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:UninsuredClaimLiabilityCurrentPortionModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>60</v>
       </c>
@@ -8943,8 +9728,12 @@
       <c r="C199" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="200" spans="1:3">
+      <c r="D199" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:UnlimitedTaxBondsPrincipalDueWithinOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>60</v>
       </c>
@@ -8954,8 +9743,12 @@
       <c r="C200" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="201" spans="1:3">
+      <c r="D200" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:UtilitiesAndWaterReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>60</v>
       </c>
@@ -8965,8 +9758,12 @@
       <c r="C201" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="202" spans="1:3">
+      <c r="D201" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:UtilitiesAndWaterReceivableAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>60</v>
       </c>
@@ -8976,8 +9773,12 @@
       <c r="C202" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
+      <c r="D202" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:UtilitiesAndWaterReceivableNetOfAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>60</v>
       </c>
@@ -8987,8 +9788,12 @@
       <c r="C203" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="204" spans="1:3">
+      <c r="D203" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:VestedEmployeeBenefitsPayableDueWithinOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>60</v>
       </c>
@@ -8998,8 +9803,12 @@
       <c r="C204" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="205" spans="1:3">
+      <c r="D204" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:WaterRightsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>61</v>
       </c>
@@ -9009,8 +9818,12 @@
       <c r="C205" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="206" spans="1:3">
+      <c r="D205" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AccountsPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>61</v>
       </c>
@@ -9020,8 +9833,12 @@
       <c r="C206" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="207" spans="1:3">
+      <c r="D206" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AccountsPayableAndAccruedLiabilitiesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>61</v>
       </c>
@@ -9031,8 +9848,12 @@
       <c r="C207" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="208" spans="1:3">
+      <c r="D207" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AccountsPayableNoncurrentPayableFromRestrictedAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>61</v>
       </c>
@@ -9042,8 +9863,12 @@
       <c r="C208" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="209" spans="1:3">
+      <c r="D208" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AccountsPayablePayableFromRestrictedAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>61</v>
       </c>
@@ -9053,8 +9878,12 @@
       <c r="C209" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="210" spans="1:3">
+      <c r="D209" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AccruedConnectionFeesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>61</v>
       </c>
@@ -9064,8 +9893,12 @@
       <c r="C210" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="211" spans="1:3">
+      <c r="D210" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AccruedExpensesPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>61</v>
       </c>
@@ -9075,8 +9908,12 @@
       <c r="C211" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="212" spans="1:3">
+      <c r="D211" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AccruedInterestAndPenaltiesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>61</v>
       </c>
@@ -9086,8 +9923,12 @@
       <c r="C212" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="213" spans="1:3">
+      <c r="D212" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AccruedInterestPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>61</v>
       </c>
@@ -9097,8 +9938,12 @@
       <c r="C213" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="214" spans="1:3">
+      <c r="D213" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AccruedInterestPayableFromRestrictedAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>61</v>
       </c>
@@ -9108,8 +9953,12 @@
       <c r="C214" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="215" spans="1:3">
+      <c r="D214" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AccruedLiabilitiesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>61</v>
       </c>
@@ -9119,8 +9968,12 @@
       <c r="C215" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="216" spans="1:3">
+      <c r="D215" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AccruedSickLeavePayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>61</v>
       </c>
@@ -9130,8 +9983,12 @@
       <c r="C216" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="217" spans="1:3">
+      <c r="D216" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AccruedTuitionAndFeesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>61</v>
       </c>
@@ -9141,8 +9998,12 @@
       <c r="C217" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="218" spans="1:3">
+      <c r="D217" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AccruedVacationPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>61</v>
       </c>
@@ -9152,8 +10013,12 @@
       <c r="C218" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="219" spans="1:3">
+      <c r="D218" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AccruedWagesAndRelatedLiabilitiesPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>61</v>
       </c>
@@ -9163,8 +10028,12 @@
       <c r="C219" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="220" spans="1:3">
+      <c r="D219" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AccruedWagesPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>61</v>
       </c>
@@ -9174,8 +10043,12 @@
       <c r="C220" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="221" spans="1:3">
+      <c r="D220" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AdvancesCurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>61</v>
       </c>
@@ -9185,8 +10058,12 @@
       <c r="C221" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="222" spans="1:3">
+      <c r="D221" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AdvancesFromFederalGovernmentNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>61</v>
       </c>
@@ -9196,8 +10073,12 @@
       <c r="C222" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="223" spans="1:3">
+      <c r="D222" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AdvancesFromGrantorsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>61</v>
       </c>
@@ -9207,8 +10088,12 @@
       <c r="C223" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="224" spans="1:3">
+      <c r="D223" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AdvancesFromOtherFundsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>61</v>
       </c>
@@ -9218,8 +10103,12 @@
       <c r="C224" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="225" spans="1:3">
+      <c r="D224" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AdvancesFromOtherFundsNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>61</v>
       </c>
@@ -9229,8 +10118,12 @@
       <c r="C225" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="226" spans="1:3">
+      <c r="D225" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AdvancesFromOtherFundsNoncurrentPayableFromRestrictedAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>61</v>
       </c>
@@ -9240,8 +10133,12 @@
       <c r="C226" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="227" spans="1:3">
+      <c r="D226" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AdvancesFromOtherFundsPayableFromRestrictedAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>61</v>
       </c>
@@ -9251,8 +10148,12 @@
       <c r="C227" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="228" spans="1:3">
+      <c r="D227" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AdvancesFromOtherGovernmentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>61</v>
       </c>
@@ -9262,8 +10163,12 @@
       <c r="C228" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="229" spans="1:3">
+      <c r="D228" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AdvancesFromOtherGovernmentsNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>61</v>
       </c>
@@ -9273,8 +10178,12 @@
       <c r="C229" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="230" spans="1:3">
+      <c r="D229" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AdvancesFromPrimaryGovernmentNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>61</v>
       </c>
@@ -9284,8 +10193,12 @@
       <c r="C230" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="231" spans="1:3">
+      <c r="D230" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AdvancesFromStateNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>61</v>
       </c>
@@ -9295,8 +10208,12 @@
       <c r="C231" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="232" spans="1:3">
+      <c r="D231" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AdvancesReceivedNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>61</v>
       </c>
@@ -9306,8 +10223,12 @@
       <c r="C232" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="233" spans="1:3">
+      <c r="D232" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AdvancesSpecialAssessmentDistrictsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>61</v>
       </c>
@@ -9317,8 +10238,12 @@
       <c r="C233" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="234" spans="1:3">
+      <c r="D233" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:AnnuitiesPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>61</v>
       </c>
@@ -9328,8 +10253,12 @@
       <c r="C234" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="235" spans="1:3">
+      <c r="D234" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:BondInterestPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>61</v>
       </c>
@@ -9339,8 +10268,12 @@
       <c r="C235" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="236" spans="1:3">
+      <c r="D235" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:BondsPayableDueInMoreThanOneYearPayableFromRestrictedAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>61</v>
       </c>
@@ -9350,8 +10283,12 @@
       <c r="C236" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="237" spans="1:3">
+      <c r="D236" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:BondsPayableDueWithinOneYearPayableFromRestrictedAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>61</v>
       </c>
@@ -9361,8 +10298,12 @@
       <c r="C237" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="238" spans="1:3">
+      <c r="D237" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:CashBondsPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>61</v>
       </c>
@@ -9372,8 +10313,12 @@
       <c r="C238" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="239" spans="1:3">
+      <c r="D238" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:CashOverdraftsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>61</v>
       </c>
@@ -9383,8 +10328,12 @@
       <c r="C239" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="240" spans="1:3">
+      <c r="D239" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:ChecksWrittenAgainstFutureDepositsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>61</v>
       </c>
@@ -9394,8 +10343,12 @@
       <c r="C240" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="241" spans="1:3">
+      <c r="D240" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:CompensatedAbsencesPayableCurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>61</v>
       </c>
@@ -9405,8 +10358,12 @@
       <c r="C241" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="242" spans="1:3">
+      <c r="D241" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:ContractsPayableDueWithinOneYearPayableFromRestrictedAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>61</v>
       </c>
@@ -9416,8 +10373,12 @@
       <c r="C242" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="243" spans="1:3">
+      <c r="D242" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:CourtOrdersPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>61</v>
       </c>
@@ -9427,8 +10388,12 @@
       <c r="C243" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="244" spans="1:3">
+      <c r="D243" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:CurrentLiabilitiesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>61</v>
       </c>
@@ -9438,8 +10403,12 @@
       <c r="C244" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="245" spans="1:3">
+      <c r="D244" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:CurrentLiabilitiesCustomModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>61</v>
       </c>
@@ -9449,8 +10418,12 @@
       <c r="C245" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="246" spans="1:3">
+      <c r="D245" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:CurrentLiabilitiesPayableFromRestrictedAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>61</v>
       </c>
@@ -9460,8 +10433,12 @@
       <c r="C246" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="247" spans="1:3">
+      <c r="D246" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:CustomerDepositsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>61</v>
       </c>
@@ -9471,8 +10448,12 @@
       <c r="C247" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="248" spans="1:3">
+      <c r="D247" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:CustomerDepositsPayableFromRestrictedAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>61</v>
       </c>
@@ -9482,8 +10463,12 @@
       <c r="C248" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="249" spans="1:3">
+      <c r="D248" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:DepositsHeldforOthersModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>61</v>
       </c>
@@ -9493,8 +10478,12 @@
       <c r="C249" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="250" spans="1:3">
+      <c r="D249" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:DrainOrdersPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>61</v>
       </c>
@@ -9504,8 +10493,12 @@
       <c r="C250" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="251" spans="1:3">
+      <c r="D250" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:DueToCitiesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>61</v>
       </c>
@@ -9515,8 +10508,12 @@
       <c r="C251" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="252" spans="1:3">
+      <c r="D251" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:DueToCommunityCollegeModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>61</v>
       </c>
@@ -9526,8 +10523,12 @@
       <c r="C252" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="253" spans="1:3">
+      <c r="D252" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:DueToComponentUnitModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>61</v>
       </c>
@@ -9537,8 +10538,12 @@
       <c r="C253" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="254" spans="1:3">
+      <c r="D253" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:DueToCountiesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>61</v>
       </c>
@@ -9548,8 +10553,12 @@
       <c r="C254" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="255" spans="1:3">
+      <c r="D254" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:DueToCourtWardsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>61</v>
       </c>
@@ -9559,8 +10568,12 @@
       <c r="C255" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="256" spans="1:3">
+      <c r="D255" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:DueToEducationModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>61</v>
       </c>
@@ -9570,8 +10583,12 @@
       <c r="C256" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="257" spans="1:3">
+      <c r="D256" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:DueToEmployeesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>61</v>
       </c>
@@ -9581,8 +10598,12 @@
       <c r="C257" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="258" spans="1:3">
+      <c r="D257" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:DueToFederalGovernmentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>61</v>
       </c>
@@ -9592,8 +10613,12 @@
       <c r="C258" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="259" spans="1:3">
+      <c r="D258" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:DueToFiduciaryFundsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>61</v>
       </c>
@@ -9603,8 +10628,12 @@
       <c r="C259" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="260" spans="1:3">
+      <c r="D259" t="str">
+        <f t="shared" si="3"/>
+        <v>acfr:DueToFiscalAgentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>61</v>
       </c>
@@ -9614,8 +10643,12 @@
       <c r="C260" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="261" spans="1:3">
+      <c r="D260" t="str">
+        <f t="shared" ref="D260:D323" si="4">C260&amp;"ModifiedAccrual"</f>
+        <v>acfr:DueToFormerEmployeesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>61</v>
       </c>
@@ -9625,8 +10658,12 @@
       <c r="C261" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="262" spans="1:3">
+      <c r="D261" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:DueToGeneralFundModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>61</v>
       </c>
@@ -9636,8 +10673,12 @@
       <c r="C262" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="263" spans="1:3">
+      <c r="D262" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:DueToIntermediateSchoolDistrictsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>61</v>
       </c>
@@ -9647,8 +10688,12 @@
       <c r="C263" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="264" spans="1:3">
+      <c r="D263" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:DueToLibrariesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>61</v>
       </c>
@@ -9658,8 +10703,12 @@
       <c r="C264" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="265" spans="1:3">
+      <c r="D264" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:DueToOtherAgenciesPayableFromRestictedAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>61</v>
       </c>
@@ -9669,8 +10718,12 @@
       <c r="C265" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="266" spans="1:3">
+      <c r="D265" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:DueToOtherFundsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>61</v>
       </c>
@@ -9680,8 +10733,12 @@
       <c r="C266" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="267" spans="1:3">
+      <c r="D266" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:DueToOtherGovernmentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>61</v>
       </c>
@@ -9691,8 +10748,12 @@
       <c r="C267" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="268" spans="1:3">
+      <c r="D267" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:DueToOthersModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>61</v>
       </c>
@@ -9702,8 +10763,12 @@
       <c r="C268" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="269" spans="1:3">
+      <c r="D268" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:DueToPrimaryGovernmentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>61</v>
       </c>
@@ -9713,8 +10778,12 @@
       <c r="C269" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="270" spans="1:3">
+      <c r="D269" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:DueToProprietaryFundsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>61</v>
       </c>
@@ -9724,8 +10793,12 @@
       <c r="C270" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="271" spans="1:3">
+      <c r="D270" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:DueToRelatedPartiesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>61</v>
       </c>
@@ -9735,8 +10808,12 @@
       <c r="C271" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="272" spans="1:3">
+      <c r="D271" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:DueToRoadCommissionsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>61</v>
       </c>
@@ -9746,8 +10823,12 @@
       <c r="C272" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="273" spans="1:3">
+      <c r="D272" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:DueToSchoolsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>61</v>
       </c>
@@ -9757,8 +10838,12 @@
       <c r="C273" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="274" spans="1:3">
+      <c r="D273" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:DueToSpecialEducationModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>61</v>
       </c>
@@ -9768,8 +10853,12 @@
       <c r="C274" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="275" spans="1:3">
+      <c r="D274" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:DueToStateGovernmentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>61</v>
       </c>
@@ -9779,8 +10868,12 @@
       <c r="C275" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="276" spans="1:3">
+      <c r="D275" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:DueToTaxpayersTaxOverpaymentsAndDuplicatePaymentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>61</v>
       </c>
@@ -9790,8 +10883,12 @@
       <c r="C276" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="277" spans="1:3">
+      <c r="D276" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:DueToTownshipsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>61</v>
       </c>
@@ -9801,8 +10898,12 @@
       <c r="C277" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="278" spans="1:3">
+      <c r="D277" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:DueToVillagesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>61</v>
       </c>
@@ -9812,8 +10913,12 @@
       <c r="C278" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="279" spans="1:3">
+      <c r="D278" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:Dup_1_DueToGovernmentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>61</v>
       </c>
@@ -9823,8 +10928,12 @@
       <c r="C279" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="280" spans="1:3">
+      <c r="D279" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:EscrowDepositsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>61</v>
       </c>
@@ -9834,8 +10943,12 @@
       <c r="C280" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="281" spans="1:3">
+      <c r="D280" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:FamilySelfSuffciencyEscrowsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>61</v>
       </c>
@@ -9845,8 +10958,12 @@
       <c r="C281" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="282" spans="1:3">
+      <c r="D281" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:GarnishmentsPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>61</v>
       </c>
@@ -9856,8 +10973,12 @@
       <c r="C282" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="283" spans="1:3">
+      <c r="D282" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:GrantsPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>61</v>
       </c>
@@ -9867,8 +10988,12 @@
       <c r="C283" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="284" spans="1:3">
+      <c r="D283" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:InternalBalancesPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>61</v>
       </c>
@@ -9878,8 +11003,12 @@
       <c r="C284" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="285" spans="1:3">
+      <c r="D284" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:LongTermDebtDueInMoreThanOneYearPayableFromRestrictedAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>61</v>
       </c>
@@ -9889,8 +11018,12 @@
       <c r="C285" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="286" spans="1:3">
+      <c r="D285" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:LongTermDebtDueWithinOneYearPayableFromRestrictedAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>61</v>
       </c>
@@ -9900,8 +11033,12 @@
       <c r="C286" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="287" spans="1:3">
+      <c r="D286" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:LotteryPrizeLiabilityCurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>61</v>
       </c>
@@ -9911,8 +11048,12 @@
       <c r="C287" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="288" spans="1:3">
+      <c r="D287" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:LotteryPrizesPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>61</v>
       </c>
@@ -9922,8 +11063,12 @@
       <c r="C288" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="289" spans="1:3">
+      <c r="D288" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:NetPensionLiabilityPayableFromRestrictedAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>61</v>
       </c>
@@ -9933,8 +11078,12 @@
       <c r="C289" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="290" spans="1:3">
+      <c r="D289" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:NoncurrentLiabilitiesPayableFromRestrictedAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>61</v>
       </c>
@@ -9944,8 +11093,12 @@
       <c r="C290" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="291" spans="1:3">
+      <c r="D290" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:OtherAccountsPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>61</v>
       </c>
@@ -9955,8 +11108,12 @@
       <c r="C291" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="292" spans="1:3">
+      <c r="D291" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:OtherAccountsPayableAndAccruedLiabilitiesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>61</v>
       </c>
@@ -9966,8 +11123,12 @@
       <c r="C292" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="293" spans="1:3">
+      <c r="D292" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:OtherAccruedExpensesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>61</v>
       </c>
@@ -9977,8 +11138,12 @@
       <c r="C293" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="294" spans="1:3">
+      <c r="D293" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:OtherAdvancesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>61</v>
       </c>
@@ -9988,8 +11153,12 @@
       <c r="C294" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="295" spans="1:3">
+      <c r="D294" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:OtherCurrentLiabilitiesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>61</v>
       </c>
@@ -9999,8 +11168,12 @@
       <c r="C295" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="296" spans="1:3">
+      <c r="D295" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:OtherCurrentLiabilitiesPayableFromRestictedAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>61</v>
       </c>
@@ -10010,8 +11183,12 @@
       <c r="C296" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="297" spans="1:3">
+      <c r="D296" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:OtherNoncurrentLiabilitiesPayableFromRestrictedAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>61</v>
       </c>
@@ -10021,8 +11198,12 @@
       <c r="C297" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="298" spans="1:3">
+      <c r="D297" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:PatientsOrInmatesTrustMoneyPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>61</v>
       </c>
@@ -10032,8 +11213,12 @@
       <c r="C298" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="299" spans="1:3">
+      <c r="D298" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:PayableFromRestrictedAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>61</v>
       </c>
@@ -10043,8 +11228,12 @@
       <c r="C299" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="300" spans="1:3">
+      <c r="D299" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:PayableFromRestrictedAssetsCustomModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>61</v>
       </c>
@@ -10054,8 +11243,12 @@
       <c r="C300" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="301" spans="1:3">
+      <c r="D300" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:PayrollDeductionsPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>61</v>
       </c>
@@ -10065,8 +11258,12 @@
       <c r="C301" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="302" spans="1:3">
+      <c r="D301" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:PayrollTaxesPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>61</v>
       </c>
@@ -10076,8 +11273,12 @@
       <c r="C302" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="303" spans="1:3">
+      <c r="D302" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:PenaltiesPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
         <v>61</v>
       </c>
@@ -10087,8 +11288,12 @@
       <c r="C303" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="304" spans="1:3">
+      <c r="D303" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:PerformanceDepositsPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>61</v>
       </c>
@@ -10098,8 +11303,12 @@
       <c r="C304" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="305" spans="1:3">
+      <c r="D304" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:ReceiptsRefundableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>61</v>
       </c>
@@ -10109,8 +11318,12 @@
       <c r="C305" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="306" spans="1:3">
+      <c r="D305" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:RefundableDepositsBondsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>61</v>
       </c>
@@ -10120,8 +11333,12 @@
       <c r="C306" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="307" spans="1:3">
+      <c r="D306" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:RegulatoryLiabilityCurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>61</v>
       </c>
@@ -10131,8 +11348,12 @@
       <c r="C307" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="308" spans="1:3">
+      <c r="D307" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:RestitutionsPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>61</v>
       </c>
@@ -10142,8 +11363,12 @@
       <c r="C308" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="309" spans="1:3">
+      <c r="D308" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:RetainagePayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>61</v>
       </c>
@@ -10153,8 +11378,12 @@
       <c r="C309" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="310" spans="1:3">
+      <c r="D309" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:RevenueBondsPayableDueWithinOneYearPayableFromRestrictedAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>61</v>
       </c>
@@ -10164,8 +11393,12 @@
       <c r="C310" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="311" spans="1:3">
+      <c r="D310" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:ShortTermDebtPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>61</v>
       </c>
@@ -10175,8 +11408,12 @@
       <c r="C311" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="312" spans="1:3">
+      <c r="D311" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:TaxesPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>61</v>
       </c>
@@ -10186,8 +11423,12 @@
       <c r="C312" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="313" spans="1:3">
+      <c r="D312" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:TenantSecurityDepositsPayableFromRestictedAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>61</v>
       </c>
@@ -10197,8 +11438,12 @@
       <c r="C313" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="314" spans="1:3">
+      <c r="D313" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:UnclaimedMoneyModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>61</v>
       </c>
@@ -10208,8 +11453,12 @@
       <c r="C314" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="315" spans="1:3">
+      <c r="D314" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:UndistributedReceiptsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>61</v>
       </c>
@@ -10219,8 +11468,12 @@
       <c r="C315" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="316" spans="1:3">
+      <c r="D315" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:UndistributedTaxCollectionsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>61</v>
       </c>
@@ -10230,8 +11483,12 @@
       <c r="C316" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="317" spans="1:3">
+      <c r="D316" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:UnearnedRevenueModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
         <v>61</v>
       </c>
@@ -10241,8 +11498,12 @@
       <c r="C317" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="318" spans="1:3">
+      <c r="D317" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:UnearnedRevenuePayableFromRestictedAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>61</v>
       </c>
@@ -10252,8 +11513,12 @@
       <c r="C318" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="319" spans="1:3">
+      <c r="D318" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:UnearnedTicketSalesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>61</v>
       </c>
@@ -10263,8 +11528,12 @@
       <c r="C319" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="320" spans="1:3">
+      <c r="D319" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:VouchersPayableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>64</v>
       </c>
@@ -10274,8 +11543,12 @@
       <c r="C320" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="321" spans="1:3">
+      <c r="D320" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:DeferredInflowsFromDeferredAmountOnRefundingModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
         <v>64</v>
       </c>
@@ -10285,8 +11558,12 @@
       <c r="C321" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="322" spans="1:3">
+      <c r="D321" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:DeferredInflowsFromOPEBChangesInProportionModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>64</v>
       </c>
@@ -10296,8 +11573,12 @@
       <c r="C322" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="323" spans="1:3">
+      <c r="D322" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:DeferredInflowsFromPensionChangesInProportionModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
         <v>64</v>
       </c>
@@ -10307,8 +11588,12 @@
       <c r="C323" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="324" spans="1:3">
+      <c r="D323" t="str">
+        <f t="shared" si="4"/>
+        <v>acfr:DeferredInflowsOfResourcesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
       <c r="A324" t="s">
         <v>64</v>
       </c>
@@ -10318,8 +11603,12 @@
       <c r="C324" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="325" spans="1:3">
+      <c r="D324" t="str">
+        <f t="shared" ref="D324:D387" si="5">C324&amp;"ModifiedAccrual"</f>
+        <v>acfr:DeferredInflowsOfResourcesCustomModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
         <v>64</v>
       </c>
@@ -10329,8 +11618,12 @@
       <c r="C325" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="326" spans="1:3">
+      <c r="D325" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredInflowsOfResourcesDebtModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
         <v>64</v>
       </c>
@@ -10340,8 +11633,12 @@
       <c r="C326" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="327" spans="1:3">
+      <c r="D326" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredInflowsOfResourcesDrainOrdersModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
       <c r="A327" t="s">
         <v>64</v>
       </c>
@@ -10351,8 +11648,12 @@
       <c r="C327" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="328" spans="1:3">
+      <c r="D327" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredInflowsOfResourcesLeasesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
       <c r="A328" t="s">
         <v>64</v>
       </c>
@@ -10362,8 +11663,12 @@
       <c r="C328" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="329" spans="1:3">
+      <c r="D328" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredInflowsOfResourcesOPEBModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
       <c r="A329" t="s">
         <v>64</v>
       </c>
@@ -10373,8 +11678,12 @@
       <c r="C329" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="330" spans="1:3">
+      <c r="D329" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredInflowsOfResourcesOPEBChangesInAssumptionsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
         <v>64</v>
       </c>
@@ -10384,8 +11693,12 @@
       <c r="C330" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="331" spans="1:3">
+      <c r="D330" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredInflowsOfResourcesOPEBContributionsMadeAfterMeasurementDateModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
         <v>64</v>
       </c>
@@ -10395,8 +11708,12 @@
       <c r="C331" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="332" spans="1:3">
+      <c r="D331" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredInflowsOfResourcesPensionModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>64</v>
       </c>
@@ -10406,8 +11723,12 @@
       <c r="C332" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="333" spans="1:3">
+      <c r="D332" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredInflowsOfResourcesPensionAndOPEBItemsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>64</v>
       </c>
@@ -10417,8 +11738,12 @@
       <c r="C333" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="334" spans="1:3">
+      <c r="D333" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredInflowsOfResourcesPensionChangesInAssumptionsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
         <v>64</v>
       </c>
@@ -10428,8 +11753,12 @@
       <c r="C334" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="335" spans="1:3">
+      <c r="D334" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredInflowsOfResourcesPensionContributionsMadeAfterMeasurementDateModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
       <c r="A335" t="s">
         <v>64</v>
       </c>
@@ -10439,8 +11768,12 @@
       <c r="C335" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="336" spans="1:3">
+      <c r="D335" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredInflowsOfResourcesPropertyTaxesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
       <c r="A336" t="s">
         <v>64</v>
       </c>
@@ -10450,8 +11783,12 @@
       <c r="C336" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="337" spans="1:3">
+      <c r="D336" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredInflowsOfResourcesSalesOfFutureRevenuesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
       <c r="A337" t="s">
         <v>64</v>
       </c>
@@ -10461,8 +11798,12 @@
       <c r="C337" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="338" spans="1:3">
+      <c r="D337" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredInflowsOfResourcesTaxesLeviedForASubsequentPeriodModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
       <c r="A338" t="s">
         <v>64</v>
       </c>
@@ -10472,8 +11813,12 @@
       <c r="C338" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="339" spans="1:3">
+      <c r="D338" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredInflowsofResourcesOPEBDifferenceExpectedAndActualModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
       <c r="A339" t="s">
         <v>64</v>
       </c>
@@ -10483,8 +11828,12 @@
       <c r="C339" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="340" spans="1:3">
+      <c r="D339" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredInflowsofResourcesOPEBNetDifProjectedAndActualEarningsPensionPlanInvestmentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
       <c r="A340" t="s">
         <v>64</v>
       </c>
@@ -10494,8 +11843,12 @@
       <c r="C340" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="341" spans="1:3">
+      <c r="D340" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredInflowsofResourcesPensionDifferenceExpectedAndActualModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
       <c r="A341" t="s">
         <v>64</v>
       </c>
@@ -10505,8 +11858,12 @@
       <c r="C341" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="342" spans="1:3">
+      <c r="D341" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredInflowsofResourcesPensionNetDifProjectedAndActualEarningsPensionPlanInvestmentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
       <c r="A342" t="s">
         <v>64</v>
       </c>
@@ -10516,8 +11873,12 @@
       <c r="C342" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="343" spans="1:3">
+      <c r="D342" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:OtherDeferredInflowsOfResourcesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
       <c r="A343" t="s">
         <v>62</v>
       </c>
@@ -10527,8 +11888,12 @@
       <c r="C343" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="344" spans="1:3">
+      <c r="D343" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredOutflowsFromOPEBChangesInProportionModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
         <v>62</v>
       </c>
@@ -10538,8 +11903,12 @@
       <c r="C344" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="345" spans="1:3">
+      <c r="D344" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredOutflowsFromPensionChangesInProportionModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
       <c r="A345" t="s">
         <v>62</v>
       </c>
@@ -10549,8 +11918,12 @@
       <c r="C345" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="346" spans="1:3">
+      <c r="D345" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredOutflowsOfResourcesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
       <c r="A346" t="s">
         <v>62</v>
       </c>
@@ -10560,8 +11933,12 @@
       <c r="C346" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="347" spans="1:3">
+      <c r="D346" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredOutflowsOfResourcesCustomModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
       <c r="A347" t="s">
         <v>62</v>
       </c>
@@ -10571,8 +11948,12 @@
       <c r="C347" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="348" spans="1:3">
+      <c r="D347" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredOutflowsOfResourcesDebtModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
       <c r="A348" t="s">
         <v>62</v>
       </c>
@@ -10582,8 +11963,12 @@
       <c r="C348" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="349" spans="1:3">
+      <c r="D348" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredOutflowsOfResourcesOPEBModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
       <c r="A349" t="s">
         <v>62</v>
       </c>
@@ -10593,8 +11978,12 @@
       <c r="C349" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="350" spans="1:3">
+      <c r="D349" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredOutflowsOfResourcesOPEBChangesInAssumptionsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
       <c r="A350" t="s">
         <v>62</v>
       </c>
@@ -10604,8 +11993,12 @@
       <c r="C350" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="351" spans="1:3">
+      <c r="D350" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredOutflowsOfResourcesOPEBContributionsMadeAfterMeasurementDateModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
       <c r="A351" t="s">
         <v>62</v>
       </c>
@@ -10615,8 +12008,12 @@
       <c r="C351" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="352" spans="1:3">
+      <c r="D351" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredOutflowsOfResourcesOPEBNetDifProjectedAndActualEarningsPensionPlanInvestmentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
       <c r="A352" t="s">
         <v>62</v>
       </c>
@@ -10626,8 +12023,12 @@
       <c r="C352" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="353" spans="1:3">
+      <c r="D352" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredOutflowsOfResourcesOtherModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
       <c r="A353" t="s">
         <v>62</v>
       </c>
@@ -10637,8 +12038,12 @@
       <c r="C353" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="354" spans="1:3">
+      <c r="D353" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredOutflowsOfResourcesPensionModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
       <c r="A354" t="s">
         <v>62</v>
       </c>
@@ -10648,8 +12053,12 @@
       <c r="C354" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="355" spans="1:3">
+      <c r="D354" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredOutflowsOfResourcesPensionChangesInAssumptionsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
       <c r="A355" t="s">
         <v>62</v>
       </c>
@@ -10659,8 +12068,12 @@
       <c r="C355" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="356" spans="1:3">
+      <c r="D355" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredOutflowsOfResourcesPensionContributionsMadeAfterMeasurementDateModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
       <c r="A356" t="s">
         <v>62</v>
       </c>
@@ -10670,8 +12083,12 @@
       <c r="C356" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="357" spans="1:3">
+      <c r="D356" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredOutflowsOfResourcesPensionNetDifProjectedAndActualEarningsPensionPlanInvestmentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
       <c r="A357" t="s">
         <v>62</v>
       </c>
@@ -10681,8 +12098,12 @@
       <c r="C357" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="358" spans="1:3">
+      <c r="D357" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredOutflowsofResourcesOPEBDifferenceExpectedAndActualModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
       <c r="A358" t="s">
         <v>62</v>
       </c>
@@ -10692,8 +12113,12 @@
       <c r="C358" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="359" spans="1:3">
+      <c r="D358" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:DeferredOutflowsofResourcesPensionDifferenceExpectedAndActualModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
       <c r="A359" t="s">
         <v>62</v>
       </c>
@@ -10703,8 +12128,12 @@
       <c r="C359" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="360" spans="1:3">
+      <c r="D359" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:OtherDeferredOutflowsOfResourcesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
       <c r="A360" t="s">
         <v>65</v>
       </c>
@@ -10714,8 +12143,12 @@
       <c r="C360" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="361" spans="1:3">
+      <c r="D360" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:NetInvestmentInCapitalAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
       <c r="A361" t="s">
         <v>65</v>
       </c>
@@ -10725,8 +12158,12 @@
       <c r="C361" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="362" spans="1:3">
+      <c r="D361" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:NetPositionModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
       <c r="A362" t="s">
         <v>65</v>
       </c>
@@ -10736,8 +12173,12 @@
       <c r="C362" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="363" spans="1:3">
+      <c r="D362" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:OtherRestrictedComponentsOfNetPositionModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
       <c r="A363" t="s">
         <v>65</v>
       </c>
@@ -10747,8 +12188,12 @@
       <c r="C363" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="364" spans="1:3">
+      <c r="D363" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:RestrictedComponentsOfNetPositionCustomModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
       <c r="A364" t="s">
         <v>65</v>
       </c>
@@ -10758,8 +12203,12 @@
       <c r="C364" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="365" spans="1:3">
+      <c r="D364" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:RestrictedNetPositionModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
       <c r="A365" t="s">
         <v>65</v>
       </c>
@@ -10769,8 +12218,12 @@
       <c r="C365" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="366" spans="1:3">
+      <c r="D365" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:RestrictedNetPositionForCapitalProjectsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
       <c r="A366" t="s">
         <v>65</v>
       </c>
@@ -10780,8 +12233,12 @@
       <c r="C366" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="367" spans="1:3">
+      <c r="D366" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:RestrictedNetPositionForCommunityDevelopmentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
       <c r="A367" t="s">
         <v>65</v>
       </c>
@@ -10791,8 +12248,12 @@
       <c r="C367" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="368" spans="1:3">
+      <c r="D367" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:RestrictedNetPositionForDebtServiceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
       <c r="A368" t="s">
         <v>65</v>
       </c>
@@ -10802,8 +12263,12 @@
       <c r="C368" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="369" spans="1:3">
+      <c r="D368" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:RestrictedNetPositionForDonorRestrictedModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
       <c r="A369" t="s">
         <v>65</v>
       </c>
@@ -10813,8 +12278,12 @@
       <c r="C369" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="370" spans="1:3">
+      <c r="D369" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:RestrictedNetPositionForGeneralGovernmentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
       <c r="A370" t="s">
         <v>65</v>
       </c>
@@ -10824,8 +12293,12 @@
       <c r="C370" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="371" spans="1:3">
+      <c r="D370" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:RestrictedNetPositionForGrantsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
       <c r="A371" t="s">
         <v>65</v>
       </c>
@@ -10835,8 +12308,12 @@
       <c r="C371" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="372" spans="1:3">
+      <c r="D371" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:RestrictedNetPositionForHealthAndSanitationModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
       <c r="A372" t="s">
         <v>65</v>
       </c>
@@ -10846,8 +12323,12 @@
       <c r="C372" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="373" spans="1:3">
+      <c r="D372" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:RestrictedNetPositionForHousingServicesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
       <c r="A373" t="s">
         <v>65</v>
       </c>
@@ -10857,8 +12338,12 @@
       <c r="C373" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="374" spans="1:3">
+      <c r="D373" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:RestrictedNetPositionForLawEnforcementModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
       <c r="A374" t="s">
         <v>65</v>
       </c>
@@ -10868,8 +12353,12 @@
       <c r="C374" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="375" spans="1:3">
+      <c r="D374" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:RestrictedNetPositionForOtherModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
       <c r="A375" t="s">
         <v>65</v>
       </c>
@@ -10879,8 +12368,12 @@
       <c r="C375" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="376" spans="1:3">
+      <c r="D375" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:RestrictedNetPositionForParksAndRecreationModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
       <c r="A376" t="s">
         <v>65</v>
       </c>
@@ -10890,8 +12383,12 @@
       <c r="C376" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="377" spans="1:3">
+      <c r="D376" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:RestrictedNetPositionForPrizesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
       <c r="A377" t="s">
         <v>65</v>
       </c>
@@ -10901,8 +12398,12 @@
       <c r="C377" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="378" spans="1:3">
+      <c r="D377" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:RestrictedNetPositionForPublicSafetyModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
       <c r="A378" t="s">
         <v>65</v>
       </c>
@@ -10912,8 +12413,12 @@
       <c r="C378" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="379" spans="1:3">
+      <c r="D378" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:RestrictedNetPositionForPublicWaysAndFacilitiesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
       <c r="A379" t="s">
         <v>65</v>
       </c>
@@ -10923,8 +12428,12 @@
       <c r="C379" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="380" spans="1:3">
+      <c r="D379" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:RestrictedNetPositionForPublicWorksModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
       <c r="A380" t="s">
         <v>65</v>
       </c>
@@ -10934,8 +12443,12 @@
       <c r="C380" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="381" spans="1:3">
+      <c r="D380" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:RestrictedNetPositionForRecreationAndCultureModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
       <c r="A381" t="s">
         <v>65</v>
       </c>
@@ -10945,8 +12458,12 @@
       <c r="C381" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="382" spans="1:3">
+      <c r="D381" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:UnrestrictedNetPositionModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
       <c r="A382" s="2" t="s">
         <v>59</v>
       </c>
@@ -10956,8 +12473,12 @@
       <c r="C382" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="383" spans="1:3">
+      <c r="D382" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:AccountsReceivableNetNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
       <c r="A383" s="2" t="s">
         <v>59</v>
       </c>
@@ -10967,8 +12488,12 @@
       <c r="C383" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="384" spans="1:3">
+      <c r="D383" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:AccountsReceivableNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
       <c r="A384" s="2" t="s">
         <v>59</v>
       </c>
@@ -10978,8 +12503,12 @@
       <c r="C384" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="385" spans="1:3">
+      <c r="D384" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:AccountsReceivableNoncurrentAllowanceModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
       <c r="A385" t="s">
         <v>59</v>
       </c>
@@ -10989,8 +12518,12 @@
       <c r="C385" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="386" spans="1:3">
+      <c r="D385" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:AccruedInterestOnDelinquentTaxesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
       <c r="A386" t="s">
         <v>59</v>
       </c>
@@ -11000,8 +12533,12 @@
       <c r="C386" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="387" spans="1:3">
+      <c r="D386" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:AccumulatedAmortizationModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
       <c r="A387" t="s">
         <v>59</v>
       </c>
@@ -11011,8 +12548,12 @@
       <c r="C387" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="388" spans="1:3">
+      <c r="D387" t="str">
+        <f t="shared" si="5"/>
+        <v>acfr:AccumulatedDepreciationModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
       <c r="A388" t="s">
         <v>59</v>
       </c>
@@ -11022,8 +12563,12 @@
       <c r="C388" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="389" spans="1:3">
+      <c r="D388" t="str">
+        <f t="shared" ref="D388:D451" si="6">C388&amp;"ModifiedAccrual"</f>
+        <v>acfr:AccumulatedDepreciationBooksAndRelatedMaterialsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
       <c r="A389" t="s">
         <v>59</v>
       </c>
@@ -11033,8 +12578,12 @@
       <c r="C389" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="390" spans="1:3">
+      <c r="D389" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:AccumulatedDepreciationBuildingsBuildingAdditionsAndImprovementsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
       <c r="A390" t="s">
         <v>59</v>
       </c>
@@ -11044,8 +12593,12 @@
       <c r="C390" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="391" spans="1:3">
+      <c r="D390" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:AccumulatedDepreciationDepletableAssetsISTHISTHERIGHTPLACEModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
       <c r="A391" t="s">
         <v>59</v>
       </c>
@@ -11055,8 +12608,12 @@
       <c r="C391" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="392" spans="1:3">
+      <c r="D391" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:AccumulatedDepreciationEngineeringEquipmentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
       <c r="A392" t="s">
         <v>59</v>
       </c>
@@ -11066,8 +12623,12 @@
       <c r="C392" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="393" spans="1:3">
+      <c r="D392" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:AccumulatedDepreciationLandImprovementsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
       <c r="A393" t="s">
         <v>59</v>
       </c>
@@ -11077,8 +12638,12 @@
       <c r="C393" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="394" spans="1:3">
+      <c r="D393" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:AccumulatedDepreciationOfficeEquipmentAndFurnitureModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
       <c r="A394" t="s">
         <v>59</v>
       </c>
@@ -11088,8 +12653,12 @@
       <c r="C394" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="395" spans="1:3">
+      <c r="D394" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:AccumulatedDepreciationRoadEquipmentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
       <c r="A395" t="s">
         <v>59</v>
       </c>
@@ -11099,8 +12668,12 @@
       <c r="C395" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="396" spans="1:3">
+      <c r="D395" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:AccumulatedDepreciationSewerSystemModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
       <c r="A396" t="s">
         <v>59</v>
       </c>
@@ -11110,8 +12683,12 @@
       <c r="C396" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="397" spans="1:3">
+      <c r="D396" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:AccumulatedDepreciationShopEquipmentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
       <c r="A397" t="s">
         <v>59</v>
       </c>
@@ -11121,8 +12698,12 @@
       <c r="C397" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="398" spans="1:3">
+      <c r="D397" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:AccumulatedDepreciationVehiclesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
       <c r="A398" t="s">
         <v>59</v>
       </c>
@@ -11132,8 +12713,12 @@
       <c r="C398" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="399" spans="1:3">
+      <c r="D398" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:AccumulatedDepreciationWaterSystemModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
       <c r="A399" t="s">
         <v>59</v>
       </c>
@@ -11143,8 +12728,12 @@
       <c r="C399" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="400" spans="1:3">
+      <c r="D399" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:AccumulatedDepreciationYardAndStorageEquipmentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
       <c r="A400" t="s">
         <v>59</v>
       </c>
@@ -11154,8 +12743,12 @@
       <c r="C400" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="401" spans="1:3">
+      <c r="D400" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:AccumulatedDepreciationandAmortizationModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
       <c r="A401" s="2" t="s">
         <v>59</v>
       </c>
@@ -11165,8 +12758,12 @@
       <c r="C401" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="402" spans="1:3">
+      <c r="D401" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:AllowanceForGrantsAndContractsReceivableNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
       <c r="A402" s="2" t="s">
         <v>59</v>
       </c>
@@ -11176,8 +12773,12 @@
       <c r="C402" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="403" spans="1:3">
+      <c r="D402" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:AllowanceForLeasesReceivableNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
       <c r="A403" s="2" t="s">
         <v>59</v>
       </c>
@@ -11187,8 +12788,12 @@
       <c r="C403" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="404" spans="1:3">
+      <c r="D403" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:AllowanceForNotesAndLoansReceivableNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
       <c r="A404" t="s">
         <v>59</v>
       </c>
@@ -11198,8 +12803,12 @@
       <c r="C404" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="405" spans="1:3">
+      <c r="D404" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:AssetsHeldByOtherGovernmentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
       <c r="A405" t="s">
         <v>59</v>
       </c>
@@ -11209,8 +12818,12 @@
       <c r="C405" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="406" spans="1:3">
+      <c r="D405" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:AssetsHeldForSaleNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
       <c r="A406" t="s">
         <v>59</v>
       </c>
@@ -11220,8 +12833,12 @@
       <c r="C406" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="407" spans="1:3">
+      <c r="D406" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:BuildingsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
       <c r="A407" t="s">
         <v>59</v>
       </c>
@@ -11231,8 +12848,12 @@
       <c r="C407" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="408" spans="1:3">
+      <c r="D407" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:BuildingsAndEquipmentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
       <c r="A408" t="s">
         <v>59</v>
       </c>
@@ -11242,8 +12863,12 @@
       <c r="C408" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="409" spans="1:3">
+      <c r="D408" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:BuildingsAndImprovementsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
       <c r="A409" t="s">
         <v>59</v>
       </c>
@@ -11253,8 +12878,12 @@
       <c r="C409" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="410" spans="1:3">
+      <c r="D409" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:CapitalAndLateralAssetsReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
       <c r="A410" t="s">
         <v>59</v>
       </c>
@@ -11264,8 +12893,12 @@
       <c r="C410" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="411" spans="1:3">
+      <c r="D410" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:CapitalAssetsBeingDepreciatedNetModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
       <c r="A411" t="s">
         <v>59</v>
       </c>
@@ -11275,8 +12908,12 @@
       <c r="C411" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="412" spans="1:3">
+      <c r="D411" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:CapitalAssetsBeingDepreciatedNetOfAccumulatedDepreciationAndAmortizationCustomModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
       <c r="A412" t="s">
         <v>59</v>
       </c>
@@ -11286,8 +12923,12 @@
       <c r="C412" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="413" spans="1:3">
+      <c r="D412" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:CapitalAssetsNotBeingDepreciatedModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
       <c r="A413" t="s">
         <v>59</v>
       </c>
@@ -11297,8 +12938,12 @@
       <c r="C413" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="414" spans="1:3">
+      <c r="D413" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:CapitalAssetsNotBeingDepreciatedCustomModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
       <c r="A414" t="s">
         <v>59</v>
       </c>
@@ -11308,8 +12953,12 @@
       <c r="C414" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="415" spans="1:3">
+      <c r="D414" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:CertificatesOfDepositNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
       <c r="A415" t="s">
         <v>59</v>
       </c>
@@ -11319,8 +12968,12 @@
       <c r="C415" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="416" spans="1:3">
+      <c r="D415" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:ConnectionFeesReceivableNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
       <c r="A416" t="s">
         <v>59</v>
       </c>
@@ -11330,8 +12983,12 @@
       <c r="C416" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="417" spans="1:3">
+      <c r="D416" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:ConstructionInProgressModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
       <c r="A417" t="s">
         <v>59</v>
       </c>
@@ -11341,8 +12998,12 @@
       <c r="C417" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="418" spans="1:3">
+      <c r="D417" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:DelinquentTaxesReceivableNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
       <c r="A418" t="s">
         <v>59</v>
       </c>
@@ -11352,8 +13013,12 @@
       <c r="C418" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="419" spans="1:3">
+      <c r="D418" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:DerivativeInstrumentsAssetsNonCurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
       <c r="A419" t="s">
         <v>59</v>
       </c>
@@ -11363,8 +13028,12 @@
       <c r="C419" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="420" spans="1:3">
+      <c r="D419" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:DueFromComponentUnitNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
       <c r="A420" t="s">
         <v>59</v>
       </c>
@@ -11374,8 +13043,12 @@
       <c r="C420" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="421" spans="1:3">
+      <c r="D420" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:DueFromFederalGovernmentNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
       <c r="A421" t="s">
         <v>59</v>
       </c>
@@ -11385,8 +13058,12 @@
       <c r="C421" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="422" spans="1:3">
+      <c r="D421" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:DueFromOtherGovernmentsNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
       <c r="A422" t="s">
         <v>59</v>
       </c>
@@ -11396,8 +13073,12 @@
       <c r="C422" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="423" spans="1:3">
+      <c r="D422" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:DueFromStateGovernmentNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
       <c r="A423" t="s">
         <v>59</v>
       </c>
@@ -11407,8 +13088,12 @@
       <c r="C423" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="424" spans="1:3">
+      <c r="D423" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:EngineeringEquipmentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
       <c r="A424" t="s">
         <v>59</v>
       </c>
@@ -11418,8 +13103,12 @@
       <c r="C424" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="425" spans="1:3">
+      <c r="D424" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:EquipmentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
       <c r="A425" s="2" t="s">
         <v>59</v>
       </c>
@@ -11429,8 +13118,12 @@
       <c r="C425" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="426" spans="1:3">
+      <c r="D425" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:GrantsAndContractsReceivableNetOfAllowanceNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
       <c r="A426" s="2" t="s">
         <v>59</v>
       </c>
@@ -11440,8 +13133,12 @@
       <c r="C426" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="427" spans="1:3">
+      <c r="D426" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:GrantsAndContractsReceivableNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
       <c r="A427" t="s">
         <v>59</v>
       </c>
@@ -11451,8 +13148,12 @@
       <c r="C427" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="428" spans="1:3">
+      <c r="D427" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:ImprovementsOtherThanBuildingsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
       <c r="A428" t="s">
         <v>59</v>
       </c>
@@ -11462,8 +13163,12 @@
       <c r="C428" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="429" spans="1:3">
+      <c r="D428" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:InfrastructureModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
       <c r="A429" t="s">
         <v>59</v>
       </c>
@@ -11473,8 +13178,12 @@
       <c r="C429" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="430" spans="1:3">
+      <c r="D429" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:InstallmentReceivableNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
       <c r="A430" t="s">
         <v>59</v>
       </c>
@@ -11484,8 +13193,12 @@
       <c r="C430" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="431" spans="1:3">
+      <c r="D430" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:InventoryNonCurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
       <c r="A431" t="s">
         <v>59</v>
       </c>
@@ -11495,8 +13208,12 @@
       <c r="C431" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="432" spans="1:3">
+      <c r="D431" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:InvestmentsEndowmentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
       <c r="A432" t="s">
         <v>59</v>
       </c>
@@ -11506,8 +13223,12 @@
       <c r="C432" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="433" spans="1:3">
+      <c r="D432" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:InvestmentsInAssociatesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
       <c r="A433" t="s">
         <v>59</v>
       </c>
@@ -11517,8 +13238,12 @@
       <c r="C433" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="434" spans="1:3">
+      <c r="D433" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:InvestmentsInJointVenturesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
       <c r="A434" t="s">
         <v>59</v>
       </c>
@@ -11528,8 +13253,12 @@
       <c r="C434" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="435" spans="1:3">
+      <c r="D434" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:InvestmentsInSubsidiariesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
       <c r="A435" t="s">
         <v>59</v>
       </c>
@@ -11539,8 +13268,12 @@
       <c r="C435" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="436" spans="1:3">
+      <c r="D435" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:InvestmentsOfSurplusFundsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
       <c r="A436" t="s">
         <v>59</v>
       </c>
@@ -11550,8 +13283,12 @@
       <c r="C436" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="437" spans="1:3">
+      <c r="D436" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:LandModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
       <c r="A437" t="s">
         <v>59</v>
       </c>
@@ -11561,8 +13298,12 @@
       <c r="C437" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="438" spans="1:3">
+      <c r="D437" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:LandAndConstructionInProgressModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
       <c r="A438" t="s">
         <v>59</v>
       </c>
@@ -11572,8 +13313,12 @@
       <c r="C438" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="439" spans="1:3">
+      <c r="D438" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:LandAndImprovementsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
       <c r="A439" t="s">
         <v>59</v>
       </c>
@@ -11583,8 +13328,12 @@
       <c r="C439" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="440" spans="1:3">
+      <c r="D439" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:LandConstructionInProgressAndOtherNonDepreciableAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
       <c r="A440" t="s">
         <v>59</v>
       </c>
@@ -11594,8 +13343,12 @@
       <c r="C440" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="441" spans="1:3">
+      <c r="D440" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:LandHeldForResaleModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
       <c r="A441" t="s">
         <v>59</v>
       </c>
@@ -11605,8 +13358,12 @@
       <c r="C441" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="442" spans="1:3">
+      <c r="D441" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:LandImprovementsDepreciatingModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
       <c r="A442" t="s">
         <v>59</v>
       </c>
@@ -11616,8 +13373,12 @@
       <c r="C442" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="443" spans="1:3">
+      <c r="D442" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:LandImprovementsNonDepreciatingModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
       <c r="A443" t="s">
         <v>59</v>
       </c>
@@ -11627,8 +13388,12 @@
       <c r="C443" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="444" spans="1:3">
+      <c r="D443" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:LeaseholdImprovementsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
       <c r="A444" t="s">
         <v>59</v>
       </c>
@@ -11638,8 +13403,12 @@
       <c r="C444" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="445" spans="1:3">
+      <c r="D444" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:LeasesAccumulatedAmortizationModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
       <c r="A445" s="2" t="s">
         <v>59</v>
       </c>
@@ -11649,8 +13418,12 @@
       <c r="C445" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="446" spans="1:3">
+      <c r="D445" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:LeasesReceivableNetNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
       <c r="A446" s="2" t="s">
         <v>59</v>
       </c>
@@ -11660,8 +13433,12 @@
       <c r="C446" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="447" spans="1:3">
+      <c r="D446" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:LeasesReceivableNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
       <c r="A447" t="s">
         <v>59</v>
       </c>
@@ -11671,8 +13448,12 @@
       <c r="C447" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="448" spans="1:3">
+      <c r="D447" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:LongTermContractsReceivableModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
       <c r="A448" t="s">
         <v>59</v>
       </c>
@@ -11682,8 +13463,12 @@
       <c r="C448" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="449" spans="1:3">
+      <c r="D448" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:LongTermInvestmentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
       <c r="A449" t="s">
         <v>59</v>
       </c>
@@ -11693,8 +13478,12 @@
       <c r="C449" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="450" spans="1:3">
+      <c r="D449" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:LotteryPrizeReservesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
       <c r="A450" t="s">
         <v>59</v>
       </c>
@@ -11704,8 +13493,12 @@
       <c r="C450" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="451" spans="1:3">
+      <c r="D450" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:MachineryAndEquipmentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
       <c r="A451" t="s">
         <v>59</v>
       </c>
@@ -11715,8 +13508,12 @@
       <c r="C451" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="452" spans="1:3">
+      <c r="D451" t="str">
+        <f t="shared" si="6"/>
+        <v>acfr:MainsAndConnectionsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
       <c r="A452" t="s">
         <v>59</v>
       </c>
@@ -11726,8 +13523,12 @@
       <c r="C452" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="453" spans="1:3">
+      <c r="D452" t="str">
+        <f t="shared" ref="D452:D515" si="7">C452&amp;"ModifiedAccrual"</f>
+        <v>acfr:MetersModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
       <c r="A453" t="s">
         <v>59</v>
       </c>
@@ -11737,8 +13538,12 @@
       <c r="C453" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="454" spans="1:3">
+      <c r="D453" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:NetOPEBAssetModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
       <c r="A454" t="s">
         <v>59</v>
       </c>
@@ -11748,8 +13553,12 @@
       <c r="C454" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="455" spans="1:3">
+      <c r="D454" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:NetPensionAssetModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
       <c r="A455" t="s">
         <v>59</v>
       </c>
@@ -11759,8 +13568,12 @@
       <c r="C455" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="456" spans="1:3">
+      <c r="D455" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:NoncurrentAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
       <c r="A456" t="s">
         <v>59</v>
       </c>
@@ -11770,8 +13583,12 @@
       <c r="C456" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="457" spans="1:3">
+      <c r="D456" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:NoncurrentAssetsCustomModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
       <c r="A457" s="2" t="s">
         <v>59</v>
       </c>
@@ -11781,8 +13598,12 @@
       <c r="C457" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="458" spans="1:3">
+      <c r="D457" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:NoncurrentLiabilitiesDueWithinOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
       <c r="A458" s="2" t="s">
         <v>59</v>
       </c>
@@ -11792,8 +13613,12 @@
       <c r="C458" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="459" spans="1:3">
+      <c r="D458" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:NotesAndLoansReceivableNetNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
       <c r="A459" s="2" t="s">
         <v>59</v>
       </c>
@@ -11803,8 +13628,12 @@
       <c r="C459" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="460" spans="1:3">
+      <c r="D459" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:NotesAndLoansReceivableNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
       <c r="A460" t="s">
         <v>59</v>
       </c>
@@ -11814,8 +13643,12 @@
       <c r="C460" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="461" spans="1:3">
+      <c r="D460" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:OfficeEquipmentAndFurnitureModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
       <c r="A461" t="s">
         <v>59</v>
       </c>
@@ -11825,8 +13658,12 @@
       <c r="C461" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="462" spans="1:3">
+      <c r="D461" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:OtherAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
       <c r="A462" t="s">
         <v>59</v>
       </c>
@@ -11836,8 +13673,12 @@
       <c r="C462" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="463" spans="1:3">
+      <c r="D462" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:OtherCapitalAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
       <c r="A463" t="s">
         <v>59</v>
       </c>
@@ -11847,8 +13688,12 @@
       <c r="C463" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="464" spans="1:3">
+      <c r="D463" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:OtherCapitalAssetsBeingDepreciatedNetOfAccumulatedDepreciationAndAmortizationModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
       <c r="A464" t="s">
         <v>59</v>
       </c>
@@ -11858,8 +13703,12 @@
       <c r="C464" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="465" spans="1:3">
+      <c r="D464" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:OtherCapitalAssetsNotBeingDepreciatedModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
       <c r="A465" t="s">
         <v>59</v>
       </c>
@@ -11869,8 +13718,12 @@
       <c r="C465" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="466" spans="1:3">
+      <c r="D465" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:OtherInvestmentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
       <c r="A466" t="s">
         <v>59</v>
       </c>
@@ -11880,8 +13733,12 @@
       <c r="C466" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="467" spans="1:3">
+      <c r="D466" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:OtherNoncurrentAssetsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
       <c r="A467" t="s">
         <v>59</v>
       </c>
@@ -11891,8 +13748,12 @@
       <c r="C467" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="468" spans="1:3">
+      <c r="D467" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:PropertyPlantAndEquipmentNetOfDepreciationModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
       <c r="A468" t="s">
         <v>59</v>
       </c>
@@ -11902,8 +13763,12 @@
       <c r="C468" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="469" spans="1:3">
+      <c r="D468" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:RegulatoryAssetsNonCurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
       <c r="A469" t="s">
         <v>59</v>
       </c>
@@ -11913,8 +13778,12 @@
       <c r="C469" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="470" spans="1:3">
+      <c r="D469" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:RoadEquipmentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
       <c r="A470" t="s">
         <v>59</v>
       </c>
@@ -11924,8 +13793,12 @@
       <c r="C470" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="471" spans="1:3">
+      <c r="D470" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:ShopEquipmentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
       <c r="A471" t="s">
         <v>59</v>
       </c>
@@ -11935,8 +13808,12 @@
       <c r="C471" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="472" spans="1:3">
+      <c r="D471" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:SpecialAssessmentReceivableNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
       <c r="A472" t="s">
         <v>59</v>
       </c>
@@ -11946,8 +13823,12 @@
       <c r="C472" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="473" spans="1:3">
+      <c r="D472" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:UnamortizedDiscountsOnBondsSoldByLocalUnitModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
       <c r="A473" t="s">
         <v>59</v>
       </c>
@@ -11957,8 +13838,12 @@
       <c r="C473" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="474" spans="1:3">
+      <c r="D473" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:UtilityModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
       <c r="A474" t="s">
         <v>59</v>
       </c>
@@ -11968,8 +13853,12 @@
       <c r="C474" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="475" spans="1:3">
+      <c r="D474" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:WorksOfArtModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
       <c r="A475" t="s">
         <v>59</v>
       </c>
@@ -11979,8 +13868,12 @@
       <c r="C475" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="476" spans="1:3">
+      <c r="D475" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:YardAndStorageEquipmentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
       <c r="A476" t="s">
         <v>63</v>
       </c>
@@ -11990,8 +13883,12 @@
       <c r="C476" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="477" spans="1:3">
+      <c r="D476" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:AccruedExpensesNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
       <c r="A477" t="s">
         <v>63</v>
       </c>
@@ -12001,8 +13898,12 @@
       <c r="C477" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="478" spans="1:3">
+      <c r="D477" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:AccruedLandfillClosureAndPostclosureCareCostsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
       <c r="A478" t="s">
         <v>63</v>
       </c>
@@ -12012,8 +13913,12 @@
       <c r="C478" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="479" spans="1:3">
+      <c r="D478" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:AccruedLiabilitiesNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
       <c r="A479" t="s">
         <v>63</v>
       </c>
@@ -12023,8 +13928,12 @@
       <c r="C479" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="480" spans="1:3">
+      <c r="D479" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:AccruedUnemploymentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
       <c r="A480" t="s">
         <v>63</v>
       </c>
@@ -12034,8 +13943,12 @@
       <c r="C480" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="481" spans="1:3">
+      <c r="D480" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:AdvancesNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
       <c r="A481" t="s">
         <v>63</v>
       </c>
@@ -12045,8 +13958,12 @@
       <c r="C481" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="482" spans="1:3">
+      <c r="D481" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:AdvancesToComponentUnitModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
       <c r="A482" t="s">
         <v>63</v>
       </c>
@@ -12056,8 +13973,12 @@
       <c r="C482" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="483" spans="1:3">
+      <c r="D482" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:AdvancesToOtherFundsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
       <c r="A483" t="s">
         <v>63</v>
       </c>
@@ -12067,8 +13988,12 @@
       <c r="C483" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="484" spans="1:3">
+      <c r="D483" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:AdvancesToOtherGovernmentsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
       <c r="A484" t="s">
         <v>63</v>
       </c>
@@ -12078,8 +14003,12 @@
       <c r="C484" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="485" spans="1:3">
+      <c r="D484" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:AdvancesToPrimaryGovernmentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
       <c r="A485" t="s">
         <v>63</v>
       </c>
@@ -12089,8 +14018,12 @@
       <c r="C485" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="486" spans="1:3">
+      <c r="D485" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:AssetRetirementObligationsDueInMoreThanOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
       <c r="A486" t="s">
         <v>63</v>
       </c>
@@ -12100,8 +14033,12 @@
       <c r="C486" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="487" spans="1:3">
+      <c r="D486" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:BondPayableDueInMoreThanOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
       <c r="A487" t="s">
         <v>63</v>
       </c>
@@ -12111,8 +14048,12 @@
       <c r="C487" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="488" spans="1:3">
+      <c r="D487" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:BondPremiumsPayableDueInMoreThanOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
       <c r="A488" t="s">
         <v>63</v>
       </c>
@@ -12122,8 +14063,12 @@
       <c r="C488" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="489" spans="1:3">
+      <c r="D488" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:ClaimsAndJudgmentsPayableNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
       <c r="A489" t="s">
         <v>63</v>
       </c>
@@ -12133,8 +14078,12 @@
       <c r="C489" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="490" spans="1:3">
+      <c r="D489" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:CompensatedAbsencesPayableNonCurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
       <c r="A490" t="s">
         <v>63</v>
       </c>
@@ -12144,8 +14093,12 @@
       <c r="C490" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="491" spans="1:3">
+      <c r="D490" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:ContractsPayableDueInMoreThanOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
       <c r="A491" t="s">
         <v>63</v>
       </c>
@@ -12155,8 +14108,12 @@
       <c r="C491" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="492" spans="1:3">
+      <c r="D491" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:CustomerDepositsNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
       <c r="A492" t="s">
         <v>63</v>
       </c>
@@ -12166,8 +14123,12 @@
       <c r="C492" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="493" spans="1:3">
+      <c r="D492" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:DeferredRevenueModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
       <c r="A493" t="s">
         <v>63</v>
       </c>
@@ -12177,8 +14138,12 @@
       <c r="C493" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="494" spans="1:3">
+      <c r="D493" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:DerivativeInstrumentsLiabilityNonCurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
       <c r="A494" t="s">
         <v>63</v>
       </c>
@@ -12188,8 +14153,12 @@
       <c r="C494" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="495" spans="1:3">
+      <c r="D494" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:DueToStateDueInMoreThanOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
       <c r="A495" t="s">
         <v>63</v>
       </c>
@@ -12199,8 +14168,12 @@
       <c r="C495" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="496" spans="1:3">
+      <c r="D495" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:EnvironmentalAndDisposalLiabilitiesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
       <c r="A496" t="s">
         <v>63</v>
       </c>
@@ -12210,8 +14183,12 @@
       <c r="C496" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="497" spans="1:3">
+      <c r="D496" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:EstimatedLiabilityForLandfillPostClosureCareCostsModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
       <c r="A497" t="s">
         <v>63</v>
       </c>
@@ -12221,8 +14198,12 @@
       <c r="C497" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="498" spans="1:3">
+      <c r="D497" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:GeneralObligationBondsPayableDueInMoreThanOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
       <c r="A498" t="s">
         <v>63</v>
       </c>
@@ -12232,8 +14213,12 @@
       <c r="C498" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="499" spans="1:3">
+      <c r="D498" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:InstallmentDebtPayableDueInMoreThanOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
       <c r="A499" t="s">
         <v>63</v>
       </c>
@@ -12243,8 +14228,12 @@
       <c r="C499" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="500" spans="1:3">
+      <c r="D499" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:IntergovernmentalAgreementPayableDueInMoreThanOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
       <c r="A500" t="s">
         <v>63</v>
       </c>
@@ -12254,8 +14243,12 @@
       <c r="C500" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="501" spans="1:3">
+      <c r="D500" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:LeasesPayableDueInMoreThanOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
       <c r="A501" t="s">
         <v>63</v>
       </c>
@@ -12265,8 +14258,12 @@
       <c r="C501" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="502" spans="1:3">
+      <c r="D501" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:LimitedTaxBondsPrincipalDueInMoreThanOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
       <c r="A502" t="s">
         <v>63</v>
       </c>
@@ -12276,8 +14273,12 @@
       <c r="C502" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="503" spans="1:3">
+      <c r="D502" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:LoanGuaranteeLiabilitiesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
       <c r="A503" t="s">
         <v>63</v>
       </c>
@@ -12287,8 +14288,12 @@
       <c r="C503" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="504" spans="1:3">
+      <c r="D503" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:LoansPayableDueInMoreThanOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
       <c r="A504" t="s">
         <v>63</v>
       </c>
@@ -12298,8 +14303,12 @@
       <c r="C504" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="505" spans="1:3">
+      <c r="D504" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:LongTermDebtDueInMoreThanOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
       <c r="A505" t="s">
         <v>63</v>
       </c>
@@ -12309,8 +14318,12 @@
       <c r="C505" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="506" spans="1:3">
+      <c r="D505" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:LotteryPrizeLiabilityNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
       <c r="A506" t="s">
         <v>63</v>
       </c>
@@ -12320,8 +14333,12 @@
       <c r="C506" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="507" spans="1:3">
+      <c r="D506" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:NetOPEBLiabilityModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
       <c r="A507" t="s">
         <v>63</v>
       </c>
@@ -12331,8 +14348,12 @@
       <c r="C507" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="508" spans="1:3">
+      <c r="D507" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:NetPensionLiabilityModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
       <c r="A508" t="s">
         <v>63</v>
       </c>
@@ -12342,8 +14363,12 @@
       <c r="C508" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="509" spans="1:3">
+      <c r="D508" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:NoncurrentLiabilitiesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
       <c r="A509" t="s">
         <v>63</v>
       </c>
@@ -12353,8 +14378,12 @@
       <c r="C509" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="510" spans="1:3">
+      <c r="D509" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:NoncurrentLiabilitiesCustomModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
       <c r="A510" t="s">
         <v>63</v>
       </c>
@@ -12364,8 +14393,12 @@
       <c r="C510" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="511" spans="1:3">
+      <c r="D510" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:NoncurrentPortionOfUninsuredClaimLiabilityModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
       <c r="A511" t="s">
         <v>63</v>
       </c>
@@ -12375,8 +14408,12 @@
       <c r="C511" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="512" spans="1:3">
+      <c r="D511" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:NotesPayableDueInMoreThanOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
       <c r="A512" t="s">
         <v>63</v>
       </c>
@@ -12386,8 +14423,12 @@
       <c r="C512" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="513" spans="1:3">
+      <c r="D512" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:OtherNoncurrentLiabilitiesModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
       <c r="A513" t="s">
         <v>63</v>
       </c>
@@ -12397,8 +14438,12 @@
       <c r="C513" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="514" spans="1:3">
+      <c r="D513" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:PerformanceBondsPayableDueInMoreThanOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
       <c r="A514" t="s">
         <v>63</v>
       </c>
@@ -12408,8 +14453,12 @@
       <c r="C514" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="515" spans="1:3">
+      <c r="D514" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:PollutionRemediationObligationModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
       <c r="A515" t="s">
         <v>63</v>
       </c>
@@ -12419,8 +14468,12 @@
       <c r="C515" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="516" spans="1:3">
+      <c r="D515" t="str">
+        <f t="shared" si="7"/>
+        <v>acfr:RegulatoryLiabilityNonCurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
       <c r="A516" t="s">
         <v>63</v>
       </c>
@@ -12430,8 +14483,12 @@
       <c r="C516" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="517" spans="1:3">
+      <c r="D516" t="str">
+        <f t="shared" ref="D516:D522" si="8">C516&amp;"ModifiedAccrual"</f>
+        <v>acfr:RetainagePayableNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
       <c r="A517" t="s">
         <v>63</v>
       </c>
@@ -12441,8 +14498,12 @@
       <c r="C517" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="518" spans="1:3">
+      <c r="D517" t="str">
+        <f t="shared" si="8"/>
+        <v>acfr:RevenueBondsPayableDueInMoreThanOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
       <c r="A518" t="s">
         <v>63</v>
       </c>
@@ -12452,8 +14513,12 @@
       <c r="C518" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="519" spans="1:3">
+      <c r="D518" t="str">
+        <f t="shared" si="8"/>
+        <v>acfr:SelfInsuranceLiabilitiesNetOfCurrentPortionModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
       <c r="A519" t="s">
         <v>63</v>
       </c>
@@ -12463,8 +14528,12 @@
       <c r="C519" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="520" spans="1:3">
+      <c r="D519" t="str">
+        <f t="shared" si="8"/>
+        <v>acfr:UnamortizedPremiumOnBondsDueInMoreThanOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
       <c r="A520" t="s">
         <v>63</v>
       </c>
@@ -12474,8 +14543,12 @@
       <c r="C520" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="521" spans="1:3">
+      <c r="D520" t="str">
+        <f t="shared" si="8"/>
+        <v>acfr:UnearnedRevenueNoncurrentModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
       <c r="A521" t="s">
         <v>63</v>
       </c>
@@ -12485,8 +14558,12 @@
       <c r="C521" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="522" spans="1:3">
+      <c r="D521" t="str">
+        <f t="shared" si="8"/>
+        <v>acfr:UnlimitedTaxBondsPrincipalDueInMoreThanOneYearModifiedAccrual</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
       <c r="A522" t="s">
         <v>63</v>
       </c>
@@ -12495,6 +14572,10 @@
       </c>
       <c r="C522" t="s">
         <v>1072</v>
+      </c>
+      <c r="D522" t="str">
+        <f t="shared" si="8"/>
+        <v>acfr:VestedEmployeeBenefitsPayableDueInMoreThanOneYearModifiedAccrual</v>
       </c>
     </row>
   </sheetData>
@@ -13868,8 +15949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF490C29-31E1-3E46-B6B7-83D944E71A74}">
   <dimension ref="A1:H218"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/static/input_files/ACFR_template.xlsx
+++ b/static/input_files/ACFR_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byflow/Documents/Research/process-xbrl/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0365E7B6-84E2-AC46-8A1E-4420972A1F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA10A89B-365A-7648-893C-3F968B47DA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="834" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="1764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="1764">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -5878,7 +5878,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6131,6 +6131,11 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="22" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -6738,7 +6743,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B335" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G523" sqref="G523"/>
     </sheetView>
   </sheetViews>
@@ -22216,8 +22221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62560919-E4A0-3A4F-9164-3F35B35B852C}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -23117,14 +23122,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="16">
+    <row r="50" spans="1:10" ht="15">
       <c r="A50" s="8" t="str">
         <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>acfr:AccruedConnectionFees</v>
-      </c>
-      <c r="B50" s="112" t="s">
-        <v>571</v>
-      </c>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B50" s="112"/>
       <c r="C50" s="19"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
@@ -23337,10 +23340,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAF299C-3D3B-8F47-AA92-8FD95A662E81}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -23390,8 +23393,11 @@
       <c r="B6" s="111"/>
     </row>
     <row r="7" spans="1:2" ht="15">
-      <c r="A7" s="112"/>
-      <c r="B7" s="112"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="103">
+        <f>'GovFund Balance Sheet'!J57</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="16">
       <c r="A8" s="111" t="s">
@@ -23400,24 +23406,24 @@
       <c r="B8" s="111"/>
     </row>
     <row r="9" spans="1:2" ht="15">
-      <c r="A9" s="112"/>
-      <c r="B9" s="112"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="103"/>
     </row>
     <row r="10" spans="1:2" ht="15">
-      <c r="A10" s="112"/>
-      <c r="B10" s="112"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
     </row>
     <row r="11" spans="1:2" ht="15">
-      <c r="A11" s="112"/>
-      <c r="B11" s="112"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="103"/>
     </row>
     <row r="12" spans="1:2" ht="15">
-      <c r="A12" s="112"/>
-      <c r="B12" s="112"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="103"/>
     </row>
     <row r="13" spans="1:2" ht="15">
-      <c r="A13" s="112"/>
-      <c r="B13" s="112"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="103"/>
     </row>
     <row r="14" spans="1:2" ht="48">
       <c r="A14" s="111" t="s">
@@ -23426,24 +23432,24 @@
       <c r="B14" s="111"/>
     </row>
     <row r="15" spans="1:2" ht="15">
-      <c r="A15" s="112"/>
-      <c r="B15" s="112"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="103"/>
     </row>
     <row r="16" spans="1:2" ht="15">
-      <c r="A16" s="112"/>
-      <c r="B16" s="112"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="103"/>
     </row>
     <row r="17" spans="1:2" ht="15">
-      <c r="A17" s="112"/>
-      <c r="B17" s="112"/>
+      <c r="A17" s="103"/>
+      <c r="B17" s="103"/>
     </row>
     <row r="18" spans="1:2" ht="15">
-      <c r="A18" s="112"/>
-      <c r="B18" s="112"/>
+      <c r="A18" s="103"/>
+      <c r="B18" s="103"/>
     </row>
     <row r="19" spans="1:2" ht="15">
-      <c r="A19" s="112"/>
-      <c r="B19" s="112"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="103"/>
     </row>
     <row r="20" spans="1:2" ht="32">
       <c r="A20" s="111" t="s">
@@ -23452,24 +23458,24 @@
       <c r="B20" s="111"/>
     </row>
     <row r="21" spans="1:2" ht="15">
-      <c r="A21" s="112"/>
-      <c r="B21" s="112"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="103"/>
     </row>
     <row r="22" spans="1:2" ht="15">
-      <c r="A22" s="112"/>
-      <c r="B22" s="112"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="103"/>
     </row>
     <row r="23" spans="1:2" ht="15">
-      <c r="A23" s="112"/>
-      <c r="B23" s="112"/>
+      <c r="A23" s="103"/>
+      <c r="B23" s="103"/>
     </row>
     <row r="24" spans="1:2" ht="15">
-      <c r="A24" s="112"/>
-      <c r="B24" s="112"/>
+      <c r="A24" s="103"/>
+      <c r="B24" s="103"/>
     </row>
     <row r="25" spans="1:2" ht="15">
-      <c r="A25" s="112"/>
-      <c r="B25" s="112"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="103"/>
     </row>
     <row r="26" spans="1:2" ht="48">
       <c r="A26" s="111" t="s">
@@ -23478,32 +23484,35 @@
       <c r="B26" s="111"/>
     </row>
     <row r="27" spans="1:2" ht="15">
-      <c r="A27" s="112"/>
-      <c r="B27" s="112"/>
+      <c r="A27" s="103"/>
+      <c r="B27" s="103"/>
     </row>
     <row r="28" spans="1:2" ht="15">
-      <c r="A28" s="112"/>
-      <c r="B28" s="112"/>
+      <c r="A28" s="103"/>
+      <c r="B28" s="103"/>
     </row>
     <row r="29" spans="1:2" ht="15">
-      <c r="A29" s="112"/>
-      <c r="B29" s="112"/>
+      <c r="A29" s="103"/>
+      <c r="B29" s="103"/>
     </row>
     <row r="30" spans="1:2" ht="15">
-      <c r="A30" s="112"/>
-      <c r="B30" s="112"/>
-    </row>
-    <row r="31" spans="1:2" ht="32">
-      <c r="A31" s="111" t="s">
+      <c r="A30" s="103"/>
+      <c r="B30" s="103"/>
+    </row>
+    <row r="31" spans="1:2" ht="15">
+      <c r="A31" s="103"/>
+      <c r="B31" s="125"/>
+    </row>
+    <row r="32" spans="1:2" ht="32">
+      <c r="A32" s="111" t="s">
         <v>1760</v>
       </c>
+      <c r="B32" s="126">
+        <f>SUM(B27:B31, B21:B25, B15:B19, B9:B13, B7)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15:B19 A9:B13 A21:B25 A27:B30 A7:B7" xr:uid="{A0810FF0-C7CF-774D-8C40-611438650983}">
-      <formula1>current_liabilities</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/static/input_files/ACFR_template.xlsx
+++ b/static/input_files/ACFR_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byflow/Documents/Research/process-xbrl/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA10A89B-365A-7648-893C-3F968B47DA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346C2F90-1591-CD4B-97FD-E8A157BC0E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="834" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5530,7 +5530,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5630,6 +5630,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -5878,7 +5884,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6136,6 +6142,12 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="44" fontId="23" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -22221,8 +22233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62560919-E4A0-3A4F-9164-3F35B35B852C}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -22534,41 +22546,41 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="16">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="127" t="s">
         <v>1754</v>
       </c>
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="129">
         <f>SUM(C9:C18)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="129">
         <f>SUM(D9:D18)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="129">
         <f t="shared" ref="E19:H19" si="1">SUM(E9:E18)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="129">
         <f t="shared" ref="I19" si="2">SUM(I9:I18)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="104">
+      <c r="J19" s="130">
         <f>SUM(C19:I19)</f>
         <v>0</v>
       </c>
@@ -23295,14 +23307,38 @@
       <c r="B58" s="113" t="s">
         <v>1749</v>
       </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="104"/>
-      <c r="I58" s="104"/>
-      <c r="J58" s="104"/>
+      <c r="C58" s="23">
+        <f>SUM(C57, C44, C32, C19)</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="23">
+        <f>SUM(D57, D44, D32, D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="23">
+        <f>SUM(E57, E44, E32, E19)</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="23">
+        <f>SUM(F57, F44, F32, F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="23">
+        <f>SUM(G57, G44, G32, G19)</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="104">
+        <f>SUM(H57, H44, H32, H19)</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="104">
+        <f>SUM(I57, I44, I32, I19)</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="104">
+        <f>SUM(J57, J44, J32, J19)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D8:G18 D20:G20 D22:G31 C32:I32 D34:G43 C44:I44 D46:G56 C57:G57 D58">

--- a/static/input_files/ACFR_template.xlsx
+++ b/static/input_files/ACFR_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADA7EA2-8226-244D-90C0-A1AD1788D139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963E8334-8A71-9C45-8AAE-F52DE9212834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="834" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="834" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -5269,7 +5269,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5372,12 +5372,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Söhne Mono"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -5711,7 +5705,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5832,7 +5826,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5857,14 +5850,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -5873,7 +5866,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12099,22 +12092,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF490C29-31E1-3E46-B6B7-83D944E71A74}">
-  <dimension ref="A1:H218"/>
+  <dimension ref="A1:E218"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="37.83203125" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1">
+    <row r="1" spans="1:5" ht="17" customHeight="1">
       <c r="A1" s="69" t="s">
         <v>57</v>
       </c>
@@ -12122,16 +12115,16 @@
         <v>1668</v>
       </c>
       <c r="C1" s="68" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D1" s="68" t="s">
         <v>1321</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>1322</v>
       </c>
       <c r="E1" s="69" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:5" ht="15">
       <c r="A2" s="2" t="s">
         <v>1537</v>
       </c>
@@ -12139,17 +12132,16 @@
         <v>1439</v>
       </c>
       <c r="C2" s="65" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D2" s="65" t="s">
         <v>1134</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>1244</v>
       </c>
       <c r="E2" s="65" t="s">
         <v>1330</v>
       </c>
-      <c r="H2" s="71"/>
-    </row>
-    <row r="3" spans="1:8" ht="15">
+    </row>
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="2" t="s">
         <v>1537</v>
       </c>
@@ -12157,16 +12149,16 @@
         <v>1440</v>
       </c>
       <c r="C3" s="65" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D3" s="65" t="s">
         <v>1135</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>1245</v>
       </c>
       <c r="E3" s="65" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="2" t="s">
         <v>1537</v>
       </c>
@@ -12174,16 +12166,16 @@
         <v>1441</v>
       </c>
       <c r="C4" s="65" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D4" s="65" t="s">
         <v>1136</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>1246</v>
       </c>
       <c r="E4" s="65" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="2" t="s">
         <v>1537</v>
       </c>
@@ -12191,16 +12183,16 @@
         <v>1442</v>
       </c>
       <c r="C5" s="65" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D5" s="65" t="s">
         <v>1137</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>1247</v>
       </c>
       <c r="E5" s="65" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:5" ht="15">
       <c r="A6" s="2" t="s">
         <v>1537</v>
       </c>
@@ -12208,16 +12200,16 @@
         <v>1443</v>
       </c>
       <c r="C6" s="65" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D6" s="65" t="s">
         <v>1138</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>1248</v>
       </c>
       <c r="E6" s="65" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:5" ht="15">
       <c r="A7" s="2" t="s">
         <v>1537</v>
       </c>
@@ -12225,16 +12217,16 @@
         <v>1444</v>
       </c>
       <c r="C7" s="65" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D7" s="65" t="s">
         <v>1139</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>1249</v>
       </c>
       <c r="E7" s="65" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="2" t="s">
         <v>1537</v>
       </c>
@@ -12242,16 +12234,16 @@
         <v>1445</v>
       </c>
       <c r="C8" s="65" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D8" s="65" t="s">
         <v>1140</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>1250</v>
       </c>
       <c r="E8" s="65" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="2" t="s">
         <v>1537</v>
       </c>
@@ -12259,16 +12251,16 @@
         <v>1446</v>
       </c>
       <c r="C9" s="65" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D9" s="65" t="s">
         <v>1141</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>1251</v>
       </c>
       <c r="E9" s="65" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="2" t="s">
         <v>1537</v>
       </c>
@@ -12276,16 +12268,16 @@
         <v>1447</v>
       </c>
       <c r="C10" s="65" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D10" s="65" t="s">
         <v>1142</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>1252</v>
       </c>
       <c r="E10" s="65" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15">
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="2" t="s">
         <v>1537</v>
       </c>
@@ -12293,16 +12285,16 @@
         <v>1448</v>
       </c>
       <c r="C11" s="65" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D11" s="65" t="s">
         <v>1143</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>1253</v>
       </c>
       <c r="E11" s="65" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:5" ht="15">
       <c r="A12" s="2" t="s">
         <v>1537</v>
       </c>
@@ -12310,16 +12302,16 @@
         <v>1449</v>
       </c>
       <c r="C12" s="65" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D12" s="65" t="s">
         <v>1144</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>1254</v>
       </c>
       <c r="E12" s="65" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15">
+    <row r="13" spans="1:5" ht="15">
       <c r="A13" s="2" t="s">
         <v>1537</v>
       </c>
@@ -12327,16 +12319,16 @@
         <v>1450</v>
       </c>
       <c r="C13" s="65" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D13" s="65" t="s">
         <v>1145</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>1255</v>
       </c>
       <c r="E13" s="65" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15">
+    <row r="14" spans="1:5" ht="15">
       <c r="A14" s="2" t="s">
         <v>1537</v>
       </c>
@@ -12344,16 +12336,16 @@
         <v>1451</v>
       </c>
       <c r="C14" s="65" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D14" s="65" t="s">
         <v>1146</v>
-      </c>
-      <c r="D14" s="65" t="s">
-        <v>1256</v>
       </c>
       <c r="E14" s="65" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15">
+    <row r="15" spans="1:5" ht="15">
       <c r="A15" s="2" t="s">
         <v>1537</v>
       </c>
@@ -12361,16 +12353,16 @@
         <v>1452</v>
       </c>
       <c r="C15" s="65" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D15" s="65" t="s">
         <v>1147</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>1257</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15">
+    <row r="16" spans="1:5" ht="15">
       <c r="A16" s="2" t="s">
         <v>1537</v>
       </c>
@@ -12378,10 +12370,10 @@
         <v>1453</v>
       </c>
       <c r="C16" s="65" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D16" s="65" t="s">
         <v>1148</v>
-      </c>
-      <c r="D16" s="65" t="s">
-        <v>1258</v>
       </c>
       <c r="E16" s="65" t="s">
         <v>1345</v>
@@ -12395,10 +12387,10 @@
         <v>1454</v>
       </c>
       <c r="C17" s="65" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D17" s="65" t="s">
         <v>1149</v>
-      </c>
-      <c r="D17" s="65" t="s">
-        <v>1259</v>
       </c>
       <c r="E17" s="65" t="s">
         <v>1346</v>
@@ -12412,10 +12404,10 @@
         <v>1455</v>
       </c>
       <c r="C18" s="65" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D18" s="65" t="s">
         <v>1150</v>
-      </c>
-      <c r="D18" s="65" t="s">
-        <v>1260</v>
       </c>
       <c r="E18" s="65" t="s">
         <v>1347</v>
@@ -12429,10 +12421,10 @@
         <v>1456</v>
       </c>
       <c r="C19" s="65" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D19" s="65" t="s">
         <v>1151</v>
-      </c>
-      <c r="D19" s="65" t="s">
-        <v>1261</v>
       </c>
       <c r="E19" s="65" t="s">
         <v>1348</v>
@@ -12446,10 +12438,10 @@
         <v>1457</v>
       </c>
       <c r="C20" s="65" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D20" s="65" t="s">
         <v>1152</v>
-      </c>
-      <c r="D20" s="65" t="s">
-        <v>1262</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>1349</v>
@@ -12463,10 +12455,10 @@
         <v>1458</v>
       </c>
       <c r="C21" s="65" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D21" s="65" t="s">
         <v>1153</v>
-      </c>
-      <c r="D21" s="65" t="s">
-        <v>1263</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>1350</v>
@@ -12480,10 +12472,10 @@
         <v>1459</v>
       </c>
       <c r="C22" s="65" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D22" s="65" t="s">
         <v>1154</v>
-      </c>
-      <c r="D22" s="65" t="s">
-        <v>1264</v>
       </c>
       <c r="E22" s="65" t="s">
         <v>1351</v>
@@ -12497,10 +12489,10 @@
         <v>1460</v>
       </c>
       <c r="C23" s="65" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D23" s="65" t="s">
         <v>1155</v>
-      </c>
-      <c r="D23" s="65" t="s">
-        <v>1265</v>
       </c>
       <c r="E23" s="65" t="s">
         <v>1352</v>
@@ -12514,10 +12506,10 @@
         <v>1461</v>
       </c>
       <c r="C24" s="65" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D24" s="65" t="s">
         <v>1156</v>
-      </c>
-      <c r="D24" s="65" t="s">
-        <v>1266</v>
       </c>
       <c r="E24" s="65" t="s">
         <v>1353</v>
@@ -12531,10 +12523,10 @@
         <v>1462</v>
       </c>
       <c r="C25" s="65" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D25" s="65" t="s">
         <v>1157</v>
-      </c>
-      <c r="D25" s="65" t="s">
-        <v>1267</v>
       </c>
       <c r="E25" s="65" t="s">
         <v>1354</v>
@@ -12548,10 +12540,10 @@
         <v>1463</v>
       </c>
       <c r="C26" s="65" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D26" s="65" t="s">
         <v>1158</v>
-      </c>
-      <c r="D26" s="65" t="s">
-        <v>1268</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>1355</v>
@@ -12565,10 +12557,10 @@
         <v>1464</v>
       </c>
       <c r="C27" s="65" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D27" s="65" t="s">
         <v>1159</v>
-      </c>
-      <c r="D27" s="65" t="s">
-        <v>1269</v>
       </c>
       <c r="E27" s="65" t="s">
         <v>1356</v>
@@ -12582,10 +12574,10 @@
         <v>1465</v>
       </c>
       <c r="C28" s="65" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D28" s="65" t="s">
         <v>1160</v>
-      </c>
-      <c r="D28" s="65" t="s">
-        <v>1270</v>
       </c>
       <c r="E28" s="65" t="s">
         <v>1357</v>
@@ -12599,10 +12591,10 @@
         <v>1466</v>
       </c>
       <c r="C29" s="65" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D29" s="65" t="s">
         <v>1161</v>
-      </c>
-      <c r="D29" s="65" t="s">
-        <v>1271</v>
       </c>
       <c r="E29" s="65" t="s">
         <v>1358</v>
@@ -12616,10 +12608,10 @@
         <v>1467</v>
       </c>
       <c r="C30" s="65" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D30" s="65" t="s">
         <v>1162</v>
-      </c>
-      <c r="D30" s="65" t="s">
-        <v>1272</v>
       </c>
       <c r="E30" s="65" t="s">
         <v>1359</v>
@@ -12633,10 +12625,10 @@
         <v>1468</v>
       </c>
       <c r="C31" s="65" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D31" s="65" t="s">
         <v>1163</v>
-      </c>
-      <c r="D31" s="65" t="s">
-        <v>1273</v>
       </c>
       <c r="E31" s="65" t="s">
         <v>1360</v>
@@ -12650,10 +12642,10 @@
         <v>1469</v>
       </c>
       <c r="C32" s="65" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D32" s="65" t="s">
         <v>1164</v>
-      </c>
-      <c r="D32" s="65" t="s">
-        <v>1274</v>
       </c>
       <c r="E32" s="65" t="s">
         <v>1361</v>
@@ -12667,10 +12659,10 @@
         <v>1470</v>
       </c>
       <c r="C33" s="65" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D33" s="65" t="s">
         <v>1165</v>
-      </c>
-      <c r="D33" s="65" t="s">
-        <v>1275</v>
       </c>
       <c r="E33" s="65" t="s">
         <v>1362</v>
@@ -12684,10 +12676,10 @@
         <v>1471</v>
       </c>
       <c r="C34" s="65" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D34" s="65" t="s">
         <v>1166</v>
-      </c>
-      <c r="D34" s="65" t="s">
-        <v>1276</v>
       </c>
       <c r="E34" s="65" t="s">
         <v>1363</v>
@@ -12701,10 +12693,10 @@
         <v>1472</v>
       </c>
       <c r="C35" s="65" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D35" s="65" t="s">
         <v>1167</v>
-      </c>
-      <c r="D35" s="65" t="s">
-        <v>1277</v>
       </c>
       <c r="E35" s="65" t="s">
         <v>1364</v>
@@ -12718,10 +12710,10 @@
         <v>1168</v>
       </c>
       <c r="C36" s="65" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D36" s="65" t="s">
         <v>1169</v>
-      </c>
-      <c r="D36" s="65" t="s">
-        <v>1278</v>
       </c>
       <c r="E36" s="65" t="s">
         <v>1365</v>
@@ -12735,10 +12727,10 @@
         <v>1473</v>
       </c>
       <c r="C37" s="65" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D37" s="65" t="s">
         <v>1170</v>
-      </c>
-      <c r="D37" s="65" t="s">
-        <v>1279</v>
       </c>
       <c r="E37" s="65" t="s">
         <v>1366</v>
@@ -12752,10 +12744,10 @@
         <v>1474</v>
       </c>
       <c r="C38" s="65" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D38" s="65" t="s">
         <v>1171</v>
-      </c>
-      <c r="D38" s="65" t="s">
-        <v>1288</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>1405</v>
@@ -12769,10 +12761,10 @@
         <v>1475</v>
       </c>
       <c r="C39" s="65" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D39" s="65" t="s">
         <v>1172</v>
-      </c>
-      <c r="D39" s="65" t="s">
-        <v>1281</v>
       </c>
       <c r="E39" s="65" t="s">
         <v>1368</v>
@@ -12786,10 +12778,10 @@
         <v>1476</v>
       </c>
       <c r="C40" s="65" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D40" s="65" t="s">
         <v>1173</v>
-      </c>
-      <c r="D40" s="65" t="s">
-        <v>1282</v>
       </c>
       <c r="E40" s="65" t="s">
         <v>1369</v>
@@ -12803,10 +12795,10 @@
         <v>1477</v>
       </c>
       <c r="C41" s="65" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D41" s="65" t="s">
         <v>1174</v>
-      </c>
-      <c r="D41" s="65" t="s">
-        <v>1283</v>
       </c>
       <c r="E41" s="65" t="s">
         <v>1370</v>
@@ -12820,10 +12812,10 @@
         <v>1478</v>
       </c>
       <c r="C42" s="65" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D42" s="65" t="s">
         <v>1175</v>
-      </c>
-      <c r="D42" s="65" t="s">
-        <v>1280</v>
       </c>
       <c r="E42" s="65" t="s">
         <v>1367</v>
@@ -12837,10 +12829,10 @@
         <v>1479</v>
       </c>
       <c r="C43" s="65" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D43" s="65" t="s">
         <v>1176</v>
-      </c>
-      <c r="D43" s="65" t="s">
-        <v>1284</v>
       </c>
       <c r="E43" s="65" t="s">
         <v>1371</v>
@@ -12854,10 +12846,10 @@
         <v>1480</v>
       </c>
       <c r="C44" s="65" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D44" s="65" t="s">
         <v>1177</v>
-      </c>
-      <c r="D44" s="65" t="s">
-        <v>1285</v>
       </c>
       <c r="E44" s="65" t="s">
         <v>1372</v>
@@ -12871,10 +12863,10 @@
         <v>1481</v>
       </c>
       <c r="C45" s="65" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D45" s="65" t="s">
         <v>1178</v>
-      </c>
-      <c r="D45" s="65" t="s">
-        <v>1286</v>
       </c>
       <c r="E45" s="65" t="s">
         <v>1373</v>
@@ -12887,10 +12879,10 @@
       <c r="B46" s="26" t="s">
         <v>1482</v>
       </c>
-      <c r="C46" s="65" t="s">
+      <c r="C46" s="26"/>
+      <c r="D46" s="65" t="s">
         <v>1179</v>
       </c>
-      <c r="D46" s="26"/>
       <c r="E46" s="65" t="s">
         <v>1374</v>
       </c>
@@ -12902,10 +12894,10 @@
       <c r="B47" s="26" t="s">
         <v>1483</v>
       </c>
-      <c r="C47" s="65" t="s">
+      <c r="C47" s="26"/>
+      <c r="D47" s="65" t="s">
         <v>1180</v>
       </c>
-      <c r="D47" s="26"/>
       <c r="E47" s="65" t="s">
         <v>1375</v>
       </c>
@@ -12917,10 +12909,10 @@
       <c r="B48" s="26" t="s">
         <v>1484</v>
       </c>
-      <c r="C48" s="65" t="s">
+      <c r="C48" s="26"/>
+      <c r="D48" s="65" t="s">
         <v>1181</v>
       </c>
-      <c r="D48" s="26"/>
       <c r="E48" s="65" t="s">
         <v>1376</v>
       </c>
@@ -12932,10 +12924,10 @@
       <c r="B49" s="26" t="s">
         <v>1485</v>
       </c>
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="26"/>
+      <c r="D49" s="65" t="s">
         <v>1182</v>
       </c>
-      <c r="D49" s="26"/>
       <c r="E49" s="65" t="s">
         <v>1377</v>
       </c>
@@ -12947,10 +12939,10 @@
       <c r="B50" s="26" t="s">
         <v>1486</v>
       </c>
-      <c r="C50" s="65" t="s">
+      <c r="C50" s="26"/>
+      <c r="D50" s="65" t="s">
         <v>1183</v>
       </c>
-      <c r="D50" s="26"/>
       <c r="E50" s="65" t="s">
         <v>1378</v>
       </c>
@@ -12962,10 +12954,10 @@
       <c r="B51" s="26" t="s">
         <v>1487</v>
       </c>
-      <c r="C51" s="65" t="s">
+      <c r="C51" s="26"/>
+      <c r="D51" s="65" t="s">
         <v>1184</v>
       </c>
-      <c r="D51" s="26"/>
       <c r="E51" s="65" t="s">
         <v>1379</v>
       </c>
@@ -12977,10 +12969,10 @@
       <c r="B52" s="26" t="s">
         <v>1488</v>
       </c>
-      <c r="C52" s="65" t="s">
+      <c r="C52" s="26"/>
+      <c r="D52" s="65" t="s">
         <v>1185</v>
       </c>
-      <c r="D52" s="26"/>
       <c r="E52" s="65" t="s">
         <v>1380</v>
       </c>
@@ -12992,10 +12984,10 @@
       <c r="B53" s="26" t="s">
         <v>1489</v>
       </c>
-      <c r="C53" s="65" t="s">
+      <c r="C53" s="26"/>
+      <c r="D53" s="65" t="s">
         <v>1186</v>
       </c>
-      <c r="D53" s="26"/>
       <c r="E53" s="65" t="s">
         <v>1381</v>
       </c>
@@ -13007,10 +12999,10 @@
       <c r="B54" s="26" t="s">
         <v>1490</v>
       </c>
-      <c r="C54" s="65" t="s">
+      <c r="C54" s="26"/>
+      <c r="D54" s="65" t="s">
         <v>1187</v>
       </c>
-      <c r="D54" s="26"/>
       <c r="E54" s="65" t="s">
         <v>1382</v>
       </c>
@@ -13022,10 +13014,10 @@
       <c r="B55" s="26" t="s">
         <v>1491</v>
       </c>
-      <c r="C55" s="65" t="s">
+      <c r="C55" s="26"/>
+      <c r="D55" s="65" t="s">
         <v>1188</v>
       </c>
-      <c r="D55" s="26"/>
       <c r="E55" s="65" t="s">
         <v>1383</v>
       </c>
@@ -13037,10 +13029,10 @@
       <c r="B56" s="26" t="s">
         <v>1492</v>
       </c>
-      <c r="C56" s="65" t="s">
+      <c r="C56" s="26"/>
+      <c r="D56" s="65" t="s">
         <v>1189</v>
       </c>
-      <c r="D56" s="26"/>
       <c r="E56" s="65" t="s">
         <v>1384</v>
       </c>
@@ -13052,10 +13044,10 @@
       <c r="B57" s="26" t="s">
         <v>1493</v>
       </c>
-      <c r="C57" s="65" t="s">
+      <c r="C57" s="26"/>
+      <c r="D57" s="65" t="s">
         <v>1190</v>
       </c>
-      <c r="D57" s="26"/>
       <c r="E57" s="65" t="s">
         <v>1385</v>
       </c>
@@ -13067,10 +13059,10 @@
       <c r="B58" s="26" t="s">
         <v>1494</v>
       </c>
-      <c r="C58" s="65" t="s">
+      <c r="C58" s="26"/>
+      <c r="D58" s="65" t="s">
         <v>1191</v>
       </c>
-      <c r="D58" s="26"/>
       <c r="E58" s="65" t="s">
         <v>1386</v>
       </c>
@@ -13082,10 +13074,10 @@
       <c r="B59" s="26" t="s">
         <v>1495</v>
       </c>
-      <c r="C59" s="65" t="s">
+      <c r="C59" s="26"/>
+      <c r="D59" s="65" t="s">
         <v>1192</v>
       </c>
-      <c r="D59" s="26"/>
       <c r="E59" s="65" t="s">
         <v>1387</v>
       </c>
@@ -13097,10 +13089,10 @@
       <c r="B60" s="26" t="s">
         <v>1496</v>
       </c>
-      <c r="C60" s="65" t="s">
+      <c r="C60" s="26"/>
+      <c r="D60" s="65" t="s">
         <v>1193</v>
       </c>
-      <c r="D60" s="26"/>
       <c r="E60" s="65" t="s">
         <v>1388</v>
       </c>
@@ -13112,10 +13104,10 @@
       <c r="B61" s="26" t="s">
         <v>1497</v>
       </c>
-      <c r="C61" s="65" t="s">
+      <c r="C61" s="26"/>
+      <c r="D61" s="65" t="s">
         <v>1194</v>
       </c>
-      <c r="D61" s="26"/>
       <c r="E61" s="65" t="s">
         <v>1389</v>
       </c>
@@ -13127,10 +13119,10 @@
       <c r="B62" s="26" t="s">
         <v>1498</v>
       </c>
-      <c r="C62" s="65" t="s">
+      <c r="C62" s="26"/>
+      <c r="D62" s="65" t="s">
         <v>1195</v>
       </c>
-      <c r="D62" s="26"/>
       <c r="E62" s="65" t="s">
         <v>1390</v>
       </c>
@@ -13142,10 +13134,10 @@
       <c r="B63" s="26" t="s">
         <v>1499</v>
       </c>
-      <c r="C63" s="65" t="s">
+      <c r="C63" s="26"/>
+      <c r="D63" s="65" t="s">
         <v>1196</v>
       </c>
-      <c r="D63" s="26"/>
       <c r="E63" s="65" t="s">
         <v>1391</v>
       </c>
@@ -13157,10 +13149,10 @@
       <c r="B64" s="26" t="s">
         <v>1500</v>
       </c>
-      <c r="C64" s="65" t="s">
+      <c r="C64" s="26"/>
+      <c r="D64" s="65" t="s">
         <v>1197</v>
       </c>
-      <c r="D64" s="26"/>
       <c r="E64" s="65" t="s">
         <v>1392</v>
       </c>
@@ -13172,10 +13164,10 @@
       <c r="B65" s="26" t="s">
         <v>1501</v>
       </c>
-      <c r="C65" s="65" t="s">
+      <c r="C65" s="26"/>
+      <c r="D65" s="65" t="s">
         <v>1198</v>
       </c>
-      <c r="D65" s="26"/>
       <c r="E65" s="65" t="s">
         <v>1393</v>
       </c>
@@ -13187,10 +13179,10 @@
       <c r="B66" s="26" t="s">
         <v>1109</v>
       </c>
-      <c r="C66" s="65" t="s">
+      <c r="C66" s="26"/>
+      <c r="D66" s="65" t="s">
         <v>1199</v>
       </c>
-      <c r="D66" s="26"/>
       <c r="E66" s="65" t="s">
         <v>1394</v>
       </c>
@@ -13202,10 +13194,10 @@
       <c r="B67" s="26" t="s">
         <v>1502</v>
       </c>
-      <c r="C67" s="65" t="s">
+      <c r="C67" s="26"/>
+      <c r="D67" s="65" t="s">
         <v>1201</v>
       </c>
-      <c r="D67" s="26"/>
       <c r="E67" s="65" t="s">
         <v>1395</v>
       </c>
@@ -13217,10 +13209,10 @@
       <c r="B68" s="26" t="s">
         <v>1503</v>
       </c>
-      <c r="C68" s="65" t="s">
+      <c r="C68" s="26"/>
+      <c r="D68" s="65" t="s">
         <v>1203</v>
       </c>
-      <c r="D68" s="26"/>
       <c r="E68" s="65" t="s">
         <v>1396</v>
       </c>
@@ -13232,10 +13224,10 @@
       <c r="B69" s="26" t="s">
         <v>1504</v>
       </c>
-      <c r="C69" s="65" t="s">
+      <c r="C69" s="26"/>
+      <c r="D69" s="65" t="s">
         <v>1205</v>
       </c>
-      <c r="D69" s="26"/>
       <c r="E69" s="65" t="s">
         <v>1397</v>
       </c>
@@ -13247,10 +13239,10 @@
       <c r="B70" s="26" t="s">
         <v>1505</v>
       </c>
-      <c r="C70" s="65" t="s">
+      <c r="C70" s="26"/>
+      <c r="D70" s="65" t="s">
         <v>1207</v>
       </c>
-      <c r="D70" s="26"/>
       <c r="E70" s="65" t="s">
         <v>1398</v>
       </c>
@@ -13262,10 +13254,10 @@
       <c r="B71" s="26" t="s">
         <v>1208</v>
       </c>
-      <c r="C71" s="65" t="s">
+      <c r="C71" s="26"/>
+      <c r="D71" s="65" t="s">
         <v>1209</v>
       </c>
-      <c r="D71" s="26"/>
       <c r="E71" s="65" t="s">
         <v>1399</v>
       </c>
@@ -13277,10 +13269,10 @@
       <c r="B72" s="26" t="s">
         <v>1506</v>
       </c>
-      <c r="C72" s="65" t="s">
+      <c r="C72" s="26"/>
+      <c r="D72" s="65" t="s">
         <v>1211</v>
       </c>
-      <c r="D72" s="26"/>
       <c r="E72" s="65" t="s">
         <v>1400</v>
       </c>
@@ -13292,10 +13284,10 @@
       <c r="B73" s="26" t="s">
         <v>1507</v>
       </c>
-      <c r="C73" s="65" t="s">
+      <c r="C73" s="26"/>
+      <c r="D73" s="65" t="s">
         <v>1213</v>
       </c>
-      <c r="D73" s="26"/>
       <c r="E73" s="65" t="s">
         <v>1401</v>
       </c>
@@ -13307,10 +13299,10 @@
       <c r="B74" s="26" t="s">
         <v>1508</v>
       </c>
-      <c r="C74" s="65" t="s">
+      <c r="C74" s="26"/>
+      <c r="D74" s="65" t="s">
         <v>1215</v>
       </c>
-      <c r="D74" s="26"/>
       <c r="E74" s="65" t="s">
         <v>1402</v>
       </c>
@@ -13322,10 +13314,10 @@
       <c r="B75" s="26" t="s">
         <v>1509</v>
       </c>
-      <c r="C75" s="65" t="s">
+      <c r="C75" s="26"/>
+      <c r="D75" s="65" t="s">
         <v>1217</v>
       </c>
-      <c r="D75" s="26"/>
       <c r="E75" s="65" t="s">
         <v>1403</v>
       </c>
@@ -13338,10 +13330,10 @@
         <v>1510</v>
       </c>
       <c r="C76" s="65" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D76" s="65" t="s">
         <v>1218</v>
-      </c>
-      <c r="D76" s="65" t="s">
-        <v>1289</v>
       </c>
       <c r="E76" s="65" t="s">
         <v>1406</v>
@@ -13355,10 +13347,10 @@
         <v>1511</v>
       </c>
       <c r="C77" s="65" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D77" s="65" t="s">
         <v>1219</v>
-      </c>
-      <c r="D77" s="65" t="s">
-        <v>1293</v>
       </c>
       <c r="E77" s="65" t="s">
         <v>1410</v>
@@ -13372,10 +13364,10 @@
         <v>1512</v>
       </c>
       <c r="C78" s="65" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D78" s="65" t="s">
         <v>1220</v>
-      </c>
-      <c r="D78" s="65" t="s">
-        <v>1294</v>
       </c>
       <c r="E78" s="65" t="s">
         <v>1411</v>
@@ -13389,10 +13381,10 @@
         <v>1513</v>
       </c>
       <c r="C79" s="65" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D79" s="65" t="s">
         <v>1221</v>
-      </c>
-      <c r="D79" s="65" t="s">
-        <v>1290</v>
       </c>
       <c r="E79" s="65" t="s">
         <v>1407</v>
@@ -13406,10 +13398,10 @@
         <v>1514</v>
       </c>
       <c r="C80" s="65" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D80" s="65" t="s">
         <v>1222</v>
-      </c>
-      <c r="D80" s="65" t="s">
-        <v>1292</v>
       </c>
       <c r="E80" s="65" t="s">
         <v>1409</v>
@@ -13423,10 +13415,10 @@
         <v>1515</v>
       </c>
       <c r="C81" s="65" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D81" s="65" t="s">
         <v>1223</v>
-      </c>
-      <c r="D81" s="65" t="s">
-        <v>1295</v>
       </c>
       <c r="E81" s="65" t="s">
         <v>1412</v>
@@ -13440,10 +13432,10 @@
         <v>1516</v>
       </c>
       <c r="C82" s="65" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D82" s="65" t="s">
         <v>1224</v>
-      </c>
-      <c r="D82" s="65" t="s">
-        <v>1296</v>
       </c>
       <c r="E82" s="65" t="s">
         <v>1413</v>
@@ -13457,10 +13449,10 @@
         <v>1517</v>
       </c>
       <c r="C83" s="65" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D83" s="65" t="s">
         <v>1225</v>
-      </c>
-      <c r="D83" s="65" t="s">
-        <v>1297</v>
       </c>
       <c r="E83" s="65" t="s">
         <v>1414</v>
@@ -13474,10 +13466,10 @@
         <v>1518</v>
       </c>
       <c r="C84" s="65" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D84" s="65" t="s">
         <v>1226</v>
-      </c>
-      <c r="D84" s="65" t="s">
-        <v>1298</v>
       </c>
       <c r="E84" s="65" t="s">
         <v>1415</v>
@@ -13491,10 +13483,10 @@
         <v>1519</v>
       </c>
       <c r="C85" s="65" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D85" s="65" t="s">
         <v>1227</v>
-      </c>
-      <c r="D85" s="65" t="s">
-        <v>1299</v>
       </c>
       <c r="E85" s="65" t="s">
         <v>1416</v>
@@ -13508,10 +13500,10 @@
         <v>1520</v>
       </c>
       <c r="C86" s="65" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D86" s="65" t="s">
         <v>1228</v>
-      </c>
-      <c r="D86" s="65" t="s">
-        <v>1300</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>1417</v>
@@ -13525,10 +13517,10 @@
         <v>1521</v>
       </c>
       <c r="C87" s="65" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D87" s="65" t="s">
         <v>1229</v>
-      </c>
-      <c r="D87" s="65" t="s">
-        <v>1301</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>1418</v>
@@ -13542,10 +13534,10 @@
         <v>1522</v>
       </c>
       <c r="C88" s="65" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D88" s="65" t="s">
         <v>1230</v>
-      </c>
-      <c r="D88" s="65" t="s">
-        <v>1302</v>
       </c>
       <c r="E88" s="65" t="s">
         <v>1419</v>
@@ -13559,10 +13551,10 @@
         <v>1523</v>
       </c>
       <c r="C89" s="65" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D89" s="65" t="s">
         <v>1231</v>
-      </c>
-      <c r="D89" s="65" t="s">
-        <v>1304</v>
       </c>
       <c r="E89" s="65" t="s">
         <v>1420</v>
@@ -13576,10 +13568,10 @@
         <v>1524</v>
       </c>
       <c r="C90" s="65" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D90" s="65" t="s">
         <v>1232</v>
-      </c>
-      <c r="D90" s="65" t="s">
-        <v>1305</v>
       </c>
       <c r="E90" s="65" t="s">
         <v>1421</v>
@@ -13593,10 +13585,10 @@
         <v>1525</v>
       </c>
       <c r="C91" s="65" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D91" s="65" t="s">
         <v>1233</v>
-      </c>
-      <c r="D91" s="65" t="s">
-        <v>1306</v>
       </c>
       <c r="E91" s="65" t="s">
         <v>1422</v>
@@ -13610,10 +13602,10 @@
         <v>1526</v>
       </c>
       <c r="C92" s="65" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D92" s="65" t="s">
         <v>1234</v>
-      </c>
-      <c r="D92" s="65" t="s">
-        <v>1307</v>
       </c>
       <c r="E92" s="65" t="s">
         <v>1423</v>
@@ -13627,10 +13619,10 @@
         <v>1527</v>
       </c>
       <c r="C93" s="65" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D93" s="65" t="s">
         <v>1235</v>
-      </c>
-      <c r="D93" s="65" t="s">
-        <v>1308</v>
       </c>
       <c r="E93" s="65" t="s">
         <v>1424</v>
@@ -13644,10 +13636,10 @@
         <v>1528</v>
       </c>
       <c r="C94" s="65" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D94" s="65" t="s">
         <v>1236</v>
-      </c>
-      <c r="D94" s="65" t="s">
-        <v>1309</v>
       </c>
       <c r="E94" s="65" t="s">
         <v>1425</v>
@@ -13661,10 +13653,10 @@
         <v>1529</v>
       </c>
       <c r="C95" s="65" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D95" s="65" t="s">
         <v>1237</v>
-      </c>
-      <c r="D95" s="65" t="s">
-        <v>1310</v>
       </c>
       <c r="E95" s="65" t="s">
         <v>1426</v>
@@ -13678,10 +13670,10 @@
         <v>1530</v>
       </c>
       <c r="C96" s="65" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D96" s="65" t="s">
         <v>1238</v>
-      </c>
-      <c r="D96" s="65" t="s">
-        <v>1311</v>
       </c>
       <c r="E96" s="65" t="s">
         <v>1427</v>
@@ -13695,10 +13687,10 @@
         <v>1531</v>
       </c>
       <c r="C97" s="65" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D97" s="65" t="s">
         <v>1239</v>
-      </c>
-      <c r="D97" s="65" t="s">
-        <v>1312</v>
       </c>
       <c r="E97" s="65" t="s">
         <v>1428</v>
@@ -13711,10 +13703,10 @@
       <c r="B98" s="26" t="s">
         <v>1240</v>
       </c>
-      <c r="C98" s="65" t="s">
+      <c r="C98" s="26"/>
+      <c r="D98" s="65" t="s">
         <v>1241</v>
       </c>
-      <c r="D98" s="26"/>
       <c r="E98" s="65" t="s">
         <v>1429</v>
       </c>
@@ -13727,10 +13719,10 @@
         <v>1532</v>
       </c>
       <c r="C99" s="65" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D99" s="65" t="s">
         <v>1242</v>
-      </c>
-      <c r="D99" s="65" t="s">
-        <v>1320</v>
       </c>
       <c r="E99" s="65" t="s">
         <v>1436</v>
@@ -13744,10 +13736,10 @@
         <v>1120</v>
       </c>
       <c r="C100" s="65" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D100" s="65" t="s">
         <v>1243</v>
-      </c>
-      <c r="D100" s="65" t="s">
-        <v>1108</v>
       </c>
       <c r="E100" s="65" t="s">
         <v>1437</v>
@@ -13760,10 +13752,10 @@
       <c r="B101" s="26" t="s">
         <v>1533</v>
       </c>
-      <c r="C101" s="26"/>
-      <c r="D101" s="65" t="s">
+      <c r="C101" s="65" t="s">
         <v>1303</v>
       </c>
+      <c r="D101" s="26"/>
       <c r="E101" s="67"/>
     </row>
     <row r="102" spans="1:5" ht="15">
@@ -13773,10 +13765,10 @@
       <c r="B102" s="26" t="s">
         <v>1534</v>
       </c>
-      <c r="C102" s="26"/>
-      <c r="D102" s="65" t="s">
+      <c r="C102" s="65" t="s">
         <v>1287</v>
       </c>
+      <c r="D102" s="26"/>
       <c r="E102" s="65" t="s">
         <v>1404</v>
       </c>
@@ -13788,10 +13780,10 @@
       <c r="B103" s="26" t="s">
         <v>1535</v>
       </c>
-      <c r="C103" s="26"/>
-      <c r="D103" s="65" t="s">
+      <c r="C103" s="65" t="s">
         <v>1291</v>
       </c>
+      <c r="D103" s="26"/>
       <c r="E103" s="65" t="s">
         <v>1408</v>
       </c>
@@ -13803,10 +13795,10 @@
       <c r="B104" s="26" t="s">
         <v>1323</v>
       </c>
-      <c r="C104" s="26"/>
-      <c r="D104" s="65" t="s">
+      <c r="C104" s="65" t="s">
         <v>1313</v>
       </c>
+      <c r="D104" s="26"/>
       <c r="E104" s="65" t="s">
         <v>1430</v>
       </c>
@@ -13818,10 +13810,10 @@
       <c r="B105" s="26" t="s">
         <v>1324</v>
       </c>
-      <c r="C105" s="26"/>
-      <c r="D105" s="65" t="s">
+      <c r="C105" s="65" t="s">
         <v>1314</v>
       </c>
+      <c r="D105" s="26"/>
       <c r="E105" s="67"/>
     </row>
     <row r="106" spans="1:5" ht="15">
@@ -13831,10 +13823,10 @@
       <c r="B106" s="26" t="s">
         <v>1325</v>
       </c>
-      <c r="C106" s="26"/>
-      <c r="D106" s="65" t="s">
+      <c r="C106" s="65" t="s">
         <v>1315</v>
       </c>
+      <c r="D106" s="26"/>
       <c r="E106" s="65" t="s">
         <v>1431</v>
       </c>
@@ -13846,10 +13838,10 @@
       <c r="B107" s="26" t="s">
         <v>1326</v>
       </c>
-      <c r="C107" s="26"/>
-      <c r="D107" s="65" t="s">
+      <c r="C107" s="65" t="s">
         <v>1316</v>
       </c>
+      <c r="D107" s="26"/>
       <c r="E107" s="65" t="s">
         <v>1432</v>
       </c>
@@ -13861,10 +13853,10 @@
       <c r="B108" s="26" t="s">
         <v>1327</v>
       </c>
-      <c r="C108" s="26"/>
-      <c r="D108" s="65" t="s">
+      <c r="C108" s="65" t="s">
         <v>1317</v>
       </c>
+      <c r="D108" s="26"/>
       <c r="E108" s="65" t="s">
         <v>1433</v>
       </c>
@@ -13876,10 +13868,10 @@
       <c r="B109" s="26" t="s">
         <v>1328</v>
       </c>
-      <c r="C109" s="26"/>
-      <c r="D109" s="65" t="s">
+      <c r="C109" s="65" t="s">
         <v>1318</v>
       </c>
+      <c r="D109" s="26"/>
       <c r="E109" s="65" t="s">
         <v>1434</v>
       </c>
@@ -13891,10 +13883,10 @@
       <c r="B110" s="26" t="s">
         <v>1329</v>
       </c>
-      <c r="C110" s="26"/>
-      <c r="D110" s="65" t="s">
+      <c r="C110" s="65" t="s">
         <v>1319</v>
       </c>
+      <c r="D110" s="26"/>
       <c r="E110" s="65" t="s">
         <v>1435</v>
       </c>
@@ -13915,1170 +13907,1169 @@
       <c r="B112" s="65" t="s">
         <v>1672</v>
       </c>
-      <c r="C112" s="65" t="s">
+      <c r="D112" s="65" t="s">
         <v>1539</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15">
+    <row r="113" spans="1:4" ht="15">
       <c r="A113" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B113" s="65" t="s">
         <v>1673</v>
       </c>
-      <c r="C113" s="65" t="s">
+      <c r="D113" s="65" t="s">
         <v>1540</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15">
+    <row r="114" spans="1:4" ht="15">
       <c r="A114" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B114" s="65" t="s">
         <v>1674</v>
       </c>
-      <c r="C114" s="65" t="s">
+      <c r="D114" s="65" t="s">
         <v>1541</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15">
+    <row r="115" spans="1:4" ht="15">
       <c r="A115" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B115" s="65" t="s">
         <v>1675</v>
       </c>
-      <c r="C115" s="65" t="s">
+      <c r="D115" s="65" t="s">
         <v>1542</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15">
+    <row r="116" spans="1:4" ht="15">
       <c r="A116" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B116" s="65" t="s">
         <v>1676</v>
       </c>
-      <c r="C116" s="65" t="s">
+      <c r="D116" s="65" t="s">
         <v>1543</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15">
+    <row r="117" spans="1:4" ht="15">
       <c r="A117" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B117" s="65" t="s">
         <v>1677</v>
       </c>
-      <c r="C117" s="65" t="s">
+      <c r="D117" s="65" t="s">
         <v>1544</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15">
+    <row r="118" spans="1:4" ht="15">
       <c r="A118" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B118" s="65" t="s">
         <v>1678</v>
       </c>
-      <c r="C118" s="65" t="s">
+      <c r="D118" s="65" t="s">
         <v>1545</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15">
+    <row r="119" spans="1:4" ht="15">
       <c r="A119" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B119" s="65" t="s">
         <v>1679</v>
       </c>
-      <c r="C119" s="65" t="s">
+      <c r="D119" s="65" t="s">
         <v>1546</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15">
+    <row r="120" spans="1:4" ht="15">
       <c r="A120" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B120" s="65" t="s">
         <v>1680</v>
       </c>
-      <c r="C120" s="65" t="s">
+      <c r="D120" s="65" t="s">
         <v>1547</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15">
+    <row r="121" spans="1:4" ht="15">
       <c r="A121" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B121" s="65" t="s">
         <v>1681</v>
       </c>
-      <c r="C121" s="65" t="s">
+      <c r="D121" s="65" t="s">
         <v>1548</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15">
+    <row r="122" spans="1:4" ht="15">
       <c r="A122" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B122" s="65" t="s">
         <v>1682</v>
       </c>
-      <c r="C122" s="65" t="s">
+      <c r="D122" s="65" t="s">
         <v>1549</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15">
+    <row r="123" spans="1:4" ht="15">
       <c r="A123" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B123" s="65" t="s">
         <v>1683</v>
       </c>
-      <c r="C123" s="65" t="s">
+      <c r="D123" s="65" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15">
+    <row r="124" spans="1:4" ht="15">
       <c r="A124" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B124" s="65" t="s">
         <v>1684</v>
       </c>
-      <c r="C124" s="65" t="s">
+      <c r="D124" s="65" t="s">
         <v>1551</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15">
+    <row r="125" spans="1:4" ht="15">
       <c r="A125" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B125" s="65" t="s">
         <v>1685</v>
       </c>
-      <c r="C125" s="65" t="s">
+      <c r="D125" s="65" t="s">
         <v>1552</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15">
+    <row r="126" spans="1:4" ht="15">
       <c r="A126" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B126" s="65" t="s">
         <v>1686</v>
       </c>
-      <c r="C126" s="65" t="s">
+      <c r="D126" s="65" t="s">
         <v>1553</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15">
+    <row r="127" spans="1:4" ht="15">
       <c r="A127" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B127" s="65" t="s">
         <v>1687</v>
       </c>
-      <c r="C127" s="65" t="s">
+      <c r="D127" s="65" t="s">
         <v>1554</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15">
+    <row r="128" spans="1:4" ht="15">
       <c r="A128" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B128" s="65" t="s">
         <v>1688</v>
       </c>
-      <c r="C128" s="65" t="s">
+      <c r="D128" s="65" t="s">
         <v>1555</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15">
+    <row r="129" spans="1:4" ht="15">
       <c r="A129" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B129" s="65" t="s">
         <v>1689</v>
       </c>
-      <c r="C129" s="65" t="s">
+      <c r="D129" s="65" t="s">
         <v>1556</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15">
+    <row r="130" spans="1:4" ht="15">
       <c r="A130" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B130" s="65" t="s">
         <v>1690</v>
       </c>
-      <c r="C130" s="65" t="s">
+      <c r="D130" s="65" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15">
+    <row r="131" spans="1:4" ht="15">
       <c r="A131" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B131" s="65" t="s">
         <v>1691</v>
       </c>
-      <c r="C131" s="65" t="s">
+      <c r="D131" s="65" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15">
+    <row r="132" spans="1:4" ht="15">
       <c r="A132" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B132" s="65" t="s">
         <v>1692</v>
       </c>
-      <c r="C132" s="65" t="s">
+      <c r="D132" s="65" t="s">
         <v>1559</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15">
+    <row r="133" spans="1:4" ht="15">
       <c r="A133" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B133" s="65" t="s">
         <v>1693</v>
       </c>
-      <c r="C133" s="65" t="s">
+      <c r="D133" s="65" t="s">
         <v>1560</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15">
+    <row r="134" spans="1:4" ht="15">
       <c r="A134" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B134" s="65" t="s">
         <v>1694</v>
       </c>
-      <c r="C134" s="65" t="s">
+      <c r="D134" s="65" t="s">
         <v>1561</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15">
+    <row r="135" spans="1:4" ht="15">
       <c r="A135" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B135" s="65" t="s">
         <v>1695</v>
       </c>
-      <c r="C135" s="65" t="s">
+      <c r="D135" s="65" t="s">
         <v>1562</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15">
+    <row r="136" spans="1:4" ht="15">
       <c r="A136" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B136" s="65" t="s">
         <v>1696</v>
       </c>
-      <c r="C136" s="65" t="s">
+      <c r="D136" s="65" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15">
+    <row r="137" spans="1:4" ht="15">
       <c r="A137" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B137" s="65" t="s">
         <v>1697</v>
       </c>
-      <c r="C137" s="65" t="s">
+      <c r="D137" s="65" t="s">
         <v>1564</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15">
+    <row r="138" spans="1:4" ht="15">
       <c r="A138" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B138" s="65" t="s">
         <v>1698</v>
       </c>
-      <c r="C138" s="65" t="s">
+      <c r="D138" s="65" t="s">
         <v>1565</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15">
+    <row r="139" spans="1:4" ht="15">
       <c r="A139" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B139" s="65" t="s">
         <v>1699</v>
       </c>
-      <c r="C139" s="65" t="s">
+      <c r="D139" s="65" t="s">
         <v>1566</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15">
+    <row r="140" spans="1:4" ht="15">
       <c r="A140" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B140" s="65" t="s">
         <v>1700</v>
       </c>
-      <c r="C140" s="65" t="s">
+      <c r="D140" s="65" t="s">
         <v>1567</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15">
+    <row r="141" spans="1:4" ht="15">
       <c r="A141" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B141" s="65" t="s">
         <v>1701</v>
       </c>
-      <c r="C141" s="65" t="s">
+      <c r="D141" s="65" t="s">
         <v>1568</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15">
+    <row r="142" spans="1:4" ht="15">
       <c r="A142" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B142" s="65" t="s">
         <v>1702</v>
       </c>
-      <c r="C142" s="65" t="s">
+      <c r="D142" s="65" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15">
+    <row r="143" spans="1:4" ht="15">
       <c r="A143" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B143" s="65" t="s">
         <v>1675</v>
       </c>
-      <c r="C143" s="65" t="s">
+      <c r="D143" s="65" t="s">
         <v>1542</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15">
+    <row r="144" spans="1:4" ht="15">
       <c r="A144" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B144" s="65" t="s">
         <v>1703</v>
       </c>
-      <c r="C144" s="65" t="s">
+      <c r="D144" s="65" t="s">
         <v>1570</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15">
+    <row r="145" spans="1:4" ht="15">
       <c r="A145" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B145" s="65" t="s">
         <v>1704</v>
       </c>
-      <c r="C145" s="65" t="s">
+      <c r="D145" s="65" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15">
+    <row r="146" spans="1:4" ht="15">
       <c r="A146" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B146" s="65" t="s">
         <v>1705</v>
       </c>
-      <c r="C146" s="65" t="s">
+      <c r="D146" s="65" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15">
+    <row r="147" spans="1:4" ht="15">
       <c r="A147" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B147" s="65" t="s">
         <v>1706</v>
       </c>
-      <c r="C147" s="65" t="s">
+      <c r="D147" s="65" t="s">
         <v>1573</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15">
+    <row r="148" spans="1:4" ht="15">
       <c r="A148" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B148" s="65" t="s">
         <v>1574</v>
       </c>
-      <c r="C148" s="65" t="s">
+      <c r="D148" s="65" t="s">
         <v>1575</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15">
+    <row r="149" spans="1:4" ht="15">
       <c r="A149" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B149" s="65" t="s">
         <v>1576</v>
       </c>
-      <c r="C149" s="65" t="s">
+      <c r="D149" s="65" t="s">
         <v>1577</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15">
+    <row r="150" spans="1:4" ht="15">
       <c r="A150" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B150" s="65" t="s">
         <v>1707</v>
       </c>
-      <c r="C150" s="65" t="s">
+      <c r="D150" s="65" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15">
+    <row r="151" spans="1:4" ht="15">
       <c r="A151" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B151" s="65" t="s">
         <v>1708</v>
       </c>
-      <c r="C151" s="65" t="s">
+      <c r="D151" s="65" t="s">
         <v>1579</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15">
+    <row r="152" spans="1:4" ht="15">
       <c r="A152" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B152" s="65" t="s">
         <v>1709</v>
       </c>
-      <c r="C152" s="65" t="s">
+      <c r="D152" s="65" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15">
+    <row r="153" spans="1:4" ht="15">
       <c r="A153" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B153" s="65" t="s">
         <v>1581</v>
       </c>
-      <c r="C153" s="65" t="s">
+      <c r="D153" s="65" t="s">
         <v>1582</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15">
+    <row r="154" spans="1:4" ht="15">
       <c r="A154" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B154" s="65" t="s">
         <v>1710</v>
       </c>
-      <c r="C154" s="65" t="s">
+      <c r="D154" s="65" t="s">
         <v>1583</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15">
+    <row r="155" spans="1:4" ht="15">
       <c r="A155" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B155" s="65" t="s">
         <v>1711</v>
       </c>
-      <c r="C155" s="65" t="s">
+      <c r="D155" s="65" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15">
+    <row r="156" spans="1:4" ht="15">
       <c r="A156" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B156" s="65" t="s">
         <v>1712</v>
       </c>
-      <c r="C156" s="65" t="s">
+      <c r="D156" s="65" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15">
+    <row r="157" spans="1:4" ht="15">
       <c r="A157" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B157" s="65" t="s">
         <v>1713</v>
       </c>
-      <c r="C157" s="65" t="s">
+      <c r="D157" s="65" t="s">
         <v>1586</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15">
+    <row r="158" spans="1:4" ht="15">
       <c r="A158" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B158" s="65" t="s">
         <v>1587</v>
       </c>
-      <c r="C158" s="65" t="s">
+      <c r="D158" s="65" t="s">
         <v>1588</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15">
+    <row r="159" spans="1:4" ht="15">
       <c r="A159" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B159" s="65" t="s">
         <v>1714</v>
       </c>
-      <c r="C159" s="65" t="s">
+      <c r="D159" s="65" t="s">
         <v>1589</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15">
+    <row r="160" spans="1:4" ht="15">
       <c r="A160" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B160" s="65" t="s">
         <v>1590</v>
       </c>
-      <c r="C160" s="65" t="s">
+      <c r="D160" s="65" t="s">
         <v>1591</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15">
+    <row r="161" spans="1:4" ht="15">
       <c r="A161" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B161" s="65" t="s">
         <v>1715</v>
       </c>
-      <c r="C161" s="65" t="s">
+      <c r="D161" s="65" t="s">
         <v>1592</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15">
+    <row r="162" spans="1:4" ht="15">
       <c r="A162" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B162" s="65" t="s">
         <v>1716</v>
       </c>
-      <c r="C162" s="65" t="s">
+      <c r="D162" s="65" t="s">
         <v>1593</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15">
+    <row r="163" spans="1:4" ht="15">
       <c r="A163" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B163" s="65" t="s">
         <v>1210</v>
       </c>
-      <c r="C163" s="65" t="s">
+      <c r="D163" s="65" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15">
+    <row r="164" spans="1:4" ht="15">
       <c r="A164" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B164" s="65" t="s">
         <v>1212</v>
       </c>
-      <c r="C164" s="65" t="s">
+      <c r="D164" s="65" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15">
+    <row r="165" spans="1:4" ht="15">
       <c r="A165" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B165" s="65" t="s">
         <v>1214</v>
       </c>
-      <c r="C165" s="65" t="s">
+      <c r="D165" s="65" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15">
+    <row r="166" spans="1:4" ht="15">
       <c r="A166" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B166" s="65" t="s">
         <v>1216</v>
       </c>
-      <c r="C166" s="65" t="s">
+      <c r="D166" s="65" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15">
+    <row r="167" spans="1:4" ht="15">
       <c r="A167" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B167" s="65" t="s">
         <v>1200</v>
       </c>
-      <c r="C167" s="65" t="s">
+      <c r="D167" s="65" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15">
+    <row r="168" spans="1:4" ht="15">
       <c r="A168" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B168" s="65" t="s">
         <v>1202</v>
       </c>
-      <c r="C168" s="65" t="s">
+      <c r="D168" s="65" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15">
+    <row r="169" spans="1:4" ht="15">
       <c r="A169" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B169" s="65" t="s">
         <v>1204</v>
       </c>
-      <c r="C169" s="65" t="s">
+      <c r="D169" s="65" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15">
+    <row r="170" spans="1:4" ht="15">
       <c r="A170" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B170" s="65" t="s">
         <v>1206</v>
       </c>
-      <c r="C170" s="65" t="s">
+      <c r="D170" s="65" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15">
+    <row r="171" spans="1:4" ht="15">
       <c r="A171" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B171" s="65" t="s">
         <v>1717</v>
       </c>
-      <c r="C171" s="65" t="s">
+      <c r="D171" s="65" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15">
+    <row r="172" spans="1:4" ht="15">
       <c r="A172" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B172" s="65" t="s">
         <v>1718</v>
       </c>
-      <c r="C172" s="65" t="s">
+      <c r="D172" s="65" t="s">
         <v>1594</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15">
+    <row r="173" spans="1:4" ht="15">
       <c r="A173" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B173" s="65" t="s">
         <v>1719</v>
       </c>
-      <c r="C173" s="65" t="s">
+      <c r="D173" s="65" t="s">
         <v>1595</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15">
+    <row r="174" spans="1:4" ht="15">
       <c r="A174" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B174" s="65" t="s">
         <v>1720</v>
       </c>
-      <c r="C174" s="65" t="s">
+      <c r="D174" s="65" t="s">
         <v>1596</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15">
+    <row r="175" spans="1:4" ht="15">
       <c r="A175" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B175" s="65" t="s">
         <v>1597</v>
       </c>
-      <c r="C175" s="65" t="s">
+      <c r="D175" s="65" t="s">
         <v>1598</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="15">
+    <row r="176" spans="1:4" ht="15">
       <c r="A176" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B176" s="65" t="s">
         <v>1720</v>
       </c>
-      <c r="C176" s="65" t="s">
+      <c r="D176" s="65" t="s">
         <v>1596</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15">
+    <row r="177" spans="1:4" ht="15">
       <c r="A177" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B177" s="65" t="s">
         <v>1599</v>
       </c>
-      <c r="C177" s="65" t="s">
+      <c r="D177" s="65" t="s">
         <v>1600</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15">
+    <row r="178" spans="1:4" ht="15">
       <c r="A178" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B178" s="65" t="s">
         <v>1721</v>
       </c>
-      <c r="C178" s="65" t="s">
+      <c r="D178" s="65" t="s">
         <v>1601</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15">
+    <row r="179" spans="1:4" ht="15">
       <c r="A179" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B179" s="65" t="s">
         <v>1602</v>
       </c>
-      <c r="C179" s="65" t="s">
+      <c r="D179" s="65" t="s">
         <v>1603</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15">
+    <row r="180" spans="1:4" ht="15">
       <c r="A180" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B180" s="65" t="s">
         <v>1604</v>
       </c>
-      <c r="C180" s="65" t="s">
+      <c r="D180" s="65" t="s">
         <v>1605</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15">
+    <row r="181" spans="1:4" ht="15">
       <c r="A181" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B181" s="65" t="s">
         <v>1722</v>
       </c>
-      <c r="C181" s="65" t="s">
+      <c r="D181" s="65" t="s">
         <v>1606</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15">
+    <row r="182" spans="1:4" ht="15">
       <c r="A182" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B182" s="65" t="s">
         <v>1723</v>
       </c>
-      <c r="C182" s="65" t="s">
+      <c r="D182" s="65" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15">
+    <row r="183" spans="1:4" ht="15">
       <c r="A183" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B183" s="65" t="s">
         <v>1724</v>
       </c>
-      <c r="C183" s="65" t="s">
+      <c r="D183" s="65" t="s">
         <v>1608</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15">
+    <row r="184" spans="1:4" ht="15">
       <c r="A184" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B184" s="65" t="s">
         <v>1725</v>
       </c>
-      <c r="C184" s="65" t="s">
+      <c r="D184" s="65" t="s">
         <v>1609</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15">
+    <row r="185" spans="1:4" ht="15">
       <c r="A185" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B185" s="65" t="s">
         <v>1726</v>
       </c>
-      <c r="C185" s="65" t="s">
+      <c r="D185" s="65" t="s">
         <v>1610</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15">
+    <row r="186" spans="1:4" ht="15">
       <c r="A186" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B186" s="65" t="s">
         <v>1727</v>
       </c>
-      <c r="C186" s="65" t="s">
+      <c r="D186" s="65" t="s">
         <v>1611</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15">
+    <row r="187" spans="1:4" ht="15">
       <c r="A187" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B187" s="65" t="s">
         <v>1728</v>
       </c>
-      <c r="C187" s="65" t="s">
+      <c r="D187" s="65" t="s">
         <v>1612</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15">
+    <row r="188" spans="1:4" ht="15">
       <c r="A188" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B188" s="65" t="s">
         <v>1729</v>
       </c>
-      <c r="C188" s="65" t="s">
+      <c r="D188" s="65" t="s">
         <v>1613</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15">
+    <row r="189" spans="1:4" ht="15">
       <c r="A189" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B189" s="65" t="s">
         <v>1730</v>
       </c>
-      <c r="C189" s="65" t="s">
+      <c r="D189" s="65" t="s">
         <v>1614</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15">
+    <row r="190" spans="1:4" ht="15">
       <c r="A190" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B190" s="65" t="s">
         <v>1731</v>
       </c>
-      <c r="C190" s="65" t="s">
+      <c r="D190" s="65" t="s">
         <v>1615</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15">
+    <row r="191" spans="1:4" ht="15">
       <c r="A191" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B191" s="65" t="s">
         <v>1732</v>
       </c>
-      <c r="C191" s="65" t="s">
+      <c r="D191" s="65" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15">
+    <row r="192" spans="1:4" ht="15">
       <c r="A192" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B192" s="65" t="s">
         <v>1617</v>
       </c>
-      <c r="C192" s="65" t="s">
+      <c r="D192" s="65" t="s">
         <v>1618</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15">
+    <row r="193" spans="1:4" ht="15">
       <c r="A193" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B193" s="65" t="s">
         <v>1619</v>
       </c>
-      <c r="C193" s="65" t="s">
+      <c r="D193" s="65" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15">
+    <row r="194" spans="1:4" ht="15">
       <c r="A194" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B194" s="65" t="s">
         <v>1621</v>
       </c>
-      <c r="C194" s="65" t="s">
+      <c r="D194" s="65" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15">
+    <row r="195" spans="1:4" ht="15">
       <c r="A195" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B195" s="65" t="s">
         <v>1623</v>
       </c>
-      <c r="C195" s="65" t="s">
+      <c r="D195" s="65" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15">
+    <row r="196" spans="1:4" ht="15">
       <c r="A196" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B196" s="65" t="s">
         <v>1625</v>
       </c>
-      <c r="C196" s="65" t="s">
+      <c r="D196" s="65" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15">
+    <row r="197" spans="1:4" ht="15">
       <c r="A197" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B197" s="65" t="s">
         <v>1627</v>
       </c>
-      <c r="C197" s="65" t="s">
+      <c r="D197" s="65" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15">
+    <row r="198" spans="1:4" ht="15">
       <c r="A198" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B198" s="65" t="s">
         <v>1629</v>
       </c>
-      <c r="C198" s="65" t="s">
+      <c r="D198" s="65" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15">
+    <row r="199" spans="1:4" ht="15">
       <c r="A199" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B199" s="65" t="s">
         <v>1631</v>
       </c>
-      <c r="C199" s="65" t="s">
+      <c r="D199" s="65" t="s">
         <v>1632</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15">
+    <row r="200" spans="1:4" ht="15">
       <c r="A200" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B200" s="65" t="s">
         <v>1633</v>
       </c>
-      <c r="C200" s="65" t="s">
+      <c r="D200" s="65" t="s">
         <v>1634</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15">
+    <row r="201" spans="1:4" ht="15">
       <c r="A201" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B201" s="65" t="s">
         <v>1635</v>
       </c>
-      <c r="C201" s="65" t="s">
+      <c r="D201" s="65" t="s">
         <v>1636</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15">
+    <row r="202" spans="1:4" ht="15">
       <c r="A202" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B202" s="65" t="s">
         <v>1637</v>
       </c>
-      <c r="C202" s="65" t="s">
+      <c r="D202" s="65" t="s">
         <v>1638</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15">
+    <row r="203" spans="1:4" ht="15">
       <c r="A203" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="B203" s="65" t="s">
         <v>1639</v>
       </c>
-      <c r="C203" s="65" t="s">
+      <c r="D203" s="65" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15">
+    <row r="204" spans="1:4" ht="15">
       <c r="A204" s="2" t="s">
         <v>1667</v>
       </c>
       <c r="B204" s="70" t="s">
         <v>1641</v>
       </c>
-      <c r="C204" s="65" t="s">
+      <c r="D204" s="65" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15">
+    <row r="205" spans="1:4" ht="15">
       <c r="A205" s="2" t="s">
         <v>1667</v>
       </c>
       <c r="B205" s="70" t="s">
         <v>1643</v>
       </c>
-      <c r="C205" s="65" t="s">
+      <c r="D205" s="65" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15">
+    <row r="206" spans="1:4" ht="15">
       <c r="A206" s="2" t="s">
         <v>1667</v>
       </c>
       <c r="B206" s="70" t="s">
         <v>1645</v>
       </c>
-      <c r="C206" s="65" t="s">
+      <c r="D206" s="65" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15">
+    <row r="207" spans="1:4" ht="15">
       <c r="A207" s="2" t="s">
         <v>1667</v>
       </c>
       <c r="B207" s="70" t="s">
         <v>1647</v>
       </c>
-      <c r="C207" s="65" t="s">
+      <c r="D207" s="65" t="s">
         <v>1648</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15">
+    <row r="208" spans="1:4" ht="15">
       <c r="A208" s="2" t="s">
         <v>1667</v>
       </c>
       <c r="B208" s="70" t="s">
         <v>1649</v>
       </c>
-      <c r="C208" s="65" t="s">
+      <c r="D208" s="65" t="s">
         <v>1650</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15">
+    <row r="209" spans="1:4" ht="15">
       <c r="A209" s="2" t="s">
         <v>1667</v>
       </c>
       <c r="B209" s="70" t="s">
         <v>1651</v>
       </c>
-      <c r="C209" s="65" t="s">
+      <c r="D209" s="65" t="s">
         <v>1652</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="15">
+    <row r="210" spans="1:4" ht="15">
       <c r="A210" s="2" t="s">
         <v>1667</v>
       </c>
       <c r="B210" s="70" t="s">
         <v>1653</v>
       </c>
-      <c r="C210" s="65" t="s">
+      <c r="D210" s="65" t="s">
         <v>1654</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15">
+    <row r="211" spans="1:4" ht="15">
       <c r="A211" s="2" t="s">
         <v>1667</v>
       </c>
       <c r="B211" s="70" t="s">
         <v>1655</v>
       </c>
-      <c r="C211" s="65" t="s">
+      <c r="D211" s="65" t="s">
         <v>1656</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15">
+    <row r="212" spans="1:4" ht="15">
       <c r="A212" s="2" t="s">
         <v>1667</v>
       </c>
       <c r="B212" s="70" t="s">
         <v>1657</v>
       </c>
-      <c r="C212" s="65" t="s">
+      <c r="D212" s="65" t="s">
         <v>1658</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="15">
+    <row r="213" spans="1:4" ht="15">
       <c r="A213" s="2" t="s">
         <v>1667</v>
       </c>
       <c r="B213" s="70" t="s">
         <v>1659</v>
       </c>
-      <c r="C213" s="65" t="s">
+      <c r="D213" s="65" t="s">
         <v>1660</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="15">
+    <row r="214" spans="1:4" ht="15">
       <c r="A214" s="2" t="s">
         <v>1667</v>
       </c>
       <c r="B214" s="70" t="s">
         <v>1661</v>
       </c>
-      <c r="C214" s="65" t="s">
+      <c r="D214" s="65" t="s">
         <v>1662</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15">
+    <row r="215" spans="1:4" ht="15">
       <c r="A215" s="2" t="s">
         <v>1667</v>
       </c>
       <c r="B215" s="70" t="s">
         <v>1663</v>
       </c>
-      <c r="C215" s="65" t="s">
+      <c r="D215" s="65" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="15">
+    <row r="216" spans="1:4" ht="15">
       <c r="A216" s="2" t="s">
         <v>1667</v>
       </c>
       <c r="B216" s="70" t="s">
         <v>1627</v>
       </c>
-      <c r="C216" s="65" t="s">
+      <c r="D216" s="65" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15">
+    <row r="217" spans="1:4" ht="15">
       <c r="A217" s="2" t="s">
         <v>1667</v>
       </c>
       <c r="B217" s="70" t="s">
         <v>1665</v>
       </c>
-      <c r="C217" s="65" t="s">
+      <c r="D217" s="65" t="s">
         <v>1666</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:4">
       <c r="A218" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15111,7 +15102,7 @@
       <c r="B3" s="28" t="s">
         <v>1669</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="81" t="s">
         <v>1670</v>
       </c>
     </row>
@@ -16717,21 +16708,21 @@
       <c r="C4" s="43"/>
       <c r="D4" s="37"/>
     </row>
-    <row r="5" spans="1:10" s="79" customFormat="1" ht="64">
-      <c r="A5" s="72"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="81" t="s">
+    <row r="5" spans="1:10" s="78" customFormat="1" ht="64">
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="80" t="s">
         <v>1120</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="80" t="s">
+      <c r="E5" s="74"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="79" t="s">
         <v>1121</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="77"/>
     </row>
     <row r="6" spans="1:10" ht="32">
       <c r="A6" s="4" t="s">
@@ -16791,7 +16782,7 @@
     </row>
     <row r="9" spans="1:10" ht="17" customHeight="1">
       <c r="A9" s="58" t="str">
-        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B9,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B9,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B9,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B9,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B9,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B9,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B9" s="16"/>
@@ -16812,7 +16803,7 @@
     </row>
     <row r="10" spans="1:10" ht="15">
       <c r="A10" s="6" t="str">
-        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B10,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B10,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B10,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B10,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B10,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B10,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B10" s="16"/>
@@ -16833,7 +16824,7 @@
     </row>
     <row r="11" spans="1:10" ht="15">
       <c r="A11" s="6" t="str">
-        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B11,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B11,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B11,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B11,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B11,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B11,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B11" s="16"/>
@@ -16854,7 +16845,7 @@
     </row>
     <row r="12" spans="1:10" ht="15">
       <c r="A12" s="6" t="str">
-        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B12,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B12,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B12,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B12,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B12,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B12,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B12" s="16"/>
@@ -16875,7 +16866,7 @@
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="6" t="str">
-        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B13,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B13,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B13,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B13,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B13,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B13,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B13" s="16"/>
@@ -16896,7 +16887,7 @@
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="6" t="str">
-        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B14,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B14,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B14,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B14,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B14,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B14,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B14" s="16"/>
@@ -16917,7 +16908,7 @@
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="6" t="str">
-        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B15,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B15,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B15,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B15,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B15,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B15,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B15" s="16"/>
@@ -16938,7 +16929,7 @@
     </row>
     <row r="16" spans="1:10" ht="15">
       <c r="A16" s="6" t="str">
-        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B16,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B16,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B16,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B16,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B16,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B16,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B16" s="16"/>
@@ -16959,7 +16950,7 @@
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="6" t="str">
-        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B17,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B17,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B17,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B17,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B17,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B17,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B17" s="16"/>
@@ -16980,7 +16971,7 @@
     </row>
     <row r="18" spans="1:10" ht="15" hidden="1">
       <c r="A18" s="6" t="str">
-        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B18,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B18,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B18,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B18,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B18,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B18,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B18" s="16"/>
@@ -17001,7 +16992,7 @@
     </row>
     <row r="19" spans="1:10" ht="15" hidden="1">
       <c r="A19" s="6" t="str">
-        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B19,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B19,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B19,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B19,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B19,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B19,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B19" s="16"/>
@@ -17022,7 +17013,7 @@
     </row>
     <row r="20" spans="1:10" ht="15" hidden="1">
       <c r="A20" s="6" t="str">
-        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B20,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B20,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B20,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B20,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B20,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B20,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B20" s="16"/>
@@ -17043,7 +17034,7 @@
     </row>
     <row r="21" spans="1:10" ht="15" hidden="1">
       <c r="A21" s="6" t="str">
-        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B21,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B21,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B21,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B21,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B21,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B21,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B21" s="16"/>
@@ -17064,7 +17055,7 @@
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="6" t="str">
-        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B22,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B22,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B22,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B22,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B22,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B22,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B22" s="16"/>
@@ -17128,7 +17119,7 @@
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="6" t="str">
-        <f>IF(B25="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B25,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B25,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B25,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B25="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B25,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B25,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B25,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B25" s="16"/>
@@ -17149,7 +17140,7 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="6" t="str">
-        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B26,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B26,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B26,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B26,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B26,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B26,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B26" s="16"/>
@@ -17170,7 +17161,7 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="6" t="str">
-        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B27,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B27,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B27,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B27,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B27,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B27,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B27" s="16"/>
@@ -17191,7 +17182,7 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="6" t="str">
-        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B28,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B28,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B28,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B28,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B28,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B28,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B28" s="16"/>
@@ -17212,7 +17203,7 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="6" t="str">
-        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B29,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B29,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B29,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B29,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B29,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B29,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B29" s="16"/>
@@ -17233,7 +17224,7 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="6" t="str">
-        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B30,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B30,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B30,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B30,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B30,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B30,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B30" s="16"/>
@@ -17254,7 +17245,7 @@
     </row>
     <row r="31" spans="1:10" ht="15">
       <c r="A31" s="6" t="str">
-        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B31,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B31,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B31,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B31,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B31,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B31,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B31" s="16"/>
@@ -17275,7 +17266,7 @@
     </row>
     <row r="32" spans="1:10" ht="15" hidden="1">
       <c r="A32" s="6" t="str">
-        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B32,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B32,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B32,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B32,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B32,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B32,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B32" s="16"/>
@@ -17296,7 +17287,7 @@
     </row>
     <row r="33" spans="1:10" ht="15" hidden="1">
       <c r="A33" s="6" t="str">
-        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B33,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B33,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B33,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B33,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B33,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B33,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B33" s="16"/>
@@ -17317,7 +17308,7 @@
     </row>
     <row r="34" spans="1:10" ht="15" hidden="1">
       <c r="A34" s="6" t="str">
-        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B34,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B34,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B34,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B34,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B34,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B34,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B34" s="16"/>
@@ -17338,7 +17329,7 @@
     </row>
     <row r="35" spans="1:10" ht="15" hidden="1">
       <c r="A35" s="6" t="str">
-        <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B35,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B35,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B35,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B35,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B35,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B35,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B35" s="16"/>
@@ -17359,7 +17350,7 @@
     </row>
     <row r="36" spans="1:10" ht="15">
       <c r="A36" s="6" t="str">
-        <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B36,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B36,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B36,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B36,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B36,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B36,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B36" s="16"/>
@@ -17472,7 +17463,7 @@
     </row>
     <row r="41" spans="1:10" ht="15">
       <c r="A41" s="6" t="str">
-        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B41,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B41,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B41,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B41,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B41,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B41,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B41" s="16"/>
@@ -17499,7 +17490,7 @@
     </row>
     <row r="42" spans="1:10" ht="15">
       <c r="A42" s="6" t="str">
-        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B42,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B42,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B42,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B42,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B42,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B42,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B42" s="16"/>
@@ -17526,7 +17517,7 @@
     </row>
     <row r="43" spans="1:10" ht="15">
       <c r="A43" s="6" t="str">
-        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B43,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B43,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B43,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B43,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B43,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B43,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B43" s="16"/>
@@ -17553,7 +17544,7 @@
     </row>
     <row r="44" spans="1:10" ht="15">
       <c r="A44" s="6" t="str">
-        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B44,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B44,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B44,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B44,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B44,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B44,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B44" s="16"/>
@@ -17580,7 +17571,7 @@
     </row>
     <row r="45" spans="1:10" ht="15">
       <c r="A45" s="6" t="str">
-        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B45,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B45,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B45,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B45,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B45,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B45,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B45" s="16"/>
@@ -17607,7 +17598,7 @@
     </row>
     <row r="46" spans="1:10" ht="15" hidden="1">
       <c r="A46" s="6" t="str">
-        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B46,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B46,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B46,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B46,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B46,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B46,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B46" s="16"/>
@@ -17634,7 +17625,7 @@
     </row>
     <row r="47" spans="1:10" ht="15" hidden="1">
       <c r="A47" s="6" t="str">
-        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B47,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B47,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B47,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B47,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B47,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B47,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B47" s="16"/>
@@ -17661,7 +17652,7 @@
     </row>
     <row r="48" spans="1:10" ht="15" hidden="1">
       <c r="A48" s="6" t="str">
-        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B48,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B48,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B48,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B48,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B48,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B48,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B48" s="16"/>
@@ -17688,7 +17679,7 @@
     </row>
     <row r="49" spans="1:10" ht="15">
       <c r="A49" s="6" t="str">
-        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B49,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B49,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B49,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B49,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D),",",_xlfn.XLOOKUP(B49,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C), ",",_xlfn.XLOOKUP(B49,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B49" s="16"/>
@@ -17785,14 +17776,14 @@
     </row>
     <row r="54" spans="1:10" ht="15">
       <c r="A54" s="6" t="str">
-        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
+        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B54" s="16"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
       <c r="I54" s="15" t="str">
@@ -17803,14 +17794,14 @@
     </row>
     <row r="55" spans="1:10" ht="15">
       <c r="A55" s="6" t="str">
-        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
+        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B55" s="16"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
       <c r="I55" s="15" t="str">
@@ -17821,14 +17812,14 @@
     </row>
     <row r="56" spans="1:10" ht="15">
       <c r="A56" s="6" t="str">
-        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
+        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B56" s="16"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
       <c r="I56" s="15" t="str">
@@ -17839,14 +17830,14 @@
     </row>
     <row r="57" spans="1:10" ht="15">
       <c r="A57" s="6" t="str">
-        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
+        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B57" s="16"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
       <c r="I57" s="15" t="str">
@@ -17857,14 +17848,14 @@
     </row>
     <row r="58" spans="1:10" ht="15">
       <c r="A58" s="6" t="str">
-        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
+        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B58" s="16"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="84"/>
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
       <c r="I58" s="15" t="str">
@@ -17875,14 +17866,14 @@
     </row>
     <row r="59" spans="1:10" ht="15">
       <c r="A59" s="6" t="str">
-        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
+        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B59" s="16"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
       <c r="I59" s="15" t="str">
@@ -17893,14 +17884,14 @@
     </row>
     <row r="60" spans="1:10" ht="15">
       <c r="A60" s="6" t="str">
-        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
+        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B60" s="16"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
       <c r="I60" s="15" t="str">
@@ -17911,14 +17902,14 @@
     </row>
     <row r="61" spans="1:10" ht="15">
       <c r="A61" s="6" t="str">
-        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
+        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B61" s="16"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84"/>
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
       <c r="I61" s="15" t="str">
@@ -17929,14 +17920,14 @@
     </row>
     <row r="62" spans="1:10" ht="15">
       <c r="A62" s="6" t="str">
-        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
+        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B62" s="16"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="85"/>
-      <c r="F62" s="85"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="84"/>
+      <c r="F62" s="84"/>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
       <c r="I62" s="15" t="str">
@@ -17947,14 +17938,14 @@
     </row>
     <row r="63" spans="1:10" ht="15">
       <c r="A63" s="6" t="str">
-        <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
+        <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B63" s="16"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="85"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
       <c r="I63" s="15" t="str">
@@ -17996,20 +17987,20 @@
       <c r="B65" s="13" t="s">
         <v>1133</v>
       </c>
-      <c r="C65" s="86"/>
-      <c r="D65" s="86"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="85"/>
       <c r="I65" s="13"/>
     </row>
     <row r="66" spans="1:10" ht="15">
       <c r="A66" s="6" t="str">
-        <f>IF(B66="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B66,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C))</f>
+        <f>IF(B66="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B66,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B66" s="16"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="85"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
       <c r="I66" s="15" t="str">
@@ -18020,14 +18011,14 @@
     </row>
     <row r="67" spans="1:10" ht="15">
       <c r="A67" s="6" t="str">
-        <f>IF(B67="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B67,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C))</f>
+        <f>IF(B67="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B67,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B67" s="16"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="85"/>
-      <c r="F67" s="85"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="84"/>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
       <c r="I67" s="15" t="str">
@@ -18038,14 +18029,14 @@
     </row>
     <row r="68" spans="1:10" ht="15">
       <c r="A68" s="6" t="str">
-        <f>IF(B68="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B68,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C))</f>
+        <f>IF(B68="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B68,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B68" s="16"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="85"/>
-      <c r="E68" s="85"/>
-      <c r="F68" s="85"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="84"/>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
       <c r="I68" s="15" t="str">
@@ -18056,14 +18047,14 @@
     </row>
     <row r="69" spans="1:10" ht="15">
       <c r="A69" s="6" t="str">
-        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C))</f>
+        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B69" s="16"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
       <c r="I69" s="15" t="str">
@@ -18074,14 +18065,14 @@
     </row>
     <row r="70" spans="1:10" ht="15">
       <c r="A70" s="6" t="str">
-        <f>IF(B70="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B70,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C))</f>
+        <f>IF(B70="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B70,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B70" s="16"/>
-      <c r="C70" s="84"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="84"/>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
       <c r="I70" s="15" t="str">
@@ -18167,10 +18158,10 @@
       <c r="B75" s="8" t="s">
         <v>1124</v>
       </c>
-      <c r="C75" s="84"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="84"/>
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
       <c r="I75" s="15">
@@ -18186,10 +18177,10 @@
       <c r="B76" s="8" t="s">
         <v>1125</v>
       </c>
-      <c r="C76" s="84"/>
-      <c r="D76" s="85"/>
-      <c r="E76" s="85"/>
-      <c r="F76" s="85"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="84"/>
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
       <c r="I76" s="15">
@@ -18205,10 +18196,10 @@
       <c r="B77" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="C77" s="84"/>
-      <c r="D77" s="85"/>
-      <c r="E77" s="85"/>
-      <c r="F77" s="85"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="84"/>
+      <c r="E77" s="84"/>
+      <c r="F77" s="84"/>
       <c r="G77" s="18"/>
       <c r="H77" s="18"/>
       <c r="I77" s="15">
@@ -18368,8 +18359,8 @@
   </sheetPr>
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -18390,7 +18381,7 @@
       <c r="A1" s="33" t="s">
         <v>1073</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="82" t="s">
         <v>1671</v>
       </c>
       <c r="C1" s="43"/>
@@ -18483,32 +18474,32 @@
       <c r="J6" s="56"/>
     </row>
     <row r="7" spans="1:10" s="54" customFormat="1" ht="43">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="89"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="50" t="s">
         <v>1081</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="86" t="s">
         <v>1106</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="86" t="s">
         <v>1106</v>
       </c>
-      <c r="F7" s="87" t="s">
+      <c r="F7" s="86" t="s">
         <v>1106</v>
       </c>
-      <c r="G7" s="87" t="s">
+      <c r="G7" s="86" t="s">
         <v>1106</v>
       </c>
-      <c r="H7" s="87" t="s">
+      <c r="H7" s="86" t="s">
         <v>1106</v>
       </c>
-      <c r="I7" s="87" t="s">
+      <c r="I7" s="86" t="s">
         <v>1106</v>
       </c>
-      <c r="J7" s="90" t="s">
+      <c r="J7" s="89" t="s">
         <v>1734</v>
       </c>
     </row>

--- a/static/input_files/ACFR_template.xlsx
+++ b/static/input_files/ACFR_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byflow/Documents/Research/process-xbrl/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50502D83-3266-434F-A97C-D51BC639959B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A16A9F4-CED8-0C48-A512-DEBE978050A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="2280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="2281">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -5371,9 +5371,6 @@
     <t>acfr:AccountsReceivableModifiedAccrual</t>
   </si>
   <si>
-    <t>XBRL Modified Label</t>
-  </si>
-  <si>
     <t>xblri:item from Taxonomy spreadsheet</t>
   </si>
   <si>
@@ -6367,9 +6364,6 @@
     <t>LiabilitiesAndDeferredInflowsOfResourcesAndFundBalancesModifiedAccrual</t>
   </si>
   <si>
-    <t>with acfr: added</t>
-  </si>
-  <si>
     <t>Does col D exist in col F?</t>
   </si>
   <si>
@@ -6920,6 +6914,15 @@
   </si>
   <si>
     <t>acfr:NetPensionLiabilityModifiedAccrual</t>
+  </si>
+  <si>
+    <t>with acfr: added from Taxonomy spreadsheet</t>
+  </si>
+  <si>
+    <t>exist in F but not in D?</t>
+  </si>
+  <si>
+    <t>XBRL Label (col C) with string 'ModifiedAccrual' appended</t>
   </si>
 </sst>
 </file>
@@ -8305,10 +8308,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE09D81-CE0E-407C-B6C2-C3432BAC9950}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J2380"/>
+  <dimension ref="A1:K2380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H44" zoomScale="108" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -8317,15 +8320,16 @@
     <col min="2" max="2" width="91.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="84" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="92.83203125" customWidth="1"/>
-    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="6" width="70" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" customWidth="1"/>
     <col min="8" max="8" width="67.6640625" style="116" customWidth="1"/>
     <col min="9" max="9" width="67.5" customWidth="1"/>
     <col min="10" max="10" width="70.33203125" customWidth="1"/>
+    <col min="11" max="11" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
+    <row r="1" spans="1:11" ht="15">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -8336,28 +8340,31 @@
         <v>1073</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="E1" s="128" t="s">
         <v>1763</v>
       </c>
-      <c r="E1" s="128" t="s">
-        <v>1764</v>
-      </c>
       <c r="F1" s="128" t="s">
+        <v>2278</v>
+      </c>
+      <c r="G1" s="128" t="s">
+        <v>2094</v>
+      </c>
+      <c r="H1" s="129" t="s">
         <v>2095</v>
       </c>
-      <c r="G1" s="128" t="s">
-        <v>2096</v>
-      </c>
-      <c r="H1" s="129" t="s">
-        <v>2097</v>
-      </c>
       <c r="I1" s="128" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="J1" s="128" t="s">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>2118</v>
+      </c>
+      <c r="K1" s="128" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -8371,7 +8378,7 @@
         <v>1762</v>
       </c>
       <c r="E2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F2" t="str">
         <f>"acfr:"&amp;E2</f>
@@ -8393,7 +8400,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -8408,7 +8415,7 @@
         <v>acfr:AccountsReceivableAllowanceModifiedAccrual</v>
       </c>
       <c r="E3" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F66" si="0">"acfr:"&amp;E3</f>
@@ -8426,10 +8433,10 @@
         <v>acfr:AccountsReceivableModifiedAccrual</v>
       </c>
       <c r="J3" t="s">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -8444,7 +8451,7 @@
         <v>acfr:AccountsReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="E4" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -8462,10 +8469,10 @@
         <v>acfr:AccountsReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="J4" t="s">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -8480,7 +8487,7 @@
         <v>acfr:AccountsReceivableUnbilledModifiedAccrual</v>
       </c>
       <c r="E5" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -8498,10 +8505,10 @@
         <v>acfr:AccruedInterestReceivableModifiedAccrual</v>
       </c>
       <c r="J5" t="s">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -8516,7 +8523,7 @@
         <v>acfr:AccountsReceivableUnbilledAllowanceModifiedAccrual</v>
       </c>
       <c r="E6" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -8534,10 +8541,10 @@
         <v>acfr:AccruedInterestReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="J6" t="s">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -8552,7 +8559,7 @@
         <v>acfr:AccountsReceivableUnbilledNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="E7" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -8570,10 +8577,10 @@
         <v>acfr:AssetsHeldForSaleModifiedAccrual</v>
       </c>
       <c r="J7" t="s">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -8588,7 +8595,7 @@
         <v>acfr:AccruedInterestReceivableModifiedAccrual</v>
       </c>
       <c r="E8" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -8606,10 +8613,10 @@
         <v>acfr:CashModifiedAccrual</v>
       </c>
       <c r="J8" t="s">
-        <v>2103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -8624,7 +8631,7 @@
         <v>acfr:AccruedInterestReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="E9" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -8642,10 +8649,10 @@
         <v>acfr:CashAndCashEquivalentsModifiedAccrual</v>
       </c>
       <c r="J9" t="s">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -8660,7 +8667,7 @@
         <v>acfr:AdvancesReceivableModifiedAccrual</v>
       </c>
       <c r="E10" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -8678,10 +8685,10 @@
         <v>acfr:CashAndCashEquivalentsAndInvestmentsModifiedAccrual</v>
       </c>
       <c r="J10" t="s">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -8696,7 +8703,7 @@
         <v>acfr:AdvancesToDevelopersModifiedAccrual</v>
       </c>
       <c r="E11" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -8714,10 +8721,10 @@
         <v>acfr:CashAndCashEquivalentsWithFiscalAndEscrowAndOtherAgentsModifiedAccrual</v>
       </c>
       <c r="J11" t="s">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -8732,7 +8739,7 @@
         <v>acfr:AllowanceForReceivablesModifiedAccrual</v>
       </c>
       <c r="E12" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -8750,10 +8757,10 @@
         <v>acfr:CashAndCashEquivalentsWithTreasurerModifiedAccrual</v>
       </c>
       <c r="J12" t="s">
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -8768,7 +8775,7 @@
         <v>acfr:AssessmentsReceivableModifiedAccrual</v>
       </c>
       <c r="E13" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -8786,10 +8793,10 @@
         <v>acfr:CashAndCashEquivalentsWithTrusteeModifiedAccrual</v>
       </c>
       <c r="J13" t="s">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -8804,7 +8811,7 @@
         <v>acfr:AssessmentsReceivableAllowanceModifiedAccrual</v>
       </c>
       <c r="E14" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -8822,10 +8829,10 @@
         <v>acfr:CashCheckingModifiedAccrual</v>
       </c>
       <c r="J14" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -8840,7 +8847,7 @@
         <v>acfr:AssessmentsReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="E15" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -8858,10 +8865,10 @@
         <v>acfr:CashOnHandModifiedAccrual</v>
       </c>
       <c r="J15" t="s">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -8876,7 +8883,7 @@
         <v>acfr:AssetRetirementObligationsPrincipalDueWithinOneYearModifiedAccrual</v>
       </c>
       <c r="E16" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -8894,7 +8901,7 @@
         <v>acfr:CashPayrollBankAccountModifiedAccrual</v>
       </c>
       <c r="J16" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8912,7 +8919,7 @@
         <v>acfr:AssetsHeldForSaleModifiedAccrual</v>
       </c>
       <c r="E17" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -8930,7 +8937,7 @@
         <v>acfr:CashSavingsModifiedAccrual</v>
       </c>
       <c r="J17" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -8948,7 +8955,7 @@
         <v>acfr:BondPremiumPrincipalDueWithinOneYearModifiedAccrual</v>
       </c>
       <c r="E18" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -8966,7 +8973,7 @@
         <v>acfr:CertificatesOfDepositModifiedAccrual</v>
       </c>
       <c r="J18" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -8984,7 +8991,7 @@
         <v>acfr:BondsPayableDueWithinOneYearModifiedAccrual</v>
       </c>
       <c r="E19" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -9002,7 +9009,7 @@
         <v>acfr:ClaimsAndJudgmentsReceivableModifiedAccrual</v>
       </c>
       <c r="J19" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -9020,7 +9027,7 @@
         <v>acfr:CashModifiedAccrual</v>
       </c>
       <c r="E20" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -9038,7 +9045,7 @@
         <v>acfr:ClaimsAndJudgmentsReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="J20" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -9056,7 +9063,7 @@
         <v>acfr:CashAndCashEquivalentsModifiedAccrual</v>
       </c>
       <c r="E21" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -9074,7 +9081,7 @@
         <v>acfr:ContractsPayableDueWithinOneYearModifiedAccrual</v>
       </c>
       <c r="J21" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -9092,7 +9099,7 @@
         <v>acfr:CashAndCashEquivalentsAndInvestmentsModifiedAccrual</v>
       </c>
       <c r="E22" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -9110,7 +9117,7 @@
         <v>acfr:CourtOrdersReceivableModifiedAccrual</v>
       </c>
       <c r="J22" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -9128,7 +9135,7 @@
         <v>acfr:CashAndCashEquivalentsAndInvestmentsAbtract_1ModifiedAccrual</v>
       </c>
       <c r="E23" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -9146,7 +9153,7 @@
         <v>acfr:DelinquentTaxesReceivableModifiedAccrual</v>
       </c>
       <c r="J23" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -9164,7 +9171,7 @@
         <v>acfr:CashAndCashEquivalentsOthersModifiedAccrual</v>
       </c>
       <c r="E24" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -9182,7 +9189,7 @@
         <v>acfr:DelinquentUtilityBillsReceivableModifiedAccrual</v>
       </c>
       <c r="J24" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -9200,7 +9207,7 @@
         <v>acfr:CashAndCashEquivalentsWithFiscalAndEscrowAndOtherAgentsModifiedAccrual</v>
       </c>
       <c r="E25" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -9218,7 +9225,7 @@
         <v>acfr:DepositsReceivableModifiedAccrual</v>
       </c>
       <c r="J25" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -9236,7 +9243,7 @@
         <v>acfr:CashAndCashEquivalentsWithTreasurerModifiedAccrual</v>
       </c>
       <c r="E26" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -9254,7 +9261,7 @@
         <v>acfr:DepositsReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="J26" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -9272,7 +9279,7 @@
         <v>acfr:CashAndCashEquivalentsWithTrusteeModifiedAccrual</v>
       </c>
       <c r="E27" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -9290,7 +9297,7 @@
         <v>acfr:DepositsWithFiscalAgentsModifiedAccrual</v>
       </c>
       <c r="J27" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -9308,7 +9315,7 @@
         <v>acfr:CashCheckingModifiedAccrual</v>
       </c>
       <c r="E28" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -9326,7 +9333,7 @@
         <v>acfr:DueFromCitiesModifiedAccrual</v>
       </c>
       <c r="J28" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -9344,7 +9351,7 @@
         <v>acfr:CashEquivalentsModifiedAccrual</v>
       </c>
       <c r="E29" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -9362,7 +9369,7 @@
         <v>acfr:DueFromComponentUnitModifiedAccrual</v>
       </c>
       <c r="J29" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -9380,7 +9387,7 @@
         <v>acfr:CashInBankModifiedAccrual</v>
       </c>
       <c r="E30" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -9398,7 +9405,7 @@
         <v>acfr:DueFromCountiesModifiedAccrual</v>
       </c>
       <c r="J30" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -9416,7 +9423,7 @@
         <v>acfr:CashOnHandModifiedAccrual</v>
       </c>
       <c r="E31" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -9434,7 +9441,7 @@
         <v>acfr:DueFromEmployeesModifiedAccrual</v>
       </c>
       <c r="J31" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -9452,7 +9459,7 @@
         <v>acfr:CashPayrollBankAccountModifiedAccrual</v>
       </c>
       <c r="E32" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -9470,7 +9477,7 @@
         <v>acfr:DueFromEnterpriseFundsModifiedAccrual</v>
       </c>
       <c r="J32" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -9488,7 +9495,7 @@
         <v>acfr:CashSavingsModifiedAccrual</v>
       </c>
       <c r="E33" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -9506,7 +9513,7 @@
         <v>acfr:DueFromFederalGovernmentModifiedAccrual</v>
       </c>
       <c r="J33" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -9524,7 +9531,7 @@
         <v>acfr:CertificatesOfDepositModifiedAccrual</v>
       </c>
       <c r="E34" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -9542,7 +9549,7 @@
         <v>acfr:DueFromFiduciaryFundsModifiedAccrual</v>
       </c>
       <c r="J34" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -9560,7 +9567,7 @@
         <v>acfr:ClaimsAndJudgmentsPayableDueWithinOneYearModifiedAccrual</v>
       </c>
       <c r="E35" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -9578,7 +9585,7 @@
         <v>acfr:DueFromLibrariesModifiedAccrual</v>
       </c>
       <c r="J35" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -9596,7 +9603,7 @@
         <v>acfr:ClaimsAndJudgmentsReceivableModifiedAccrual</v>
       </c>
       <c r="E36" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -9614,7 +9621,7 @@
         <v>acfr:DueFromOtherFundsModifiedAccrual</v>
       </c>
       <c r="J36" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -9632,7 +9639,7 @@
         <v>acfr:ClaimsAndJudgmentsReceivableAllowanceModifiedAccrual</v>
       </c>
       <c r="E37" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -9650,7 +9657,7 @@
         <v>acfr:DueFromRoadCommissionsModifiedAccrual</v>
       </c>
       <c r="J37" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -9668,7 +9675,7 @@
         <v>acfr:ClaimsAndJudgmentsReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="E38" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
@@ -9686,7 +9693,7 @@
         <v>acfr:DueFromSchoolsModifiedAccrual</v>
       </c>
       <c r="J38" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -9704,7 +9711,7 @@
         <v>acfr:ComputerSoftwareModifiedAccrual</v>
       </c>
       <c r="E39" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
@@ -9722,7 +9729,7 @@
         <v>acfr:DueFromStateGovernmentModifiedAccrual</v>
       </c>
       <c r="J39" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -9740,7 +9747,7 @@
         <v>acfr:ConnectionFeesReceivableModifiedAccrual</v>
       </c>
       <c r="E40" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
@@ -9758,7 +9765,7 @@
         <v>acfr:DueFromTownshipsExceptRoadAgreementsModifiedAccrual</v>
       </c>
       <c r="J40" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -9776,7 +9783,7 @@
         <v>acfr:ConnectionFeesReceivableAllowanceModifiedAccrual</v>
       </c>
       <c r="E41" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
@@ -9794,7 +9801,7 @@
         <v>acfr:DueFromTownshipsRoadAgreementsModifiedAccrual</v>
       </c>
       <c r="J41" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -9812,7 +9819,7 @@
         <v>acfr:ConnectionFeesReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="E42" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
@@ -9830,7 +9837,7 @@
         <v>acfr:DueFromVillagesModifiedAccrual</v>
       </c>
       <c r="J42" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -9848,7 +9855,7 @@
         <v>acfr:ContractorsAdvancesModifiedAccrual</v>
       </c>
       <c r="E43" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
@@ -9866,7 +9873,7 @@
         <v>acfr:ForfeitureCertificateRecordingFeesReceivableModifiedAccrual</v>
       </c>
       <c r="J43" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -9884,7 +9891,7 @@
         <v>acfr:ContractsPayableDueWithinOneYearModifiedAccrual</v>
       </c>
       <c r="E44" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
@@ -9902,7 +9909,7 @@
         <v>acfr:GrantsAndContractsReceivableModifiedAccrual</v>
       </c>
       <c r="J44" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -9920,7 +9927,7 @@
         <v>acfr:CourtOrdersReceivableModifiedAccrual</v>
       </c>
       <c r="E45" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
@@ -9938,7 +9945,7 @@
         <v>acfr:GrantsAndContractsReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="J45" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -9956,7 +9963,7 @@
         <v>acfr:CurrentAssetsModifiedAccrual</v>
       </c>
       <c r="E46" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
@@ -9974,7 +9981,7 @@
         <v>acfr:IncomeTaxReceivableModifiedAccrual</v>
       </c>
       <c r="J46" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -9992,7 +9999,7 @@
         <v>acfr:CurrentAssetsCustomModifiedAccrual</v>
       </c>
       <c r="E47" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
@@ -10010,7 +10017,7 @@
         <v>acfr:InterGovernmentalReceivableModifiedAccrual</v>
       </c>
       <c r="J47" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -10028,7 +10035,7 @@
         <v>acfr:CustomerAndOtherGovernmentReceivableAllowanceModifiedAccrual</v>
       </c>
       <c r="E48" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
@@ -10046,7 +10053,7 @@
         <v>acfr:InterGovernmentalReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="J48" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -10064,7 +10071,7 @@
         <v>acfr:CustomerAndOtherGovernmentReceivablesModifiedAccrual</v>
       </c>
       <c r="E49" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
@@ -10082,7 +10089,7 @@
         <v>acfr:InterestAndPenaltiesReceivableOnTaxesModifiedAccrual</v>
       </c>
       <c r="J49" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -10100,7 +10107,7 @@
         <v>acfr:CustomerAndOtherGovernmentReceivablesNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="E50" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
@@ -10118,7 +10125,7 @@
         <v>acfr:InventoryModifiedAccrual</v>
       </c>
       <c r="J50" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -10136,7 +10143,7 @@
         <v>acfr:DelinquentTaxesReceivableModifiedAccrual</v>
       </c>
       <c r="E51" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
@@ -10154,7 +10161,7 @@
         <v>acfr:InventoryEquipmentMaterialsAndPartsModifiedAccrual</v>
       </c>
       <c r="J51" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -10172,7 +10179,7 @@
         <v>acfr:DelinquentUtilityBillsReceivableModifiedAccrual</v>
       </c>
       <c r="E52" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
@@ -10190,7 +10197,7 @@
         <v>acfr:InventoryRoadMaterialsModifiedAccrual</v>
       </c>
       <c r="J52" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -10208,7 +10215,7 @@
         <v>acfr:DepositsReceivableModifiedAccrual</v>
       </c>
       <c r="E53" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
@@ -10226,7 +10233,7 @@
         <v>acfr:InvestmentsWithFiscalAgentsModifiedAccrual</v>
       </c>
       <c r="J53" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -10244,7 +10251,7 @@
         <v>acfr:DepositsReceivableAllowanceModifiedAccrual</v>
       </c>
       <c r="E54" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
@@ -10262,7 +10269,7 @@
         <v>acfr:InvestmentsWithStateTreasuryModifiedAccrual</v>
       </c>
       <c r="J54" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -10280,7 +10287,7 @@
         <v>acfr:DepositsReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="E55" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
@@ -10298,7 +10305,7 @@
         <v>acfr:LandContractsPayableModifiedAccrual</v>
       </c>
       <c r="J55" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -10316,7 +10323,7 @@
         <v>acfr:DepositsWithFiscalAgentsModifiedAccrual</v>
       </c>
       <c r="E56" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
@@ -10334,7 +10341,7 @@
         <v>acfr:LandContractsReceivableModifiedAccrual</v>
       </c>
       <c r="J56" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -10352,7 +10359,7 @@
         <v>acfr:DerivativeInstrumentsAssetsCurrentModifiedAccrual</v>
       </c>
       <c r="E57" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
@@ -10370,7 +10377,7 @@
         <v>acfr:LandContractsReceivablesAllowanceModifiedAccrual</v>
       </c>
       <c r="J57" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -10388,7 +10395,7 @@
         <v>acfr:DerivativeInstrumentsLiabilityCurrentModifiedAccrual</v>
       </c>
       <c r="E58" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
@@ -10406,7 +10413,7 @@
         <v>acfr:LandContractsReceivablesNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="J58" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -10424,7 +10431,7 @@
         <v>acfr:DueFromCitiesModifiedAccrual</v>
       </c>
       <c r="E59" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
@@ -10442,7 +10449,7 @@
         <v>acfr:LeaseAssetsRightOfUseModifiedAccrual</v>
       </c>
       <c r="J59" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -10460,7 +10467,7 @@
         <v>acfr:DueFromComponentUnitModifiedAccrual</v>
       </c>
       <c r="E60" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
@@ -10478,7 +10485,7 @@
         <v>acfr:LeasesReceivableModifiedAccrual</v>
       </c>
       <c r="J60" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -10496,7 +10503,7 @@
         <v>acfr:DueFromCountiesModifiedAccrual</v>
       </c>
       <c r="E61" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
@@ -10514,7 +10521,7 @@
         <v>acfr:LeasesReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="J61" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -10532,7 +10539,7 @@
         <v>acfr:DueFromCustodialFundsModifiedAccrual</v>
       </c>
       <c r="E62" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
@@ -10550,7 +10557,7 @@
         <v>acfr:LoansAndNotesReceivableModifiedAccrual</v>
       </c>
       <c r="J62" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -10568,7 +10575,7 @@
         <v>acfr:DueFromEmployeesModifiedAccrual</v>
       </c>
       <c r="E63" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
@@ -10586,7 +10593,7 @@
         <v>acfr:LoansAndNotesReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="J63" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -10604,7 +10611,7 @@
         <v>acfr:DueFromEnterpriseFundsModifiedAccrual</v>
       </c>
       <c r="E64" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
@@ -10622,7 +10629,7 @@
         <v>acfr:LoansReceivableModifiedAccrual</v>
       </c>
       <c r="J64" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -10640,7 +10647,7 @@
         <v>acfr:DueFromFederalGovernmentModifiedAccrual</v>
       </c>
       <c r="E65" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
@@ -10658,7 +10665,7 @@
         <v>acfr:LoansReceivableAllowanceModifiedAccrual</v>
       </c>
       <c r="J65" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -10676,7 +10683,7 @@
         <v>acfr:DueFromFiduciaryFundsModifiedAccrual</v>
       </c>
       <c r="E66" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
@@ -10694,7 +10701,7 @@
         <v>acfr:LoansReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="J66" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -10712,7 +10719,7 @@
         <v>acfr:DueFromGovernmentModifiedAccrual</v>
       </c>
       <c r="E67" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" ref="F67:F130" si="4">"acfr:"&amp;E67</f>
@@ -10730,7 +10737,7 @@
         <v>acfr:LocalUnitShareOfAssessmentImprovementCostsReceivableModifiedAccrual</v>
       </c>
       <c r="J67" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -10748,7 +10755,7 @@
         <v>acfr:DueFromLibrariesModifiedAccrual</v>
       </c>
       <c r="E68" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="4"/>
@@ -10766,7 +10773,7 @@
         <v>acfr:NotesReceivableModifiedAccrual</v>
       </c>
       <c r="J68" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -10784,7 +10791,7 @@
         <v>acfr:DueFromOtherFundsModifiedAccrual</v>
       </c>
       <c r="E69" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="4"/>
@@ -10802,7 +10809,7 @@
         <v>acfr:NotesReceivableAllowanceModifiedAccrual</v>
       </c>
       <c r="J69" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -10820,7 +10827,7 @@
         <v>acfr:DueFromOtherGovernmentsModifiedAccrual</v>
       </c>
       <c r="E70" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="4"/>
@@ -10838,7 +10845,7 @@
         <v>acfr:NotesReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="J70" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -10856,7 +10863,7 @@
         <v>acfr:DueFromPrimaryGovernmentModifiedAccrual</v>
       </c>
       <c r="E71" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="4"/>
@@ -10874,7 +10881,7 @@
         <v>acfr:OtherAccountsReceivableModifiedAccrual</v>
       </c>
       <c r="J71" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -10892,7 +10899,7 @@
         <v>acfr:DueFromRelatedPartiesModifiedAccrual</v>
       </c>
       <c r="E72" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="4"/>
@@ -10910,7 +10917,7 @@
         <v>acfr:OtherReceivablesModifiedAccrual</v>
       </c>
       <c r="J72" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -10928,7 +10935,7 @@
         <v>acfr:DueFromRetirementSystemModifiedAccrual</v>
       </c>
       <c r="E73" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="4"/>
@@ -10946,7 +10953,7 @@
         <v>acfr:OtherRestrictedAssetsModifiedAccrual</v>
       </c>
       <c r="J73" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -10964,7 +10971,7 @@
         <v>acfr:DueFromRoadCommissionsModifiedAccrual</v>
       </c>
       <c r="E74" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="4"/>
@@ -10982,7 +10989,7 @@
         <v>acfr:OtherTaxesReceivableModifiedAccrual</v>
       </c>
       <c r="J74" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -11000,7 +11007,7 @@
         <v>acfr:DueFromSchoolsModifiedAccrual</v>
       </c>
       <c r="E75" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="4"/>
@@ -11018,7 +11025,7 @@
         <v>acfr:PaymentsInLieuOfTaxesReceivableModifiedAccrual</v>
       </c>
       <c r="J75" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -11036,7 +11043,7 @@
         <v>acfr:DueFromStateGovernmentModifiedAccrual</v>
       </c>
       <c r="E76" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="4"/>
@@ -11054,7 +11061,7 @@
         <v>acfr:PenaltiesReceivableModifiedAccrual</v>
       </c>
       <c r="J76" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -11072,7 +11079,7 @@
         <v>acfr:DueFromTaxCollectionFundsModifiedAccrual</v>
       </c>
       <c r="E77" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="4"/>
@@ -11090,7 +11097,7 @@
         <v>acfr:PenaltiesReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="J77" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -11108,7 +11115,7 @@
         <v>acfr:DueFromTownshipsExceptRoadAgreementsModifiedAccrual</v>
       </c>
       <c r="E78" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="4"/>
@@ -11126,7 +11133,7 @@
         <v>acfr:PooledCashAndInvestmentsModifiedAccrual</v>
       </c>
       <c r="J78" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -11144,7 +11151,7 @@
         <v>acfr:DueFromTownshipsRoadAgreementsModifiedAccrual</v>
       </c>
       <c r="E79" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="4"/>
@@ -11162,7 +11169,7 @@
         <v>acfr:PrepaidDepositsModifiedAccrual</v>
       </c>
       <c r="J79" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -11180,7 +11187,7 @@
         <v>acfr:DueFromVillagesModifiedAccrual</v>
       </c>
       <c r="E80" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="4"/>
@@ -11198,7 +11205,7 @@
         <v>acfr:PrepaidExpensesModifiedAccrual</v>
       </c>
       <c r="J80" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -11216,7 +11223,7 @@
         <v>acfr:EasementsRightOfWayModifiedAccrual</v>
       </c>
       <c r="E81" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="4"/>
@@ -11234,7 +11241,7 @@
         <v>acfr:PropertyTaxesReceivableModifiedAccrual</v>
       </c>
       <c r="J81" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -11252,7 +11259,7 @@
         <v>acfr:ForfeitureCertificateRecordingFeesReceivableModifiedAccrual</v>
       </c>
       <c r="E82" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="4"/>
@@ -11270,7 +11277,7 @@
         <v>acfr:PropertyTaxesReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="J82" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -11288,7 +11295,7 @@
         <v>acfr:GeneralObligationBondsPayableDueWithinOneYearModifiedAccrual</v>
       </c>
       <c r="E83" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="4"/>
@@ -11306,7 +11313,7 @@
         <v>acfr:ReceivablesModifiedAccrual</v>
       </c>
       <c r="J83" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -11324,7 +11331,7 @@
         <v>acfr:GovernmentClaimsReceivableModifiedAccrual</v>
       </c>
       <c r="E84" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="4"/>
@@ -11342,7 +11349,7 @@
         <v>acfr:RestrictedAssetsModifiedAccrual</v>
       </c>
       <c r="J84" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -11360,7 +11367,7 @@
         <v>acfr:GovernmentClaimsReceivableAllowanceModifiedAccrual</v>
       </c>
       <c r="E85" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="4"/>
@@ -11378,7 +11385,7 @@
         <v>acfr:RestrictedCashModifiedAccrual</v>
       </c>
       <c r="J85" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -11396,7 +11403,7 @@
         <v>acfr:GovernmentClaimsReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="E86" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="4"/>
@@ -11414,7 +11421,7 @@
         <v>acfr:RestrictedCashAndCashEquivalentsModifiedAccrual</v>
       </c>
       <c r="J86" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -11432,7 +11439,7 @@
         <v>acfr:GrantsAndContractsReceivableModifiedAccrual</v>
       </c>
       <c r="E87" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="4"/>
@@ -11450,7 +11457,7 @@
         <v>acfr:RestrictedCashAndInvestmentsModifiedAccrual</v>
       </c>
       <c r="J87" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -11468,7 +11475,7 @@
         <v>acfr:GrantsAndContractsReceivableAllowanceModifiedAccrual</v>
       </c>
       <c r="E88" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="4"/>
@@ -11486,7 +11493,7 @@
         <v>acfr:SalesTaxReceivableModifiedAccrual</v>
       </c>
       <c r="J88" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -11504,7 +11511,7 @@
         <v>acfr:GrantsAndContractsReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="E89" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="4"/>
@@ -11522,7 +11529,7 @@
         <v>acfr:SecuritiesLendingCollateralAssetsModifiedAccrual</v>
       </c>
       <c r="J89" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -11540,7 +11547,7 @@
         <v>acfr:IncomeTaxReceivableModifiedAccrual</v>
       </c>
       <c r="E90" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="4"/>
@@ -11558,7 +11565,7 @@
         <v>acfr:SecuritiesLendingObligationsLiabilityModifiedAccrual</v>
       </c>
       <c r="J90" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -11576,7 +11583,7 @@
         <v>acfr:InstallmentDebtPrincipalDueWithinOneYearModifiedAccrual</v>
       </c>
       <c r="E91" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="4"/>
@@ -11594,7 +11601,7 @@
         <v>acfr:ServiceFeesReceivableModifiedAccrual</v>
       </c>
       <c r="J91" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -11612,7 +11619,7 @@
         <v>acfr:IntangibleAssetsModifiedAccrual</v>
       </c>
       <c r="E92" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="4"/>
@@ -11630,7 +11637,7 @@
         <v>acfr:SpecialAssessmentTaxesReceivableModifiedAccrual</v>
       </c>
       <c r="J92" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -11648,7 +11655,7 @@
         <v>acfr:IntangibleAssetsNetOfAccumulatedAmortizationModifiedAccrual</v>
       </c>
       <c r="E93" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="4"/>
@@ -11666,7 +11673,7 @@
         <v>acfr:SpecialAssessmentTaxesReceivableUnavailableModifiedAccrual</v>
       </c>
       <c r="J93" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -11684,7 +11691,7 @@
         <v>acfr:InterGovernmentalReceivableModifiedAccrual</v>
       </c>
       <c r="E94" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="4"/>
@@ -11702,7 +11709,7 @@
         <v>acfr:SpecialAssessmentsReceivableDelinquentModifiedAccrual</v>
       </c>
       <c r="J94" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -11720,7 +11727,7 @@
         <v>acfr:InterGovernmentalReceivableAllowanceModifiedAccrual</v>
       </c>
       <c r="E95" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="4"/>
@@ -11738,7 +11745,7 @@
         <v>acfr:TaxesReceivableModifiedAccrual</v>
       </c>
       <c r="J95" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -11756,7 +11763,7 @@
         <v>acfr:InterGovernmentalReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="E96" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="4"/>
@@ -11774,7 +11781,7 @@
         <v>acfr:TaxesReceivableDelinquentPersonalPropertyModifiedAccrual</v>
       </c>
       <c r="J96" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -11792,7 +11799,7 @@
         <v>acfr:InterestAndPenaltiesReceivableOnTaxesModifiedAccrual</v>
       </c>
       <c r="E97" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="4"/>
@@ -11810,7 +11817,7 @@
         <v>acfr:TaxesReceivableDelinquentRealPropertyModifiedAccrual</v>
       </c>
       <c r="J97" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -11828,7 +11835,7 @@
         <v>acfr:InterestReceivableAllowancesModifiedAccrual</v>
       </c>
       <c r="E98" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="4"/>
@@ -11846,7 +11853,7 @@
         <v>acfr:TaxesReceivablePersonalPropertyCurrentLevyModifiedAccrual</v>
       </c>
       <c r="J98" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -11864,7 +11871,7 @@
         <v>acfr:IntergovernmentalAgreementPayablePrincipalDueWithinOneYearModifiedAccrual</v>
       </c>
       <c r="E99" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="4"/>
@@ -11882,7 +11889,7 @@
         <v>acfr:TaxesReceivableRealPropertyCurrentLevyModifiedAccrual</v>
       </c>
       <c r="J99" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -11900,7 +11907,7 @@
         <v>acfr:InternalBalanceModifiedAccrual</v>
       </c>
       <c r="E100" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="4"/>
@@ -11918,7 +11925,7 @@
         <v>acfr:TuitionAndFeesAllowancesModifiedAccrual</v>
       </c>
       <c r="J100" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -11936,7 +11943,7 @@
         <v>acfr:InventoryModifiedAccrual</v>
       </c>
       <c r="E101" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="4"/>
@@ -11954,7 +11961,7 @@
         <v>acfr:TuitionAndFeesReceivableModifiedAccrual</v>
       </c>
       <c r="J101" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -11972,7 +11979,7 @@
         <v>acfr:InventoryEquipmentMaterialsAndPartsModifiedAccrual</v>
       </c>
       <c r="E102" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="4"/>
@@ -11990,7 +11997,7 @@
         <v>acfr:TuitionAndFeesReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="J102" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -12008,7 +12015,7 @@
         <v>acfr:InventoryRoadMaterialsModifiedAccrual</v>
       </c>
       <c r="E103" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="4"/>
@@ -12026,7 +12033,7 @@
         <v>acfr:AccountsPayableModifiedAccrual</v>
       </c>
       <c r="J103" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -12044,7 +12051,7 @@
         <v>acfr:InvestmentsAbtractModifiedAccrual</v>
       </c>
       <c r="E104" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="4"/>
@@ -12062,7 +12069,7 @@
         <v>acfr:AccruedExpensesPayableModifiedAccrual</v>
       </c>
       <c r="J104" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -12080,7 +12087,7 @@
         <v>acfr:InvestmentsCurrentModifiedAccrual</v>
       </c>
       <c r="E105" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="4"/>
@@ -12098,7 +12105,7 @@
         <v>acfr:AccruedInterestPayableModifiedAccrual</v>
       </c>
       <c r="J105" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -12116,7 +12123,7 @@
         <v>acfr:InvestmentsHeldByThirdPartiesModifiedAccrual</v>
       </c>
       <c r="E106" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="4"/>
@@ -12134,7 +12141,7 @@
         <v>acfr:AccruedLiabilitiesModifiedAccrual</v>
       </c>
       <c r="J106" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -12152,7 +12159,7 @@
         <v>acfr:InvestmentsRestrictedModifiedAccrual</v>
       </c>
       <c r="E107" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="4"/>
@@ -12170,7 +12177,7 @@
         <v>acfr:AccruedTuitionAndFeesModifiedAccrual</v>
       </c>
       <c r="J107" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -12188,7 +12195,7 @@
         <v>acfr:InvestmentsWithFiscalAgentsModifiedAccrual</v>
       </c>
       <c r="E108" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="4"/>
@@ -12206,7 +12213,7 @@
         <v>acfr:AccruedVacationPayableModifiedAccrual</v>
       </c>
       <c r="J108" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -12224,7 +12231,7 @@
         <v>acfr:InvestmentsWithStateTreasuryModifiedAccrual</v>
       </c>
       <c r="E109" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="4"/>
@@ -12242,7 +12249,7 @@
         <v>acfr:AccruedWagesAndRelatedLiabilitiesPayableModifiedAccrual</v>
       </c>
       <c r="J109" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -12260,7 +12267,7 @@
         <v>acfr:LandContractsPayableModifiedAccrual</v>
       </c>
       <c r="E110" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="4"/>
@@ -12278,7 +12285,7 @@
         <v>acfr:AccruedWagesPayableModifiedAccrual</v>
       </c>
       <c r="J110" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -12296,7 +12303,7 @@
         <v>acfr:LandContractsReceivableModifiedAccrual</v>
       </c>
       <c r="E111" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="4"/>
@@ -12314,7 +12321,7 @@
         <v>acfr:AdvancesFromFederalGovernmentNoncurrentModifiedAccrual</v>
       </c>
       <c r="J111" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -12332,7 +12339,7 @@
         <v>acfr:LandContractsReceivablesAllowanceModifiedAccrual</v>
       </c>
       <c r="E112" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="4"/>
@@ -12350,7 +12357,7 @@
         <v>acfr:AdvancesFromGrantorsModifiedAccrual</v>
       </c>
       <c r="J112" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -12368,7 +12375,7 @@
         <v>acfr:LandContractsReceivablesNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="E113" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="4"/>
@@ -12386,7 +12393,7 @@
         <v>acfr:AdvancesFromOtherFundsModifiedAccrual</v>
       </c>
       <c r="J113" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -12404,7 +12411,7 @@
         <v>acfr:LeaseAssetsRightOfUseModifiedAccrual</v>
       </c>
       <c r="E114" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="4"/>
@@ -12422,7 +12429,7 @@
         <v>acfr:AdvancesFromOtherGovernmentsNoncurrentModifiedAccrual</v>
       </c>
       <c r="J114" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -12440,7 +12447,7 @@
         <v>acfr:LeasesPayableDueWithinOneYearModifiedAccrual</v>
       </c>
       <c r="E115" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="4"/>
@@ -12458,7 +12465,7 @@
         <v>acfr:AdvancesFromStateNoncurrentModifiedAccrual</v>
       </c>
       <c r="J115" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -12476,7 +12483,7 @@
         <v>acfr:LeasesReceivableModifiedAccrual</v>
       </c>
       <c r="E116" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="4"/>
@@ -12494,7 +12501,7 @@
         <v>acfr:AdvancesSpecialAssessmentDistrictsModifiedAccrual</v>
       </c>
       <c r="J116" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -12512,7 +12519,7 @@
         <v>acfr:LeasesReceivableAllowanceModifiedAccrual</v>
       </c>
       <c r="E117" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="4"/>
@@ -12530,7 +12537,7 @@
         <v>acfr:AnnuitiesPayableModifiedAccrual</v>
       </c>
       <c r="J117" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -12548,7 +12555,7 @@
         <v>acfr:LeasesReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="E118" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="4"/>
@@ -12566,7 +12573,7 @@
         <v>acfr:CashBondsPayableModifiedAccrual</v>
       </c>
       <c r="J118" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -12584,7 +12591,7 @@
         <v>acfr:LimitedTaxBondsPrincipalDueWithinOneYearModifiedAccrual</v>
       </c>
       <c r="E119" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="4"/>
@@ -12602,7 +12609,7 @@
         <v>acfr:CourtOrdersPayableModifiedAccrual</v>
       </c>
       <c r="J119" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -12620,7 +12627,7 @@
         <v>acfr:LoansAndNotesReceivableModifiedAccrual</v>
       </c>
       <c r="E120" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="4"/>
@@ -12638,7 +12645,7 @@
         <v>acfr:CustomerDepositsModifiedAccrual</v>
       </c>
       <c r="J120" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -12656,7 +12663,7 @@
         <v>acfr:LoansAndNotesReceivableAllowanceModifiedAccrual</v>
       </c>
       <c r="E121" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="4"/>
@@ -12674,7 +12681,7 @@
         <v>acfr:DepositsHeldforOthersModifiedAccrual</v>
       </c>
       <c r="J121" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -12692,7 +12699,7 @@
         <v>acfr:LoansAndNotesReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="E122" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="4"/>
@@ -12710,7 +12717,7 @@
         <v>acfr:DrainOrdersPayableModifiedAccrual</v>
       </c>
       <c r="J122" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -12728,7 +12735,7 @@
         <v>acfr:LoansPayableDueWithinOneYearModifiedAccrual</v>
       </c>
       <c r="E123" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="4"/>
@@ -12746,7 +12753,7 @@
         <v>acfr:DueToCitiesModifiedAccrual</v>
       </c>
       <c r="J123" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -12764,7 +12771,7 @@
         <v>acfr:LoansReceivableModifiedAccrual</v>
       </c>
       <c r="E124" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="4"/>
@@ -12782,7 +12789,7 @@
         <v>acfr:DueToCommunityCollegeModifiedAccrual</v>
       </c>
       <c r="J124" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -12800,7 +12807,7 @@
         <v>acfr:LoansReceivableAllowanceModifiedAccrual</v>
       </c>
       <c r="E125" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="4"/>
@@ -12818,7 +12825,7 @@
         <v>acfr:DueToComponentUnitModifiedAccrual</v>
       </c>
       <c r="J125" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -12836,7 +12843,7 @@
         <v>acfr:LoansReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="E126" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="4"/>
@@ -12854,7 +12861,7 @@
         <v>acfr:DueToCountiesModifiedAccrual</v>
       </c>
       <c r="J126" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -12872,7 +12879,7 @@
         <v>acfr:LocalUnitShareOfAssessmentImprovementCostsReceivableModifiedAccrual</v>
       </c>
       <c r="E127" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F127" t="str">
         <f t="shared" si="4"/>
@@ -12890,7 +12897,7 @@
         <v>acfr:DueToCourtWardsModifiedAccrual</v>
       </c>
       <c r="J127" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -12908,7 +12915,7 @@
         <v>acfr:LongTermDebtDueWithinOneYearModifiedAccrual</v>
       </c>
       <c r="E128" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="4"/>
@@ -12926,7 +12933,7 @@
         <v>acfr:DueToEmployeesModifiedAccrual</v>
       </c>
       <c r="J128" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -12944,7 +12951,7 @@
         <v>acfr:LotteryTicketInventoriesModifiedAccrual</v>
       </c>
       <c r="E129" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="4"/>
@@ -12962,7 +12969,7 @@
         <v>acfr:DueToFederalGovernmentModifiedAccrual</v>
       </c>
       <c r="J129" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -12980,7 +12987,7 @@
         <v>acfr:NotesPayableDueWithinOneYearModifiedAccrual</v>
       </c>
       <c r="E130" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" si="4"/>
@@ -12998,7 +13005,7 @@
         <v>acfr:DueToFiduciaryFundsModifiedAccrual</v>
       </c>
       <c r="J130" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -13016,7 +13023,7 @@
         <v>acfr:NotesReceivableModifiedAccrual</v>
       </c>
       <c r="E131" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" ref="F131:F194" si="8">"acfr:"&amp;E131</f>
@@ -13034,7 +13041,7 @@
         <v>acfr:DueToFiscalAgentModifiedAccrual</v>
       </c>
       <c r="J131" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -13052,7 +13059,7 @@
         <v>acfr:NotesReceivableAllowanceModifiedAccrual</v>
       </c>
       <c r="E132" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="8"/>
@@ -13070,7 +13077,7 @@
         <v>acfr:DueToFormerEmployeesModifiedAccrual</v>
       </c>
       <c r="J132" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -13088,7 +13095,7 @@
         <v>acfr:NotesReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="E133" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" si="8"/>
@@ -13106,7 +13113,7 @@
         <v>acfr:DueToIntermediateSchoolDistrictsModifiedAccrual</v>
       </c>
       <c r="J133" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -13124,7 +13131,7 @@
         <v>acfr:OtherAccountsReceivableModifiedAccrual</v>
       </c>
       <c r="E134" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="8"/>
@@ -13142,7 +13149,7 @@
         <v>acfr:DueToLibrariesModifiedAccrual</v>
       </c>
       <c r="J134" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -13160,7 +13167,7 @@
         <v>acfr:OtherAccountsReceivableAllowanceModifiedAccrual</v>
       </c>
       <c r="E135" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="8"/>
@@ -13178,7 +13185,7 @@
         <v>acfr:DueToOtherFundsModifiedAccrual</v>
       </c>
       <c r="J135" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -13196,7 +13203,7 @@
         <v>acfr:OtherAccountsReceivableNetModifiedAccrual</v>
       </c>
       <c r="E136" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="8"/>
@@ -13214,7 +13221,7 @@
         <v>acfr:DueToOtherGovernmentsModifiedAccrual</v>
       </c>
       <c r="J136" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -13232,7 +13239,7 @@
         <v>acfr:OtherCurrentAssetsModifiedAccrual</v>
       </c>
       <c r="E137" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="8"/>
@@ -13250,7 +13257,7 @@
         <v>acfr:DueToOthersModifiedAccrual</v>
       </c>
       <c r="J137" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -13268,7 +13275,7 @@
         <v>acfr:OtherCurrentInvestmentsModifiedAccrual</v>
       </c>
       <c r="E138" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="8"/>
@@ -13286,7 +13293,7 @@
         <v>acfr:DueToPrimaryGovernmentModifiedAccrual</v>
       </c>
       <c r="J138" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -13304,7 +13311,7 @@
         <v>acfr:OtherReceivablesModifiedAccrual</v>
       </c>
       <c r="E139" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="8"/>
@@ -13322,7 +13329,7 @@
         <v>acfr:DueToRoadCommissionsModifiedAccrual</v>
       </c>
       <c r="J139" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -13340,7 +13347,7 @@
         <v>acfr:OtherRestrictedAssetsModifiedAccrual</v>
       </c>
       <c r="E140" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="F140" t="str">
         <f t="shared" si="8"/>
@@ -13358,7 +13365,7 @@
         <v>acfr:DueToSchoolsModifiedAccrual</v>
       </c>
       <c r="J140" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -13376,7 +13383,7 @@
         <v>acfr:OtherTaxesReceivableModifiedAccrual</v>
       </c>
       <c r="E141" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="F141" t="str">
         <f t="shared" si="8"/>
@@ -13394,7 +13401,7 @@
         <v>acfr:DueToSpecialEducationModifiedAccrual</v>
       </c>
       <c r="J141" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -13412,7 +13419,7 @@
         <v>acfr:PatentsModifiedAccrual</v>
       </c>
       <c r="E142" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="8"/>
@@ -13430,7 +13437,7 @@
         <v>acfr:DueToStateGovernmentModifiedAccrual</v>
       </c>
       <c r="J142" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -13448,7 +13455,7 @@
         <v>acfr:PaymentsInLieuOfTaxesReceivableModifiedAccrual</v>
       </c>
       <c r="E143" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="8"/>
@@ -13466,7 +13473,7 @@
         <v>acfr:DueToTaxpayersTaxOverpaymentsAndDuplicatePaymentsModifiedAccrual</v>
       </c>
       <c r="J143" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -13484,7 +13491,7 @@
         <v>acfr:PenaltiesReceivableModifiedAccrual</v>
       </c>
       <c r="E144" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F144" t="str">
         <f t="shared" si="8"/>
@@ -13502,7 +13509,7 @@
         <v>acfr:DueToTownshipsModifiedAccrual</v>
       </c>
       <c r="J144" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -13520,7 +13527,7 @@
         <v>acfr:PenaltiesReceivableAllowanceModifiedAccrual</v>
       </c>
       <c r="E145" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="F145" t="str">
         <f t="shared" si="8"/>
@@ -13538,7 +13545,7 @@
         <v>acfr:DueToVillagesModifiedAccrual</v>
       </c>
       <c r="J145" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -13556,7 +13563,7 @@
         <v>acfr:PenaltiesReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="E146" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="F146" t="str">
         <f t="shared" si="8"/>
@@ -13574,7 +13581,7 @@
         <v>acfr:GarnishmentsPayableModifiedAccrual</v>
       </c>
       <c r="J146" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -13592,7 +13599,7 @@
         <v>acfr:PerformanceBondsPayableDueWithinOneYearModifiedAccrual</v>
       </c>
       <c r="E147" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="F147" t="str">
         <f t="shared" si="8"/>
@@ -13610,7 +13617,7 @@
         <v>acfr:GrantsPayableModifiedAccrual</v>
       </c>
       <c r="J147" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -13628,7 +13635,7 @@
         <v>acfr:PooledCashAndInvestmentsModifiedAccrual</v>
       </c>
       <c r="E148" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="8"/>
@@ -13646,7 +13653,7 @@
         <v>acfr:OtherAdvancesModifiedAccrual</v>
       </c>
       <c r="J148" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -13664,7 +13671,7 @@
         <v>acfr:PrepaidDepositsModifiedAccrual</v>
       </c>
       <c r="E149" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="8"/>
@@ -13682,7 +13689,7 @@
         <v>acfr:PatientsOrInmatesTrustMoneyPayableModifiedAccrual</v>
       </c>
       <c r="J149" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -13700,7 +13707,7 @@
         <v>acfr:PrepaidExpensesModifiedAccrual</v>
       </c>
       <c r="E150" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="8"/>
@@ -13718,7 +13725,7 @@
         <v>acfr:PayableFromRestrictedAssetsModifiedAccrual</v>
       </c>
       <c r="J150" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -13736,7 +13743,7 @@
         <v>acfr:PrepaidsAndOtherAssetsModifiedAccrual</v>
       </c>
       <c r="E151" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="F151" t="str">
         <f t="shared" si="8"/>
@@ -13754,7 +13761,7 @@
         <v>acfr:PayrollDeductionsPayableModifiedAccrual</v>
       </c>
       <c r="J151" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -13772,7 +13779,7 @@
         <v>acfr:PropertyTaxesReceivableModifiedAccrual</v>
       </c>
       <c r="E152" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="8"/>
@@ -13790,7 +13797,7 @@
         <v>acfr:PenaltiesPayableModifiedAccrual</v>
       </c>
       <c r="J152" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -13808,7 +13815,7 @@
         <v>acfr:PropertyTaxesReceivableAllowanceModifiedAccrual</v>
       </c>
       <c r="E153" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="F153" t="str">
         <f t="shared" si="8"/>
@@ -13826,7 +13833,7 @@
         <v>acfr:PerformanceDepositsPayableModifiedAccrual</v>
       </c>
       <c r="J153" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -13844,7 +13851,7 @@
         <v>acfr:PropertyTaxesReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="E154" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="F154" t="str">
         <f t="shared" si="8"/>
@@ -13862,7 +13869,7 @@
         <v>acfr:ReceiptsRefundableModifiedAccrual</v>
       </c>
       <c r="J154" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -13880,7 +13887,7 @@
         <v>acfr:ReceivableModifiedAccrual</v>
       </c>
       <c r="E155" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="F155" t="str">
         <f t="shared" si="8"/>
@@ -13898,7 +13905,7 @@
         <v>acfr:RegulatoryLiabilityCurrentModifiedAccrual</v>
       </c>
       <c r="J155" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -13916,7 +13923,7 @@
         <v>acfr:ReceivablesModifiedAccrual</v>
       </c>
       <c r="E156" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="F156" t="str">
         <f t="shared" si="8"/>
@@ -13934,7 +13941,7 @@
         <v>acfr:RestitutionsPayableModifiedAccrual</v>
       </c>
       <c r="J156" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -13952,7 +13959,7 @@
         <v>acfr:RegulatoryAssetsCurrentModifiedAccrual</v>
       </c>
       <c r="E157" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F157" t="str">
         <f t="shared" si="8"/>
@@ -13970,7 +13977,7 @@
         <v>acfr:RetainagePayableModifiedAccrual</v>
       </c>
       <c r="J157" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -13988,7 +13995,7 @@
         <v>acfr:RestrictedAccountsReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="E158" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="F158" t="str">
         <f t="shared" si="8"/>
@@ -14006,7 +14013,7 @@
         <v>acfr:TaxesPayableModifiedAccrual</v>
       </c>
       <c r="J158" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -14024,7 +14031,7 @@
         <v>acfr:RestrictedAssetsModifiedAccrual</v>
       </c>
       <c r="E159" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="F159" t="str">
         <f t="shared" si="8"/>
@@ -14042,7 +14049,7 @@
         <v>acfr:UnclaimedMoneyModifiedAccrual</v>
       </c>
       <c r="J159" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -14060,7 +14067,7 @@
         <v>acfr:RestrictedAssetsCustomModifiedAccrual</v>
       </c>
       <c r="E160" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="F160" t="str">
         <f t="shared" si="8"/>
@@ -14078,7 +14085,7 @@
         <v>acfr:UndistributedReceiptsModifiedAccrual</v>
       </c>
       <c r="J160" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -14096,7 +14103,7 @@
         <v>acfr:RestrictedBondAndInterestRedemptionModifiedAccrual</v>
       </c>
       <c r="E161" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="F161" t="str">
         <f t="shared" si="8"/>
@@ -14114,7 +14121,7 @@
         <v>acfr:UndistributedTaxCollectionsModifiedAccrual</v>
       </c>
       <c r="J161" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -14132,7 +14139,7 @@
         <v>acfr:RestrictedBondReserveModifiedAccrual</v>
       </c>
       <c r="E162" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="F162" t="str">
         <f t="shared" si="8"/>
@@ -14150,7 +14157,7 @@
         <v>acfr:UnearnedRevenueModifiedAccrual</v>
       </c>
       <c r="J162" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -14168,7 +14175,7 @@
         <v>acfr:RestrictedCashModifiedAccrual</v>
       </c>
       <c r="E163" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="F163" t="str">
         <f t="shared" si="8"/>
@@ -14204,7 +14211,7 @@
         <v>acfr:RestrictedCashAndCashEquivalentsModifiedAccrual</v>
       </c>
       <c r="E164" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="F164" t="str">
         <f t="shared" si="8"/>
@@ -14222,7 +14229,7 @@
         <v>acfr:DeferredInflowsOfResourcesModifiedAccrual</v>
       </c>
       <c r="J164" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -14240,7 +14247,7 @@
         <v>acfr:RestrictedCashAndInvestmentsModifiedAccrual</v>
       </c>
       <c r="E165" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F165" t="str">
         <f t="shared" si="8"/>
@@ -14258,7 +14265,7 @@
         <v>acfr:DeferredInflowsOfResourcesPropertyTaxesModifiedAccrual</v>
       </c>
       <c r="J165" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -14276,7 +14283,7 @@
         <v>acfr:RestrictedCashDebtRetirementModifiedAccrual</v>
       </c>
       <c r="E166" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="F166" t="str">
         <f t="shared" si="8"/>
@@ -14294,7 +14301,7 @@
         <v>acfr:DeferredInflowsOfResourcesTaxesLeviedForASubsequentPeriodModifiedAccrual</v>
       </c>
       <c r="J166" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -14312,7 +14319,7 @@
         <v>acfr:RestrictedCashDebtServiceModifiedAccrual</v>
       </c>
       <c r="E167" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F167" t="str">
         <f t="shared" si="8"/>
@@ -14330,7 +14337,7 @@
         <v>acfr:OtherDeferredInflowsOfResourcesModifiedAccrual</v>
       </c>
       <c r="J167" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -14348,7 +14355,7 @@
         <v>acfr:RestrictedCashRepairsReplacementAndImprovementsReserveModifiedAccrual</v>
       </c>
       <c r="E168" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="F168" t="str">
         <f t="shared" si="8"/>
@@ -14366,7 +14373,7 @@
         <v>acfr:DeferredOutflowsOfResourcesModifiedAccrual</v>
       </c>
       <c r="J168" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -14384,7 +14391,7 @@
         <v>acfr:RestrictedCertificatesOfDepositModifiedAccrual</v>
       </c>
       <c r="E169" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F169" t="str">
         <f t="shared" si="8"/>
@@ -14402,7 +14409,7 @@
         <v>acfr:OtherDeferredOutflowsOfResourcesModifiedAccrual</v>
       </c>
       <c r="J169" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -14420,7 +14427,7 @@
         <v>acfr:RestrictedReceivablesAndDepositsModifiedAccrual</v>
       </c>
       <c r="E170" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="F170" t="str">
         <f t="shared" si="8"/>
@@ -14438,7 +14445,7 @@
         <v>acfr:ConstructionInProgressModifiedAccrual</v>
       </c>
       <c r="J170" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -14456,7 +14463,7 @@
         <v>acfr:RevenueBondsPayableDueWithinOneYearModifiedAccrual</v>
       </c>
       <c r="E171" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="F171" t="str">
         <f t="shared" si="8"/>
@@ -14474,7 +14481,7 @@
         <v>acfr:InvestmentsInJointVenturesModifiedAccrual</v>
       </c>
       <c r="J171" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -14492,7 +14499,7 @@
         <v>acfr:SalesTaxReceivableModifiedAccrual</v>
       </c>
       <c r="E172" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F172" t="str">
         <f t="shared" si="8"/>
@@ -14510,7 +14517,7 @@
         <v>acfr:InvestmentsOfSurplusFundsModifiedAccrual</v>
       </c>
       <c r="J172" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -14528,7 +14535,7 @@
         <v>acfr:SecuritiesLendingCollateralAssetsModifiedAccrual</v>
       </c>
       <c r="E173" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F173" t="str">
         <f t="shared" si="8"/>
@@ -14546,7 +14553,7 @@
         <v>acfr:LeasesAccumulatedAmortizationModifiedAccrual</v>
       </c>
       <c r="J173" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -14564,7 +14571,7 @@
         <v>acfr:SecuritiesLendingObligationsLiabilityModifiedAccrual</v>
       </c>
       <c r="E174" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F174" t="str">
         <f t="shared" si="8"/>
@@ -14582,7 +14589,7 @@
         <v>acfr:LongTermContractsReceivableModifiedAccrual</v>
       </c>
       <c r="J174" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -14600,7 +14607,7 @@
         <v>acfr:SelfInsuranceLiabilitiesCurrentPortionModifiedAccrual</v>
       </c>
       <c r="E175" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F175" t="str">
         <f t="shared" si="8"/>
@@ -14618,7 +14625,7 @@
         <v>acfr:LongTermInvestmentsModifiedAccrual</v>
       </c>
       <c r="J175" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -14636,7 +14643,7 @@
         <v>acfr:ServiceFeesReceivableModifiedAccrual</v>
       </c>
       <c r="E176" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="F176" t="str">
         <f t="shared" si="8"/>
@@ -14654,7 +14661,7 @@
         <v>acfr:NetOPEBAssetModifiedAccrual</v>
       </c>
       <c r="J176" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -14672,7 +14679,7 @@
         <v>acfr:SpecialAssessmentTaxesReceivableModifiedAccrual</v>
       </c>
       <c r="E177" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="F177" t="str">
         <f t="shared" si="8"/>
@@ -14690,7 +14697,7 @@
         <v>acfr:NetPensionAssetModifiedAccrual</v>
       </c>
       <c r="J177" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -14708,7 +14715,7 @@
         <v>acfr:SpecialAssessmentTaxesReceivableUnavailableModifiedAccrual</v>
       </c>
       <c r="E178" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="F178" t="str">
         <f t="shared" si="8"/>
@@ -14726,7 +14733,7 @@
         <v>acfr:OtherAssetsModifiedAccrual</v>
       </c>
       <c r="J178" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -14744,7 +14751,7 @@
         <v>acfr:SpecialAssessmentsReceivableDelinquentModifiedAccrual</v>
       </c>
       <c r="E179" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="F179" t="str">
         <f t="shared" si="8"/>
@@ -14762,7 +14769,7 @@
         <v>acfr:OtherInvestmentsModifiedAccrual</v>
       </c>
       <c r="J179" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -14780,7 +14787,7 @@
         <v>acfr:TaxesReceivableModifiedAccrual</v>
       </c>
       <c r="E180" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="F180" t="str">
         <f t="shared" si="8"/>
@@ -14798,7 +14805,7 @@
         <v>acfr:UnamortizedDiscountsOnBondsSoldByLocalUnitModifiedAccrual</v>
       </c>
       <c r="J180" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -14816,7 +14823,7 @@
         <v>acfr:TaxesReceivableDelinquentPersonalPropertyModifiedAccrual</v>
       </c>
       <c r="E181" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="F181" t="str">
         <f t="shared" si="8"/>
@@ -14834,7 +14841,7 @@
         <v>acfr:AdvancesToComponentUnitModifiedAccrual</v>
       </c>
       <c r="J181" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -14852,7 +14859,7 @@
         <v>acfr:TaxesReceivableDelinquentRealPropertyModifiedAccrual</v>
       </c>
       <c r="E182" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="F182" t="str">
         <f t="shared" si="8"/>
@@ -14870,7 +14877,7 @@
         <v>acfr:AdvancesToOtherFundsModifiedAccrual</v>
       </c>
       <c r="J182" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -14888,7 +14895,7 @@
         <v>acfr:TaxesReceivablePersonalPropertyCurrentLevyModifiedAccrual</v>
       </c>
       <c r="E183" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="F183" t="str">
         <f t="shared" si="8"/>
@@ -14906,7 +14913,7 @@
         <v>acfr:AdvancesToOtherGovernmentsModifiedAccrual</v>
       </c>
       <c r="J183" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -14924,7 +14931,7 @@
         <v>acfr:TaxesReceivableRealPropertyCurrentLevyModifiedAccrual</v>
       </c>
       <c r="E184" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="F184" t="str">
         <f t="shared" si="8"/>
@@ -14957,7 +14964,7 @@
         <v>acfr:TenantAccountsReceivableModifiedAccrual</v>
       </c>
       <c r="E185" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="F185" t="str">
         <f t="shared" si="8"/>
@@ -14987,7 +14994,7 @@
         <v>acfr:TenantAccountsReceivableAllowanceModifiedAccrual</v>
       </c>
       <c r="E186" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="F186" t="str">
         <f t="shared" si="8"/>
@@ -15017,7 +15024,7 @@
         <v>acfr:TenantAccountsReceivableNetOfAllowancesModifiedAccrual</v>
       </c>
       <c r="E187" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="F187" t="str">
         <f t="shared" si="8"/>
@@ -15047,7 +15054,7 @@
         <v>acfr:TimberRightsModifiedAccrual</v>
       </c>
       <c r="E188" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="F188" t="str">
         <f t="shared" si="8"/>
@@ -15077,7 +15084,7 @@
         <v>acfr:TradeReceivableModifiedAccrual</v>
       </c>
       <c r="E189" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="F189" t="str">
         <f t="shared" si="8"/>
@@ -15107,7 +15114,7 @@
         <v>acfr:TradeReceivableAllowanceModifiedAccrual</v>
       </c>
       <c r="E190" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="F190" t="str">
         <f t="shared" si="8"/>
@@ -15137,7 +15144,7 @@
         <v>acfr:TradeReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="E191" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="F191" t="str">
         <f t="shared" si="8"/>
@@ -15167,7 +15174,7 @@
         <v>acfr:TrademarksModifiedAccrual</v>
       </c>
       <c r="E192" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="F192" t="str">
         <f t="shared" si="8"/>
@@ -15197,7 +15204,7 @@
         <v>acfr:TuitionAndFeesAllowancesModifiedAccrual</v>
       </c>
       <c r="E193" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="F193" t="str">
         <f t="shared" si="8"/>
@@ -15227,7 +15234,7 @@
         <v>acfr:TuitionAndFeesReceivableModifiedAccrual</v>
       </c>
       <c r="E194" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="F194" t="str">
         <f t="shared" si="8"/>
@@ -15257,7 +15264,7 @@
         <v>acfr:TuitionAndFeesReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="E195" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="F195" t="str">
         <f t="shared" ref="F195:F258" si="12">"acfr:"&amp;E195</f>
@@ -15287,7 +15294,7 @@
         <v>acfr:UnamortizedPremiumOnBondsPrincipalDueWithinOneYearModifiedAccrual</v>
       </c>
       <c r="E196" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="F196" t="str">
         <f t="shared" si="12"/>
@@ -15317,7 +15324,7 @@
         <v>acfr:UnbilledRevenueModifiedAccrual</v>
       </c>
       <c r="E197" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="F197" t="str">
         <f t="shared" si="12"/>
@@ -15347,7 +15354,7 @@
         <v>acfr:UninsuredClaimLiabilityCurrentPortionModifiedAccrual</v>
       </c>
       <c r="E198" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="F198" t="str">
         <f t="shared" si="12"/>
@@ -15377,7 +15384,7 @@
         <v>acfr:UnlimitedTaxBondsPrincipalDueWithinOneYearModifiedAccrual</v>
       </c>
       <c r="E199" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="F199" t="str">
         <f t="shared" si="12"/>
@@ -15407,7 +15414,7 @@
         <v>acfr:UtilitiesAndWaterReceivableModifiedAccrual</v>
       </c>
       <c r="E200" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="F200" t="str">
         <f t="shared" si="12"/>
@@ -15437,7 +15444,7 @@
         <v>acfr:UtilitiesAndWaterReceivableAllowanceModifiedAccrual</v>
       </c>
       <c r="E201" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F201" t="str">
         <f t="shared" si="12"/>
@@ -15467,7 +15474,7 @@
         <v>acfr:UtilitiesAndWaterReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
       <c r="E202" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="F202" t="str">
         <f t="shared" si="12"/>
@@ -15497,7 +15504,7 @@
         <v>acfr:VestedEmployeeBenefitsPayableDueWithinOneYearModifiedAccrual</v>
       </c>
       <c r="E203" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="F203" t="str">
         <f t="shared" si="12"/>
@@ -15527,7 +15534,7 @@
         <v>acfr:WaterRightsModifiedAccrual</v>
       </c>
       <c r="E204" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="F204" t="str">
         <f t="shared" si="12"/>
@@ -15557,7 +15564,7 @@
         <v>acfr:AccountsPayableModifiedAccrual</v>
       </c>
       <c r="E205" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="F205" t="str">
         <f t="shared" si="12"/>
@@ -15587,7 +15594,7 @@
         <v>acfr:AccountsPayableAndAccruedLiabilitiesModifiedAccrual</v>
       </c>
       <c r="E206" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="F206" t="str">
         <f t="shared" si="12"/>
@@ -15617,7 +15624,7 @@
         <v>acfr:AccountsPayableNoncurrentPayableFromRestrictedAssetsModifiedAccrual</v>
       </c>
       <c r="E207" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="F207" t="str">
         <f t="shared" si="12"/>
@@ -15647,7 +15654,7 @@
         <v>acfr:AccountsPayablePayableFromRestrictedAssetsModifiedAccrual</v>
       </c>
       <c r="E208" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="F208" t="str">
         <f t="shared" si="12"/>
@@ -15677,7 +15684,7 @@
         <v>acfr:AccruedConnectionFeesModifiedAccrual</v>
       </c>
       <c r="E209" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="F209" t="str">
         <f t="shared" si="12"/>
@@ -15707,7 +15714,7 @@
         <v>acfr:AccruedExpensesPayableModifiedAccrual</v>
       </c>
       <c r="E210" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="F210" t="str">
         <f t="shared" si="12"/>
@@ -15737,7 +15744,7 @@
         <v>acfr:AccruedInterestAndPenaltiesModifiedAccrual</v>
       </c>
       <c r="E211" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="F211" t="str">
         <f t="shared" si="12"/>
@@ -15767,7 +15774,7 @@
         <v>acfr:AccruedInterestPayableModifiedAccrual</v>
       </c>
       <c r="E212" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="F212" t="str">
         <f t="shared" si="12"/>
@@ -15797,7 +15804,7 @@
         <v>acfr:AccruedInterestPayableFromRestrictedAssetsModifiedAccrual</v>
       </c>
       <c r="E213" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="F213" t="str">
         <f t="shared" si="12"/>
@@ -15827,7 +15834,7 @@
         <v>acfr:AccruedLiabilitiesModifiedAccrual</v>
       </c>
       <c r="E214" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="F214" t="str">
         <f t="shared" si="12"/>
@@ -15857,7 +15864,7 @@
         <v>acfr:AccruedSickLeavePayableModifiedAccrual</v>
       </c>
       <c r="E215" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="F215" t="str">
         <f t="shared" si="12"/>
@@ -15887,7 +15894,7 @@
         <v>acfr:AccruedTuitionAndFeesModifiedAccrual</v>
       </c>
       <c r="E216" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="F216" t="str">
         <f t="shared" si="12"/>
@@ -15917,7 +15924,7 @@
         <v>acfr:AccruedVacationPayableModifiedAccrual</v>
       </c>
       <c r="E217" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="F217" t="str">
         <f t="shared" si="12"/>
@@ -15947,7 +15954,7 @@
         <v>acfr:AccruedWagesAndRelatedLiabilitiesPayableModifiedAccrual</v>
       </c>
       <c r="E218" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="F218" t="str">
         <f t="shared" si="12"/>
@@ -15977,7 +15984,7 @@
         <v>acfr:AccruedWagesPayableModifiedAccrual</v>
       </c>
       <c r="E219" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="F219" t="str">
         <f t="shared" si="12"/>
@@ -16007,7 +16014,7 @@
         <v>acfr:AdvancesCurrentModifiedAccrual</v>
       </c>
       <c r="E220" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="F220" t="str">
         <f t="shared" si="12"/>
@@ -16037,7 +16044,7 @@
         <v>acfr:AdvancesFromFederalGovernmentNoncurrentModifiedAccrual</v>
       </c>
       <c r="E221" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="F221" t="str">
         <f t="shared" si="12"/>
@@ -16067,7 +16074,7 @@
         <v>acfr:AdvancesFromGrantorsModifiedAccrual</v>
       </c>
       <c r="E222" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F222" t="str">
         <f t="shared" si="12"/>
@@ -16097,7 +16104,7 @@
         <v>acfr:AdvancesFromOtherFundsModifiedAccrual</v>
       </c>
       <c r="E223" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="F223" t="str">
         <f t="shared" si="12"/>
@@ -16127,7 +16134,7 @@
         <v>acfr:AdvancesFromOtherFundsNoncurrentModifiedAccrual</v>
       </c>
       <c r="E224" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="F224" t="str">
         <f t="shared" si="12"/>
@@ -16157,7 +16164,7 @@
         <v>acfr:AdvancesFromOtherFundsNoncurrentPayableFromRestrictedAssetsModifiedAccrual</v>
       </c>
       <c r="E225" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="F225" t="str">
         <f t="shared" si="12"/>
@@ -16187,7 +16194,7 @@
         <v>acfr:AdvancesFromOtherFundsPayableFromRestrictedAssetsModifiedAccrual</v>
       </c>
       <c r="E226" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="F226" t="str">
         <f t="shared" si="12"/>
@@ -16217,7 +16224,7 @@
         <v>acfr:AdvancesFromOtherGovernmentsModifiedAccrual</v>
       </c>
       <c r="E227" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="F227" t="str">
         <f t="shared" si="12"/>
@@ -16247,7 +16254,7 @@
         <v>acfr:AdvancesFromOtherGovernmentsNoncurrentModifiedAccrual</v>
       </c>
       <c r="E228" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="F228" t="str">
         <f t="shared" si="12"/>
@@ -16277,7 +16284,7 @@
         <v>acfr:AdvancesFromPrimaryGovernmentNoncurrentModifiedAccrual</v>
       </c>
       <c r="E229" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="F229" t="str">
         <f t="shared" si="12"/>
@@ -16307,7 +16314,7 @@
         <v>acfr:AdvancesFromStateNoncurrentModifiedAccrual</v>
       </c>
       <c r="E230" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="F230" t="str">
         <f t="shared" si="12"/>
@@ -16337,7 +16344,7 @@
         <v>acfr:AdvancesReceivedNoncurrentModifiedAccrual</v>
       </c>
       <c r="E231" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="F231" t="str">
         <f t="shared" si="12"/>
@@ -16367,7 +16374,7 @@
         <v>acfr:AdvancesSpecialAssessmentDistrictsModifiedAccrual</v>
       </c>
       <c r="E232" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="F232" t="str">
         <f t="shared" si="12"/>
@@ -16397,7 +16404,7 @@
         <v>acfr:AnnuitiesPayableModifiedAccrual</v>
       </c>
       <c r="E233" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="F233" t="str">
         <f t="shared" si="12"/>
@@ -16427,7 +16434,7 @@
         <v>acfr:BondInterestPayableModifiedAccrual</v>
       </c>
       <c r="E234" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="F234" t="str">
         <f t="shared" si="12"/>
@@ -16457,7 +16464,7 @@
         <v>acfr:BondsPayableDueInMoreThanOneYearPayableFromRestrictedAssetsModifiedAccrual</v>
       </c>
       <c r="E235" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F235" t="str">
         <f t="shared" si="12"/>
@@ -16487,7 +16494,7 @@
         <v>acfr:BondsPayableDueWithinOneYearPayableFromRestrictedAssetsModifiedAccrual</v>
       </c>
       <c r="E236" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F236" t="str">
         <f t="shared" si="12"/>
@@ -16517,7 +16524,7 @@
         <v>acfr:CashBondsPayableModifiedAccrual</v>
       </c>
       <c r="E237" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="F237" t="str">
         <f t="shared" si="12"/>
@@ -16547,7 +16554,7 @@
         <v>acfr:CashOverdraftsModifiedAccrual</v>
       </c>
       <c r="E238" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F238" t="str">
         <f t="shared" si="12"/>
@@ -16577,7 +16584,7 @@
         <v>acfr:ChecksWrittenAgainstFutureDepositsModifiedAccrual</v>
       </c>
       <c r="E239" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="F239" t="str">
         <f t="shared" si="12"/>
@@ -16607,7 +16614,7 @@
         <v>acfr:CompensatedAbsencesPayableCurrentModifiedAccrual</v>
       </c>
       <c r="E240" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="F240" t="str">
         <f t="shared" si="12"/>
@@ -16637,7 +16644,7 @@
         <v>acfr:ContractsPayableDueWithinOneYearPayableFromRestrictedAssetsModifiedAccrual</v>
       </c>
       <c r="E241" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="F241" t="str">
         <f t="shared" si="12"/>
@@ -16667,7 +16674,7 @@
         <v>acfr:CourtOrdersPayableModifiedAccrual</v>
       </c>
       <c r="E242" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="F242" t="str">
         <f t="shared" si="12"/>
@@ -16697,7 +16704,7 @@
         <v>acfr:CurrentLiabilitiesModifiedAccrual</v>
       </c>
       <c r="E243" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F243" t="str">
         <f t="shared" si="12"/>
@@ -16727,7 +16734,7 @@
         <v>acfr:CurrentLiabilitiesCustomModifiedAccrual</v>
       </c>
       <c r="E244" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="F244" t="str">
         <f t="shared" si="12"/>
@@ -16757,7 +16764,7 @@
         <v>acfr:CurrentLiabilitiesPayableFromRestrictedAssetsModifiedAccrual</v>
       </c>
       <c r="E245" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F245" t="str">
         <f t="shared" si="12"/>
@@ -16787,7 +16794,7 @@
         <v>acfr:CustomerDepositsModifiedAccrual</v>
       </c>
       <c r="E246" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F246" t="str">
         <f t="shared" si="12"/>
@@ -16817,7 +16824,7 @@
         <v>acfr:CustomerDepositsPayableFromRestrictedAssetsModifiedAccrual</v>
       </c>
       <c r="E247" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F247" t="str">
         <f t="shared" si="12"/>
@@ -16847,7 +16854,7 @@
         <v>acfr:DepositsHeldforOthersModifiedAccrual</v>
       </c>
       <c r="E248" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F248" t="str">
         <f t="shared" si="12"/>
@@ -16877,7 +16884,7 @@
         <v>acfr:DrainOrdersPayableModifiedAccrual</v>
       </c>
       <c r="E249" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F249" t="str">
         <f t="shared" si="12"/>
@@ -16907,7 +16914,7 @@
         <v>acfr:DueToCitiesModifiedAccrual</v>
       </c>
       <c r="E250" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F250" t="str">
         <f t="shared" si="12"/>
@@ -16937,7 +16944,7 @@
         <v>acfr:DueToCommunityCollegeModifiedAccrual</v>
       </c>
       <c r="E251" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F251" t="str">
         <f t="shared" si="12"/>
@@ -16967,7 +16974,7 @@
         <v>acfr:DueToComponentUnitModifiedAccrual</v>
       </c>
       <c r="E252" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F252" t="str">
         <f t="shared" si="12"/>
@@ -16997,7 +17004,7 @@
         <v>acfr:DueToCountiesModifiedAccrual</v>
       </c>
       <c r="E253" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F253" t="str">
         <f t="shared" si="12"/>
@@ -17027,7 +17034,7 @@
         <v>acfr:DueToCourtWardsModifiedAccrual</v>
       </c>
       <c r="E254" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F254" t="str">
         <f t="shared" si="12"/>
@@ -17057,7 +17064,7 @@
         <v>acfr:DueToEducationModifiedAccrual</v>
       </c>
       <c r="E255" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F255" t="str">
         <f t="shared" si="12"/>
@@ -17087,7 +17094,7 @@
         <v>acfr:DueToEmployeesModifiedAccrual</v>
       </c>
       <c r="E256" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F256" t="str">
         <f t="shared" si="12"/>
@@ -17117,7 +17124,7 @@
         <v>acfr:DueToFederalGovernmentModifiedAccrual</v>
       </c>
       <c r="E257" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F257" t="str">
         <f t="shared" si="12"/>
@@ -17147,7 +17154,7 @@
         <v>acfr:DueToFiduciaryFundsModifiedAccrual</v>
       </c>
       <c r="E258" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F258" t="str">
         <f t="shared" si="12"/>
@@ -17177,7 +17184,7 @@
         <v>acfr:DueToFiscalAgentModifiedAccrual</v>
       </c>
       <c r="E259" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F259" t="str">
         <f t="shared" ref="F259:F322" si="17">"acfr:"&amp;E259</f>
@@ -17207,7 +17214,7 @@
         <v>acfr:DueToFormerEmployeesModifiedAccrual</v>
       </c>
       <c r="E260" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F260" t="str">
         <f t="shared" si="17"/>
@@ -17237,7 +17244,7 @@
         <v>acfr:DueToGeneralFundModifiedAccrual</v>
       </c>
       <c r="E261" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F261" t="str">
         <f t="shared" si="17"/>
@@ -17267,7 +17274,7 @@
         <v>acfr:DueToIntermediateSchoolDistrictsModifiedAccrual</v>
       </c>
       <c r="E262" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="F262" t="str">
         <f t="shared" si="17"/>
@@ -17297,7 +17304,7 @@
         <v>acfr:DueToLibrariesModifiedAccrual</v>
       </c>
       <c r="E263" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F263" t="str">
         <f t="shared" si="17"/>
@@ -17327,7 +17334,7 @@
         <v>acfr:DueToOtherAgenciesPayableFromRestictedAssetsModifiedAccrual</v>
       </c>
       <c r="E264" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="F264" t="str">
         <f t="shared" si="17"/>
@@ -17357,7 +17364,7 @@
         <v>acfr:DueToOtherFundsModifiedAccrual</v>
       </c>
       <c r="E265" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="F265" t="str">
         <f t="shared" si="17"/>
@@ -17387,7 +17394,7 @@
         <v>acfr:DueToOtherGovernmentsModifiedAccrual</v>
       </c>
       <c r="E266" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F266" t="str">
         <f t="shared" si="17"/>
@@ -17417,7 +17424,7 @@
         <v>acfr:DueToOthersModifiedAccrual</v>
       </c>
       <c r="E267" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="F267" t="str">
         <f t="shared" si="17"/>
@@ -17447,7 +17454,7 @@
         <v>acfr:DueToPrimaryGovernmentModifiedAccrual</v>
       </c>
       <c r="E268" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F268" t="str">
         <f t="shared" si="17"/>
@@ -17477,7 +17484,7 @@
         <v>acfr:DueToProprietaryFundsModifiedAccrual</v>
       </c>
       <c r="E269" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="F269" t="str">
         <f t="shared" si="17"/>
@@ -17507,7 +17514,7 @@
         <v>acfr:DueToRelatedPartiesModifiedAccrual</v>
       </c>
       <c r="E270" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="F270" t="str">
         <f t="shared" si="17"/>
@@ -17537,7 +17544,7 @@
         <v>acfr:DueToRoadCommissionsModifiedAccrual</v>
       </c>
       <c r="E271" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="F271" t="str">
         <f t="shared" si="17"/>
@@ -17567,7 +17574,7 @@
         <v>acfr:DueToSchoolsModifiedAccrual</v>
       </c>
       <c r="E272" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="F272" t="str">
         <f t="shared" si="17"/>
@@ -17597,7 +17604,7 @@
         <v>acfr:DueToSpecialEducationModifiedAccrual</v>
       </c>
       <c r="E273" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="F273" t="str">
         <f t="shared" si="17"/>
@@ -17627,7 +17634,7 @@
         <v>acfr:DueToStateGovernmentModifiedAccrual</v>
       </c>
       <c r="E274" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F274" t="str">
         <f t="shared" si="17"/>
@@ -17657,7 +17664,7 @@
         <v>acfr:DueToTaxpayersTaxOverpaymentsAndDuplicatePaymentsModifiedAccrual</v>
       </c>
       <c r="E275" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F275" t="str">
         <f t="shared" si="17"/>
@@ -17687,7 +17694,7 @@
         <v>acfr:DueToTownshipsModifiedAccrual</v>
       </c>
       <c r="E276" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="F276" t="str">
         <f t="shared" si="17"/>
@@ -17717,7 +17724,7 @@
         <v>acfr:DueToVillagesModifiedAccrual</v>
       </c>
       <c r="E277" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="F277" t="str">
         <f t="shared" si="17"/>
@@ -17747,7 +17754,7 @@
         <v>acfr:Dup_1_DueToGovernmentsModifiedAccrual</v>
       </c>
       <c r="E278" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="F278" t="str">
         <f t="shared" si="17"/>
@@ -17777,7 +17784,7 @@
         <v>acfr:EscrowDepositsModifiedAccrual</v>
       </c>
       <c r="E279" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="F279" t="str">
         <f t="shared" si="17"/>
@@ -17807,7 +17814,7 @@
         <v>acfr:FamilySelfSuffciencyEscrowsModifiedAccrual</v>
       </c>
       <c r="E280" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="F280" t="str">
         <f t="shared" si="17"/>
@@ -17837,7 +17844,7 @@
         <v>acfr:GarnishmentsPayableModifiedAccrual</v>
       </c>
       <c r="E281" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F281" t="str">
         <f t="shared" si="17"/>
@@ -17867,7 +17874,7 @@
         <v>acfr:GrantsPayableModifiedAccrual</v>
       </c>
       <c r="E282" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F282" t="str">
         <f t="shared" si="17"/>
@@ -17897,7 +17904,7 @@
         <v>acfr:InternalBalancesPayableModifiedAccrual</v>
       </c>
       <c r="E283" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="F283" t="str">
         <f t="shared" si="17"/>
@@ -17927,7 +17934,7 @@
         <v>acfr:LongTermDebtDueInMoreThanOneYearPayableFromRestrictedAssetsModifiedAccrual</v>
       </c>
       <c r="E284" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="F284" t="str">
         <f t="shared" si="17"/>
@@ -17957,7 +17964,7 @@
         <v>acfr:LongTermDebtDueWithinOneYearPayableFromRestrictedAssetsModifiedAccrual</v>
       </c>
       <c r="E285" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="F285" t="str">
         <f t="shared" si="17"/>
@@ -17987,7 +17994,7 @@
         <v>acfr:LotteryPrizeLiabilityCurrentModifiedAccrual</v>
       </c>
       <c r="E286" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="F286" t="str">
         <f t="shared" si="17"/>
@@ -18017,7 +18024,7 @@
         <v>acfr:LotteryPrizesPayableModifiedAccrual</v>
       </c>
       <c r="E287" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="F287" t="str">
         <f t="shared" si="17"/>
@@ -18047,7 +18054,7 @@
         <v>acfr:NetPensionLiabilityPayableFromRestrictedAssetsModifiedAccrual</v>
       </c>
       <c r="E288" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="F288" t="str">
         <f t="shared" si="17"/>
@@ -18077,7 +18084,7 @@
         <v>acfr:NoncurrentLiabilitiesPayableFromRestrictedAssetsModifiedAccrual</v>
       </c>
       <c r="E289" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="F289" t="str">
         <f t="shared" si="17"/>
@@ -18107,7 +18114,7 @@
         <v>acfr:OtherAccountsPayableModifiedAccrual</v>
       </c>
       <c r="E290" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="F290" t="str">
         <f t="shared" si="17"/>
@@ -18137,7 +18144,7 @@
         <v>acfr:OtherAccountsPayableAndAccruedLiabilitiesModifiedAccrual</v>
       </c>
       <c r="E291" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="F291" t="str">
         <f t="shared" si="17"/>
@@ -18167,7 +18174,7 @@
         <v>acfr:OtherAccruedExpensesModifiedAccrual</v>
       </c>
       <c r="E292" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="F292" t="str">
         <f t="shared" si="17"/>
@@ -18197,7 +18204,7 @@
         <v>acfr:OtherAdvancesModifiedAccrual</v>
       </c>
       <c r="E293" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="F293" t="str">
         <f t="shared" si="17"/>
@@ -18227,7 +18234,7 @@
         <v>acfr:OtherCurrentLiabilitiesModifiedAccrual</v>
       </c>
       <c r="E294" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="F294" t="str">
         <f t="shared" si="17"/>
@@ -18257,7 +18264,7 @@
         <v>acfr:OtherCurrentLiabilitiesPayableFromRestictedAssetsModifiedAccrual</v>
       </c>
       <c r="E295" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="F295" t="str">
         <f t="shared" si="17"/>
@@ -18287,7 +18294,7 @@
         <v>acfr:OtherNoncurrentLiabilitiesPayableFromRestrictedAssetsModifiedAccrual</v>
       </c>
       <c r="E296" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="F296" t="str">
         <f t="shared" si="17"/>
@@ -18317,7 +18324,7 @@
         <v>acfr:PatientsOrInmatesTrustMoneyPayableModifiedAccrual</v>
       </c>
       <c r="E297" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F297" t="str">
         <f t="shared" si="17"/>
@@ -18347,7 +18354,7 @@
         <v>acfr:PayableFromRestrictedAssetsModifiedAccrual</v>
       </c>
       <c r="E298" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="F298" t="str">
         <f t="shared" si="17"/>
@@ -18377,7 +18384,7 @@
         <v>acfr:PayableFromRestrictedAssetsCustomModifiedAccrual</v>
       </c>
       <c r="E299" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="F299" t="str">
         <f t="shared" si="17"/>
@@ -18407,7 +18414,7 @@
         <v>acfr:PayrollDeductionsPayableModifiedAccrual</v>
       </c>
       <c r="E300" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="F300" t="str">
         <f t="shared" si="17"/>
@@ -18437,7 +18444,7 @@
         <v>acfr:PayrollTaxesPayableModifiedAccrual</v>
       </c>
       <c r="E301" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="F301" t="str">
         <f t="shared" si="17"/>
@@ -18467,7 +18474,7 @@
         <v>acfr:PenaltiesPayableModifiedAccrual</v>
       </c>
       <c r="E302" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="F302" t="str">
         <f t="shared" si="17"/>
@@ -18497,7 +18504,7 @@
         <v>acfr:PerformanceDepositsPayableModifiedAccrual</v>
       </c>
       <c r="E303" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="F303" t="str">
         <f t="shared" si="17"/>
@@ -18527,7 +18534,7 @@
         <v>acfr:ReceiptsRefundableModifiedAccrual</v>
       </c>
       <c r="E304" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="F304" t="str">
         <f t="shared" si="17"/>
@@ -18557,7 +18564,7 @@
         <v>acfr:RefundableDepositsBondsModifiedAccrual</v>
       </c>
       <c r="E305" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="F305" t="str">
         <f t="shared" si="17"/>
@@ -18587,7 +18594,7 @@
         <v>acfr:RegulatoryLiabilityCurrentModifiedAccrual</v>
       </c>
       <c r="E306" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="F306" t="str">
         <f t="shared" si="17"/>
@@ -18617,7 +18624,7 @@
         <v>acfr:RestitutionsPayableModifiedAccrual</v>
       </c>
       <c r="E307" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="F307" t="str">
         <f t="shared" si="17"/>
@@ -18647,7 +18654,7 @@
         <v>acfr:RetainagePayableModifiedAccrual</v>
       </c>
       <c r="E308" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="F308" t="str">
         <f t="shared" si="17"/>
@@ -18677,7 +18684,7 @@
         <v>acfr:RevenueBondsPayableDueWithinOneYearPayableFromRestrictedAssetsModifiedAccrual</v>
       </c>
       <c r="E309" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="F309" t="str">
         <f t="shared" si="17"/>
@@ -18707,7 +18714,7 @@
         <v>acfr:ShortTermDebtPayableModifiedAccrual</v>
       </c>
       <c r="E310" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="F310" t="str">
         <f t="shared" si="17"/>
@@ -18737,7 +18744,7 @@
         <v>acfr:TaxesPayableModifiedAccrual</v>
       </c>
       <c r="E311" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="F311" t="str">
         <f t="shared" si="17"/>
@@ -18767,7 +18774,7 @@
         <v>acfr:TenantSecurityDepositsPayableFromRestictedAssetsModifiedAccrual</v>
       </c>
       <c r="E312" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="F312" t="str">
         <f t="shared" si="17"/>
@@ -18797,7 +18804,7 @@
         <v>acfr:UnclaimedMoneyModifiedAccrual</v>
       </c>
       <c r="E313" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="F313" t="str">
         <f t="shared" si="17"/>
@@ -18827,7 +18834,7 @@
         <v>acfr:UndistributedReceiptsModifiedAccrual</v>
       </c>
       <c r="E314" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="F314" t="str">
         <f t="shared" si="17"/>
@@ -18857,7 +18864,7 @@
         <v>acfr:UndistributedTaxCollectionsModifiedAccrual</v>
       </c>
       <c r="E315" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="F315" t="str">
         <f t="shared" si="17"/>
@@ -18887,7 +18894,7 @@
         <v>acfr:UnearnedRevenueModifiedAccrual</v>
       </c>
       <c r="E316" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="F316" t="str">
         <f t="shared" si="17"/>
@@ -18917,7 +18924,7 @@
         <v>acfr:UnearnedRevenuePayableFromRestictedAssetsModifiedAccrual</v>
       </c>
       <c r="E317" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="F317" t="str">
         <f t="shared" si="17"/>
@@ -18947,7 +18954,7 @@
         <v>acfr:UnearnedTicketSalesModifiedAccrual</v>
       </c>
       <c r="E318" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="F318" t="str">
         <f t="shared" si="17"/>
@@ -18977,7 +18984,7 @@
         <v>acfr:VouchersPayableModifiedAccrual</v>
       </c>
       <c r="E319" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="F319" t="str">
         <f t="shared" si="17"/>
@@ -19007,7 +19014,7 @@
         <v>acfr:DeferredInflowsFromDeferredAmountOnRefundingModifiedAccrual</v>
       </c>
       <c r="E320" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="F320" t="str">
         <f t="shared" si="17"/>
@@ -19037,7 +19044,7 @@
         <v>acfr:DeferredInflowsFromOPEBChangesInProportionModifiedAccrual</v>
       </c>
       <c r="E321" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="F321" t="str">
         <f t="shared" si="17"/>
@@ -19067,7 +19074,7 @@
         <v>acfr:DeferredInflowsFromPensionChangesInProportionModifiedAccrual</v>
       </c>
       <c r="E322" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="F322" t="str">
         <f t="shared" si="17"/>
@@ -19097,7 +19104,7 @@
         <v>acfr:DeferredInflowsOfResourcesModifiedAccrual</v>
       </c>
       <c r="E323" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="F323" t="str">
         <f t="shared" ref="F323:F331" si="21">"acfr:"&amp;E323</f>
@@ -19127,7 +19134,7 @@
         <v>acfr:DeferredInflowsOfResourcesCustomModifiedAccrual</v>
       </c>
       <c r="E324" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F324" t="str">
         <f t="shared" si="21"/>
@@ -19157,7 +19164,7 @@
         <v>acfr:DeferredInflowsOfResourcesDebtModifiedAccrual</v>
       </c>
       <c r="E325" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F325" t="str">
         <f t="shared" si="21"/>
@@ -19187,7 +19194,7 @@
         <v>acfr:DeferredInflowsOfResourcesDrainOrdersModifiedAccrual</v>
       </c>
       <c r="E326" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="F326" t="str">
         <f t="shared" si="21"/>
@@ -19217,7 +19224,7 @@
         <v>acfr:DeferredInflowsOfResourcesLeasesModifiedAccrual</v>
       </c>
       <c r="E327" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="F327" t="str">
         <f t="shared" si="21"/>
@@ -19247,7 +19254,7 @@
         <v>acfr:DeferredInflowsOfResourcesOPEBModifiedAccrual</v>
       </c>
       <c r="E328" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="F328" t="str">
         <f t="shared" si="21"/>
@@ -19277,7 +19284,7 @@
         <v>acfr:DeferredInflowsOfResourcesOPEBChangesInAssumptionsModifiedAccrual</v>
       </c>
       <c r="E329" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="F329" t="str">
         <f t="shared" si="21"/>
@@ -19307,7 +19314,7 @@
         <v>acfr:DeferredInflowsOfResourcesOPEBContributionsMadeAfterMeasurementDateModifiedAccrual</v>
       </c>
       <c r="E330" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="F330" t="str">
         <f t="shared" si="21"/>
@@ -19337,7 +19344,7 @@
         <v>acfr:DeferredInflowsOfResourcesPensionModifiedAccrual</v>
       </c>
       <c r="E331" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="F331" t="str">
         <f t="shared" si="21"/>
@@ -36957,7 +36964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62560919-E4A0-3A4F-9164-3F35B35B852C}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>

--- a/static/input_files/ACFR_template.xlsx
+++ b/static/input_files/ACFR_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byflow/Documents/Research/process-xbrl/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A16A9F4-CED8-0C48-A512-DEBE978050A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7664A1AC-643D-D94A-9BC4-8483A931E063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="2281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="2099">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -6368,552 +6368,6 @@
   </si>
   <si>
     <t>Keep cells in col D that are marked 'Exists'</t>
-  </si>
-  <si>
-    <t>acfr:AccountsReceivableNetOfAllowanceModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:AccruedInterestReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:AccruedInterestReceivableNetOfAllowanceModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:AssetsHeldForSaleModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:CashModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:CashAndCashEquivalentsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:CashAndCashEquivalentsAndInvestmentsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:CashAndCashEquivalentsWithFiscalAndEscrowAndOtherAgentsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:CashAndCashEquivalentsWithTreasurerModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:CashAndCashEquivalentsWithTrusteeModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:CashCheckingModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:CashOnHandModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:CashPayrollBankAccountModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:CashSavingsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:CertificatesOfDepositModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:ClaimsAndJudgmentsReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:ClaimsAndJudgmentsReceivableNetOfAllowanceModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:ContractsPayableDueWithinOneYearModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:CourtOrdersReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DelinquentTaxesReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DelinquentUtilityBillsReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DepositsReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>Actual Modified Labels</t>
-  </si>
-  <si>
-    <t>Filtered col H without spaces</t>
-  </si>
-  <si>
-    <t>acfr:DepositsReceivableNetOfAllowanceModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DepositsWithFiscalAgentsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueFromCitiesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueFromComponentUnitModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueFromCountiesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueFromEmployeesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueFromEnterpriseFundsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueFromFederalGovernmentModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueFromFiduciaryFundsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueFromLibrariesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueFromOtherFundsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueFromRoadCommissionsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueFromSchoolsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueFromStateGovernmentModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueFromTownshipsExceptRoadAgreementsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueFromTownshipsRoadAgreementsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueFromVillagesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:ForfeitureCertificateRecordingFeesReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:GrantsAndContractsReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:GrantsAndContractsReceivableNetOfAllowanceModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:IncomeTaxReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:InterGovernmentalReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:InterGovernmentalReceivableNetOfAllowanceModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:InterestAndPenaltiesReceivableOnTaxesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:InventoryModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:InventoryEquipmentMaterialsAndPartsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:InventoryRoadMaterialsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:InvestmentsWithFiscalAgentsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:InvestmentsWithStateTreasuryModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:LandContractsPayableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:LandContractsReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:LandContractsReceivablesAllowanceModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:LandContractsReceivablesNetOfAllowanceModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:LeaseAssetsRightOfUseModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:LeasesReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:LeasesReceivableNetOfAllowanceModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:LoansAndNotesReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:LoansAndNotesReceivableNetOfAllowanceModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:LoansReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:LoansReceivableAllowanceModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:LoansReceivableNetOfAllowanceModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:LocalUnitShareOfAssessmentImprovementCostsReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:NotesReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:NotesReceivableAllowanceModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:NotesReceivableNetOfAllowanceModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:OtherAccountsReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:OtherReceivablesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:OtherRestrictedAssetsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:OtherTaxesReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:PaymentsInLieuOfTaxesReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:PenaltiesReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:PenaltiesReceivableNetOfAllowanceModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:PooledCashAndInvestmentsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:PrepaidDepositsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:PrepaidExpensesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:PropertyTaxesReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:PropertyTaxesReceivableNetOfAllowanceModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:ReceivablesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:RestrictedAssetsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:RestrictedCashModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:RestrictedCashAndCashEquivalentsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:RestrictedCashAndInvestmentsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:SalesTaxReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:SecuritiesLendingCollateralAssetsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:SecuritiesLendingObligationsLiabilityModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:ServiceFeesReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:SpecialAssessmentTaxesReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:SpecialAssessmentTaxesReceivableUnavailableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:SpecialAssessmentsReceivableDelinquentModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:TaxesReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:TaxesReceivableDelinquentPersonalPropertyModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:TaxesReceivableDelinquentRealPropertyModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:TaxesReceivablePersonalPropertyCurrentLevyModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:TaxesReceivableRealPropertyCurrentLevyModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:TuitionAndFeesAllowancesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:TuitionAndFeesReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:TuitionAndFeesReceivableNetOfAllowanceModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:AccountsPayableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:AccruedExpensesPayableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:AccruedInterestPayableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:AccruedLiabilitiesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:AccruedTuitionAndFeesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:AccruedVacationPayableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:AccruedWagesAndRelatedLiabilitiesPayableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:AccruedWagesPayableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:AdvancesFromFederalGovernmentNoncurrentModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:AdvancesFromGrantorsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:AdvancesFromOtherFundsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:AdvancesFromOtherGovernmentsNoncurrentModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:AdvancesFromStateNoncurrentModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:AdvancesSpecialAssessmentDistrictsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:AnnuitiesPayableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:CashBondsPayableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:CourtOrdersPayableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:CustomerDepositsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DepositsHeldforOthersModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DrainOrdersPayableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueToCitiesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueToCommunityCollegeModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueToComponentUnitModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueToCountiesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueToCourtWardsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueToEmployeesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueToFederalGovernmentModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueToFiduciaryFundsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueToFiscalAgentModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueToFormerEmployeesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueToIntermediateSchoolDistrictsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueToLibrariesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueToOtherFundsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueToOtherGovernmentsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueToOthersModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueToPrimaryGovernmentModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueToRoadCommissionsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueToSchoolsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueToSpecialEducationModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueToStateGovernmentModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueToTaxpayersTaxOverpaymentsAndDuplicatePaymentsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueToTownshipsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DueToVillagesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:GarnishmentsPayableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:GrantsPayableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:OtherAdvancesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:PatientsOrInmatesTrustMoneyPayableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:PayableFromRestrictedAssetsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:PayrollDeductionsPayableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:PenaltiesPayableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:PerformanceDepositsPayableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:ReceiptsRefundableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:RegulatoryLiabilityCurrentModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:RestitutionsPayableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:RetainagePayableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:TaxesPayableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:UnclaimedMoneyModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:UndistributedReceiptsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:UndistributedTaxCollectionsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:UnearnedRevenueModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:VouchersPayableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DeferredInflowsOfResourcesPropertyTaxesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DeferredInflowsOfResourcesTaxesLeviedForASubsequentPeriodModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:OtherDeferredInflowsOfResourcesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:DeferredOutflowsOfResourcesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:OtherDeferredOutflowsOfResourcesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:ConstructionInProgressModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:InvestmentsInJointVenturesModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:InvestmentsOfSurplusFundsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:LeasesAccumulatedAmortizationModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:LongTermContractsReceivableModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:LongTermInvestmentsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:NetOPEBAssetModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:NetPensionAssetModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:OtherAssetsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:OtherInvestmentsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:UnamortizedDiscountsOnBondsSoldByLocalUnitModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:AdvancesToComponentUnitModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:AdvancesToOtherFundsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:AdvancesToOtherGovernmentsModifiedAccrual</t>
-  </si>
-  <si>
-    <t>acfr:NetPensionLiabilityModifiedAccrual</t>
   </si>
   <si>
     <t>with acfr: added from Taxonomy spreadsheet</t>
@@ -8308,10 +7762,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE09D81-CE0E-407C-B6C2-C3432BAC9950}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K2380"/>
+  <dimension ref="A1:I2380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -8324,12 +7778,10 @@
     <col min="6" max="6" width="70" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" customWidth="1"/>
     <col min="8" max="8" width="67.6640625" style="116" customWidth="1"/>
-    <col min="9" max="9" width="67.5" customWidth="1"/>
-    <col min="10" max="10" width="70.33203125" customWidth="1"/>
-    <col min="11" max="11" width="36.83203125" customWidth="1"/>
+    <col min="9" max="9" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -8340,13 +7792,13 @@
         <v>1073</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2280</v>
+        <v>2098</v>
       </c>
       <c r="E1" s="128" t="s">
         <v>1763</v>
       </c>
       <c r="F1" s="128" t="s">
-        <v>2278</v>
+        <v>2096</v>
       </c>
       <c r="G1" s="128" t="s">
         <v>2094</v>
@@ -8355,16 +7807,10 @@
         <v>2095</v>
       </c>
       <c r="I1" s="128" t="s">
-        <v>2119</v>
-      </c>
-      <c r="J1" s="128" t="s">
-        <v>2118</v>
-      </c>
-      <c r="K1" s="128" t="s">
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -8392,15 +7838,8 @@
         <f>IF(G2="Exists", D2, "")</f>
         <v>acfr:AccountsReceivableModifiedAccrual</v>
       </c>
-      <c r="I2" t="str" cm="1">
-        <f t="array" ref="I2:I184">_xlfn._xlws.FILTER(H:H, H:H&lt;&gt;"")</f>
-        <v>Keep cells in col D that are marked 'Exists'</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -8429,14 +7868,8 @@
         <f t="shared" ref="H3:H66" si="2">IF(G3="Exists", D3, "")</f>
         <v/>
       </c>
-      <c r="I3" t="str">
-        <v>acfr:AccountsReceivableModifiedAccrual</v>
-      </c>
-      <c r="J3" t="s">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -8465,14 +7898,8 @@
         <f t="shared" si="2"/>
         <v>acfr:AccountsReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
-      <c r="I4" t="str">
-        <v>acfr:AccountsReceivableNetOfAllowanceModifiedAccrual</v>
-      </c>
-      <c r="J4" t="s">
-        <v>2097</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -8501,14 +7928,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I5" t="str">
-        <v>acfr:AccruedInterestReceivableModifiedAccrual</v>
-      </c>
-      <c r="J5" t="s">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -8537,14 +7958,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I6" t="str">
-        <v>acfr:AccruedInterestReceivableNetOfAllowanceModifiedAccrual</v>
-      </c>
-      <c r="J6" t="s">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -8573,14 +7988,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I7" t="str">
-        <v>acfr:AssetsHeldForSaleModifiedAccrual</v>
-      </c>
-      <c r="J7" t="s">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -8609,14 +8018,8 @@
         <f t="shared" si="2"/>
         <v>acfr:AccruedInterestReceivableModifiedAccrual</v>
       </c>
-      <c r="I8" t="str">
-        <v>acfr:CashModifiedAccrual</v>
-      </c>
-      <c r="J8" t="s">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -8645,14 +8048,8 @@
         <f t="shared" si="2"/>
         <v>acfr:AccruedInterestReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
-      <c r="I9" t="str">
-        <v>acfr:CashAndCashEquivalentsModifiedAccrual</v>
-      </c>
-      <c r="J9" t="s">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -8681,14 +8078,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I10" t="str">
-        <v>acfr:CashAndCashEquivalentsAndInvestmentsModifiedAccrual</v>
-      </c>
-      <c r="J10" t="s">
-        <v>2103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -8717,14 +8108,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I11" t="str">
-        <v>acfr:CashAndCashEquivalentsWithFiscalAndEscrowAndOtherAgentsModifiedAccrual</v>
-      </c>
-      <c r="J11" t="s">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -8753,14 +8138,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I12" t="str">
-        <v>acfr:CashAndCashEquivalentsWithTreasurerModifiedAccrual</v>
-      </c>
-      <c r="J12" t="s">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -8789,14 +8168,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I13" t="str">
-        <v>acfr:CashAndCashEquivalentsWithTrusteeModifiedAccrual</v>
-      </c>
-      <c r="J13" t="s">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -8825,14 +8198,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I14" t="str">
-        <v>acfr:CashCheckingModifiedAccrual</v>
-      </c>
-      <c r="J14" t="s">
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -8861,14 +8228,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I15" t="str">
-        <v>acfr:CashOnHandModifiedAccrual</v>
-      </c>
-      <c r="J15" t="s">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -8897,14 +8258,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I16" t="str">
-        <v>acfr:CashPayrollBankAccountModifiedAccrual</v>
-      </c>
-      <c r="J16" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -8933,14 +8288,8 @@
         <f t="shared" si="2"/>
         <v>acfr:AssetsHeldForSaleModifiedAccrual</v>
       </c>
-      <c r="I17" t="str">
-        <v>acfr:CashSavingsModifiedAccrual</v>
-      </c>
-      <c r="J17" t="s">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -8969,14 +8318,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I18" t="str">
-        <v>acfr:CertificatesOfDepositModifiedAccrual</v>
-      </c>
-      <c r="J18" t="s">
-        <v>2111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -9005,14 +8348,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I19" t="str">
-        <v>acfr:ClaimsAndJudgmentsReceivableModifiedAccrual</v>
-      </c>
-      <c r="J19" t="s">
-        <v>2112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -9041,14 +8378,8 @@
         <f t="shared" si="2"/>
         <v>acfr:CashModifiedAccrual</v>
       </c>
-      <c r="I20" t="str">
-        <v>acfr:ClaimsAndJudgmentsReceivableNetOfAllowanceModifiedAccrual</v>
-      </c>
-      <c r="J20" t="s">
-        <v>2113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -9077,14 +8408,8 @@
         <f t="shared" si="2"/>
         <v>acfr:CashAndCashEquivalentsModifiedAccrual</v>
       </c>
-      <c r="I21" t="str">
-        <v>acfr:ContractsPayableDueWithinOneYearModifiedAccrual</v>
-      </c>
-      <c r="J21" t="s">
-        <v>2114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -9113,14 +8438,8 @@
         <f t="shared" si="2"/>
         <v>acfr:CashAndCashEquivalentsAndInvestmentsModifiedAccrual</v>
       </c>
-      <c r="I22" t="str">
-        <v>acfr:CourtOrdersReceivableModifiedAccrual</v>
-      </c>
-      <c r="J22" t="s">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -9149,14 +8468,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I23" t="str">
-        <v>acfr:DelinquentTaxesReceivableModifiedAccrual</v>
-      </c>
-      <c r="J23" t="s">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -9185,14 +8498,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I24" t="str">
-        <v>acfr:DelinquentUtilityBillsReceivableModifiedAccrual</v>
-      </c>
-      <c r="J24" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -9221,14 +8528,8 @@
         <f t="shared" si="2"/>
         <v>acfr:CashAndCashEquivalentsWithFiscalAndEscrowAndOtherAgentsModifiedAccrual</v>
       </c>
-      <c r="I25" t="str">
-        <v>acfr:DepositsReceivableModifiedAccrual</v>
-      </c>
-      <c r="J25" t="s">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -9257,14 +8558,8 @@
         <f t="shared" si="2"/>
         <v>acfr:CashAndCashEquivalentsWithTreasurerModifiedAccrual</v>
       </c>
-      <c r="I26" t="str">
-        <v>acfr:DepositsReceivableNetOfAllowanceModifiedAccrual</v>
-      </c>
-      <c r="J26" t="s">
-        <v>2121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -9293,14 +8588,8 @@
         <f t="shared" si="2"/>
         <v>acfr:CashAndCashEquivalentsWithTrusteeModifiedAccrual</v>
       </c>
-      <c r="I27" t="str">
-        <v>acfr:DepositsWithFiscalAgentsModifiedAccrual</v>
-      </c>
-      <c r="J27" t="s">
-        <v>2122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -9329,14 +8618,8 @@
         <f t="shared" si="2"/>
         <v>acfr:CashCheckingModifiedAccrual</v>
       </c>
-      <c r="I28" t="str">
-        <v>acfr:DueFromCitiesModifiedAccrual</v>
-      </c>
-      <c r="J28" t="s">
-        <v>2123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -9365,14 +8648,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I29" t="str">
-        <v>acfr:DueFromComponentUnitModifiedAccrual</v>
-      </c>
-      <c r="J29" t="s">
-        <v>2124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -9401,14 +8678,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I30" t="str">
-        <v>acfr:DueFromCountiesModifiedAccrual</v>
-      </c>
-      <c r="J30" t="s">
-        <v>2125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -9437,14 +8708,8 @@
         <f t="shared" si="2"/>
         <v>acfr:CashOnHandModifiedAccrual</v>
       </c>
-      <c r="I31" t="str">
-        <v>acfr:DueFromEmployeesModifiedAccrual</v>
-      </c>
-      <c r="J31" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -9473,14 +8738,8 @@
         <f t="shared" si="2"/>
         <v>acfr:CashPayrollBankAccountModifiedAccrual</v>
       </c>
-      <c r="I32" t="str">
-        <v>acfr:DueFromEnterpriseFundsModifiedAccrual</v>
-      </c>
-      <c r="J32" t="s">
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -9509,14 +8768,8 @@
         <f t="shared" si="2"/>
         <v>acfr:CashSavingsModifiedAccrual</v>
       </c>
-      <c r="I33" t="str">
-        <v>acfr:DueFromFederalGovernmentModifiedAccrual</v>
-      </c>
-      <c r="J33" t="s">
-        <v>2128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -9545,14 +8798,8 @@
         <f t="shared" si="2"/>
         <v>acfr:CertificatesOfDepositModifiedAccrual</v>
       </c>
-      <c r="I34" t="str">
-        <v>acfr:DueFromFiduciaryFundsModifiedAccrual</v>
-      </c>
-      <c r="J34" t="s">
-        <v>2129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -9581,14 +8828,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I35" t="str">
-        <v>acfr:DueFromLibrariesModifiedAccrual</v>
-      </c>
-      <c r="J35" t="s">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -9617,14 +8858,8 @@
         <f t="shared" si="2"/>
         <v>acfr:ClaimsAndJudgmentsReceivableModifiedAccrual</v>
       </c>
-      <c r="I36" t="str">
-        <v>acfr:DueFromOtherFundsModifiedAccrual</v>
-      </c>
-      <c r="J36" t="s">
-        <v>2131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -9653,14 +8888,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I37" t="str">
-        <v>acfr:DueFromRoadCommissionsModifiedAccrual</v>
-      </c>
-      <c r="J37" t="s">
-        <v>2132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -9689,14 +8918,8 @@
         <f t="shared" si="2"/>
         <v>acfr:ClaimsAndJudgmentsReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
-      <c r="I38" t="str">
-        <v>acfr:DueFromSchoolsModifiedAccrual</v>
-      </c>
-      <c r="J38" t="s">
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -9725,14 +8948,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I39" t="str">
-        <v>acfr:DueFromStateGovernmentModifiedAccrual</v>
-      </c>
-      <c r="J39" t="s">
-        <v>2134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -9761,14 +8978,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I40" t="str">
-        <v>acfr:DueFromTownshipsExceptRoadAgreementsModifiedAccrual</v>
-      </c>
-      <c r="J40" t="s">
-        <v>2135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -9797,14 +9008,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I41" t="str">
-        <v>acfr:DueFromTownshipsRoadAgreementsModifiedAccrual</v>
-      </c>
-      <c r="J41" t="s">
-        <v>2136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -9833,14 +9038,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I42" t="str">
-        <v>acfr:DueFromVillagesModifiedAccrual</v>
-      </c>
-      <c r="J42" t="s">
-        <v>2137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -9869,14 +9068,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I43" t="str">
-        <v>acfr:ForfeitureCertificateRecordingFeesReceivableModifiedAccrual</v>
-      </c>
-      <c r="J43" t="s">
-        <v>2138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -9905,14 +9098,8 @@
         <f t="shared" si="2"/>
         <v>acfr:ContractsPayableDueWithinOneYearModifiedAccrual</v>
       </c>
-      <c r="I44" t="str">
-        <v>acfr:GrantsAndContractsReceivableModifiedAccrual</v>
-      </c>
-      <c r="J44" t="s">
-        <v>2139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -9941,14 +9128,8 @@
         <f t="shared" si="2"/>
         <v>acfr:CourtOrdersReceivableModifiedAccrual</v>
       </c>
-      <c r="I45" t="str">
-        <v>acfr:GrantsAndContractsReceivableNetOfAllowanceModifiedAccrual</v>
-      </c>
-      <c r="J45" t="s">
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -9977,14 +9158,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I46" t="str">
-        <v>acfr:IncomeTaxReceivableModifiedAccrual</v>
-      </c>
-      <c r="J46" t="s">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -10013,14 +9188,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I47" t="str">
-        <v>acfr:InterGovernmentalReceivableModifiedAccrual</v>
-      </c>
-      <c r="J47" t="s">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -10049,14 +9218,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I48" t="str">
-        <v>acfr:InterGovernmentalReceivableNetOfAllowanceModifiedAccrual</v>
-      </c>
-      <c r="J48" t="s">
-        <v>2143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -10085,14 +9248,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I49" t="str">
-        <v>acfr:InterestAndPenaltiesReceivableOnTaxesModifiedAccrual</v>
-      </c>
-      <c r="J49" t="s">
-        <v>2144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -10121,14 +9278,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I50" t="str">
-        <v>acfr:InventoryModifiedAccrual</v>
-      </c>
-      <c r="J50" t="s">
-        <v>2145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -10157,14 +9308,8 @@
         <f t="shared" si="2"/>
         <v>acfr:DelinquentTaxesReceivableModifiedAccrual</v>
       </c>
-      <c r="I51" t="str">
-        <v>acfr:InventoryEquipmentMaterialsAndPartsModifiedAccrual</v>
-      </c>
-      <c r="J51" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -10193,14 +9338,8 @@
         <f t="shared" si="2"/>
         <v>acfr:DelinquentUtilityBillsReceivableModifiedAccrual</v>
       </c>
-      <c r="I52" t="str">
-        <v>acfr:InventoryRoadMaterialsModifiedAccrual</v>
-      </c>
-      <c r="J52" t="s">
-        <v>2147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -10229,14 +9368,8 @@
         <f t="shared" si="2"/>
         <v>acfr:DepositsReceivableModifiedAccrual</v>
       </c>
-      <c r="I53" t="str">
-        <v>acfr:InvestmentsWithFiscalAgentsModifiedAccrual</v>
-      </c>
-      <c r="J53" t="s">
-        <v>2148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -10265,14 +9398,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I54" t="str">
-        <v>acfr:InvestmentsWithStateTreasuryModifiedAccrual</v>
-      </c>
-      <c r="J54" t="s">
-        <v>2149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -10301,14 +9428,8 @@
         <f t="shared" si="2"/>
         <v>acfr:DepositsReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
-      <c r="I55" t="str">
-        <v>acfr:LandContractsPayableModifiedAccrual</v>
-      </c>
-      <c r="J55" t="s">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -10337,14 +9458,8 @@
         <f t="shared" si="2"/>
         <v>acfr:DepositsWithFiscalAgentsModifiedAccrual</v>
       </c>
-      <c r="I56" t="str">
-        <v>acfr:LandContractsReceivableModifiedAccrual</v>
-      </c>
-      <c r="J56" t="s">
-        <v>2151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -10373,14 +9488,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I57" t="str">
-        <v>acfr:LandContractsReceivablesAllowanceModifiedAccrual</v>
-      </c>
-      <c r="J57" t="s">
-        <v>2152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -10409,14 +9518,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I58" t="str">
-        <v>acfr:LandContractsReceivablesNetOfAllowanceModifiedAccrual</v>
-      </c>
-      <c r="J58" t="s">
-        <v>2153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -10445,14 +9548,8 @@
         <f t="shared" si="2"/>
         <v>acfr:DueFromCitiesModifiedAccrual</v>
       </c>
-      <c r="I59" t="str">
-        <v>acfr:LeaseAssetsRightOfUseModifiedAccrual</v>
-      </c>
-      <c r="J59" t="s">
-        <v>2154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -10481,14 +9578,8 @@
         <f t="shared" si="2"/>
         <v>acfr:DueFromComponentUnitModifiedAccrual</v>
       </c>
-      <c r="I60" t="str">
-        <v>acfr:LeasesReceivableModifiedAccrual</v>
-      </c>
-      <c r="J60" t="s">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -10517,14 +9608,8 @@
         <f t="shared" si="2"/>
         <v>acfr:DueFromCountiesModifiedAccrual</v>
       </c>
-      <c r="I61" t="str">
-        <v>acfr:LeasesReceivableNetOfAllowanceModifiedAccrual</v>
-      </c>
-      <c r="J61" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -10553,14 +9638,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I62" t="str">
-        <v>acfr:LoansAndNotesReceivableModifiedAccrual</v>
-      </c>
-      <c r="J62" t="s">
-        <v>2157</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -10589,14 +9668,8 @@
         <f t="shared" si="2"/>
         <v>acfr:DueFromEmployeesModifiedAccrual</v>
       </c>
-      <c r="I63" t="str">
-        <v>acfr:LoansAndNotesReceivableNetOfAllowanceModifiedAccrual</v>
-      </c>
-      <c r="J63" t="s">
-        <v>2158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -10625,14 +9698,8 @@
         <f t="shared" si="2"/>
         <v>acfr:DueFromEnterpriseFundsModifiedAccrual</v>
       </c>
-      <c r="I64" t="str">
-        <v>acfr:LoansReceivableModifiedAccrual</v>
-      </c>
-      <c r="J64" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -10661,14 +9728,8 @@
         <f t="shared" si="2"/>
         <v>acfr:DueFromFederalGovernmentModifiedAccrual</v>
       </c>
-      <c r="I65" t="str">
-        <v>acfr:LoansReceivableAllowanceModifiedAccrual</v>
-      </c>
-      <c r="J65" t="s">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -10697,14 +9758,8 @@
         <f t="shared" si="2"/>
         <v>acfr:DueFromFiduciaryFundsModifiedAccrual</v>
       </c>
-      <c r="I66" t="str">
-        <v>acfr:LoansReceivableNetOfAllowanceModifiedAccrual</v>
-      </c>
-      <c r="J66" t="s">
-        <v>2161</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -10733,14 +9788,8 @@
         <f t="shared" ref="H67:H130" si="6">IF(G67="Exists", D67, "")</f>
         <v/>
       </c>
-      <c r="I67" t="str">
-        <v>acfr:LocalUnitShareOfAssessmentImprovementCostsReceivableModifiedAccrual</v>
-      </c>
-      <c r="J67" t="s">
-        <v>2162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>60</v>
       </c>
@@ -10769,14 +9818,8 @@
         <f t="shared" si="6"/>
         <v>acfr:DueFromLibrariesModifiedAccrual</v>
       </c>
-      <c r="I68" t="str">
-        <v>acfr:NotesReceivableModifiedAccrual</v>
-      </c>
-      <c r="J68" t="s">
-        <v>2163</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>60</v>
       </c>
@@ -10805,14 +9848,8 @@
         <f t="shared" si="6"/>
         <v>acfr:DueFromOtherFundsModifiedAccrual</v>
       </c>
-      <c r="I69" t="str">
-        <v>acfr:NotesReceivableAllowanceModifiedAccrual</v>
-      </c>
-      <c r="J69" t="s">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -10841,14 +9878,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I70" t="str">
-        <v>acfr:NotesReceivableNetOfAllowanceModifiedAccrual</v>
-      </c>
-      <c r="J70" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -10877,14 +9908,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I71" t="str">
-        <v>acfr:OtherAccountsReceivableModifiedAccrual</v>
-      </c>
-      <c r="J71" t="s">
-        <v>2166</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>60</v>
       </c>
@@ -10913,14 +9938,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I72" t="str">
-        <v>acfr:OtherReceivablesModifiedAccrual</v>
-      </c>
-      <c r="J72" t="s">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>60</v>
       </c>
@@ -10949,14 +9968,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I73" t="str">
-        <v>acfr:OtherRestrictedAssetsModifiedAccrual</v>
-      </c>
-      <c r="J73" t="s">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -10985,14 +9998,8 @@
         <f t="shared" si="6"/>
         <v>acfr:DueFromRoadCommissionsModifiedAccrual</v>
       </c>
-      <c r="I74" t="str">
-        <v>acfr:OtherTaxesReceivableModifiedAccrual</v>
-      </c>
-      <c r="J74" t="s">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>60</v>
       </c>
@@ -11021,14 +10028,8 @@
         <f t="shared" si="6"/>
         <v>acfr:DueFromSchoolsModifiedAccrual</v>
       </c>
-      <c r="I75" t="str">
-        <v>acfr:PaymentsInLieuOfTaxesReceivableModifiedAccrual</v>
-      </c>
-      <c r="J75" t="s">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -11057,14 +10058,8 @@
         <f t="shared" si="6"/>
         <v>acfr:DueFromStateGovernmentModifiedAccrual</v>
       </c>
-      <c r="I76" t="str">
-        <v>acfr:PenaltiesReceivableModifiedAccrual</v>
-      </c>
-      <c r="J76" t="s">
-        <v>2171</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>60</v>
       </c>
@@ -11093,14 +10088,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I77" t="str">
-        <v>acfr:PenaltiesReceivableNetOfAllowanceModifiedAccrual</v>
-      </c>
-      <c r="J77" t="s">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>60</v>
       </c>
@@ -11129,14 +10118,8 @@
         <f t="shared" si="6"/>
         <v>acfr:DueFromTownshipsExceptRoadAgreementsModifiedAccrual</v>
       </c>
-      <c r="I78" t="str">
-        <v>acfr:PooledCashAndInvestmentsModifiedAccrual</v>
-      </c>
-      <c r="J78" t="s">
-        <v>2173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>60</v>
       </c>
@@ -11165,14 +10148,8 @@
         <f t="shared" si="6"/>
         <v>acfr:DueFromTownshipsRoadAgreementsModifiedAccrual</v>
       </c>
-      <c r="I79" t="str">
-        <v>acfr:PrepaidDepositsModifiedAccrual</v>
-      </c>
-      <c r="J79" t="s">
-        <v>2174</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>60</v>
       </c>
@@ -11201,14 +10178,8 @@
         <f t="shared" si="6"/>
         <v>acfr:DueFromVillagesModifiedAccrual</v>
       </c>
-      <c r="I80" t="str">
-        <v>acfr:PrepaidExpensesModifiedAccrual</v>
-      </c>
-      <c r="J80" t="s">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>60</v>
       </c>
@@ -11237,14 +10208,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I81" t="str">
-        <v>acfr:PropertyTaxesReceivableModifiedAccrual</v>
-      </c>
-      <c r="J81" t="s">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>60</v>
       </c>
@@ -11273,14 +10238,8 @@
         <f t="shared" si="6"/>
         <v>acfr:ForfeitureCertificateRecordingFeesReceivableModifiedAccrual</v>
       </c>
-      <c r="I82" t="str">
-        <v>acfr:PropertyTaxesReceivableNetOfAllowanceModifiedAccrual</v>
-      </c>
-      <c r="J82" t="s">
-        <v>2177</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>60</v>
       </c>
@@ -11309,14 +10268,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I83" t="str">
-        <v>acfr:ReceivablesModifiedAccrual</v>
-      </c>
-      <c r="J83" t="s">
-        <v>2178</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -11345,14 +10298,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I84" t="str">
-        <v>acfr:RestrictedAssetsModifiedAccrual</v>
-      </c>
-      <c r="J84" t="s">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>60</v>
       </c>
@@ -11381,14 +10328,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I85" t="str">
-        <v>acfr:RestrictedCashModifiedAccrual</v>
-      </c>
-      <c r="J85" t="s">
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>60</v>
       </c>
@@ -11417,14 +10358,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I86" t="str">
-        <v>acfr:RestrictedCashAndCashEquivalentsModifiedAccrual</v>
-      </c>
-      <c r="J86" t="s">
-        <v>2181</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -11453,14 +10388,8 @@
         <f t="shared" si="6"/>
         <v>acfr:GrantsAndContractsReceivableModifiedAccrual</v>
       </c>
-      <c r="I87" t="str">
-        <v>acfr:RestrictedCashAndInvestmentsModifiedAccrual</v>
-      </c>
-      <c r="J87" t="s">
-        <v>2182</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>60</v>
       </c>
@@ -11489,14 +10418,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I88" t="str">
-        <v>acfr:SalesTaxReceivableModifiedAccrual</v>
-      </c>
-      <c r="J88" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -11525,14 +10448,8 @@
         <f t="shared" si="6"/>
         <v>acfr:GrantsAndContractsReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
-      <c r="I89" t="str">
-        <v>acfr:SecuritiesLendingCollateralAssetsModifiedAccrual</v>
-      </c>
-      <c r="J89" t="s">
-        <v>2184</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>60</v>
       </c>
@@ -11561,14 +10478,8 @@
         <f t="shared" si="6"/>
         <v>acfr:IncomeTaxReceivableModifiedAccrual</v>
       </c>
-      <c r="I90" t="str">
-        <v>acfr:SecuritiesLendingObligationsLiabilityModifiedAccrual</v>
-      </c>
-      <c r="J90" t="s">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>60</v>
       </c>
@@ -11597,14 +10508,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I91" t="str">
-        <v>acfr:ServiceFeesReceivableModifiedAccrual</v>
-      </c>
-      <c r="J91" t="s">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>60</v>
       </c>
@@ -11633,14 +10538,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I92" t="str">
-        <v>acfr:SpecialAssessmentTaxesReceivableModifiedAccrual</v>
-      </c>
-      <c r="J92" t="s">
-        <v>2187</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>60</v>
       </c>
@@ -11669,14 +10568,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I93" t="str">
-        <v>acfr:SpecialAssessmentTaxesReceivableUnavailableModifiedAccrual</v>
-      </c>
-      <c r="J93" t="s">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>60</v>
       </c>
@@ -11705,14 +10598,8 @@
         <f t="shared" si="6"/>
         <v>acfr:InterGovernmentalReceivableModifiedAccrual</v>
       </c>
-      <c r="I94" t="str">
-        <v>acfr:SpecialAssessmentsReceivableDelinquentModifiedAccrual</v>
-      </c>
-      <c r="J94" t="s">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>60</v>
       </c>
@@ -11741,14 +10628,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I95" t="str">
-        <v>acfr:TaxesReceivableModifiedAccrual</v>
-      </c>
-      <c r="J95" t="s">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>60</v>
       </c>
@@ -11777,14 +10658,8 @@
         <f t="shared" si="6"/>
         <v>acfr:InterGovernmentalReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
-      <c r="I96" t="str">
-        <v>acfr:TaxesReceivableDelinquentPersonalPropertyModifiedAccrual</v>
-      </c>
-      <c r="J96" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>60</v>
       </c>
@@ -11813,14 +10688,8 @@
         <f t="shared" si="6"/>
         <v>acfr:InterestAndPenaltiesReceivableOnTaxesModifiedAccrual</v>
       </c>
-      <c r="I97" t="str">
-        <v>acfr:TaxesReceivableDelinquentRealPropertyModifiedAccrual</v>
-      </c>
-      <c r="J97" t="s">
-        <v>2192</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>60</v>
       </c>
@@ -11849,14 +10718,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I98" t="str">
-        <v>acfr:TaxesReceivablePersonalPropertyCurrentLevyModifiedAccrual</v>
-      </c>
-      <c r="J98" t="s">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>60</v>
       </c>
@@ -11885,14 +10748,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I99" t="str">
-        <v>acfr:TaxesReceivableRealPropertyCurrentLevyModifiedAccrual</v>
-      </c>
-      <c r="J99" t="s">
-        <v>2194</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>60</v>
       </c>
@@ -11921,14 +10778,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I100" t="str">
-        <v>acfr:TuitionAndFeesAllowancesModifiedAccrual</v>
-      </c>
-      <c r="J100" t="s">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>60</v>
       </c>
@@ -11957,14 +10808,8 @@
         <f t="shared" si="6"/>
         <v>acfr:InventoryModifiedAccrual</v>
       </c>
-      <c r="I101" t="str">
-        <v>acfr:TuitionAndFeesReceivableModifiedAccrual</v>
-      </c>
-      <c r="J101" t="s">
-        <v>2196</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>60</v>
       </c>
@@ -11993,14 +10838,8 @@
         <f t="shared" si="6"/>
         <v>acfr:InventoryEquipmentMaterialsAndPartsModifiedAccrual</v>
       </c>
-      <c r="I102" t="str">
-        <v>acfr:TuitionAndFeesReceivableNetOfAllowanceModifiedAccrual</v>
-      </c>
-      <c r="J102" t="s">
-        <v>2197</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>60</v>
       </c>
@@ -12029,14 +10868,8 @@
         <f t="shared" si="6"/>
         <v>acfr:InventoryRoadMaterialsModifiedAccrual</v>
       </c>
-      <c r="I103" t="str">
-        <v>acfr:AccountsPayableModifiedAccrual</v>
-      </c>
-      <c r="J103" t="s">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>60</v>
       </c>
@@ -12065,14 +10898,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I104" t="str">
-        <v>acfr:AccruedExpensesPayableModifiedAccrual</v>
-      </c>
-      <c r="J104" t="s">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>60</v>
       </c>
@@ -12101,14 +10928,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I105" t="str">
-        <v>acfr:AccruedInterestPayableModifiedAccrual</v>
-      </c>
-      <c r="J105" t="s">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10">
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>60</v>
       </c>
@@ -12137,14 +10958,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I106" t="str">
-        <v>acfr:AccruedLiabilitiesModifiedAccrual</v>
-      </c>
-      <c r="J106" t="s">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>60</v>
       </c>
@@ -12173,14 +10988,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I107" t="str">
-        <v>acfr:AccruedTuitionAndFeesModifiedAccrual</v>
-      </c>
-      <c r="J107" t="s">
-        <v>2202</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>60</v>
       </c>
@@ -12209,14 +11018,8 @@
         <f t="shared" si="6"/>
         <v>acfr:InvestmentsWithFiscalAgentsModifiedAccrual</v>
       </c>
-      <c r="I108" t="str">
-        <v>acfr:AccruedVacationPayableModifiedAccrual</v>
-      </c>
-      <c r="J108" t="s">
-        <v>2203</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>60</v>
       </c>
@@ -12245,14 +11048,8 @@
         <f t="shared" si="6"/>
         <v>acfr:InvestmentsWithStateTreasuryModifiedAccrual</v>
       </c>
-      <c r="I109" t="str">
-        <v>acfr:AccruedWagesAndRelatedLiabilitiesPayableModifiedAccrual</v>
-      </c>
-      <c r="J109" t="s">
-        <v>2204</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>60</v>
       </c>
@@ -12281,14 +11078,8 @@
         <f t="shared" si="6"/>
         <v>acfr:LandContractsPayableModifiedAccrual</v>
       </c>
-      <c r="I110" t="str">
-        <v>acfr:AccruedWagesPayableModifiedAccrual</v>
-      </c>
-      <c r="J110" t="s">
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>60</v>
       </c>
@@ -12317,14 +11108,8 @@
         <f t="shared" si="6"/>
         <v>acfr:LandContractsReceivableModifiedAccrual</v>
       </c>
-      <c r="I111" t="str">
-        <v>acfr:AdvancesFromFederalGovernmentNoncurrentModifiedAccrual</v>
-      </c>
-      <c r="J111" t="s">
-        <v>2206</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>60</v>
       </c>
@@ -12353,14 +11138,8 @@
         <f t="shared" si="6"/>
         <v>acfr:LandContractsReceivablesAllowanceModifiedAccrual</v>
       </c>
-      <c r="I112" t="str">
-        <v>acfr:AdvancesFromGrantorsModifiedAccrual</v>
-      </c>
-      <c r="J112" t="s">
-        <v>2207</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>60</v>
       </c>
@@ -12389,14 +11168,8 @@
         <f t="shared" si="6"/>
         <v>acfr:LandContractsReceivablesNetOfAllowanceModifiedAccrual</v>
       </c>
-      <c r="I113" t="str">
-        <v>acfr:AdvancesFromOtherFundsModifiedAccrual</v>
-      </c>
-      <c r="J113" t="s">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>60</v>
       </c>
@@ -12425,14 +11198,8 @@
         <f t="shared" si="6"/>
         <v>acfr:LeaseAssetsRightOfUseModifiedAccrual</v>
       </c>
-      <c r="I114" t="str">
-        <v>acfr:AdvancesFromOtherGovernmentsNoncurrentModifiedAccrual</v>
-      </c>
-      <c r="J114" t="s">
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>60</v>
       </c>
@@ -12461,14 +11228,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I115" t="str">
-        <v>acfr:AdvancesFromStateNoncurrentModifiedAccrual</v>
-      </c>
-      <c r="J115" t="s">
-        <v>2210</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>60</v>
       </c>
@@ -12497,14 +11258,8 @@
         <f t="shared" si="6"/>
         <v>acfr:LeasesReceivableModifiedAccrual</v>
       </c>
-      <c r="I116" t="str">
-        <v>acfr:AdvancesSpecialAssessmentDistrictsModifiedAccrual</v>
-      </c>
-      <c r="J116" t="s">
-        <v>2211</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -12533,14 +11288,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I117" t="str">
-        <v>acfr:AnnuitiesPayableModifiedAccrual</v>
-      </c>
-      <c r="J117" t="s">
-        <v>2212</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>60</v>
       </c>
@@ -12569,14 +11318,8 @@
         <f t="shared" si="6"/>
         <v>acfr:LeasesReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
-      <c r="I118" t="str">
-        <v>acfr:CashBondsPayableModifiedAccrual</v>
-      </c>
-      <c r="J118" t="s">
-        <v>2213</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>60</v>
       </c>
@@ -12605,14 +11348,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I119" t="str">
-        <v>acfr:CourtOrdersPayableModifiedAccrual</v>
-      </c>
-      <c r="J119" t="s">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>60</v>
       </c>
@@ -12641,14 +11378,8 @@
         <f t="shared" si="6"/>
         <v>acfr:LoansAndNotesReceivableModifiedAccrual</v>
       </c>
-      <c r="I120" t="str">
-        <v>acfr:CustomerDepositsModifiedAccrual</v>
-      </c>
-      <c r="J120" t="s">
-        <v>2215</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>60</v>
       </c>
@@ -12677,14 +11408,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I121" t="str">
-        <v>acfr:DepositsHeldforOthersModifiedAccrual</v>
-      </c>
-      <c r="J121" t="s">
-        <v>2216</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>60</v>
       </c>
@@ -12713,14 +11438,8 @@
         <f t="shared" si="6"/>
         <v>acfr:LoansAndNotesReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
-      <c r="I122" t="str">
-        <v>acfr:DrainOrdersPayableModifiedAccrual</v>
-      </c>
-      <c r="J122" t="s">
-        <v>2217</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>60</v>
       </c>
@@ -12749,14 +11468,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I123" t="str">
-        <v>acfr:DueToCitiesModifiedAccrual</v>
-      </c>
-      <c r="J123" t="s">
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>60</v>
       </c>
@@ -12785,14 +11498,8 @@
         <f t="shared" si="6"/>
         <v>acfr:LoansReceivableModifiedAccrual</v>
       </c>
-      <c r="I124" t="str">
-        <v>acfr:DueToCommunityCollegeModifiedAccrual</v>
-      </c>
-      <c r="J124" t="s">
-        <v>2219</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>60</v>
       </c>
@@ -12821,14 +11528,8 @@
         <f t="shared" si="6"/>
         <v>acfr:LoansReceivableAllowanceModifiedAccrual</v>
       </c>
-      <c r="I125" t="str">
-        <v>acfr:DueToComponentUnitModifiedAccrual</v>
-      </c>
-      <c r="J125" t="s">
-        <v>2220</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>60</v>
       </c>
@@ -12857,14 +11558,8 @@
         <f t="shared" si="6"/>
         <v>acfr:LoansReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
-      <c r="I126" t="str">
-        <v>acfr:DueToCountiesModifiedAccrual</v>
-      </c>
-      <c r="J126" t="s">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>60</v>
       </c>
@@ -12893,14 +11588,8 @@
         <f t="shared" si="6"/>
         <v>acfr:LocalUnitShareOfAssessmentImprovementCostsReceivableModifiedAccrual</v>
       </c>
-      <c r="I127" t="str">
-        <v>acfr:DueToCourtWardsModifiedAccrual</v>
-      </c>
-      <c r="J127" t="s">
-        <v>2222</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>60</v>
       </c>
@@ -12929,14 +11618,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I128" t="str">
-        <v>acfr:DueToEmployeesModifiedAccrual</v>
-      </c>
-      <c r="J128" t="s">
-        <v>2223</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10">
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>60</v>
       </c>
@@ -12965,14 +11648,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I129" t="str">
-        <v>acfr:DueToFederalGovernmentModifiedAccrual</v>
-      </c>
-      <c r="J129" t="s">
-        <v>2224</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>60</v>
       </c>
@@ -13001,14 +11678,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I130" t="str">
-        <v>acfr:DueToFiduciaryFundsModifiedAccrual</v>
-      </c>
-      <c r="J130" t="s">
-        <v>2225</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10">
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>60</v>
       </c>
@@ -13037,14 +11708,8 @@
         <f t="shared" ref="H131:H194" si="10">IF(G131="Exists", D131, "")</f>
         <v>acfr:NotesReceivableModifiedAccrual</v>
       </c>
-      <c r="I131" t="str">
-        <v>acfr:DueToFiscalAgentModifiedAccrual</v>
-      </c>
-      <c r="J131" t="s">
-        <v>2226</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>60</v>
       </c>
@@ -13073,14 +11738,8 @@
         <f t="shared" si="10"/>
         <v>acfr:NotesReceivableAllowanceModifiedAccrual</v>
       </c>
-      <c r="I132" t="str">
-        <v>acfr:DueToFormerEmployeesModifiedAccrual</v>
-      </c>
-      <c r="J132" t="s">
-        <v>2227</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>60</v>
       </c>
@@ -13109,14 +11768,8 @@
         <f t="shared" si="10"/>
         <v>acfr:NotesReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
-      <c r="I133" t="str">
-        <v>acfr:DueToIntermediateSchoolDistrictsModifiedAccrual</v>
-      </c>
-      <c r="J133" t="s">
-        <v>2228</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10">
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>60</v>
       </c>
@@ -13145,14 +11798,8 @@
         <f t="shared" si="10"/>
         <v>acfr:OtherAccountsReceivableModifiedAccrual</v>
       </c>
-      <c r="I134" t="str">
-        <v>acfr:DueToLibrariesModifiedAccrual</v>
-      </c>
-      <c r="J134" t="s">
-        <v>2229</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>60</v>
       </c>
@@ -13181,14 +11828,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I135" t="str">
-        <v>acfr:DueToOtherFundsModifiedAccrual</v>
-      </c>
-      <c r="J135" t="s">
-        <v>2230</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>60</v>
       </c>
@@ -13217,14 +11858,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I136" t="str">
-        <v>acfr:DueToOtherGovernmentsModifiedAccrual</v>
-      </c>
-      <c r="J136" t="s">
-        <v>2231</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10">
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>60</v>
       </c>
@@ -13253,14 +11888,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I137" t="str">
-        <v>acfr:DueToOthersModifiedAccrual</v>
-      </c>
-      <c r="J137" t="s">
-        <v>2232</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10">
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>60</v>
       </c>
@@ -13289,14 +11918,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I138" t="str">
-        <v>acfr:DueToPrimaryGovernmentModifiedAccrual</v>
-      </c>
-      <c r="J138" t="s">
-        <v>2233</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10">
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>60</v>
       </c>
@@ -13325,14 +11948,8 @@
         <f t="shared" si="10"/>
         <v>acfr:OtherReceivablesModifiedAccrual</v>
       </c>
-      <c r="I139" t="str">
-        <v>acfr:DueToRoadCommissionsModifiedAccrual</v>
-      </c>
-      <c r="J139" t="s">
-        <v>2234</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10">
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>60</v>
       </c>
@@ -13361,14 +11978,8 @@
         <f t="shared" si="10"/>
         <v>acfr:OtherRestrictedAssetsModifiedAccrual</v>
       </c>
-      <c r="I140" t="str">
-        <v>acfr:DueToSchoolsModifiedAccrual</v>
-      </c>
-      <c r="J140" t="s">
-        <v>2235</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10">
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>60</v>
       </c>
@@ -13397,14 +12008,8 @@
         <f t="shared" si="10"/>
         <v>acfr:OtherTaxesReceivableModifiedAccrual</v>
       </c>
-      <c r="I141" t="str">
-        <v>acfr:DueToSpecialEducationModifiedAccrual</v>
-      </c>
-      <c r="J141" t="s">
-        <v>2236</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10">
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>60</v>
       </c>
@@ -13433,14 +12038,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I142" t="str">
-        <v>acfr:DueToStateGovernmentModifiedAccrual</v>
-      </c>
-      <c r="J142" t="s">
-        <v>2237</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10">
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>60</v>
       </c>
@@ -13469,14 +12068,8 @@
         <f t="shared" si="10"/>
         <v>acfr:PaymentsInLieuOfTaxesReceivableModifiedAccrual</v>
       </c>
-      <c r="I143" t="str">
-        <v>acfr:DueToTaxpayersTaxOverpaymentsAndDuplicatePaymentsModifiedAccrual</v>
-      </c>
-      <c r="J143" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10">
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>60</v>
       </c>
@@ -13505,14 +12098,8 @@
         <f t="shared" si="10"/>
         <v>acfr:PenaltiesReceivableModifiedAccrual</v>
       </c>
-      <c r="I144" t="str">
-        <v>acfr:DueToTownshipsModifiedAccrual</v>
-      </c>
-      <c r="J144" t="s">
-        <v>2239</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10">
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>60</v>
       </c>
@@ -13541,14 +12128,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I145" t="str">
-        <v>acfr:DueToVillagesModifiedAccrual</v>
-      </c>
-      <c r="J145" t="s">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10">
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>60</v>
       </c>
@@ -13577,14 +12158,8 @@
         <f t="shared" si="10"/>
         <v>acfr:PenaltiesReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
-      <c r="I146" t="str">
-        <v>acfr:GarnishmentsPayableModifiedAccrual</v>
-      </c>
-      <c r="J146" t="s">
-        <v>2241</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10">
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>60</v>
       </c>
@@ -13613,14 +12188,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I147" t="str">
-        <v>acfr:GrantsPayableModifiedAccrual</v>
-      </c>
-      <c r="J147" t="s">
-        <v>2242</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10">
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>60</v>
       </c>
@@ -13649,14 +12218,8 @@
         <f t="shared" si="10"/>
         <v>acfr:PooledCashAndInvestmentsModifiedAccrual</v>
       </c>
-      <c r="I148" t="str">
-        <v>acfr:OtherAdvancesModifiedAccrual</v>
-      </c>
-      <c r="J148" t="s">
-        <v>2243</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10">
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>60</v>
       </c>
@@ -13685,14 +12248,8 @@
         <f t="shared" si="10"/>
         <v>acfr:PrepaidDepositsModifiedAccrual</v>
       </c>
-      <c r="I149" t="str">
-        <v>acfr:PatientsOrInmatesTrustMoneyPayableModifiedAccrual</v>
-      </c>
-      <c r="J149" t="s">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10">
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>60</v>
       </c>
@@ -13721,14 +12278,8 @@
         <f t="shared" si="10"/>
         <v>acfr:PrepaidExpensesModifiedAccrual</v>
       </c>
-      <c r="I150" t="str">
-        <v>acfr:PayableFromRestrictedAssetsModifiedAccrual</v>
-      </c>
-      <c r="J150" t="s">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>60</v>
       </c>
@@ -13757,14 +12308,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I151" t="str">
-        <v>acfr:PayrollDeductionsPayableModifiedAccrual</v>
-      </c>
-      <c r="J151" t="s">
-        <v>2246</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10">
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>60</v>
       </c>
@@ -13793,14 +12338,8 @@
         <f t="shared" si="10"/>
         <v>acfr:PropertyTaxesReceivableModifiedAccrual</v>
       </c>
-      <c r="I152" t="str">
-        <v>acfr:PenaltiesPayableModifiedAccrual</v>
-      </c>
-      <c r="J152" t="s">
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10">
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>60</v>
       </c>
@@ -13829,14 +12368,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I153" t="str">
-        <v>acfr:PerformanceDepositsPayableModifiedAccrual</v>
-      </c>
-      <c r="J153" t="s">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10">
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>60</v>
       </c>
@@ -13865,14 +12398,8 @@
         <f t="shared" si="10"/>
         <v>acfr:PropertyTaxesReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
-      <c r="I154" t="str">
-        <v>acfr:ReceiptsRefundableModifiedAccrual</v>
-      </c>
-      <c r="J154" t="s">
-        <v>2249</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10">
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>60</v>
       </c>
@@ -13901,14 +12428,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I155" t="str">
-        <v>acfr:RegulatoryLiabilityCurrentModifiedAccrual</v>
-      </c>
-      <c r="J155" t="s">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10">
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>60</v>
       </c>
@@ -13937,14 +12458,8 @@
         <f t="shared" si="10"/>
         <v>acfr:ReceivablesModifiedAccrual</v>
       </c>
-      <c r="I156" t="str">
-        <v>acfr:RestitutionsPayableModifiedAccrual</v>
-      </c>
-      <c r="J156" t="s">
-        <v>2251</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10">
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>60</v>
       </c>
@@ -13973,14 +12488,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I157" t="str">
-        <v>acfr:RetainagePayableModifiedAccrual</v>
-      </c>
-      <c r="J157" t="s">
-        <v>2252</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>60</v>
       </c>
@@ -14009,14 +12518,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I158" t="str">
-        <v>acfr:TaxesPayableModifiedAccrual</v>
-      </c>
-      <c r="J158" t="s">
-        <v>2253</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10">
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>60</v>
       </c>
@@ -14045,14 +12548,8 @@
         <f t="shared" si="10"/>
         <v>acfr:RestrictedAssetsModifiedAccrual</v>
       </c>
-      <c r="I159" t="str">
-        <v>acfr:UnclaimedMoneyModifiedAccrual</v>
-      </c>
-      <c r="J159" t="s">
-        <v>2254</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10">
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>60</v>
       </c>
@@ -14081,14 +12578,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I160" t="str">
-        <v>acfr:UndistributedReceiptsModifiedAccrual</v>
-      </c>
-      <c r="J160" t="s">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10">
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>60</v>
       </c>
@@ -14117,14 +12608,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I161" t="str">
-        <v>acfr:UndistributedTaxCollectionsModifiedAccrual</v>
-      </c>
-      <c r="J161" t="s">
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10">
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>60</v>
       </c>
@@ -14153,14 +12638,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I162" t="str">
-        <v>acfr:UnearnedRevenueModifiedAccrual</v>
-      </c>
-      <c r="J162" t="s">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10">
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>60</v>
       </c>
@@ -14189,14 +12668,8 @@
         <f t="shared" si="10"/>
         <v>acfr:RestrictedCashModifiedAccrual</v>
       </c>
-      <c r="I163" t="str">
-        <v>acfr:VouchersPayableModifiedAccrual</v>
-      </c>
-      <c r="J163" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10">
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>60</v>
       </c>
@@ -14225,14 +12698,8 @@
         <f t="shared" si="10"/>
         <v>acfr:RestrictedCashAndCashEquivalentsModifiedAccrual</v>
       </c>
-      <c r="I164" t="str">
-        <v>acfr:DeferredInflowsOfResourcesModifiedAccrual</v>
-      </c>
-      <c r="J164" t="s">
-        <v>2258</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10">
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>60</v>
       </c>
@@ -14261,14 +12728,8 @@
         <f t="shared" si="10"/>
         <v>acfr:RestrictedCashAndInvestmentsModifiedAccrual</v>
       </c>
-      <c r="I165" t="str">
-        <v>acfr:DeferredInflowsOfResourcesPropertyTaxesModifiedAccrual</v>
-      </c>
-      <c r="J165" t="s">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10">
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>60</v>
       </c>
@@ -14297,14 +12758,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I166" t="str">
-        <v>acfr:DeferredInflowsOfResourcesTaxesLeviedForASubsequentPeriodModifiedAccrual</v>
-      </c>
-      <c r="J166" t="s">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10">
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>60</v>
       </c>
@@ -14333,14 +12788,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I167" t="str">
-        <v>acfr:OtherDeferredInflowsOfResourcesModifiedAccrual</v>
-      </c>
-      <c r="J167" t="s">
-        <v>2261</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10">
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>60</v>
       </c>
@@ -14369,14 +12818,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I168" t="str">
-        <v>acfr:DeferredOutflowsOfResourcesModifiedAccrual</v>
-      </c>
-      <c r="J168" t="s">
-        <v>2262</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10">
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>60</v>
       </c>
@@ -14405,14 +12848,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I169" t="str">
-        <v>acfr:OtherDeferredOutflowsOfResourcesModifiedAccrual</v>
-      </c>
-      <c r="J169" t="s">
-        <v>2263</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10">
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>60</v>
       </c>
@@ -14441,14 +12878,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I170" t="str">
-        <v>acfr:ConstructionInProgressModifiedAccrual</v>
-      </c>
-      <c r="J170" t="s">
-        <v>2264</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10">
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>60</v>
       </c>
@@ -14477,14 +12908,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I171" t="str">
-        <v>acfr:InvestmentsInJointVenturesModifiedAccrual</v>
-      </c>
-      <c r="J171" t="s">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10">
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>60</v>
       </c>
@@ -14513,14 +12938,8 @@
         <f t="shared" si="10"/>
         <v>acfr:SalesTaxReceivableModifiedAccrual</v>
       </c>
-      <c r="I172" t="str">
-        <v>acfr:InvestmentsOfSurplusFundsModifiedAccrual</v>
-      </c>
-      <c r="J172" t="s">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10">
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>60</v>
       </c>
@@ -14549,14 +12968,8 @@
         <f t="shared" si="10"/>
         <v>acfr:SecuritiesLendingCollateralAssetsModifiedAccrual</v>
       </c>
-      <c r="I173" t="str">
-        <v>acfr:LeasesAccumulatedAmortizationModifiedAccrual</v>
-      </c>
-      <c r="J173" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10">
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>60</v>
       </c>
@@ -14585,14 +12998,8 @@
         <f t="shared" si="10"/>
         <v>acfr:SecuritiesLendingObligationsLiabilityModifiedAccrual</v>
       </c>
-      <c r="I174" t="str">
-        <v>acfr:LongTermContractsReceivableModifiedAccrual</v>
-      </c>
-      <c r="J174" t="s">
-        <v>2268</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10">
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>60</v>
       </c>
@@ -14621,14 +13028,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I175" t="str">
-        <v>acfr:LongTermInvestmentsModifiedAccrual</v>
-      </c>
-      <c r="J175" t="s">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10">
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>60</v>
       </c>
@@ -14657,14 +13058,8 @@
         <f t="shared" si="10"/>
         <v>acfr:ServiceFeesReceivableModifiedAccrual</v>
       </c>
-      <c r="I176" t="str">
-        <v>acfr:NetOPEBAssetModifiedAccrual</v>
-      </c>
-      <c r="J176" t="s">
-        <v>2270</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10">
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>60</v>
       </c>
@@ -14693,14 +13088,8 @@
         <f t="shared" si="10"/>
         <v>acfr:SpecialAssessmentTaxesReceivableModifiedAccrual</v>
       </c>
-      <c r="I177" t="str">
-        <v>acfr:NetPensionAssetModifiedAccrual</v>
-      </c>
-      <c r="J177" t="s">
-        <v>2271</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10">
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>60</v>
       </c>
@@ -14729,14 +13118,8 @@
         <f t="shared" si="10"/>
         <v>acfr:SpecialAssessmentTaxesReceivableUnavailableModifiedAccrual</v>
       </c>
-      <c r="I178" t="str">
-        <v>acfr:OtherAssetsModifiedAccrual</v>
-      </c>
-      <c r="J178" t="s">
-        <v>2272</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10">
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>60</v>
       </c>
@@ -14765,14 +13148,8 @@
         <f t="shared" si="10"/>
         <v>acfr:SpecialAssessmentsReceivableDelinquentModifiedAccrual</v>
       </c>
-      <c r="I179" t="str">
-        <v>acfr:OtherInvestmentsModifiedAccrual</v>
-      </c>
-      <c r="J179" t="s">
-        <v>2273</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10">
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>60</v>
       </c>
@@ -14801,14 +13178,8 @@
         <f t="shared" si="10"/>
         <v>acfr:TaxesReceivableModifiedAccrual</v>
       </c>
-      <c r="I180" t="str">
-        <v>acfr:UnamortizedDiscountsOnBondsSoldByLocalUnitModifiedAccrual</v>
-      </c>
-      <c r="J180" t="s">
-        <v>2274</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10">
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>60</v>
       </c>
@@ -14837,14 +13208,8 @@
         <f t="shared" si="10"/>
         <v>acfr:TaxesReceivableDelinquentPersonalPropertyModifiedAccrual</v>
       </c>
-      <c r="I181" t="str">
-        <v>acfr:AdvancesToComponentUnitModifiedAccrual</v>
-      </c>
-      <c r="J181" t="s">
-        <v>2275</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10">
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>60</v>
       </c>
@@ -14873,14 +13238,8 @@
         <f t="shared" si="10"/>
         <v>acfr:TaxesReceivableDelinquentRealPropertyModifiedAccrual</v>
       </c>
-      <c r="I182" t="str">
-        <v>acfr:AdvancesToOtherFundsModifiedAccrual</v>
-      </c>
-      <c r="J182" t="s">
-        <v>2276</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10">
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>60</v>
       </c>
@@ -14909,14 +13268,8 @@
         <f t="shared" si="10"/>
         <v>acfr:TaxesReceivablePersonalPropertyCurrentLevyModifiedAccrual</v>
       </c>
-      <c r="I183" t="str">
-        <v>acfr:AdvancesToOtherGovernmentsModifiedAccrual</v>
-      </c>
-      <c r="J183" t="s">
-        <v>2277</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10">
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>60</v>
       </c>
@@ -14945,11 +13298,8 @@
         <f t="shared" si="10"/>
         <v>acfr:TaxesReceivableRealPropertyCurrentLevyModifiedAccrual</v>
       </c>
-      <c r="I184" t="str">
-        <v>acfr:NetPensionLiabilityModifiedAccrual</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10">
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>60</v>
       </c>
@@ -14979,7 +13329,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>60</v>
       </c>
@@ -15009,7 +13359,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>60</v>
       </c>
@@ -15039,7 +13389,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>60</v>
       </c>
@@ -15069,7 +13419,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>60</v>
       </c>
@@ -15099,7 +13449,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>60</v>
       </c>
@@ -15129,7 +13479,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>60</v>
       </c>
@@ -15159,7 +13509,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>60</v>
       </c>
@@ -36964,7 +35314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62560919-E4A0-3A4F-9164-3F35B35B852C}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -38109,8 +36459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAF299C-3D3B-8F47-AA92-8FD95A662E81}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/static/input_files/ACFR_template.xlsx
+++ b/static/input_files/ACFR_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963E8334-8A71-9C45-8AAE-F52DE9212834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08902B72-E04A-144F-B1C3-BBB17CF0206E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="834" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="834" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="1735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="1735">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -3458,567 +3458,39 @@
     <t>Transfers:</t>
   </si>
   <si>
-    <t>RevenueUsedForGeneralGovernmentServicesLegislativeAndExecutive</t>
-  </si>
-  <si>
-    <t>RevenueUsedForGeneralGovernmentServicesJudicial</t>
-  </si>
-  <si>
-    <t>RevenueUsedForGeneralGovernmentServicesAdministration</t>
-  </si>
-  <si>
-    <t>RevenueUsedForGeneralGovernmentServicesOther</t>
-  </si>
-  <si>
-    <t>RevenueForGeneralGovernment</t>
-  </si>
-  <si>
-    <t>RevenueUsedForSecurityOfPersonsAndPropertyServices</t>
-  </si>
-  <si>
-    <t>RevenueForCourtEquity</t>
-  </si>
-  <si>
-    <t>RevenueForDrugCaseInformationManagement</t>
-  </si>
-  <si>
-    <t>RevenueForDrunkDrivingCaseFlowAssistance</t>
-  </si>
-  <si>
-    <t>RevenueForCrimeVictimsRights</t>
-  </si>
-  <si>
-    <t>RevenueForIndigentDefense</t>
-  </si>
-  <si>
-    <t>RevenueForPublicSafetyServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForHighwaysAndStreets</t>
-  </si>
-  <si>
-    <t>RevenueUsedForPublicHealthAndSanitationServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForMedicalCareFacility</t>
-  </si>
-  <si>
-    <t>RevenueUsedForAmbulance</t>
-  </si>
-  <si>
-    <t>RevenueUsedForStateHealthBenefit</t>
-  </si>
-  <si>
-    <t>RevenueForHealth</t>
-  </si>
-  <si>
-    <t>RevenueForWelfare</t>
-  </si>
-  <si>
-    <t>RevenueForHealthAndWelfare</t>
-  </si>
-  <si>
-    <t>RevenueUsedForElectricityAndPowerServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForPublicUtilities</t>
-  </si>
-  <si>
-    <t>RevenueUsedForCommunityServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForCommunityDevelopment</t>
-  </si>
-  <si>
-    <t>RevenueUsedForEconomicDevelopmentServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForOtherDevelopmentServices</t>
-  </si>
-  <si>
-    <t>RevenueForCommunityDevelopmentBlockGrants</t>
-  </si>
-  <si>
-    <t>RevenueForLocalCommunityStabilizationShare</t>
-  </si>
-  <si>
-    <t>RevenueForCommunityAndEconomicDevelopmentServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForLibrary</t>
-  </si>
-  <si>
-    <t>RevenueUsedForGolf</t>
-  </si>
-  <si>
-    <t>RevenueUsedForHarborServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForConventionCenterServices</t>
-  </si>
-  <si>
-    <t>RevenueForParksAndRecreation</t>
-  </si>
-  <si>
     <t>Revenues for Cultural Activities</t>
   </si>
   <si>
-    <t>RevenuesForCulturalActivities</t>
-  </si>
-  <si>
-    <t>RevenueForCultureAndRecreation</t>
-  </si>
-  <si>
-    <t>RevenueUsedForConservationServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForAirportServices</t>
-  </si>
-  <si>
-    <t>RevenueForTransitServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForSanitarySewerServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForWaterSupplyServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForStormSewerServices</t>
-  </si>
-  <si>
-    <t>RevenueForSanitation</t>
-  </si>
-  <si>
-    <t>RevenueUsedForPublicWorksServices</t>
-  </si>
-  <si>
-    <t>ChargesForServicesCourtRelatedCharges</t>
-  </si>
-  <si>
-    <t>ChargesForServicesFees</t>
-  </si>
-  <si>
-    <t>ChargesForServicesCourtFilingFees</t>
-  </si>
-  <si>
-    <t>ChargesForServicesJuryDemandFees</t>
-  </si>
-  <si>
-    <t>ChargesForServicesWritOfGarnishmentRestitutionAttachmentOrExecution</t>
-  </si>
-  <si>
-    <t>ChargesForServicesAttorneyFeeReimbursement</t>
-  </si>
-  <si>
-    <t>ChargesForServicesGuardianAdLitemReimbursement</t>
-  </si>
-  <si>
-    <t>ChargesForServicesProbationOversightFee</t>
-  </si>
-  <si>
-    <t>ChargesForServicesEstateInventoryFee</t>
-  </si>
-  <si>
-    <t>ChargesForServicesFriendOfTheCourtStatutoryHandlingFee</t>
-  </si>
-  <si>
-    <t>ChargesForServicesFriendOfTheCourtServiceFee</t>
-  </si>
-  <si>
-    <t>ChargesForServicesMiscellaneousCourtCostsAndFees</t>
-  </si>
-  <si>
-    <t>ChargesForServicesServicesRendered</t>
-  </si>
-  <si>
-    <t>ChargesForServicesBuildingInspectionFees</t>
-  </si>
-  <si>
-    <t>ChargesForServicesAmbulanceTransportFees</t>
-  </si>
-  <si>
-    <t>ChargesForServicesTitleSearchFee</t>
-  </si>
-  <si>
-    <t>ChargesForServicesPreForfeitureMailingNoticeCost</t>
-  </si>
-  <si>
-    <t>ChargesForServicesSales</t>
-  </si>
-  <si>
-    <t>ChargesForServicesUseAndAdmissionFees</t>
-  </si>
-  <si>
-    <t>ChargesForServicesRevenueFromParkingFacilities</t>
-  </si>
-  <si>
-    <t>ChargesForServices</t>
-  </si>
-  <si>
     <t>Revenue for Traffic Violations</t>
   </si>
   <si>
-    <t>ChargesForServicesTrafficViolations</t>
-  </si>
-  <si>
     <t>Revenue for Ordinance Fines and Costs</t>
   </si>
   <si>
-    <t>ChargesForServicesOrdinanceFinesAndCosts</t>
-  </si>
-  <si>
     <t>Revenue for Statute Costs</t>
   </si>
   <si>
-    <t>ChargesForServicesStatuteCosts</t>
-  </si>
-  <si>
     <t>Revenue for Bond Forfeitures and Bond Costs</t>
   </si>
   <si>
-    <t>ChargesForServicesBondForfeituresAndBondCosts</t>
-  </si>
-  <si>
     <t>Revenues from Fines and Forfeitures and Penalties</t>
   </si>
   <si>
-    <t>RevenueFromFinesAndForfeituresAndPenalties</t>
-  </si>
-  <si>
     <t>Revenue for Business Licenses and Permits</t>
   </si>
   <si>
-    <t>ChargesForServicesBusinessLicensesAndPermits</t>
-  </si>
-  <si>
     <t>Revenue for Cable TV Franchise Fees</t>
   </si>
   <si>
-    <t>ChargesForServicesCableTVFranchiseFees</t>
-  </si>
-  <si>
     <t>Revenue for Non Business Licenses and Permits</t>
   </si>
   <si>
-    <t>ChargesForServicesNonBusinessLicensesAndPermits</t>
-  </si>
-  <si>
     <t>Revenue for Licenses and Permits and Franchise Fees</t>
   </si>
   <si>
-    <t>ChargesForServicesLicensesAndPermitsAndFranchiseFees</t>
-  </si>
-  <si>
-    <t>RevenueUsedForPublicSchoolsServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForPublicWaysAndFacilitiesServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForPublicAssistanceServices</t>
-  </si>
-  <si>
-    <t>RevenueForSpecialElectionReimbursement</t>
-  </si>
-  <si>
-    <t>RevenueUsedForElections</t>
-  </si>
-  <si>
-    <t>RevenueForSurveyAndRemonumentation</t>
-  </si>
-  <si>
-    <t>RevenueUsedForPlanningAndZoning</t>
-  </si>
-  <si>
-    <t>RevenueUsedForCemetery</t>
-  </si>
-  <si>
-    <t>RevenueUsedForEquipmentAndEquipmentRental</t>
-  </si>
-  <si>
-    <t>RevenueUsedForPropertyMaintenance</t>
-  </si>
-  <si>
-    <t>RevenueUsedForHomestead</t>
-  </si>
-  <si>
-    <t>RevenueUsedForBuildingAuthority</t>
-  </si>
-  <si>
-    <t>RevenueUsedForTelecommunications</t>
-  </si>
-  <si>
-    <t>RevenueForFacilitiesMaintenance</t>
-  </si>
-  <si>
-    <t>RevenueUsedForTownshipProperties</t>
-  </si>
-  <si>
-    <t>RevenueUsedForEducationServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForHigherEducation</t>
-  </si>
-  <si>
-    <t>RevenueUsedForUnemploymentCompensation</t>
-  </si>
-  <si>
-    <t>RevenueUsedForGarageServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForJailStoresCommissaryServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForContingencyServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForOtherPublicServices</t>
-  </si>
-  <si>
     <t>Revenue Sharing</t>
   </si>
   <si>
-    <t>RevenueSharing</t>
-  </si>
-  <si>
-    <t>RevenueUsedForOtherPrograms</t>
-  </si>
-  <si>
-    <t>ProgramRevenues</t>
-  </si>
-  <si>
-    <t>ExpensesForGeneralGovernmentServicesLegislativeAndExecutive</t>
-  </si>
-  <si>
-    <t>ExpensesForGeneralGovernmentServicesJudicial</t>
-  </si>
-  <si>
-    <t>ExpensesForGeneralGovernmentServicesAdministration</t>
-  </si>
-  <si>
-    <t>ExpensesForGeneralGovernmentServicesOther</t>
-  </si>
-  <si>
-    <t>ExpensesForGeneralGovernmentServices</t>
-  </si>
-  <si>
-    <t>ExpensesForSecurityOfPersonsAndPropertyServices</t>
-  </si>
-  <si>
-    <t>ExpensesForCourtOfEquity</t>
-  </si>
-  <si>
-    <t>ExpensesForDrugCaseInformationManagement</t>
-  </si>
-  <si>
-    <t>ExpensesForDrunkDrivingCaseFlowAssistance</t>
-  </si>
-  <si>
-    <t>ExpensesForCrimeVictimsRights</t>
-  </si>
-  <si>
-    <t>ExpensesForIndigentDefense</t>
-  </si>
-  <si>
-    <t>ExpensesForPublicSafetyServices</t>
-  </si>
-  <si>
-    <t>ExpensesForStreetsAndHighways</t>
-  </si>
-  <si>
-    <t>ExpensesForPublicHealthAndSanitationServices</t>
-  </si>
-  <si>
-    <t>ExpensesForMedicalCareFacility</t>
-  </si>
-  <si>
-    <t>ExpensesForAmbulance</t>
-  </si>
-  <si>
-    <t>ExpensesForStateHealthBenefitPlan</t>
-  </si>
-  <si>
-    <t>ExpensesForWelfare</t>
-  </si>
-  <si>
-    <t>ExpensesForHealth</t>
-  </si>
-  <si>
-    <t>ExpensesForHealthAndWelfare</t>
-  </si>
-  <si>
-    <t>ExpensesForElectricityAndPowerServices</t>
-  </si>
-  <si>
-    <t>ExpensesForPublicUtilities</t>
-  </si>
-  <si>
-    <t>ExpensesForCommunityServices</t>
-  </si>
-  <si>
-    <t>ExpensesForCommunityDevelopment</t>
-  </si>
-  <si>
-    <t>ExpensesForEconomicDevelopmentServices</t>
-  </si>
-  <si>
-    <t>ExpensesForOtherDevelopmentServices</t>
-  </si>
-  <si>
-    <t>ExpensesForCommunityDevelopmentBlockGrants</t>
-  </si>
-  <si>
-    <t>ExpensesForLocalCommunityStabilizationShare</t>
-  </si>
-  <si>
-    <t>ExpensesForCommunityAndEconomicDevelopmentServices</t>
-  </si>
-  <si>
-    <t>ExpensesForLibrary</t>
-  </si>
-  <si>
-    <t>ExpensesForGolf</t>
-  </si>
-  <si>
-    <t>ExpensesForHarborServices</t>
-  </si>
-  <si>
-    <t>ExpensesForConventionCenterServices</t>
-  </si>
-  <si>
-    <t>ExpensesForParksAndRecreation</t>
-  </si>
-  <si>
-    <t>ExpensesForCulturalActivities</t>
-  </si>
-  <si>
-    <t>ExpensesForRecreationAndCulture</t>
-  </si>
-  <si>
-    <t>ExpensesForWaterSupplyServices</t>
-  </si>
-  <si>
-    <t>ExpensesForAirportsServices</t>
-  </si>
-  <si>
-    <t>ExpensesForTransportationServices</t>
-  </si>
-  <si>
-    <t>ExpensesForSanitarySewerServices</t>
-  </si>
-  <si>
-    <t>ExpensesForStormSewerServices</t>
-  </si>
-  <si>
-    <t>ExpensesForSanitation</t>
-  </si>
-  <si>
-    <t>ExpensesForPublicWorksServices</t>
-  </si>
-  <si>
-    <t>ExpensesForHousingAndCommunityDevelopment</t>
-  </si>
-  <si>
-    <t>ExpensesForConservationServices</t>
-  </si>
-  <si>
-    <t>ExpensesForPublicSchoolsServices</t>
-  </si>
-  <si>
-    <t>ExpensesForSpecialElectionReimbursement</t>
-  </si>
-  <si>
-    <t>ExpensesForLotteryPrizeAwards</t>
-  </si>
-  <si>
-    <t>ExpensesForElections</t>
-  </si>
-  <si>
-    <t>ExpensesForPublicWaysAndFacilitiesServices</t>
-  </si>
-  <si>
-    <t>ExpensesForPublicAssistanceServices</t>
-  </si>
-  <si>
-    <t>ExpensesForSurveyAndRemonumentation</t>
-  </si>
-  <si>
-    <t>ExpensesForPlanningAndZoning</t>
-  </si>
-  <si>
-    <t>ExpensesForCemetery</t>
-  </si>
-  <si>
-    <t>ExpensesForEquipmentAndEquipmentRental</t>
-  </si>
-  <si>
-    <t>ExpensesForPropertyMaintenance</t>
-  </si>
-  <si>
-    <t>ExpensesForHomestead</t>
-  </si>
-  <si>
-    <t>ExpensesForBuildingAuthority</t>
-  </si>
-  <si>
-    <t>ExpensesForTelecommunications</t>
-  </si>
-  <si>
-    <t>ExpensesForFinancialAndTaxAdministrationInformationTechnology</t>
-  </si>
-  <si>
-    <t>ExpensesForFacilitiesMaintenance</t>
-  </si>
-  <si>
-    <t>ExpensesForTownshipProperties</t>
-  </si>
-  <si>
-    <t>ExpensesForEducationServices</t>
-  </si>
-  <si>
-    <t>ExpensesForHigherEducation</t>
-  </si>
-  <si>
-    <t>ExpensesForUnemploymentCompensation</t>
-  </si>
-  <si>
-    <t>ExpensesForGaragesServices</t>
-  </si>
-  <si>
-    <t>ExpensesForJailStoresCommissaryServices</t>
-  </si>
-  <si>
-    <t>ExpensesForContingencyServices</t>
-  </si>
-  <si>
-    <t>ExpensesForOtherPublicServices</t>
-  </si>
-  <si>
-    <t>CapitalOutlay</t>
-  </si>
-  <si>
-    <t>DepreciationExpense</t>
-  </si>
-  <si>
-    <t>DebtServicePrincipalRepayment</t>
-  </si>
-  <si>
-    <t>DebtServiceInterestAndFiscalCharges</t>
-  </si>
-  <si>
-    <t>DebtService</t>
-  </si>
-  <si>
-    <t>DepreciationUnallocated</t>
-  </si>
-  <si>
-    <t>CostOfIssueOfBondsAndSecurities</t>
-  </si>
-  <si>
-    <t>OtherExpenses</t>
-  </si>
-  <si>
     <t>Revenue</t>
   </si>
   <si>
@@ -4046,330 +3518,6 @@
     <t>Cost of Issue of Bonds and Securities</t>
   </si>
   <si>
-    <t>NetExpenseRevenueForLegislativeAndExecutive</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForJudicial</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForGovernmentAdministration</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueGeneralGovernmentServicesOther</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueGeneralGovernmentServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForSecurityOfPersonsAndPropertyServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenuePublicSafetyProtectiveServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueCourtOfEquity</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueDrugCaseInformationManagement</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForDrunkDrivingCaseFlowAssistance</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueCrimeVictimsRights</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueIndigentDefense</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForPublicSafetyServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForHighwaysAndStreets</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForPublicHealthAndSanitationServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForMedicalCareFacility</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForAmbulance</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueHealth</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueStateHealthBenefitPlan</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForWelfare</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueHealthAndWelfare</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForElectricityAndPowerServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenuePublicUtilities</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForCommunityServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForCommunityDevelopment</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForEconomicDevelopmentServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForOtherDevelopmentServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForCommunityDevelopmentBlockGrants</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForLocalCommunityStabilizationShare</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueCommunityAndEconomicDevelopmentServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForLibrary</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForGolf</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForHarborServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForConventionCenterServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForCulturalActivities</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForParksAndRecreation</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForRecreationAndCulture</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForWaterSupplyServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForAirportsServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForTransportationServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForSanitarySewerServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForStormSewerServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForSanitation</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForPublicWorksServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueCourtRelatedCharges</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueFees</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueCourtFilingFees</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueJuryDemandFees</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueWritOfGarnishmentRestitutionAttachmentOrExecution</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueAttorneyFeeReimbursement</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueGuardianAdLitemReimbursement</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueProbationOversightFee</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueEstateInventoryFee</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueFriendOfTheCourtStatutoryHandlingFee</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueFriendOfTheCourtServiceFee</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueMiscellaneousCourtCostsAndFees</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueServicesRendered</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueBuildingInspectionFees</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueAmbulanceTransportFees</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueTitleSearchFee</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenuePreForfeitureMailingNoticeCost</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueSales</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueUseAndAdmissionFees</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueChargesForServicesRevenueFromParkingFacilities</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueChargesForServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueTrafficViolations</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueOrdinanceFinesAndCosts</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueStatuteCosts</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueBondForfeituresAndBondCosts</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueFinesAndForfeituresAndPenalties</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueChargesForServicesBusinessLicensesAndPermits</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueChargesForServicesCableTVFranchiseFees</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueChargesForServicesNonBusinessLicensesAndPermits</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueChargesForServicesLicensesAndPermitsAndFranchiseFees</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForHousingAndCommunityDevelopmentServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForConservationServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForPublicSchoolsServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForSpecialElectionReimbursement</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueLotteryPrizes</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForElections</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForPublicWaysAndFacilitiesServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForPublicAssistanceServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForSurveyAndRemonumentation</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForPlanningAndZoning</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForCemetery</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForEquipmentAndEquipmentRental</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForPropertyMaintenance</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForHomestead</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForBuildingAuthority</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForTelecommunications</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForFacilitiesMaintenance</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForTownshipProperties</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForEducationServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForHigherEducation</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForUnemploymentCompensation</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForGaragesServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForJailStoresCommissaryServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForContingencyServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForOtherPublicServices</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForRevenueSharing</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForCapitalOutlay</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForDebtServicePrincipalRepayment</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForDebtServiceInterestAndFiscalCharges</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueDebtService</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForDepreciationUnallocated</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenueForCostOfIssueOfBondsAndSecurities</t>
-  </si>
-  <si>
-    <t>OtherNetExpenseRevenue</t>
-  </si>
-  <si>
-    <t>NetExpenseRevenue</t>
-  </si>
-  <si>
     <t>Net Expense (Revenue)</t>
   </si>
   <si>
@@ -4673,390 +3821,108 @@
     <t>general_revenues</t>
   </si>
   <si>
-    <t>RevenueFromNationalForestReserveTaxes</t>
-  </si>
-  <si>
-    <t>RevenueFromTrailerTax</t>
-  </si>
-  <si>
-    <t>RevenueFromAccomodationsTax</t>
-  </si>
-  <si>
-    <t>RevenueFromParkingOccupancyTax</t>
-  </si>
-  <si>
-    <t>RevenueFromIndustrialFacilitiesTax</t>
-  </si>
-  <si>
-    <t>RevenueFromCommercialFacilitiesTax</t>
-  </si>
-  <si>
-    <t>RevenueFromIncomeTax</t>
-  </si>
-  <si>
-    <t>RevenueFromTransactionPrivilegeTax</t>
-  </si>
-  <si>
-    <t>RevenueFromCurrentPropertyTaxesExtraOrSpecialVoted</t>
-  </si>
-  <si>
-    <t>RevenueFromCurrentPersonalPropertyTax</t>
-  </si>
-  <si>
-    <t>RevenuesFromCurrentRealPropertyTax</t>
-  </si>
-  <si>
-    <t>RevenueFromPropertyTax</t>
-  </si>
-  <si>
-    <t>RevenueFromDelinquentRealPropertyTax</t>
-  </si>
-  <si>
-    <t>RevenueFromDelinquentPersonalPropertyTax</t>
-  </si>
-  <si>
-    <t>RevenueFromMarijuanaTax</t>
-  </si>
-  <si>
-    <t>RevenueFromCityUtilityUsersTax</t>
-  </si>
-  <si>
-    <t>RevenueFromMotorFuelTax</t>
-  </si>
-  <si>
-    <t>RevenueFromLotteryForEducationLotteryProceeds</t>
-  </si>
-  <si>
-    <t>RevenueFromCorporateTax</t>
-  </si>
-  <si>
-    <t>RevenueFromUsageOfUtilitiesTax</t>
-  </si>
-  <si>
-    <t>RevenueFromConventionTax</t>
-  </si>
-  <si>
-    <t>RevenueFromSalesAndUseTax</t>
-  </si>
-  <si>
-    <t>RevenueFromSalesTax</t>
-  </si>
-  <si>
-    <t>RevenueFromUnclaimedProperty</t>
-  </si>
-  <si>
-    <t>RevenueFromNursingHomeAndHospitalProviderFees</t>
-  </si>
-  <si>
-    <t>RevenueFromBusinessLicenseTax</t>
-  </si>
-  <si>
-    <t>RevenueFromPropertyTransferTax</t>
-  </si>
-  <si>
-    <t>RevenueFromDocumentsTransferTax</t>
-  </si>
-  <si>
-    <t>RevenueFromTransferStampsTax</t>
-  </si>
-  <si>
-    <t>RevenueFromHotelAndMotelTax</t>
-  </si>
-  <si>
-    <t>RevenueFromVehiclesTax</t>
-  </si>
-  <si>
-    <t>RevenueFromMealsTax</t>
-  </si>
-  <si>
-    <t>RevenueFromFranchiseIncomeTax</t>
-  </si>
-  <si>
-    <t>RevenueFromOtherTaxForGeneralPurpose</t>
-  </si>
-  <si>
-    <t>RevenueFromTaxes</t>
-  </si>
-  <si>
     <t>Allowance for Chargebacks</t>
   </si>
   <si>
-    <t>AllowanceForChargebacks</t>
-  </si>
-  <si>
     <t>Allowance for Refunds</t>
   </si>
   <si>
-    <t>AllowanceForRefunds</t>
-  </si>
-  <si>
-    <t>RevenueFromCollectionFees</t>
-  </si>
-  <si>
-    <t>RevenueFromInterestAndPenaltiesOnTaxes</t>
-  </si>
-  <si>
-    <t>RevenueFromCommunityWideSpecialAssessments</t>
-  </si>
-  <si>
     <t>Redemptions and Reconveyance</t>
   </si>
   <si>
-    <t>RedemptionsAndReconveyance</t>
-  </si>
-  <si>
-    <t>RevenueFromCountyExpenseOfSale</t>
-  </si>
-  <si>
-    <t>RevenueFromCommercialForestReserve</t>
-  </si>
-  <si>
-    <t>RevenueFromSubMarginalLandAct</t>
-  </si>
-  <si>
-    <t>RevenueFromTaxRevertedProperty</t>
-  </si>
-  <si>
     <t>Payment in Lieu of Taxes</t>
   </si>
   <si>
-    <t>PaymentInLieuOfTaxes</t>
-  </si>
-  <si>
-    <t>RevenueFromPropertyTaxAdministrationFee</t>
-  </si>
-  <si>
     <t>Taxes and Tax Related Revenues</t>
   </si>
   <si>
-    <t>TaxesAndTaxRelatedRevenues</t>
-  </si>
-  <si>
-    <t>RevenuesFromInterestAndPenaltiesOnSpecialAssessments</t>
-  </si>
-  <si>
-    <t>RevenueFromSpecialAssessments</t>
-  </si>
-  <si>
-    <t>RevenueFromDividends</t>
-  </si>
-  <si>
-    <t>RevenueFromInterest</t>
-  </si>
-  <si>
-    <t>RevenueFromInterestAndDividends</t>
-  </si>
-  <si>
     <t>Investment Gains (Losses)</t>
   </si>
   <si>
-    <t>InvestmentGainsLosses</t>
-  </si>
-  <si>
     <t>Investment Income</t>
   </si>
   <si>
-    <t>InvestmentIncome</t>
-  </si>
-  <si>
-    <t>RevenueFromInterestAndRent</t>
-  </si>
-  <si>
     <t>Lease Investment Income</t>
   </si>
   <si>
-    <t>LeaseInvestmentIncome</t>
-  </si>
-  <si>
     <t>Investment Income and Rentals</t>
   </si>
   <si>
-    <t>InvestmentIncomeAndRentals</t>
-  </si>
-  <si>
-    <t>RevenueFromRent</t>
-  </si>
-  <si>
-    <t>RevenueFromRoyalties</t>
-  </si>
-  <si>
-    <t>RevenueFromRentsAndRoyalties</t>
-  </si>
-  <si>
-    <t>RevenueFromSharedRevenue</t>
-  </si>
-  <si>
-    <t>RevenueFromUseOfMoneyAndProperty</t>
-  </si>
-  <si>
-    <t>RevenueFromGasAndOilRoyalties</t>
-  </si>
-  <si>
-    <t>RevenueFromCasinoRevenueSharing</t>
-  </si>
-  <si>
-    <t>RevenueFromRecreationFees</t>
-  </si>
-  <si>
-    <t>RevenueFromRefundsAndRebates</t>
-  </si>
-  <si>
-    <t>RevenueFromReimbursements</t>
-  </si>
-  <si>
-    <t>RevenueFromGrantsAndEntitlementsForSpecificProgramsUnrestricted</t>
-  </si>
-  <si>
     <t>Grants, Contributions and Donations from Federal Governmental Entities</t>
   </si>
   <si>
-    <t>GrantsContributionsAndDonationsFromFederalGovernmentalEntities</t>
-  </si>
-  <si>
     <t>Grants, Contributions and Donations from State Governmental Entities</t>
   </si>
   <si>
-    <t>GrantsContributionsAndDonationsFromStateGovernmentalEntities</t>
-  </si>
-  <si>
     <t>Grants, Contributions and Donations from Local Units</t>
   </si>
   <si>
-    <t>GrantsContributionsAndDonationsFromLocalUnits</t>
-  </si>
-  <si>
     <t>Grants, Contributions and Donations from Others</t>
   </si>
   <si>
-    <t>GrantsContributionsAndDonationsFromOthers</t>
-  </si>
-  <si>
     <t>Public and Private Contributions</t>
   </si>
   <si>
-    <t>PublicAndPrivateContributions</t>
-  </si>
-  <si>
     <t>Proceeds from Bond and Note Issuance</t>
   </si>
   <si>
-    <t>ProceedsFromBondAndNoteIssuance</t>
-  </si>
-  <si>
     <t>Private Contributions and Donations</t>
   </si>
   <si>
-    <t>PrivateContributionsAndDonations</t>
-  </si>
-  <si>
     <t>Cash Over or Short</t>
   </si>
   <si>
-    <t>CashOverOrShort</t>
-  </si>
-  <si>
     <t>Gain (Loss) on Sale of Capital Assets</t>
   </si>
   <si>
-    <t>GainLossOnSaleOfCapitalAssets</t>
-  </si>
-  <si>
     <t>Recovery of Cost Incurred</t>
   </si>
   <si>
-    <t>RecoveryOfCostIncurred</t>
-  </si>
-  <si>
     <t>Other General Revenues</t>
   </si>
   <si>
-    <t>OtherGeneralRevenues</t>
-  </si>
-  <si>
     <t>General Revenues, Net</t>
   </si>
   <si>
-    <t>GeneralRevenuesNet</t>
-  </si>
-  <si>
     <t>Transfers, Net</t>
   </si>
   <si>
-    <t>TransfersNet</t>
-  </si>
-  <si>
     <t>Transfer of Capital Assets In</t>
   </si>
   <si>
-    <t>TransfersIn</t>
-  </si>
-  <si>
     <t>Transfers of Capital Assets Out</t>
   </si>
   <si>
-    <t>TransfersOut</t>
-  </si>
-  <si>
     <t>Internal Transfers</t>
   </si>
   <si>
-    <t>InternalTransfers</t>
-  </si>
-  <si>
     <t>Transfer to Escrow for Bond Refunding</t>
   </si>
   <si>
-    <t>TransferToEscrowForBondRefunding</t>
-  </si>
-  <si>
     <t>Other Financing Sources, Lease Financing</t>
   </si>
   <si>
-    <t>OtherFinancingSourcesLeaseFinancing</t>
-  </si>
-  <si>
     <t>Discounts on Bonds or Notes</t>
   </si>
   <si>
-    <t>DiscountsOnBondsOrNotes</t>
-  </si>
-  <si>
     <t>Premium on Bonds or Notes</t>
   </si>
   <si>
-    <t>PremiumOnBondsOrNotes</t>
-  </si>
-  <si>
     <t>Bond or Insurance Recoveries</t>
   </si>
   <si>
-    <t>BondOrInsuranceRecoveries</t>
-  </si>
-  <si>
     <t>Special Items</t>
   </si>
   <si>
-    <t>SpecialItems</t>
-  </si>
-  <si>
     <t>Extraordinary Items</t>
   </si>
   <si>
-    <t>ExtraordinaryItems</t>
-  </si>
-  <si>
     <t>Adjustments for Transfer of Revenues Within Activities</t>
   </si>
   <si>
-    <t>AdjustmentsForTransferOfRevenuesWithinActivities</t>
-  </si>
-  <si>
     <t>General Revenues and Transfers</t>
   </si>
   <si>
-    <t>GeneralRevenuesAndTransfers</t>
-  </si>
-  <si>
     <t>transfers</t>
   </si>
   <si>
@@ -5259,6 +4125,1140 @@
   </si>
   <si>
     <t>Total Governmental Funds</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForGeneralGovernmentServicesLegislativeAndExecutive</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForGeneralGovernmentServicesLegislativeAndExecutive</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForLegislativeAndExecutive</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForGeneralGovernmentServicesJudicial</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForGeneralGovernmentServicesJudicial</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForJudicial</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForGeneralGovernmentServicesAdministration</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForGeneralGovernmentServicesAdministration</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForGovernmentAdministration</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForGeneralGovernmentServicesOther</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForGeneralGovernmentServicesOther</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueGeneralGovernmentServicesOther</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForGeneralGovernmentServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueForGeneralGovernment</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueGeneralGovernmentServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForSecurityOfPersonsAndPropertyServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForSecurityOfPersonsAndPropertyServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForSecurityOfPersonsAndPropertyServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForCourtOfEquity</t>
+  </si>
+  <si>
+    <t>acfr:RevenueForCourtEquity</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueCourtOfEquity</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForDrugCaseInformationManagement</t>
+  </si>
+  <si>
+    <t>acfr:RevenueForDrugCaseInformationManagement</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueDrugCaseInformationManagement</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForDrunkDrivingCaseFlowAssistance</t>
+  </si>
+  <si>
+    <t>acfr:RevenueForDrunkDrivingCaseFlowAssistance</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForDrunkDrivingCaseFlowAssistance</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForCrimeVictimsRights</t>
+  </si>
+  <si>
+    <t>acfr:RevenueForCrimeVictimsRights</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueCrimeVictimsRights</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForIndigentDefense</t>
+  </si>
+  <si>
+    <t>acfr:RevenueForIndigentDefense</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueIndigentDefense</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForPublicSafetyServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueForPublicSafetyServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForPublicSafetyServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForStreetsAndHighways</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForHighwaysAndStreets</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForHighwaysAndStreets</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForPublicHealthAndSanitationServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForPublicHealthAndSanitationServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForPublicHealthAndSanitationServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForMedicalCareFacility</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForMedicalCareFacility</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForMedicalCareFacility</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForAmbulance</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForAmbulance</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForAmbulance</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForStateHealthBenefitPlan</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForStateHealthBenefit</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueHealth</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForWelfare</t>
+  </si>
+  <si>
+    <t>acfr:RevenueForHealth</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueStateHealthBenefitPlan</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForHealth</t>
+  </si>
+  <si>
+    <t>acfr:RevenueForWelfare</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForWelfare</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForHealthAndWelfare</t>
+  </si>
+  <si>
+    <t>acfr:RevenueForHealthAndWelfare</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueHealthAndWelfare</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForElectricityAndPowerServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForElectricityAndPowerServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForElectricityAndPowerServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForPublicUtilities</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForPublicUtilities</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenuePublicUtilities</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForCommunityServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForCommunityServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForCommunityServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForCommunityDevelopment</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForCommunityDevelopment</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForCommunityDevelopment</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForEconomicDevelopmentServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForEconomicDevelopmentServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForEconomicDevelopmentServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForOtherDevelopmentServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForOtherDevelopmentServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForOtherDevelopmentServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForCommunityDevelopmentBlockGrants</t>
+  </si>
+  <si>
+    <t>acfr:RevenueForCommunityDevelopmentBlockGrants</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForCommunityDevelopmentBlockGrants</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForLocalCommunityStabilizationShare</t>
+  </si>
+  <si>
+    <t>acfr:RevenueForLocalCommunityStabilizationShare</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForLocalCommunityStabilizationShare</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForCommunityAndEconomicDevelopmentServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueForCommunityAndEconomicDevelopmentServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueCommunityAndEconomicDevelopmentServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForLibrary</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForLibrary</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForLibrary</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForGolf</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForGolf</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForGolf</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForHarborServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForHarborServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForHarborServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForConventionCenterServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForConventionCenterServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForConventionCenterServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForParksAndRecreation</t>
+  </si>
+  <si>
+    <t>acfr:RevenueForParksAndRecreation</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForCulturalActivities</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForCulturalActivities</t>
+  </si>
+  <si>
+    <t>acfr:RevenuesForCulturalActivities</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForParksAndRecreation</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForRecreationAndCulture</t>
+  </si>
+  <si>
+    <t>acfr:RevenueForCultureAndRecreation</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForRecreationAndCulture</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForConservationServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForConservationServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForConservationServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForAirportsServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForAirportServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForAirportsServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForTransportationServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueForTransitServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForTransportationServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForSanitarySewerServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForSanitarySewerServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForSanitarySewerServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForWaterSupplyServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForWaterSupplyServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForWaterSupplyServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForStormSewerServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForStormSewerServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForStormSewerServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForSanitation</t>
+  </si>
+  <si>
+    <t>acfr:RevenueForSanitation</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForSanitation</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForPublicWorksServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForPublicWorksServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForPublicWorksServices</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesCourtRelatedCharges</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueCourtRelatedCharges</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesFees</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueFees</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesCourtFilingFees</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueCourtFilingFees</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesJuryDemandFees</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueJuryDemandFees</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesWritOfGarnishmentRestitutionAttachmentOrExecution</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueWritOfGarnishmentRestitutionAttachmentOrExecution</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesAttorneyFeeReimbursement</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueAttorneyFeeReimbursement</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesGuardianAdLitemReimbursement</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueGuardianAdLitemReimbursement</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesProbationOversightFee</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueProbationOversightFee</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesEstateInventoryFee</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueEstateInventoryFee</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesFriendOfTheCourtStatutoryHandlingFee</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueFriendOfTheCourtStatutoryHandlingFee</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesFriendOfTheCourtServiceFee</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueFriendOfTheCourtServiceFee</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesMiscellaneousCourtCostsAndFees</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueMiscellaneousCourtCostsAndFees</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesServicesRendered</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueServicesRendered</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesBuildingInspectionFees</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueBuildingInspectionFees</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesAmbulanceTransportFees</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueAmbulanceTransportFees</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesTitleSearchFee</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueTitleSearchFee</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesPreForfeitureMailingNoticeCost</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenuePreForfeitureMailingNoticeCost</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesSales</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueSales</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesUseAndAdmissionFees</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueUseAndAdmissionFees</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesRevenueFromParkingFacilities</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueChargesForServicesRevenueFromParkingFacilities</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueChargesForServices</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesTrafficViolations</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueTrafficViolations</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesOrdinanceFinesAndCosts</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueOrdinanceFinesAndCosts</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesStatuteCosts</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueStatuteCosts</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesBondForfeituresAndBondCosts</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueBondForfeituresAndBondCosts</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromFinesAndForfeituresAndPenalties</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueFinesAndForfeituresAndPenalties</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesBusinessLicensesAndPermits</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueChargesForServicesBusinessLicensesAndPermits</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesCableTVFranchiseFees</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueChargesForServicesCableTVFranchiseFees</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesNonBusinessLicensesAndPermits</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueChargesForServicesNonBusinessLicensesAndPermits</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServicesLicensesAndPermitsAndFranchiseFees</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueChargesForServicesLicensesAndPermitsAndFranchiseFees</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForPublicSchoolsServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForPublicSchoolsServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForPublicSchoolsServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForPublicWaysAndFacilitiesServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForPublicWaysAndFacilitiesServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForPublicWaysAndFacilitiesServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForPublicAssistanceServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForPublicAssistanceServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForPublicAssistanceServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForSpecialElectionReimbursement</t>
+  </si>
+  <si>
+    <t>acfr:RevenueForSpecialElectionReimbursement</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForSpecialElectionReimbursement</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForElections</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForElections</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForElections</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForSurveyAndRemonumentation</t>
+  </si>
+  <si>
+    <t>acfr:RevenueForSurveyAndRemonumentation</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForSurveyAndRemonumentation</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForPlanningAndZoning</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForPlanningAndZoning</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForPlanningAndZoning</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForCemetery</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForCemetery</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForCemetery</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForEquipmentAndEquipmentRental</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForEquipmentAndEquipmentRental</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForEquipmentAndEquipmentRental</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForPropertyMaintenance</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForPropertyMaintenance</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForPropertyMaintenance</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForHomestead</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForHomestead</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForHomestead</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForBuildingAuthority</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForBuildingAuthority</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForBuildingAuthority</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForTelecommunications</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForTelecommunications</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForTelecommunications</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForFacilitiesMaintenance</t>
+  </si>
+  <si>
+    <t>acfr:RevenueForFacilitiesMaintenance</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForFacilitiesMaintenance</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForTownshipProperties</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForTownshipProperties</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForTownshipProperties</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForEducationServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForEducationServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForEducationServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForHigherEducation</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForHigherEducation</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForHigherEducation</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForUnemploymentCompensation</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForUnemploymentCompensation</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForUnemploymentCompensation</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForGaragesServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForGarageServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForGaragesServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForJailStoresCommissaryServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForJailStoresCommissaryServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForJailStoresCommissaryServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForContingencyServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForContingencyServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForContingencyServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForOtherPublicServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForOtherPublicServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForOtherPublicServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueSharing</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForRevenueSharing</t>
+  </si>
+  <si>
+    <t>acfr:OtherExpenses</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForOtherPrograms</t>
+  </si>
+  <si>
+    <t>acfr:OtherNetExpenseRevenue</t>
+  </si>
+  <si>
+    <t>acfr:Expenses</t>
+  </si>
+  <si>
+    <t>acfr:ProgramRevenues</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenue</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForFinancialAndTaxAdministrationInformationTechnology</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForHousingAndCommunityDevelopment</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForHousingAndCommunityDevelopmentServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForLotteryPrizeAwards</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueLotteryPrizes</t>
+  </si>
+  <si>
+    <t>acfr:CapitalOutlay</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForCapitalOutlay</t>
+  </si>
+  <si>
+    <t>acfr:DepreciationExpense</t>
+  </si>
+  <si>
+    <t>acfr:DebtServicePrincipalRepayment</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForDebtServicePrincipalRepayment</t>
+  </si>
+  <si>
+    <t>acfr:DebtServiceInterestAndFiscalCharges</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForDebtServiceInterestAndFiscalCharges</t>
+  </si>
+  <si>
+    <t>acfr:DebtService</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueDebtService</t>
+  </si>
+  <si>
+    <t>acfr:DepreciationUnallocated</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForDepreciationUnallocated</t>
+  </si>
+  <si>
+    <t>acfr:CostOfIssueOfBondsAndSecurities</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForCostOfIssueOfBondsAndSecurities</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenuePublicSafetyProtectiveServices</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromNationalForestReserveTaxes</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromTrailerTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromAccomodationsTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromParkingOccupancyTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromIndustrialFacilitiesTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromCommercialFacilitiesTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromIncomeTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromTransactionPrivilegeTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromCurrentPropertyTaxesExtraOrSpecialVoted</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromCurrentPersonalPropertyTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenuesFromCurrentRealPropertyTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromPropertyTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromDelinquentRealPropertyTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromDelinquentPersonalPropertyTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromMarijuanaTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromCityUtilityUsersTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromMotorFuelTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromLotteryForEducationLotteryProceeds</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromCorporateTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromUsageOfUtilitiesTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromConventionTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromSalesAndUseTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromSalesTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromUnclaimedProperty</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromNursingHomeAndHospitalProviderFees</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromBusinessLicenseTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromPropertyTransferTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromDocumentsTransferTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromTransferStampsTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromHotelAndMotelTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromVehiclesTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromMealsTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromFranchiseIncomeTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromOtherTaxForGeneralPurpose</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromTaxes</t>
+  </si>
+  <si>
+    <t>acfr:AllowanceForChargebacks</t>
+  </si>
+  <si>
+    <t>acfr:AllowanceForRefunds</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromCollectionFees</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromInterestAndPenaltiesOnTaxes</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromCommunityWideSpecialAssessments</t>
+  </si>
+  <si>
+    <t>acfr:RedemptionsAndReconveyance</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromCountyExpenseOfSale</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromCommercialForestReserve</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromSubMarginalLandAct</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromTaxRevertedProperty</t>
+  </si>
+  <si>
+    <t>acfr:PaymentInLieuOfTaxes</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromPropertyTaxAdministrationFee</t>
+  </si>
+  <si>
+    <t>acfr:TaxesAndTaxRelatedRevenues</t>
+  </si>
+  <si>
+    <t>acfr:RevenuesFromInterestAndPenaltiesOnSpecialAssessments</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromSpecialAssessments</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromDividends</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromInterest</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromInterestAndDividends</t>
+  </si>
+  <si>
+    <t>acfr:InvestmentGainsLosses</t>
+  </si>
+  <si>
+    <t>acfr:InvestmentIncome</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromInterestAndRent</t>
+  </si>
+  <si>
+    <t>acfr:LeaseInvestmentIncome</t>
+  </si>
+  <si>
+    <t>acfr:InvestmentIncomeAndRentals</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromRent</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromRoyalties</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromRentsAndRoyalties</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromSharedRevenue</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromUseOfMoneyAndProperty</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromGasAndOilRoyalties</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromCasinoRevenueSharing</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromRecreationFees</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromRefundsAndRebates</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromReimbursements</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromGrantsAndEntitlementsForSpecificProgramsUnrestricted</t>
+  </si>
+  <si>
+    <t>acfr:GrantsContributionsAndDonationsFromFederalGovernmentalEntities</t>
+  </si>
+  <si>
+    <t>acfr:GrantsContributionsAndDonationsFromStateGovernmentalEntities</t>
+  </si>
+  <si>
+    <t>acfr:GrantsContributionsAndDonationsFromLocalUnits</t>
+  </si>
+  <si>
+    <t>acfr:GrantsContributionsAndDonationsFromOthers</t>
+  </si>
+  <si>
+    <t>acfr:PublicAndPrivateContributions</t>
+  </si>
+  <si>
+    <t>acfr:ProceedsFromBondAndNoteIssuance</t>
+  </si>
+  <si>
+    <t>acfr:PrivateContributionsAndDonations</t>
+  </si>
+  <si>
+    <t>acfr:CashOverOrShort</t>
+  </si>
+  <si>
+    <t>acfr:GainLossOnSaleOfCapitalAssets</t>
+  </si>
+  <si>
+    <t>acfr:RecoveryOfCostIncurred</t>
+  </si>
+  <si>
+    <t>acfr:OtherGeneralRevenues</t>
+  </si>
+  <si>
+    <t>acfr:TransfersNet</t>
+  </si>
+  <si>
+    <t>acfr:TransfersIn</t>
+  </si>
+  <si>
+    <t>acfr:TransfersOut</t>
+  </si>
+  <si>
+    <t>acfr:InternalTransfers</t>
+  </si>
+  <si>
+    <t>acfr:TransferToEscrowForBondRefunding</t>
+  </si>
+  <si>
+    <t>acfr:OtherFinancingSourcesLeaseFinancing</t>
+  </si>
+  <si>
+    <t>acfr:DiscountsOnBondsOrNotes</t>
+  </si>
+  <si>
+    <t>acfr:PremiumOnBondsOrNotes</t>
+  </si>
+  <si>
+    <t>acfr:BondOrInsuranceRecoveries</t>
+  </si>
+  <si>
+    <t>acfr:SpecialItems</t>
+  </si>
+  <si>
+    <t>acfr:ExtraordinaryItems</t>
+  </si>
+  <si>
+    <t>acfr:AdjustmentsForTransferOfRevenuesWithinActivities</t>
+  </si>
+  <si>
+    <t>acfr:GeneralRevenuesAndTransfers</t>
   </si>
 </sst>
 </file>
@@ -12094,8 +12094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF490C29-31E1-3E46-B6B7-83D944E71A74}">
   <dimension ref="A1:E218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -12111,2962 +12111,3690 @@
       <c r="A1" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>1668</v>
+      <c r="B1" s="68" t="s">
+        <v>1290</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>1322</v>
+        <v>1146</v>
       </c>
       <c r="D1" s="68" t="s">
-        <v>1321</v>
+        <v>1145</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>1438</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>1439</v>
+        <v>1155</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>1244</v>
+        <v>1357</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>1134</v>
+        <v>1358</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>1330</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>1440</v>
+        <v>1156</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>1245</v>
+        <v>1360</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>1135</v>
+        <v>1361</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>1331</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>1441</v>
+        <v>1157</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>1246</v>
+        <v>1363</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>1136</v>
+        <v>1364</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>1332</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="A5" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>1442</v>
+        <v>1158</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>1247</v>
+        <v>1366</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>1137</v>
+        <v>1367</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>1333</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
       <c r="A6" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>1443</v>
+        <v>1159</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>1248</v>
+        <v>1369</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>1138</v>
+        <v>1370</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>1334</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
       <c r="A7" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>1444</v>
+        <v>1160</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>1249</v>
+        <v>1372</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>1139</v>
+        <v>1373</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>1335</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
       <c r="A8" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>1445</v>
+        <v>1161</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>1250</v>
+        <v>1375</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>1140</v>
+        <v>1376</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>1337</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
       <c r="A9" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>1446</v>
+        <v>1162</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>1251</v>
+        <v>1378</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>1141</v>
+        <v>1379</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>1338</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
       <c r="A10" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>1447</v>
+        <v>1163</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>1252</v>
+        <v>1381</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>1142</v>
+        <v>1382</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>1339</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
       <c r="A11" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>1448</v>
+        <v>1164</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>1253</v>
+        <v>1384</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>1143</v>
+        <v>1385</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>1340</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15">
       <c r="A12" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>1449</v>
+        <v>1165</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>1254</v>
+        <v>1387</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>1144</v>
+        <v>1388</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>1341</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15">
       <c r="A13" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>1450</v>
+        <v>1166</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>1255</v>
+        <v>1390</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>1145</v>
+        <v>1391</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>1342</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15">
       <c r="A14" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>1451</v>
+        <v>1167</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>1256</v>
+        <v>1393</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>1146</v>
+        <v>1394</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>1343</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15">
       <c r="A15" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>1452</v>
+        <v>1168</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>1257</v>
+        <v>1396</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>1147</v>
+        <v>1397</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>1344</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15">
       <c r="A16" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>1453</v>
+        <v>1169</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>1258</v>
+        <v>1399</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>1148</v>
+        <v>1400</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>1345</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15">
       <c r="A17" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>1454</v>
+        <v>1170</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>1259</v>
+        <v>1402</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>1149</v>
+        <v>1403</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>1346</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15">
       <c r="A18" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>1455</v>
+        <v>1171</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>1260</v>
+        <v>1405</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>1150</v>
+        <v>1406</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>1347</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15">
       <c r="A19" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>1456</v>
+        <v>1172</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>1261</v>
+        <v>1408</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>1151</v>
+        <v>1409</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>1348</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15">
       <c r="A20" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>1457</v>
+        <v>1173</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>1262</v>
+        <v>1411</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>1152</v>
+        <v>1412</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>1349</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15">
       <c r="A21" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>1458</v>
+        <v>1174</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>1263</v>
+        <v>1414</v>
       </c>
       <c r="D21" s="65" t="s">
-        <v>1153</v>
+        <v>1415</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>1350</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15">
       <c r="A22" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>1459</v>
+        <v>1175</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>1264</v>
+        <v>1417</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>1154</v>
+        <v>1418</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>1351</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15">
       <c r="A23" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>1460</v>
+        <v>1176</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>1265</v>
+        <v>1420</v>
       </c>
       <c r="D23" s="65" t="s">
-        <v>1155</v>
+        <v>1421</v>
       </c>
       <c r="E23" s="65" t="s">
-        <v>1352</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15">
       <c r="A24" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>1461</v>
+        <v>1177</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>1266</v>
+        <v>1423</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>1156</v>
+        <v>1424</v>
       </c>
       <c r="E24" s="65" t="s">
-        <v>1353</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15">
       <c r="A25" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>1462</v>
+        <v>1178</v>
       </c>
       <c r="C25" s="65" t="s">
-        <v>1267</v>
+        <v>1426</v>
       </c>
       <c r="D25" s="65" t="s">
-        <v>1157</v>
+        <v>1427</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>1354</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15">
       <c r="A26" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>1463</v>
+        <v>1179</v>
       </c>
       <c r="C26" s="65" t="s">
-        <v>1268</v>
+        <v>1429</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>1158</v>
+        <v>1430</v>
       </c>
       <c r="E26" s="65" t="s">
-        <v>1355</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15">
       <c r="A27" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>1464</v>
+        <v>1180</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>1269</v>
+        <v>1432</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>1159</v>
+        <v>1433</v>
       </c>
       <c r="E27" s="65" t="s">
-        <v>1356</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15">
       <c r="A28" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>1465</v>
+        <v>1181</v>
       </c>
       <c r="C28" s="65" t="s">
-        <v>1270</v>
+        <v>1435</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>1160</v>
+        <v>1436</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>1357</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15">
       <c r="A29" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>1466</v>
+        <v>1182</v>
       </c>
       <c r="C29" s="65" t="s">
-        <v>1271</v>
+        <v>1438</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>1161</v>
+        <v>1439</v>
       </c>
       <c r="E29" s="65" t="s">
-        <v>1358</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15">
       <c r="A30" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>1467</v>
+        <v>1183</v>
       </c>
       <c r="C30" s="65" t="s">
-        <v>1272</v>
+        <v>1441</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>1162</v>
+        <v>1442</v>
       </c>
       <c r="E30" s="65" t="s">
-        <v>1359</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15">
       <c r="A31" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>1468</v>
+        <v>1184</v>
       </c>
       <c r="C31" s="65" t="s">
-        <v>1273</v>
+        <v>1444</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>1163</v>
+        <v>1445</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>1360</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15">
       <c r="A32" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>1469</v>
+        <v>1185</v>
       </c>
       <c r="C32" s="65" t="s">
-        <v>1274</v>
+        <v>1447</v>
       </c>
       <c r="D32" s="65" t="s">
-        <v>1164</v>
+        <v>1448</v>
       </c>
       <c r="E32" s="65" t="s">
-        <v>1361</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15">
       <c r="A33" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>1470</v>
+        <v>1186</v>
       </c>
       <c r="C33" s="65" t="s">
-        <v>1275</v>
+        <v>1450</v>
       </c>
       <c r="D33" s="65" t="s">
-        <v>1165</v>
+        <v>1451</v>
       </c>
       <c r="E33" s="65" t="s">
-        <v>1362</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15">
       <c r="A34" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>1471</v>
+        <v>1187</v>
       </c>
       <c r="C34" s="65" t="s">
-        <v>1276</v>
+        <v>1453</v>
       </c>
       <c r="D34" s="65" t="s">
-        <v>1166</v>
+        <v>1454</v>
       </c>
       <c r="E34" s="65" t="s">
-        <v>1363</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15">
       <c r="A35" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>1472</v>
+        <v>1188</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>1277</v>
+        <v>1456</v>
       </c>
       <c r="D35" s="65" t="s">
-        <v>1167</v>
+        <v>1457</v>
       </c>
       <c r="E35" s="65" t="s">
-        <v>1364</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15">
       <c r="A36" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>1168</v>
+        <v>1134</v>
       </c>
       <c r="C36" s="65" t="s">
-        <v>1278</v>
+        <v>1459</v>
       </c>
       <c r="D36" s="65" t="s">
-        <v>1169</v>
+        <v>1460</v>
       </c>
       <c r="E36" s="65" t="s">
-        <v>1365</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15">
       <c r="A37" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>1473</v>
+        <v>1189</v>
       </c>
       <c r="C37" s="65" t="s">
-        <v>1279</v>
+        <v>1462</v>
       </c>
       <c r="D37" s="65" t="s">
-        <v>1170</v>
+        <v>1463</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>1366</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15">
       <c r="A38" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>1474</v>
+        <v>1190</v>
       </c>
       <c r="C38" s="65" t="s">
-        <v>1288</v>
+        <v>1465</v>
       </c>
       <c r="D38" s="65" t="s">
-        <v>1171</v>
+        <v>1466</v>
       </c>
       <c r="E38" s="65" t="s">
-        <v>1405</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15">
       <c r="A39" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>1475</v>
+        <v>1191</v>
       </c>
       <c r="C39" s="65" t="s">
-        <v>1281</v>
+        <v>1468</v>
       </c>
       <c r="D39" s="65" t="s">
-        <v>1172</v>
+        <v>1469</v>
       </c>
       <c r="E39" s="65" t="s">
-        <v>1368</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15">
       <c r="A40" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>1476</v>
+        <v>1192</v>
       </c>
       <c r="C40" s="65" t="s">
-        <v>1282</v>
+        <v>1471</v>
       </c>
       <c r="D40" s="65" t="s">
-        <v>1173</v>
+        <v>1472</v>
       </c>
       <c r="E40" s="65" t="s">
-        <v>1369</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15">
       <c r="A41" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>1477</v>
+        <v>1193</v>
       </c>
       <c r="C41" s="65" t="s">
-        <v>1283</v>
+        <v>1474</v>
       </c>
       <c r="D41" s="65" t="s">
-        <v>1174</v>
+        <v>1475</v>
       </c>
       <c r="E41" s="65" t="s">
-        <v>1370</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15">
       <c r="A42" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B42" s="26" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D42" s="65" t="s">
         <v>1478</v>
       </c>
-      <c r="C42" s="65" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D42" s="65" t="s">
-        <v>1175</v>
-      </c>
       <c r="E42" s="65" t="s">
-        <v>1367</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15">
       <c r="A43" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>1479</v>
+        <v>1195</v>
       </c>
       <c r="C43" s="65" t="s">
-        <v>1284</v>
+        <v>1480</v>
       </c>
       <c r="D43" s="65" t="s">
-        <v>1176</v>
+        <v>1481</v>
       </c>
       <c r="E43" s="65" t="s">
-        <v>1371</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15">
       <c r="A44" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>1480</v>
+        <v>1196</v>
       </c>
       <c r="C44" s="65" t="s">
-        <v>1285</v>
+        <v>1483</v>
       </c>
       <c r="D44" s="65" t="s">
-        <v>1177</v>
+        <v>1484</v>
       </c>
       <c r="E44" s="65" t="s">
-        <v>1372</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15">
       <c r="A45" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>1481</v>
+        <v>1197</v>
       </c>
       <c r="C45" s="65" t="s">
-        <v>1286</v>
+        <v>1486</v>
       </c>
       <c r="D45" s="65" t="s">
-        <v>1178</v>
+        <v>1487</v>
       </c>
       <c r="E45" s="65" t="s">
-        <v>1373</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15">
       <c r="A46" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C46" s="26"/>
+        <v>1198</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D46" s="65" t="s">
-        <v>1179</v>
+        <v>1489</v>
       </c>
       <c r="E46" s="65" t="s">
-        <v>1374</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15">
       <c r="A47" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C47" s="26"/>
+        <v>1199</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D47" s="65" t="s">
-        <v>1180</v>
+        <v>1491</v>
       </c>
       <c r="E47" s="65" t="s">
-        <v>1375</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15">
       <c r="A48" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C48" s="26"/>
+        <v>1200</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D48" s="65" t="s">
-        <v>1181</v>
+        <v>1493</v>
       </c>
       <c r="E48" s="65" t="s">
-        <v>1376</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15">
       <c r="A49" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C49" s="26"/>
+        <v>1201</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D49" s="65" t="s">
-        <v>1182</v>
+        <v>1495</v>
       </c>
       <c r="E49" s="65" t="s">
-        <v>1377</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15">
       <c r="A50" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C50" s="26"/>
+        <v>1202</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D50" s="65" t="s">
-        <v>1183</v>
+        <v>1497</v>
       </c>
       <c r="E50" s="65" t="s">
-        <v>1378</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15">
       <c r="A51" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C51" s="26"/>
+        <v>1203</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D51" s="65" t="s">
-        <v>1184</v>
+        <v>1499</v>
       </c>
       <c r="E51" s="65" t="s">
-        <v>1379</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15">
       <c r="A52" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C52" s="26"/>
+        <v>1204</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D52" s="65" t="s">
-        <v>1185</v>
+        <v>1501</v>
       </c>
       <c r="E52" s="65" t="s">
-        <v>1380</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15">
       <c r="A53" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>1489</v>
-      </c>
-      <c r="C53" s="26"/>
+        <v>1205</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D53" s="65" t="s">
-        <v>1186</v>
+        <v>1503</v>
       </c>
       <c r="E53" s="65" t="s">
-        <v>1381</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15">
       <c r="A54" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C54" s="26"/>
+        <v>1206</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D54" s="65" t="s">
-        <v>1187</v>
+        <v>1505</v>
       </c>
       <c r="E54" s="65" t="s">
-        <v>1382</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15">
       <c r="A55" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C55" s="26"/>
+        <v>1207</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D55" s="65" t="s">
-        <v>1188</v>
+        <v>1507</v>
       </c>
       <c r="E55" s="65" t="s">
-        <v>1383</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15">
       <c r="A56" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C56" s="26"/>
+        <v>1208</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D56" s="65" t="s">
-        <v>1189</v>
+        <v>1509</v>
       </c>
       <c r="E56" s="65" t="s">
-        <v>1384</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15">
       <c r="A57" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C57" s="26"/>
+        <v>1209</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D57" s="65" t="s">
-        <v>1190</v>
+        <v>1511</v>
       </c>
       <c r="E57" s="65" t="s">
-        <v>1385</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15">
       <c r="A58" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C58" s="26"/>
+        <v>1210</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D58" s="65" t="s">
-        <v>1191</v>
+        <v>1513</v>
       </c>
       <c r="E58" s="65" t="s">
-        <v>1386</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15">
       <c r="A59" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C59" s="26"/>
+        <v>1211</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D59" s="65" t="s">
-        <v>1192</v>
+        <v>1515</v>
       </c>
       <c r="E59" s="65" t="s">
-        <v>1387</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15">
       <c r="A60" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>1496</v>
-      </c>
-      <c r="C60" s="26"/>
+        <v>1212</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D60" s="65" t="s">
-        <v>1193</v>
+        <v>1517</v>
       </c>
       <c r="E60" s="65" t="s">
-        <v>1388</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15">
       <c r="A61" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>1497</v>
-      </c>
-      <c r="C61" s="26"/>
+        <v>1213</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D61" s="65" t="s">
-        <v>1194</v>
+        <v>1519</v>
       </c>
       <c r="E61" s="65" t="s">
-        <v>1389</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15">
       <c r="A62" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C62" s="26"/>
+        <v>1214</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D62" s="65" t="s">
-        <v>1195</v>
+        <v>1521</v>
       </c>
       <c r="E62" s="65" t="s">
-        <v>1390</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15">
       <c r="A63" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C63" s="26"/>
+        <v>1215</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D63" s="65" t="s">
-        <v>1196</v>
+        <v>1523</v>
       </c>
       <c r="E63" s="65" t="s">
-        <v>1391</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15">
       <c r="A64" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C64" s="26"/>
+        <v>1216</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D64" s="65" t="s">
-        <v>1197</v>
+        <v>1525</v>
       </c>
       <c r="E64" s="65" t="s">
-        <v>1392</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15">
       <c r="A65" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C65" s="26"/>
+        <v>1217</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D65" s="65" t="s">
-        <v>1198</v>
+        <v>1527</v>
       </c>
       <c r="E65" s="65" t="s">
-        <v>1393</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15">
       <c r="A66" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B66" s="26" t="s">
         <v>1109</v>
       </c>
-      <c r="C66" s="26"/>
+      <c r="C66" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D66" s="65" t="s">
-        <v>1199</v>
+        <v>1529</v>
       </c>
       <c r="E66" s="65" t="s">
-        <v>1394</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15">
       <c r="A67" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C67" s="26"/>
+        <v>1218</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D67" s="65" t="s">
-        <v>1201</v>
+        <v>1531</v>
       </c>
       <c r="E67" s="65" t="s">
-        <v>1395</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15">
       <c r="A68" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C68" s="26"/>
+        <v>1219</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D68" s="65" t="s">
-        <v>1203</v>
+        <v>1533</v>
       </c>
       <c r="E68" s="65" t="s">
-        <v>1396</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15">
       <c r="A69" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C69" s="26"/>
+        <v>1220</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D69" s="65" t="s">
-        <v>1205</v>
+        <v>1535</v>
       </c>
       <c r="E69" s="65" t="s">
-        <v>1397</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15">
       <c r="A70" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D70" s="65" t="s">
         <v>1537</v>
       </c>
-      <c r="B70" s="26" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="65" t="s">
-        <v>1207</v>
-      </c>
       <c r="E70" s="65" t="s">
-        <v>1398</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15">
       <c r="A71" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C71" s="26"/>
+        <v>1139</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D71" s="65" t="s">
-        <v>1209</v>
+        <v>1539</v>
       </c>
       <c r="E71" s="65" t="s">
-        <v>1399</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15">
       <c r="A72" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C72" s="26"/>
+        <v>1222</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D72" s="65" t="s">
-        <v>1211</v>
+        <v>1541</v>
       </c>
       <c r="E72" s="65" t="s">
-        <v>1400</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15">
       <c r="A73" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>1507</v>
-      </c>
-      <c r="C73" s="26"/>
+        <v>1223</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D73" s="65" t="s">
-        <v>1213</v>
+        <v>1543</v>
       </c>
       <c r="E73" s="65" t="s">
-        <v>1401</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15">
       <c r="A74" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C74" s="26"/>
+        <v>1224</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D74" s="65" t="s">
-        <v>1215</v>
+        <v>1545</v>
       </c>
       <c r="E74" s="65" t="s">
-        <v>1402</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15">
       <c r="A75" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C75" s="26"/>
+        <v>1225</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D75" s="65" t="s">
-        <v>1217</v>
+        <v>1547</v>
       </c>
       <c r="E75" s="65" t="s">
-        <v>1403</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15">
       <c r="A76" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>1510</v>
+        <v>1226</v>
       </c>
       <c r="C76" s="65" t="s">
-        <v>1289</v>
+        <v>1549</v>
       </c>
       <c r="D76" s="65" t="s">
-        <v>1218</v>
+        <v>1550</v>
       </c>
       <c r="E76" s="65" t="s">
-        <v>1406</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15">
       <c r="A77" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>1511</v>
+        <v>1227</v>
       </c>
       <c r="C77" s="65" t="s">
-        <v>1293</v>
+        <v>1552</v>
       </c>
       <c r="D77" s="65" t="s">
-        <v>1219</v>
+        <v>1553</v>
       </c>
       <c r="E77" s="65" t="s">
-        <v>1410</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15">
       <c r="A78" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>1512</v>
+        <v>1228</v>
       </c>
       <c r="C78" s="65" t="s">
-        <v>1294</v>
+        <v>1555</v>
       </c>
       <c r="D78" s="65" t="s">
-        <v>1220</v>
+        <v>1556</v>
       </c>
       <c r="E78" s="65" t="s">
-        <v>1411</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15">
       <c r="A79" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>1513</v>
+        <v>1229</v>
       </c>
       <c r="C79" s="65" t="s">
-        <v>1290</v>
+        <v>1558</v>
       </c>
       <c r="D79" s="65" t="s">
-        <v>1221</v>
+        <v>1559</v>
       </c>
       <c r="E79" s="65" t="s">
-        <v>1407</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15">
       <c r="A80" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>1514</v>
+        <v>1230</v>
       </c>
       <c r="C80" s="65" t="s">
-        <v>1292</v>
+        <v>1561</v>
       </c>
       <c r="D80" s="65" t="s">
-        <v>1222</v>
+        <v>1562</v>
       </c>
       <c r="E80" s="65" t="s">
-        <v>1409</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15">
       <c r="A81" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>1515</v>
+        <v>1231</v>
       </c>
       <c r="C81" s="65" t="s">
-        <v>1295</v>
+        <v>1564</v>
       </c>
       <c r="D81" s="65" t="s">
-        <v>1223</v>
+        <v>1565</v>
       </c>
       <c r="E81" s="65" t="s">
-        <v>1412</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15">
       <c r="A82" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>1516</v>
+        <v>1232</v>
       </c>
       <c r="C82" s="65" t="s">
-        <v>1296</v>
+        <v>1567</v>
       </c>
       <c r="D82" s="65" t="s">
-        <v>1224</v>
+        <v>1568</v>
       </c>
       <c r="E82" s="65" t="s">
-        <v>1413</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15">
       <c r="A83" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>1517</v>
+        <v>1233</v>
       </c>
       <c r="C83" s="65" t="s">
-        <v>1297</v>
+        <v>1570</v>
       </c>
       <c r="D83" s="65" t="s">
-        <v>1225</v>
+        <v>1571</v>
       </c>
       <c r="E83" s="65" t="s">
-        <v>1414</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15">
       <c r="A84" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>1518</v>
+        <v>1234</v>
       </c>
       <c r="C84" s="65" t="s">
-        <v>1298</v>
+        <v>1573</v>
       </c>
       <c r="D84" s="65" t="s">
-        <v>1226</v>
+        <v>1574</v>
       </c>
       <c r="E84" s="65" t="s">
-        <v>1415</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15">
       <c r="A85" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>1519</v>
+        <v>1235</v>
       </c>
       <c r="C85" s="65" t="s">
-        <v>1299</v>
+        <v>1576</v>
       </c>
       <c r="D85" s="65" t="s">
-        <v>1227</v>
+        <v>1577</v>
       </c>
       <c r="E85" s="65" t="s">
-        <v>1416</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15">
       <c r="A86" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>1520</v>
+        <v>1236</v>
       </c>
       <c r="C86" s="65" t="s">
-        <v>1300</v>
+        <v>1579</v>
       </c>
       <c r="D86" s="65" t="s">
-        <v>1228</v>
+        <v>1580</v>
       </c>
       <c r="E86" s="65" t="s">
-        <v>1417</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15">
       <c r="A87" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>1521</v>
+        <v>1237</v>
       </c>
       <c r="C87" s="65" t="s">
-        <v>1301</v>
+        <v>1582</v>
       </c>
       <c r="D87" s="65" t="s">
-        <v>1229</v>
+        <v>1583</v>
       </c>
       <c r="E87" s="65" t="s">
-        <v>1418</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15">
       <c r="A88" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>1522</v>
+        <v>1238</v>
       </c>
       <c r="C88" s="65" t="s">
-        <v>1302</v>
+        <v>1585</v>
       </c>
       <c r="D88" s="65" t="s">
-        <v>1230</v>
+        <v>1586</v>
       </c>
       <c r="E88" s="65" t="s">
-        <v>1419</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15">
       <c r="A89" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>1523</v>
+        <v>1239</v>
       </c>
       <c r="C89" s="65" t="s">
-        <v>1304</v>
+        <v>1588</v>
       </c>
       <c r="D89" s="65" t="s">
-        <v>1231</v>
+        <v>1589</v>
       </c>
       <c r="E89" s="65" t="s">
-        <v>1420</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15">
       <c r="A90" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>1524</v>
+        <v>1240</v>
       </c>
       <c r="C90" s="65" t="s">
-        <v>1305</v>
+        <v>1591</v>
       </c>
       <c r="D90" s="65" t="s">
-        <v>1232</v>
+        <v>1592</v>
       </c>
       <c r="E90" s="65" t="s">
-        <v>1421</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15">
       <c r="A91" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>1525</v>
+        <v>1241</v>
       </c>
       <c r="C91" s="65" t="s">
-        <v>1306</v>
+        <v>1594</v>
       </c>
       <c r="D91" s="65" t="s">
-        <v>1233</v>
+        <v>1595</v>
       </c>
       <c r="E91" s="65" t="s">
-        <v>1422</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15">
       <c r="A92" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>1526</v>
+        <v>1242</v>
       </c>
       <c r="C92" s="65" t="s">
-        <v>1307</v>
+        <v>1597</v>
       </c>
       <c r="D92" s="65" t="s">
-        <v>1234</v>
+        <v>1598</v>
       </c>
       <c r="E92" s="65" t="s">
-        <v>1423</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15">
       <c r="A93" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>1527</v>
+        <v>1243</v>
       </c>
       <c r="C93" s="65" t="s">
-        <v>1308</v>
+        <v>1600</v>
       </c>
       <c r="D93" s="65" t="s">
-        <v>1235</v>
+        <v>1601</v>
       </c>
       <c r="E93" s="65" t="s">
-        <v>1424</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15">
       <c r="A94" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>1528</v>
+        <v>1244</v>
       </c>
       <c r="C94" s="65" t="s">
-        <v>1309</v>
+        <v>1603</v>
       </c>
       <c r="D94" s="65" t="s">
-        <v>1236</v>
+        <v>1604</v>
       </c>
       <c r="E94" s="65" t="s">
-        <v>1425</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15">
       <c r="A95" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>1529</v>
+        <v>1245</v>
       </c>
       <c r="C95" s="65" t="s">
-        <v>1310</v>
+        <v>1606</v>
       </c>
       <c r="D95" s="65" t="s">
-        <v>1237</v>
+        <v>1607</v>
       </c>
       <c r="E95" s="65" t="s">
-        <v>1426</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15">
       <c r="A96" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>1530</v>
+        <v>1246</v>
       </c>
       <c r="C96" s="65" t="s">
-        <v>1311</v>
+        <v>1609</v>
       </c>
       <c r="D96" s="65" t="s">
-        <v>1238</v>
+        <v>1610</v>
       </c>
       <c r="E96" s="65" t="s">
-        <v>1427</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15">
       <c r="A97" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>1531</v>
+        <v>1247</v>
       </c>
       <c r="C97" s="65" t="s">
-        <v>1312</v>
+        <v>1612</v>
       </c>
       <c r="D97" s="65" t="s">
-        <v>1239</v>
+        <v>1613</v>
       </c>
       <c r="E97" s="65" t="s">
-        <v>1428</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15">
       <c r="A98" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C98" s="26"/>
+        <v>1144</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="D98" s="65" t="s">
-        <v>1241</v>
+        <v>1615</v>
       </c>
       <c r="E98" s="65" t="s">
-        <v>1429</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15">
       <c r="A99" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>1532</v>
+        <v>1248</v>
       </c>
       <c r="C99" s="65" t="s">
-        <v>1320</v>
+        <v>1617</v>
       </c>
       <c r="D99" s="65" t="s">
-        <v>1242</v>
+        <v>1618</v>
       </c>
       <c r="E99" s="65" t="s">
-        <v>1436</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15">
       <c r="A100" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B100" s="26" t="s">
         <v>1120</v>
       </c>
       <c r="C100" s="65" t="s">
-        <v>1108</v>
+        <v>1620</v>
       </c>
       <c r="D100" s="65" t="s">
-        <v>1243</v>
+        <v>1621</v>
       </c>
       <c r="E100" s="65" t="s">
-        <v>1437</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15">
       <c r="A101" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>1533</v>
+        <v>1249</v>
       </c>
       <c r="C101" s="65" t="s">
-        <v>1303</v>
-      </c>
-      <c r="D101" s="26"/>
-      <c r="E101" s="67"/>
+        <v>1623</v>
+      </c>
+      <c r="D101" s="26" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E101" s="67" t="s">
+        <v>1252</v>
+      </c>
     </row>
     <row r="102" spans="1:5" ht="15">
       <c r="A102" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>1534</v>
+        <v>1250</v>
       </c>
       <c r="C102" s="65" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D102" s="26"/>
+        <v>1624</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="E102" s="65" t="s">
-        <v>1404</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15">
       <c r="A103" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>1535</v>
+        <v>1251</v>
       </c>
       <c r="C103" s="65" t="s">
-        <v>1291</v>
-      </c>
-      <c r="D103" s="26"/>
+        <v>1626</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="E103" s="65" t="s">
-        <v>1408</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15">
       <c r="A104" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>1323</v>
+        <v>1147</v>
       </c>
       <c r="C104" s="65" t="s">
-        <v>1313</v>
-      </c>
-      <c r="D104" s="26"/>
+        <v>1628</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="E104" s="65" t="s">
-        <v>1430</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15">
       <c r="A105" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>1324</v>
+        <v>1148</v>
       </c>
       <c r="C105" s="65" t="s">
-        <v>1314</v>
-      </c>
-      <c r="D105" s="26"/>
-      <c r="E105" s="67"/>
+        <v>1630</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E105" s="67" t="s">
+        <v>1252</v>
+      </c>
     </row>
     <row r="106" spans="1:5" ht="15">
       <c r="A106" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>1325</v>
+        <v>1149</v>
       </c>
       <c r="C106" s="65" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D106" s="26"/>
+        <v>1631</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="E106" s="65" t="s">
-        <v>1431</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15">
       <c r="A107" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>1326</v>
+        <v>1150</v>
       </c>
       <c r="C107" s="65" t="s">
-        <v>1316</v>
-      </c>
-      <c r="D107" s="26"/>
+        <v>1633</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="E107" s="65" t="s">
-        <v>1432</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15">
       <c r="A108" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>1327</v>
+        <v>1151</v>
       </c>
       <c r="C108" s="65" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D108" s="26"/>
+        <v>1635</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="E108" s="65" t="s">
-        <v>1433</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15">
       <c r="A109" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>1328</v>
+        <v>1152</v>
       </c>
       <c r="C109" s="65" t="s">
-        <v>1318</v>
-      </c>
-      <c r="D109" s="26"/>
+        <v>1637</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="E109" s="65" t="s">
-        <v>1434</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15">
       <c r="A110" s="2" t="s">
-        <v>1537</v>
+        <v>1253</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>1329</v>
+        <v>1153</v>
       </c>
       <c r="C110" s="65" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D110" s="26"/>
+        <v>1639</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>1252</v>
+      </c>
       <c r="E110" s="65" t="s">
-        <v>1435</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15">
       <c r="A111" s="2"/>
       <c r="B111" t="s">
-        <v>1536</v>
+        <v>1252</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1252</v>
       </c>
       <c r="E111" s="66" t="s">
-        <v>1336</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15">
       <c r="A112" s="2" t="s">
-        <v>1538</v>
+        <v>1254</v>
       </c>
       <c r="B112" s="65" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D112" s="65" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15">
+      <c r="A113" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B113" s="65" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D113" s="65" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15">
+      <c r="A114" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B114" s="65" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D114" s="65" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15">
+      <c r="A115" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B115" s="65" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D115" s="65" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15">
+      <c r="A116" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B116" s="65" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D116" s="65" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15">
+      <c r="A117" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B117" s="65" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D117" s="65" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15">
+      <c r="A118" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B118" s="65" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D118" s="65" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15">
+      <c r="A119" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B119" s="65" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D119" s="65" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15">
+      <c r="A120" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B120" s="65" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D120" s="65" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15">
+      <c r="A121" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B121" s="65" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D121" s="65" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15">
+      <c r="A122" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B122" s="65" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D122" s="65" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15">
+      <c r="A123" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B123" s="65" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D123" s="65" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15">
+      <c r="A124" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B124" s="65" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D124" s="65" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15">
+      <c r="A125" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B125" s="65" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D125" s="65" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15">
+      <c r="A126" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B126" s="65" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D126" s="65" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15">
+      <c r="A127" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B127" s="65" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D127" s="65" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15">
+      <c r="A128" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B128" s="65" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D128" s="65" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15">
+      <c r="A129" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B129" s="65" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D129" s="65" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15">
+      <c r="A130" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B130" s="65" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D130" s="65" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15">
+      <c r="A131" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B131" s="65" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D131" s="65" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15">
+      <c r="A132" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B132" s="65" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D132" s="65" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15">
+      <c r="A133" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B133" s="65" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D133" s="65" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15">
+      <c r="A134" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B134" s="65" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D134" s="65" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15">
+      <c r="A135" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B135" s="65" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D135" s="65" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15">
+      <c r="A136" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B136" s="65" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D136" s="65" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15">
+      <c r="A137" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B137" s="65" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D137" s="65" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15">
+      <c r="A138" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B138" s="65" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D138" s="65" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15">
+      <c r="A139" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B139" s="65" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D139" s="65" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15">
+      <c r="A140" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B140" s="65" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D140" s="65" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15">
+      <c r="A141" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B141" s="65" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D141" s="65" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15">
+      <c r="A142" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B142" s="65" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D142" s="65" t="s">
         <v>1672</v>
       </c>
-      <c r="D112" s="65" t="s">
+      <c r="E142" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15">
+      <c r="A143" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B143" s="65" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D143" s="65" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15">
+      <c r="A144" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B144" s="65" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D144" s="65" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15">
+      <c r="A145" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B145" s="65" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D145" s="65" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15">
+      <c r="A146" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B146" s="65" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D146" s="65" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15">
+      <c r="A147" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B147" s="65" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D147" s="65" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15">
+      <c r="A148" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B148" s="65" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D148" s="65" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15">
+      <c r="A149" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B149" s="65" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D149" s="65" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15">
+      <c r="A150" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B150" s="65" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D150" s="65" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15">
+      <c r="A151" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B151" s="65" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D151" s="65" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15">
+      <c r="A152" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B152" s="65" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D152" s="65" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15">
+      <c r="A153" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B153" s="65" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D153" s="65" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15">
+      <c r="A154" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B154" s="65" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D154" s="65" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15">
+      <c r="A155" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B155" s="65" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D155" s="65" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15">
+      <c r="A156" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B156" s="65" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D156" s="65" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15">
+      <c r="A157" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B157" s="65" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D157" s="65" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15">
+      <c r="A158" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B158" s="65" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D158" s="65" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15">
+      <c r="A159" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B159" s="65" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D159" s="65" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15">
+      <c r="A160" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B160" s="65" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D160" s="65" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15">
+      <c r="A161" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B161" s="65" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D161" s="65" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15">
+      <c r="A162" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B162" s="65" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D162" s="65" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15">
+      <c r="A163" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B163" s="65" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D163" s="65" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15">
+      <c r="A164" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B164" s="65" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D164" s="65" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15">
+      <c r="A165" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B165" s="65" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D165" s="65" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15">
+      <c r="A166" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B166" s="65" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D166" s="65" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15">
+      <c r="A167" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B167" s="65" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D167" s="65" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15">
+      <c r="A168" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B168" s="65" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D168" s="65" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15">
+      <c r="A169" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B169" s="65" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D169" s="65" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15">
+      <c r="A170" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B170" s="65" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D170" s="65" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15">
+      <c r="A171" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B171" s="65" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D171" s="65" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="15">
-      <c r="A113" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B113" s="65" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D113" s="65" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15">
-      <c r="A114" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B114" s="65" t="s">
-        <v>1674</v>
-      </c>
-      <c r="D114" s="65" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15">
-      <c r="A115" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B115" s="65" t="s">
-        <v>1675</v>
-      </c>
-      <c r="D115" s="65" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15">
-      <c r="A116" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B116" s="65" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D116" s="65" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="15">
-      <c r="A117" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B117" s="65" t="s">
-        <v>1677</v>
-      </c>
-      <c r="D117" s="65" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15">
-      <c r="A118" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B118" s="65" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D118" s="65" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="15">
-      <c r="A119" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B119" s="65" t="s">
-        <v>1679</v>
-      </c>
-      <c r="D119" s="65" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="15">
-      <c r="A120" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B120" s="65" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D120" s="65" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="15">
-      <c r="A121" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B121" s="65" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D121" s="65" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="15">
-      <c r="A122" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B122" s="65" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D122" s="65" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="15">
-      <c r="A123" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B123" s="65" t="s">
-        <v>1683</v>
-      </c>
-      <c r="D123" s="65" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="15">
-      <c r="A124" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B124" s="65" t="s">
-        <v>1684</v>
-      </c>
-      <c r="D124" s="65" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="15">
-      <c r="A125" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B125" s="65" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D125" s="65" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="15">
-      <c r="A126" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B126" s="65" t="s">
-        <v>1686</v>
-      </c>
-      <c r="D126" s="65" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15">
-      <c r="A127" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B127" s="65" t="s">
-        <v>1687</v>
-      </c>
-      <c r="D127" s="65" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="15">
-      <c r="A128" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B128" s="65" t="s">
-        <v>1688</v>
-      </c>
-      <c r="D128" s="65" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15">
-      <c r="A129" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B129" s="65" t="s">
-        <v>1689</v>
-      </c>
-      <c r="D129" s="65" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="15">
-      <c r="A130" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B130" s="65" t="s">
-        <v>1690</v>
-      </c>
-      <c r="D130" s="65" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="15">
-      <c r="A131" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B131" s="65" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D131" s="65" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15">
-      <c r="A132" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B132" s="65" t="s">
+      <c r="E171" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15">
+      <c r="A172" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B172" s="65" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D172" s="65" t="s">
         <v>1692</v>
       </c>
-      <c r="D132" s="65" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="15">
-      <c r="A133" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B133" s="65" t="s">
+      <c r="E172" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15">
+      <c r="A173" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B173" s="65" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D173" s="65" t="s">
         <v>1693</v>
       </c>
-      <c r="D133" s="65" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="15">
-      <c r="A134" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B134" s="65" t="s">
+      <c r="E173" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15">
+      <c r="A174" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B174" s="65" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D174" s="65" t="s">
         <v>1694</v>
       </c>
-      <c r="D134" s="65" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="15">
-      <c r="A135" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B135" s="65" t="s">
+      <c r="E174" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15">
+      <c r="A175" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B175" s="65" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D175" s="65" t="s">
         <v>1695</v>
       </c>
-      <c r="D135" s="65" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="15">
-      <c r="A136" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B136" s="65" t="s">
+      <c r="E175" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15">
+      <c r="A176" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B176" s="65" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D176" s="65" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15">
+      <c r="A177" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B177" s="65" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D177" s="65" t="s">
         <v>1696</v>
       </c>
-      <c r="D136" s="65" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="15">
-      <c r="A137" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B137" s="65" t="s">
+      <c r="E177" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15">
+      <c r="A178" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B178" s="65" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D178" s="65" t="s">
         <v>1697</v>
       </c>
-      <c r="D137" s="65" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="15">
-      <c r="A138" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B138" s="65" t="s">
+      <c r="E178" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15">
+      <c r="A179" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B179" s="65" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D179" s="65" t="s">
         <v>1698</v>
       </c>
-      <c r="D138" s="65" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15">
-      <c r="A139" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B139" s="65" t="s">
+      <c r="E179" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15">
+      <c r="A180" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B180" s="65" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D180" s="65" t="s">
         <v>1699</v>
       </c>
-      <c r="D139" s="65" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="15">
-      <c r="A140" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B140" s="65" t="s">
+      <c r="E180" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15">
+      <c r="A181" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B181" s="65" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D181" s="65" t="s">
         <v>1700</v>
       </c>
-      <c r="D140" s="65" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="15">
-      <c r="A141" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B141" s="65" t="s">
+      <c r="E181" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15">
+      <c r="A182" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B182" s="65" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D182" s="65" t="s">
         <v>1701</v>
       </c>
-      <c r="D141" s="65" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="15">
-      <c r="A142" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B142" s="65" t="s">
+      <c r="E182" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15">
+      <c r="A183" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B183" s="65" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D183" s="65" t="s">
         <v>1702</v>
       </c>
-      <c r="D142" s="65" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="15">
-      <c r="A143" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B143" s="65" t="s">
-        <v>1675</v>
-      </c>
-      <c r="D143" s="65" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="15">
-      <c r="A144" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B144" s="65" t="s">
+      <c r="E183" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15">
+      <c r="A184" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B184" s="65" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D184" s="65" t="s">
         <v>1703</v>
       </c>
-      <c r="D144" s="65" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="15">
-      <c r="A145" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B145" s="65" t="s">
+      <c r="E184" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15">
+      <c r="A185" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B185" s="65" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D185" s="65" t="s">
         <v>1704</v>
       </c>
-      <c r="D145" s="65" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="15">
-      <c r="A146" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B146" s="65" t="s">
+      <c r="E185" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15">
+      <c r="A186" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B186" s="65" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D186" s="65" t="s">
         <v>1705</v>
       </c>
-      <c r="D146" s="65" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="15">
-      <c r="A147" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B147" s="65" t="s">
+      <c r="E186" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15">
+      <c r="A187" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B187" s="65" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D187" s="65" t="s">
         <v>1706</v>
       </c>
-      <c r="D147" s="65" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15">
-      <c r="A148" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B148" s="65" t="s">
-        <v>1574</v>
-      </c>
-      <c r="D148" s="65" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15">
-      <c r="A149" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B149" s="65" t="s">
-        <v>1576</v>
-      </c>
-      <c r="D149" s="65" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="15">
-      <c r="A150" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B150" s="65" t="s">
+      <c r="E187" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15">
+      <c r="A188" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B188" s="65" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D188" s="65" t="s">
         <v>1707</v>
       </c>
-      <c r="D150" s="65" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="15">
-      <c r="A151" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B151" s="65" t="s">
+      <c r="E188" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15">
+      <c r="A189" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B189" s="65" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D189" s="65" t="s">
         <v>1708</v>
       </c>
-      <c r="D151" s="65" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="15">
-      <c r="A152" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B152" s="65" t="s">
+      <c r="E189" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15">
+      <c r="A190" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B190" s="65" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D190" s="65" t="s">
         <v>1709</v>
       </c>
-      <c r="D152" s="65" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="15">
-      <c r="A153" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B153" s="65" t="s">
-        <v>1581</v>
-      </c>
-      <c r="D153" s="65" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="15">
-      <c r="A154" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B154" s="65" t="s">
+      <c r="E190" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15">
+      <c r="A191" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B191" s="65" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D191" s="65" t="s">
         <v>1710</v>
       </c>
-      <c r="D154" s="65" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="15">
-      <c r="A155" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B155" s="65" t="s">
+      <c r="E191" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15">
+      <c r="A192" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B192" s="65" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D192" s="65" t="s">
         <v>1711</v>
       </c>
-      <c r="D155" s="65" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="15">
-      <c r="A156" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B156" s="65" t="s">
+      <c r="E192" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15">
+      <c r="A193" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B193" s="65" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D193" s="65" t="s">
         <v>1712</v>
       </c>
-      <c r="D156" s="65" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="15">
-      <c r="A157" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B157" s="65" t="s">
+      <c r="E193" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15">
+      <c r="A194" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B194" s="65" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D194" s="65" t="s">
         <v>1713</v>
       </c>
-      <c r="D157" s="65" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="15">
-      <c r="A158" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B158" s="65" t="s">
-        <v>1587</v>
-      </c>
-      <c r="D158" s="65" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="15">
-      <c r="A159" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B159" s="65" t="s">
+      <c r="E194" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="15">
+      <c r="A195" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B195" s="65" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D195" s="65" t="s">
         <v>1714</v>
       </c>
-      <c r="D159" s="65" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="15">
-      <c r="A160" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B160" s="65" t="s">
-        <v>1590</v>
-      </c>
-      <c r="D160" s="65" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="15">
-      <c r="A161" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B161" s="65" t="s">
+      <c r="E195" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15">
+      <c r="A196" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B196" s="65" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D196" s="65" t="s">
         <v>1715</v>
       </c>
-      <c r="D161" s="65" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15">
-      <c r="A162" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B162" s="65" t="s">
+      <c r="E196" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15">
+      <c r="A197" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B197" s="65" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D197" s="65" t="s">
         <v>1716</v>
       </c>
-      <c r="D162" s="65" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="15">
-      <c r="A163" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B163" s="65" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D163" s="65" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="15">
-      <c r="A164" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B164" s="65" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D164" s="65" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="15">
-      <c r="A165" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B165" s="65" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D165" s="65" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="15">
-      <c r="A166" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B166" s="65" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D166" s="65" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="15">
-      <c r="A167" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B167" s="65" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D167" s="65" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="15">
-      <c r="A168" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B168" s="65" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D168" s="65" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="15">
-      <c r="A169" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B169" s="65" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D169" s="65" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="15">
-      <c r="A170" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B170" s="65" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D170" s="65" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="15">
-      <c r="A171" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B171" s="65" t="s">
+      <c r="E197" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15">
+      <c r="A198" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B198" s="65" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D198" s="65" t="s">
         <v>1717</v>
       </c>
-      <c r="D171" s="65" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="15">
-      <c r="A172" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B172" s="65" t="s">
+      <c r="E198" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15">
+      <c r="A199" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B199" s="65" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D199" s="65" t="s">
         <v>1718</v>
       </c>
-      <c r="D172" s="65" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="15">
-      <c r="A173" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B173" s="65" t="s">
+      <c r="E199" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15">
+      <c r="A200" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B200" s="65" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D200" s="65" t="s">
         <v>1719</v>
       </c>
-      <c r="D173" s="65" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="15">
-      <c r="A174" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B174" s="65" t="s">
+      <c r="E200" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15">
+      <c r="A201" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B201" s="65" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D201" s="65" t="s">
         <v>1720</v>
       </c>
-      <c r="D174" s="65" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="15">
-      <c r="A175" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B175" s="65" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D175" s="65" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="15">
-      <c r="A176" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B176" s="65" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D176" s="65" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="15">
-      <c r="A177" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B177" s="65" t="s">
-        <v>1599</v>
-      </c>
-      <c r="D177" s="65" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="15">
-      <c r="A178" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B178" s="65" t="s">
+      <c r="E201" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15">
+      <c r="A202" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B202" s="65" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D202" s="65" t="s">
         <v>1721</v>
       </c>
-      <c r="D178" s="65" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="15">
-      <c r="A179" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B179" s="65" t="s">
-        <v>1602</v>
-      </c>
-      <c r="D179" s="65" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="15">
-      <c r="A180" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B180" s="65" t="s">
-        <v>1604</v>
-      </c>
-      <c r="D180" s="65" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="15">
-      <c r="A181" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B181" s="65" t="s">
+      <c r="E202" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="15">
+      <c r="A203" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B203" s="65" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D203" s="65" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15">
+      <c r="A204" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B204" s="70" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D204" s="65" t="s">
         <v>1722</v>
       </c>
-      <c r="D181" s="65" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="15">
-      <c r="A182" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B182" s="65" t="s">
+      <c r="E204" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15">
+      <c r="A205" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B205" s="70" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D205" s="65" t="s">
         <v>1723</v>
       </c>
-      <c r="D182" s="65" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="15">
-      <c r="A183" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B183" s="65" t="s">
+      <c r="E205" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15">
+      <c r="A206" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B206" s="70" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D206" s="65" t="s">
         <v>1724</v>
       </c>
-      <c r="D183" s="65" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="15">
-      <c r="A184" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B184" s="65" t="s">
+      <c r="E206" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15">
+      <c r="A207" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B207" s="70" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D207" s="65" t="s">
         <v>1725</v>
       </c>
-      <c r="D184" s="65" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="15">
-      <c r="A185" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B185" s="65" t="s">
+      <c r="E207" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15">
+      <c r="A208" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B208" s="70" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D208" s="65" t="s">
         <v>1726</v>
       </c>
-      <c r="D185" s="65" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="15">
-      <c r="A186" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B186" s="65" t="s">
+      <c r="E208" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15">
+      <c r="A209" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B209" s="70" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D209" s="65" t="s">
         <v>1727</v>
       </c>
-      <c r="D186" s="65" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="15">
-      <c r="A187" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B187" s="65" t="s">
+      <c r="E209" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15">
+      <c r="A210" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B210" s="70" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D210" s="65" t="s">
         <v>1728</v>
       </c>
-      <c r="D187" s="65" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="15">
-      <c r="A188" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B188" s="65" t="s">
+      <c r="E210" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15">
+      <c r="A211" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B211" s="70" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D211" s="65" t="s">
         <v>1729</v>
       </c>
-      <c r="D188" s="65" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="15">
-      <c r="A189" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B189" s="65" t="s">
+      <c r="E211" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15">
+      <c r="A212" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B212" s="70" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D212" s="65" t="s">
         <v>1730</v>
       </c>
-      <c r="D189" s="65" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="15">
-      <c r="A190" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B190" s="65" t="s">
+      <c r="E212" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15">
+      <c r="A213" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B213" s="70" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D213" s="65" t="s">
         <v>1731</v>
       </c>
-      <c r="D190" s="65" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="15">
-      <c r="A191" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B191" s="65" t="s">
+      <c r="E213" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15">
+      <c r="A214" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B214" s="70" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D214" s="65" t="s">
         <v>1732</v>
       </c>
-      <c r="D191" s="65" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="15">
-      <c r="A192" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B192" s="65" t="s">
-        <v>1617</v>
-      </c>
-      <c r="D192" s="65" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="15">
-      <c r="A193" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B193" s="65" t="s">
-        <v>1619</v>
-      </c>
-      <c r="D193" s="65" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="15">
-      <c r="A194" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B194" s="65" t="s">
-        <v>1621</v>
-      </c>
-      <c r="D194" s="65" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="15">
-      <c r="A195" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B195" s="65" t="s">
-        <v>1623</v>
-      </c>
-      <c r="D195" s="65" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="15">
-      <c r="A196" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B196" s="65" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D196" s="65" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="15">
-      <c r="A197" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B197" s="65" t="s">
-        <v>1627</v>
-      </c>
-      <c r="D197" s="65" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="15">
-      <c r="A198" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B198" s="65" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D198" s="65" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="15">
-      <c r="A199" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B199" s="65" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D199" s="65" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="15">
-      <c r="A200" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B200" s="65" t="s">
-        <v>1633</v>
-      </c>
-      <c r="D200" s="65" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="15">
-      <c r="A201" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B201" s="65" t="s">
-        <v>1635</v>
-      </c>
-      <c r="D201" s="65" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="15">
-      <c r="A202" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B202" s="65" t="s">
-        <v>1637</v>
-      </c>
-      <c r="D202" s="65" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="15">
-      <c r="A203" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B203" s="65" t="s">
-        <v>1639</v>
-      </c>
-      <c r="D203" s="65" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="15">
-      <c r="A204" s="2" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B204" s="70" t="s">
-        <v>1641</v>
-      </c>
-      <c r="D204" s="65" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="15">
-      <c r="A205" s="2" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B205" s="70" t="s">
-        <v>1643</v>
-      </c>
-      <c r="D205" s="65" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="15">
-      <c r="A206" s="2" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B206" s="70" t="s">
-        <v>1645</v>
-      </c>
-      <c r="D206" s="65" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="15">
-      <c r="A207" s="2" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B207" s="70" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D207" s="65" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="15">
-      <c r="A208" s="2" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B208" s="70" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D208" s="65" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="15">
-      <c r="A209" s="2" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B209" s="70" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D209" s="65" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="15">
-      <c r="A210" s="2" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B210" s="70" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D210" s="65" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="15">
-      <c r="A211" s="2" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B211" s="70" t="s">
-        <v>1655</v>
-      </c>
-      <c r="D211" s="65" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="15">
-      <c r="A212" s="2" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B212" s="70" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D212" s="65" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="15">
-      <c r="A213" s="2" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B213" s="70" t="s">
-        <v>1659</v>
-      </c>
-      <c r="D213" s="65" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="15">
-      <c r="A214" s="2" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B214" s="70" t="s">
-        <v>1661</v>
-      </c>
-      <c r="D214" s="65" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="15">
+      <c r="E214" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15">
       <c r="A215" s="2" t="s">
-        <v>1667</v>
+        <v>1289</v>
       </c>
       <c r="B215" s="70" t="s">
-        <v>1663</v>
+        <v>1287</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1252</v>
       </c>
       <c r="D215" s="65" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="15">
+        <v>1733</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15">
       <c r="A216" s="2" t="s">
-        <v>1667</v>
+        <v>1289</v>
       </c>
       <c r="B216" s="70" t="s">
-        <v>1627</v>
+        <v>1269</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1252</v>
       </c>
       <c r="D216" s="65" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="15">
+        <v>1716</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15">
       <c r="A217" s="2" t="s">
-        <v>1667</v>
+        <v>1289</v>
       </c>
       <c r="B217" s="70" t="s">
-        <v>1665</v>
+        <v>1288</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1252</v>
       </c>
       <c r="D217" s="65" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
+        <v>1734</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218" s="2"/>
     </row>
   </sheetData>
@@ -15100,10 +15828,10 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="28" t="s">
-        <v>1669</v>
+        <v>1291</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>1670</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16">
@@ -16649,8 +17377,8 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -17076,7 +17804,7 @@
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="6" t="s">
-        <v>1733</v>
+        <v>1355</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>1112</v>
@@ -17371,7 +18099,7 @@
     </row>
     <row r="37" spans="1:10" s="40" customFormat="1" ht="15">
       <c r="A37" s="6" t="s">
-        <v>1733</v>
+        <v>1355</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>1119</v>
@@ -17405,7 +18133,7 @@
     </row>
     <row r="38" spans="1:10" ht="15">
       <c r="A38" s="6" t="s">
-        <v>1733</v>
+        <v>1355</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>1113</v>
@@ -17706,7 +18434,7 @@
     </row>
     <row r="50" spans="1:10" ht="15">
       <c r="A50" s="6" t="s">
-        <v>1733</v>
+        <v>1355</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>1118</v>
@@ -18382,7 +19110,7 @@
         <v>1073</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>1671</v>
+        <v>1293</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="37"/>
@@ -18500,7 +19228,7 @@
         <v>1106</v>
       </c>
       <c r="J7" s="89" t="s">
-        <v>1734</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15">

--- a/static/input_files/ACFR_template.xlsx
+++ b/static/input_files/ACFR_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byflow/Documents/Research/process-xbrl/static/input_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarrahahmed/Desktop/CLOSUP/process-xbrl/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE15D284-3CAD-C943-A8B7-B3909F0F3BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3F0F51-2748-BC4D-B213-20D11DE781AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="15000" windowHeight="18900" tabRatio="834" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="14580" windowHeight="18400" tabRatio="834" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -20,12 +20,14 @@
     <sheet name="Statement of Activities" sheetId="19" r:id="rId5"/>
     <sheet name="GovFund Balance Sheet" sheetId="22" r:id="rId6"/>
     <sheet name="GovFund Stmt of Rev Exp and Chg" sheetId="15" r:id="rId7"/>
-    <sheet name="Prop Fund Stmt of Net Position" sheetId="11" state="hidden" r:id="rId8"/>
-    <sheet name="Prop Fund Stmt of Rev Exp Bal" sheetId="12" state="hidden" r:id="rId9"/>
+    <sheet name="Net pos- Prop Funds" sheetId="23" r:id="rId8"/>
+    <sheet name="Prop Fund Stmt of Net Position" sheetId="11" state="hidden" r:id="rId9"/>
+    <sheet name="Prop Fund Stmt of Rev Exp Bal" sheetId="12" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'GovFund Stmt of Rev Exp and Chg'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Label Dropdowns'!$A$1:$C$522</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Net pos- Prop Funds'!$B$25:$B$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Statement of Activities'!$B$25:$B$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Statement of Net Position'!$B$25:$B$36</definedName>
     <definedName name="current_assets">'Label Dropdowns'!$B$2:$B$204</definedName>
@@ -79,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="1756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="1758">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -5347,6 +5349,12 @@
   </si>
   <si>
     <t>Other Governmental Funds</t>
+  </si>
+  <si>
+    <t>Governmental Activities - Internal Service Fund</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
@@ -5866,7 +5874,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6054,15 +6062,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="44" fontId="13" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -6112,6 +6111,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -6119,6 +6136,135 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
   <dxfs count="55">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -6250,126 +6396,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12650,6 +12676,1364 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A27AB5-4C32-7545-9FCB-B1E2421FAC8B}">
+  <dimension ref="A1:E101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="35.1640625" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16">
+      <c r="A1" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+    </row>
+    <row r="2" spans="1:5" ht="16">
+      <c r="A2" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" ht="34" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+    </row>
+    <row r="4" spans="1:5" ht="16">
+      <c r="A4" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="1:5" ht="32">
+      <c r="A6" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="13" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="8" t="str">
+        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="17">
+        <f>SUM(C9:D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="8" t="str">
+        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="17">
+        <f t="shared" ref="E10:E22" si="0">SUM(C10:D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="8" t="str">
+        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="8" t="str">
+        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="8" t="str">
+        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="8" t="str">
+        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="8" t="str">
+        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="8" t="str">
+        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" s="8" t="str">
+        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15">
+      <c r="A18" s="8" t="str">
+        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15">
+      <c r="A19" s="8" t="str">
+        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" s="8" t="str">
+        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15">
+      <c r="A21" s="8" t="str">
+        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15">
+      <c r="A22" s="8" t="str">
+        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C23" s="17" cm="1">
+        <f t="array" aca="1" ref="C23" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="17" cm="1">
+        <f t="array" aca="1" ref="D23" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <f ca="1">SUM(C23:D23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="13" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" ht="15">
+      <c r="A25" s="8" t="str">
+        <f>IF(B25="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B25,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="17">
+        <f t="shared" ref="E25:E38" si="1">SUM(C25:D25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15">
+      <c r="A26" s="8" t="str">
+        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15">
+      <c r="A27" s="8" t="str">
+        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15">
+      <c r="A28" s="8" t="str">
+        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15">
+      <c r="A29" s="8" t="str">
+        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15">
+      <c r="A30" s="8" t="str">
+        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15">
+      <c r="A31" s="8" t="str">
+        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15">
+      <c r="A32" s="8" t="str">
+        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15">
+      <c r="A33" s="8" t="str">
+        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15">
+      <c r="A34" s="8" t="str">
+        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15">
+      <c r="A35" s="8" t="str">
+        <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B35,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15">
+      <c r="A36" s="8" t="str">
+        <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B36,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15">
+      <c r="A37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="17" cm="1">
+        <f t="array" aca="1" ref="C37" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="17" cm="1">
+        <f t="array" aca="1" ref="D37" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15">
+      <c r="A38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="23" t="e">
+        <f>SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,C:C)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D38" s="23" t="e">
+        <f>SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,D:D),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,D:D)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E38" s="23" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="1:5" ht="15">
+      <c r="A40" s="7"/>
+      <c r="B40" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:5" ht="15">
+      <c r="A41" s="8" t="str">
+        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B41,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="17">
+        <f t="shared" ref="E41:E50" si="2">SUM(C41:D41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15">
+      <c r="A42" s="8" t="str">
+        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15">
+      <c r="A43" s="8" t="str">
+        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15">
+      <c r="A44" s="8" t="str">
+        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15">
+      <c r="A45" s="8" t="str">
+        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15">
+      <c r="A46" s="8" t="str">
+        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15">
+      <c r="A47" s="8" t="str">
+        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15">
+      <c r="A48" s="8" t="str">
+        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15">
+      <c r="A49" s="8" t="str">
+        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15">
+      <c r="A50" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="25" cm="1">
+        <f t="array" aca="1" ref="C50" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED OUTFLOW OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="25" cm="1">
+        <f t="array" aca="1" ref="D50" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED OUTFLOW OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="26">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="24"/>
+    </row>
+    <row r="52" spans="1:5" ht="15">
+      <c r="A52" s="7"/>
+      <c r="B52" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="1:5" ht="15">
+      <c r="A53" s="7"/>
+      <c r="B53" s="15" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+    </row>
+    <row r="54" spans="1:5" ht="15">
+      <c r="A54" s="8" t="str">
+        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="17">
+        <f t="shared" ref="E54:E77" si="3">SUM(C54:D54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15">
+      <c r="A55" s="8" t="str">
+        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15">
+      <c r="A56" s="8" t="str">
+        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15">
+      <c r="A57" s="8" t="str">
+        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15">
+      <c r="A58" s="8" t="str">
+        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15">
+      <c r="A59" s="8" t="str">
+        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15">
+      <c r="A60" s="8" t="str">
+        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15">
+      <c r="A61" s="8" t="str">
+        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15">
+      <c r="A62" s="8" t="str">
+        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15">
+      <c r="A63" s="8" t="str">
+        <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15">
+      <c r="A64" s="8" t="str">
+        <f>IF(B64="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B64,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15">
+      <c r="A65" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="17" cm="1">
+        <f t="array" aca="1" ref="C65" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="17" cm="1">
+        <f t="array" aca="1" ref="D65" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="17">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15">
+      <c r="A66" s="7"/>
+      <c r="B66" s="15" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+    </row>
+    <row r="67" spans="1:5" ht="15">
+      <c r="A67" s="8" t="str">
+        <f>IF(B67="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B67,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15">
+      <c r="A68" s="8" t="str">
+        <f>IF(B68="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B68,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15">
+      <c r="A69" s="8" t="str">
+        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15">
+      <c r="A70" s="8" t="str">
+        <f>IF(B70="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B70,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15">
+      <c r="A71" s="8" t="str">
+        <f>IF(B71="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B71,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15">
+      <c r="A72" s="8" t="str">
+        <f>IF(B72="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B72,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15">
+      <c r="A73" s="8" t="str">
+        <f>IF(B73="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B73,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15">
+      <c r="A74" s="8" t="str">
+        <f>IF(B74="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B74,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B74" s="18"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15">
+      <c r="A75" s="8" t="str">
+        <f>IF(B75="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B75,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B75" s="18"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15">
+      <c r="A76" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="17" cm="1">
+        <f t="array" aca="1" ref="C76" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="17" cm="1">
+        <f t="array" aca="1" ref="D76" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="17">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15">
+      <c r="A77" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="23">
+        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,C:C)))</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="23">
+        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,D:D),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,D:D)))</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+    </row>
+    <row r="79" spans="1:5" ht="15">
+      <c r="A79" s="7"/>
+      <c r="B79" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+    </row>
+    <row r="80" spans="1:5" ht="15">
+      <c r="A80" s="8" t="str">
+        <f>IF(B80="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B80,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="28">
+        <f t="shared" ref="E80:E89" si="4">SUM(C80:D80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15">
+      <c r="A81" s="8" t="str">
+        <f>IF(B81="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B81,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B81" s="18"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15">
+      <c r="A82" s="8" t="str">
+        <f>IF(B82="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B82,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B82" s="18"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15">
+      <c r="A83" s="8" t="str">
+        <f>IF(B83="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B83,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B83" s="18"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15">
+      <c r="A84" s="8" t="str">
+        <f>IF(B84="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B84,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B84" s="18"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15">
+      <c r="A85" s="8" t="str">
+        <f>IF(B85="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B85,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B85" s="18"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15">
+      <c r="A86" s="8" t="str">
+        <f>IF(B86="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B86,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B86" s="18"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15">
+      <c r="A87" s="8" t="str">
+        <f>IF(B87="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B87,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B87" s="18"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15">
+      <c r="A88" s="8" t="str">
+        <f>IF(B88="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B88,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B88" s="18"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15">
+      <c r="A89" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="26" cm="1">
+        <f t="array" aca="1" ref="C89" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED INFLOWS OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="26" cm="1">
+        <f t="array" aca="1" ref="D89" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED INFLOWS OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="26">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15">
+      <c r="A90" s="7"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+    </row>
+    <row r="91" spans="1:5" ht="15">
+      <c r="A91" s="7"/>
+      <c r="B91" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+    </row>
+    <row r="92" spans="1:5" ht="15">
+      <c r="A92" s="8" t="str">
+        <f>IF(B92="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B92,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B92" s="18"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="17">
+        <f t="shared" ref="E92:E100" si="5">SUM(C92:D92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15">
+      <c r="A93" s="8" t="str">
+        <f>IF(B93="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B93,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B93" s="18"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15">
+      <c r="A94" s="8" t="str">
+        <f>IF(B94="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B94,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B94" s="18"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15">
+      <c r="A95" s="8" t="str">
+        <f>IF(B95="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B95,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B95" s="18"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15">
+      <c r="A96" s="8" t="str">
+        <f>IF(B96="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B96,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B96" s="18"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15">
+      <c r="A97" s="8" t="str">
+        <f>IF(B97="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B97,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B97" s="18"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15">
+      <c r="A98" s="8" t="str">
+        <f>IF(B98="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B98,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B98" s="18"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15">
+      <c r="A99" s="8" t="str">
+        <f>IF(B99="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B99,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B99" s="18"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15">
+      <c r="A100" s="8" t="str">
+        <f>IF(B100="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B100,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B100" s="18"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15">
+      <c r="A101" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" s="23" cm="1">
+        <f t="array" aca="1" ref="C101" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D101" s="23" cm="1">
+        <f t="array" aca="1" ref="D101" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="23" cm="1">
+        <f t="array" aca="1" ref="E101" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C101">
+    <cfRule type="cellIs" dxfId="21" priority="4" stopIfTrue="1" operator="equal">
+      <formula>$C$101</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="8" stopIfTrue="1" operator="notEqual">
+      <formula>$C$101</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C101:E101">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D101">
+    <cfRule type="cellIs" dxfId="18" priority="5" stopIfTrue="1" operator="equal">
+      <formula>$D$101</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="notEqual">
+      <formula>$D$101</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="16" priority="6" stopIfTrue="1" operator="notEqual">
+      <formula>$E$101</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+      <formula>$E$101</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41:B49" xr:uid="{9BC0AF47-8E6A-144C-B8AC-ED095E97A81D}">
+      <formula1>deferred_outflows</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54:B64" xr:uid="{5C058698-9073-DC49-8BB5-F4FB5112E246}">
+      <formula1>current_liabilities</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67:B75" xr:uid="{3F616EBA-A90E-4541-9183-0F01CFC3F5F8}">
+      <formula1>noncurrent_liabilities</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B88" xr:uid="{EBEC4932-F8CB-1846-89BE-0CC169CA7F33}">
+      <formula1>deferred_inflows</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92:B100" xr:uid="{8A04D23E-8118-1A4B-8A84-8F6AD5B16721}">
+      <formula1>net_position</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B36" xr:uid="{FA5EF3AC-325A-BC4B-874B-CA2CF2946D73}">
+      <formula1>noncurrent_assets</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B22" xr:uid="{5C4A5840-DD0A-C841-8FFC-758CD4B37D08}">
+      <formula1>current_assets</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF490C29-31E1-3E46-B6B7-83D944E71A74}">
   <dimension ref="A1:H218"/>
@@ -15714,8 +17098,8 @@
   </sheetPr>
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -17214,8 +18598,8 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -17685,21 +19069,25 @@
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="8" t="str">
         <f>IF(B25="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B25,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B25,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B25,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
+        <v>RevenueUsedForSecurityOfPersonsAndPropertyServices,ExpensesForSecurityOfPersonsAndPropertyServices,NetExpenseRevenueForSecurityOfPersonsAndPropertyServices</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C25" s="19">
+        <v>23</v>
+      </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="65"/>
-      <c r="H25" s="65" t="str">
+      <c r="H25" s="65">
         <f>IF(OR(H$6="", $B25=""),"",SUM(E25:F25)-C25)</f>
-        <v/>
-      </c>
-      <c r="I25" s="17" t="str">
-        <f t="shared" ref="I25:I36" si="3">IF(OR(I$6="", B25=""),"",SUM(G25:H25))</f>
-        <v/>
+        <v>-23</v>
+      </c>
+      <c r="I25" s="17">
+        <f>IF(OR(I$6="", B25=""),"",SUM(G25:H25))</f>
+        <v>-23</v>
       </c>
       <c r="J25" s="65"/>
     </row>
@@ -17715,11 +19103,11 @@
       <c r="F26" s="20"/>
       <c r="G26" s="65"/>
       <c r="H26" s="65" t="str">
-        <f t="shared" ref="H26:H36" si="4">IF(OR(H$6="", $B26=""),"",SUM(E26:F26)-C26)</f>
+        <f>IF(OR(H$6="", $B26=""),"",SUM(E26:F26)-C26)</f>
         <v/>
       </c>
       <c r="I26" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(I$6="", B26=""),"",SUM(G26:H26))</f>
         <v/>
       </c>
       <c r="J26" s="65"/>
@@ -17736,11 +19124,11 @@
       <c r="F27" s="20"/>
       <c r="G27" s="65"/>
       <c r="H27" s="65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H27:H36" si="3">IF(OR(H$6="", $B27=""),"",SUM(E27:F27)-C27)</f>
         <v/>
       </c>
       <c r="I27" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I27:I36" si="4">IF(OR(I$6="", B27=""),"",SUM(G27:H27))</f>
         <v/>
       </c>
       <c r="J27" s="65"/>
@@ -17757,11 +19145,11 @@
       <c r="F28" s="20"/>
       <c r="G28" s="65"/>
       <c r="H28" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I28" s="17" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I28" s="17" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J28" s="65"/>
@@ -17778,11 +19166,11 @@
       <c r="F29" s="20"/>
       <c r="G29" s="65"/>
       <c r="H29" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I29" s="17" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I29" s="17" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J29" s="65"/>
@@ -17799,11 +19187,11 @@
       <c r="F30" s="19"/>
       <c r="G30" s="65"/>
       <c r="H30" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I30" s="17" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I30" s="17" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J30" s="65"/>
@@ -17820,11 +19208,11 @@
       <c r="F31" s="19"/>
       <c r="G31" s="65"/>
       <c r="H31" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I31" s="17" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I31" s="17" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J31" s="65"/>
@@ -17841,11 +19229,11 @@
       <c r="F32" s="19"/>
       <c r="G32" s="65"/>
       <c r="H32" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I32" s="17" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I32" s="17" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J32" s="65"/>
@@ -17862,11 +19250,11 @@
       <c r="F33" s="19"/>
       <c r="G33" s="65"/>
       <c r="H33" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I33" s="17" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I33" s="17" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J33" s="65"/>
@@ -17883,11 +19271,11 @@
       <c r="F34" s="19"/>
       <c r="G34" s="65"/>
       <c r="H34" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I34" s="17" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I34" s="17" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J34" s="65"/>
@@ -17904,11 +19292,11 @@
       <c r="F35" s="19"/>
       <c r="G35" s="65"/>
       <c r="H35" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I35" s="17" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I35" s="17" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J35" s="65"/>
@@ -17925,11 +19313,11 @@
       <c r="F36" s="19"/>
       <c r="G36" s="65"/>
       <c r="H36" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I36" s="17" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I36" s="17" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J36" s="65"/>
@@ -17943,7 +19331,7 @@
       </c>
       <c r="C37" s="17">
         <f>IF(C6="","",SUM(C25:C36))</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D37" s="17">
         <f>IF(D6="","",SUM(D25:D36))</f>
@@ -17960,11 +19348,11 @@
       <c r="G37" s="17"/>
       <c r="H37" s="17">
         <f t="shared" ref="H37" si="7">IF(H6="","",SUM(H25:H36))</f>
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="I37" s="17">
         <f>IF(I$6="","",SUM(I25:I36))</f>
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="J37" s="17"/>
     </row>
@@ -17977,7 +19365,7 @@
       </c>
       <c r="C38" s="23">
         <f>C23+C37</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D38" s="23">
         <f t="shared" ref="D38:G38" si="8">D23+D37</f>
@@ -17997,11 +19385,11 @@
       </c>
       <c r="H38" s="25">
         <f t="shared" ref="H38:I38" si="9">IF(H$6="","",H23+H37)</f>
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="I38" s="25">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="J38" s="25"/>
     </row>
@@ -18921,21 +20309,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62560919-E4A0-3A4F-9164-3F35B35B852C}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="121" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="118" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17">
       <c r="A1" s="45" t="s">
         <v>1074</v>
       </c>
-      <c r="B1" s="113" t="str">
+      <c r="B1" s="110" t="str">
         <f>_xlfn.CONCAT('Master Info'!C2, ", ", 'Master Info'!$C$3)</f>
         <v>City of Clayton, California</v>
       </c>
@@ -18969,7 +20357,7 @@
       <c r="A4" s="48" t="s">
         <v>1076</v>
       </c>
-      <c r="B4" s="114">
+      <c r="B4" s="111">
         <f>'Master Info'!C4</f>
         <v>44742</v>
       </c>
@@ -18988,7 +20376,7 @@
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="115"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="12" t="s">
         <v>1083</v>
       </c>
@@ -19004,16 +20392,16 @@
       <c r="G6" s="12" t="s">
         <v>1754</v>
       </c>
-      <c r="H6" s="105" t="s">
+      <c r="H6" s="102" t="s">
         <v>1755</v>
       </c>
-      <c r="I6" s="105" t="s">
+      <c r="I6" s="102" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16">
       <c r="A7" s="7"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="113" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="14"/>
@@ -19021,23 +20409,23 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="8" t="str">
         <f>IF(B8="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B8,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B8" s="117"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107">
-        <f>SUM(C8:H8)</f>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104">
+        <f t="shared" ref="I8:I13" si="0">SUM(C8:H8)</f>
         <v>0</v>
       </c>
     </row>
@@ -19046,15 +20434,15 @@
         <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B9" s="117"/>
+      <c r="B9" s="114"/>
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107">
-        <f>SUM(C9:H9)</f>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -19063,15 +20451,15 @@
         <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B10" s="117"/>
+      <c r="B10" s="114"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107">
-        <f>SUM(C10:H10)</f>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -19080,15 +20468,15 @@
         <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B11" s="117"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="19"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107">
-        <f>SUM(C11:H11)</f>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -19097,15 +20485,15 @@
         <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B12" s="117"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107">
-        <f>SUM(C12:H12)</f>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -19114,15 +20502,15 @@
         <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B13" s="117"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="19"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107">
-        <f>SUM(C13:H13)</f>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -19131,15 +20519,15 @@
         <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B14" s="117"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107">
-        <f t="shared" ref="I14:I15" si="0">SUM(C14:H14)</f>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104">
+        <f t="shared" ref="I14:I15" si="1">SUM(C14:H14)</f>
         <v>0</v>
       </c>
     </row>
@@ -19148,15 +20536,15 @@
         <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B15" s="117"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="19"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107">
-        <f t="shared" si="0"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -19165,14 +20553,14 @@
         <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B16" s="117"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107">
+      <c r="H16" s="104"/>
+      <c r="I16" s="104">
         <f>SUM(C16:H16)</f>
         <v>0</v>
       </c>
@@ -19181,7 +20569,7 @@
       <c r="A17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="118" t="s">
+      <c r="B17" s="115" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="23">
@@ -19193,28 +20581,28 @@
         <v>0</v>
       </c>
       <c r="E17" s="23">
-        <f t="shared" ref="E17:H17" si="1">SUM(E8:E16)</f>
+        <f t="shared" ref="E17:H17" si="2">SUM(E8:E16)</f>
         <v>0</v>
       </c>
       <c r="F17" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G17" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H17" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="105">
         <f>SUM(C17:H17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="32">
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="113" t="s">
         <v>1747</v>
       </c>
       <c r="C18" s="14"/>
@@ -19222,11 +20610,11 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
     </row>
     <row r="19" spans="1:9" ht="16">
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="116" t="s">
         <v>1748</v>
       </c>
       <c r="H19" s="2"/>
@@ -19237,14 +20625,14 @@
         <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B20" s="117"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109">
+      <c r="H20" s="106"/>
+      <c r="I20" s="106">
         <f>SUM(C20:H20)</f>
         <v>0</v>
       </c>
@@ -19254,15 +20642,15 @@
         <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B21" s="117"/>
+      <c r="B21" s="114"/>
       <c r="C21" s="20"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="109">
-        <f t="shared" ref="I21:I24" si="2">SUM(C21:H21)</f>
+      <c r="H21" s="107"/>
+      <c r="I21" s="106">
+        <f t="shared" ref="I21:I24" si="3">SUM(C21:H21)</f>
         <v>0</v>
       </c>
     </row>
@@ -19271,15 +20659,15 @@
         <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B22" s="117"/>
+      <c r="B22" s="114"/>
       <c r="C22" s="19"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="109">
-        <f t="shared" si="2"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="106">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -19288,15 +20676,15 @@
         <f>IF(B23="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B23,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B23" s="117"/>
+      <c r="B23" s="114"/>
       <c r="C23" s="19"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="109">
-        <f t="shared" si="2"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="106">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -19305,15 +20693,15 @@
         <f>IF(B24="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B24,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B24" s="117"/>
+      <c r="B24" s="114"/>
       <c r="C24" s="19"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="109">
-        <f t="shared" si="2"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="106">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -19321,40 +20709,40 @@
       <c r="A25" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="104">
+      <c r="C25" s="101">
         <f>SUM(C20:C24)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="104">
-        <f t="shared" ref="D25:H25" si="3">SUM(D20:D24)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="111">
+      <c r="D25" s="101">
+        <f t="shared" ref="D25:H25" si="4">SUM(D20:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="108">
         <f>SUM(C25:H25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16">
-      <c r="B26" s="119" t="s">
+      <c r="B26" s="116" t="s">
         <v>1749</v>
       </c>
       <c r="H26" s="2"/>
@@ -19365,20 +20753,20 @@
         <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B27" s="117"/>
+      <c r="B27" s="114"/>
       <c r="C27" s="19"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
     </row>
     <row r="28" spans="1:9" ht="16">
       <c r="A28" s="8" t="s">
         <v>1751</v>
       </c>
-      <c r="B28" s="120" t="s">
+      <c r="B28" s="117" t="s">
         <v>46</v>
       </c>
       <c r="C28" s="17">
@@ -19390,19 +20778,19 @@
         <v>0</v>
       </c>
       <c r="E28" s="17">
-        <f t="shared" ref="E28:H28" si="4">SUM(E27)</f>
+        <f t="shared" ref="E28:H28" si="5">SUM(E27)</f>
         <v>0</v>
       </c>
       <c r="F28" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G28" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H28" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I28" s="17">
@@ -19411,7 +20799,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="16">
-      <c r="B29" s="119" t="s">
+      <c r="B29" s="116" t="s">
         <v>1750</v>
       </c>
       <c r="H29" s="2"/>
@@ -19422,15 +20810,15 @@
         <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B30" s="117"/>
+      <c r="B30" s="114"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109">
-        <f>SUM(C30:H30)</f>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106">
+        <f t="shared" ref="I30:I35" si="6">SUM(C30:H30)</f>
         <v>0</v>
       </c>
     </row>
@@ -19439,15 +20827,15 @@
         <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B31" s="117"/>
+      <c r="B31" s="114"/>
       <c r="C31" s="20"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110">
-        <f>SUM(C31:H31)</f>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -19456,15 +20844,15 @@
         <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B32" s="117"/>
+      <c r="B32" s="114"/>
       <c r="C32" s="19"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107">
-        <f>SUM(C32:H32)</f>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -19473,15 +20861,15 @@
         <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B33" s="117"/>
+      <c r="B33" s="114"/>
       <c r="C33" s="19"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107">
-        <f>SUM(C33:H33)</f>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -19490,15 +20878,15 @@
         <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B34" s="117"/>
+      <c r="B34" s="114"/>
       <c r="C34" s="19"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107">
-        <f>SUM(C34:H34)</f>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -19506,35 +20894,35 @@
       <c r="A35" s="8" t="s">
         <v>1751</v>
       </c>
-      <c r="B35" s="120" t="s">
+      <c r="B35" s="117" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="17">
-        <f>SUM(C30:C34)</f>
+        <f t="shared" ref="C35:H35" si="7">SUM(C30:C34)</f>
         <v>0</v>
       </c>
       <c r="D35" s="17">
-        <f>SUM(D30:D34)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E35" s="17">
-        <f>SUM(E30:E34)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F35" s="17">
-        <f>SUM(F30:F34)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G35" s="17">
-        <f>SUM(G30:G34)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="111">
-        <f>SUM(H30:H34)</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="111">
-        <f>SUM(C35:H35)</f>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="108">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="108">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -19542,7 +20930,7 @@
       <c r="A36" s="9" t="s">
         <v>1751</v>
       </c>
-      <c r="B36" s="118" t="s">
+      <c r="B36" s="115" t="s">
         <v>1752</v>
       </c>
       <c r="C36" s="23"/>
@@ -19550,118 +20938,53 @@
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="108"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D6:E7">
-    <cfRule type="expression" dxfId="38" priority="23" stopIfTrue="1">
-      <formula>D$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D16">
-    <cfRule type="expression" dxfId="37" priority="22" stopIfTrue="1">
-      <formula>D$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E16">
-    <cfRule type="expression" dxfId="36" priority="21" stopIfTrue="1">
-      <formula>E$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:G18">
-    <cfRule type="expression" dxfId="35" priority="20" stopIfTrue="1">
-      <formula>D$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D24">
-    <cfRule type="expression" dxfId="32" priority="18" stopIfTrue="1">
-      <formula>D$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E24">
-    <cfRule type="expression" dxfId="31" priority="17" stopIfTrue="1">
-      <formula>E$6=""</formula>
+  <conditionalFormatting sqref="C35:G35">
+    <cfRule type="expression" dxfId="38" priority="10" stopIfTrue="1">
+      <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:H25">
-    <cfRule type="expression" dxfId="30" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="16" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="29" priority="15" stopIfTrue="1">
-      <formula>D$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:G27">
-    <cfRule type="expression" dxfId="28" priority="14" stopIfTrue="1">
-      <formula>E$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D34">
-    <cfRule type="expression" dxfId="27" priority="13" stopIfTrue="1">
-      <formula>D$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E34">
-    <cfRule type="expression" dxfId="26" priority="12" stopIfTrue="1">
-      <formula>E$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C28:I28">
-    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
-      <formula>C$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35:G35">
-    <cfRule type="expression" dxfId="24" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="11" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="23" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="9" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F7">
-    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
-      <formula>F$6=""</formula>
+  <conditionalFormatting sqref="D6:G16">
+    <cfRule type="expression" dxfId="34" priority="3" stopIfTrue="1">
+      <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F16">
-    <cfRule type="expression" dxfId="21" priority="7" stopIfTrue="1">
-      <formula>F$6=""</formula>
+  <conditionalFormatting sqref="D18:G18">
+    <cfRule type="expression" dxfId="33" priority="20" stopIfTrue="1">
+      <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F24">
-    <cfRule type="expression" dxfId="20" priority="6" stopIfTrue="1">
-      <formula>F$6=""</formula>
+  <conditionalFormatting sqref="D20:G24">
+    <cfRule type="expression" dxfId="32" priority="2" stopIfTrue="1">
+      <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F34">
-    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
-      <formula>F$6=""</formula>
+  <conditionalFormatting sqref="D27:G27">
+    <cfRule type="expression" dxfId="31" priority="14" stopIfTrue="1">
+      <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G7">
-    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
-      <formula>G$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G16">
-    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
-      <formula>G$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G24">
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
-      <formula>G$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:G34">
-    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
-      <formula>G$6=""</formula>
+  <conditionalFormatting sqref="D30:G34">
+    <cfRule type="expression" dxfId="30" priority="1" stopIfTrue="1">
+      <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -19683,8 +21006,8 @@
   </sheetPr>
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView topLeftCell="A2" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -21039,7 +22362,7 @@
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="D7:I7 D8:J23 C23 D25:J36 C36 C37:J37 D38:J71 C60:J60 C70">
-    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="17" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21072,6 +22395,1293 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5D60E7-C507-2A4A-AE8A-D4E05E209746}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:J78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="41.5" style="50" customWidth="1"/>
+    <col min="3" max="10" width="18.6640625" style="50" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16">
+      <c r="A1" s="45" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B1" s="59" t="str">
+        <f>_xlfn.CONCAT('Master Info'!C2, ", ", 'Master Info'!$C$3)</f>
+        <v>City of Clayton, California</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="49"/>
+    </row>
+    <row r="2" spans="1:10" ht="16">
+      <c r="A2" s="46" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="49"/>
+    </row>
+    <row r="3" spans="1:10" ht="16">
+      <c r="A3" s="46" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="49"/>
+    </row>
+    <row r="4" spans="1:10" ht="17" thickBot="1">
+      <c r="A4" s="48" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B4" s="60">
+        <f>'Master Info'!C4</f>
+        <v>44742</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="49"/>
+    </row>
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="16">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="1:10" ht="48">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D6" s="122" t="str">
+        <f>IF(AND('Master Info'!C5="N",'Master Info'!C6="N"), "",  IF('Master Info'!C5="N", "Component Units", "Business-Type Activities - Enterprise Funds"))</f>
+        <v>Business-Type Activities - Enterprise Funds</v>
+      </c>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="8" t="str">
+        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="8" t="str">
+        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="8" t="str">
+        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="8" t="str">
+        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="8" t="str">
+        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" ht="15">
+      <c r="A14" s="8" t="str">
+        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="8" t="str">
+        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="8" t="str">
+        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" ht="15">
+      <c r="A17" s="8" t="str">
+        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" hidden="1">
+      <c r="A18" s="8" t="str">
+        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" hidden="1">
+      <c r="A19" s="8" t="str">
+        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" hidden="1">
+      <c r="A20" s="8" t="str">
+        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" hidden="1">
+      <c r="A21" s="8" t="str">
+        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10" ht="15">
+      <c r="A22" s="8" t="str">
+        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:10" ht="15">
+      <c r="A23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="17">
+        <f>IF(C6="","",SUM(C9:C22))</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17">
+        <f>IF(D6="","",SUM(J9:J22))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="1:10" ht="15">
+      <c r="A25" s="8" t="str">
+        <f>IF(B25="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B25,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" ht="15">
+      <c r="A26" s="8" t="str">
+        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="1:10" ht="15">
+      <c r="A27" s="8" t="str">
+        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="1:10" ht="15">
+      <c r="A28" s="8" t="str">
+        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:10" ht="15">
+      <c r="A29" s="8" t="str">
+        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="1:10" ht="15">
+      <c r="A30" s="8" t="str">
+        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="1:10" ht="15">
+      <c r="A31" s="8" t="str">
+        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" hidden="1">
+      <c r="A32" s="8" t="str">
+        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" hidden="1">
+      <c r="A33" s="8" t="str">
+        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+    </row>
+    <row r="34" spans="1:10" ht="15" hidden="1">
+      <c r="A34" s="8" t="str">
+        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" hidden="1">
+      <c r="A35" s="8" t="str">
+        <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B35,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+    </row>
+    <row r="36" spans="1:10" ht="15" hidden="1">
+      <c r="A36" s="8" t="str">
+        <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B36,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+    </row>
+    <row r="37" spans="1:10" s="52" customFormat="1" ht="15">
+      <c r="A37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="17">
+        <f>IF(C6="","",SUM(C25:C36))</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17">
+        <f>IF(D6="","",SUM(J25:J36))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15">
+      <c r="A38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="23">
+        <f>SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,C:C)))</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23">
+        <f>IF(D6="", "", IF(D$6="", "",SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,J:J),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,J:J)))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+    </row>
+    <row r="40" spans="1:10" ht="15">
+      <c r="A40" s="7"/>
+      <c r="B40" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+    </row>
+    <row r="41" spans="1:10" ht="15">
+      <c r="A41" s="7"/>
+      <c r="B41" s="15" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" spans="1:10" ht="15">
+      <c r="A42" s="8" t="str">
+        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+    </row>
+    <row r="43" spans="1:10" ht="15">
+      <c r="A43" s="8" t="str">
+        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="19"/>
+    </row>
+    <row r="44" spans="1:10" ht="15">
+      <c r="A44" s="8" t="str">
+        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="1:10" ht="16" customHeight="1">
+      <c r="A45" s="8" t="str">
+        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="1:10" ht="16" customHeight="1">
+      <c r="A46" s="8" t="str">
+        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="1:10" ht="16" customHeight="1">
+      <c r="A47" s="8" t="str">
+        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="1:10" ht="16" hidden="1" customHeight="1">
+      <c r="A48" s="8" t="str">
+        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="1:10" ht="16" hidden="1" customHeight="1">
+      <c r="A49" s="8" t="str">
+        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="1:10" ht="15" hidden="1">
+      <c r="A50" s="8" t="str">
+        <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="1:10" ht="15" hidden="1">
+      <c r="A51" s="8" t="str">
+        <f>IF(B51="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B51,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="1:10" ht="15" hidden="1">
+      <c r="A52" s="8" t="str">
+        <f>IF(B52="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B52,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="1:10" ht="15">
+      <c r="A53" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="17">
+        <f>IF(C6="","",SUM(C42:C52))</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17">
+        <f>IF(D6="","",SUM(J42:J52))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15">
+      <c r="A54" s="7"/>
+      <c r="B54" s="15" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+    </row>
+    <row r="55" spans="1:10" ht="15">
+      <c r="A55" s="8" t="str">
+        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="1:10" ht="15">
+      <c r="A56" s="8" t="str">
+        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="1:10" ht="15">
+      <c r="A57" s="8" t="str">
+        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="1:10" ht="15">
+      <c r="A58" s="8" t="str">
+        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="1:10" ht="15" hidden="1">
+      <c r="A59" s="8" t="str">
+        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="20"/>
+    </row>
+    <row r="60" spans="1:10" ht="15" hidden="1">
+      <c r="A60" s="8" t="str">
+        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="20"/>
+    </row>
+    <row r="61" spans="1:10" ht="15" hidden="1">
+      <c r="A61" s="8" t="str">
+        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="1:10" ht="15" hidden="1">
+      <c r="A62" s="8" t="str">
+        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="20"/>
+    </row>
+    <row r="63" spans="1:10" ht="15" hidden="1">
+      <c r="A63" s="8" t="str">
+        <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="20"/>
+    </row>
+    <row r="64" spans="1:10" ht="15">
+      <c r="A64" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="17">
+        <f>IF(C6="","",SUM(C55:C63))</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17">
+        <f>IF(D$6="","",SUM(J55:J63))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15">
+      <c r="A65" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="23">
+        <f>SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,C:C)))</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23">
+        <f>IF(D$6="","", SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,J:J),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,J:J))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+    </row>
+    <row r="67" spans="1:10" ht="15">
+      <c r="A67" s="7"/>
+      <c r="B67" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+    </row>
+    <row r="68" spans="1:10" ht="15">
+      <c r="A68" s="8" t="str">
+        <f>IF(B68="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B68,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+    </row>
+    <row r="69" spans="1:10" ht="15">
+      <c r="A69" s="8" t="str">
+        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+    </row>
+    <row r="70" spans="1:10" ht="15">
+      <c r="A70" s="8" t="str">
+        <f>IF(B70="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B70,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+    </row>
+    <row r="71" spans="1:10" ht="15">
+      <c r="A71" s="8" t="str">
+        <f>IF(B71="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B71,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+    </row>
+    <row r="72" spans="1:10" ht="15" hidden="1">
+      <c r="A72" s="8" t="str">
+        <f>IF(B72="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B72,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+    </row>
+    <row r="73" spans="1:10" ht="15" hidden="1">
+      <c r="A73" s="8" t="str">
+        <f>IF(B73="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B73,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+    </row>
+    <row r="74" spans="1:10" ht="15" hidden="1">
+      <c r="A74" s="8" t="str">
+        <f>IF(B74="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B74,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B74" s="18"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+    </row>
+    <row r="75" spans="1:10" ht="15" hidden="1">
+      <c r="A75" s="8" t="str">
+        <f>IF(B75="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B75,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B75" s="18"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
+    </row>
+    <row r="76" spans="1:10" ht="15" hidden="1">
+      <c r="A76" s="8" t="str">
+        <f>IF(B76="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B76,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+    </row>
+    <row r="77" spans="1:10" ht="15">
+      <c r="A77" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="23">
+        <f>IF(C6="","",SUM(C68:C76))</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23">
+        <f>IF(D6="","",SUM(J68:J76))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="16">
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="54"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="D6:J6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C77:J77">
+    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="notEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23 E23:I23 C37 E37:I37 C53 E53:I53 C64:C65 E64:I65 C77 E77:I77 D6">
+    <cfRule type="expression" dxfId="11" priority="2" stopIfTrue="1">
+      <formula>C$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23 D37 D53 D64:D65 D77">
+    <cfRule type="expression" dxfId="10" priority="52" stopIfTrue="1">
+      <formula>#REF!=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:J77">
+    <cfRule type="expression" dxfId="9" priority="63" stopIfTrue="1">
+      <formula>D$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+      <formula>COUNTA(D2:I2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B22" xr:uid="{4ACEF289-BA82-0D45-BE07-7C664A3BFA9F}">
+      <formula1>current_assets</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B36" xr:uid="{50343035-3D84-CE4B-BD07-B450B6534013}">
+      <formula1>noncurrent_assets</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68:B76" xr:uid="{65B0B3CB-CAE4-9F49-9204-BCF554447293}">
+      <formula1>net_position</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55:B63" xr:uid="{537F271F-BE04-EA40-A07A-DAF7A262A683}">
+      <formula1>noncurrent_liabilities</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42:B52" xr:uid="{A09DF45D-000F-084D-9A3D-7620B2077E7C}">
+      <formula1>current_liabilities</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788A9A8B-CD70-4E43-B731-FB7C17794303}">
   <dimension ref="A1:E102"/>
   <sheetViews>
@@ -21367,12 +23977,12 @@
     </row>
     <row r="25" spans="1:5" ht="15">
       <c r="A25" s="7"/>
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="103"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="121"/>
     </row>
     <row r="26" spans="1:5" ht="15">
       <c r="A26" s="8" t="str">
@@ -22389,31 +24999,31 @@
     <mergeCell ref="B25:E25"/>
   </mergeCells>
   <conditionalFormatting sqref="C102">
-    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="4" stopIfTrue="1" operator="equal">
       <formula>$C$102</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="27" priority="8" stopIfTrue="1" operator="notEqual">
       <formula>$C$102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102:E102">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" stopIfTrue="1" operator="equal">
       <formula>$D$102</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="notEqual">
       <formula>$D$102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>$E$102</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>$E$102</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22442,1362 +25052,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A27AB5-4C32-7545-9FCB-B1E2421FAC8B}">
-  <dimension ref="A1:E101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="35.1640625" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16">
-      <c r="A1" s="4" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-    </row>
-    <row r="2" spans="1:5" ht="16">
-      <c r="A2" s="4" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-    </row>
-    <row r="3" spans="1:5" ht="34" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-    </row>
-    <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="5" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-    </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="37"/>
-    </row>
-    <row r="6" spans="1:5" ht="32">
-      <c r="A6" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="13" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="8" t="str">
-        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="17">
-        <f>SUM(C9:D9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="8" t="str">
-        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="17">
-        <f t="shared" ref="E10:E22" si="0">SUM(C10:D10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="8" t="str">
-        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15">
-      <c r="A12" s="8" t="str">
-        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15">
-      <c r="A13" s="8" t="str">
-        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15">
-      <c r="A14" s="8" t="str">
-        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15">
-      <c r="A15" s="8" t="str">
-        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15">
-      <c r="A16" s="8" t="str">
-        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15">
-      <c r="A17" s="8" t="str">
-        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15">
-      <c r="A18" s="8" t="str">
-        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15">
-      <c r="A19" s="8" t="str">
-        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15">
-      <c r="A20" s="8" t="str">
-        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15">
-      <c r="A21" s="8" t="str">
-        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15">
-      <c r="A22" s="8" t="str">
-        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C23" s="17" cm="1">
-        <f t="array" aca="1" ref="C23" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="17" cm="1">
-        <f t="array" aca="1" ref="D23" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="17">
-        <f ca="1">SUM(C23:D23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="13" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" ht="15">
-      <c r="A25" s="8" t="str">
-        <f>IF(B25="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B25,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="17">
-        <f t="shared" ref="E25:E38" si="1">SUM(C25:D25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15">
-      <c r="A26" s="8" t="str">
-        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15">
-      <c r="A27" s="8" t="str">
-        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15">
-      <c r="A28" s="8" t="str">
-        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15">
-      <c r="A29" s="8" t="str">
-        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15">
-      <c r="A30" s="8" t="str">
-        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15">
-      <c r="A31" s="8" t="str">
-        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15">
-      <c r="A32" s="8" t="str">
-        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15">
-      <c r="A33" s="8" t="str">
-        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15">
-      <c r="A34" s="8" t="str">
-        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15">
-      <c r="A35" s="8" t="str">
-        <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B35,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15">
-      <c r="A36" s="8" t="str">
-        <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B36,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15">
-      <c r="A37" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="17" cm="1">
-        <f t="array" aca="1" ref="C37" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="17" cm="1">
-        <f t="array" aca="1" ref="D37" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15">
-      <c r="A38" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="23" t="e">
-        <f>SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,C:C)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D38" s="23" t="e">
-        <f>SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,D:D),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,D:D)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E38" s="23" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-    </row>
-    <row r="40" spans="1:5" ht="15">
-      <c r="A40" s="7"/>
-      <c r="B40" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="1:5" ht="15">
-      <c r="A41" s="8" t="str">
-        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B41,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="17">
-        <f t="shared" ref="E41:E50" si="2">SUM(C41:D41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15">
-      <c r="A42" s="8" t="str">
-        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15">
-      <c r="A43" s="8" t="str">
-        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15">
-      <c r="A44" s="8" t="str">
-        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15">
-      <c r="A45" s="8" t="str">
-        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15">
-      <c r="A46" s="8" t="str">
-        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15">
-      <c r="A47" s="8" t="str">
-        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15">
-      <c r="A48" s="8" t="str">
-        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15">
-      <c r="A49" s="8" t="str">
-        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15">
-      <c r="A50" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="25" cm="1">
-        <f t="array" aca="1" ref="C50" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED OUTFLOW OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="25" cm="1">
-        <f t="array" aca="1" ref="D50" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED OUTFLOW OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="26">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="24"/>
-    </row>
-    <row r="52" spans="1:5" ht="15">
-      <c r="A52" s="7"/>
-      <c r="B52" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-    </row>
-    <row r="53" spans="1:5" ht="15">
-      <c r="A53" s="7"/>
-      <c r="B53" s="15" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-    </row>
-    <row r="54" spans="1:5" ht="15">
-      <c r="A54" s="8" t="str">
-        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="17">
-        <f t="shared" ref="E54:E77" si="3">SUM(C54:D54)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15">
-      <c r="A55" s="8" t="str">
-        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15">
-      <c r="A56" s="8" t="str">
-        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15">
-      <c r="A57" s="8" t="str">
-        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15">
-      <c r="A58" s="8" t="str">
-        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15">
-      <c r="A59" s="8" t="str">
-        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15">
-      <c r="A60" s="8" t="str">
-        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B60" s="18"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15">
-      <c r="A61" s="8" t="str">
-        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15">
-      <c r="A62" s="8" t="str">
-        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15">
-      <c r="A63" s="8" t="str">
-        <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15">
-      <c r="A64" s="8" t="str">
-        <f>IF(B64="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B64,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15">
-      <c r="A65" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="17" cm="1">
-        <f t="array" aca="1" ref="C65" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="17" cm="1">
-        <f t="array" aca="1" ref="D65" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="17">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15">
-      <c r="A66" s="7"/>
-      <c r="B66" s="15" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-    </row>
-    <row r="67" spans="1:5" ht="15">
-      <c r="A67" s="8" t="str">
-        <f>IF(B67="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B67,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B67" s="18"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15">
-      <c r="A68" s="8" t="str">
-        <f>IF(B68="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B68,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15">
-      <c r="A69" s="8" t="str">
-        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B69" s="18"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15">
-      <c r="A70" s="8" t="str">
-        <f>IF(B70="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B70,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15">
-      <c r="A71" s="8" t="str">
-        <f>IF(B71="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B71,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15">
-      <c r="A72" s="8" t="str">
-        <f>IF(B72="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B72,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15">
-      <c r="A73" s="8" t="str">
-        <f>IF(B73="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B73,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15">
-      <c r="A74" s="8" t="str">
-        <f>IF(B74="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B74,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15">
-      <c r="A75" s="8" t="str">
-        <f>IF(B75="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B75,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15">
-      <c r="A76" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="17" cm="1">
-        <f t="array" aca="1" ref="C76" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="D76" s="17" cm="1">
-        <f t="array" aca="1" ref="D76" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="E76" s="17">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15">
-      <c r="A77" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C77" s="23">
-        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,C:C)))</f>
-        <v>0</v>
-      </c>
-      <c r="D77" s="23">
-        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,D:D),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,D:D)))</f>
-        <v>0</v>
-      </c>
-      <c r="E77" s="23">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-    </row>
-    <row r="79" spans="1:5" ht="15">
-      <c r="A79" s="7"/>
-      <c r="B79" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-    </row>
-    <row r="80" spans="1:5" ht="15">
-      <c r="A80" s="8" t="str">
-        <f>IF(B80="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B80,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="28">
-        <f t="shared" ref="E80:E89" si="4">SUM(C80:D80)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15">
-      <c r="A81" s="8" t="str">
-        <f>IF(B81="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B81,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15">
-      <c r="A82" s="8" t="str">
-        <f>IF(B82="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B82,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15">
-      <c r="A83" s="8" t="str">
-        <f>IF(B83="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B83,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15">
-      <c r="A84" s="8" t="str">
-        <f>IF(B84="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B84,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15">
-      <c r="A85" s="8" t="str">
-        <f>IF(B85="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B85,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B85" s="18"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15">
-      <c r="A86" s="8" t="str">
-        <f>IF(B86="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B86,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B86" s="18"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15">
-      <c r="A87" s="8" t="str">
-        <f>IF(B87="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B87,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B87" s="18"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15">
-      <c r="A88" s="8" t="str">
-        <f>IF(B88="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B88,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B88" s="18"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15">
-      <c r="A89" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C89" s="26" cm="1">
-        <f t="array" aca="1" ref="C89" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED INFLOWS OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="D89" s="26" cm="1">
-        <f t="array" aca="1" ref="D89" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED INFLOWS OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="E89" s="26">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15">
-      <c r="A90" s="7"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-    </row>
-    <row r="91" spans="1:5" ht="15">
-      <c r="A91" s="7"/>
-      <c r="B91" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-    </row>
-    <row r="92" spans="1:5" ht="15">
-      <c r="A92" s="8" t="str">
-        <f>IF(B92="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B92,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B92" s="18"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="17">
-        <f t="shared" ref="E92:E100" si="5">SUM(C92:D92)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15">
-      <c r="A93" s="8" t="str">
-        <f>IF(B93="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B93,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B93" s="18"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="15">
-      <c r="A94" s="8" t="str">
-        <f>IF(B94="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B94,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B94" s="18"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="15">
-      <c r="A95" s="8" t="str">
-        <f>IF(B95="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B95,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B95" s="18"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15">
-      <c r="A96" s="8" t="str">
-        <f>IF(B96="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B96,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B96" s="18"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15">
-      <c r="A97" s="8" t="str">
-        <f>IF(B97="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B97,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B97" s="18"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15">
-      <c r="A98" s="8" t="str">
-        <f>IF(B98="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B98,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B98" s="18"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15">
-      <c r="A99" s="8" t="str">
-        <f>IF(B99="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B99,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B99" s="18"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15">
-      <c r="A100" s="8" t="str">
-        <f>IF(B100="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B100,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B100" s="18"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15">
-      <c r="A101" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C101" s="23" cm="1">
-        <f t="array" aca="1" ref="C101" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="D101" s="23" cm="1">
-        <f t="array" aca="1" ref="D101" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="E101" s="23" cm="1">
-        <f t="array" aca="1" ref="E101" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C101">
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
-      <formula>$C$101</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="notEqual">
-      <formula>$C$101</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C101:E101">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D101">
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
-      <formula>$D$101</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="notEqual">
-      <formula>$D$101</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="notEqual">
-      <formula>$E$101</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
-      <formula>$E$101</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41:B49" xr:uid="{9BC0AF47-8E6A-144C-B8AC-ED095E97A81D}">
-      <formula1>deferred_outflows</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54:B64" xr:uid="{5C058698-9073-DC49-8BB5-F4FB5112E246}">
-      <formula1>current_liabilities</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67:B75" xr:uid="{3F616EBA-A90E-4541-9183-0F01CFC3F5F8}">
-      <formula1>noncurrent_liabilities</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B88" xr:uid="{EBEC4932-F8CB-1846-89BE-0CC169CA7F33}">
-      <formula1>deferred_inflows</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92:B100" xr:uid="{8A04D23E-8118-1A4B-8A84-8F6AD5B16721}">
-      <formula1>net_position</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B36" xr:uid="{FA5EF3AC-325A-BC4B-874B-CA2CF2946D73}">
-      <formula1>noncurrent_assets</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B22" xr:uid="{5C4A5840-DD0A-C841-8FFC-758CD4B37D08}">
-      <formula1>current_assets</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/static/input_files/ACFR_template.xlsx
+++ b/static/input_files/ACFR_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarrahahmed/Desktop/CLOSUP/process-xbrl/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3F0F51-2748-BC4D-B213-20D11DE781AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3B43F2-DDFC-784A-9BB4-9F6EF624716E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="14580" windowHeight="18400" tabRatio="834" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" tabRatio="834" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -22401,7 +22401,7 @@
   </sheetPr>
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>

--- a/static/input_files/ACFR_template.xlsx
+++ b/static/input_files/ACFR_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarrahahmed/Desktop/CLOSUP/process-xbrl/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3B43F2-DDFC-784A-9BB4-9F6EF624716E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51EDB25-5535-A748-966D-E06E3C1B5539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" tabRatio="834" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14820" yWindow="720" windowWidth="14580" windowHeight="18400" tabRatio="834" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -6111,6 +6111,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6120,151 +6129,13 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
-  <dxfs count="55">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="47">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -6396,6 +6267,64 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13979,31 +13908,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C101">
-    <cfRule type="cellIs" dxfId="21" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
       <formula>$C$101</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="notEqual">
       <formula>$C$101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101:E101">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D101">
-    <cfRule type="cellIs" dxfId="18" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
       <formula>$D$101</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="notEqual">
       <formula>$D$101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="16" priority="6" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>$E$101</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>$E$101</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18545,18 +18474,18 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <conditionalFormatting sqref="C101:F101">
-    <cfRule type="cellIs" dxfId="54" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="18" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="20" operator="notEqual">
+    <cfRule type="cellIs" dxfId="44" priority="20" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F101 C23 C37 C50 C65 C76:C77 C89 C101">
-    <cfRule type="expression" dxfId="51" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="2" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20230,62 +20159,62 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <conditionalFormatting sqref="C23 C37 C50 D53:G63 D74:H77 J74:J77">
-    <cfRule type="expression" dxfId="50" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="49" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:J64">
-    <cfRule type="expression" dxfId="49" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="34" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:J72">
-    <cfRule type="expression" dxfId="48" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="10" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F6 D52:F52">
-    <cfRule type="expression" dxfId="47" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="46" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:G51">
-    <cfRule type="expression" dxfId="46" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="6" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:J70">
-    <cfRule type="expression" dxfId="45" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="2" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H50">
-    <cfRule type="expression" dxfId="44" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="5" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:I38">
-    <cfRule type="expression" dxfId="43" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="43" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:J6 D7:I37 I39:I51">
-    <cfRule type="expression" dxfId="42" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="39" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:J63">
-    <cfRule type="expression" dxfId="41" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74:I99">
-    <cfRule type="expression" dxfId="40" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="1" stopIfTrue="1">
       <formula>I$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J50">
-    <cfRule type="expression" dxfId="39" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="4" stopIfTrue="1">
       <formula>J$6=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20943,47 +20872,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C35:G35">
-    <cfRule type="expression" dxfId="38" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="10" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:H25">
-    <cfRule type="expression" dxfId="37" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="16" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:I28">
-    <cfRule type="expression" dxfId="36" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="11" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="35" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:G16">
-    <cfRule type="expression" dxfId="34" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="3" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G18">
-    <cfRule type="expression" dxfId="33" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="20" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:G24">
-    <cfRule type="expression" dxfId="32" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="2" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:G27">
-    <cfRule type="expression" dxfId="31" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="14" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:G34">
-    <cfRule type="expression" dxfId="30" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22362,7 +22291,7 @@
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="D7:I7 D8:J23 C23 D25:J36 C36 C37:J37 D38:J71 C60:J60 C70">
-    <cfRule type="expression" dxfId="29" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="17" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22401,8 +22330,8 @@
   </sheetPr>
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -22435,7 +22364,7 @@
         <v>1105</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
@@ -22499,16 +22428,16 @@
       <c r="C6" s="12" t="s">
         <v>1756</v>
       </c>
-      <c r="D6" s="122" t="str">
+      <c r="D6" s="119" t="str">
         <f>IF(AND('Master Info'!C5="N",'Master Info'!C6="N"), "",  IF('Master Info'!C5="N", "Component Units", "Business-Type Activities - Enterprise Funds"))</f>
         <v>Business-Type Activities - Enterprise Funds</v>
       </c>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="121"/>
     </row>
     <row r="7" spans="1:10" ht="15">
       <c r="A7" s="7"/>
@@ -22553,7 +22482,10 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
+      <c r="J9" s="20">
+        <f>SUM(D9:I9)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15">
       <c r="A10" s="8" t="str">
@@ -22568,7 +22500,10 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
+      <c r="J10" s="20">
+        <f>SUM(D10:I10)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15">
       <c r="A11" s="8" t="str">
@@ -22583,7 +22518,10 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
+      <c r="J11" s="20">
+        <f>SUM(D11:I11)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15">
       <c r="A12" s="8" t="str">
@@ -22598,7 +22536,10 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
-      <c r="J12" s="20"/>
+      <c r="J12" s="20">
+        <f>SUM(D12:I12)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="8" t="str">
@@ -22613,7 +22554,10 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="20"/>
+      <c r="J13" s="20">
+        <f>SUM(D13:I13)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="8" t="str">
@@ -22628,7 +22572,10 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
+      <c r="J14" s="20">
+        <f>SUM(D14:I14)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="8" t="str">
@@ -22643,7 +22590,10 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
-      <c r="J15" s="20"/>
+      <c r="J15" s="20">
+        <f>SUM(D15:I15)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="15">
       <c r="A16" s="8" t="str">
@@ -22658,7 +22608,10 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="J16" s="20">
+        <f>SUM(D16:I16)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="8" t="str">
@@ -22673,7 +22626,10 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="J17" s="20">
+        <f>SUM(D17:I17)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15" hidden="1">
       <c r="A18" s="8" t="str">
@@ -22688,7 +22644,10 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="J18" s="20">
+        <f t="shared" ref="J18:J22" si="0">SUM(D18:I18)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="15" hidden="1">
       <c r="A19" s="8" t="str">
@@ -22703,7 +22662,10 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="J19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="15" hidden="1">
       <c r="A20" s="8" t="str">
@@ -22718,7 +22680,10 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="J20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="15" hidden="1">
       <c r="A21" s="8" t="str">
@@ -22733,7 +22698,10 @@
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="J21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="8" t="str">
@@ -22748,7 +22716,10 @@
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="J22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="8" t="s">
@@ -22974,7 +22945,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="17">
-        <f>IF(C6="","",SUM(C25:C36))</f>
+        <f ca="1">SUM(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,C:C))</f>
         <v>0</v>
       </c>
       <c r="D37" s="17"/>
@@ -22996,7 +22967,7 @@
         <v>20</v>
       </c>
       <c r="C38" s="23">
-        <f>SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,C:C)))</f>
+        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,C:C)))</f>
         <v>0</v>
       </c>
       <c r="D38" s="23"/>
@@ -23394,7 +23365,7 @@
         <v>39</v>
       </c>
       <c r="C64" s="17">
-        <f>IF(C6="","",SUM(C55:C63))</f>
+        <f ca="1">SUM(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,C:C))</f>
         <v>0</v>
       </c>
       <c r="D64" s="17"/>
@@ -23416,7 +23387,7 @@
         <v>41</v>
       </c>
       <c r="C65" s="23">
-        <f>SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,C:C)))</f>
+        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,C:C)))</f>
         <v>0</v>
       </c>
       <c r="D65" s="23"/>
@@ -23629,34 +23600,34 @@
     <mergeCell ref="D6:J6"/>
   </mergeCells>
   <conditionalFormatting sqref="C77:J77">
-    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23 E23:I23 C37 E37:I37 C53 E53:I53 C64:C65 E64:I65 C77 E77:I77 D6">
-    <cfRule type="expression" dxfId="11" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="D6 C23 E23:I23 C37 E37:I37 C53 E53:I53 C64:C65 E64:I65 C77 E77:I77">
+    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23 D37 D53 D64:D65 D77">
-    <cfRule type="expression" dxfId="10" priority="52" stopIfTrue="1">
+  <conditionalFormatting sqref="D77 D23 D37 D53 D64:D65">
+    <cfRule type="expression" dxfId="16" priority="52" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:J77">
-    <cfRule type="expression" dxfId="9" priority="63" stopIfTrue="1">
-      <formula>D$6=""</formula>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
+      <formula>COUNTA(D2:I2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
-      <formula>COUNTA(D2:I2)=1</formula>
+  <conditionalFormatting sqref="J7:J77">
+    <cfRule type="expression" dxfId="14" priority="63" stopIfTrue="1">
+      <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
@@ -23977,12 +23948,12 @@
     </row>
     <row r="25" spans="1:5" ht="15">
       <c r="A25" s="7"/>
-      <c r="B25" s="119" t="s">
+      <c r="B25" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="121"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="124"/>
     </row>
     <row r="26" spans="1:5" ht="15">
       <c r="A26" s="8" t="str">
@@ -24999,31 +24970,31 @@
     <mergeCell ref="B25:E25"/>
   </mergeCells>
   <conditionalFormatting sqref="C102">
-    <cfRule type="cellIs" dxfId="28" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="equal">
       <formula>$C$102</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="8" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="notEqual">
       <formula>$C$102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102:E102">
-    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="cellIs" dxfId="25" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="equal">
       <formula>$D$102</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="notEqual">
       <formula>$D$102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>$E$102</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>$E$102</formula>
     </cfRule>
   </conditionalFormatting>

--- a/static/input_files/ACFR_template.xlsx
+++ b/static/input_files/ACFR_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byflow/Documents/Research/process-xbrl/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9817F2-53D5-D64E-B073-6D1FEE1127F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1641DF-EE81-2740-AB0D-1EE563DC47B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="2021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="2022">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -6143,6 +6143,9 @@
   </si>
   <si>
     <t>Modified Accrual XBRL Tag</t>
+  </si>
+  <si>
+    <t>Other Cash and Cash Equivalents, Modified Accrual</t>
   </si>
 </sst>
 </file>
@@ -7527,8 +7530,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D512" zoomScale="108" workbookViewId="0">
-      <selection activeCell="F537" sqref="F537"/>
+    <sheetView tabSelected="1" topLeftCell="A514" zoomScale="108" workbookViewId="0">
+      <selection activeCell="B528" sqref="B528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -14849,6 +14852,9 @@
       </c>
     </row>
     <row r="523" spans="1:5">
+      <c r="B523" t="s">
+        <v>2021</v>
+      </c>
       <c r="D523" t="s">
         <v>1763</v>
       </c>

--- a/static/input_files/ACFR_template.xlsx
+++ b/static/input_files/ACFR_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarrahahmed/Desktop/CLOSUP/process-xbrl/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F1CA01-691D-6F49-AA3C-C4CF1B43D20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6D3BBB-BDA5-A145-9E8A-E77CD90935E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13980" yWindow="720" windowWidth="15420" windowHeight="18400" tabRatio="834" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17280" tabRatio="834" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="GovFund Stmt of Rev Exp and Chg" sheetId="15" r:id="rId7"/>
     <sheet name="Net pos- Prop Funds" sheetId="23" r:id="rId8"/>
     <sheet name="PropFund Stmt of Rev Exp and Ch" sheetId="25" r:id="rId9"/>
-    <sheet name="lookup prop exp" sheetId="26" r:id="rId10"/>
+    <sheet name="Lookup PropFunds" sheetId="26" r:id="rId10"/>
     <sheet name="Prop Fund Stmt of Net Position" sheetId="11" state="hidden" r:id="rId11"/>
     <sheet name="Prop Fund Stmt of Rev Exp Bal" sheetId="12" state="hidden" r:id="rId12"/>
   </sheets>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3289" uniqueCount="2220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3593" uniqueCount="2221">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -5360,9 +5360,6 @@
     <t>Totals</t>
   </si>
   <si>
-    <t>Statement of Revenues, Expenses, and Changes in Fund Net Position</t>
-  </si>
-  <si>
     <t>Operating Revenues</t>
   </si>
   <si>
@@ -6744,6 +6741,12 @@
   </si>
   <si>
     <t>Acfr</t>
+  </si>
+  <si>
+    <t>Statement of Revenues, Expenses, and Changes in Net Position</t>
+  </si>
+  <si>
+    <t>Abstract</t>
   </si>
 </sst>
 </file>
@@ -7511,6 +7514,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7529,10 +7536,6 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -7714,16 +7717,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -7736,6 +7729,16 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7781,19 +7784,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8311,8 +8314,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C522"/>
   <sheetViews>
-    <sheetView topLeftCell="A360" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -14076,36 +14079,39 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD447D7-157B-CF46-B64B-9560C4F4732F}">
-  <dimension ref="A1:D305"/>
+  <dimension ref="A1:E305"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="B288" sqref="B288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="31.5" style="2" customWidth="1"/>
-    <col min="2" max="3" width="42.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="2" max="4" width="42.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="125" customFormat="1">
-      <c r="A1" s="128" t="s">
-        <v>1953</v>
-      </c>
-      <c r="B1" s="128" t="s">
+    <row r="1" spans="1:5" s="119" customFormat="1">
+      <c r="A1" s="122" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B1" s="122" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C1" s="122" t="s">
         <v>2218</v>
       </c>
-      <c r="C1" s="128" t="s">
-        <v>2219</v>
-      </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="122" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="122" t="s">
         <v>1678</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14">
-      <c r="A2" s="127" t="s">
-        <v>1772</v>
+    <row r="2" spans="1:5" ht="14">
+      <c r="A2" s="121" t="s">
+        <v>1771</v>
       </c>
       <c r="B2" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A2, ROW(INDIRECT("1:" &amp; LEN(A2))), 1), UPPER(MID(A2, ROW(INDIRECT("1:" &amp; LEN(A2))), 1)))), " " &amp; MID(A2, ROW(INDIRECT("1:" &amp; LEN(A2))), 1), MID(A2, ROW(INDIRECT("1:" &amp; LEN(A2))), 1))), "  ", " ")</f>
@@ -14115,29 +14121,35 @@
         <f>"acfr:"&amp;A2</f>
         <v>acfr:ProprietaryFundsRevenuesExpensesAbstract</v>
       </c>
-      <c r="D2" s="127" t="s">
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14">
-      <c r="A3" s="127" t="s">
-        <v>1773</v>
+      <c r="D2" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E2" s="121" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14">
+      <c r="A3" s="121" t="s">
+        <v>1772</v>
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A3, ROW(INDIRECT("1:" &amp; LEN(A3))), 1), UPPER(MID(A3, ROW(INDIRECT("1:" &amp; LEN(A3))), 1)))), " " &amp; MID(A3, ROW(INDIRECT("1:" &amp; LEN(A3))), 1), MID(A3, ROW(INDIRECT("1:" &amp; LEN(A3))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Proprietary Funds Revenues Expenses Table</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C66" si="0">"acfr:"&amp;A3</f>
+        <f t="shared" ref="C3:C85" si="0">"acfr:"&amp;A3</f>
         <v>acfr:ProprietaryFundsRevenuesExpensesTable</v>
       </c>
-      <c r="D3" s="127" t="s">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14">
-      <c r="A4" s="127" t="s">
-        <v>1774</v>
+      <c r="D3" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E3" s="121" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14">
+      <c r="A4" s="121" t="s">
+        <v>1773</v>
       </c>
       <c r="B4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A4, ROW(INDIRECT("1:" &amp; LEN(A4))), 1), UPPER(MID(A4, ROW(INDIRECT("1:" &amp; LEN(A4))), 1)))), " " &amp; MID(A4, ROW(INDIRECT("1:" &amp; LEN(A4))), 1), MID(A4, ROW(INDIRECT("1:" &amp; LEN(A4))), 1))), "  ", " ")</f>
@@ -14147,13 +14159,16 @@
         <f t="shared" si="0"/>
         <v>acfr:TypeOfActivitiesProprietaryFundsAxis</v>
       </c>
-      <c r="D4" s="127" t="s">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14">
-      <c r="A5" s="127" t="s">
-        <v>1775</v>
+      <c r="D4" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E4" s="121" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14">
+      <c r="A5" s="121" t="s">
+        <v>1774</v>
       </c>
       <c r="B5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A5, ROW(INDIRECT("1:" &amp; LEN(A5))), 1), UPPER(MID(A5, ROW(INDIRECT("1:" &amp; LEN(A5))), 1)))), " " &amp; MID(A5, ROW(INDIRECT("1:" &amp; LEN(A5))), 1), MID(A5, ROW(INDIRECT("1:" &amp; LEN(A5))), 1))), "  ", " ")</f>
@@ -14163,13 +14178,16 @@
         <f t="shared" si="0"/>
         <v>acfr:ProprietaryFundsMember</v>
       </c>
-      <c r="D5" s="127" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14">
-      <c r="A6" s="127" t="s">
-        <v>1776</v>
+      <c r="D5" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E5" s="121" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14">
+      <c r="A6" s="121" t="s">
+        <v>1775</v>
       </c>
       <c r="B6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A6, ROW(INDIRECT("1:" &amp; LEN(A6))), 1), UPPER(MID(A6, ROW(INDIRECT("1:" &amp; LEN(A6))), 1)))), " " &amp; MID(A6, ROW(INDIRECT("1:" &amp; LEN(A6))), 1), MID(A6, ROW(INDIRECT("1:" &amp; LEN(A6))), 1))), "  ", " ")</f>
@@ -14179,13 +14197,16 @@
         <f t="shared" si="0"/>
         <v>acfr:BusinessTypeActivitiesEnterpriseFundsMember</v>
       </c>
-      <c r="D6" s="127" t="s">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14">
-      <c r="A7" s="127" t="s">
-        <v>1777</v>
+      <c r="D6" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E6" s="121" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14">
+      <c r="A7" s="121" t="s">
+        <v>1776</v>
       </c>
       <c r="B7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B7" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A7, ROW(INDIRECT("1:" &amp; LEN(A7))), 1), UPPER(MID(A7, ROW(INDIRECT("1:" &amp; LEN(A7))), 1)))), " " &amp; MID(A7, ROW(INDIRECT("1:" &amp; LEN(A7))), 1), MID(A7, ROW(INDIRECT("1:" &amp; LEN(A7))), 1))), "  ", " ")</f>
@@ -14195,13 +14216,16 @@
         <f t="shared" si="0"/>
         <v>acfr:InternalServiceFundsMember</v>
       </c>
-      <c r="D7" s="127" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14">
-      <c r="A8" s="127" t="s">
-        <v>1778</v>
+      <c r="D7" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E7" s="121" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14">
+      <c r="A8" s="121" t="s">
+        <v>1777</v>
       </c>
       <c r="B8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A8, ROW(INDIRECT("1:" &amp; LEN(A8))), 1), UPPER(MID(A8, ROW(INDIRECT("1:" &amp; LEN(A8))), 1)))), " " &amp; MID(A8, ROW(INDIRECT("1:" &amp; LEN(A8))), 1), MID(A8, ROW(INDIRECT("1:" &amp; LEN(A8))), 1))), "  ", " ")</f>
@@ -14211,13 +14235,16 @@
         <f t="shared" si="0"/>
         <v>acfr:ProprietaryFundsRevenuesExpensesLineItems</v>
       </c>
-      <c r="D8" s="127" t="s">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14">
-      <c r="A9" s="127" t="s">
-        <v>1779</v>
+      <c r="D8" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E8" s="121" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14">
+      <c r="A9" s="121" t="s">
+        <v>1778</v>
       </c>
       <c r="B9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A9, ROW(INDIRECT("1:" &amp; LEN(A9))), 1), UPPER(MID(A9, ROW(INDIRECT("1:" &amp; LEN(A9))), 1)))), " " &amp; MID(A9, ROW(INDIRECT("1:" &amp; LEN(A9))), 1), MID(A9, ROW(INDIRECT("1:" &amp; LEN(A9))), 1))), "  ", " ")</f>
@@ -14227,4556 +14254,5411 @@
         <f t="shared" si="0"/>
         <v>acfr:OperatingRevenuesAbstract</v>
       </c>
-      <c r="D9" s="127" t="s">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14">
-      <c r="A10" s="127" t="s">
+      <c r="D9" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E9" s="121" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14">
+      <c r="A10" s="121" t="s">
         <v>1780</v>
       </c>
       <c r="B10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B10" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A10, ROW(INDIRECT("1:" &amp; LEN(A10))), 1), UPPER(MID(A10, ROW(INDIRECT("1:" &amp; LEN(A10))), 1)))), " " &amp; MID(A10, ROW(INDIRECT("1:" &amp; LEN(A10))), 1), MID(A10, ROW(INDIRECT("1:" &amp; LEN(A10))), 1))), "  ", " ")</f>
+        <v xml:space="preserve"> Charges For Services Fines And Forfeitures Abstract</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" ref="C10:C29" si="1">"acfr:"&amp;A10</f>
+        <v>acfr:ChargesForServicesFinesAndForfeituresAbstract</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E10" s="121" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14">
+      <c r="A11" s="121" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B11" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B11" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A11, ROW(INDIRECT("1:" &amp; LEN(A11))), 1), UPPER(MID(A11, ROW(INDIRECT("1:" &amp; LEN(A11))), 1)))), " " &amp; MID(A11, ROW(INDIRECT("1:" &amp; LEN(A11))), 1), MID(A11, ROW(INDIRECT("1:" &amp; LEN(A11))), 1))), "  ", " ")</f>
+        <v xml:space="preserve"> Operating Expenses Abstract</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:OperatingExpensesAbstract</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E11" s="121" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14">
+      <c r="A12" s="121" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B12" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B12" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A12, ROW(INDIRECT("1:" &amp; LEN(A12))), 1), UPPER(MID(A12, ROW(INDIRECT("1:" &amp; LEN(A12))), 1)))), " " &amp; MID(A12, ROW(INDIRECT("1:" &amp; LEN(A12))), 1), MID(A12, ROW(INDIRECT("1:" &amp; LEN(A12))), 1))), "  ", " ")</f>
+        <v xml:space="preserve"> Health Operating Expenses Abstract</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:HealthOperatingExpensesAbstract</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E12" s="121" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14">
+      <c r="A13" s="121" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B13" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B13" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A13, ROW(INDIRECT("1:" &amp; LEN(A13))), 1), UPPER(MID(A13, ROW(INDIRECT("1:" &amp; LEN(A13))), 1)))), " " &amp; MID(A13, ROW(INDIRECT("1:" &amp; LEN(A13))), 1), MID(A13, ROW(INDIRECT("1:" &amp; LEN(A13))), 1))), "  ", " ")</f>
+        <v xml:space="preserve"> Expenses For Lottery Activities Abstract</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ExpensesForLotteryActivitiesAbstract</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E13" s="121" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14">
+      <c r="A14" s="121" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B14" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B14" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A14, ROW(INDIRECT("1:" &amp; LEN(A14))), 1), UPPER(MID(A14, ROW(INDIRECT("1:" &amp; LEN(A14))), 1)))), " " &amp; MID(A14, ROW(INDIRECT("1:" &amp; LEN(A14))), 1), MID(A14, ROW(INDIRECT("1:" &amp; LEN(A14))), 1))), "  ", " ")</f>
+        <v xml:space="preserve"> Contributions From Local Units Abstract</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ContributionsFromLocalUnitsAbstract</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E14" s="121" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14">
+      <c r="A15" s="121" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B15" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B15" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A15, ROW(INDIRECT("1:" &amp; LEN(A15))), 1), UPPER(MID(A15, ROW(INDIRECT("1:" &amp; LEN(A15))), 1)))), " " &amp; MID(A15, ROW(INDIRECT("1:" &amp; LEN(A15))), 1), MID(A15, ROW(INDIRECT("1:" &amp; LEN(A15))), 1))), "  ", " ")</f>
+        <v xml:space="preserve"> Recreation And Culture Operating Expenses Abstract</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:RecreationAndCultureOperatingExpensesAbstract</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E15" s="121" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14">
+      <c r="A16" s="121" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B16" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B16" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A16, ROW(INDIRECT("1:" &amp; LEN(A16))), 1), UPPER(MID(A16, ROW(INDIRECT("1:" &amp; LEN(A16))), 1)))), " " &amp; MID(A16, ROW(INDIRECT("1:" &amp; LEN(A16))), 1), MID(A16, ROW(INDIRECT("1:" &amp; LEN(A16))), 1))), "  ", " ")</f>
+        <v xml:space="preserve"> Intergovernmental Revenue Abstract</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:IntergovernmentalRevenueAbstract</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E16" s="121" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14">
+      <c r="A17" s="121" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B17" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B17" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A17, ROW(INDIRECT("1:" &amp; LEN(A17))), 1), UPPER(MID(A17, ROW(INDIRECT("1:" &amp; LEN(A17))), 1)))), " " &amp; MID(A17, ROW(INDIRECT("1:" &amp; LEN(A17))), 1), MID(A17, ROW(INDIRECT("1:" &amp; LEN(A17))), 1))), "  ", " ")</f>
+        <v xml:space="preserve"> Nonoperating Expenses Abstract</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:NonoperatingExpensesAbstract</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E17" s="121" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14">
+      <c r="A18" s="121" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B18" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B18" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A18, ROW(INDIRECT("1:" &amp; LEN(A18))), 1), UPPER(MID(A18, ROW(INDIRECT("1:" &amp; LEN(A18))), 1)))), " " &amp; MID(A18, ROW(INDIRECT("1:" &amp; LEN(A18))), 1), MID(A18, ROW(INDIRECT("1:" &amp; LEN(A18))), 1))), "  ", " ")</f>
+        <v xml:space="preserve"> Investment Income Abstract</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:InvestmentIncomeAbstract</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E18" s="121" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14">
+      <c r="A19" s="121" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B19" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B19" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A19, ROW(INDIRECT("1:" &amp; LEN(A19))), 1), UPPER(MID(A19, ROW(INDIRECT("1:" &amp; LEN(A19))), 1)))), " " &amp; MID(A19, ROW(INDIRECT("1:" &amp; LEN(A19))), 1), MID(A19, ROW(INDIRECT("1:" &amp; LEN(A19))), 1))), "  ", " ")</f>
+        <v xml:space="preserve"> Nonoperating Revenues Expenses Abstract</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:NonoperatingRevenuesExpensesAbstract</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E19" s="121" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14">
+      <c r="A20" s="121" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B20" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B20" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A20, ROW(INDIRECT("1:" &amp; LEN(A20))), 1), UPPER(MID(A20, ROW(INDIRECT("1:" &amp; LEN(A20))), 1)))), " " &amp; MID(A20, ROW(INDIRECT("1:" &amp; LEN(A20))), 1), MID(A20, ROW(INDIRECT("1:" &amp; LEN(A20))), 1))), "  ", " ")</f>
+        <v xml:space="preserve"> Grants Contributions And Donations Abstract</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:GrantsContributionsAndDonationsAbstract</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E20" s="121" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14">
+      <c r="A21" s="121" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B21" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B21" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A21, ROW(INDIRECT("1:" &amp; LEN(A21))), 1), UPPER(MID(A21, ROW(INDIRECT("1:" &amp; LEN(A21))), 1)))), " " &amp; MID(A21, ROW(INDIRECT("1:" &amp; LEN(A21))), 1), MID(A21, ROW(INDIRECT("1:" &amp; LEN(A21))), 1))), "  ", " ")</f>
+        <v xml:space="preserve"> Other Financing Sources Abstract</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:OtherFinancingSourcesAbstract</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E21" s="121" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14">
+      <c r="A22" s="121" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B22" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B22" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A22, ROW(INDIRECT("1:" &amp; LEN(A22))), 1), UPPER(MID(A22, ROW(INDIRECT("1:" &amp; LEN(A22))), 1)))), " " &amp; MID(A22, ROW(INDIRECT("1:" &amp; LEN(A22))), 1), MID(A22, ROW(INDIRECT("1:" &amp; LEN(A22))), 1))), "  ", " ")</f>
+        <v xml:space="preserve"> Capital Contributions And Transfers Abstract</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:CapitalContributionsAndTransfersAbstract</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E22" s="121" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14">
+      <c r="A23" s="121" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B23" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B23" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A23, ROW(INDIRECT("1:" &amp; LEN(A23))), 1), UPPER(MID(A23, ROW(INDIRECT("1:" &amp; LEN(A23))), 1)))), " " &amp; MID(A23, ROW(INDIRECT("1:" &amp; LEN(A23))), 1), MID(A23, ROW(INDIRECT("1:" &amp; LEN(A23))), 1))), "  ", " ")</f>
+        <v xml:space="preserve"> Contributions Abstract</v>
+      </c>
+      <c r="C23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:ContributionsAbstract</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E23" s="121" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14">
+      <c r="A24" s="121" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B24" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B24" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A24, ROW(INDIRECT("1:" &amp; LEN(A24))), 1), UPPER(MID(A24, ROW(INDIRECT("1:" &amp; LEN(A24))), 1)))), " " &amp; MID(A24, ROW(INDIRECT("1:" &amp; LEN(A24))), 1), MID(A24, ROW(INDIRECT("1:" &amp; LEN(A24))), 1))), "  ", " ")</f>
+        <v xml:space="preserve"> Nonoperating Revenues Abstract</v>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:NonoperatingRevenuesAbstract</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E24" s="121" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14">
+      <c r="A25" s="121" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B25" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B25" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A25, ROW(INDIRECT("1:" &amp; LEN(A25))), 1), UPPER(MID(A25, ROW(INDIRECT("1:" &amp; LEN(A25))), 1)))), " " &amp; MID(A25, ROW(INDIRECT("1:" &amp; LEN(A25))), 1), MID(A25, ROW(INDIRECT("1:" &amp; LEN(A25))), 1))), "  ", " ")</f>
+        <v xml:space="preserve"> Transfers Abstract</v>
+      </c>
+      <c r="C25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:TransfersAbstract</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E25" s="121" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14">
+      <c r="A26" s="121" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B26" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B26" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A26, ROW(INDIRECT("1:" &amp; LEN(A26))), 1), UPPER(MID(A26, ROW(INDIRECT("1:" &amp; LEN(A26))), 1)))), " " &amp; MID(A26, ROW(INDIRECT("1:" &amp; LEN(A26))), 1), MID(A26, ROW(INDIRECT("1:" &amp; LEN(A26))), 1))), "  ", " ")</f>
+        <v xml:space="preserve"> Tax And Tax Related Revenues Abstract</v>
+      </c>
+      <c r="C26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:TaxAndTaxRelatedRevenuesAbstract</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E26" s="121" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14">
+      <c r="A27" s="121" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B27" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B27" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A27, ROW(INDIRECT("1:" &amp; LEN(A27))), 1), UPPER(MID(A27, ROW(INDIRECT("1:" &amp; LEN(A27))), 1)))), " " &amp; MID(A27, ROW(INDIRECT("1:" &amp; LEN(A27))), 1), MID(A27, ROW(INDIRECT("1:" &amp; LEN(A27))), 1))), "  ", " ")</f>
+        <v xml:space="preserve"> Interest And Rents Revenues Abstract</v>
+      </c>
+      <c r="C27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:InterestAndRentsRevenuesAbstract</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E27" s="121" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14">
+      <c r="A28" s="121" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B28" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B28" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A28, ROW(INDIRECT("1:" &amp; LEN(A28))), 1), UPPER(MID(A28, ROW(INDIRECT("1:" &amp; LEN(A28))), 1)))), " " &amp; MID(A28, ROW(INDIRECT("1:" &amp; LEN(A28))), 1), MID(A28, ROW(INDIRECT("1:" &amp; LEN(A28))), 1))), "  ", " ")</f>
+        <v xml:space="preserve"> Revenue From Interest And Dividends Abstract</v>
+      </c>
+      <c r="C28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:RevenueFromInterestAndDividendsAbstract</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E28" s="121" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14">
+      <c r="A29" s="121" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B29" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B29" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A29, ROW(INDIRECT("1:" &amp; LEN(A29))), 1), UPPER(MID(A29, ROW(INDIRECT("1:" &amp; LEN(A29))), 1)))), " " &amp; MID(A29, ROW(INDIRECT("1:" &amp; LEN(A29))), 1), MID(A29, ROW(INDIRECT("1:" &amp; LEN(A29))), 1))), "  ", " ")</f>
+        <v xml:space="preserve"> Public Works Operating Expenses Abstract</v>
+      </c>
+      <c r="C29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>acfr:PublicWorksOperatingExpensesAbstract</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E29" s="121" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14">
+      <c r="A30" s="121" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B30" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B30" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A30, ROW(INDIRECT("1:" &amp; LEN(A30))), 1), UPPER(MID(A30, ROW(INDIRECT("1:" &amp; LEN(A30))), 1)))), " " &amp; MID(A30, ROW(INDIRECT("1:" &amp; LEN(A30))), 1), MID(A30, ROW(INDIRECT("1:" &amp; LEN(A30))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Abstract</v>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="C30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesAbstract</v>
       </c>
-      <c r="D10" s="127" t="s">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14">
-      <c r="A11" s="127" t="s">
+      <c r="D30" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E30" s="121" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14">
+      <c r="A31" s="121" t="s">
         <v>1189</v>
       </c>
-      <c r="B11" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B11" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A11, ROW(INDIRECT("1:" &amp; LEN(A11))), 1), UPPER(MID(A11, ROW(INDIRECT("1:" &amp; LEN(A11))), 1)))), " " &amp; MID(A11, ROW(INDIRECT("1:" &amp; LEN(A11))), 1), MID(A11, ROW(INDIRECT("1:" &amp; LEN(A11))), 1))), "  ", " ")</f>
+      <c r="B31" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B31" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A31, ROW(INDIRECT("1:" &amp; LEN(A31))), 1), UPPER(MID(A31, ROW(INDIRECT("1:" &amp; LEN(A31))), 1)))), " " &amp; MID(A31, ROW(INDIRECT("1:" &amp; LEN(A31))), 1), MID(A31, ROW(INDIRECT("1:" &amp; LEN(A31))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Court Related Charges</v>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesCourtRelatedCharges</v>
       </c>
-      <c r="D11" s="127" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14">
-      <c r="A12" s="127" t="s">
+      <c r="D31" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E31" s="121" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14">
+      <c r="A32" s="121" t="s">
         <v>1190</v>
       </c>
-      <c r="B12" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B12" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A12, ROW(INDIRECT("1:" &amp; LEN(A12))), 1), UPPER(MID(A12, ROW(INDIRECT("1:" &amp; LEN(A12))), 1)))), " " &amp; MID(A12, ROW(INDIRECT("1:" &amp; LEN(A12))), 1), MID(A12, ROW(INDIRECT("1:" &amp; LEN(A12))), 1))), "  ", " ")</f>
+      <c r="B32" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B32" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A32, ROW(INDIRECT("1:" &amp; LEN(A32))), 1), UPPER(MID(A32, ROW(INDIRECT("1:" &amp; LEN(A32))), 1)))), " " &amp; MID(A32, ROW(INDIRECT("1:" &amp; LEN(A32))), 1), MID(A32, ROW(INDIRECT("1:" &amp; LEN(A32))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Fees</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesFees</v>
       </c>
-      <c r="D12" s="127" t="s">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14">
-      <c r="A13" s="127" t="s">
+      <c r="D32" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E32" s="121" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14">
+      <c r="A33" s="121" t="s">
         <v>1191</v>
       </c>
-      <c r="B13" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B13" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A13, ROW(INDIRECT("1:" &amp; LEN(A13))), 1), UPPER(MID(A13, ROW(INDIRECT("1:" &amp; LEN(A13))), 1)))), " " &amp; MID(A13, ROW(INDIRECT("1:" &amp; LEN(A13))), 1), MID(A13, ROW(INDIRECT("1:" &amp; LEN(A13))), 1))), "  ", " ")</f>
+      <c r="B33" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B33" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A33, ROW(INDIRECT("1:" &amp; LEN(A33))), 1), UPPER(MID(A33, ROW(INDIRECT("1:" &amp; LEN(A33))), 1)))), " " &amp; MID(A33, ROW(INDIRECT("1:" &amp; LEN(A33))), 1), MID(A33, ROW(INDIRECT("1:" &amp; LEN(A33))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Court Filing Fees</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesCourtFilingFees</v>
       </c>
-      <c r="D13" s="127" t="s">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14">
-      <c r="A14" s="127" t="s">
+      <c r="D33" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E33" s="121" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14">
+      <c r="A34" s="121" t="s">
         <v>1192</v>
       </c>
-      <c r="B14" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B14" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A14, ROW(INDIRECT("1:" &amp; LEN(A14))), 1), UPPER(MID(A14, ROW(INDIRECT("1:" &amp; LEN(A14))), 1)))), " " &amp; MID(A14, ROW(INDIRECT("1:" &amp; LEN(A14))), 1), MID(A14, ROW(INDIRECT("1:" &amp; LEN(A14))), 1))), "  ", " ")</f>
+      <c r="B34" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B34" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A34, ROW(INDIRECT("1:" &amp; LEN(A34))), 1), UPPER(MID(A34, ROW(INDIRECT("1:" &amp; LEN(A34))), 1)))), " " &amp; MID(A34, ROW(INDIRECT("1:" &amp; LEN(A34))), 1), MID(A34, ROW(INDIRECT("1:" &amp; LEN(A34))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Jury Demand Fees</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesJuryDemandFees</v>
       </c>
-      <c r="D14" s="127" t="s">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14">
-      <c r="A15" s="127" t="s">
+      <c r="D34" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E34" s="121" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="14">
+      <c r="A35" s="121" t="s">
         <v>1193</v>
       </c>
-      <c r="B15" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B15" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A15, ROW(INDIRECT("1:" &amp; LEN(A15))), 1), UPPER(MID(A15, ROW(INDIRECT("1:" &amp; LEN(A15))), 1)))), " " &amp; MID(A15, ROW(INDIRECT("1:" &amp; LEN(A15))), 1), MID(A15, ROW(INDIRECT("1:" &amp; LEN(A15))), 1))), "  ", " ")</f>
+      <c r="B35" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B35" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A35, ROW(INDIRECT("1:" &amp; LEN(A35))), 1), UPPER(MID(A35, ROW(INDIRECT("1:" &amp; LEN(A35))), 1)))), " " &amp; MID(A35, ROW(INDIRECT("1:" &amp; LEN(A35))), 1), MID(A35, ROW(INDIRECT("1:" &amp; LEN(A35))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Writ Of Garnishment Restitution Attachment Or Execution</v>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesWritOfGarnishmentRestitutionAttachmentOrExecution</v>
       </c>
-      <c r="D15" s="127" t="s">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14">
-      <c r="A16" s="127" t="s">
+      <c r="D35" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E35" s="121" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14">
+      <c r="A36" s="121" t="s">
         <v>1194</v>
       </c>
-      <c r="B16" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B16" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A16, ROW(INDIRECT("1:" &amp; LEN(A16))), 1), UPPER(MID(A16, ROW(INDIRECT("1:" &amp; LEN(A16))), 1)))), " " &amp; MID(A16, ROW(INDIRECT("1:" &amp; LEN(A16))), 1), MID(A16, ROW(INDIRECT("1:" &amp; LEN(A16))), 1))), "  ", " ")</f>
+      <c r="B36" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B36" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A36, ROW(INDIRECT("1:" &amp; LEN(A36))), 1), UPPER(MID(A36, ROW(INDIRECT("1:" &amp; LEN(A36))), 1)))), " " &amp; MID(A36, ROW(INDIRECT("1:" &amp; LEN(A36))), 1), MID(A36, ROW(INDIRECT("1:" &amp; LEN(A36))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Attorney Fee Reimbursement</v>
       </c>
-      <c r="C16" s="2" t="str">
+      <c r="C36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesAttorneyFeeReimbursement</v>
       </c>
-      <c r="D16" s="127" t="s">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14">
-      <c r="A17" s="127" t="s">
+      <c r="D36" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E36" s="121" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14">
+      <c r="A37" s="121" t="s">
         <v>1195</v>
       </c>
-      <c r="B17" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B17" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A17, ROW(INDIRECT("1:" &amp; LEN(A17))), 1), UPPER(MID(A17, ROW(INDIRECT("1:" &amp; LEN(A17))), 1)))), " " &amp; MID(A17, ROW(INDIRECT("1:" &amp; LEN(A17))), 1), MID(A17, ROW(INDIRECT("1:" &amp; LEN(A17))), 1))), "  ", " ")</f>
+      <c r="B37" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B37" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A37, ROW(INDIRECT("1:" &amp; LEN(A37))), 1), UPPER(MID(A37, ROW(INDIRECT("1:" &amp; LEN(A37))), 1)))), " " &amp; MID(A37, ROW(INDIRECT("1:" &amp; LEN(A37))), 1), MID(A37, ROW(INDIRECT("1:" &amp; LEN(A37))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Guardian Ad Litem Reimbursement</v>
       </c>
-      <c r="C17" s="2" t="str">
+      <c r="C37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesGuardianAdLitemReimbursement</v>
       </c>
-      <c r="D17" s="127" t="s">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14">
-      <c r="A18" s="127" t="s">
+      <c r="D37" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E37" s="121" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14">
+      <c r="A38" s="121" t="s">
         <v>1196</v>
       </c>
-      <c r="B18" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B18" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A18, ROW(INDIRECT("1:" &amp; LEN(A18))), 1), UPPER(MID(A18, ROW(INDIRECT("1:" &amp; LEN(A18))), 1)))), " " &amp; MID(A18, ROW(INDIRECT("1:" &amp; LEN(A18))), 1), MID(A18, ROW(INDIRECT("1:" &amp; LEN(A18))), 1))), "  ", " ")</f>
+      <c r="B38" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B38" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A38, ROW(INDIRECT("1:" &amp; LEN(A38))), 1), UPPER(MID(A38, ROW(INDIRECT("1:" &amp; LEN(A38))), 1)))), " " &amp; MID(A38, ROW(INDIRECT("1:" &amp; LEN(A38))), 1), MID(A38, ROW(INDIRECT("1:" &amp; LEN(A38))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Probation Oversight Fee</v>
       </c>
-      <c r="C18" s="2" t="str">
+      <c r="C38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesProbationOversightFee</v>
       </c>
-      <c r="D18" s="127" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14">
-      <c r="A19" s="127" t="s">
+      <c r="D38" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E38" s="121" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14">
+      <c r="A39" s="121" t="s">
         <v>1197</v>
       </c>
-      <c r="B19" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B19" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A19, ROW(INDIRECT("1:" &amp; LEN(A19))), 1), UPPER(MID(A19, ROW(INDIRECT("1:" &amp; LEN(A19))), 1)))), " " &amp; MID(A19, ROW(INDIRECT("1:" &amp; LEN(A19))), 1), MID(A19, ROW(INDIRECT("1:" &amp; LEN(A19))), 1))), "  ", " ")</f>
+      <c r="B39" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B39" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A39, ROW(INDIRECT("1:" &amp; LEN(A39))), 1), UPPER(MID(A39, ROW(INDIRECT("1:" &amp; LEN(A39))), 1)))), " " &amp; MID(A39, ROW(INDIRECT("1:" &amp; LEN(A39))), 1), MID(A39, ROW(INDIRECT("1:" &amp; LEN(A39))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Estate Inventory Fee</v>
       </c>
-      <c r="C19" s="2" t="str">
+      <c r="C39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesEstateInventoryFee</v>
       </c>
-      <c r="D19" s="127" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14">
-      <c r="A20" s="127" t="s">
+      <c r="D39" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E39" s="121" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14">
+      <c r="A40" s="121" t="s">
         <v>1198</v>
       </c>
-      <c r="B20" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B20" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A20, ROW(INDIRECT("1:" &amp; LEN(A20))), 1), UPPER(MID(A20, ROW(INDIRECT("1:" &amp; LEN(A20))), 1)))), " " &amp; MID(A20, ROW(INDIRECT("1:" &amp; LEN(A20))), 1), MID(A20, ROW(INDIRECT("1:" &amp; LEN(A20))), 1))), "  ", " ")</f>
+      <c r="B40" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B40" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A40, ROW(INDIRECT("1:" &amp; LEN(A40))), 1), UPPER(MID(A40, ROW(INDIRECT("1:" &amp; LEN(A40))), 1)))), " " &amp; MID(A40, ROW(INDIRECT("1:" &amp; LEN(A40))), 1), MID(A40, ROW(INDIRECT("1:" &amp; LEN(A40))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Friend Of The Court Statutory Handling Fee</v>
       </c>
-      <c r="C20" s="2" t="str">
+      <c r="C40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesFriendOfTheCourtStatutoryHandlingFee</v>
       </c>
-      <c r="D20" s="127" t="s">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14">
-      <c r="A21" s="127" t="s">
+      <c r="D40" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E40" s="121" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14">
+      <c r="A41" s="121" t="s">
         <v>1199</v>
       </c>
-      <c r="B21" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B21" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A21, ROW(INDIRECT("1:" &amp; LEN(A21))), 1), UPPER(MID(A21, ROW(INDIRECT("1:" &amp; LEN(A21))), 1)))), " " &amp; MID(A21, ROW(INDIRECT("1:" &amp; LEN(A21))), 1), MID(A21, ROW(INDIRECT("1:" &amp; LEN(A21))), 1))), "  ", " ")</f>
+      <c r="B41" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B41" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A41, ROW(INDIRECT("1:" &amp; LEN(A41))), 1), UPPER(MID(A41, ROW(INDIRECT("1:" &amp; LEN(A41))), 1)))), " " &amp; MID(A41, ROW(INDIRECT("1:" &amp; LEN(A41))), 1), MID(A41, ROW(INDIRECT("1:" &amp; LEN(A41))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Friend Of The Court Service Fee</v>
       </c>
-      <c r="C21" s="2" t="str">
+      <c r="C41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesFriendOfTheCourtServiceFee</v>
       </c>
-      <c r="D21" s="127" t="s">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="14">
-      <c r="A22" s="127" t="s">
+      <c r="D41" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E41" s="121" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14">
+      <c r="A42" s="121" t="s">
         <v>1200</v>
       </c>
-      <c r="B22" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B22" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A22, ROW(INDIRECT("1:" &amp; LEN(A22))), 1), UPPER(MID(A22, ROW(INDIRECT("1:" &amp; LEN(A22))), 1)))), " " &amp; MID(A22, ROW(INDIRECT("1:" &amp; LEN(A22))), 1), MID(A22, ROW(INDIRECT("1:" &amp; LEN(A22))), 1))), "  ", " ")</f>
+      <c r="B42" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B42" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A42, ROW(INDIRECT("1:" &amp; LEN(A42))), 1), UPPER(MID(A42, ROW(INDIRECT("1:" &amp; LEN(A42))), 1)))), " " &amp; MID(A42, ROW(INDIRECT("1:" &amp; LEN(A42))), 1), MID(A42, ROW(INDIRECT("1:" &amp; LEN(A42))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Miscellaneous Court Costs And Fees</v>
       </c>
-      <c r="C22" s="2" t="str">
+      <c r="C42" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesMiscellaneousCourtCostsAndFees</v>
       </c>
-      <c r="D22" s="127" t="s">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="14">
-      <c r="A23" s="127" t="s">
+      <c r="D42" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E42" s="121" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14">
+      <c r="A43" s="121" t="s">
         <v>1201</v>
       </c>
-      <c r="B23" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B23" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A23, ROW(INDIRECT("1:" &amp; LEN(A23))), 1), UPPER(MID(A23, ROW(INDIRECT("1:" &amp; LEN(A23))), 1)))), " " &amp; MID(A23, ROW(INDIRECT("1:" &amp; LEN(A23))), 1), MID(A23, ROW(INDIRECT("1:" &amp; LEN(A23))), 1))), "  ", " ")</f>
+      <c r="B43" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B43" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A43, ROW(INDIRECT("1:" &amp; LEN(A43))), 1), UPPER(MID(A43, ROW(INDIRECT("1:" &amp; LEN(A43))), 1)))), " " &amp; MID(A43, ROW(INDIRECT("1:" &amp; LEN(A43))), 1), MID(A43, ROW(INDIRECT("1:" &amp; LEN(A43))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Services Rendered</v>
       </c>
-      <c r="C23" s="2" t="str">
+      <c r="C43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesServicesRendered</v>
       </c>
-      <c r="D23" s="127" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="14">
-      <c r="A24" s="127" t="s">
+      <c r="D43" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E43" s="121" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14">
+      <c r="A44" s="121" t="s">
         <v>1202</v>
       </c>
-      <c r="B24" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B24" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A24, ROW(INDIRECT("1:" &amp; LEN(A24))), 1), UPPER(MID(A24, ROW(INDIRECT("1:" &amp; LEN(A24))), 1)))), " " &amp; MID(A24, ROW(INDIRECT("1:" &amp; LEN(A24))), 1), MID(A24, ROW(INDIRECT("1:" &amp; LEN(A24))), 1))), "  ", " ")</f>
+      <c r="B44" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B44" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A44, ROW(INDIRECT("1:" &amp; LEN(A44))), 1), UPPER(MID(A44, ROW(INDIRECT("1:" &amp; LEN(A44))), 1)))), " " &amp; MID(A44, ROW(INDIRECT("1:" &amp; LEN(A44))), 1), MID(A44, ROW(INDIRECT("1:" &amp; LEN(A44))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Building Inspection Fees</v>
       </c>
-      <c r="C24" s="2" t="str">
+      <c r="C44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesBuildingInspectionFees</v>
       </c>
-      <c r="D24" s="127" t="s">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="14">
-      <c r="A25" s="127" t="s">
+      <c r="D44" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E44" s="121" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14">
+      <c r="A45" s="121" t="s">
         <v>1203</v>
       </c>
-      <c r="B25" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B25" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A25, ROW(INDIRECT("1:" &amp; LEN(A25))), 1), UPPER(MID(A25, ROW(INDIRECT("1:" &amp; LEN(A25))), 1)))), " " &amp; MID(A25, ROW(INDIRECT("1:" &amp; LEN(A25))), 1), MID(A25, ROW(INDIRECT("1:" &amp; LEN(A25))), 1))), "  ", " ")</f>
+      <c r="B45" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B45" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A45, ROW(INDIRECT("1:" &amp; LEN(A45))), 1), UPPER(MID(A45, ROW(INDIRECT("1:" &amp; LEN(A45))), 1)))), " " &amp; MID(A45, ROW(INDIRECT("1:" &amp; LEN(A45))), 1), MID(A45, ROW(INDIRECT("1:" &amp; LEN(A45))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Ambulance Transport Fees</v>
       </c>
-      <c r="C25" s="2" t="str">
+      <c r="C45" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesAmbulanceTransportFees</v>
       </c>
-      <c r="D25" s="127" t="s">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="14">
-      <c r="A26" s="127" t="s">
+      <c r="D45" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E45" s="121" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14">
+      <c r="A46" s="121" t="s">
         <v>1204</v>
       </c>
-      <c r="B26" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B26" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A26, ROW(INDIRECT("1:" &amp; LEN(A26))), 1), UPPER(MID(A26, ROW(INDIRECT("1:" &amp; LEN(A26))), 1)))), " " &amp; MID(A26, ROW(INDIRECT("1:" &amp; LEN(A26))), 1), MID(A26, ROW(INDIRECT("1:" &amp; LEN(A26))), 1))), "  ", " ")</f>
+      <c r="B46" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B46" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A46, ROW(INDIRECT("1:" &amp; LEN(A46))), 1), UPPER(MID(A46, ROW(INDIRECT("1:" &amp; LEN(A46))), 1)))), " " &amp; MID(A46, ROW(INDIRECT("1:" &amp; LEN(A46))), 1), MID(A46, ROW(INDIRECT("1:" &amp; LEN(A46))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Title Search Fee</v>
       </c>
-      <c r="C26" s="2" t="str">
+      <c r="C46" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesTitleSearchFee</v>
       </c>
-      <c r="D26" s="127" t="s">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="14">
-      <c r="A27" s="127" t="s">
+      <c r="D46" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E46" s="121" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14">
+      <c r="A47" s="121" t="s">
         <v>1205</v>
       </c>
-      <c r="B27" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B27" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A27, ROW(INDIRECT("1:" &amp; LEN(A27))), 1), UPPER(MID(A27, ROW(INDIRECT("1:" &amp; LEN(A27))), 1)))), " " &amp; MID(A27, ROW(INDIRECT("1:" &amp; LEN(A27))), 1), MID(A27, ROW(INDIRECT("1:" &amp; LEN(A27))), 1))), "  ", " ")</f>
+      <c r="B47" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B47" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A47, ROW(INDIRECT("1:" &amp; LEN(A47))), 1), UPPER(MID(A47, ROW(INDIRECT("1:" &amp; LEN(A47))), 1)))), " " &amp; MID(A47, ROW(INDIRECT("1:" &amp; LEN(A47))), 1), MID(A47, ROW(INDIRECT("1:" &amp; LEN(A47))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Pre Forfeiture Mailing Notice Cost</v>
       </c>
-      <c r="C27" s="2" t="str">
+      <c r="C47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesPreForfeitureMailingNoticeCost</v>
       </c>
-      <c r="D27" s="127" t="s">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="14">
-      <c r="A28" s="127" t="s">
+      <c r="D47" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E47" s="121" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14">
+      <c r="A48" s="121" t="s">
         <v>1206</v>
       </c>
-      <c r="B28" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B28" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A28, ROW(INDIRECT("1:" &amp; LEN(A28))), 1), UPPER(MID(A28, ROW(INDIRECT("1:" &amp; LEN(A28))), 1)))), " " &amp; MID(A28, ROW(INDIRECT("1:" &amp; LEN(A28))), 1), MID(A28, ROW(INDIRECT("1:" &amp; LEN(A28))), 1))), "  ", " ")</f>
+      <c r="B48" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B48" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A48, ROW(INDIRECT("1:" &amp; LEN(A48))), 1), UPPER(MID(A48, ROW(INDIRECT("1:" &amp; LEN(A48))), 1)))), " " &amp; MID(A48, ROW(INDIRECT("1:" &amp; LEN(A48))), 1), MID(A48, ROW(INDIRECT("1:" &amp; LEN(A48))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Sales</v>
       </c>
-      <c r="C28" s="2" t="str">
+      <c r="C48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesSales</v>
       </c>
-      <c r="D28" s="127" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="14">
-      <c r="A29" s="127" t="s">
+      <c r="D48" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E48" s="121" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14">
+      <c r="A49" s="121" t="s">
         <v>1207</v>
       </c>
-      <c r="B29" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B29" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A29, ROW(INDIRECT("1:" &amp; LEN(A29))), 1), UPPER(MID(A29, ROW(INDIRECT("1:" &amp; LEN(A29))), 1)))), " " &amp; MID(A29, ROW(INDIRECT("1:" &amp; LEN(A29))), 1), MID(A29, ROW(INDIRECT("1:" &amp; LEN(A29))), 1))), "  ", " ")</f>
+      <c r="B49" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B49" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A49, ROW(INDIRECT("1:" &amp; LEN(A49))), 1), UPPER(MID(A49, ROW(INDIRECT("1:" &amp; LEN(A49))), 1)))), " " &amp; MID(A49, ROW(INDIRECT("1:" &amp; LEN(A49))), 1), MID(A49, ROW(INDIRECT("1:" &amp; LEN(A49))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Use And Admission Fees</v>
       </c>
-      <c r="C29" s="2" t="str">
+      <c r="C49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesUseAndAdmissionFees</v>
       </c>
-      <c r="D29" s="127" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="14">
-      <c r="A30" s="127" t="s">
+      <c r="D49" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E49" s="121" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14">
+      <c r="A50" s="121" t="s">
         <v>1208</v>
       </c>
-      <c r="B30" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B30" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A30, ROW(INDIRECT("1:" &amp; LEN(A30))), 1), UPPER(MID(A30, ROW(INDIRECT("1:" &amp; LEN(A30))), 1)))), " " &amp; MID(A30, ROW(INDIRECT("1:" &amp; LEN(A30))), 1), MID(A30, ROW(INDIRECT("1:" &amp; LEN(A30))), 1))), "  ", " ")</f>
+      <c r="B50" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B50" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A50, ROW(INDIRECT("1:" &amp; LEN(A50))), 1), UPPER(MID(A50, ROW(INDIRECT("1:" &amp; LEN(A50))), 1)))), " " &amp; MID(A50, ROW(INDIRECT("1:" &amp; LEN(A50))), 1), MID(A50, ROW(INDIRECT("1:" &amp; LEN(A50))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Revenue From Parking Facilities</v>
       </c>
-      <c r="C30" s="2" t="str">
+      <c r="C50" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesRevenueFromParkingFacilities</v>
       </c>
-      <c r="D30" s="127" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="14">
-      <c r="A31" s="127" t="s">
+      <c r="D50" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E50" s="121" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="14">
+      <c r="A51" s="121" t="s">
         <v>1209</v>
       </c>
-      <c r="B31" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B31" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A31, ROW(INDIRECT("1:" &amp; LEN(A31))), 1), UPPER(MID(A31, ROW(INDIRECT("1:" &amp; LEN(A31))), 1)))), " " &amp; MID(A31, ROW(INDIRECT("1:" &amp; LEN(A31))), 1), MID(A31, ROW(INDIRECT("1:" &amp; LEN(A31))), 1))), "  ", " ")</f>
+      <c r="B51" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B51" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A51, ROW(INDIRECT("1:" &amp; LEN(A51))), 1), UPPER(MID(A51, ROW(INDIRECT("1:" &amp; LEN(A51))), 1)))), " " &amp; MID(A51, ROW(INDIRECT("1:" &amp; LEN(A51))), 1), MID(A51, ROW(INDIRECT("1:" &amp; LEN(A51))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services</v>
       </c>
-      <c r="C31" s="2" t="str">
+      <c r="C51" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServices</v>
       </c>
-      <c r="D31" s="127" t="s">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="14">
-      <c r="A32" s="127" t="s">
-        <v>1781</v>
-      </c>
-      <c r="B32" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B32" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A32, ROW(INDIRECT("1:" &amp; LEN(A32))), 1), UPPER(MID(A32, ROW(INDIRECT("1:" &amp; LEN(A32))), 1)))), " " &amp; MID(A32, ROW(INDIRECT("1:" &amp; LEN(A32))), 1), MID(A32, ROW(INDIRECT("1:" &amp; LEN(A32))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Charges For Services Fines And Forfeitures Abstract</v>
-      </c>
-      <c r="C32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>acfr:ChargesForServicesFinesAndForfeituresAbstract</v>
-      </c>
-      <c r="D32" s="127" t="s">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="14">
-      <c r="A33" s="127" t="s">
+      <c r="D51" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E51" s="121" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14">
+      <c r="A52" s="121" t="s">
         <v>1211</v>
       </c>
-      <c r="B33" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B33" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A33, ROW(INDIRECT("1:" &amp; LEN(A33))), 1), UPPER(MID(A33, ROW(INDIRECT("1:" &amp; LEN(A33))), 1)))), " " &amp; MID(A33, ROW(INDIRECT("1:" &amp; LEN(A33))), 1), MID(A33, ROW(INDIRECT("1:" &amp; LEN(A33))), 1))), "  ", " ")</f>
+      <c r="B52" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B52" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A52, ROW(INDIRECT("1:" &amp; LEN(A52))), 1), UPPER(MID(A52, ROW(INDIRECT("1:" &amp; LEN(A52))), 1)))), " " &amp; MID(A52, ROW(INDIRECT("1:" &amp; LEN(A52))), 1), MID(A52, ROW(INDIRECT("1:" &amp; LEN(A52))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Traffic Violations</v>
       </c>
-      <c r="C33" s="2" t="str">
+      <c r="C52" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesTrafficViolations</v>
       </c>
-      <c r="D33" s="127" t="s">
+      <c r="D52" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E52" s="121" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14">
-      <c r="A34" s="127" t="s">
+    <row r="53" spans="1:5" ht="14">
+      <c r="A53" s="121" t="s">
         <v>1213</v>
       </c>
-      <c r="B34" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B34" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A34, ROW(INDIRECT("1:" &amp; LEN(A34))), 1), UPPER(MID(A34, ROW(INDIRECT("1:" &amp; LEN(A34))), 1)))), " " &amp; MID(A34, ROW(INDIRECT("1:" &amp; LEN(A34))), 1), MID(A34, ROW(INDIRECT("1:" &amp; LEN(A34))), 1))), "  ", " ")</f>
+      <c r="B53" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B53" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A53, ROW(INDIRECT("1:" &amp; LEN(A53))), 1), UPPER(MID(A53, ROW(INDIRECT("1:" &amp; LEN(A53))), 1)))), " " &amp; MID(A53, ROW(INDIRECT("1:" &amp; LEN(A53))), 1), MID(A53, ROW(INDIRECT("1:" &amp; LEN(A53))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Ordinance Fines And Costs</v>
       </c>
-      <c r="C34" s="2" t="str">
+      <c r="C53" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesOrdinanceFinesAndCosts</v>
       </c>
-      <c r="D34" s="127" t="s">
+      <c r="D53" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E53" s="121" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14">
-      <c r="A35" s="127" t="s">
+    <row r="54" spans="1:5" ht="14">
+      <c r="A54" s="121" t="s">
         <v>1215</v>
       </c>
-      <c r="B35" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B35" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A35, ROW(INDIRECT("1:" &amp; LEN(A35))), 1), UPPER(MID(A35, ROW(INDIRECT("1:" &amp; LEN(A35))), 1)))), " " &amp; MID(A35, ROW(INDIRECT("1:" &amp; LEN(A35))), 1), MID(A35, ROW(INDIRECT("1:" &amp; LEN(A35))), 1))), "  ", " ")</f>
+      <c r="B54" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B54" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A54, ROW(INDIRECT("1:" &amp; LEN(A54))), 1), UPPER(MID(A54, ROW(INDIRECT("1:" &amp; LEN(A54))), 1)))), " " &amp; MID(A54, ROW(INDIRECT("1:" &amp; LEN(A54))), 1), MID(A54, ROW(INDIRECT("1:" &amp; LEN(A54))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Statute Costs</v>
       </c>
-      <c r="C35" s="2" t="str">
+      <c r="C54" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesStatuteCosts</v>
       </c>
-      <c r="D35" s="127" t="s">
+      <c r="D54" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E54" s="121" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14">
-      <c r="A36" s="127" t="s">
+    <row r="55" spans="1:5" ht="14">
+      <c r="A55" s="121" t="s">
         <v>1217</v>
       </c>
-      <c r="B36" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B36" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A36, ROW(INDIRECT("1:" &amp; LEN(A36))), 1), UPPER(MID(A36, ROW(INDIRECT("1:" &amp; LEN(A36))), 1)))), " " &amp; MID(A36, ROW(INDIRECT("1:" &amp; LEN(A36))), 1), MID(A36, ROW(INDIRECT("1:" &amp; LEN(A36))), 1))), "  ", " ")</f>
+      <c r="B55" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B55" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A55, ROW(INDIRECT("1:" &amp; LEN(A55))), 1), UPPER(MID(A55, ROW(INDIRECT("1:" &amp; LEN(A55))), 1)))), " " &amp; MID(A55, ROW(INDIRECT("1:" &amp; LEN(A55))), 1), MID(A55, ROW(INDIRECT("1:" &amp; LEN(A55))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Bond Forfeitures And Bond Costs</v>
       </c>
-      <c r="C36" s="2" t="str">
+      <c r="C55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesBondForfeituresAndBondCosts</v>
       </c>
-      <c r="D36" s="127" t="s">
+      <c r="D55" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E55" s="121" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14">
-      <c r="A37" s="127" t="s">
+    <row r="56" spans="1:5" ht="14">
+      <c r="A56" s="121" t="s">
         <v>1219</v>
       </c>
-      <c r="B37" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B37" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A37, ROW(INDIRECT("1:" &amp; LEN(A37))), 1), UPPER(MID(A37, ROW(INDIRECT("1:" &amp; LEN(A37))), 1)))), " " &amp; MID(A37, ROW(INDIRECT("1:" &amp; LEN(A37))), 1), MID(A37, ROW(INDIRECT("1:" &amp; LEN(A37))), 1))), "  ", " ")</f>
+      <c r="B56" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B56" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A56, ROW(INDIRECT("1:" &amp; LEN(A56))), 1), UPPER(MID(A56, ROW(INDIRECT("1:" &amp; LEN(A56))), 1)))), " " &amp; MID(A56, ROW(INDIRECT("1:" &amp; LEN(A56))), 1), MID(A56, ROW(INDIRECT("1:" &amp; LEN(A56))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Revenue From Fines And Forfeitures And Penalties</v>
       </c>
-      <c r="C37" s="2" t="str">
+      <c r="C56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:RevenueFromFinesAndForfeituresAndPenalties</v>
       </c>
-      <c r="D37" s="127" t="s">
+      <c r="D56" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E56" s="121" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14">
-      <c r="A38" s="127" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B38" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B38" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A38, ROW(INDIRECT("1:" &amp; LEN(A38))), 1), UPPER(MID(A38, ROW(INDIRECT("1:" &amp; LEN(A38))), 1)))), " " &amp; MID(A38, ROW(INDIRECT("1:" &amp; LEN(A38))), 1), MID(A38, ROW(INDIRECT("1:" &amp; LEN(A38))), 1))), "  ", " ")</f>
+    <row r="57" spans="1:5" ht="14">
+      <c r="A57" s="121" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B57" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B57" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A57, ROW(INDIRECT("1:" &amp; LEN(A57))), 1), UPPER(MID(A57, ROW(INDIRECT("1:" &amp; LEN(A57))), 1)))), " " &amp; MID(A57, ROW(INDIRECT("1:" &amp; LEN(A57))), 1), MID(A57, ROW(INDIRECT("1:" &amp; LEN(A57))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Licenses And Permits Revenues Abstract</v>
       </c>
-      <c r="C38" s="2" t="str">
+      <c r="C57" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesLicensesAndPermitsRevenuesAbstract</v>
       </c>
-      <c r="D38" s="127" t="s">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="14">
-      <c r="A39" s="127" t="s">
+      <c r="D57" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E57" s="121" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14">
+      <c r="A58" s="121" t="s">
         <v>1221</v>
       </c>
-      <c r="B39" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B39" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A39, ROW(INDIRECT("1:" &amp; LEN(A39))), 1), UPPER(MID(A39, ROW(INDIRECT("1:" &amp; LEN(A39))), 1)))), " " &amp; MID(A39, ROW(INDIRECT("1:" &amp; LEN(A39))), 1), MID(A39, ROW(INDIRECT("1:" &amp; LEN(A39))), 1))), "  ", " ")</f>
+      <c r="B58" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B58" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A58, ROW(INDIRECT("1:" &amp; LEN(A58))), 1), UPPER(MID(A58, ROW(INDIRECT("1:" &amp; LEN(A58))), 1)))), " " &amp; MID(A58, ROW(INDIRECT("1:" &amp; LEN(A58))), 1), MID(A58, ROW(INDIRECT("1:" &amp; LEN(A58))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Business Licenses And Permits</v>
       </c>
-      <c r="C39" s="2" t="str">
+      <c r="C58" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesBusinessLicensesAndPermits</v>
       </c>
-      <c r="D39" s="127" t="s">
+      <c r="D58" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E58" s="121" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14">
-      <c r="A40" s="127" t="s">
+    <row r="59" spans="1:5" ht="14">
+      <c r="A59" s="121" t="s">
         <v>1223</v>
       </c>
-      <c r="B40" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B40" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A40, ROW(INDIRECT("1:" &amp; LEN(A40))), 1), UPPER(MID(A40, ROW(INDIRECT("1:" &amp; LEN(A40))), 1)))), " " &amp; MID(A40, ROW(INDIRECT("1:" &amp; LEN(A40))), 1), MID(A40, ROW(INDIRECT("1:" &amp; LEN(A40))), 1))), "  ", " ")</f>
+      <c r="B59" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B59" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A59, ROW(INDIRECT("1:" &amp; LEN(A59))), 1), UPPER(MID(A59, ROW(INDIRECT("1:" &amp; LEN(A59))), 1)))), " " &amp; MID(A59, ROW(INDIRECT("1:" &amp; LEN(A59))), 1), MID(A59, ROW(INDIRECT("1:" &amp; LEN(A59))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Cable T V Franchise Fees</v>
       </c>
-      <c r="C40" s="2" t="str">
+      <c r="C59" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesCableTVFranchiseFees</v>
       </c>
-      <c r="D40" s="127" t="s">
+      <c r="D59" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E59" s="121" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14">
-      <c r="A41" s="127" t="s">
+    <row r="60" spans="1:5" ht="14">
+      <c r="A60" s="121" t="s">
         <v>1225</v>
       </c>
-      <c r="B41" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B41" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A41, ROW(INDIRECT("1:" &amp; LEN(A41))), 1), UPPER(MID(A41, ROW(INDIRECT("1:" &amp; LEN(A41))), 1)))), " " &amp; MID(A41, ROW(INDIRECT("1:" &amp; LEN(A41))), 1), MID(A41, ROW(INDIRECT("1:" &amp; LEN(A41))), 1))), "  ", " ")</f>
+      <c r="B60" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B60" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A60, ROW(INDIRECT("1:" &amp; LEN(A60))), 1), UPPER(MID(A60, ROW(INDIRECT("1:" &amp; LEN(A60))), 1)))), " " &amp; MID(A60, ROW(INDIRECT("1:" &amp; LEN(A60))), 1), MID(A60, ROW(INDIRECT("1:" &amp; LEN(A60))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Non Business Licenses And Permits</v>
       </c>
-      <c r="C41" s="2" t="str">
+      <c r="C60" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesNonBusinessLicensesAndPermits</v>
       </c>
-      <c r="D41" s="127" t="s">
+      <c r="D60" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E60" s="121" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14">
-      <c r="A42" s="127" t="s">
+    <row r="61" spans="1:5" ht="14">
+      <c r="A61" s="121" t="s">
         <v>1227</v>
       </c>
-      <c r="B42" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B42" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A42, ROW(INDIRECT("1:" &amp; LEN(A42))), 1), UPPER(MID(A42, ROW(INDIRECT("1:" &amp; LEN(A42))), 1)))), " " &amp; MID(A42, ROW(INDIRECT("1:" &amp; LEN(A42))), 1), MID(A42, ROW(INDIRECT("1:" &amp; LEN(A42))), 1))), "  ", " ")</f>
+      <c r="B61" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B61" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A61, ROW(INDIRECT("1:" &amp; LEN(A61))), 1), UPPER(MID(A61, ROW(INDIRECT("1:" &amp; LEN(A61))), 1)))), " " &amp; MID(A61, ROW(INDIRECT("1:" &amp; LEN(A61))), 1), MID(A61, ROW(INDIRECT("1:" &amp; LEN(A61))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges For Services Licenses And Permits And Franchise Fees</v>
       </c>
-      <c r="C42" s="2" t="str">
+      <c r="C61" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesForServicesLicensesAndPermitsAndFranchiseFees</v>
       </c>
-      <c r="D42" s="127" t="s">
+      <c r="D61" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E61" s="121" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14">
-      <c r="A43" s="127" t="s">
-        <v>1783</v>
-      </c>
-      <c r="B43" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B43" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A43, ROW(INDIRECT("1:" &amp; LEN(A43))), 1), UPPER(MID(A43, ROW(INDIRECT("1:" &amp; LEN(A43))), 1)))), " " &amp; MID(A43, ROW(INDIRECT("1:" &amp; LEN(A43))), 1), MID(A43, ROW(INDIRECT("1:" &amp; LEN(A43))), 1))), "  ", " ")</f>
+    <row r="62" spans="1:5" ht="14">
+      <c r="A62" s="121" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B62" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B62" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A62, ROW(INDIRECT("1:" &amp; LEN(A62))), 1), UPPER(MID(A62, ROW(INDIRECT("1:" &amp; LEN(A62))), 1)))), " " &amp; MID(A62, ROW(INDIRECT("1:" &amp; LEN(A62))), 1), MID(A62, ROW(INDIRECT("1:" &amp; LEN(A62))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Revenue From Tuition And Fees</v>
       </c>
-      <c r="C43" s="2" t="str">
+      <c r="C62" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:RevenueFromTuitionAndFees</v>
       </c>
-      <c r="D43" s="127" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="14">
-      <c r="A44" s="127" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B44" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B44" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A44, ROW(INDIRECT("1:" &amp; LEN(A44))), 1), UPPER(MID(A44, ROW(INDIRECT("1:" &amp; LEN(A44))), 1)))), " " &amp; MID(A44, ROW(INDIRECT("1:" &amp; LEN(A44))), 1), MID(A44, ROW(INDIRECT("1:" &amp; LEN(A44))), 1))), "  ", " ")</f>
+      <c r="D62" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E62" s="121" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="14">
+      <c r="A63" s="121" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B63" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B63" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A63, ROW(INDIRECT("1:" &amp; LEN(A63))), 1), UPPER(MID(A63, ROW(INDIRECT("1:" &amp; LEN(A63))), 1)))), " " &amp; MID(A63, ROW(INDIRECT("1:" &amp; LEN(A63))), 1), MID(A63, ROW(INDIRECT("1:" &amp; LEN(A63))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Tax Collection Fees For Tax Fund</v>
       </c>
-      <c r="C44" s="2" t="str">
+      <c r="C63" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:TaxCollectionFeesForTaxFund</v>
       </c>
-      <c r="D44" s="127" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="14">
-      <c r="A45" s="127" t="s">
-        <v>1785</v>
-      </c>
-      <c r="B45" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B45" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A45, ROW(INDIRECT("1:" &amp; LEN(A45))), 1), UPPER(MID(A45, ROW(INDIRECT("1:" &amp; LEN(A45))), 1)))), " " &amp; MID(A45, ROW(INDIRECT("1:" &amp; LEN(A45))), 1), MID(A45, ROW(INDIRECT("1:" &amp; LEN(A45))), 1))), "  ", " ")</f>
+      <c r="D63" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E63" s="121" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="14">
+      <c r="A64" s="121" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B64" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B64" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A64, ROW(INDIRECT("1:" &amp; LEN(A64))), 1), UPPER(MID(A64, ROW(INDIRECT("1:" &amp; LEN(A64))), 1)))), " " &amp; MID(A64, ROW(INDIRECT("1:" &amp; LEN(A64))), 1), MID(A64, ROW(INDIRECT("1:" &amp; LEN(A64))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Interest And Penalties For Tax Fund</v>
       </c>
-      <c r="C45" s="2" t="str">
+      <c r="C64" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:InterestAndPenaltiesForTaxFund</v>
       </c>
-      <c r="D45" s="127" t="s">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="14">
-      <c r="A46" s="127" t="s">
-        <v>1786</v>
-      </c>
-      <c r="B46" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B46" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A46, ROW(INDIRECT("1:" &amp; LEN(A46))), 1), UPPER(MID(A46, ROW(INDIRECT("1:" &amp; LEN(A46))), 1)))), " " &amp; MID(A46, ROW(INDIRECT("1:" &amp; LEN(A46))), 1), MID(A46, ROW(INDIRECT("1:" &amp; LEN(A46))), 1))), "  ", " ")</f>
+      <c r="D64" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E64" s="121" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14">
+      <c r="A65" s="121" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B65" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B65" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A65, ROW(INDIRECT("1:" &amp; LEN(A65))), 1), UPPER(MID(A65, ROW(INDIRECT("1:" &amp; LEN(A65))), 1)))), " " &amp; MID(A65, ROW(INDIRECT("1:" &amp; LEN(A65))), 1), MID(A65, ROW(INDIRECT("1:" &amp; LEN(A65))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Revenue From Tuition And Fees Net Of Allowances</v>
       </c>
-      <c r="C46" s="2" t="str">
+      <c r="C65" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:RevenueFromTuitionAndFeesNetOfAllowances</v>
       </c>
-      <c r="D46" s="127" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="14">
-      <c r="A47" s="127" t="s">
-        <v>1787</v>
-      </c>
-      <c r="B47" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B47" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A47, ROW(INDIRECT("1:" &amp; LEN(A47))), 1), UPPER(MID(A47, ROW(INDIRECT("1:" &amp; LEN(A47))), 1)))), " " &amp; MID(A47, ROW(INDIRECT("1:" &amp; LEN(A47))), 1), MID(A47, ROW(INDIRECT("1:" &amp; LEN(A47))), 1))), "  ", " ")</f>
+      <c r="D65" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E65" s="121" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="14">
+      <c r="A66" s="121" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B66" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B66" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A66, ROW(INDIRECT("1:" &amp; LEN(A66))), 1), UPPER(MID(A66, ROW(INDIRECT("1:" &amp; LEN(A66))), 1)))), " " &amp; MID(A66, ROW(INDIRECT("1:" &amp; LEN(A66))), 1), MID(A66, ROW(INDIRECT("1:" &amp; LEN(A66))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Scholarship Allowances</v>
       </c>
-      <c r="C47" s="2" t="str">
+      <c r="C66" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ScholarshipAllowances</v>
       </c>
-      <c r="D47" s="127" t="s">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="14">
-      <c r="A48" s="127" t="s">
-        <v>1788</v>
-      </c>
-      <c r="B48" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B48" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A48, ROW(INDIRECT("1:" &amp; LEN(A48))), 1), UPPER(MID(A48, ROW(INDIRECT("1:" &amp; LEN(A48))), 1)))), " " &amp; MID(A48, ROW(INDIRECT("1:" &amp; LEN(A48))), 1), MID(A48, ROW(INDIRECT("1:" &amp; LEN(A48))), 1))), "  ", " ")</f>
+      <c r="D66" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E66" s="121" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="14">
+      <c r="A67" s="121" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B67" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B67" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A67, ROW(INDIRECT("1:" &amp; LEN(A67))), 1), UPPER(MID(A67, ROW(INDIRECT("1:" &amp; LEN(A67))), 1)))), " " &amp; MID(A67, ROW(INDIRECT("1:" &amp; LEN(A67))), 1), MID(A67, ROW(INDIRECT("1:" &amp; LEN(A67))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Tuition And Fees Allowances</v>
       </c>
-      <c r="C48" s="2" t="str">
+      <c r="C67" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:TuitionAndFeesAllowances</v>
       </c>
-      <c r="D48" s="127" t="s">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="14">
-      <c r="A49" s="127" t="s">
-        <v>1789</v>
-      </c>
-      <c r="B49" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B49" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A49, ROW(INDIRECT("1:" &amp; LEN(A49))), 1), UPPER(MID(A49, ROW(INDIRECT("1:" &amp; LEN(A49))), 1)))), " " &amp; MID(A49, ROW(INDIRECT("1:" &amp; LEN(A49))), 1), MID(A49, ROW(INDIRECT("1:" &amp; LEN(A49))), 1))), "  ", " ")</f>
+      <c r="D67" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E67" s="121" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="14">
+      <c r="A68" s="121" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B68" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B68" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A68, ROW(INDIRECT("1:" &amp; LEN(A68))), 1), UPPER(MID(A68, ROW(INDIRECT("1:" &amp; LEN(A68))), 1)))), " " &amp; MID(A68, ROW(INDIRECT("1:" &amp; LEN(A68))), 1), MID(A68, ROW(INDIRECT("1:" &amp; LEN(A68))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Charges To Other Funds</v>
       </c>
-      <c r="C49" s="2" t="str">
+      <c r="C68" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ChargesToOtherFunds</v>
       </c>
-      <c r="D49" s="127" t="s">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="14">
-      <c r="A50" s="127" t="s">
-        <v>1790</v>
-      </c>
-      <c r="B50" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B50" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A50, ROW(INDIRECT("1:" &amp; LEN(A50))), 1), UPPER(MID(A50, ROW(INDIRECT("1:" &amp; LEN(A50))), 1)))), " " &amp; MID(A50, ROW(INDIRECT("1:" &amp; LEN(A50))), 1), MID(A50, ROW(INDIRECT("1:" &amp; LEN(A50))), 1))), "  ", " ")</f>
+      <c r="D68" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E68" s="121" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="14">
+      <c r="A69" s="121" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B69" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B69" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A69, ROW(INDIRECT("1:" &amp; LEN(A69))), 1), UPPER(MID(A69, ROW(INDIRECT("1:" &amp; LEN(A69))), 1)))), " " &amp; MID(A69, ROW(INDIRECT("1:" &amp; LEN(A69))), 1), MID(A69, ROW(INDIRECT("1:" &amp; LEN(A69))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Revenue Fares</v>
       </c>
-      <c r="C50" s="2" t="str">
+      <c r="C69" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:RevenueFares</v>
       </c>
-      <c r="D50" s="127" t="s">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="14">
-      <c r="A51" s="127" t="s">
-        <v>1791</v>
-      </c>
-      <c r="B51" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B51" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A51, ROW(INDIRECT("1:" &amp; LEN(A51))), 1), UPPER(MID(A51, ROW(INDIRECT("1:" &amp; LEN(A51))), 1)))), " " &amp; MID(A51, ROW(INDIRECT("1:" &amp; LEN(A51))), 1), MID(A51, ROW(INDIRECT("1:" &amp; LEN(A51))), 1))), "  ", " ")</f>
+      <c r="D69" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E69" s="121" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="14">
+      <c r="A70" s="121" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B70" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B70" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A70, ROW(INDIRECT("1:" &amp; LEN(A70))), 1), UPPER(MID(A70, ROW(INDIRECT("1:" &amp; LEN(A70))), 1)))), " " &amp; MID(A70, ROW(INDIRECT("1:" &amp; LEN(A70))), 1), MID(A70, ROW(INDIRECT("1:" &amp; LEN(A70))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Regulated Operating Revenue Waste Water</v>
       </c>
-      <c r="C51" s="2" t="str">
+      <c r="C70" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:RegulatedOperatingRevenueWasteWater</v>
       </c>
-      <c r="D51" s="127" t="s">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="14">
-      <c r="A52" s="127" t="s">
-        <v>1792</v>
-      </c>
-      <c r="B52" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B52" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A52, ROW(INDIRECT("1:" &amp; LEN(A52))), 1), UPPER(MID(A52, ROW(INDIRECT("1:" &amp; LEN(A52))), 1)))), " " &amp; MID(A52, ROW(INDIRECT("1:" &amp; LEN(A52))), 1), MID(A52, ROW(INDIRECT("1:" &amp; LEN(A52))), 1))), "  ", " ")</f>
+      <c r="D70" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E70" s="121" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="14">
+      <c r="A71" s="121" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B71" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B71" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A71, ROW(INDIRECT("1:" &amp; LEN(A71))), 1), UPPER(MID(A71, ROW(INDIRECT("1:" &amp; LEN(A71))), 1)))), " " &amp; MID(A71, ROW(INDIRECT("1:" &amp; LEN(A71))), 1), MID(A71, ROW(INDIRECT("1:" &amp; LEN(A71))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Regulated Operating Revenue Water</v>
       </c>
-      <c r="C52" s="2" t="str">
+      <c r="C71" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:RegulatedOperatingRevenueWater</v>
       </c>
-      <c r="D52" s="127" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="14">
-      <c r="A53" s="127" t="s">
-        <v>1793</v>
-      </c>
-      <c r="B53" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B53" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A53, ROW(INDIRECT("1:" &amp; LEN(A53))), 1), UPPER(MID(A53, ROW(INDIRECT("1:" &amp; LEN(A53))), 1)))), " " &amp; MID(A53, ROW(INDIRECT("1:" &amp; LEN(A53))), 1), MID(A53, ROW(INDIRECT("1:" &amp; LEN(A53))), 1))), "  ", " ")</f>
+      <c r="D71" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E71" s="121" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="14">
+      <c r="A72" s="121" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B72" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B72" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A72, ROW(INDIRECT("1:" &amp; LEN(A72))), 1), UPPER(MID(A72, ROW(INDIRECT("1:" &amp; LEN(A72))), 1)))), " " &amp; MID(A72, ROW(INDIRECT("1:" &amp; LEN(A72))), 1), MID(A72, ROW(INDIRECT("1:" &amp; LEN(A72))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Revenuefrom Auxiliary Enterprises</v>
       </c>
-      <c r="C53" s="2" t="str">
+      <c r="C72" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:RevenuefromAuxiliaryEnterprises</v>
       </c>
-      <c r="D53" s="127" t="s">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="14">
-      <c r="A54" s="127" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B54" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B54" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A54, ROW(INDIRECT("1:" &amp; LEN(A54))), 1), UPPER(MID(A54, ROW(INDIRECT("1:" &amp; LEN(A54))), 1)))), " " &amp; MID(A54, ROW(INDIRECT("1:" &amp; LEN(A54))), 1), MID(A54, ROW(INDIRECT("1:" &amp; LEN(A54))), 1))), "  ", " ")</f>
+      <c r="D72" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E72" s="121" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="14">
+      <c r="A73" s="121" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B73" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B73" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A73, ROW(INDIRECT("1:" &amp; LEN(A73))), 1), UPPER(MID(A73, ROW(INDIRECT("1:" &amp; LEN(A73))), 1)))), " " &amp; MID(A73, ROW(INDIRECT("1:" &amp; LEN(A73))), 1), MID(A73, ROW(INDIRECT("1:" &amp; LEN(A73))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Revenue From Connection Fees</v>
       </c>
-      <c r="C54" s="2" t="str">
+      <c r="C73" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:RevenueFromConnectionFees</v>
       </c>
-      <c r="D54" s="127" t="s">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="14">
-      <c r="A55" s="127" t="s">
-        <v>1795</v>
-      </c>
-      <c r="B55" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B55" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A55, ROW(INDIRECT("1:" &amp; LEN(A55))), 1), UPPER(MID(A55, ROW(INDIRECT("1:" &amp; LEN(A55))), 1)))), " " &amp; MID(A55, ROW(INDIRECT("1:" &amp; LEN(A55))), 1), MID(A55, ROW(INDIRECT("1:" &amp; LEN(A55))), 1))), "  ", " ")</f>
+      <c r="D73" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E73" s="121" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="14">
+      <c r="A74" s="121" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B74" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B74" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A74, ROW(INDIRECT("1:" &amp; LEN(A74))), 1), UPPER(MID(A74, ROW(INDIRECT("1:" &amp; LEN(A74))), 1)))), " " &amp; MID(A74, ROW(INDIRECT("1:" &amp; LEN(A74))), 1), MID(A74, ROW(INDIRECT("1:" &amp; LEN(A74))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Revenue From Rents</v>
       </c>
-      <c r="C55" s="2" t="str">
+      <c r="C74" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:RevenueFromRents</v>
       </c>
-      <c r="D55" s="127" t="s">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="14">
-      <c r="A56" s="127" t="s">
-        <v>1796</v>
-      </c>
-      <c r="B56" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B56" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A56, ROW(INDIRECT("1:" &amp; LEN(A56))), 1), UPPER(MID(A56, ROW(INDIRECT("1:" &amp; LEN(A56))), 1)))), " " &amp; MID(A56, ROW(INDIRECT("1:" &amp; LEN(A56))), 1), MID(A56, ROW(INDIRECT("1:" &amp; LEN(A56))), 1))), "  ", " ")</f>
+      <c r="D74" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E74" s="121" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="14">
+      <c r="A75" s="121" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B75" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B75" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A75, ROW(INDIRECT("1:" &amp; LEN(A75))), 1), UPPER(MID(A75, ROW(INDIRECT("1:" &amp; LEN(A75))), 1)))), " " &amp; MID(A75, ROW(INDIRECT("1:" &amp; LEN(A75))), 1), MID(A75, ROW(INDIRECT("1:" &amp; LEN(A75))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Revenue From Installation Fees</v>
       </c>
-      <c r="C56" s="2" t="str">
+      <c r="C75" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:RevenueFromInstallationFees</v>
       </c>
-      <c r="D56" s="127" t="s">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="14">
-      <c r="A57" s="127" t="s">
-        <v>1797</v>
-      </c>
-      <c r="B57" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B57" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A57, ROW(INDIRECT("1:" &amp; LEN(A57))), 1), UPPER(MID(A57, ROW(INDIRECT("1:" &amp; LEN(A57))), 1)))), " " &amp; MID(A57, ROW(INDIRECT("1:" &amp; LEN(A57))), 1), MID(A57, ROW(INDIRECT("1:" &amp; LEN(A57))), 1))), "  ", " ")</f>
+      <c r="D75" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E75" s="121" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="14">
+      <c r="A76" s="121" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B76" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B76" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A76, ROW(INDIRECT("1:" &amp; LEN(A76))), 1), UPPER(MID(A76, ROW(INDIRECT("1:" &amp; LEN(A76))), 1)))), " " &amp; MID(A76, ROW(INDIRECT("1:" &amp; LEN(A76))), 1), MID(A76, ROW(INDIRECT("1:" &amp; LEN(A76))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Revenue From Charges For Utilities</v>
       </c>
-      <c r="C57" s="2" t="str">
+      <c r="C76" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:RevenueFromChargesForUtilities</v>
       </c>
-      <c r="D57" s="127" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="14">
-      <c r="A58" s="127" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B58" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B58" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A58, ROW(INDIRECT("1:" &amp; LEN(A58))), 1), UPPER(MID(A58, ROW(INDIRECT("1:" &amp; LEN(A58))), 1)))), " " &amp; MID(A58, ROW(INDIRECT("1:" &amp; LEN(A58))), 1), MID(A58, ROW(INDIRECT("1:" &amp; LEN(A58))), 1))), "  ", " ")</f>
+      <c r="D76" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E76" s="121" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="14">
+      <c r="A77" s="121" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B77" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B77" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A77, ROW(INDIRECT("1:" &amp; LEN(A77))), 1), UPPER(MID(A77, ROW(INDIRECT("1:" &amp; LEN(A77))), 1)))), " " &amp; MID(A77, ROW(INDIRECT("1:" &amp; LEN(A77))), 1), MID(A77, ROW(INDIRECT("1:" &amp; LEN(A77))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Revenue From Sale Of Fuel</v>
       </c>
-      <c r="C58" s="2" t="str">
+      <c r="C77" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:RevenueFromSaleOfFuel</v>
       </c>
-      <c r="D58" s="127" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="14">
-      <c r="A59" s="127" t="s">
+      <c r="D77" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E77" s="121" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="14">
+      <c r="A78" s="121" t="s">
         <v>1624</v>
       </c>
-      <c r="B59" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B59" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A59, ROW(INDIRECT("1:" &amp; LEN(A59))), 1), UPPER(MID(A59, ROW(INDIRECT("1:" &amp; LEN(A59))), 1)))), " " &amp; MID(A59, ROW(INDIRECT("1:" &amp; LEN(A59))), 1), MID(A59, ROW(INDIRECT("1:" &amp; LEN(A59))), 1))), "  ", " ")</f>
+      <c r="B78" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B78" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A78, ROW(INDIRECT("1:" &amp; LEN(A78))), 1), UPPER(MID(A78, ROW(INDIRECT("1:" &amp; LEN(A78))), 1)))), " " &amp; MID(A78, ROW(INDIRECT("1:" &amp; LEN(A78))), 1), MID(A78, ROW(INDIRECT("1:" &amp; LEN(A78))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Revenue From Refunds And Rebates</v>
       </c>
-      <c r="C59" s="2" t="str">
+      <c r="C78" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:RevenueFromRefundsAndRebates</v>
       </c>
-      <c r="D59" s="127" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="14">
-      <c r="A60" s="127" t="s">
+      <c r="D78" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E78" s="121" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="14">
+      <c r="A79" s="121" t="s">
         <v>1625</v>
       </c>
-      <c r="B60" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B60" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A60, ROW(INDIRECT("1:" &amp; LEN(A60))), 1), UPPER(MID(A60, ROW(INDIRECT("1:" &amp; LEN(A60))), 1)))), " " &amp; MID(A60, ROW(INDIRECT("1:" &amp; LEN(A60))), 1), MID(A60, ROW(INDIRECT("1:" &amp; LEN(A60))), 1))), "  ", " ")</f>
+      <c r="B79" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B79" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A79, ROW(INDIRECT("1:" &amp; LEN(A79))), 1), UPPER(MID(A79, ROW(INDIRECT("1:" &amp; LEN(A79))), 1)))), " " &amp; MID(A79, ROW(INDIRECT("1:" &amp; LEN(A79))), 1), MID(A79, ROW(INDIRECT("1:" &amp; LEN(A79))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Revenue From Reimbursements</v>
       </c>
-      <c r="C60" s="2" t="str">
+      <c r="C79" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:RevenueFromReimbursements</v>
       </c>
-      <c r="D60" s="127" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="14">
-      <c r="A61" s="127" t="s">
-        <v>1799</v>
-      </c>
-      <c r="B61" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B61" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A61, ROW(INDIRECT("1:" &amp; LEN(A61))), 1), UPPER(MID(A61, ROW(INDIRECT("1:" &amp; LEN(A61))), 1)))), " " &amp; MID(A61, ROW(INDIRECT("1:" &amp; LEN(A61))), 1), MID(A61, ROW(INDIRECT("1:" &amp; LEN(A61))), 1))), "  ", " ")</f>
+      <c r="D79" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E79" s="121" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="14">
+      <c r="A80" s="121" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B80" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B80" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A80, ROW(INDIRECT("1:" &amp; LEN(A80))), 1), UPPER(MID(A80, ROW(INDIRECT("1:" &amp; LEN(A80))), 1)))), " " &amp; MID(A80, ROW(INDIRECT("1:" &amp; LEN(A80))), 1), MID(A80, ROW(INDIRECT("1:" &amp; LEN(A80))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Lottery Revenues Abstract</v>
       </c>
-      <c r="C61" s="2" t="str">
+      <c r="C80" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:LotteryRevenuesAbstract</v>
       </c>
-      <c r="D61" s="127" t="s">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="14">
-      <c r="A62" s="127" t="s">
-        <v>1800</v>
-      </c>
-      <c r="B62" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B62" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A62, ROW(INDIRECT("1:" &amp; LEN(A62))), 1), UPPER(MID(A62, ROW(INDIRECT("1:" &amp; LEN(A62))), 1)))), " " &amp; MID(A62, ROW(INDIRECT("1:" &amp; LEN(A62))), 1), MID(A62, ROW(INDIRECT("1:" &amp; LEN(A62))), 1))), "  ", " ")</f>
+      <c r="D80" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E80" s="121" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="14">
+      <c r="A81" s="121" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B81" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B81" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A81, ROW(INDIRECT("1:" &amp; LEN(A81))), 1), UPPER(MID(A81, ROW(INDIRECT("1:" &amp; LEN(A81))), 1)))), " " &amp; MID(A81, ROW(INDIRECT("1:" &amp; LEN(A81))), 1), MID(A81, ROW(INDIRECT("1:" &amp; LEN(A81))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Revenue From Lottery Ticket Sales</v>
       </c>
-      <c r="C62" s="2" t="str">
+      <c r="C81" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:RevenueFromLotteryTicketSales</v>
       </c>
-      <c r="D62" s="127" t="s">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="14">
-      <c r="A63" s="127" t="s">
-        <v>1801</v>
-      </c>
-      <c r="B63" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B63" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A63, ROW(INDIRECT("1:" &amp; LEN(A63))), 1), UPPER(MID(A63, ROW(INDIRECT("1:" &amp; LEN(A63))), 1)))), " " &amp; MID(A63, ROW(INDIRECT("1:" &amp; LEN(A63))), 1), MID(A63, ROW(INDIRECT("1:" &amp; LEN(A63))), 1))), "  ", " ")</f>
+      <c r="D81" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E81" s="121" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="14">
+      <c r="A82" s="121" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B82" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B82" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A82, ROW(INDIRECT("1:" &amp; LEN(A82))), 1), UPPER(MID(A82, ROW(INDIRECT("1:" &amp; LEN(A82))), 1)))), " " &amp; MID(A82, ROW(INDIRECT("1:" &amp; LEN(A82))), 1), MID(A82, ROW(INDIRECT("1:" &amp; LEN(A82))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Revenue From Lottery License Application Fees</v>
       </c>
-      <c r="C63" s="2" t="str">
+      <c r="C82" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:RevenueFromLotteryLicenseApplicationFees</v>
       </c>
-      <c r="D63" s="127" t="s">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="14">
-      <c r="A64" s="127" t="s">
-        <v>1802</v>
-      </c>
-      <c r="B64" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B64" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A64, ROW(INDIRECT("1:" &amp; LEN(A64))), 1), UPPER(MID(A64, ROW(INDIRECT("1:" &amp; LEN(A64))), 1)))), " " &amp; MID(A64, ROW(INDIRECT("1:" &amp; LEN(A64))), 1), MID(A64, ROW(INDIRECT("1:" &amp; LEN(A64))), 1))), "  ", " ")</f>
+      <c r="D82" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E82" s="121" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="14">
+      <c r="A83" s="121" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B83" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B83" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A83, ROW(INDIRECT("1:" &amp; LEN(A83))), 1), UPPER(MID(A83, ROW(INDIRECT("1:" &amp; LEN(A83))), 1)))), " " &amp; MID(A83, ROW(INDIRECT("1:" &amp; LEN(A83))), 1), MID(A83, ROW(INDIRECT("1:" &amp; LEN(A83))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Revenue From Lottery Security Proceeds</v>
       </c>
-      <c r="C64" s="2" t="str">
+      <c r="C83" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:RevenueFromLotterySecurityProceeds</v>
       </c>
-      <c r="D64" s="127" t="s">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="14">
-      <c r="A65" s="127" t="s">
-        <v>1803</v>
-      </c>
-      <c r="B65" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B65" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A65, ROW(INDIRECT("1:" &amp; LEN(A65))), 1), UPPER(MID(A65, ROW(INDIRECT("1:" &amp; LEN(A65))), 1)))), " " &amp; MID(A65, ROW(INDIRECT("1:" &amp; LEN(A65))), 1), MID(A65, ROW(INDIRECT("1:" &amp; LEN(A65))), 1))), "  ", " ")</f>
+      <c r="D83" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E83" s="121" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="14">
+      <c r="A84" s="121" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B84" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B84" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A84, ROW(INDIRECT("1:" &amp; LEN(A84))), 1), UPPER(MID(A84, ROW(INDIRECT("1:" &amp; LEN(A84))), 1)))), " " &amp; MID(A84, ROW(INDIRECT("1:" &amp; LEN(A84))), 1), MID(A84, ROW(INDIRECT("1:" &amp; LEN(A84))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Expenses For Lottery License Application Fees</v>
       </c>
-      <c r="C65" s="2" t="str">
+      <c r="C84" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:ExpensesForLotteryLicenseApplicationFees</v>
       </c>
-      <c r="D65" s="127" t="s">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="14">
-      <c r="A66" s="127" t="s">
-        <v>1804</v>
-      </c>
-      <c r="B66" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B66" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A66, ROW(INDIRECT("1:" &amp; LEN(A66))), 1), UPPER(MID(A66, ROW(INDIRECT("1:" &amp; LEN(A66))), 1)))), " " &amp; MID(A66, ROW(INDIRECT("1:" &amp; LEN(A66))), 1), MID(A66, ROW(INDIRECT("1:" &amp; LEN(A66))), 1))), "  ", " ")</f>
+      <c r="D84" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E84" s="121" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="14">
+      <c r="A85" s="121" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B85" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B85" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A85, ROW(INDIRECT("1:" &amp; LEN(A85))), 1), UPPER(MID(A85, ROW(INDIRECT("1:" &amp; LEN(A85))), 1)))), " " &amp; MID(A85, ROW(INDIRECT("1:" &amp; LEN(A85))), 1), MID(A85, ROW(INDIRECT("1:" &amp; LEN(A85))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Operating Contributions And Premiums</v>
       </c>
-      <c r="C66" s="2" t="str">
+      <c r="C85" s="2" t="str">
         <f t="shared" si="0"/>
         <v>acfr:OperatingContributionsAndPremiums</v>
       </c>
-      <c r="D66" s="127" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="14">
-      <c r="A67" s="127" t="s">
-        <v>1805</v>
-      </c>
-      <c r="B67" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B67" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A67, ROW(INDIRECT("1:" &amp; LEN(A67))), 1), UPPER(MID(A67, ROW(INDIRECT("1:" &amp; LEN(A67))), 1)))), " " &amp; MID(A67, ROW(INDIRECT("1:" &amp; LEN(A67))), 1), MID(A67, ROW(INDIRECT("1:" &amp; LEN(A67))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Operating Grants</v>
-      </c>
-      <c r="C67" s="2" t="str">
-        <f t="shared" ref="C67:C130" si="1">"acfr:"&amp;A67</f>
-        <v>acfr:OperatingGrants</v>
-      </c>
-      <c r="D67" s="127" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="14">
-      <c r="A68" s="127" t="s">
-        <v>1806</v>
-      </c>
-      <c r="B68" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B68" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A68, ROW(INDIRECT("1:" &amp; LEN(A68))), 1), UPPER(MID(A68, ROW(INDIRECT("1:" &amp; LEN(A68))), 1)))), " " &amp; MID(A68, ROW(INDIRECT("1:" &amp; LEN(A68))), 1), MID(A68, ROW(INDIRECT("1:" &amp; LEN(A68))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Other Operating Revenue</v>
-      </c>
-      <c r="C68" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:OtherOperatingRevenue</v>
-      </c>
-      <c r="D68" s="127" t="s">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="14">
-      <c r="A69" s="127" t="s">
-        <v>1807</v>
-      </c>
-      <c r="B69" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B69" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A69, ROW(INDIRECT("1:" &amp; LEN(A69))), 1), UPPER(MID(A69, ROW(INDIRECT("1:" &amp; LEN(A69))), 1)))), " " &amp; MID(A69, ROW(INDIRECT("1:" &amp; LEN(A69))), 1), MID(A69, ROW(INDIRECT("1:" &amp; LEN(A69))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue Operating</v>
-      </c>
-      <c r="C69" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:RevenueOperating</v>
-      </c>
-      <c r="D69" s="127" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="14">
-      <c r="A70" s="127" t="s">
-        <v>1808</v>
-      </c>
-      <c r="B70" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B70" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A70, ROW(INDIRECT("1:" &amp; LEN(A70))), 1), UPPER(MID(A70, ROW(INDIRECT("1:" &amp; LEN(A70))), 1)))), " " &amp; MID(A70, ROW(INDIRECT("1:" &amp; LEN(A70))), 1), MID(A70, ROW(INDIRECT("1:" &amp; LEN(A70))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Operating Expenses Abstract</v>
-      </c>
-      <c r="C70" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:OperatingExpensesAbstract</v>
-      </c>
-      <c r="D70" s="127" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="14">
-      <c r="A71" s="127" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B71" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B71" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A71, ROW(INDIRECT("1:" &amp; LEN(A71))), 1), UPPER(MID(A71, ROW(INDIRECT("1:" &amp; LEN(A71))), 1)))), " " &amp; MID(A71, ROW(INDIRECT("1:" &amp; LEN(A71))), 1), MID(A71, ROW(INDIRECT("1:" &amp; LEN(A71))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Public Works Operating Expenses Abstract</v>
-      </c>
-      <c r="C71" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:PublicWorksOperatingExpensesAbstract</v>
-      </c>
-      <c r="D71" s="127" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="14">
-      <c r="A72" s="127" t="s">
-        <v>1810</v>
-      </c>
-      <c r="B72" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B72" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A72, ROW(INDIRECT("1:" &amp; LEN(A72))), 1), UPPER(MID(A72, ROW(INDIRECT("1:" &amp; LEN(A72))), 1)))), " " &amp; MID(A72, ROW(INDIRECT("1:" &amp; LEN(A72))), 1), MID(A72, ROW(INDIRECT("1:" &amp; LEN(A72))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Department Of Public Works D P W</v>
-      </c>
-      <c r="C72" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForDepartmentOfPublicWorksDPW</v>
-      </c>
-      <c r="D72" s="127" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="14">
-      <c r="A73" s="127" t="s">
-        <v>1811</v>
-      </c>
-      <c r="B73" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B73" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A73, ROW(INDIRECT("1:" &amp; LEN(A73))), 1), UPPER(MID(A73, ROW(INDIRECT("1:" &amp; LEN(A73))), 1)))), " " &amp; MID(A73, ROW(INDIRECT("1:" &amp; LEN(A73))), 1), MID(A73, ROW(INDIRECT("1:" &amp; LEN(A73))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Engineers Engineering</v>
-      </c>
-      <c r="C73" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForEngineersEngineering</v>
-      </c>
-      <c r="D73" s="127" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="14">
-      <c r="A74" s="127" t="s">
-        <v>1812</v>
-      </c>
-      <c r="B74" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B74" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A74, ROW(INDIRECT("1:" &amp; LEN(A74))), 1), UPPER(MID(A74, ROW(INDIRECT("1:" &amp; LEN(A74))), 1)))), " " &amp; MID(A74, ROW(INDIRECT("1:" &amp; LEN(A74))), 1), MID(A74, ROW(INDIRECT("1:" &amp; LEN(A74))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Sanitation Department</v>
-      </c>
-      <c r="C74" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForSanitationDepartment</v>
-      </c>
-      <c r="D74" s="127" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="14">
-      <c r="A75" s="127" t="s">
-        <v>1813</v>
-      </c>
-      <c r="B75" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B75" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A75, ROW(INDIRECT("1:" &amp; LEN(A75))), 1), UPPER(MID(A75, ROW(INDIRECT("1:" &amp; LEN(A75))), 1)))), " " &amp; MID(A75, ROW(INDIRECT("1:" &amp; LEN(A75))), 1), MID(A75, ROW(INDIRECT("1:" &amp; LEN(A75))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Sanitary Landfill</v>
-      </c>
-      <c r="C75" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForSanitaryLandfill</v>
-      </c>
-      <c r="D75" s="127" t="s">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="14">
-      <c r="A76" s="127" t="s">
-        <v>1814</v>
-      </c>
-      <c r="B76" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B76" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A76, ROW(INDIRECT("1:" &amp; LEN(A76))), 1), UPPER(MID(A76, ROW(INDIRECT("1:" &amp; LEN(A76))), 1)))), " " &amp; MID(A76, ROW(INDIRECT("1:" &amp; LEN(A76))), 1), MID(A76, ROW(INDIRECT("1:" &amp; LEN(A76))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Sewage Disposal</v>
-      </c>
-      <c r="C76" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForSewageDisposal</v>
-      </c>
-      <c r="D76" s="127" t="s">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="14">
-      <c r="A77" s="127" t="s">
-        <v>1815</v>
-      </c>
-      <c r="B77" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B77" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A77, ROW(INDIRECT("1:" &amp; LEN(A77))), 1), UPPER(MID(A77, ROW(INDIRECT("1:" &amp; LEN(A77))), 1)))), " " &amp; MID(A77, ROW(INDIRECT("1:" &amp; LEN(A77))), 1), MID(A77, ROW(INDIRECT("1:" &amp; LEN(A77))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Water And Sewer Systems</v>
-      </c>
-      <c r="C77" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForWaterAndSewerSystems</v>
-      </c>
-      <c r="D77" s="127" t="s">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="14">
-      <c r="A78" s="127" t="s">
-        <v>1816</v>
-      </c>
-      <c r="B78" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B78" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A78, ROW(INDIRECT("1:" &amp; LEN(A78))), 1), UPPER(MID(A78, ROW(INDIRECT("1:" &amp; LEN(A78))), 1)))), " " &amp; MID(A78, ROW(INDIRECT("1:" &amp; LEN(A78))), 1), MID(A78, ROW(INDIRECT("1:" &amp; LEN(A78))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Rubbish Collection</v>
-      </c>
-      <c r="C78" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForRubbishCollection</v>
-      </c>
-      <c r="D78" s="127" t="s">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="14">
-      <c r="A79" s="127" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B79" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B79" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A79, ROW(INDIRECT("1:" &amp; LEN(A79))), 1), UPPER(MID(A79, ROW(INDIRECT("1:" &amp; LEN(A79))), 1)))), " " &amp; MID(A79, ROW(INDIRECT("1:" &amp; LEN(A79))), 1), MID(A79, ROW(INDIRECT("1:" &amp; LEN(A79))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Airports Services</v>
-      </c>
-      <c r="C79" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForAirportsServices</v>
-      </c>
-      <c r="D79" s="127" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="14">
-      <c r="A80" s="127" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B80" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B80" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A80, ROW(INDIRECT("1:" &amp; LEN(A80))), 1), UPPER(MID(A80, ROW(INDIRECT("1:" &amp; LEN(A80))), 1)))), " " &amp; MID(A80, ROW(INDIRECT("1:" &amp; LEN(A80))), 1), MID(A80, ROW(INDIRECT("1:" &amp; LEN(A80))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Transportation Services</v>
-      </c>
-      <c r="C80" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForTransportationServices</v>
-      </c>
-      <c r="D80" s="127" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="14">
-      <c r="A81" s="127" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B81" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B81" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A81, ROW(INDIRECT("1:" &amp; LEN(A81))), 1), UPPER(MID(A81, ROW(INDIRECT("1:" &amp; LEN(A81))), 1)))), " " &amp; MID(A81, ROW(INDIRECT("1:" &amp; LEN(A81))), 1), MID(A81, ROW(INDIRECT("1:" &amp; LEN(A81))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Harbor Services</v>
-      </c>
-      <c r="C81" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForHarborServices</v>
-      </c>
-      <c r="D81" s="127" t="s">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="14">
-      <c r="A82" s="127" t="s">
-        <v>1817</v>
-      </c>
-      <c r="B82" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B82" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A82, ROW(INDIRECT("1:" &amp; LEN(A82))), 1), UPPER(MID(A82, ROW(INDIRECT("1:" &amp; LEN(A82))), 1)))), " " &amp; MID(A82, ROW(INDIRECT("1:" &amp; LEN(A82))), 1), MID(A82, ROW(INDIRECT("1:" &amp; LEN(A82))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Health Operating Expenses Abstract</v>
-      </c>
-      <c r="C82" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:HealthOperatingExpensesAbstract</v>
-      </c>
-      <c r="D82" s="127" t="s">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="14">
-      <c r="A83" s="127" t="s">
-        <v>1818</v>
-      </c>
-      <c r="B83" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B83" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A83, ROW(INDIRECT("1:" &amp; LEN(A83))), 1), UPPER(MID(A83, ROW(INDIRECT("1:" &amp; LEN(A83))), 1)))), " " &amp; MID(A83, ROW(INDIRECT("1:" &amp; LEN(A83))), 1), MID(A83, ROW(INDIRECT("1:" &amp; LEN(A83))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Hospitalization</v>
-      </c>
-      <c r="C83" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForHospitalization</v>
-      </c>
-      <c r="D83" s="127" t="s">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="14">
-      <c r="A84" s="127" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B84" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B84" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A84, ROW(INDIRECT("1:" &amp; LEN(A84))), 1), UPPER(MID(A84, ROW(INDIRECT("1:" &amp; LEN(A84))), 1)))), " " &amp; MID(A84, ROW(INDIRECT("1:" &amp; LEN(A84))), 1), MID(A84, ROW(INDIRECT("1:" &amp; LEN(A84))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Ambulance</v>
-      </c>
-      <c r="C84" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForAmbulance</v>
-      </c>
-      <c r="D84" s="127" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="14">
-      <c r="A85" s="127" t="s">
-        <v>1819</v>
-      </c>
-      <c r="B85" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B85" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A85, ROW(INDIRECT("1:" &amp; LEN(A85))), 1), UPPER(MID(A85, ROW(INDIRECT("1:" &amp; LEN(A85))), 1)))), " " &amp; MID(A85, ROW(INDIRECT("1:" &amp; LEN(A85))), 1), MID(A85, ROW(INDIRECT("1:" &amp; LEN(A85))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Hospital Operations</v>
-      </c>
-      <c r="C85" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForHospitalOperations</v>
-      </c>
-      <c r="D85" s="127" t="s">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="14">
-      <c r="A86" s="127" t="s">
-        <v>1820</v>
+      <c r="D85" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E85" s="121" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="14">
+      <c r="A86" s="121" t="s">
+        <v>1804</v>
       </c>
       <c r="B86" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B86" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A86, ROW(INDIRECT("1:" &amp; LEN(A86))), 1), UPPER(MID(A86, ROW(INDIRECT("1:" &amp; LEN(A86))), 1)))), " " &amp; MID(A86, ROW(INDIRECT("1:" &amp; LEN(A86))), 1), MID(A86, ROW(INDIRECT("1:" &amp; LEN(A86))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Recreation And Culture Operating Expenses Abstract</v>
+        <v xml:space="preserve"> Operating Grants</v>
       </c>
       <c r="C86" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:RecreationAndCultureOperatingExpensesAbstract</v>
-      </c>
-      <c r="D86" s="127" t="s">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="14">
-      <c r="A87" s="127" t="s">
-        <v>1821</v>
+        <f t="shared" ref="C86:C145" si="2">"acfr:"&amp;A86</f>
+        <v>acfr:OperatingGrants</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E86" s="121" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="14">
+      <c r="A87" s="121" t="s">
+        <v>1805</v>
       </c>
       <c r="B87" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B87" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A87, ROW(INDIRECT("1:" &amp; LEN(A87))), 1), UPPER(MID(A87, ROW(INDIRECT("1:" &amp; LEN(A87))), 1)))), " " &amp; MID(A87, ROW(INDIRECT("1:" &amp; LEN(A87))), 1), MID(A87, ROW(INDIRECT("1:" &amp; LEN(A87))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Parks And Recreation Department</v>
+        <v xml:space="preserve"> Other Operating Revenue</v>
       </c>
       <c r="C87" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForParksAndRecreationDepartment</v>
-      </c>
-      <c r="D87" s="127" t="s">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="14">
-      <c r="A88" s="127" t="s">
-        <v>1822</v>
+        <f t="shared" si="2"/>
+        <v>acfr:OtherOperatingRevenue</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E87" s="121" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="14">
+      <c r="A88" s="121" t="s">
+        <v>1806</v>
       </c>
       <c r="B88" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B88" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A88, ROW(INDIRECT("1:" &amp; LEN(A88))), 1), UPPER(MID(A88, ROW(INDIRECT("1:" &amp; LEN(A88))), 1)))), " " &amp; MID(A88, ROW(INDIRECT("1:" &amp; LEN(A88))), 1), MID(A88, ROW(INDIRECT("1:" &amp; LEN(A88))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Parks Administration</v>
+        <v xml:space="preserve"> Revenue Operating</v>
       </c>
       <c r="C88" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForParksAdministration</v>
-      </c>
-      <c r="D88" s="127" t="s">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="14">
-      <c r="A89" s="127" t="s">
-        <v>1823</v>
+        <f t="shared" si="2"/>
+        <v>acfr:RevenueOperating</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E88" s="121" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="14">
+      <c r="A89" s="121" t="s">
+        <v>1809</v>
       </c>
       <c r="B89" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B89" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A89, ROW(INDIRECT("1:" &amp; LEN(A89))), 1), UPPER(MID(A89, ROW(INDIRECT("1:" &amp; LEN(A89))), 1)))), " " &amp; MID(A89, ROW(INDIRECT("1:" &amp; LEN(A89))), 1), MID(A89, ROW(INDIRECT("1:" &amp; LEN(A89))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Parks Facilities</v>
+        <v xml:space="preserve"> Expenses For Department Of Public Works D P W</v>
       </c>
       <c r="C89" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForParksFacilities</v>
-      </c>
-      <c r="D89" s="127" t="s">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="14">
-      <c r="A90" s="127" t="s">
-        <v>1824</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForDepartmentOfPublicWorksDPW</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E89" s="121" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="14">
+      <c r="A90" s="121" t="s">
+        <v>1810</v>
       </c>
       <c r="B90" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B90" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A90, ROW(INDIRECT("1:" &amp; LEN(A90))), 1), UPPER(MID(A90, ROW(INDIRECT("1:" &amp; LEN(A90))), 1)))), " " &amp; MID(A90, ROW(INDIRECT("1:" &amp; LEN(A90))), 1), MID(A90, ROW(INDIRECT("1:" &amp; LEN(A90))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Parks Supervision</v>
+        <v xml:space="preserve"> Expenses For Engineers Engineering</v>
       </c>
       <c r="C90" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForParksSupervision</v>
-      </c>
-      <c r="D90" s="127" t="s">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="14">
-      <c r="A91" s="127" t="s">
-        <v>1825</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForEngineersEngineering</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E90" s="121" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="14">
+      <c r="A91" s="121" t="s">
+        <v>1811</v>
       </c>
       <c r="B91" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B91" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A91, ROW(INDIRECT("1:" &amp; LEN(A91))), 1), UPPER(MID(A91, ROW(INDIRECT("1:" &amp; LEN(A91))), 1)))), " " &amp; MID(A91, ROW(INDIRECT("1:" &amp; LEN(A91))), 1), MID(A91, ROW(INDIRECT("1:" &amp; LEN(A91))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Parks Policing</v>
+        <v xml:space="preserve"> Expenses For Sanitation Department</v>
       </c>
       <c r="C91" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForParksPolicing</v>
-      </c>
-      <c r="D91" s="127" t="s">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="14">
-      <c r="A92" s="127" t="s">
-        <v>1826</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForSanitationDepartment</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E91" s="121" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="14">
+      <c r="A92" s="121" t="s">
+        <v>1812</v>
       </c>
       <c r="B92" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B92" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A92, ROW(INDIRECT("1:" &amp; LEN(A92))), 1), UPPER(MID(A92, ROW(INDIRECT("1:" &amp; LEN(A92))), 1)))), " " &amp; MID(A92, ROW(INDIRECT("1:" &amp; LEN(A92))), 1), MID(A92, ROW(INDIRECT("1:" &amp; LEN(A92))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Parks Lighting</v>
+        <v xml:space="preserve"> Expenses For Sanitary Landfill</v>
       </c>
       <c r="C92" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForParksLighting</v>
-      </c>
-      <c r="D92" s="127" t="s">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="14">
-      <c r="A93" s="127" t="s">
-        <v>1827</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForSanitaryLandfill</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E92" s="121" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="14">
+      <c r="A93" s="121" t="s">
+        <v>1813</v>
       </c>
       <c r="B93" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B93" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A93, ROW(INDIRECT("1:" &amp; LEN(A93))), 1), UPPER(MID(A93, ROW(INDIRECT("1:" &amp; LEN(A93))), 1)))), " " &amp; MID(A93, ROW(INDIRECT("1:" &amp; LEN(A93))), 1), MID(A93, ROW(INDIRECT("1:" &amp; LEN(A93))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Parks Maintenance</v>
+        <v xml:space="preserve"> Expenses For Sewage Disposal</v>
       </c>
       <c r="C93" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForParksMaintenance</v>
-      </c>
-      <c r="D93" s="127" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="14">
-      <c r="A94" s="127" t="s">
-        <v>1287</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForSewageDisposal</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E93" s="121" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="14">
+      <c r="A94" s="121" t="s">
+        <v>1814</v>
       </c>
       <c r="B94" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B94" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A94, ROW(INDIRECT("1:" &amp; LEN(A94))), 1), UPPER(MID(A94, ROW(INDIRECT("1:" &amp; LEN(A94))), 1)))), " " &amp; MID(A94, ROW(INDIRECT("1:" &amp; LEN(A94))), 1), MID(A94, ROW(INDIRECT("1:" &amp; LEN(A94))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Parks And Recreation</v>
+        <v xml:space="preserve"> Expenses For Water And Sewer Systems</v>
       </c>
       <c r="C94" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForParksAndRecreation</v>
-      </c>
-      <c r="D94" s="127" t="s">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="14">
-      <c r="A95" s="127" t="s">
-        <v>1828</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForWaterAndSewerSystems</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E94" s="121" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="14">
+      <c r="A95" s="121" t="s">
+        <v>1815</v>
       </c>
       <c r="B95" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B95" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A95, ROW(INDIRECT("1:" &amp; LEN(A95))), 1), UPPER(MID(A95, ROW(INDIRECT("1:" &amp; LEN(A95))), 1)))), " " &amp; MID(A95, ROW(INDIRECT("1:" &amp; LEN(A95))), 1), MID(A95, ROW(INDIRECT("1:" &amp; LEN(A95))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Academic Support</v>
+        <v xml:space="preserve"> Expenses For Rubbish Collection</v>
       </c>
       <c r="C95" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForAcademicSupport</v>
-      </c>
-      <c r="D95" s="127" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="14">
-      <c r="A96" s="127" t="s">
-        <v>1829</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForRubbishCollection</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E95" s="121" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="14">
+      <c r="A96" s="121" t="s">
+        <v>1291</v>
       </c>
       <c r="B96" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B96" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A96, ROW(INDIRECT("1:" &amp; LEN(A96))), 1), UPPER(MID(A96, ROW(INDIRECT("1:" &amp; LEN(A96))), 1)))), " " &amp; MID(A96, ROW(INDIRECT("1:" &amp; LEN(A96))), 1), MID(A96, ROW(INDIRECT("1:" &amp; LEN(A96))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Auditorium Civic Center</v>
+        <v xml:space="preserve"> Expenses For Airports Services</v>
       </c>
       <c r="C96" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForAuditoriumCivicCenter</v>
-      </c>
-      <c r="D96" s="127" t="s">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="14">
-      <c r="A97" s="127" t="s">
-        <v>1322</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForAirportsServices</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E96" s="121" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="14">
+      <c r="A97" s="121" t="s">
+        <v>1292</v>
       </c>
       <c r="B97" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B97" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A97, ROW(INDIRECT("1:" &amp; LEN(A97))), 1), UPPER(MID(A97, ROW(INDIRECT("1:" &amp; LEN(A97))), 1)))), " " &amp; MID(A97, ROW(INDIRECT("1:" &amp; LEN(A97))), 1), MID(A97, ROW(INDIRECT("1:" &amp; LEN(A97))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Other Public Services</v>
+        <v xml:space="preserve"> Expenses For Transportation Services</v>
       </c>
       <c r="C97" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForOtherPublicServices</v>
-      </c>
-      <c r="D97" s="127" t="s">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="14">
-      <c r="A98" s="127" t="s">
-        <v>1830</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForTransportationServices</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E97" s="121" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="14">
+      <c r="A98" s="121" t="s">
+        <v>1285</v>
       </c>
       <c r="B98" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B98" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A98, ROW(INDIRECT("1:" &amp; LEN(A98))), 1), UPPER(MID(A98, ROW(INDIRECT("1:" &amp; LEN(A98))), 1)))), " " &amp; MID(A98, ROW(INDIRECT("1:" &amp; LEN(A98))), 1), MID(A98, ROW(INDIRECT("1:" &amp; LEN(A98))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Instruction</v>
+        <v xml:space="preserve"> Expenses For Harbor Services</v>
       </c>
       <c r="C98" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForInstruction</v>
-      </c>
-      <c r="D98" s="127" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="14">
-      <c r="A99" s="127" t="s">
-        <v>1831</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForHarborServices</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E98" s="121" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="14">
+      <c r="A99" s="121" t="s">
+        <v>1817</v>
       </c>
       <c r="B99" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B99" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A99, ROW(INDIRECT("1:" &amp; LEN(A99))), 1), UPPER(MID(A99, ROW(INDIRECT("1:" &amp; LEN(A99))), 1)))), " " &amp; MID(A99, ROW(INDIRECT("1:" &amp; LEN(A99))), 1), MID(A99, ROW(INDIRECT("1:" &amp; LEN(A99))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Student Grants And Scholarships</v>
+        <v xml:space="preserve"> Expenses For Hospitalization</v>
       </c>
       <c r="C99" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForStudentGrantsAndScholarships</v>
-      </c>
-      <c r="D99" s="127" t="s">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="14">
-      <c r="A100" s="127" t="s">
-        <v>1313</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForHospitalization</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E99" s="121" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="14">
+      <c r="A100" s="121" t="s">
+        <v>1269</v>
       </c>
       <c r="B100" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B100" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A100, ROW(INDIRECT("1:" &amp; LEN(A100))), 1), UPPER(MID(A100, ROW(INDIRECT("1:" &amp; LEN(A100))), 1)))), " " &amp; MID(A100, ROW(INDIRECT("1:" &amp; LEN(A100))), 1), MID(A100, ROW(INDIRECT("1:" &amp; LEN(A100))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Financial And Tax Administration Information Technology</v>
+        <v xml:space="preserve"> Expenses For Ambulance</v>
       </c>
       <c r="C100" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForFinancialAndTaxAdministrationInformationTechnology</v>
-      </c>
-      <c r="D100" s="127" t="s">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="14">
-      <c r="A101" s="127" t="s">
-        <v>1832</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForAmbulance</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E100" s="121" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="14">
+      <c r="A101" s="121" t="s">
+        <v>1818</v>
       </c>
       <c r="B101" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B101" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A101, ROW(INDIRECT("1:" &amp; LEN(A101))), 1), UPPER(MID(A101, ROW(INDIRECT("1:" &amp; LEN(A101))), 1)))), " " &amp; MID(A101, ROW(INDIRECT("1:" &amp; LEN(A101))), 1), MID(A101, ROW(INDIRECT("1:" &amp; LEN(A101))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Student Service</v>
+        <v xml:space="preserve"> Expenses For Hospital Operations</v>
       </c>
       <c r="C101" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForStudentService</v>
-      </c>
-      <c r="D101" s="127" t="s">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="14">
-      <c r="A102" s="127" t="s">
-        <v>1833</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForHospitalOperations</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E101" s="121" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="14">
+      <c r="A102" s="121" t="s">
+        <v>1820</v>
       </c>
       <c r="B102" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B102" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A102, ROW(INDIRECT("1:" &amp; LEN(A102))), 1), UPPER(MID(A102, ROW(INDIRECT("1:" &amp; LEN(A102))), 1)))), " " &amp; MID(A102, ROW(INDIRECT("1:" &amp; LEN(A102))), 1), MID(A102, ROW(INDIRECT("1:" &amp; LEN(A102))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Salaries And Benefits</v>
+        <v xml:space="preserve"> Expenses For Parks And Recreation Department</v>
       </c>
       <c r="C102" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForSalariesAndBenefits</v>
-      </c>
-      <c r="D102" s="127" t="s">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="14">
-      <c r="A103" s="127" t="s">
-        <v>1834</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForParksAndRecreationDepartment</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E102" s="121" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="14">
+      <c r="A103" s="121" t="s">
+        <v>1821</v>
       </c>
       <c r="B103" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B103" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A103, ROW(INDIRECT("1:" &amp; LEN(A103))), 1), UPPER(MID(A103, ROW(INDIRECT("1:" &amp; LEN(A103))), 1)))), " " &amp; MID(A103, ROW(INDIRECT("1:" &amp; LEN(A103))), 1), MID(A103, ROW(INDIRECT("1:" &amp; LEN(A103))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Benefits Expense Pension And O P E B Abstract</v>
+        <v xml:space="preserve"> Expenses For Parks Administration</v>
       </c>
       <c r="C103" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:BenefitsExpensePensionAndOPEBAbstract</v>
-      </c>
-      <c r="D103" s="127" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="14">
-      <c r="A104" s="127" t="s">
-        <v>1835</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForParksAdministration</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E103" s="121" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="14">
+      <c r="A104" s="121" t="s">
+        <v>1822</v>
       </c>
       <c r="B104" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B104" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A104, ROW(INDIRECT("1:" &amp; LEN(A104))), 1), UPPER(MID(A104, ROW(INDIRECT("1:" &amp; LEN(A104))), 1)))), " " &amp; MID(A104, ROW(INDIRECT("1:" &amp; LEN(A104))), 1), MID(A104, ROW(INDIRECT("1:" &amp; LEN(A104))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> O P E B Expense</v>
+        <v xml:space="preserve"> Expenses For Parks Facilities</v>
       </c>
       <c r="C104" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:OPEBExpense</v>
-      </c>
-      <c r="D104" s="127" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="14">
-      <c r="A105" s="127" t="s">
-        <v>1836</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForParksFacilities</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E104" s="121" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="14">
+      <c r="A105" s="121" t="s">
+        <v>1823</v>
       </c>
       <c r="B105" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B105" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A105, ROW(INDIRECT("1:" &amp; LEN(A105))), 1), UPPER(MID(A105, ROW(INDIRECT("1:" &amp; LEN(A105))), 1)))), " " &amp; MID(A105, ROW(INDIRECT("1:" &amp; LEN(A105))), 1), MID(A105, ROW(INDIRECT("1:" &amp; LEN(A105))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Pension Expense</v>
+        <v xml:space="preserve"> Expenses For Parks Supervision</v>
       </c>
       <c r="C105" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:PensionExpense</v>
-      </c>
-      <c r="D105" s="127" t="s">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="14">
-      <c r="A106" s="127" t="s">
-        <v>1837</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForParksSupervision</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E105" s="121" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="14">
+      <c r="A106" s="121" t="s">
+        <v>1824</v>
       </c>
       <c r="B106" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B106" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A106, ROW(INDIRECT("1:" &amp; LEN(A106))), 1), UPPER(MID(A106, ROW(INDIRECT("1:" &amp; LEN(A106))), 1)))), " " &amp; MID(A106, ROW(INDIRECT("1:" &amp; LEN(A106))), 1), MID(A106, ROW(INDIRECT("1:" &amp; LEN(A106))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Benefits Expense Pension And O P E B</v>
+        <v xml:space="preserve"> Expenses For Parks Policing</v>
       </c>
       <c r="C106" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:BenefitsExpensePensionAndOPEB</v>
-      </c>
-      <c r="D106" s="127" t="s">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="14">
-      <c r="A107" s="127" t="s">
-        <v>1838</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForParksPolicing</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E106" s="121" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="14">
+      <c r="A107" s="121" t="s">
+        <v>1825</v>
       </c>
       <c r="B107" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B107" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A107, ROW(INDIRECT("1:" &amp; LEN(A107))), 1), UPPER(MID(A107, ROW(INDIRECT("1:" &amp; LEN(A107))), 1)))), " " &amp; MID(A107, ROW(INDIRECT("1:" &amp; LEN(A107))), 1), MID(A107, ROW(INDIRECT("1:" &amp; LEN(A107))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Benefits Expense</v>
+        <v xml:space="preserve"> Expenses For Parks Lighting</v>
       </c>
       <c r="C107" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:BenefitsExpense</v>
-      </c>
-      <c r="D107" s="127" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="14">
-      <c r="A108" s="127" t="s">
-        <v>1839</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForParksLighting</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E107" s="121" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="14">
+      <c r="A108" s="121" t="s">
+        <v>1826</v>
       </c>
       <c r="B108" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B108" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A108, ROW(INDIRECT("1:" &amp; LEN(A108))), 1), UPPER(MID(A108, ROW(INDIRECT("1:" &amp; LEN(A108))), 1)))), " " &amp; MID(A108, ROW(INDIRECT("1:" &amp; LEN(A108))), 1), MID(A108, ROW(INDIRECT("1:" &amp; LEN(A108))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Interest Expense</v>
+        <v xml:space="preserve"> Expenses For Parks Maintenance</v>
       </c>
       <c r="C108" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:InterestExpense</v>
-      </c>
-      <c r="D108" s="127" t="s">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="14">
-      <c r="A109" s="127" t="s">
-        <v>1840</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForParksMaintenance</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E108" s="121" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="14">
+      <c r="A109" s="121" t="s">
+        <v>1287</v>
       </c>
       <c r="B109" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B109" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A109, ROW(INDIRECT("1:" &amp; LEN(A109))), 1), UPPER(MID(A109, ROW(INDIRECT("1:" &amp; LEN(A109))), 1)))), " " &amp; MID(A109, ROW(INDIRECT("1:" &amp; LEN(A109))), 1), MID(A109, ROW(INDIRECT("1:" &amp; LEN(A109))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Communication Expense</v>
+        <v xml:space="preserve"> Expenses For Parks And Recreation</v>
       </c>
       <c r="C109" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:CommunicationExpense</v>
-      </c>
-      <c r="D109" s="127" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="14">
-      <c r="A110" s="127" t="s">
-        <v>1841</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForParksAndRecreation</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E109" s="121" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="14">
+      <c r="A110" s="121" t="s">
+        <v>1827</v>
       </c>
       <c r="B110" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B110" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A110, ROW(INDIRECT("1:" &amp; LEN(A110))), 1), UPPER(MID(A110, ROW(INDIRECT("1:" &amp; LEN(A110))), 1)))), " " &amp; MID(A110, ROW(INDIRECT("1:" &amp; LEN(A110))), 1), MID(A110, ROW(INDIRECT("1:" &amp; LEN(A110))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Community Promotion Expense</v>
+        <v xml:space="preserve"> Expenses For Academic Support</v>
       </c>
       <c r="C110" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:CommunityPromotionExpense</v>
-      </c>
-      <c r="D110" s="127" t="s">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="14">
-      <c r="A111" s="127" t="s">
-        <v>1842</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForAcademicSupport</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E110" s="121" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="14">
+      <c r="A111" s="121" t="s">
+        <v>1828</v>
       </c>
       <c r="B111" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B111" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A111, ROW(INDIRECT("1:" &amp; LEN(A111))), 1), UPPER(MID(A111, ROW(INDIRECT("1:" &amp; LEN(A111))), 1)))), " " &amp; MID(A111, ROW(INDIRECT("1:" &amp; LEN(A111))), 1), MID(A111, ROW(INDIRECT("1:" &amp; LEN(A111))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Printing And Publishing Expense</v>
+        <v xml:space="preserve"> Expenses For Auditorium Civic Center</v>
       </c>
       <c r="C111" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:PrintingAndPublishingExpense</v>
-      </c>
-      <c r="D111" s="127" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="14">
-      <c r="A112" s="127" t="s">
-        <v>1843</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForAuditoriumCivicCenter</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E111" s="121" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="14">
+      <c r="A112" s="121" t="s">
+        <v>1322</v>
       </c>
       <c r="B112" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B112" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A112, ROW(INDIRECT("1:" &amp; LEN(A112))), 1), UPPER(MID(A112, ROW(INDIRECT("1:" &amp; LEN(A112))), 1)))), " " &amp; MID(A112, ROW(INDIRECT("1:" &amp; LEN(A112))), 1), MID(A112, ROW(INDIRECT("1:" &amp; LEN(A112))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Claims And Judgments</v>
+        <v xml:space="preserve"> Expenses For Other Public Services</v>
       </c>
       <c r="C112" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForClaimsAndJudgments</v>
-      </c>
-      <c r="D112" s="127" t="s">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="14">
-      <c r="A113" s="127" t="s">
-        <v>1844</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForOtherPublicServices</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E112" s="121" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="14">
+      <c r="A113" s="121" t="s">
+        <v>1829</v>
       </c>
       <c r="B113" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B113" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A113, ROW(INDIRECT("1:" &amp; LEN(A113))), 1), UPPER(MID(A113, ROW(INDIRECT("1:" &amp; LEN(A113))), 1)))), " " &amp; MID(A113, ROW(INDIRECT("1:" &amp; LEN(A113))), 1), MID(A113, ROW(INDIRECT("1:" &amp; LEN(A113))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Services And Supplies</v>
+        <v xml:space="preserve"> Expenses For Instruction</v>
       </c>
       <c r="C113" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForServicesAndSupplies</v>
-      </c>
-      <c r="D113" s="127" t="s">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="14">
-      <c r="A114" s="127" t="s">
-        <v>1845</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForInstruction</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E113" s="121" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="14">
+      <c r="A114" s="121" t="s">
+        <v>1830</v>
       </c>
       <c r="B114" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B114" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A114, ROW(INDIRECT("1:" &amp; LEN(A114))), 1), UPPER(MID(A114, ROW(INDIRECT("1:" &amp; LEN(A114))), 1)))), " " &amp; MID(A114, ROW(INDIRECT("1:" &amp; LEN(A114))), 1), MID(A114, ROW(INDIRECT("1:" &amp; LEN(A114))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For State Institutions</v>
+        <v xml:space="preserve"> Expenses For Student Grants And Scholarships</v>
       </c>
       <c r="C114" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForStateInstitutions</v>
-      </c>
-      <c r="D114" s="127" t="s">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="14">
-      <c r="A115" s="127" t="s">
-        <v>1846</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForStudentGrantsAndScholarships</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E114" s="121" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="14">
+      <c r="A115" s="121" t="s">
+        <v>1313</v>
       </c>
       <c r="B115" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B115" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A115, ROW(INDIRECT("1:" &amp; LEN(A115))), 1), UPPER(MID(A115, ROW(INDIRECT("1:" &amp; LEN(A115))), 1)))), " " &amp; MID(A115, ROW(INDIRECT("1:" &amp; LEN(A115))), 1), MID(A115, ROW(INDIRECT("1:" &amp; LEN(A115))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Auxiliary Enterprises</v>
+        <v xml:space="preserve"> Expenses For Financial And Tax Administration Information Technology</v>
       </c>
       <c r="C115" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForAuxiliaryEnterprises</v>
-      </c>
-      <c r="D115" s="127" t="s">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="14">
-      <c r="A116" s="127" t="s">
-        <v>1847</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForFinancialAndTaxAdministrationInformationTechnology</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E115" s="121" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="14">
+      <c r="A116" s="121" t="s">
+        <v>1831</v>
       </c>
       <c r="B116" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B116" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A116, ROW(INDIRECT("1:" &amp; LEN(A116))), 1), UPPER(MID(A116, ROW(INDIRECT("1:" &amp; LEN(A116))), 1)))), " " &amp; MID(A116, ROW(INDIRECT("1:" &amp; LEN(A116))), 1), MID(A116, ROW(INDIRECT("1:" &amp; LEN(A116))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Refunds And Rebates</v>
+        <v xml:space="preserve"> Expenses For Student Service</v>
       </c>
       <c r="C116" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForRefundsAndRebates</v>
-      </c>
-      <c r="D116" s="127" t="s">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="14">
-      <c r="A117" s="127" t="s">
-        <v>1848</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForStudentService</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E116" s="121" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="14">
+      <c r="A117" s="121" t="s">
+        <v>1832</v>
       </c>
       <c r="B117" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B117" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A117, ROW(INDIRECT("1:" &amp; LEN(A117))), 1), UPPER(MID(A117, ROW(INDIRECT("1:" &amp; LEN(A117))), 1)))), " " &amp; MID(A117, ROW(INDIRECT("1:" &amp; LEN(A117))), 1), MID(A117, ROW(INDIRECT("1:" &amp; LEN(A117))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Professional Services</v>
+        <v xml:space="preserve"> Expenses For Salaries And Benefits</v>
       </c>
       <c r="C117" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForProfessionalServices</v>
-      </c>
-      <c r="D117" s="127" t="s">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="14">
-      <c r="A118" s="127" t="s">
-        <v>1308</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForSalariesAndBenefits</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E117" s="121" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="14">
+      <c r="A118" s="121" t="s">
+        <v>1833</v>
       </c>
       <c r="B118" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B118" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A118, ROW(INDIRECT("1:" &amp; LEN(A118))), 1), UPPER(MID(A118, ROW(INDIRECT("1:" &amp; LEN(A118))), 1)))), " " &amp; MID(A118, ROW(INDIRECT("1:" &amp; LEN(A118))), 1), MID(A118, ROW(INDIRECT("1:" &amp; LEN(A118))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Equipment And Equipment Rental</v>
+        <v xml:space="preserve"> Benefits Expense Pension And O P E B Abstract</v>
       </c>
       <c r="C118" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForEquipmentAndEquipmentRental</v>
-      </c>
-      <c r="D118" s="127" t="s">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="14">
-      <c r="A119" s="127" t="s">
-        <v>1849</v>
+        <f t="shared" si="2"/>
+        <v>acfr:BenefitsExpensePensionAndOPEBAbstract</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E118" s="121" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="14">
+      <c r="A119" s="121" t="s">
+        <v>1834</v>
       </c>
       <c r="B119" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B119" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A119, ROW(INDIRECT("1:" &amp; LEN(A119))), 1), UPPER(MID(A119, ROW(INDIRECT("1:" &amp; LEN(A119))), 1)))), " " &amp; MID(A119, ROW(INDIRECT("1:" &amp; LEN(A119))), 1), MID(A119, ROW(INDIRECT("1:" &amp; LEN(A119))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Rent Expense</v>
+        <v xml:space="preserve"> O P E B Expense</v>
       </c>
       <c r="C119" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:RentExpense</v>
-      </c>
-      <c r="D119" s="127" t="s">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="14">
-      <c r="A120" s="127" t="s">
-        <v>1850</v>
+        <f t="shared" si="2"/>
+        <v>acfr:OPEBExpense</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E119" s="121" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="14">
+      <c r="A120" s="121" t="s">
+        <v>1835</v>
       </c>
       <c r="B120" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B120" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A120, ROW(INDIRECT("1:" &amp; LEN(A120))), 1), UPPER(MID(A120, ROW(INDIRECT("1:" &amp; LEN(A120))), 1)))), " " &amp; MID(A120, ROW(INDIRECT("1:" &amp; LEN(A120))), 1), MID(A120, ROW(INDIRECT("1:" &amp; LEN(A120))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Special Assessments</v>
+        <v xml:space="preserve"> Pension Expense</v>
       </c>
       <c r="C120" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForSpecialAssessments</v>
-      </c>
-      <c r="D120" s="127" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="14">
-      <c r="A121" s="127" t="s">
-        <v>1851</v>
+        <f t="shared" si="2"/>
+        <v>acfr:PensionExpense</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E120" s="121" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="14">
+      <c r="A121" s="121" t="s">
+        <v>1836</v>
       </c>
       <c r="B121" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B121" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A121, ROW(INDIRECT("1:" &amp; LEN(A121))), 1), UPPER(MID(A121, ROW(INDIRECT("1:" &amp; LEN(A121))), 1)))), " " &amp; MID(A121, ROW(INDIRECT("1:" &amp; LEN(A121))), 1), MID(A121, ROW(INDIRECT("1:" &amp; LEN(A121))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Repair And Maintenance</v>
+        <v xml:space="preserve"> Benefits Expense Pension And O P E B</v>
       </c>
       <c r="C121" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:RepairAndMaintenance</v>
-      </c>
-      <c r="D121" s="127" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="14">
-      <c r="A122" s="127" t="s">
-        <v>1258</v>
+        <f t="shared" si="2"/>
+        <v>acfr:BenefitsExpensePensionAndOPEB</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E121" s="121" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="14">
+      <c r="A122" s="121" t="s">
+        <v>1837</v>
       </c>
       <c r="B122" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B122" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A122, ROW(INDIRECT("1:" &amp; LEN(A122))), 1), UPPER(MID(A122, ROW(INDIRECT("1:" &amp; LEN(A122))), 1)))), " " &amp; MID(A122, ROW(INDIRECT("1:" &amp; LEN(A122))), 1), MID(A122, ROW(INDIRECT("1:" &amp; LEN(A122))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For General Government Services</v>
+        <v xml:space="preserve"> Benefits Expense</v>
       </c>
       <c r="C122" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForGeneralGovernmentServices</v>
-      </c>
-      <c r="D122" s="127" t="s">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="14">
-      <c r="A123" s="127" t="s">
-        <v>1852</v>
+        <f t="shared" si="2"/>
+        <v>acfr:BenefitsExpense</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E122" s="121" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="14">
+      <c r="A123" s="121" t="s">
+        <v>1838</v>
       </c>
       <c r="B123" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B123" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A123, ROW(INDIRECT("1:" &amp; LEN(A123))), 1), UPPER(MID(A123, ROW(INDIRECT("1:" &amp; LEN(A123))), 1)))), " " &amp; MID(A123, ROW(INDIRECT("1:" &amp; LEN(A123))), 1), MID(A123, ROW(INDIRECT("1:" &amp; LEN(A123))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Institutional Support</v>
+        <v xml:space="preserve"> Interest Expense</v>
       </c>
       <c r="C123" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForInstitutionalSupport</v>
-      </c>
-      <c r="D123" s="127" t="s">
-        <v>2065</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="14">
-      <c r="A124" s="127" t="s">
-        <v>1853</v>
+        <f t="shared" si="2"/>
+        <v>acfr:InterestExpense</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E123" s="121" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="14">
+      <c r="A124" s="121" t="s">
+        <v>1839</v>
       </c>
       <c r="B124" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B124" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A124, ROW(INDIRECT("1:" &amp; LEN(A124))), 1), UPPER(MID(A124, ROW(INDIRECT("1:" &amp; LEN(A124))), 1)))), " " &amp; MID(A124, ROW(INDIRECT("1:" &amp; LEN(A124))), 1), MID(A124, ROW(INDIRECT("1:" &amp; LEN(A124))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Cost Of Materials And Services Rendered</v>
+        <v xml:space="preserve"> Communication Expense</v>
       </c>
       <c r="C124" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:CostOfMaterialsAndServicesRendered</v>
-      </c>
-      <c r="D124" s="127" t="s">
-        <v>2066</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="14">
-      <c r="A125" s="127" t="s">
-        <v>1324</v>
+        <f t="shared" si="2"/>
+        <v>acfr:CommunicationExpense</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E124" s="121" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="14">
+      <c r="A125" s="121" t="s">
+        <v>1840</v>
       </c>
       <c r="B125" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B125" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A125, ROW(INDIRECT("1:" &amp; LEN(A125))), 1), UPPER(MID(A125, ROW(INDIRECT("1:" &amp; LEN(A125))), 1)))), " " &amp; MID(A125, ROW(INDIRECT("1:" &amp; LEN(A125))), 1), MID(A125, ROW(INDIRECT("1:" &amp; LEN(A125))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Depreciation Expense</v>
+        <v xml:space="preserve"> Community Promotion Expense</v>
       </c>
       <c r="C125" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:DepreciationExpense</v>
-      </c>
-      <c r="D125" s="127" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="14">
-      <c r="A126" s="127" t="s">
-        <v>1854</v>
+        <f t="shared" si="2"/>
+        <v>acfr:CommunityPromotionExpense</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E125" s="121" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="14">
+      <c r="A126" s="121" t="s">
+        <v>1841</v>
       </c>
       <c r="B126" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B126" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A126, ROW(INDIRECT("1:" &amp; LEN(A126))), 1), UPPER(MID(A126, ROW(INDIRECT("1:" &amp; LEN(A126))), 1)))), " " &amp; MID(A126, ROW(INDIRECT("1:" &amp; LEN(A126))), 1), MID(A126, ROW(INDIRECT("1:" &amp; LEN(A126))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Amortization Expense</v>
+        <v xml:space="preserve"> Printing And Publishing Expense</v>
       </c>
       <c r="C126" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:AmortizationExpense</v>
-      </c>
-      <c r="D126" s="127" t="s">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="14">
-      <c r="A127" s="127" t="s">
-        <v>1855</v>
+        <f t="shared" si="2"/>
+        <v>acfr:PrintingAndPublishingExpense</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E126" s="121" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="14">
+      <c r="A127" s="121" t="s">
+        <v>1842</v>
       </c>
       <c r="B127" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B127" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A127, ROW(INDIRECT("1:" &amp; LEN(A127))), 1), UPPER(MID(A127, ROW(INDIRECT("1:" &amp; LEN(A127))), 1)))), " " &amp; MID(A127, ROW(INDIRECT("1:" &amp; LEN(A127))), 1), MID(A127, ROW(INDIRECT("1:" &amp; LEN(A127))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Depletion Depreciation And Amortization Expense</v>
+        <v xml:space="preserve"> Expenses For Claims And Judgments</v>
       </c>
       <c r="C127" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:DepletionDepreciationAndAmortizationExpense</v>
-      </c>
-      <c r="D127" s="127" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="14">
-      <c r="A128" s="127" t="s">
-        <v>1856</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForClaimsAndJudgments</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E127" s="121" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="14">
+      <c r="A128" s="121" t="s">
+        <v>1843</v>
       </c>
       <c r="B128" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B128" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A128, ROW(INDIRECT("1:" &amp; LEN(A128))), 1), UPPER(MID(A128, ROW(INDIRECT("1:" &amp; LEN(A128))), 1)))), " " &amp; MID(A128, ROW(INDIRECT("1:" &amp; LEN(A128))), 1), MID(A128, ROW(INDIRECT("1:" &amp; LEN(A128))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Bad Debt Expense</v>
+        <v xml:space="preserve"> Expenses For Services And Supplies</v>
       </c>
       <c r="C128" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:BadDebtExpense</v>
-      </c>
-      <c r="D128" s="127" t="s">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="14">
-      <c r="A129" s="127" t="s">
-        <v>1857</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForServicesAndSupplies</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E128" s="121" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="14">
+      <c r="A129" s="121" t="s">
+        <v>1844</v>
       </c>
       <c r="B129" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B129" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A129, ROW(INDIRECT("1:" &amp; LEN(A129))), 1), UPPER(MID(A129, ROW(INDIRECT("1:" &amp; LEN(A129))), 1)))), " " &amp; MID(A129, ROW(INDIRECT("1:" &amp; LEN(A129))), 1), MID(A129, ROW(INDIRECT("1:" &amp; LEN(A129))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Utilities</v>
+        <v xml:space="preserve"> Expenses For State Institutions</v>
       </c>
       <c r="C129" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:ExpensesForUtilities</v>
-      </c>
-      <c r="D129" s="127" t="s">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="14">
-      <c r="A130" s="127" t="s">
-        <v>1858</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForStateInstitutions</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E129" s="121" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="14">
+      <c r="A130" s="121" t="s">
+        <v>1845</v>
       </c>
       <c r="B130" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B130" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A130, ROW(INDIRECT("1:" &amp; LEN(A130))), 1), UPPER(MID(A130, ROW(INDIRECT("1:" &amp; LEN(A130))), 1)))), " " &amp; MID(A130, ROW(INDIRECT("1:" &amp; LEN(A130))), 1), MID(A130, ROW(INDIRECT("1:" &amp; LEN(A130))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Housing Assistance Payments Expense</v>
+        <v xml:space="preserve"> Expenses For Auxiliary Enterprises</v>
       </c>
       <c r="C130" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>acfr:HousingAssistancePaymentsExpense</v>
-      </c>
-      <c r="D130" s="127" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="14">
-      <c r="A131" s="127" t="s">
-        <v>1859</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForAuxiliaryEnterprises</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E130" s="121" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="14">
+      <c r="A131" s="121" t="s">
+        <v>1846</v>
       </c>
       <c r="B131" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B131" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A131, ROW(INDIRECT("1:" &amp; LEN(A131))), 1), UPPER(MID(A131, ROW(INDIRECT("1:" &amp; LEN(A131))), 1)))), " " &amp; MID(A131, ROW(INDIRECT("1:" &amp; LEN(A131))), 1), MID(A131, ROW(INDIRECT("1:" &amp; LEN(A131))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Tenant Services Expenses</v>
+        <v xml:space="preserve"> Expenses For Refunds And Rebates</v>
       </c>
       <c r="C131" s="2" t="str">
-        <f t="shared" ref="C131:C194" si="2">"acfr:"&amp;A131</f>
-        <v>acfr:TenantServicesExpenses</v>
-      </c>
-      <c r="D131" s="127" t="s">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="14">
-      <c r="A132" s="127" t="s">
-        <v>1860</v>
+        <f t="shared" si="2"/>
+        <v>acfr:ExpensesForRefundsAndRebates</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E131" s="121" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="14">
+      <c r="A132" s="121" t="s">
+        <v>1847</v>
       </c>
       <c r="B132" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B132" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A132, ROW(INDIRECT("1:" &amp; LEN(A132))), 1), UPPER(MID(A132, ROW(INDIRECT("1:" &amp; LEN(A132))), 1)))), " " &amp; MID(A132, ROW(INDIRECT("1:" &amp; LEN(A132))), 1), MID(A132, ROW(INDIRECT("1:" &amp; LEN(A132))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Insurance Expense</v>
+        <v xml:space="preserve"> Expenses For Professional Services</v>
       </c>
       <c r="C132" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>acfr:InsuranceExpense</v>
-      </c>
-      <c r="D132" s="127" t="s">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="14">
-      <c r="A133" s="127" t="s">
-        <v>1861</v>
+        <v>acfr:ExpensesForProfessionalServices</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E132" s="121" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="14">
+      <c r="A133" s="121" t="s">
+        <v>1308</v>
       </c>
       <c r="B133" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B133" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A133, ROW(INDIRECT("1:" &amp; LEN(A133))), 1), UPPER(MID(A133, ROW(INDIRECT("1:" &amp; LEN(A133))), 1)))), " " &amp; MID(A133, ROW(INDIRECT("1:" &amp; LEN(A133))), 1), MID(A133, ROW(INDIRECT("1:" &amp; LEN(A133))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> State Trunkline Overhead Expense</v>
+        <v xml:space="preserve"> Expenses For Equipment And Equipment Rental</v>
       </c>
       <c r="C133" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>acfr:StateTrunklineOverheadExpense</v>
-      </c>
-      <c r="D133" s="127" t="s">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="14">
-      <c r="A134" s="127" t="s">
-        <v>1862</v>
+        <v>acfr:ExpensesForEquipmentAndEquipmentRental</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E133" s="121" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="14">
+      <c r="A134" s="121" t="s">
+        <v>1848</v>
       </c>
       <c r="B134" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B134" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A134, ROW(INDIRECT("1:" &amp; LEN(A134))), 1), UPPER(MID(A134, ROW(INDIRECT("1:" &amp; LEN(A134))), 1)))), " " &amp; MID(A134, ROW(INDIRECT("1:" &amp; LEN(A134))), 1), MID(A134, ROW(INDIRECT("1:" &amp; LEN(A134))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Health Services Expense</v>
+        <v xml:space="preserve"> Rent Expense</v>
       </c>
       <c r="C134" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>acfr:HealthServicesExpense</v>
-      </c>
-      <c r="D134" s="127" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="14">
-      <c r="A135" s="127" t="s">
-        <v>1863</v>
+        <v>acfr:RentExpense</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E134" s="121" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="14">
+      <c r="A135" s="121" t="s">
+        <v>1849</v>
       </c>
       <c r="B135" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B135" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A135, ROW(INDIRECT("1:" &amp; LEN(A135))), 1), UPPER(MID(A135, ROW(INDIRECT("1:" &amp; LEN(A135))), 1)))), " " &amp; MID(A135, ROW(INDIRECT("1:" &amp; LEN(A135))), 1), MID(A135, ROW(INDIRECT("1:" &amp; LEN(A135))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Protective Services</v>
+        <v xml:space="preserve"> Expenses For Special Assessments</v>
       </c>
       <c r="C135" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>acfr:ExpensesForProtectiveServices</v>
-      </c>
-      <c r="D135" s="127" t="s">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="14">
-      <c r="A136" s="127" t="s">
-        <v>1864</v>
+        <v>acfr:ExpensesForSpecialAssessments</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E135" s="121" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="14">
+      <c r="A136" s="121" t="s">
+        <v>1850</v>
       </c>
       <c r="B136" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B136" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A136, ROW(INDIRECT("1:" &amp; LEN(A136))), 1), UPPER(MID(A136, ROW(INDIRECT("1:" &amp; LEN(A136))), 1)))), " " &amp; MID(A136, ROW(INDIRECT("1:" &amp; LEN(A136))), 1), MID(A136, ROW(INDIRECT("1:" &amp; LEN(A136))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Sewage Treatment Expense</v>
+        <v xml:space="preserve"> Repair And Maintenance</v>
       </c>
       <c r="C136" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>acfr:SewageTreatmentExpense</v>
-      </c>
-      <c r="D136" s="127" t="s">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="14">
-      <c r="A137" s="127" t="s">
-        <v>1865</v>
+        <v>acfr:RepairAndMaintenance</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E136" s="121" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="14">
+      <c r="A137" s="121" t="s">
+        <v>1258</v>
       </c>
       <c r="B137" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B137" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A137, ROW(INDIRECT("1:" &amp; LEN(A137))), 1), UPPER(MID(A137, ROW(INDIRECT("1:" &amp; LEN(A137))), 1)))), " " &amp; MID(A137, ROW(INDIRECT("1:" &amp; LEN(A137))), 1), MID(A137, ROW(INDIRECT("1:" &amp; LEN(A137))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Materials And Supplies Expense</v>
+        <v xml:space="preserve"> Expenses For General Government Services</v>
       </c>
       <c r="C137" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>acfr:MaterialsAndSuppliesExpense</v>
-      </c>
-      <c r="D137" s="127" t="s">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="14">
-      <c r="A138" s="127" t="s">
-        <v>1866</v>
+        <v>acfr:ExpensesForGeneralGovernmentServices</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E137" s="121" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="14">
+      <c r="A138" s="121" t="s">
+        <v>1851</v>
       </c>
       <c r="B138" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B138" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A138, ROW(INDIRECT("1:" &amp; LEN(A138))), 1), UPPER(MID(A138, ROW(INDIRECT("1:" &amp; LEN(A138))), 1)))), " " &amp; MID(A138, ROW(INDIRECT("1:" &amp; LEN(A138))), 1), MID(A138, ROW(INDIRECT("1:" &amp; LEN(A138))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Financial Aid Expense</v>
+        <v xml:space="preserve"> Expenses For Institutional Support</v>
       </c>
       <c r="C138" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>acfr:FinancialAidExpense</v>
-      </c>
-      <c r="D138" s="127" t="s">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="14">
-      <c r="A139" s="127" t="s">
-        <v>1867</v>
+        <v>acfr:ExpensesForInstitutionalSupport</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E138" s="121" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="14">
+      <c r="A139" s="121" t="s">
+        <v>1852</v>
       </c>
       <c r="B139" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B139" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A139, ROW(INDIRECT("1:" &amp; LEN(A139))), 1), UPPER(MID(A139, ROW(INDIRECT("1:" &amp; LEN(A139))), 1)))), " " &amp; MID(A139, ROW(INDIRECT("1:" &amp; LEN(A139))), 1), MID(A139, ROW(INDIRECT("1:" &amp; LEN(A139))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Lottery Activities Abstract</v>
+        <v xml:space="preserve"> Cost Of Materials And Services Rendered</v>
       </c>
       <c r="C139" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>acfr:ExpensesForLotteryActivitiesAbstract</v>
-      </c>
-      <c r="D139" s="127" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="14">
-      <c r="A140" s="127" t="s">
-        <v>1301</v>
+        <v>acfr:CostOfMaterialsAndServicesRendered</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E139" s="121" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="14">
+      <c r="A140" s="121" t="s">
+        <v>1324</v>
       </c>
       <c r="B140" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B140" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A140, ROW(INDIRECT("1:" &amp; LEN(A140))), 1), UPPER(MID(A140, ROW(INDIRECT("1:" &amp; LEN(A140))), 1)))), " " &amp; MID(A140, ROW(INDIRECT("1:" &amp; LEN(A140))), 1), MID(A140, ROW(INDIRECT("1:" &amp; LEN(A140))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Lottery Prize Awards</v>
+        <v xml:space="preserve"> Depreciation Expense</v>
       </c>
       <c r="C140" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>acfr:ExpensesForLotteryPrizeAwards</v>
-      </c>
-      <c r="D140" s="127" t="s">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="14">
-      <c r="A141" s="127" t="s">
-        <v>1868</v>
+        <v>acfr:DepreciationExpense</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E140" s="121" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="14">
+      <c r="A141" s="121" t="s">
+        <v>1853</v>
       </c>
       <c r="B141" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B141" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A141, ROW(INDIRECT("1:" &amp; LEN(A141))), 1), UPPER(MID(A141, ROW(INDIRECT("1:" &amp; LEN(A141))), 1)))), " " &amp; MID(A141, ROW(INDIRECT("1:" &amp; LEN(A141))), 1), MID(A141, ROW(INDIRECT("1:" &amp; LEN(A141))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Lottery Game Costs</v>
+        <v xml:space="preserve"> Amortization Expense</v>
       </c>
       <c r="C141" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>acfr:ExpensesForLotteryGameCosts</v>
-      </c>
-      <c r="D141" s="127" t="s">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="14">
-      <c r="A142" s="127" t="s">
-        <v>1869</v>
+        <v>acfr:AmortizationExpense</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E141" s="121" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="14">
+      <c r="A142" s="121" t="s">
+        <v>1854</v>
       </c>
       <c r="B142" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B142" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A142, ROW(INDIRECT("1:" &amp; LEN(A142))), 1), UPPER(MID(A142, ROW(INDIRECT("1:" &amp; LEN(A142))), 1)))), " " &amp; MID(A142, ROW(INDIRECT("1:" &amp; LEN(A142))), 1), MID(A142, ROW(INDIRECT("1:" &amp; LEN(A142))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Lottery Retailer Commissions</v>
+        <v xml:space="preserve"> Depletion Depreciation And Amortization Expense</v>
       </c>
       <c r="C142" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>acfr:ExpensesForLotteryRetailerCommissions</v>
-      </c>
-      <c r="D142" s="127" t="s">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="14">
-      <c r="A143" s="127" t="s">
-        <v>1870</v>
+        <v>acfr:DepletionDepreciationAndAmortizationExpense</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E142" s="121" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="14">
+      <c r="A143" s="121" t="s">
+        <v>1855</v>
       </c>
       <c r="B143" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B143" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A143, ROW(INDIRECT("1:" &amp; LEN(A143))), 1), UPPER(MID(A143, ROW(INDIRECT("1:" &amp; LEN(A143))), 1)))), " " &amp; MID(A143, ROW(INDIRECT("1:" &amp; LEN(A143))), 1), MID(A143, ROW(INDIRECT("1:" &amp; LEN(A143))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Lottery Retailer Bonuses</v>
+        <v xml:space="preserve"> Bad Debt Expense</v>
       </c>
       <c r="C143" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>acfr:ExpensesForLotteryRetailerBonuses</v>
-      </c>
-      <c r="D143" s="127" t="s">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="14">
-      <c r="A144" s="127" t="s">
-        <v>1871</v>
+        <v>acfr:BadDebtExpense</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E143" s="121" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="14">
+      <c r="A144" s="121" t="s">
+        <v>1856</v>
       </c>
       <c r="B144" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B144" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A144, ROW(INDIRECT("1:" &amp; LEN(A144))), 1), UPPER(MID(A144, ROW(INDIRECT("1:" &amp; LEN(A144))), 1)))), " " &amp; MID(A144, ROW(INDIRECT("1:" &amp; LEN(A144))), 1), MID(A144, ROW(INDIRECT("1:" &amp; LEN(A144))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Lottery Operator Fees</v>
+        <v xml:space="preserve"> Expenses For Utilities</v>
       </c>
       <c r="C144" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>acfr:ExpensesForLotteryOperatorFees</v>
-      </c>
-      <c r="D144" s="127" t="s">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="14">
-      <c r="A145" s="127" t="s">
-        <v>1872</v>
+        <v>acfr:ExpensesForUtilities</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E144" s="121" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="14">
+      <c r="A145" s="121" t="s">
+        <v>1857</v>
       </c>
       <c r="B145" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B145" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A145, ROW(INDIRECT("1:" &amp; LEN(A145))), 1), UPPER(MID(A145, ROW(INDIRECT("1:" &amp; LEN(A145))), 1)))), " " &amp; MID(A145, ROW(INDIRECT("1:" &amp; LEN(A145))), 1), MID(A145, ROW(INDIRECT("1:" &amp; LEN(A145))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Lottery Promotion Public Relations And Point Of Sale</v>
+        <v xml:space="preserve"> Housing Assistance Payments Expense</v>
       </c>
       <c r="C145" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>acfr:ExpensesForLotteryPromotionPublicRelationsAndPointOfSale</v>
-      </c>
-      <c r="D145" s="127" t="s">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="14">
-      <c r="A146" s="127" t="s">
-        <v>1873</v>
+        <v>acfr:HousingAssistancePaymentsExpense</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E145" s="121" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="14">
+      <c r="A146" s="121" t="s">
+        <v>1858</v>
       </c>
       <c r="B146" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B146" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A146, ROW(INDIRECT("1:" &amp; LEN(A146))), 1), UPPER(MID(A146, ROW(INDIRECT("1:" &amp; LEN(A146))), 1)))), " " &amp; MID(A146, ROW(INDIRECT("1:" &amp; LEN(A146))), 1), MID(A146, ROW(INDIRECT("1:" &amp; LEN(A146))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Interest Expense Imputed On Annuitized Prize Liability</v>
+        <v xml:space="preserve"> Tenant Services Expenses</v>
       </c>
       <c r="C146" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:InterestExpenseImputedOnAnnuitizedPrizeLiability</v>
-      </c>
-      <c r="D146" s="127" t="s">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="14">
-      <c r="A147" s="127" t="s">
-        <v>1874</v>
+        <f t="shared" ref="C146:C205" si="3">"acfr:"&amp;A146</f>
+        <v>acfr:TenantServicesExpenses</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E146" s="121" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="14">
+      <c r="A147" s="121" t="s">
+        <v>1859</v>
       </c>
       <c r="B147" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B147" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A147, ROW(INDIRECT("1:" &amp; LEN(A147))), 1), UPPER(MID(A147, ROW(INDIRECT("1:" &amp; LEN(A147))), 1)))), " " &amp; MID(A147, ROW(INDIRECT("1:" &amp; LEN(A147))), 1), MID(A147, ROW(INDIRECT("1:" &amp; LEN(A147))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Other Lottery Costs</v>
+        <v xml:space="preserve"> Insurance Expense</v>
       </c>
       <c r="C147" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:OtherLotteryCosts</v>
-      </c>
-      <c r="D147" s="127" t="s">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="14">
-      <c r="A148" s="127" t="s">
-        <v>1875</v>
+        <f t="shared" si="3"/>
+        <v>acfr:InsuranceExpense</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E147" s="121" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="14">
+      <c r="A148" s="121" t="s">
+        <v>1860</v>
       </c>
       <c r="B148" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B148" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A148, ROW(INDIRECT("1:" &amp; LEN(A148))), 1), UPPER(MID(A148, ROW(INDIRECT("1:" &amp; LEN(A148))), 1)))), " " &amp; MID(A148, ROW(INDIRECT("1:" &amp; LEN(A148))), 1), MID(A148, ROW(INDIRECT("1:" &amp; LEN(A148))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Other Operating Expenses</v>
+        <v xml:space="preserve"> State Trunkline Overhead Expense</v>
       </c>
       <c r="C148" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:OtherOperatingExpenses</v>
-      </c>
-      <c r="D148" s="127" t="s">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="14">
-      <c r="A149" s="127" t="s">
-        <v>1876</v>
+        <f t="shared" si="3"/>
+        <v>acfr:StateTrunklineOverheadExpense</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E148" s="121" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="14">
+      <c r="A149" s="121" t="s">
+        <v>1861</v>
       </c>
       <c r="B149" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B149" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A149, ROW(INDIRECT("1:" &amp; LEN(A149))), 1), UPPER(MID(A149, ROW(INDIRECT("1:" &amp; LEN(A149))), 1)))), " " &amp; MID(A149, ROW(INDIRECT("1:" &amp; LEN(A149))), 1), MID(A149, ROW(INDIRECT("1:" &amp; LEN(A149))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Operating Expense</v>
+        <v xml:space="preserve"> Health Services Expense</v>
       </c>
       <c r="C149" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:OperatingExpense</v>
-      </c>
-      <c r="D149" s="127" t="s">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="14">
-      <c r="A150" s="127" t="s">
-        <v>1877</v>
+        <f t="shared" si="3"/>
+        <v>acfr:HealthServicesExpense</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E149" s="121" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="14">
+      <c r="A150" s="121" t="s">
+        <v>1862</v>
       </c>
       <c r="B150" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B150" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A150, ROW(INDIRECT("1:" &amp; LEN(A150))), 1), UPPER(MID(A150, ROW(INDIRECT("1:" &amp; LEN(A150))), 1)))), " " &amp; MID(A150, ROW(INDIRECT("1:" &amp; LEN(A150))), 1), MID(A150, ROW(INDIRECT("1:" &amp; LEN(A150))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Operating Income Loss</v>
+        <v xml:space="preserve"> Expenses For Protective Services</v>
       </c>
       <c r="C150" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:OperatingIncomeLoss</v>
-      </c>
-      <c r="D150" s="127" t="s">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="14">
-      <c r="A151" s="127" t="s">
-        <v>1878</v>
+        <f t="shared" si="3"/>
+        <v>acfr:ExpensesForProtectiveServices</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E150" s="121" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="14">
+      <c r="A151" s="121" t="s">
+        <v>1863</v>
       </c>
       <c r="B151" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B151" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A151, ROW(INDIRECT("1:" &amp; LEN(A151))), 1), UPPER(MID(A151, ROW(INDIRECT("1:" &amp; LEN(A151))), 1)))), " " &amp; MID(A151, ROW(INDIRECT("1:" &amp; LEN(A151))), 1), MID(A151, ROW(INDIRECT("1:" &amp; LEN(A151))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Nonoperating Revenues Expenses Abstract</v>
+        <v xml:space="preserve"> Sewage Treatment Expense</v>
       </c>
       <c r="C151" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:NonoperatingRevenuesExpensesAbstract</v>
-      </c>
-      <c r="D151" s="127" t="s">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="14">
-      <c r="A152" s="127" t="s">
-        <v>1879</v>
+        <f t="shared" si="3"/>
+        <v>acfr:SewageTreatmentExpense</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E151" s="121" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="14">
+      <c r="A152" s="121" t="s">
+        <v>1864</v>
       </c>
       <c r="B152" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B152" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A152, ROW(INDIRECT("1:" &amp; LEN(A152))), 1), UPPER(MID(A152, ROW(INDIRECT("1:" &amp; LEN(A152))), 1)))), " " &amp; MID(A152, ROW(INDIRECT("1:" &amp; LEN(A152))), 1), MID(A152, ROW(INDIRECT("1:" &amp; LEN(A152))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Nonoperating Revenues Abstract</v>
+        <v xml:space="preserve"> Materials And Supplies Expense</v>
       </c>
       <c r="C152" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:NonoperatingRevenuesAbstract</v>
-      </c>
-      <c r="D152" s="127" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="14">
-      <c r="A153" s="127" t="s">
-        <v>1880</v>
+        <f t="shared" si="3"/>
+        <v>acfr:MaterialsAndSuppliesExpense</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E152" s="121" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="14">
+      <c r="A153" s="121" t="s">
+        <v>1865</v>
       </c>
       <c r="B153" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B153" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A153, ROW(INDIRECT("1:" &amp; LEN(A153))), 1), UPPER(MID(A153, ROW(INDIRECT("1:" &amp; LEN(A153))), 1)))), " " &amp; MID(A153, ROW(INDIRECT("1:" &amp; LEN(A153))), 1), MID(A153, ROW(INDIRECT("1:" &amp; LEN(A153))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Tax And Tax Related Revenues Abstract</v>
+        <v xml:space="preserve"> Financial Aid Expense</v>
       </c>
       <c r="C153" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:TaxAndTaxRelatedRevenuesAbstract</v>
-      </c>
-      <c r="D153" s="127" t="s">
-        <v>2094</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="14">
-      <c r="A154" s="127" t="s">
-        <v>1881</v>
+        <f t="shared" si="3"/>
+        <v>acfr:FinancialAidExpense</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E153" s="121" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="14">
+      <c r="A154" s="121" t="s">
+        <v>1301</v>
       </c>
       <c r="B154" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B154" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A154, ROW(INDIRECT("1:" &amp; LEN(A154))), 1), UPPER(MID(A154, ROW(INDIRECT("1:" &amp; LEN(A154))), 1)))), " " &amp; MID(A154, ROW(INDIRECT("1:" &amp; LEN(A154))), 1), MID(A154, ROW(INDIRECT("1:" &amp; LEN(A154))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Tax Revenues Abstract</v>
+        <v xml:space="preserve"> Expenses For Lottery Prize Awards</v>
       </c>
       <c r="C154" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:TaxRevenuesAbstract</v>
-      </c>
-      <c r="D154" s="127" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="14">
-      <c r="A155" s="127" t="s">
-        <v>1549</v>
+        <f t="shared" si="3"/>
+        <v>acfr:ExpensesForLotteryPrizeAwards</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E154" s="121" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="14">
+      <c r="A155" s="121" t="s">
+        <v>1867</v>
       </c>
       <c r="B155" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B155" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A155, ROW(INDIRECT("1:" &amp; LEN(A155))), 1), UPPER(MID(A155, ROW(INDIRECT("1:" &amp; LEN(A155))), 1)))), " " &amp; MID(A155, ROW(INDIRECT("1:" &amp; LEN(A155))), 1), MID(A155, ROW(INDIRECT("1:" &amp; LEN(A155))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From National Forest Reserve Taxes</v>
+        <v xml:space="preserve"> Expenses For Lottery Game Costs</v>
       </c>
       <c r="C155" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromNationalForestReserveTaxes</v>
-      </c>
-      <c r="D155" s="127" t="s">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="14">
-      <c r="A156" s="127" t="s">
-        <v>1550</v>
+        <f t="shared" si="3"/>
+        <v>acfr:ExpensesForLotteryGameCosts</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E155" s="121" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="14">
+      <c r="A156" s="121" t="s">
+        <v>1868</v>
       </c>
       <c r="B156" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B156" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A156, ROW(INDIRECT("1:" &amp; LEN(A156))), 1), UPPER(MID(A156, ROW(INDIRECT("1:" &amp; LEN(A156))), 1)))), " " &amp; MID(A156, ROW(INDIRECT("1:" &amp; LEN(A156))), 1), MID(A156, ROW(INDIRECT("1:" &amp; LEN(A156))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Trailer Tax</v>
+        <v xml:space="preserve"> Expenses For Lottery Retailer Commissions</v>
       </c>
       <c r="C156" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromTrailerTax</v>
-      </c>
-      <c r="D156" s="127" t="s">
-        <v>2097</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="14">
-      <c r="A157" s="127" t="s">
-        <v>1551</v>
+        <f t="shared" si="3"/>
+        <v>acfr:ExpensesForLotteryRetailerCommissions</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E156" s="121" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="14">
+      <c r="A157" s="121" t="s">
+        <v>1869</v>
       </c>
       <c r="B157" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B157" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A157, ROW(INDIRECT("1:" &amp; LEN(A157))), 1), UPPER(MID(A157, ROW(INDIRECT("1:" &amp; LEN(A157))), 1)))), " " &amp; MID(A157, ROW(INDIRECT("1:" &amp; LEN(A157))), 1), MID(A157, ROW(INDIRECT("1:" &amp; LEN(A157))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Accomodations Tax</v>
+        <v xml:space="preserve"> Expenses For Lottery Retailer Bonuses</v>
       </c>
       <c r="C157" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromAccomodationsTax</v>
-      </c>
-      <c r="D157" s="127" t="s">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="14">
-      <c r="A158" s="127" t="s">
-        <v>1552</v>
+        <f t="shared" si="3"/>
+        <v>acfr:ExpensesForLotteryRetailerBonuses</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E157" s="121" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="14">
+      <c r="A158" s="121" t="s">
+        <v>1870</v>
       </c>
       <c r="B158" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B158" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A158, ROW(INDIRECT("1:" &amp; LEN(A158))), 1), UPPER(MID(A158, ROW(INDIRECT("1:" &amp; LEN(A158))), 1)))), " " &amp; MID(A158, ROW(INDIRECT("1:" &amp; LEN(A158))), 1), MID(A158, ROW(INDIRECT("1:" &amp; LEN(A158))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Parking Occupancy Tax</v>
+        <v xml:space="preserve"> Expenses For Lottery Operator Fees</v>
       </c>
       <c r="C158" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromParkingOccupancyTax</v>
-      </c>
-      <c r="D158" s="127" t="s">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="14">
-      <c r="A159" s="127" t="s">
-        <v>1553</v>
+        <f t="shared" si="3"/>
+        <v>acfr:ExpensesForLotteryOperatorFees</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E158" s="121" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="14">
+      <c r="A159" s="121" t="s">
+        <v>1871</v>
       </c>
       <c r="B159" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B159" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A159, ROW(INDIRECT("1:" &amp; LEN(A159))), 1), UPPER(MID(A159, ROW(INDIRECT("1:" &amp; LEN(A159))), 1)))), " " &amp; MID(A159, ROW(INDIRECT("1:" &amp; LEN(A159))), 1), MID(A159, ROW(INDIRECT("1:" &amp; LEN(A159))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Industrial Facilities Tax</v>
+        <v xml:space="preserve"> Expenses For Lottery Promotion Public Relations And Point Of Sale</v>
       </c>
       <c r="C159" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromIndustrialFacilitiesTax</v>
-      </c>
-      <c r="D159" s="127" t="s">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="14">
-      <c r="A160" s="127" t="s">
-        <v>1554</v>
+        <f t="shared" si="3"/>
+        <v>acfr:ExpensesForLotteryPromotionPublicRelationsAndPointOfSale</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E159" s="121" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="14">
+      <c r="A160" s="121" t="s">
+        <v>1872</v>
       </c>
       <c r="B160" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B160" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A160, ROW(INDIRECT("1:" &amp; LEN(A160))), 1), UPPER(MID(A160, ROW(INDIRECT("1:" &amp; LEN(A160))), 1)))), " " &amp; MID(A160, ROW(INDIRECT("1:" &amp; LEN(A160))), 1), MID(A160, ROW(INDIRECT("1:" &amp; LEN(A160))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Commercial Facilities Tax</v>
+        <v xml:space="preserve"> Interest Expense Imputed On Annuitized Prize Liability</v>
       </c>
       <c r="C160" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromCommercialFacilitiesTax</v>
-      </c>
-      <c r="D160" s="127" t="s">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="14">
-      <c r="A161" s="127" t="s">
-        <v>1555</v>
+        <f t="shared" si="3"/>
+        <v>acfr:InterestExpenseImputedOnAnnuitizedPrizeLiability</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E160" s="121" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="14">
+      <c r="A161" s="121" t="s">
+        <v>1873</v>
       </c>
       <c r="B161" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B161" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A161, ROW(INDIRECT("1:" &amp; LEN(A161))), 1), UPPER(MID(A161, ROW(INDIRECT("1:" &amp; LEN(A161))), 1)))), " " &amp; MID(A161, ROW(INDIRECT("1:" &amp; LEN(A161))), 1), MID(A161, ROW(INDIRECT("1:" &amp; LEN(A161))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Income Tax</v>
+        <v xml:space="preserve"> Other Lottery Costs</v>
       </c>
       <c r="C161" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromIncomeTax</v>
-      </c>
-      <c r="D161" s="127" t="s">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="14">
-      <c r="A162" s="127" t="s">
-        <v>1556</v>
+        <f t="shared" si="3"/>
+        <v>acfr:OtherLotteryCosts</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E161" s="121" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="14">
+      <c r="A162" s="121" t="s">
+        <v>1874</v>
       </c>
       <c r="B162" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B162" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A162, ROW(INDIRECT("1:" &amp; LEN(A162))), 1), UPPER(MID(A162, ROW(INDIRECT("1:" &amp; LEN(A162))), 1)))), " " &amp; MID(A162, ROW(INDIRECT("1:" &amp; LEN(A162))), 1), MID(A162, ROW(INDIRECT("1:" &amp; LEN(A162))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Transaction Privilege Tax</v>
+        <v xml:space="preserve"> Other Operating Expenses</v>
       </c>
       <c r="C162" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromTransactionPrivilegeTax</v>
-      </c>
-      <c r="D162" s="127" t="s">
-        <v>2103</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="14">
-      <c r="A163" s="127" t="s">
-        <v>1882</v>
+        <f t="shared" si="3"/>
+        <v>acfr:OtherOperatingExpenses</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E162" s="121" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="14">
+      <c r="A163" s="121" t="s">
+        <v>1875</v>
       </c>
       <c r="B163" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B163" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A163, ROW(INDIRECT("1:" &amp; LEN(A163))), 1), UPPER(MID(A163, ROW(INDIRECT("1:" &amp; LEN(A163))), 1)))), " " &amp; MID(A163, ROW(INDIRECT("1:" &amp; LEN(A163))), 1), MID(A163, ROW(INDIRECT("1:" &amp; LEN(A163))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Property Tax Abstract</v>
+        <v xml:space="preserve"> Operating Expense</v>
       </c>
       <c r="C163" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:PropertyTaxAbstract</v>
-      </c>
-      <c r="D163" s="127" t="s">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="14">
-      <c r="A164" s="127" t="s">
-        <v>1557</v>
+        <f t="shared" si="3"/>
+        <v>acfr:OperatingExpense</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E163" s="121" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="14">
+      <c r="A164" s="121" t="s">
+        <v>1876</v>
       </c>
       <c r="B164" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B164" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A164, ROW(INDIRECT("1:" &amp; LEN(A164))), 1), UPPER(MID(A164, ROW(INDIRECT("1:" &amp; LEN(A164))), 1)))), " " &amp; MID(A164, ROW(INDIRECT("1:" &amp; LEN(A164))), 1), MID(A164, ROW(INDIRECT("1:" &amp; LEN(A164))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Current Property Taxes Extra Or Special Voted</v>
+        <v xml:space="preserve"> Operating Income Loss</v>
       </c>
       <c r="C164" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromCurrentPropertyTaxesExtraOrSpecialVoted</v>
-      </c>
-      <c r="D164" s="127" t="s">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="14">
-      <c r="A165" s="127" t="s">
-        <v>1558</v>
+        <f t="shared" si="3"/>
+        <v>acfr:OperatingIncomeLoss</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E164" s="121" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="14">
+      <c r="A165" s="121" t="s">
+        <v>1880</v>
       </c>
       <c r="B165" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B165" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A165, ROW(INDIRECT("1:" &amp; LEN(A165))), 1), UPPER(MID(A165, ROW(INDIRECT("1:" &amp; LEN(A165))), 1)))), " " &amp; MID(A165, ROW(INDIRECT("1:" &amp; LEN(A165))), 1), MID(A165, ROW(INDIRECT("1:" &amp; LEN(A165))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Current Personal Property Tax</v>
+        <v xml:space="preserve"> Tax Revenues Abstract</v>
       </c>
       <c r="C165" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromCurrentPersonalPropertyTax</v>
-      </c>
-      <c r="D165" s="127" t="s">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="14">
-      <c r="A166" s="127" t="s">
-        <v>1559</v>
+        <f t="shared" si="3"/>
+        <v>acfr:TaxRevenuesAbstract</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E165" s="121" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="14">
+      <c r="A166" s="121" t="s">
+        <v>1549</v>
       </c>
       <c r="B166" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B166" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A166, ROW(INDIRECT("1:" &amp; LEN(A166))), 1), UPPER(MID(A166, ROW(INDIRECT("1:" &amp; LEN(A166))), 1)))), " " &amp; MID(A166, ROW(INDIRECT("1:" &amp; LEN(A166))), 1), MID(A166, ROW(INDIRECT("1:" &amp; LEN(A166))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenues From Current Real Property Tax</v>
+        <v xml:space="preserve"> Revenue From National Forest Reserve Taxes</v>
       </c>
       <c r="C166" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenuesFromCurrentRealPropertyTax</v>
-      </c>
-      <c r="D166" s="127" t="s">
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="14">
-      <c r="A167" s="127" t="s">
-        <v>1560</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromNationalForestReserveTaxes</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E166" s="121" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="14">
+      <c r="A167" s="121" t="s">
+        <v>1550</v>
       </c>
       <c r="B167" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B167" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A167, ROW(INDIRECT("1:" &amp; LEN(A167))), 1), UPPER(MID(A167, ROW(INDIRECT("1:" &amp; LEN(A167))), 1)))), " " &amp; MID(A167, ROW(INDIRECT("1:" &amp; LEN(A167))), 1), MID(A167, ROW(INDIRECT("1:" &amp; LEN(A167))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Property Tax</v>
+        <v xml:space="preserve"> Revenue From Trailer Tax</v>
       </c>
       <c r="C167" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromPropertyTax</v>
-      </c>
-      <c r="D167" s="127" t="s">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="14">
-      <c r="A168" s="127" t="s">
-        <v>1561</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromTrailerTax</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E167" s="121" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="14">
+      <c r="A168" s="121" t="s">
+        <v>1551</v>
       </c>
       <c r="B168" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B168" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A168, ROW(INDIRECT("1:" &amp; LEN(A168))), 1), UPPER(MID(A168, ROW(INDIRECT("1:" &amp; LEN(A168))), 1)))), " " &amp; MID(A168, ROW(INDIRECT("1:" &amp; LEN(A168))), 1), MID(A168, ROW(INDIRECT("1:" &amp; LEN(A168))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Delinquent Real Property Tax</v>
+        <v xml:space="preserve"> Revenue From Accomodations Tax</v>
       </c>
       <c r="C168" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromDelinquentRealPropertyTax</v>
-      </c>
-      <c r="D168" s="127" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="14">
-      <c r="A169" s="127" t="s">
-        <v>1562</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromAccomodationsTax</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E168" s="121" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="14">
+      <c r="A169" s="121" t="s">
+        <v>1552</v>
       </c>
       <c r="B169" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B169" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A169, ROW(INDIRECT("1:" &amp; LEN(A169))), 1), UPPER(MID(A169, ROW(INDIRECT("1:" &amp; LEN(A169))), 1)))), " " &amp; MID(A169, ROW(INDIRECT("1:" &amp; LEN(A169))), 1), MID(A169, ROW(INDIRECT("1:" &amp; LEN(A169))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Delinquent Personal Property Tax</v>
+        <v xml:space="preserve"> Revenue From Parking Occupancy Tax</v>
       </c>
       <c r="C169" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromDelinquentPersonalPropertyTax</v>
-      </c>
-      <c r="D169" s="127" t="s">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="14">
-      <c r="A170" s="127" t="s">
-        <v>1589</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromParkingOccupancyTax</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E169" s="121" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="14">
+      <c r="A170" s="121" t="s">
+        <v>1553</v>
       </c>
       <c r="B170" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B170" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A170, ROW(INDIRECT("1:" &amp; LEN(A170))), 1), UPPER(MID(A170, ROW(INDIRECT("1:" &amp; LEN(A170))), 1)))), " " &amp; MID(A170, ROW(INDIRECT("1:" &amp; LEN(A170))), 1), MID(A170, ROW(INDIRECT("1:" &amp; LEN(A170))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Interest And Penalties On Taxes</v>
+        <v xml:space="preserve"> Revenue From Industrial Facilities Tax</v>
       </c>
       <c r="C170" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromInterestAndPenaltiesOnTaxes</v>
-      </c>
-      <c r="D170" s="127" t="s">
-        <v>2111</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="14">
-      <c r="A171" s="127" t="s">
-        <v>1571</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromIndustrialFacilitiesTax</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E170" s="121" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="14">
+      <c r="A171" s="121" t="s">
+        <v>1554</v>
       </c>
       <c r="B171" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B171" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A171, ROW(INDIRECT("1:" &amp; LEN(A171))), 1), UPPER(MID(A171, ROW(INDIRECT("1:" &amp; LEN(A171))), 1)))), " " &amp; MID(A171, ROW(INDIRECT("1:" &amp; LEN(A171))), 1), MID(A171, ROW(INDIRECT("1:" &amp; LEN(A171))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Sales Tax</v>
+        <v xml:space="preserve"> Revenue From Commercial Facilities Tax</v>
       </c>
       <c r="C171" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromSalesTax</v>
-      </c>
-      <c r="D171" s="127" t="s">
-        <v>2112</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="14">
-      <c r="A172" s="127" t="s">
-        <v>1563</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromCommercialFacilitiesTax</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E171" s="121" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="14">
+      <c r="A172" s="121" t="s">
+        <v>1555</v>
       </c>
       <c r="B172" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B172" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A172, ROW(INDIRECT("1:" &amp; LEN(A172))), 1), UPPER(MID(A172, ROW(INDIRECT("1:" &amp; LEN(A172))), 1)))), " " &amp; MID(A172, ROW(INDIRECT("1:" &amp; LEN(A172))), 1), MID(A172, ROW(INDIRECT("1:" &amp; LEN(A172))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Marijuana Tax</v>
+        <v xml:space="preserve"> Revenue From Income Tax</v>
       </c>
       <c r="C172" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromMarijuanaTax</v>
-      </c>
-      <c r="D172" s="127" t="s">
-        <v>2113</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="14">
-      <c r="A173" s="127" t="s">
-        <v>1568</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromIncomeTax</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E172" s="121" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="14">
+      <c r="A173" s="121" t="s">
+        <v>1556</v>
       </c>
       <c r="B173" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B173" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A173, ROW(INDIRECT("1:" &amp; LEN(A173))), 1), UPPER(MID(A173, ROW(INDIRECT("1:" &amp; LEN(A173))), 1)))), " " &amp; MID(A173, ROW(INDIRECT("1:" &amp; LEN(A173))), 1), MID(A173, ROW(INDIRECT("1:" &amp; LEN(A173))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Usage Of Utilities Tax</v>
+        <v xml:space="preserve"> Revenue From Transaction Privilege Tax</v>
       </c>
       <c r="C173" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromUsageOfUtilitiesTax</v>
-      </c>
-      <c r="D173" s="127" t="s">
-        <v>2114</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="14">
-      <c r="A174" s="127" t="s">
-        <v>1564</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromTransactionPrivilegeTax</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E173" s="121" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="14">
+      <c r="A174" s="121" t="s">
+        <v>1881</v>
       </c>
       <c r="B174" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B174" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A174, ROW(INDIRECT("1:" &amp; LEN(A174))), 1), UPPER(MID(A174, ROW(INDIRECT("1:" &amp; LEN(A174))), 1)))), " " &amp; MID(A174, ROW(INDIRECT("1:" &amp; LEN(A174))), 1), MID(A174, ROW(INDIRECT("1:" &amp; LEN(A174))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From City Utility Users Tax</v>
+        <v xml:space="preserve"> Property Tax Abstract</v>
       </c>
       <c r="C174" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromCityUtilityUsersTax</v>
-      </c>
-      <c r="D174" s="127" t="s">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="14">
-      <c r="A175" s="127" t="s">
-        <v>1570</v>
+        <f t="shared" si="3"/>
+        <v>acfr:PropertyTaxAbstract</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E174" s="121" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="14">
+      <c r="A175" s="121" t="s">
+        <v>1557</v>
       </c>
       <c r="B175" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B175" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A175, ROW(INDIRECT("1:" &amp; LEN(A175))), 1), UPPER(MID(A175, ROW(INDIRECT("1:" &amp; LEN(A175))), 1)))), " " &amp; MID(A175, ROW(INDIRECT("1:" &amp; LEN(A175))), 1), MID(A175, ROW(INDIRECT("1:" &amp; LEN(A175))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Sales And Use Tax</v>
+        <v xml:space="preserve"> Revenue From Current Property Taxes Extra Or Special Voted</v>
       </c>
       <c r="C175" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromSalesAndUseTax</v>
-      </c>
-      <c r="D175" s="127" t="s">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="14">
-      <c r="A176" s="127" t="s">
-        <v>1565</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromCurrentPropertyTaxesExtraOrSpecialVoted</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E175" s="121" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="14">
+      <c r="A176" s="121" t="s">
+        <v>1558</v>
       </c>
       <c r="B176" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B176" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A176, ROW(INDIRECT("1:" &amp; LEN(A176))), 1), UPPER(MID(A176, ROW(INDIRECT("1:" &amp; LEN(A176))), 1)))), " " &amp; MID(A176, ROW(INDIRECT("1:" &amp; LEN(A176))), 1), MID(A176, ROW(INDIRECT("1:" &amp; LEN(A176))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Motor Fuel Tax</v>
+        <v xml:space="preserve"> Revenue From Current Personal Property Tax</v>
       </c>
       <c r="C176" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromMotorFuelTax</v>
-      </c>
-      <c r="D176" s="127" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="14">
-      <c r="A177" s="127" t="s">
-        <v>1566</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromCurrentPersonalPropertyTax</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E176" s="121" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="14">
+      <c r="A177" s="121" t="s">
+        <v>1559</v>
       </c>
       <c r="B177" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B177" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A177, ROW(INDIRECT("1:" &amp; LEN(A177))), 1), UPPER(MID(A177, ROW(INDIRECT("1:" &amp; LEN(A177))), 1)))), " " &amp; MID(A177, ROW(INDIRECT("1:" &amp; LEN(A177))), 1), MID(A177, ROW(INDIRECT("1:" &amp; LEN(A177))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Lottery For Education Lottery Proceeds</v>
+        <v xml:space="preserve"> Revenues From Current Real Property Tax</v>
       </c>
       <c r="C177" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromLotteryForEducationLotteryProceeds</v>
-      </c>
-      <c r="D177" s="127" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="14">
-      <c r="A178" s="127" t="s">
-        <v>1567</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenuesFromCurrentRealPropertyTax</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E177" s="121" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="14">
+      <c r="A178" s="121" t="s">
+        <v>1560</v>
       </c>
       <c r="B178" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B178" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A178, ROW(INDIRECT("1:" &amp; LEN(A178))), 1), UPPER(MID(A178, ROW(INDIRECT("1:" &amp; LEN(A178))), 1)))), " " &amp; MID(A178, ROW(INDIRECT("1:" &amp; LEN(A178))), 1), MID(A178, ROW(INDIRECT("1:" &amp; LEN(A178))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Corporate Tax</v>
+        <v xml:space="preserve"> Revenue From Property Tax</v>
       </c>
       <c r="C178" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromCorporateTax</v>
-      </c>
-      <c r="D178" s="127" t="s">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="14">
-      <c r="A179" s="127" t="s">
-        <v>1569</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromPropertyTax</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E178" s="121" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="14">
+      <c r="A179" s="121" t="s">
+        <v>1561</v>
       </c>
       <c r="B179" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B179" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A179, ROW(INDIRECT("1:" &amp; LEN(A179))), 1), UPPER(MID(A179, ROW(INDIRECT("1:" &amp; LEN(A179))), 1)))), " " &amp; MID(A179, ROW(INDIRECT("1:" &amp; LEN(A179))), 1), MID(A179, ROW(INDIRECT("1:" &amp; LEN(A179))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Convention Tax</v>
+        <v xml:space="preserve"> Revenue From Delinquent Real Property Tax</v>
       </c>
       <c r="C179" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromConventionTax</v>
-      </c>
-      <c r="D179" s="127" t="s">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="14">
-      <c r="A180" s="127" t="s">
-        <v>1572</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromDelinquentRealPropertyTax</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E179" s="121" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="14">
+      <c r="A180" s="121" t="s">
+        <v>1562</v>
       </c>
       <c r="B180" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B180" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A180, ROW(INDIRECT("1:" &amp; LEN(A180))), 1), UPPER(MID(A180, ROW(INDIRECT("1:" &amp; LEN(A180))), 1)))), " " &amp; MID(A180, ROW(INDIRECT("1:" &amp; LEN(A180))), 1), MID(A180, ROW(INDIRECT("1:" &amp; LEN(A180))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Unclaimed Property</v>
+        <v xml:space="preserve"> Revenue From Delinquent Personal Property Tax</v>
       </c>
       <c r="C180" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromUnclaimedProperty</v>
-      </c>
-      <c r="D180" s="127" t="s">
-        <v>2121</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="14">
-      <c r="A181" s="127" t="s">
-        <v>1573</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromDelinquentPersonalPropertyTax</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E180" s="121" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="14">
+      <c r="A181" s="121" t="s">
+        <v>1589</v>
       </c>
       <c r="B181" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B181" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A181, ROW(INDIRECT("1:" &amp; LEN(A181))), 1), UPPER(MID(A181, ROW(INDIRECT("1:" &amp; LEN(A181))), 1)))), " " &amp; MID(A181, ROW(INDIRECT("1:" &amp; LEN(A181))), 1), MID(A181, ROW(INDIRECT("1:" &amp; LEN(A181))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Nursing Home And Hospital Provider Fees</v>
+        <v xml:space="preserve"> Revenue From Interest And Penalties On Taxes</v>
       </c>
       <c r="C181" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromNursingHomeAndHospitalProviderFees</v>
-      </c>
-      <c r="D181" s="127" t="s">
-        <v>2122</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="14">
-      <c r="A182" s="127" t="s">
-        <v>1574</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromInterestAndPenaltiesOnTaxes</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E181" s="121" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="14">
+      <c r="A182" s="121" t="s">
+        <v>1571</v>
       </c>
       <c r="B182" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B182" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A182, ROW(INDIRECT("1:" &amp; LEN(A182))), 1), UPPER(MID(A182, ROW(INDIRECT("1:" &amp; LEN(A182))), 1)))), " " &amp; MID(A182, ROW(INDIRECT("1:" &amp; LEN(A182))), 1), MID(A182, ROW(INDIRECT("1:" &amp; LEN(A182))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Business License Tax</v>
+        <v xml:space="preserve"> Revenue From Sales Tax</v>
       </c>
       <c r="C182" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromBusinessLicenseTax</v>
-      </c>
-      <c r="D182" s="127" t="s">
-        <v>2123</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="14">
-      <c r="A183" s="127" t="s">
-        <v>1575</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromSalesTax</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E182" s="121" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="14">
+      <c r="A183" s="121" t="s">
+        <v>1563</v>
       </c>
       <c r="B183" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B183" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A183, ROW(INDIRECT("1:" &amp; LEN(A183))), 1), UPPER(MID(A183, ROW(INDIRECT("1:" &amp; LEN(A183))), 1)))), " " &amp; MID(A183, ROW(INDIRECT("1:" &amp; LEN(A183))), 1), MID(A183, ROW(INDIRECT("1:" &amp; LEN(A183))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Property Transfer Tax</v>
+        <v xml:space="preserve"> Revenue From Marijuana Tax</v>
       </c>
       <c r="C183" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromPropertyTransferTax</v>
-      </c>
-      <c r="D183" s="127" t="s">
-        <v>2124</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="14">
-      <c r="A184" s="127" t="s">
-        <v>1576</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromMarijuanaTax</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E183" s="121" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="14">
+      <c r="A184" s="121" t="s">
+        <v>1568</v>
       </c>
       <c r="B184" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B184" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A184, ROW(INDIRECT("1:" &amp; LEN(A184))), 1), UPPER(MID(A184, ROW(INDIRECT("1:" &amp; LEN(A184))), 1)))), " " &amp; MID(A184, ROW(INDIRECT("1:" &amp; LEN(A184))), 1), MID(A184, ROW(INDIRECT("1:" &amp; LEN(A184))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Documents Transfer Tax</v>
+        <v xml:space="preserve"> Revenue From Usage Of Utilities Tax</v>
       </c>
       <c r="C184" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromDocumentsTransferTax</v>
-      </c>
-      <c r="D184" s="127" t="s">
-        <v>2125</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="14">
-      <c r="A185" s="127" t="s">
-        <v>1577</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromUsageOfUtilitiesTax</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E184" s="121" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="14">
+      <c r="A185" s="121" t="s">
+        <v>1564</v>
       </c>
       <c r="B185" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B185" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A185, ROW(INDIRECT("1:" &amp; LEN(A185))), 1), UPPER(MID(A185, ROW(INDIRECT("1:" &amp; LEN(A185))), 1)))), " " &amp; MID(A185, ROW(INDIRECT("1:" &amp; LEN(A185))), 1), MID(A185, ROW(INDIRECT("1:" &amp; LEN(A185))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Transfer Stamps Tax</v>
+        <v xml:space="preserve"> Revenue From City Utility Users Tax</v>
       </c>
       <c r="C185" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromTransferStampsTax</v>
-      </c>
-      <c r="D185" s="127" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="14">
-      <c r="A186" s="127" t="s">
-        <v>1578</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromCityUtilityUsersTax</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E185" s="121" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="14">
+      <c r="A186" s="121" t="s">
+        <v>1570</v>
       </c>
       <c r="B186" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B186" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A186, ROW(INDIRECT("1:" &amp; LEN(A186))), 1), UPPER(MID(A186, ROW(INDIRECT("1:" &amp; LEN(A186))), 1)))), " " &amp; MID(A186, ROW(INDIRECT("1:" &amp; LEN(A186))), 1), MID(A186, ROW(INDIRECT("1:" &amp; LEN(A186))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Hotel And Motel Tax</v>
+        <v xml:space="preserve"> Revenue From Sales And Use Tax</v>
       </c>
       <c r="C186" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromHotelAndMotelTax</v>
-      </c>
-      <c r="D186" s="127" t="s">
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="14">
-      <c r="A187" s="127" t="s">
-        <v>1579</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromSalesAndUseTax</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E186" s="121" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="14">
+      <c r="A187" s="121" t="s">
+        <v>1565</v>
       </c>
       <c r="B187" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B187" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A187, ROW(INDIRECT("1:" &amp; LEN(A187))), 1), UPPER(MID(A187, ROW(INDIRECT("1:" &amp; LEN(A187))), 1)))), " " &amp; MID(A187, ROW(INDIRECT("1:" &amp; LEN(A187))), 1), MID(A187, ROW(INDIRECT("1:" &amp; LEN(A187))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Vehicles Tax</v>
+        <v xml:space="preserve"> Revenue From Motor Fuel Tax</v>
       </c>
       <c r="C187" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromVehiclesTax</v>
-      </c>
-      <c r="D187" s="127" t="s">
-        <v>2128</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="14">
-      <c r="A188" s="127" t="s">
-        <v>1552</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromMotorFuelTax</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E187" s="121" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="14">
+      <c r="A188" s="121" t="s">
+        <v>1566</v>
       </c>
       <c r="B188" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B188" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A188, ROW(INDIRECT("1:" &amp; LEN(A188))), 1), UPPER(MID(A188, ROW(INDIRECT("1:" &amp; LEN(A188))), 1)))), " " &amp; MID(A188, ROW(INDIRECT("1:" &amp; LEN(A188))), 1), MID(A188, ROW(INDIRECT("1:" &amp; LEN(A188))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Parking Occupancy Tax</v>
+        <v xml:space="preserve"> Revenue From Lottery For Education Lottery Proceeds</v>
       </c>
       <c r="C188" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromParkingOccupancyTax</v>
-      </c>
-      <c r="D188" s="127" t="s">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="14">
-      <c r="A189" s="127" t="s">
-        <v>1580</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromLotteryForEducationLotteryProceeds</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E188" s="121" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="14">
+      <c r="A189" s="121" t="s">
+        <v>1567</v>
       </c>
       <c r="B189" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B189" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A189, ROW(INDIRECT("1:" &amp; LEN(A189))), 1), UPPER(MID(A189, ROW(INDIRECT("1:" &amp; LEN(A189))), 1)))), " " &amp; MID(A189, ROW(INDIRECT("1:" &amp; LEN(A189))), 1), MID(A189, ROW(INDIRECT("1:" &amp; LEN(A189))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Meals Tax</v>
+        <v xml:space="preserve"> Revenue From Corporate Tax</v>
       </c>
       <c r="C189" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromMealsTax</v>
-      </c>
-      <c r="D189" s="127" t="s">
-        <v>2129</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="14">
-      <c r="A190" s="127" t="s">
-        <v>1581</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromCorporateTax</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E189" s="121" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="14">
+      <c r="A190" s="121" t="s">
+        <v>1569</v>
       </c>
       <c r="B190" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B190" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A190, ROW(INDIRECT("1:" &amp; LEN(A190))), 1), UPPER(MID(A190, ROW(INDIRECT("1:" &amp; LEN(A190))), 1)))), " " &amp; MID(A190, ROW(INDIRECT("1:" &amp; LEN(A190))), 1), MID(A190, ROW(INDIRECT("1:" &amp; LEN(A190))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Franchise Income Tax</v>
+        <v xml:space="preserve"> Revenue From Convention Tax</v>
       </c>
       <c r="C190" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromFranchiseIncomeTax</v>
-      </c>
-      <c r="D190" s="127" t="s">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="14">
-      <c r="A191" s="127" t="s">
-        <v>1582</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromConventionTax</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E190" s="121" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="14">
+      <c r="A191" s="121" t="s">
+        <v>1572</v>
       </c>
       <c r="B191" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B191" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A191, ROW(INDIRECT("1:" &amp; LEN(A191))), 1), UPPER(MID(A191, ROW(INDIRECT("1:" &amp; LEN(A191))), 1)))), " " &amp; MID(A191, ROW(INDIRECT("1:" &amp; LEN(A191))), 1), MID(A191, ROW(INDIRECT("1:" &amp; LEN(A191))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Other Tax For General Purpose</v>
+        <v xml:space="preserve"> Revenue From Unclaimed Property</v>
       </c>
       <c r="C191" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromOtherTaxForGeneralPurpose</v>
-      </c>
-      <c r="D191" s="127" t="s">
-        <v>2131</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="14">
-      <c r="A192" s="127" t="s">
-        <v>1583</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromUnclaimedProperty</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E191" s="121" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="14">
+      <c r="A192" s="121" t="s">
+        <v>1573</v>
       </c>
       <c r="B192" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B192" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A192, ROW(INDIRECT("1:" &amp; LEN(A192))), 1), UPPER(MID(A192, ROW(INDIRECT("1:" &amp; LEN(A192))), 1)))), " " &amp; MID(A192, ROW(INDIRECT("1:" &amp; LEN(A192))), 1), MID(A192, ROW(INDIRECT("1:" &amp; LEN(A192))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Taxes</v>
+        <v xml:space="preserve"> Revenue From Nursing Home And Hospital Provider Fees</v>
       </c>
       <c r="C192" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromTaxes</v>
-      </c>
-      <c r="D192" s="127" t="s">
-        <v>2132</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="14">
-      <c r="A193" s="127" t="s">
-        <v>1883</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromNursingHomeAndHospitalProviderFees</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E192" s="121" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="14">
+      <c r="A193" s="121" t="s">
+        <v>1574</v>
       </c>
       <c r="B193" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B193" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A193, ROW(INDIRECT("1:" &amp; LEN(A193))), 1), UPPER(MID(A193, ROW(INDIRECT("1:" &amp; LEN(A193))), 1)))), " " &amp; MID(A193, ROW(INDIRECT("1:" &amp; LEN(A193))), 1), MID(A193, ROW(INDIRECT("1:" &amp; LEN(A193))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Allowance For Taxes Abstract</v>
+        <v xml:space="preserve"> Revenue From Business License Tax</v>
       </c>
       <c r="C193" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:RevenueFromAllowanceForTaxesAbstract</v>
-      </c>
-      <c r="D193" s="127" t="s">
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="14">
-      <c r="A194" s="127" t="s">
-        <v>1585</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromBusinessLicenseTax</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E193" s="121" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="14">
+      <c r="A194" s="121" t="s">
+        <v>1575</v>
       </c>
       <c r="B194" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B194" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A194, ROW(INDIRECT("1:" &amp; LEN(A194))), 1), UPPER(MID(A194, ROW(INDIRECT("1:" &amp; LEN(A194))), 1)))), " " &amp; MID(A194, ROW(INDIRECT("1:" &amp; LEN(A194))), 1), MID(A194, ROW(INDIRECT("1:" &amp; LEN(A194))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Allowance For Chargebacks</v>
+        <v xml:space="preserve"> Revenue From Property Transfer Tax</v>
       </c>
       <c r="C194" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>acfr:AllowanceForChargebacks</v>
-      </c>
-      <c r="D194" s="127" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="14">
-      <c r="A195" s="127" t="s">
-        <v>1587</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromPropertyTransferTax</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E194" s="121" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="14">
+      <c r="A195" s="121" t="s">
+        <v>1576</v>
       </c>
       <c r="B195" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B195" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A195, ROW(INDIRECT("1:" &amp; LEN(A195))), 1), UPPER(MID(A195, ROW(INDIRECT("1:" &amp; LEN(A195))), 1)))), " " &amp; MID(A195, ROW(INDIRECT("1:" &amp; LEN(A195))), 1), MID(A195, ROW(INDIRECT("1:" &amp; LEN(A195))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Allowance For Refunds</v>
+        <v xml:space="preserve"> Revenue From Documents Transfer Tax</v>
       </c>
       <c r="C195" s="2" t="str">
-        <f t="shared" ref="C195:C258" si="3">"acfr:"&amp;A195</f>
-        <v>acfr:AllowanceForRefunds</v>
-      </c>
-      <c r="D195" s="127" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="14">
-      <c r="A196" s="127" t="s">
-        <v>1588</v>
+        <f t="shared" si="3"/>
+        <v>acfr:RevenueFromDocumentsTransferTax</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E195" s="121" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="14">
+      <c r="A196" s="121" t="s">
+        <v>1577</v>
       </c>
       <c r="B196" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B196" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A196, ROW(INDIRECT("1:" &amp; LEN(A196))), 1), UPPER(MID(A196, ROW(INDIRECT("1:" &amp; LEN(A196))), 1)))), " " &amp; MID(A196, ROW(INDIRECT("1:" &amp; LEN(A196))), 1), MID(A196, ROW(INDIRECT("1:" &amp; LEN(A196))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Collection Fees</v>
+        <v xml:space="preserve"> Revenue From Transfer Stamps Tax</v>
       </c>
       <c r="C196" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>acfr:RevenueFromCollectionFees</v>
-      </c>
-      <c r="D196" s="127" t="s">
-        <v>2134</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="14">
-      <c r="A197" s="127" t="s">
-        <v>1589</v>
+        <v>acfr:RevenueFromTransferStampsTax</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E196" s="121" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="14">
+      <c r="A197" s="121" t="s">
+        <v>1578</v>
       </c>
       <c r="B197" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B197" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A197, ROW(INDIRECT("1:" &amp; LEN(A197))), 1), UPPER(MID(A197, ROW(INDIRECT("1:" &amp; LEN(A197))), 1)))), " " &amp; MID(A197, ROW(INDIRECT("1:" &amp; LEN(A197))), 1), MID(A197, ROW(INDIRECT("1:" &amp; LEN(A197))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Interest And Penalties On Taxes</v>
+        <v xml:space="preserve"> Revenue From Hotel And Motel Tax</v>
       </c>
       <c r="C197" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>acfr:RevenueFromInterestAndPenaltiesOnTaxes</v>
-      </c>
-      <c r="D197" s="127" t="s">
-        <v>2111</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="14">
-      <c r="A198" s="127" t="s">
-        <v>1590</v>
+        <v>acfr:RevenueFromHotelAndMotelTax</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E197" s="121" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="14">
+      <c r="A198" s="121" t="s">
+        <v>1579</v>
       </c>
       <c r="B198" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B198" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A198, ROW(INDIRECT("1:" &amp; LEN(A198))), 1), UPPER(MID(A198, ROW(INDIRECT("1:" &amp; LEN(A198))), 1)))), " " &amp; MID(A198, ROW(INDIRECT("1:" &amp; LEN(A198))), 1), MID(A198, ROW(INDIRECT("1:" &amp; LEN(A198))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Community Wide Special Assessments</v>
+        <v xml:space="preserve"> Revenue From Vehicles Tax</v>
       </c>
       <c r="C198" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>acfr:RevenueFromCommunityWideSpecialAssessments</v>
-      </c>
-      <c r="D198" s="127" t="s">
-        <v>2135</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="14">
-      <c r="A199" s="127" t="s">
-        <v>1592</v>
+        <v>acfr:RevenueFromVehiclesTax</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E198" s="121" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="14">
+      <c r="A199" s="121" t="s">
+        <v>1552</v>
       </c>
       <c r="B199" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B199" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A199, ROW(INDIRECT("1:" &amp; LEN(A199))), 1), UPPER(MID(A199, ROW(INDIRECT("1:" &amp; LEN(A199))), 1)))), " " &amp; MID(A199, ROW(INDIRECT("1:" &amp; LEN(A199))), 1), MID(A199, ROW(INDIRECT("1:" &amp; LEN(A199))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Redemptions And Reconveyance</v>
+        <v xml:space="preserve"> Revenue From Parking Occupancy Tax</v>
       </c>
       <c r="C199" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>acfr:RedemptionsAndReconveyance</v>
-      </c>
-      <c r="D199" s="127" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="14">
-      <c r="A200" s="127" t="s">
-        <v>1593</v>
+        <v>acfr:RevenueFromParkingOccupancyTax</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E199" s="121" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="14">
+      <c r="A200" s="121" t="s">
+        <v>1580</v>
       </c>
       <c r="B200" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B200" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A200, ROW(INDIRECT("1:" &amp; LEN(A200))), 1), UPPER(MID(A200, ROW(INDIRECT("1:" &amp; LEN(A200))), 1)))), " " &amp; MID(A200, ROW(INDIRECT("1:" &amp; LEN(A200))), 1), MID(A200, ROW(INDIRECT("1:" &amp; LEN(A200))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From County Expense Of Sale</v>
+        <v xml:space="preserve"> Revenue From Meals Tax</v>
       </c>
       <c r="C200" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>acfr:RevenueFromCountyExpenseOfSale</v>
-      </c>
-      <c r="D200" s="127" t="s">
-        <v>2136</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="14">
-      <c r="A201" s="127" t="s">
-        <v>1594</v>
+        <v>acfr:RevenueFromMealsTax</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E200" s="121" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="14">
+      <c r="A201" s="121" t="s">
+        <v>1581</v>
       </c>
       <c r="B201" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B201" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A201, ROW(INDIRECT("1:" &amp; LEN(A201))), 1), UPPER(MID(A201, ROW(INDIRECT("1:" &amp; LEN(A201))), 1)))), " " &amp; MID(A201, ROW(INDIRECT("1:" &amp; LEN(A201))), 1), MID(A201, ROW(INDIRECT("1:" &amp; LEN(A201))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Commercial Forest Reserve</v>
+        <v xml:space="preserve"> Revenue From Franchise Income Tax</v>
       </c>
       <c r="C201" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>acfr:RevenueFromCommercialForestReserve</v>
-      </c>
-      <c r="D201" s="127" t="s">
-        <v>2137</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="14">
-      <c r="A202" s="127" t="s">
-        <v>1595</v>
+        <v>acfr:RevenueFromFranchiseIncomeTax</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E201" s="121" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="14">
+      <c r="A202" s="121" t="s">
+        <v>1582</v>
       </c>
       <c r="B202" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B202" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A202, ROW(INDIRECT("1:" &amp; LEN(A202))), 1), UPPER(MID(A202, ROW(INDIRECT("1:" &amp; LEN(A202))), 1)))), " " &amp; MID(A202, ROW(INDIRECT("1:" &amp; LEN(A202))), 1), MID(A202, ROW(INDIRECT("1:" &amp; LEN(A202))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Sub Marginal Land Act</v>
+        <v xml:space="preserve"> Revenue From Other Tax For General Purpose</v>
       </c>
       <c r="C202" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>acfr:RevenueFromSubMarginalLandAct</v>
-      </c>
-      <c r="D202" s="127" t="s">
-        <v>2138</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="14">
-      <c r="A203" s="127" t="s">
-        <v>1596</v>
+        <v>acfr:RevenueFromOtherTaxForGeneralPurpose</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E202" s="121" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="14">
+      <c r="A203" s="121" t="s">
+        <v>1583</v>
       </c>
       <c r="B203" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B203" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A203, ROW(INDIRECT("1:" &amp; LEN(A203))), 1), UPPER(MID(A203, ROW(INDIRECT("1:" &amp; LEN(A203))), 1)))), " " &amp; MID(A203, ROW(INDIRECT("1:" &amp; LEN(A203))), 1), MID(A203, ROW(INDIRECT("1:" &amp; LEN(A203))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Tax Reverted Property</v>
+        <v xml:space="preserve"> Revenue From Taxes</v>
       </c>
       <c r="C203" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>acfr:RevenueFromTaxRevertedProperty</v>
-      </c>
-      <c r="D203" s="127" t="s">
-        <v>2139</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="14">
-      <c r="A204" s="127" t="s">
-        <v>1598</v>
+        <v>acfr:RevenueFromTaxes</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E203" s="121" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="14">
+      <c r="A204" s="121" t="s">
+        <v>1882</v>
       </c>
       <c r="B204" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B204" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A204, ROW(INDIRECT("1:" &amp; LEN(A204))), 1), UPPER(MID(A204, ROW(INDIRECT("1:" &amp; LEN(A204))), 1)))), " " &amp; MID(A204, ROW(INDIRECT("1:" &amp; LEN(A204))), 1), MID(A204, ROW(INDIRECT("1:" &amp; LEN(A204))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Payment In Lieu Of Taxes</v>
+        <v xml:space="preserve"> Revenue From Allowance For Taxes Abstract</v>
       </c>
       <c r="C204" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>acfr:PaymentInLieuOfTaxes</v>
-      </c>
-      <c r="D204" s="127" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="14">
-      <c r="A205" s="127" t="s">
-        <v>1599</v>
+        <v>acfr:RevenueFromAllowanceForTaxesAbstract</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E204" s="121" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="14">
+      <c r="A205" s="121" t="s">
+        <v>1585</v>
       </c>
       <c r="B205" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B205" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A205, ROW(INDIRECT("1:" &amp; LEN(A205))), 1), UPPER(MID(A205, ROW(INDIRECT("1:" &amp; LEN(A205))), 1)))), " " &amp; MID(A205, ROW(INDIRECT("1:" &amp; LEN(A205))), 1), MID(A205, ROW(INDIRECT("1:" &amp; LEN(A205))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Property Tax Administration Fee</v>
+        <v xml:space="preserve"> Allowance For Chargebacks</v>
       </c>
       <c r="C205" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>acfr:RevenueFromPropertyTaxAdministrationFee</v>
-      </c>
-      <c r="D205" s="127" t="s">
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="14">
-      <c r="A206" s="127" t="s">
-        <v>1601</v>
+        <v>acfr:AllowanceForChargebacks</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E205" s="121" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="14">
+      <c r="A206" s="121" t="s">
+        <v>1587</v>
       </c>
       <c r="B206" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B206" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A206, ROW(INDIRECT("1:" &amp; LEN(A206))), 1), UPPER(MID(A206, ROW(INDIRECT("1:" &amp; LEN(A206))), 1)))), " " &amp; MID(A206, ROW(INDIRECT("1:" &amp; LEN(A206))), 1), MID(A206, ROW(INDIRECT("1:" &amp; LEN(A206))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Taxes And Tax Related Revenues</v>
+        <v xml:space="preserve"> Allowance For Refunds</v>
       </c>
       <c r="C206" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:TaxesAndTaxRelatedRevenues</v>
-      </c>
-      <c r="D206" s="127" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="14">
-      <c r="A207" s="127" t="s">
-        <v>1884</v>
+        <f t="shared" ref="C206:C263" si="4">"acfr:"&amp;A206</f>
+        <v>acfr:AllowanceForRefunds</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E206" s="121" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="14">
+      <c r="A207" s="121" t="s">
+        <v>1588</v>
       </c>
       <c r="B207" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B207" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A207, ROW(INDIRECT("1:" &amp; LEN(A207))), 1), UPPER(MID(A207, ROW(INDIRECT("1:" &amp; LEN(A207))), 1)))), " " &amp; MID(A207, ROW(INDIRECT("1:" &amp; LEN(A207))), 1), MID(A207, ROW(INDIRECT("1:" &amp; LEN(A207))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Special Assessments Abstract</v>
+        <v xml:space="preserve"> Revenue From Collection Fees</v>
       </c>
       <c r="C207" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:SpecialAssessmentsAbstract</v>
-      </c>
-      <c r="D207" s="127" t="s">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="14">
-      <c r="A208" s="127" t="s">
-        <v>1602</v>
+        <f t="shared" si="4"/>
+        <v>acfr:RevenueFromCollectionFees</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E207" s="121" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="14">
+      <c r="A208" s="121" t="s">
+        <v>1589</v>
       </c>
       <c r="B208" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B208" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A208, ROW(INDIRECT("1:" &amp; LEN(A208))), 1), UPPER(MID(A208, ROW(INDIRECT("1:" &amp; LEN(A208))), 1)))), " " &amp; MID(A208, ROW(INDIRECT("1:" &amp; LEN(A208))), 1), MID(A208, ROW(INDIRECT("1:" &amp; LEN(A208))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenues From Interest And Penalties On Special Assessments</v>
+        <v xml:space="preserve"> Revenue From Interest And Penalties On Taxes</v>
       </c>
       <c r="C208" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:RevenuesFromInterestAndPenaltiesOnSpecialAssessments</v>
-      </c>
-      <c r="D208" s="127" t="s">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="14">
-      <c r="A209" s="127" t="s">
-        <v>1603</v>
+        <f t="shared" si="4"/>
+        <v>acfr:RevenueFromInterestAndPenaltiesOnTaxes</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E208" s="121" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="14">
+      <c r="A209" s="121" t="s">
+        <v>1590</v>
       </c>
       <c r="B209" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B209" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A209, ROW(INDIRECT("1:" &amp; LEN(A209))), 1), UPPER(MID(A209, ROW(INDIRECT("1:" &amp; LEN(A209))), 1)))), " " &amp; MID(A209, ROW(INDIRECT("1:" &amp; LEN(A209))), 1), MID(A209, ROW(INDIRECT("1:" &amp; LEN(A209))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Special Assessments</v>
+        <v xml:space="preserve"> Revenue From Community Wide Special Assessments</v>
       </c>
       <c r="C209" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:RevenueFromSpecialAssessments</v>
-      </c>
-      <c r="D209" s="127" t="s">
-        <v>2143</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="14">
-      <c r="A210" s="127" t="s">
-        <v>1885</v>
+        <f t="shared" si="4"/>
+        <v>acfr:RevenueFromCommunityWideSpecialAssessments</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E209" s="121" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="14">
+      <c r="A210" s="121" t="s">
+        <v>1592</v>
       </c>
       <c r="B210" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B210" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A210, ROW(INDIRECT("1:" &amp; LEN(A210))), 1), UPPER(MID(A210, ROW(INDIRECT("1:" &amp; LEN(A210))), 1)))), " " &amp; MID(A210, ROW(INDIRECT("1:" &amp; LEN(A210))), 1), MID(A210, ROW(INDIRECT("1:" &amp; LEN(A210))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Intergovernmental Revenue Abstract</v>
+        <v xml:space="preserve"> Redemptions And Reconveyance</v>
       </c>
       <c r="C210" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:IntergovernmentalRevenueAbstract</v>
-      </c>
-      <c r="D210" s="127" t="s">
-        <v>2144</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="14">
-      <c r="A211" s="127" t="s">
-        <v>1886</v>
+        <f t="shared" si="4"/>
+        <v>acfr:RedemptionsAndReconveyance</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E210" s="121" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="14">
+      <c r="A211" s="121" t="s">
+        <v>1593</v>
       </c>
       <c r="B211" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B211" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A211, ROW(INDIRECT("1:" &amp; LEN(A211))), 1), UPPER(MID(A211, ROW(INDIRECT("1:" &amp; LEN(A211))), 1)))), " " &amp; MID(A211, ROW(INDIRECT("1:" &amp; LEN(A211))), 1), MID(A211, ROW(INDIRECT("1:" &amp; LEN(A211))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Intergovernmental Revenue From Federal Government Abstract</v>
+        <v xml:space="preserve"> Revenue From County Expense Of Sale</v>
       </c>
       <c r="C211" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:IntergovernmentalRevenueFromFederalGovernmentAbstract</v>
-      </c>
-      <c r="D211" s="127" t="s">
-        <v>2145</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="14">
-      <c r="A212" s="127" t="s">
-        <v>1887</v>
+        <f t="shared" si="4"/>
+        <v>acfr:RevenueFromCountyExpenseOfSale</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E211" s="121" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="14">
+      <c r="A212" s="121" t="s">
+        <v>1594</v>
       </c>
       <c r="B212" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B212" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A212, ROW(INDIRECT("1:" &amp; LEN(A212))), 1), UPPER(MID(A212, ROW(INDIRECT("1:" &amp; LEN(A212))), 1)))), " " &amp; MID(A212, ROW(INDIRECT("1:" &amp; LEN(A212))), 1), MID(A212, ROW(INDIRECT("1:" &amp; LEN(A212))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Federal Grants General Government</v>
+        <v xml:space="preserve"> Revenue From Commercial Forest Reserve</v>
       </c>
       <c r="C212" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:FederalGrantsGeneralGovernment</v>
-      </c>
-      <c r="D212" s="127" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="14">
-      <c r="A213" s="127" t="s">
-        <v>1888</v>
+        <f t="shared" si="4"/>
+        <v>acfr:RevenueFromCommercialForestReserve</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E212" s="121" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="14">
+      <c r="A213" s="121" t="s">
+        <v>1595</v>
       </c>
       <c r="B213" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B213" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A213, ROW(INDIRECT("1:" &amp; LEN(A213))), 1), UPPER(MID(A213, ROW(INDIRECT("1:" &amp; LEN(A213))), 1)))), " " &amp; MID(A213, ROW(INDIRECT("1:" &amp; LEN(A213))), 1), MID(A213, ROW(INDIRECT("1:" &amp; LEN(A213))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Federal Grants Public Safety</v>
+        <v xml:space="preserve"> Revenue From Sub Marginal Land Act</v>
       </c>
       <c r="C213" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:FederalGrantsPublicSafety</v>
-      </c>
-      <c r="D213" s="127" t="s">
-        <v>2147</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="14">
-      <c r="A214" s="127" t="s">
-        <v>1889</v>
+        <f t="shared" si="4"/>
+        <v>acfr:RevenueFromSubMarginalLandAct</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E213" s="121" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="14">
+      <c r="A214" s="121" t="s">
+        <v>1596</v>
       </c>
       <c r="B214" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B214" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A214, ROW(INDIRECT("1:" &amp; LEN(A214))), 1), UPPER(MID(A214, ROW(INDIRECT("1:" &amp; LEN(A214))), 1)))), " " &amp; MID(A214, ROW(INDIRECT("1:" &amp; LEN(A214))), 1), MID(A214, ROW(INDIRECT("1:" &amp; LEN(A214))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Federal Grants Sanitation</v>
+        <v xml:space="preserve"> Revenue From Tax Reverted Property</v>
       </c>
       <c r="C214" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:FederalGrantsSanitation</v>
-      </c>
-      <c r="D214" s="127" t="s">
-        <v>2148</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="14">
-      <c r="A215" s="127" t="s">
-        <v>1890</v>
+        <f t="shared" si="4"/>
+        <v>acfr:RevenueFromTaxRevertedProperty</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E214" s="121" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="14">
+      <c r="A215" s="121" t="s">
+        <v>1598</v>
       </c>
       <c r="B215" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B215" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A215, ROW(INDIRECT("1:" &amp; LEN(A215))), 1), UPPER(MID(A215, ROW(INDIRECT("1:" &amp; LEN(A215))), 1)))), " " &amp; MID(A215, ROW(INDIRECT("1:" &amp; LEN(A215))), 1), MID(A215, ROW(INDIRECT("1:" &amp; LEN(A215))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Federal Grants Health And Hospital</v>
+        <v xml:space="preserve"> Payment In Lieu Of Taxes</v>
       </c>
       <c r="C215" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:FederalGrantsHealthAndHospital</v>
-      </c>
-      <c r="D215" s="127" t="s">
-        <v>2149</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="14">
-      <c r="A216" s="127" t="s">
-        <v>1891</v>
+        <f t="shared" si="4"/>
+        <v>acfr:PaymentInLieuOfTaxes</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E215" s="121" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="14">
+      <c r="A216" s="121" t="s">
+        <v>1599</v>
       </c>
       <c r="B216" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B216" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A216, ROW(INDIRECT("1:" &amp; LEN(A216))), 1), UPPER(MID(A216, ROW(INDIRECT("1:" &amp; LEN(A216))), 1)))), " " &amp; MID(A216, ROW(INDIRECT("1:" &amp; LEN(A216))), 1), MID(A216, ROW(INDIRECT("1:" &amp; LEN(A216))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Federal Grants Welfare</v>
+        <v xml:space="preserve"> Revenue From Property Tax Administration Fee</v>
       </c>
       <c r="C216" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:FederalGrantsWelfare</v>
-      </c>
-      <c r="D216" s="127" t="s">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="14">
-      <c r="A217" s="127" t="s">
-        <v>1892</v>
+        <f t="shared" si="4"/>
+        <v>acfr:RevenueFromPropertyTaxAdministrationFee</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E216" s="121" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="14">
+      <c r="A217" s="121" t="s">
+        <v>1601</v>
       </c>
       <c r="B217" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B217" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A217, ROW(INDIRECT("1:" &amp; LEN(A217))), 1), UPPER(MID(A217, ROW(INDIRECT("1:" &amp; LEN(A217))), 1)))), " " &amp; MID(A217, ROW(INDIRECT("1:" &amp; LEN(A217))), 1), MID(A217, ROW(INDIRECT("1:" &amp; LEN(A217))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Federal Grants Culture And Recreation</v>
+        <v xml:space="preserve"> Taxes And Tax Related Revenues</v>
       </c>
       <c r="C217" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:FederalGrantsCultureAndRecreation</v>
-      </c>
-      <c r="D217" s="127" t="s">
-        <v>2151</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="14">
-      <c r="A218" s="127" t="s">
-        <v>1893</v>
+        <f t="shared" si="4"/>
+        <v>acfr:TaxesAndTaxRelatedRevenues</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E217" s="121" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="14">
+      <c r="A218" s="121" t="s">
+        <v>1883</v>
       </c>
       <c r="B218" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B218" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A218, ROW(INDIRECT("1:" &amp; LEN(A218))), 1), UPPER(MID(A218, ROW(INDIRECT("1:" &amp; LEN(A218))), 1)))), " " &amp; MID(A218, ROW(INDIRECT("1:" &amp; LEN(A218))), 1), MID(A218, ROW(INDIRECT("1:" &amp; LEN(A218))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Federal Grants Community Development Block Grants</v>
+        <v xml:space="preserve"> Special Assessments Abstract</v>
       </c>
       <c r="C218" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:FederalGrantsCommunityDevelopmentBlockGrants</v>
-      </c>
-      <c r="D218" s="127" t="s">
-        <v>2152</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="14">
-      <c r="A219" s="127" t="s">
-        <v>1894</v>
+        <f t="shared" si="4"/>
+        <v>acfr:SpecialAssessmentsAbstract</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E218" s="121" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="14">
+      <c r="A219" s="121" t="s">
+        <v>1602</v>
       </c>
       <c r="B219" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B219" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A219, ROW(INDIRECT("1:" &amp; LEN(A219))), 1), UPPER(MID(A219, ROW(INDIRECT("1:" &amp; LEN(A219))), 1)))), " " &amp; MID(A219, ROW(INDIRECT("1:" &amp; LEN(A219))), 1), MID(A219, ROW(INDIRECT("1:" &amp; LEN(A219))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Federal Capital Grants</v>
+        <v xml:space="preserve"> Revenues From Interest And Penalties On Special Assessments</v>
       </c>
       <c r="C219" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:FederalCapitalGrants</v>
-      </c>
-      <c r="D219" s="127" t="s">
-        <v>2153</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="14">
-      <c r="A220" s="127" t="s">
-        <v>1628</v>
+        <f t="shared" si="4"/>
+        <v>acfr:RevenuesFromInterestAndPenaltiesOnSpecialAssessments</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E219" s="121" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="14">
+      <c r="A220" s="121" t="s">
+        <v>1603</v>
       </c>
       <c r="B220" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B220" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A220, ROW(INDIRECT("1:" &amp; LEN(A220))), 1), UPPER(MID(A220, ROW(INDIRECT("1:" &amp; LEN(A220))), 1)))), " " &amp; MID(A220, ROW(INDIRECT("1:" &amp; LEN(A220))), 1), MID(A220, ROW(INDIRECT("1:" &amp; LEN(A220))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Grants Contributions And Donations From Federal Governmental Entities</v>
+        <v xml:space="preserve"> Revenue From Special Assessments</v>
       </c>
       <c r="C220" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:GrantsContributionsAndDonationsFromFederalGovernmentalEntities</v>
-      </c>
-      <c r="D220" s="127" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="14">
-      <c r="A221" s="127" t="s">
-        <v>1895</v>
+        <f t="shared" si="4"/>
+        <v>acfr:RevenueFromSpecialAssessments</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E220" s="121" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="14">
+      <c r="A221" s="121" t="s">
+        <v>1885</v>
       </c>
       <c r="B221" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B221" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A221, ROW(INDIRECT("1:" &amp; LEN(A221))), 1), UPPER(MID(A221, ROW(INDIRECT("1:" &amp; LEN(A221))), 1)))), " " &amp; MID(A221, ROW(INDIRECT("1:" &amp; LEN(A221))), 1), MID(A221, ROW(INDIRECT("1:" &amp; LEN(A221))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Intergovernmental Revenue From State Government Abstract</v>
+        <v xml:space="preserve"> Intergovernmental Revenue From Federal Government Abstract</v>
       </c>
       <c r="C221" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:IntergovernmentalRevenueFromStateGovernmentAbstract</v>
-      </c>
-      <c r="D221" s="127" t="s">
-        <v>2154</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="14">
-      <c r="A222" s="127" t="s">
-        <v>1896</v>
+        <f t="shared" si="4"/>
+        <v>acfr:IntergovernmentalRevenueFromFederalGovernmentAbstract</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E221" s="121" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="14">
+      <c r="A222" s="121" t="s">
+        <v>1886</v>
       </c>
       <c r="B222" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B222" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A222, ROW(INDIRECT("1:" &amp; LEN(A222))), 1), UPPER(MID(A222, ROW(INDIRECT("1:" &amp; LEN(A222))), 1)))), " " &amp; MID(A222, ROW(INDIRECT("1:" &amp; LEN(A222))), 1), MID(A222, ROW(INDIRECT("1:" &amp; LEN(A222))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> State Grants Public Safety</v>
+        <v xml:space="preserve"> Federal Grants General Government</v>
       </c>
       <c r="C222" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:StateGrantsPublicSafety</v>
-      </c>
-      <c r="D222" s="127" t="s">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="14">
-      <c r="A223" s="127" t="s">
-        <v>1897</v>
+        <f t="shared" si="4"/>
+        <v>acfr:FederalGrantsGeneralGovernment</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E222" s="121" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="14">
+      <c r="A223" s="121" t="s">
+        <v>1887</v>
       </c>
       <c r="B223" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B223" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A223, ROW(INDIRECT("1:" &amp; LEN(A223))), 1), UPPER(MID(A223, ROW(INDIRECT("1:" &amp; LEN(A223))), 1)))), " " &amp; MID(A223, ROW(INDIRECT("1:" &amp; LEN(A223))), 1), MID(A223, ROW(INDIRECT("1:" &amp; LEN(A223))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> State Grants Drunk Driving Case Flow Assistance</v>
+        <v xml:space="preserve"> Federal Grants Public Safety</v>
       </c>
       <c r="C223" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:StateGrantsDrunkDrivingCaseFlowAssistance</v>
-      </c>
-      <c r="D223" s="127" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="14">
-      <c r="A224" s="127" t="s">
-        <v>1898</v>
+        <f t="shared" si="4"/>
+        <v>acfr:FederalGrantsPublicSafety</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E223" s="121" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="14">
+      <c r="A224" s="121" t="s">
+        <v>1888</v>
       </c>
       <c r="B224" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B224" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A224, ROW(INDIRECT("1:" &amp; LEN(A224))), 1), UPPER(MID(A224, ROW(INDIRECT("1:" &amp; LEN(A224))), 1)))), " " &amp; MID(A224, ROW(INDIRECT("1:" &amp; LEN(A224))), 1), MID(A224, ROW(INDIRECT("1:" &amp; LEN(A224))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> State Grants Drug Case Information Management Account</v>
+        <v xml:space="preserve"> Federal Grants Sanitation</v>
       </c>
       <c r="C224" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:StateGrantsDrugCaseInformationManagementAccount</v>
-      </c>
-      <c r="D224" s="127" t="s">
-        <v>2157</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="14">
-      <c r="A225" s="127" t="s">
-        <v>1899</v>
+        <f t="shared" si="4"/>
+        <v>acfr:FederalGrantsSanitation</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E224" s="121" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="14">
+      <c r="A225" s="121" t="s">
+        <v>1889</v>
       </c>
       <c r="B225" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B225" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A225, ROW(INDIRECT("1:" &amp; LEN(A225))), 1), UPPER(MID(A225, ROW(INDIRECT("1:" &amp; LEN(A225))), 1)))), " " &amp; MID(A225, ROW(INDIRECT("1:" &amp; LEN(A225))), 1), MID(A225, ROW(INDIRECT("1:" &amp; LEN(A225))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> State Grants Highways And Streets</v>
+        <v xml:space="preserve"> Federal Grants Health And Hospital</v>
       </c>
       <c r="C225" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:StateGrantsHighwaysAndStreets</v>
-      </c>
-      <c r="D225" s="127" t="s">
-        <v>2158</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="14">
-      <c r="A226" s="127" t="s">
-        <v>1900</v>
+        <f t="shared" si="4"/>
+        <v>acfr:FederalGrantsHealthAndHospital</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E225" s="121" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="14">
+      <c r="A226" s="121" t="s">
+        <v>1890</v>
       </c>
       <c r="B226" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B226" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A226, ROW(INDIRECT("1:" &amp; LEN(A226))), 1), UPPER(MID(A226, ROW(INDIRECT("1:" &amp; LEN(A226))), 1)))), " " &amp; MID(A226, ROW(INDIRECT("1:" &amp; LEN(A226))), 1), MID(A226, ROW(INDIRECT("1:" &amp; LEN(A226))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> State Grants Court Equity</v>
+        <v xml:space="preserve"> Federal Grants Welfare</v>
       </c>
       <c r="C226" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:StateGrantsCourtEquity</v>
-      </c>
-      <c r="D226" s="127" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="14">
-      <c r="A227" s="127" t="s">
-        <v>1901</v>
+        <f t="shared" si="4"/>
+        <v>acfr:FederalGrantsWelfare</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E226" s="121" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="14">
+      <c r="A227" s="121" t="s">
+        <v>1891</v>
       </c>
       <c r="B227" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B227" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A227, ROW(INDIRECT("1:" &amp; LEN(A227))), 1), UPPER(MID(A227, ROW(INDIRECT("1:" &amp; LEN(A227))), 1)))), " " &amp; MID(A227, ROW(INDIRECT("1:" &amp; LEN(A227))), 1), MID(A227, ROW(INDIRECT("1:" &amp; LEN(A227))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> State Grants Sanitation</v>
+        <v xml:space="preserve"> Federal Grants Culture And Recreation</v>
       </c>
       <c r="C227" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:StateGrantsSanitation</v>
-      </c>
-      <c r="D227" s="127" t="s">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="14">
-      <c r="A228" s="127" t="s">
-        <v>1902</v>
+        <f t="shared" si="4"/>
+        <v>acfr:FederalGrantsCultureAndRecreation</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E227" s="121" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="14">
+      <c r="A228" s="121" t="s">
+        <v>1892</v>
       </c>
       <c r="B228" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B228" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A228, ROW(INDIRECT("1:" &amp; LEN(A228))), 1), UPPER(MID(A228, ROW(INDIRECT("1:" &amp; LEN(A228))), 1)))), " " &amp; MID(A228, ROW(INDIRECT("1:" &amp; LEN(A228))), 1), MID(A228, ROW(INDIRECT("1:" &amp; LEN(A228))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> State Grants Health</v>
+        <v xml:space="preserve"> Federal Grants Community Development Block Grants</v>
       </c>
       <c r="C228" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:StateGrantsHealth</v>
-      </c>
-      <c r="D228" s="127" t="s">
-        <v>2161</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="14">
-      <c r="A229" s="127" t="s">
-        <v>1903</v>
+        <f t="shared" si="4"/>
+        <v>acfr:FederalGrantsCommunityDevelopmentBlockGrants</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E228" s="121" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="14">
+      <c r="A229" s="121" t="s">
+        <v>1893</v>
       </c>
       <c r="B229" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B229" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A229, ROW(INDIRECT("1:" &amp; LEN(A229))), 1), UPPER(MID(A229, ROW(INDIRECT("1:" &amp; LEN(A229))), 1)))), " " &amp; MID(A229, ROW(INDIRECT("1:" &amp; LEN(A229))), 1), MID(A229, ROW(INDIRECT("1:" &amp; LEN(A229))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> State Grants Welfare</v>
+        <v xml:space="preserve"> Federal Capital Grants</v>
       </c>
       <c r="C229" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:StateGrantsWelfare</v>
-      </c>
-      <c r="D229" s="127" t="s">
-        <v>2162</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="14">
-      <c r="A230" s="127" t="s">
-        <v>1904</v>
+        <f t="shared" si="4"/>
+        <v>acfr:FederalCapitalGrants</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E229" s="121" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="14">
+      <c r="A230" s="121" t="s">
+        <v>1628</v>
       </c>
       <c r="B230" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B230" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A230, ROW(INDIRECT("1:" &amp; LEN(A230))), 1), UPPER(MID(A230, ROW(INDIRECT("1:" &amp; LEN(A230))), 1)))), " " &amp; MID(A230, ROW(INDIRECT("1:" &amp; LEN(A230))), 1), MID(A230, ROW(INDIRECT("1:" &amp; LEN(A230))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> State Grants Culture And Recreation</v>
+        <v xml:space="preserve"> Grants Contributions And Donations From Federal Governmental Entities</v>
       </c>
       <c r="C230" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:StateGrantsCultureAndRecreation</v>
-      </c>
-      <c r="D230" s="127" t="s">
-        <v>2163</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="14">
-      <c r="A231" s="127" t="s">
-        <v>1905</v>
+        <f t="shared" si="4"/>
+        <v>acfr:GrantsContributionsAndDonationsFromFederalGovernmentalEntities</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E230" s="121" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="14">
+      <c r="A231" s="121" t="s">
+        <v>1894</v>
       </c>
       <c r="B231" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B231" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A231, ROW(INDIRECT("1:" &amp; LEN(A231))), 1), UPPER(MID(A231, ROW(INDIRECT("1:" &amp; LEN(A231))), 1)))), " " &amp; MID(A231, ROW(INDIRECT("1:" &amp; LEN(A231))), 1), MID(A231, ROW(INDIRECT("1:" &amp; LEN(A231))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> State Grants Crime Victims Rights</v>
+        <v xml:space="preserve"> Intergovernmental Revenue From State Government Abstract</v>
       </c>
       <c r="C231" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:StateGrantsCrimeVictimsRights</v>
-      </c>
-      <c r="D231" s="127" t="s">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="14">
-      <c r="A232" s="127" t="s">
-        <v>1906</v>
+        <f t="shared" si="4"/>
+        <v>acfr:IntergovernmentalRevenueFromStateGovernmentAbstract</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E231" s="121" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="14">
+      <c r="A232" s="121" t="s">
+        <v>1895</v>
       </c>
       <c r="B232" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B232" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A232, ROW(INDIRECT("1:" &amp; LEN(A232))), 1), UPPER(MID(A232, ROW(INDIRECT("1:" &amp; LEN(A232))), 1)))), " " &amp; MID(A232, ROW(INDIRECT("1:" &amp; LEN(A232))), 1), MID(A232, ROW(INDIRECT("1:" &amp; LEN(A232))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> State Grants Indigent Defense Grant</v>
+        <v xml:space="preserve"> State Grants Public Safety</v>
       </c>
       <c r="C232" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:StateGrantsIndigentDefenseGrant</v>
-      </c>
-      <c r="D232" s="127" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="14">
-      <c r="A233" s="127" t="s">
-        <v>1907</v>
+        <f t="shared" si="4"/>
+        <v>acfr:StateGrantsPublicSafety</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E232" s="121" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="14">
+      <c r="A233" s="121" t="s">
+        <v>1896</v>
       </c>
       <c r="B233" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B233" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A233, ROW(INDIRECT("1:" &amp; LEN(A233))), 1), UPPER(MID(A233, ROW(INDIRECT("1:" &amp; LEN(A233))), 1)))), " " &amp; MID(A233, ROW(INDIRECT("1:" &amp; LEN(A233))), 1), MID(A233, ROW(INDIRECT("1:" &amp; LEN(A233))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> State Grants State Revenue Sharing</v>
+        <v xml:space="preserve"> State Grants Drunk Driving Case Flow Assistance</v>
       </c>
       <c r="C233" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:StateGrantsStateRevenueSharing</v>
-      </c>
-      <c r="D233" s="127" t="s">
-        <v>2166</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="14">
-      <c r="A234" s="127" t="s">
-        <v>1908</v>
+        <f t="shared" si="4"/>
+        <v>acfr:StateGrantsDrunkDrivingCaseFlowAssistance</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E233" s="121" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="14">
+      <c r="A234" s="121" t="s">
+        <v>1897</v>
       </c>
       <c r="B234" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B234" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A234, ROW(INDIRECT("1:" &amp; LEN(A234))), 1), UPPER(MID(A234, ROW(INDIRECT("1:" &amp; LEN(A234))), 1)))), " " &amp; MID(A234, ROW(INDIRECT("1:" &amp; LEN(A234))), 1), MID(A234, ROW(INDIRECT("1:" &amp; LEN(A234))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> State Grants Local Community Stabilization Share</v>
+        <v xml:space="preserve"> State Grants Drug Case Information Management Account</v>
       </c>
       <c r="C234" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:StateGrantsLocalCommunityStabilizationShare</v>
-      </c>
-      <c r="D234" s="127" t="s">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="14">
-      <c r="A235" s="127" t="s">
-        <v>1909</v>
+        <f t="shared" si="4"/>
+        <v>acfr:StateGrantsDrugCaseInformationManagementAccount</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E234" s="121" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="14">
+      <c r="A235" s="121" t="s">
+        <v>1898</v>
       </c>
       <c r="B235" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B235" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A235, ROW(INDIRECT("1:" &amp; LEN(A235))), 1), UPPER(MID(A235, ROW(INDIRECT("1:" &amp; LEN(A235))), 1)))), " " &amp; MID(A235, ROW(INDIRECT("1:" &amp; LEN(A235))), 1), MID(A235, ROW(INDIRECT("1:" &amp; LEN(A235))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> State Grants Survey And Remonumentation</v>
+        <v xml:space="preserve"> State Grants Highways And Streets</v>
       </c>
       <c r="C235" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:StateGrantsSurveyAndRemonumentation</v>
-      </c>
-      <c r="D235" s="127" t="s">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="14">
-      <c r="A236" s="127" t="s">
-        <v>1910</v>
+        <f t="shared" si="4"/>
+        <v>acfr:StateGrantsHighwaysAndStreets</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E235" s="121" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="14">
+      <c r="A236" s="121" t="s">
+        <v>1899</v>
       </c>
       <c r="B236" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B236" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A236, ROW(INDIRECT("1:" &amp; LEN(A236))), 1), UPPER(MID(A236, ROW(INDIRECT("1:" &amp; LEN(A236))), 1)))), " " &amp; MID(A236, ROW(INDIRECT("1:" &amp; LEN(A236))), 1), MID(A236, ROW(INDIRECT("1:" &amp; LEN(A236))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> State Grants Special Election Reimbursement</v>
+        <v xml:space="preserve"> State Grants Court Equity</v>
       </c>
       <c r="C236" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:StateGrantsSpecialElectionReimbursement</v>
-      </c>
-      <c r="D236" s="127" t="s">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="14">
-      <c r="A237" s="127" t="s">
-        <v>1911</v>
+        <f t="shared" si="4"/>
+        <v>acfr:StateGrantsCourtEquity</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E236" s="121" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="14">
+      <c r="A237" s="121" t="s">
+        <v>1900</v>
       </c>
       <c r="B237" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B237" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A237, ROW(INDIRECT("1:" &amp; LEN(A237))), 1), UPPER(MID(A237, ROW(INDIRECT("1:" &amp; LEN(A237))), 1)))), " " &amp; MID(A237, ROW(INDIRECT("1:" &amp; LEN(A237))), 1), MID(A237, ROW(INDIRECT("1:" &amp; LEN(A237))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> State Capital Grants</v>
+        <v xml:space="preserve"> State Grants Sanitation</v>
       </c>
       <c r="C237" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:StateCapitalGrants</v>
-      </c>
-      <c r="D237" s="127" t="s">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="14">
-      <c r="A238" s="127" t="s">
-        <v>1630</v>
+        <f t="shared" si="4"/>
+        <v>acfr:StateGrantsSanitation</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E237" s="121" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="14">
+      <c r="A238" s="121" t="s">
+        <v>1901</v>
       </c>
       <c r="B238" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B238" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A238, ROW(INDIRECT("1:" &amp; LEN(A238))), 1), UPPER(MID(A238, ROW(INDIRECT("1:" &amp; LEN(A238))), 1)))), " " &amp; MID(A238, ROW(INDIRECT("1:" &amp; LEN(A238))), 1), MID(A238, ROW(INDIRECT("1:" &amp; LEN(A238))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Grants Contributions And Donations From State Governmental Entities</v>
+        <v xml:space="preserve"> State Grants Health</v>
       </c>
       <c r="C238" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:GrantsContributionsAndDonationsFromStateGovernmentalEntities</v>
-      </c>
-      <c r="D238" s="127" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="14">
-      <c r="A239" s="127" t="s">
-        <v>1912</v>
+        <f t="shared" si="4"/>
+        <v>acfr:StateGrantsHealth</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E238" s="121" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="14">
+      <c r="A239" s="121" t="s">
+        <v>1902</v>
       </c>
       <c r="B239" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B239" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A239, ROW(INDIRECT("1:" &amp; LEN(A239))), 1), UPPER(MID(A239, ROW(INDIRECT("1:" &amp; LEN(A239))), 1)))), " " &amp; MID(A239, ROW(INDIRECT("1:" &amp; LEN(A239))), 1), MID(A239, ROW(INDIRECT("1:" &amp; LEN(A239))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Contributions From Local Units Abstract</v>
+        <v xml:space="preserve"> State Grants Welfare</v>
       </c>
       <c r="C239" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:ContributionsFromLocalUnitsAbstract</v>
-      </c>
-      <c r="D239" s="127" t="s">
-        <v>2171</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="14">
-      <c r="A240" s="127" t="s">
-        <v>1632</v>
+        <f t="shared" si="4"/>
+        <v>acfr:StateGrantsWelfare</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E239" s="121" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="14">
+      <c r="A240" s="121" t="s">
+        <v>1903</v>
       </c>
       <c r="B240" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B240" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A240, ROW(INDIRECT("1:" &amp; LEN(A240))), 1), UPPER(MID(A240, ROW(INDIRECT("1:" &amp; LEN(A240))), 1)))), " " &amp; MID(A240, ROW(INDIRECT("1:" &amp; LEN(A240))), 1), MID(A240, ROW(INDIRECT("1:" &amp; LEN(A240))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Grants Contributions And Donations From Local Units</v>
+        <v xml:space="preserve"> State Grants Culture And Recreation</v>
       </c>
       <c r="C240" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:GrantsContributionsAndDonationsFromLocalUnits</v>
-      </c>
-      <c r="D240" s="127" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="14">
-      <c r="A241" s="127" t="s">
-        <v>1913</v>
+        <f t="shared" si="4"/>
+        <v>acfr:StateGrantsCultureAndRecreation</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E240" s="121" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="14">
+      <c r="A241" s="121" t="s">
+        <v>1904</v>
       </c>
       <c r="B241" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B241" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A241, ROW(INDIRECT("1:" &amp; LEN(A241))), 1), UPPER(MID(A241, ROW(INDIRECT("1:" &amp; LEN(A241))), 1)))), " " &amp; MID(A241, ROW(INDIRECT("1:" &amp; LEN(A241))), 1), MID(A241, ROW(INDIRECT("1:" &amp; LEN(A241))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Grants Contributions And Donations Abstract</v>
+        <v xml:space="preserve"> State Grants Crime Victims Rights</v>
       </c>
       <c r="C241" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:GrantsContributionsAndDonationsAbstract</v>
-      </c>
-      <c r="D241" s="127" t="s">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="14">
-      <c r="A242" s="127" t="s">
-        <v>1634</v>
+        <f t="shared" si="4"/>
+        <v>acfr:StateGrantsCrimeVictimsRights</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E241" s="121" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="14">
+      <c r="A242" s="121" t="s">
+        <v>1905</v>
       </c>
       <c r="B242" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B242" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A242, ROW(INDIRECT("1:" &amp; LEN(A242))), 1), UPPER(MID(A242, ROW(INDIRECT("1:" &amp; LEN(A242))), 1)))), " " &amp; MID(A242, ROW(INDIRECT("1:" &amp; LEN(A242))), 1), MID(A242, ROW(INDIRECT("1:" &amp; LEN(A242))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Grants Contributions And Donations From Others</v>
+        <v xml:space="preserve"> State Grants Indigent Defense Grant</v>
       </c>
       <c r="C242" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:GrantsContributionsAndDonationsFromOthers</v>
-      </c>
-      <c r="D242" s="127" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="14">
-      <c r="A243" s="127" t="s">
-        <v>1640</v>
+        <f t="shared" si="4"/>
+        <v>acfr:StateGrantsIndigentDefenseGrant</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E242" s="121" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="14">
+      <c r="A243" s="121" t="s">
+        <v>1906</v>
       </c>
       <c r="B243" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B243" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A243, ROW(INDIRECT("1:" &amp; LEN(A243))), 1), UPPER(MID(A243, ROW(INDIRECT("1:" &amp; LEN(A243))), 1)))), " " &amp; MID(A243, ROW(INDIRECT("1:" &amp; LEN(A243))), 1), MID(A243, ROW(INDIRECT("1:" &amp; LEN(A243))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Private Contributions And Donations</v>
+        <v xml:space="preserve"> State Grants State Revenue Sharing</v>
       </c>
       <c r="C243" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:PrivateContributionsAndDonations</v>
-      </c>
-      <c r="D243" s="127" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="14">
-      <c r="A244" s="127" t="s">
-        <v>1914</v>
+        <f t="shared" si="4"/>
+        <v>acfr:StateGrantsStateRevenueSharing</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E243" s="121" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="14">
+      <c r="A244" s="121" t="s">
+        <v>1907</v>
       </c>
       <c r="B244" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B244" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A244, ROW(INDIRECT("1:" &amp; LEN(A244))), 1), UPPER(MID(A244, ROW(INDIRECT("1:" &amp; LEN(A244))), 1)))), " " &amp; MID(A244, ROW(INDIRECT("1:" &amp; LEN(A244))), 1), MID(A244, ROW(INDIRECT("1:" &amp; LEN(A244))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Interest And Rents Revenues Abstract</v>
+        <v xml:space="preserve"> State Grants Local Community Stabilization Share</v>
       </c>
       <c r="C244" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:InterestAndRentsRevenuesAbstract</v>
-      </c>
-      <c r="D244" s="127" t="s">
-        <v>2173</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="14">
-      <c r="A245" s="127" t="s">
-        <v>1915</v>
+        <f t="shared" si="4"/>
+        <v>acfr:StateGrantsLocalCommunityStabilizationShare</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E244" s="121" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="14">
+      <c r="A245" s="121" t="s">
+        <v>1908</v>
       </c>
       <c r="B245" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B245" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A245, ROW(INDIRECT("1:" &amp; LEN(A245))), 1), UPPER(MID(A245, ROW(INDIRECT("1:" &amp; LEN(A245))), 1)))), " " &amp; MID(A245, ROW(INDIRECT("1:" &amp; LEN(A245))), 1), MID(A245, ROW(INDIRECT("1:" &amp; LEN(A245))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Interest And Dividends Abstract</v>
+        <v xml:space="preserve"> State Grants Survey And Remonumentation</v>
       </c>
       <c r="C245" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:RevenueFromInterestAndDividendsAbstract</v>
-      </c>
-      <c r="D245" s="127" t="s">
-        <v>2174</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="14">
-      <c r="A246" s="127" t="s">
-        <v>1604</v>
+        <f t="shared" si="4"/>
+        <v>acfr:StateGrantsSurveyAndRemonumentation</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E245" s="121" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="14">
+      <c r="A246" s="121" t="s">
+        <v>1909</v>
       </c>
       <c r="B246" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B246" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A246, ROW(INDIRECT("1:" &amp; LEN(A246))), 1), UPPER(MID(A246, ROW(INDIRECT("1:" &amp; LEN(A246))), 1)))), " " &amp; MID(A246, ROW(INDIRECT("1:" &amp; LEN(A246))), 1), MID(A246, ROW(INDIRECT("1:" &amp; LEN(A246))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Dividends</v>
+        <v xml:space="preserve"> State Grants Special Election Reimbursement</v>
       </c>
       <c r="C246" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:RevenueFromDividends</v>
-      </c>
-      <c r="D246" s="127" t="s">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="14">
-      <c r="A247" s="127" t="s">
-        <v>1605</v>
+        <f t="shared" si="4"/>
+        <v>acfr:StateGrantsSpecialElectionReimbursement</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E246" s="121" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="14">
+      <c r="A247" s="121" t="s">
+        <v>1910</v>
       </c>
       <c r="B247" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B247" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A247, ROW(INDIRECT("1:" &amp; LEN(A247))), 1), UPPER(MID(A247, ROW(INDIRECT("1:" &amp; LEN(A247))), 1)))), " " &amp; MID(A247, ROW(INDIRECT("1:" &amp; LEN(A247))), 1), MID(A247, ROW(INDIRECT("1:" &amp; LEN(A247))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Interest</v>
+        <v xml:space="preserve"> State Capital Grants</v>
       </c>
       <c r="C247" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:RevenueFromInterest</v>
-      </c>
-      <c r="D247" s="127" t="s">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="14">
-      <c r="A248" s="127" t="s">
-        <v>1606</v>
+        <f t="shared" si="4"/>
+        <v>acfr:StateCapitalGrants</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E247" s="121" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="14">
+      <c r="A248" s="121" t="s">
+        <v>1630</v>
       </c>
       <c r="B248" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B248" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A248, ROW(INDIRECT("1:" &amp; LEN(A248))), 1), UPPER(MID(A248, ROW(INDIRECT("1:" &amp; LEN(A248))), 1)))), " " &amp; MID(A248, ROW(INDIRECT("1:" &amp; LEN(A248))), 1), MID(A248, ROW(INDIRECT("1:" &amp; LEN(A248))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Interest And Dividends</v>
+        <v xml:space="preserve"> Grants Contributions And Donations From State Governmental Entities</v>
       </c>
       <c r="C248" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:RevenueFromInterestAndDividends</v>
-      </c>
-      <c r="D248" s="127" t="s">
-        <v>2177</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="14">
-      <c r="A249" s="127" t="s">
-        <v>1916</v>
+        <f t="shared" si="4"/>
+        <v>acfr:GrantsContributionsAndDonationsFromStateGovernmentalEntities</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E248" s="121" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="14">
+      <c r="A249" s="121" t="s">
+        <v>1632</v>
       </c>
       <c r="B249" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B249" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A249, ROW(INDIRECT("1:" &amp; LEN(A249))), 1), UPPER(MID(A249, ROW(INDIRECT("1:" &amp; LEN(A249))), 1)))), " " &amp; MID(A249, ROW(INDIRECT("1:" &amp; LEN(A249))), 1), MID(A249, ROW(INDIRECT("1:" &amp; LEN(A249))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenues From Rents And Royalties Abstract</v>
+        <v xml:space="preserve"> Grants Contributions And Donations From Local Units</v>
       </c>
       <c r="C249" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:RevenuesFromRentsAndRoyaltiesAbstract</v>
-      </c>
-      <c r="D249" s="127" t="s">
-        <v>2178</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="14">
-      <c r="A250" s="127" t="s">
-        <v>1616</v>
+        <f t="shared" si="4"/>
+        <v>acfr:GrantsContributionsAndDonationsFromLocalUnits</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E249" s="121" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="14">
+      <c r="A250" s="121" t="s">
+        <v>1634</v>
       </c>
       <c r="B250" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B250" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A250, ROW(INDIRECT("1:" &amp; LEN(A250))), 1), UPPER(MID(A250, ROW(INDIRECT("1:" &amp; LEN(A250))), 1)))), " " &amp; MID(A250, ROW(INDIRECT("1:" &amp; LEN(A250))), 1), MID(A250, ROW(INDIRECT("1:" &amp; LEN(A250))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Rent</v>
+        <v xml:space="preserve"> Grants Contributions And Donations From Others</v>
       </c>
       <c r="C250" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:RevenueFromRent</v>
-      </c>
-      <c r="D250" s="127" t="s">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="14">
-      <c r="A251" s="127" t="s">
-        <v>1617</v>
+        <f t="shared" si="4"/>
+        <v>acfr:GrantsContributionsAndDonationsFromOthers</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E250" s="121" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="14">
+      <c r="A251" s="121" t="s">
+        <v>1640</v>
       </c>
       <c r="B251" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B251" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A251, ROW(INDIRECT("1:" &amp; LEN(A251))), 1), UPPER(MID(A251, ROW(INDIRECT("1:" &amp; LEN(A251))), 1)))), " " &amp; MID(A251, ROW(INDIRECT("1:" &amp; LEN(A251))), 1), MID(A251, ROW(INDIRECT("1:" &amp; LEN(A251))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Royalties</v>
+        <v xml:space="preserve"> Private Contributions And Donations</v>
       </c>
       <c r="C251" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:RevenueFromRoyalties</v>
-      </c>
-      <c r="D251" s="127" t="s">
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="14">
-      <c r="A252" s="127" t="s">
-        <v>1618</v>
+        <f t="shared" si="4"/>
+        <v>acfr:PrivateContributionsAndDonations</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E251" s="121" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="14">
+      <c r="A252" s="121" t="s">
+        <v>1604</v>
       </c>
       <c r="B252" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B252" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A252, ROW(INDIRECT("1:" &amp; LEN(A252))), 1), UPPER(MID(A252, ROW(INDIRECT("1:" &amp; LEN(A252))), 1)))), " " &amp; MID(A252, ROW(INDIRECT("1:" &amp; LEN(A252))), 1), MID(A252, ROW(INDIRECT("1:" &amp; LEN(A252))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Rents And Royalties</v>
+        <v xml:space="preserve"> Revenue From Dividends</v>
       </c>
       <c r="C252" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:RevenueFromRentsAndRoyalties</v>
-      </c>
-      <c r="D252" s="127" t="s">
-        <v>2181</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="14">
-      <c r="A253" s="127" t="s">
-        <v>1917</v>
+        <f t="shared" si="4"/>
+        <v>acfr:RevenueFromDividends</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E252" s="121" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="14">
+      <c r="A253" s="121" t="s">
+        <v>1605</v>
       </c>
       <c r="B253" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B253" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A253, ROW(INDIRECT("1:" &amp; LEN(A253))), 1), UPPER(MID(A253, ROW(INDIRECT("1:" &amp; LEN(A253))), 1)))), " " &amp; MID(A253, ROW(INDIRECT("1:" &amp; LEN(A253))), 1), MID(A253, ROW(INDIRECT("1:" &amp; LEN(A253))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Investment Income Abstract</v>
+        <v xml:space="preserve"> Revenue From Interest</v>
       </c>
       <c r="C253" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:InvestmentIncomeAbstract</v>
-      </c>
-      <c r="D253" s="127" t="s">
-        <v>2182</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" ht="14">
-      <c r="A254" s="127" t="s">
-        <v>1608</v>
+        <f t="shared" si="4"/>
+        <v>acfr:RevenueFromInterest</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E253" s="121" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="14">
+      <c r="A254" s="121" t="s">
+        <v>1606</v>
       </c>
       <c r="B254" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B254" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A254, ROW(INDIRECT("1:" &amp; LEN(A254))), 1), UPPER(MID(A254, ROW(INDIRECT("1:" &amp; LEN(A254))), 1)))), " " &amp; MID(A254, ROW(INDIRECT("1:" &amp; LEN(A254))), 1), MID(A254, ROW(INDIRECT("1:" &amp; LEN(A254))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Investment Gains Losses</v>
+        <v xml:space="preserve"> Revenue From Interest And Dividends</v>
       </c>
       <c r="C254" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:InvestmentGainsLosses</v>
-      </c>
-      <c r="D254" s="127" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" ht="14">
-      <c r="A255" s="127" t="s">
-        <v>1606</v>
+        <f t="shared" si="4"/>
+        <v>acfr:RevenueFromInterestAndDividends</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E254" s="121" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="14">
+      <c r="A255" s="121" t="s">
+        <v>1915</v>
       </c>
       <c r="B255" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B255" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A255, ROW(INDIRECT("1:" &amp; LEN(A255))), 1), UPPER(MID(A255, ROW(INDIRECT("1:" &amp; LEN(A255))), 1)))), " " &amp; MID(A255, ROW(INDIRECT("1:" &amp; LEN(A255))), 1), MID(A255, ROW(INDIRECT("1:" &amp; LEN(A255))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Interest And Dividends</v>
+        <v xml:space="preserve"> Revenues From Rents And Royalties Abstract</v>
       </c>
       <c r="C255" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:RevenueFromInterestAndDividends</v>
-      </c>
-      <c r="D255" s="127" t="s">
+        <f t="shared" si="4"/>
+        <v>acfr:RevenuesFromRentsAndRoyaltiesAbstract</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E255" s="121" t="s">
         <v>2177</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="14">
-      <c r="A256" s="127" t="s">
-        <v>1610</v>
+    <row r="256" spans="1:5" ht="14">
+      <c r="A256" s="121" t="s">
+        <v>1616</v>
       </c>
       <c r="B256" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B256" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A256, ROW(INDIRECT("1:" &amp; LEN(A256))), 1), UPPER(MID(A256, ROW(INDIRECT("1:" &amp; LEN(A256))), 1)))), " " &amp; MID(A256, ROW(INDIRECT("1:" &amp; LEN(A256))), 1), MID(A256, ROW(INDIRECT("1:" &amp; LEN(A256))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Investment Income</v>
+        <v xml:space="preserve"> Revenue From Rent</v>
       </c>
       <c r="C256" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:InvestmentIncome</v>
-      </c>
-      <c r="D256" s="127" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" ht="14">
-      <c r="A257" s="127" t="s">
-        <v>1611</v>
+        <f t="shared" si="4"/>
+        <v>acfr:RevenueFromRent</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E256" s="121" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="14">
+      <c r="A257" s="121" t="s">
+        <v>1617</v>
       </c>
       <c r="B257" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B257" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A257, ROW(INDIRECT("1:" &amp; LEN(A257))), 1), UPPER(MID(A257, ROW(INDIRECT("1:" &amp; LEN(A257))), 1)))), " " &amp; MID(A257, ROW(INDIRECT("1:" &amp; LEN(A257))), 1), MID(A257, ROW(INDIRECT("1:" &amp; LEN(A257))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Interest And Rent</v>
+        <v xml:space="preserve"> Revenue From Royalties</v>
       </c>
       <c r="C257" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:RevenueFromInterestAndRent</v>
-      </c>
-      <c r="D257" s="127" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="14">
-      <c r="A258" s="127" t="s">
-        <v>1613</v>
+        <f t="shared" si="4"/>
+        <v>acfr:RevenueFromRoyalties</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E257" s="121" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="14">
+      <c r="A258" s="121" t="s">
+        <v>1618</v>
       </c>
       <c r="B258" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B258" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A258, ROW(INDIRECT("1:" &amp; LEN(A258))), 1), UPPER(MID(A258, ROW(INDIRECT("1:" &amp; LEN(A258))), 1)))), " " &amp; MID(A258, ROW(INDIRECT("1:" &amp; LEN(A258))), 1), MID(A258, ROW(INDIRECT("1:" &amp; LEN(A258))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Lease Investment Income</v>
+        <v xml:space="preserve"> Revenue From Rents And Royalties</v>
       </c>
       <c r="C258" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>acfr:LeaseInvestmentIncome</v>
-      </c>
-      <c r="D258" s="127" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" ht="14">
-      <c r="A259" s="127" t="s">
-        <v>1615</v>
+        <f t="shared" si="4"/>
+        <v>acfr:RevenueFromRentsAndRoyalties</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E258" s="121" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="14">
+      <c r="A259" s="121" t="s">
+        <v>1608</v>
       </c>
       <c r="B259" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B259" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A259, ROW(INDIRECT("1:" &amp; LEN(A259))), 1), UPPER(MID(A259, ROW(INDIRECT("1:" &amp; LEN(A259))), 1)))), " " &amp; MID(A259, ROW(INDIRECT("1:" &amp; LEN(A259))), 1), MID(A259, ROW(INDIRECT("1:" &amp; LEN(A259))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Investment Income And Rentals</v>
+        <v xml:space="preserve"> Investment Gains Losses</v>
       </c>
       <c r="C259" s="2" t="str">
-        <f t="shared" ref="C259:C305" si="4">"acfr:"&amp;A259</f>
-        <v>acfr:InvestmentIncomeAndRentals</v>
-      </c>
-      <c r="D259" s="127" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="14">
-      <c r="A260" s="127" t="s">
-        <v>1918</v>
+        <f t="shared" si="4"/>
+        <v>acfr:InvestmentGainsLosses</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E259" s="121" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="14">
+      <c r="A260" s="121" t="s">
+        <v>1606</v>
       </c>
       <c r="B260" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B260" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A260, ROW(INDIRECT("1:" &amp; LEN(A260))), 1), UPPER(MID(A260, ROW(INDIRECT("1:" &amp; LEN(A260))), 1)))), " " &amp; MID(A260, ROW(INDIRECT("1:" &amp; LEN(A260))), 1), MID(A260, ROW(INDIRECT("1:" &amp; LEN(A260))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenue From Subsidies</v>
+        <v xml:space="preserve"> Revenue From Interest And Dividends</v>
       </c>
       <c r="C260" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:RevenueFromSubsidies</v>
-      </c>
-      <c r="D260" s="127" t="s">
-        <v>2184</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="14">
-      <c r="A261" s="127" t="s">
-        <v>1636</v>
+        <v>acfr:RevenueFromInterestAndDividends</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E260" s="121" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="14">
+      <c r="A261" s="121" t="s">
+        <v>1610</v>
       </c>
       <c r="B261" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B261" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A261, ROW(INDIRECT("1:" &amp; LEN(A261))), 1), UPPER(MID(A261, ROW(INDIRECT("1:" &amp; LEN(A261))), 1)))), " " &amp; MID(A261, ROW(INDIRECT("1:" &amp; LEN(A261))), 1), MID(A261, ROW(INDIRECT("1:" &amp; LEN(A261))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Public And Private Contributions</v>
+        <v xml:space="preserve"> Investment Income</v>
       </c>
       <c r="C261" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:PublicAndPrivateContributions</v>
-      </c>
-      <c r="D261" s="127" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" ht="14">
-      <c r="A262" s="127" t="s">
-        <v>1919</v>
+        <v>acfr:InvestmentIncome</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E261" s="121" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="14">
+      <c r="A262" s="121" t="s">
+        <v>1611</v>
       </c>
       <c r="B262" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B262" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A262, ROW(INDIRECT("1:" &amp; LEN(A262))), 1), UPPER(MID(A262, ROW(INDIRECT("1:" &amp; LEN(A262))), 1)))), " " &amp; MID(A262, ROW(INDIRECT("1:" &amp; LEN(A262))), 1), MID(A262, ROW(INDIRECT("1:" &amp; LEN(A262))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Revenues From Connection Fees Nonoperating</v>
+        <v xml:space="preserve"> Revenue From Interest And Rent</v>
       </c>
       <c r="C262" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:RevenuesFromConnectionFeesNonoperating</v>
-      </c>
-      <c r="D262" s="127" t="s">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" ht="14">
-      <c r="A263" s="127" t="s">
-        <v>1920</v>
+        <v>acfr:RevenueFromInterestAndRent</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E262" s="121" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="14">
+      <c r="A263" s="121" t="s">
+        <v>1613</v>
       </c>
       <c r="B263" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B263" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A263, ROW(INDIRECT("1:" &amp; LEN(A263))), 1), UPPER(MID(A263, ROW(INDIRECT("1:" &amp; LEN(A263))), 1)))), " " &amp; MID(A263, ROW(INDIRECT("1:" &amp; LEN(A263))), 1), MID(A263, ROW(INDIRECT("1:" &amp; LEN(A263))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> State Retirement Plan Contributions</v>
+        <v xml:space="preserve"> Lease Investment Income</v>
       </c>
       <c r="C263" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>acfr:StateRetirementPlanContributions</v>
-      </c>
-      <c r="D263" s="127" t="s">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" ht="14">
-      <c r="A264" s="127" t="s">
-        <v>1921</v>
+        <v>acfr:LeaseInvestmentIncome</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E263" s="121" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="14">
+      <c r="A264" s="121" t="s">
+        <v>1615</v>
       </c>
       <c r="B264" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B264" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A264, ROW(INDIRECT("1:" &amp; LEN(A264))), 1), UPPER(MID(A264, ROW(INDIRECT("1:" &amp; LEN(A264))), 1)))), " " &amp; MID(A264, ROW(INDIRECT("1:" &amp; LEN(A264))), 1), MID(A264, ROW(INDIRECT("1:" &amp; LEN(A264))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> State O P E B Contribution</v>
+        <v xml:space="preserve"> Investment Income And Rentals</v>
       </c>
       <c r="C264" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:StateOPEBContribution</v>
-      </c>
-      <c r="D264" s="127" t="s">
-        <v>2187</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" ht="14">
-      <c r="A265" s="127" t="s">
-        <v>1644</v>
+        <f t="shared" ref="C264:C305" si="5">"acfr:"&amp;A264</f>
+        <v>acfr:InvestmentIncomeAndRentals</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E264" s="121" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="14">
+      <c r="A265" s="121" t="s">
+        <v>1917</v>
       </c>
       <c r="B265" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B265" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A265, ROW(INDIRECT("1:" &amp; LEN(A265))), 1), UPPER(MID(A265, ROW(INDIRECT("1:" &amp; LEN(A265))), 1)))), " " &amp; MID(A265, ROW(INDIRECT("1:" &amp; LEN(A265))), 1), MID(A265, ROW(INDIRECT("1:" &amp; LEN(A265))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Gain Loss On Sale Of Capital Assets</v>
+        <v xml:space="preserve"> Revenue From Subsidies</v>
       </c>
       <c r="C265" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:GainLossOnSaleOfCapitalAssets</v>
-      </c>
-      <c r="D265" s="127" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" ht="14">
-      <c r="A266" s="127" t="s">
-        <v>1642</v>
+        <f t="shared" si="5"/>
+        <v>acfr:RevenueFromSubsidies</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E265" s="121" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="14">
+      <c r="A266" s="121" t="s">
+        <v>1636</v>
       </c>
       <c r="B266" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B266" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A266, ROW(INDIRECT("1:" &amp; LEN(A266))), 1), UPPER(MID(A266, ROW(INDIRECT("1:" &amp; LEN(A266))), 1)))), " " &amp; MID(A266, ROW(INDIRECT("1:" &amp; LEN(A266))), 1), MID(A266, ROW(INDIRECT("1:" &amp; LEN(A266))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Cash Over Or Short</v>
+        <v xml:space="preserve"> Public And Private Contributions</v>
       </c>
       <c r="C266" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:CashOverOrShort</v>
-      </c>
-      <c r="D266" s="127" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" ht="14">
-      <c r="A267" s="127" t="s">
-        <v>1922</v>
+        <f t="shared" si="5"/>
+        <v>acfr:PublicAndPrivateContributions</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E266" s="121" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="14">
+      <c r="A267" s="121" t="s">
+        <v>1918</v>
       </c>
       <c r="B267" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B267" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A267, ROW(INDIRECT("1:" &amp; LEN(A267))), 1), UPPER(MID(A267, ROW(INDIRECT("1:" &amp; LEN(A267))), 1)))), " " &amp; MID(A267, ROW(INDIRECT("1:" &amp; LEN(A267))), 1), MID(A267, ROW(INDIRECT("1:" &amp; LEN(A267))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Gifts</v>
+        <v xml:space="preserve"> Revenues From Connection Fees Nonoperating</v>
       </c>
       <c r="C267" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:Gifts</v>
-      </c>
-      <c r="D267" s="127" t="s">
-        <v>1922</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" ht="14">
-      <c r="A268" s="127" t="s">
-        <v>1923</v>
+        <f t="shared" si="5"/>
+        <v>acfr:RevenuesFromConnectionFeesNonoperating</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E267" s="121" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="14">
+      <c r="A268" s="121" t="s">
+        <v>1919</v>
       </c>
       <c r="B268" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B268" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A268, ROW(INDIRECT("1:" &amp; LEN(A268))), 1), UPPER(MID(A268, ROW(INDIRECT("1:" &amp; LEN(A268))), 1)))), " " &amp; MID(A268, ROW(INDIRECT("1:" &amp; LEN(A268))), 1), MID(A268, ROW(INDIRECT("1:" &amp; LEN(A268))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> State Appropriations</v>
+        <v xml:space="preserve"> State Retirement Plan Contributions</v>
       </c>
       <c r="C268" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:StateAppropriations</v>
-      </c>
-      <c r="D268" s="127" t="s">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" ht="14">
-      <c r="A269" s="127" t="s">
-        <v>1924</v>
+        <f t="shared" si="5"/>
+        <v>acfr:StateRetirementPlanContributions</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E268" s="121" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="14">
+      <c r="A269" s="121" t="s">
+        <v>1920</v>
       </c>
       <c r="B269" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B269" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A269, ROW(INDIRECT("1:" &amp; LEN(A269))), 1), UPPER(MID(A269, ROW(INDIRECT("1:" &amp; LEN(A269))), 1)))), " " &amp; MID(A269, ROW(INDIRECT("1:" &amp; LEN(A269))), 1), MID(A269, ROW(INDIRECT("1:" &amp; LEN(A269))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Miscellaneous Other Revenue</v>
+        <v xml:space="preserve"> State O P E B Contribution</v>
       </c>
       <c r="C269" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:MiscellaneousOtherRevenue</v>
-      </c>
-      <c r="D269" s="127" t="s">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" ht="14">
-      <c r="A270" s="127" t="s">
-        <v>1925</v>
+        <f t="shared" si="5"/>
+        <v>acfr:StateOPEBContribution</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E269" s="121" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="14">
+      <c r="A270" s="121" t="s">
+        <v>1644</v>
       </c>
       <c r="B270" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B270" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A270, ROW(INDIRECT("1:" &amp; LEN(A270))), 1), UPPER(MID(A270, ROW(INDIRECT("1:" &amp; LEN(A270))), 1)))), " " &amp; MID(A270, ROW(INDIRECT("1:" &amp; LEN(A270))), 1), MID(A270, ROW(INDIRECT("1:" &amp; LEN(A270))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Other Nonoperating Revenues Expenses</v>
+        <v xml:space="preserve"> Gain Loss On Sale Of Capital Assets</v>
       </c>
       <c r="C270" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:OtherNonoperatingRevenuesExpenses</v>
-      </c>
-      <c r="D270" s="127" t="s">
+        <f t="shared" si="5"/>
+        <v>acfr:GainLossOnSaleOfCapitalAssets</v>
+      </c>
+      <c r="D270" s="2" t="s">
         <v>2190</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" ht="14">
-      <c r="A271" s="127" t="s">
-        <v>1926</v>
+      <c r="E270" s="121" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="14">
+      <c r="A271" s="121" t="s">
+        <v>1642</v>
       </c>
       <c r="B271" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B271" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A271, ROW(INDIRECT("1:" &amp; LEN(A271))), 1), UPPER(MID(A271, ROW(INDIRECT("1:" &amp; LEN(A271))), 1)))), " " &amp; MID(A271, ROW(INDIRECT("1:" &amp; LEN(A271))), 1), MID(A271, ROW(INDIRECT("1:" &amp; LEN(A271))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Nonoperating Revenues</v>
+        <v xml:space="preserve"> Cash Over Or Short</v>
       </c>
       <c r="C271" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:NonoperatingRevenues</v>
-      </c>
-      <c r="D271" s="127" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="14">
-      <c r="A272" s="127" t="s">
-        <v>1927</v>
+        <f t="shared" si="5"/>
+        <v>acfr:CashOverOrShort</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E271" s="121" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="14">
+      <c r="A272" s="121" t="s">
+        <v>1921</v>
       </c>
       <c r="B272" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B272" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A272, ROW(INDIRECT("1:" &amp; LEN(A272))), 1), UPPER(MID(A272, ROW(INDIRECT("1:" &amp; LEN(A272))), 1)))), " " &amp; MID(A272, ROW(INDIRECT("1:" &amp; LEN(A272))), 1), MID(A272, ROW(INDIRECT("1:" &amp; LEN(A272))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Nonoperating Expenses Abstract</v>
+        <v xml:space="preserve"> Gifts</v>
       </c>
       <c r="C272" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:NonoperatingExpensesAbstract</v>
-      </c>
-      <c r="D272" s="127" t="s">
-        <v>2192</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="14">
-      <c r="A273" s="127" t="s">
-        <v>1928</v>
+        <f t="shared" si="5"/>
+        <v>acfr:Gifts</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E272" s="121" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="14">
+      <c r="A273" s="121" t="s">
+        <v>1922</v>
       </c>
       <c r="B273" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B273" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A273, ROW(INDIRECT("1:" &amp; LEN(A273))), 1), UPPER(MID(A273, ROW(INDIRECT("1:" &amp; LEN(A273))), 1)))), " " &amp; MID(A273, ROW(INDIRECT("1:" &amp; LEN(A273))), 1), MID(A273, ROW(INDIRECT("1:" &amp; LEN(A273))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Grant Related Expenses</v>
+        <v xml:space="preserve"> State Appropriations</v>
       </c>
       <c r="C273" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:GrantRelatedExpenses</v>
-      </c>
-      <c r="D273" s="127" t="s">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" ht="14">
-      <c r="A274" s="127" t="s">
-        <v>1929</v>
+        <f t="shared" si="5"/>
+        <v>acfr:StateAppropriations</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E273" s="121" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="14">
+      <c r="A274" s="121" t="s">
+        <v>1923</v>
       </c>
       <c r="B274" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B274" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A274, ROW(INDIRECT("1:" &amp; LEN(A274))), 1), UPPER(MID(A274, ROW(INDIRECT("1:" &amp; LEN(A274))), 1)))), " " &amp; MID(A274, ROW(INDIRECT("1:" &amp; LEN(A274))), 1), MID(A274, ROW(INDIRECT("1:" &amp; LEN(A274))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Project Costs</v>
+        <v xml:space="preserve"> Miscellaneous Other Revenue</v>
       </c>
       <c r="C274" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:ProjectCosts</v>
-      </c>
-      <c r="D274" s="127" t="s">
-        <v>2194</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" ht="14">
-      <c r="A275" s="127" t="s">
-        <v>1930</v>
+        <f t="shared" si="5"/>
+        <v>acfr:MiscellaneousOtherRevenue</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E274" s="121" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="14">
+      <c r="A275" s="121" t="s">
+        <v>1924</v>
       </c>
       <c r="B275" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B275" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A275, ROW(INDIRECT("1:" &amp; LEN(A275))), 1), UPPER(MID(A275, ROW(INDIRECT("1:" &amp; LEN(A275))), 1)))), " " &amp; MID(A275, ROW(INDIRECT("1:" &amp; LEN(A275))), 1), MID(A275, ROW(INDIRECT("1:" &amp; LEN(A275))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Contributions To Other Governments</v>
+        <v xml:space="preserve"> Other Nonoperating Revenues Expenses</v>
       </c>
       <c r="C275" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:ContributionsToOtherGovernments</v>
-      </c>
-      <c r="D275" s="127" t="s">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="14">
-      <c r="A276" s="127" t="s">
-        <v>1931</v>
+        <f t="shared" si="5"/>
+        <v>acfr:OtherNonoperatingRevenuesExpenses</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E275" s="121" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="14">
+      <c r="A276" s="121" t="s">
+        <v>1925</v>
       </c>
       <c r="B276" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B276" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A276, ROW(INDIRECT("1:" &amp; LEN(A276))), 1), UPPER(MID(A276, ROW(INDIRECT("1:" &amp; LEN(A276))), 1)))), " " &amp; MID(A276, ROW(INDIRECT("1:" &amp; LEN(A276))), 1), MID(A276, ROW(INDIRECT("1:" &amp; LEN(A276))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Expenses For Other Welfare Services</v>
+        <v xml:space="preserve"> Nonoperating Revenues</v>
       </c>
       <c r="C276" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:ExpensesForOtherWelfareServices</v>
-      </c>
-      <c r="D276" s="127" t="s">
-        <v>2196</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="14">
-      <c r="A277" s="127" t="s">
-        <v>1932</v>
+        <f t="shared" si="5"/>
+        <v>acfr:NonoperatingRevenues</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E276" s="121" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="14">
+      <c r="A277" s="121" t="s">
+        <v>1927</v>
       </c>
       <c r="B277" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B277" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A277, ROW(INDIRECT("1:" &amp; LEN(A277))), 1), UPPER(MID(A277, ROW(INDIRECT("1:" &amp; LEN(A277))), 1)))), " " &amp; MID(A277, ROW(INDIRECT("1:" &amp; LEN(A277))), 1), MID(A277, ROW(INDIRECT("1:" &amp; LEN(A277))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Issuance Cost And Amortization Of Bond Discount</v>
+        <v xml:space="preserve"> Grant Related Expenses</v>
       </c>
       <c r="C277" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:IssuanceCostAndAmortizationOfBondDiscount</v>
-      </c>
-      <c r="D277" s="127" t="s">
-        <v>2197</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="14">
-      <c r="A278" s="127" t="s">
-        <v>1326</v>
+        <f t="shared" si="5"/>
+        <v>acfr:GrantRelatedExpenses</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E277" s="121" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="14">
+      <c r="A278" s="121" t="s">
+        <v>1928</v>
       </c>
       <c r="B278" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B278" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A278, ROW(INDIRECT("1:" &amp; LEN(A278))), 1), UPPER(MID(A278, ROW(INDIRECT("1:" &amp; LEN(A278))), 1)))), " " &amp; MID(A278, ROW(INDIRECT("1:" &amp; LEN(A278))), 1), MID(A278, ROW(INDIRECT("1:" &amp; LEN(A278))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Debt Service Interest And Fiscal Charges</v>
+        <v xml:space="preserve"> Project Costs</v>
       </c>
       <c r="C278" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:DebtServiceInterestAndFiscalCharges</v>
-      </c>
-      <c r="D278" s="127" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="14">
-      <c r="A279" s="127" t="s">
-        <v>1933</v>
+        <f t="shared" si="5"/>
+        <v>acfr:ProjectCosts</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E278" s="121" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="14">
+      <c r="A279" s="121" t="s">
+        <v>1929</v>
       </c>
       <c r="B279" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B279" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A279, ROW(INDIRECT("1:" &amp; LEN(A279))), 1), UPPER(MID(A279, ROW(INDIRECT("1:" &amp; LEN(A279))), 1)))), " " &amp; MID(A279, ROW(INDIRECT("1:" &amp; LEN(A279))), 1), MID(A279, ROW(INDIRECT("1:" &amp; LEN(A279))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Nonoperating Expenses</v>
+        <v xml:space="preserve"> Contributions To Other Governments</v>
       </c>
       <c r="C279" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:NonoperatingExpenses</v>
-      </c>
-      <c r="D279" s="127" t="s">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" ht="14">
-      <c r="A280" s="127" t="s">
-        <v>1934</v>
+        <f t="shared" si="5"/>
+        <v>acfr:ContributionsToOtherGovernments</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E279" s="121" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="14">
+      <c r="A280" s="121" t="s">
+        <v>1930</v>
       </c>
       <c r="B280" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B280" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A280, ROW(INDIRECT("1:" &amp; LEN(A280))), 1), UPPER(MID(A280, ROW(INDIRECT("1:" &amp; LEN(A280))), 1)))), " " &amp; MID(A280, ROW(INDIRECT("1:" &amp; LEN(A280))), 1), MID(A280, ROW(INDIRECT("1:" &amp; LEN(A280))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Nonoperating Revenues And Expenses</v>
+        <v xml:space="preserve"> Expenses For Other Welfare Services</v>
       </c>
       <c r="C280" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:NonoperatingRevenuesAndExpenses</v>
-      </c>
-      <c r="D280" s="127" t="s">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" ht="14">
-      <c r="A281" s="127" t="s">
-        <v>1935</v>
+        <f t="shared" si="5"/>
+        <v>acfr:ExpensesForOtherWelfareServices</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E280" s="121" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="14">
+      <c r="A281" s="121" t="s">
+        <v>1931</v>
       </c>
       <c r="B281" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B281" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A281, ROW(INDIRECT("1:" &amp; LEN(A281))), 1), UPPER(MID(A281, ROW(INDIRECT("1:" &amp; LEN(A281))), 1)))), " " &amp; MID(A281, ROW(INDIRECT("1:" &amp; LEN(A281))), 1), MID(A281, ROW(INDIRECT("1:" &amp; LEN(A281))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Income Loss Before Capital Contributions</v>
+        <v xml:space="preserve"> Issuance Cost And Amortization Of Bond Discount</v>
       </c>
       <c r="C281" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:IncomeLossBeforeCapitalContributions</v>
-      </c>
-      <c r="D281" s="127" t="s">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" ht="14">
-      <c r="A282" s="127" t="s">
-        <v>1936</v>
+        <f t="shared" si="5"/>
+        <v>acfr:IssuanceCostAndAmortizationOfBondDiscount</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E281" s="121" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="14">
+      <c r="A282" s="121" t="s">
+        <v>1326</v>
       </c>
       <c r="B282" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B282" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A282, ROW(INDIRECT("1:" &amp; LEN(A282))), 1), UPPER(MID(A282, ROW(INDIRECT("1:" &amp; LEN(A282))), 1)))), " " &amp; MID(A282, ROW(INDIRECT("1:" &amp; LEN(A282))), 1), MID(A282, ROW(INDIRECT("1:" &amp; LEN(A282))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Capital Contributions And Transfers Abstract</v>
+        <v xml:space="preserve"> Debt Service Interest And Fiscal Charges</v>
       </c>
       <c r="C282" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:CapitalContributionsAndTransfersAbstract</v>
-      </c>
-      <c r="D282" s="127" t="s">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="14">
-      <c r="A283" s="127" t="s">
-        <v>1937</v>
+        <f t="shared" si="5"/>
+        <v>acfr:DebtServiceInterestAndFiscalCharges</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E282" s="121" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="14">
+      <c r="A283" s="121" t="s">
+        <v>1932</v>
       </c>
       <c r="B283" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B283" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A283, ROW(INDIRECT("1:" &amp; LEN(A283))), 1), UPPER(MID(A283, ROW(INDIRECT("1:" &amp; LEN(A283))), 1)))), " " &amp; MID(A283, ROW(INDIRECT("1:" &amp; LEN(A283))), 1), MID(A283, ROW(INDIRECT("1:" &amp; LEN(A283))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Contributions Abstract</v>
+        <v xml:space="preserve"> Nonoperating Expenses</v>
       </c>
       <c r="C283" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:ContributionsAbstract</v>
-      </c>
-      <c r="D283" s="127" t="s">
-        <v>2202</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="14">
-      <c r="A284" s="127" t="s">
-        <v>1938</v>
+        <f t="shared" si="5"/>
+        <v>acfr:NonoperatingExpenses</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E283" s="121" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="14">
+      <c r="A284" s="121" t="s">
+        <v>1933</v>
       </c>
       <c r="B284" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B284" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A284, ROW(INDIRECT("1:" &amp; LEN(A284))), 1), UPPER(MID(A284, ROW(INDIRECT("1:" &amp; LEN(A284))), 1)))), " " &amp; MID(A284, ROW(INDIRECT("1:" &amp; LEN(A284))), 1), MID(A284, ROW(INDIRECT("1:" &amp; LEN(A284))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Contributions Capital</v>
+        <v xml:space="preserve"> Nonoperating Revenues And Expenses</v>
       </c>
       <c r="C284" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:ContributionsCapital</v>
-      </c>
-      <c r="D284" s="127" t="s">
-        <v>2203</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="14">
-      <c r="A285" s="127" t="s">
-        <v>1939</v>
+        <f t="shared" si="5"/>
+        <v>acfr:NonoperatingRevenuesAndExpenses</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E284" s="121" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="14">
+      <c r="A285" s="121" t="s">
+        <v>1934</v>
       </c>
       <c r="B285" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B285" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A285, ROW(INDIRECT("1:" &amp; LEN(A285))), 1), UPPER(MID(A285, ROW(INDIRECT("1:" &amp; LEN(A285))), 1)))), " " &amp; MID(A285, ROW(INDIRECT("1:" &amp; LEN(A285))), 1), MID(A285, ROW(INDIRECT("1:" &amp; LEN(A285))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Contributionsfrom Citizens And Developers</v>
+        <v xml:space="preserve"> Income Loss Before Capital Contributions</v>
       </c>
       <c r="C285" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:ContributionsfromCitizensAndDevelopers</v>
-      </c>
-      <c r="D285" s="127" t="s">
-        <v>2204</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="14">
-      <c r="A286" s="127" t="s">
-        <v>1940</v>
+        <f t="shared" si="5"/>
+        <v>acfr:IncomeLossBeforeCapitalContributions</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E285" s="121" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="14">
+      <c r="A286" s="121" t="s">
+        <v>1937</v>
       </c>
       <c r="B286" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B286" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A286, ROW(INDIRECT("1:" &amp; LEN(A286))), 1), UPPER(MID(A286, ROW(INDIRECT("1:" &amp; LEN(A286))), 1)))), " " &amp; MID(A286, ROW(INDIRECT("1:" &amp; LEN(A286))), 1), MID(A286, ROW(INDIRECT("1:" &amp; LEN(A286))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Contributions Other</v>
+        <v xml:space="preserve"> Contributions Capital</v>
       </c>
       <c r="C286" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:ContributionsOther</v>
-      </c>
-      <c r="D286" s="127" t="s">
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" ht="14">
-      <c r="A287" s="127" t="s">
-        <v>1941</v>
+        <f t="shared" si="5"/>
+        <v>acfr:ContributionsCapital</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E286" s="121" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="14">
+      <c r="A287" s="121" t="s">
+        <v>1938</v>
       </c>
       <c r="B287" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B287" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A287, ROW(INDIRECT("1:" &amp; LEN(A287))), 1), UPPER(MID(A287, ROW(INDIRECT("1:" &amp; LEN(A287))), 1)))), " " &amp; MID(A287, ROW(INDIRECT("1:" &amp; LEN(A287))), 1), MID(A287, ROW(INDIRECT("1:" &amp; LEN(A287))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Contributions</v>
+        <v xml:space="preserve"> Contributionsfrom Citizens And Developers</v>
       </c>
       <c r="C287" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:Contributions</v>
-      </c>
-      <c r="D287" s="127" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" ht="14">
-      <c r="A288" s="127" t="s">
-        <v>1942</v>
+        <f t="shared" si="5"/>
+        <v>acfr:ContributionsfromCitizensAndDevelopers</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E287" s="121" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="14">
+      <c r="A288" s="121" t="s">
+        <v>1939</v>
       </c>
       <c r="B288" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B288" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A288, ROW(INDIRECT("1:" &amp; LEN(A288))), 1), UPPER(MID(A288, ROW(INDIRECT("1:" &amp; LEN(A288))), 1)))), " " &amp; MID(A288, ROW(INDIRECT("1:" &amp; LEN(A288))), 1), MID(A288, ROW(INDIRECT("1:" &amp; LEN(A288))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Transfers Abstract</v>
+        <v xml:space="preserve"> Contributions Other</v>
       </c>
       <c r="C288" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:TransfersAbstract</v>
-      </c>
-      <c r="D288" s="127" t="s">
-        <v>2206</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" ht="14">
-      <c r="A289" s="127" t="s">
-        <v>1654</v>
+        <f t="shared" si="5"/>
+        <v>acfr:ContributionsOther</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E288" s="121" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="14">
+      <c r="A289" s="121" t="s">
+        <v>1940</v>
       </c>
       <c r="B289" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B289" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A289, ROW(INDIRECT("1:" &amp; LEN(A289))), 1), UPPER(MID(A289, ROW(INDIRECT("1:" &amp; LEN(A289))), 1)))), " " &amp; MID(A289, ROW(INDIRECT("1:" &amp; LEN(A289))), 1), MID(A289, ROW(INDIRECT("1:" &amp; LEN(A289))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Transfers In</v>
+        <v xml:space="preserve"> Contributions</v>
       </c>
       <c r="C289" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:TransfersIn</v>
-      </c>
-      <c r="D289" s="127" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" ht="14">
-      <c r="A290" s="127" t="s">
-        <v>1656</v>
+        <f t="shared" si="5"/>
+        <v>acfr:Contributions</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E289" s="121" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="14">
+      <c r="A290" s="121" t="s">
+        <v>1654</v>
       </c>
       <c r="B290" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B290" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A290, ROW(INDIRECT("1:" &amp; LEN(A290))), 1), UPPER(MID(A290, ROW(INDIRECT("1:" &amp; LEN(A290))), 1)))), " " &amp; MID(A290, ROW(INDIRECT("1:" &amp; LEN(A290))), 1), MID(A290, ROW(INDIRECT("1:" &amp; LEN(A290))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Transfers Out</v>
+        <v xml:space="preserve"> Transfers In</v>
       </c>
       <c r="C290" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:TransfersOut</v>
-      </c>
-      <c r="D290" s="127" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" ht="14">
-      <c r="A291" s="127" t="s">
-        <v>1943</v>
+        <f t="shared" si="5"/>
+        <v>acfr:TransfersIn</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E290" s="121" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="14">
+      <c r="A291" s="121" t="s">
+        <v>1656</v>
       </c>
       <c r="B291" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B291" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A291, ROW(INDIRECT("1:" &amp; LEN(A291))), 1), UPPER(MID(A291, ROW(INDIRECT("1:" &amp; LEN(A291))), 1)))), " " &amp; MID(A291, ROW(INDIRECT("1:" &amp; LEN(A291))), 1), MID(A291, ROW(INDIRECT("1:" &amp; LEN(A291))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Transfersof Capital Assets From To Other Funds</v>
+        <v xml:space="preserve"> Transfers Out</v>
       </c>
       <c r="C291" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:TransfersofCapitalAssetsFromToOtherFunds</v>
-      </c>
-      <c r="D291" s="127" t="s">
-        <v>2207</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" ht="14">
-      <c r="A292" s="127" t="s">
-        <v>1944</v>
+        <f t="shared" si="5"/>
+        <v>acfr:TransfersOut</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E291" s="121" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="14">
+      <c r="A292" s="121" t="s">
+        <v>1942</v>
       </c>
       <c r="B292" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B292" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A292, ROW(INDIRECT("1:" &amp; LEN(A292))), 1), UPPER(MID(A292, ROW(INDIRECT("1:" &amp; LEN(A292))), 1)))), " " &amp; MID(A292, ROW(INDIRECT("1:" &amp; LEN(A292))), 1), MID(A292, ROW(INDIRECT("1:" &amp; LEN(A292))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Total Capital Contributions And Transfers</v>
+        <v xml:space="preserve"> Transfersof Capital Assets From To Other Funds</v>
       </c>
       <c r="C292" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:TotalCapitalContributionsAndTransfers</v>
-      </c>
-      <c r="D292" s="127" t="s">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" ht="14">
-      <c r="A293" s="127" t="s">
-        <v>1945</v>
+        <f t="shared" si="5"/>
+        <v>acfr:TransfersofCapitalAssetsFromToOtherFunds</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E292" s="121" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="14">
+      <c r="A293" s="121" t="s">
+        <v>1943</v>
       </c>
       <c r="B293" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B293" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A293, ROW(INDIRECT("1:" &amp; LEN(A293))), 1), UPPER(MID(A293, ROW(INDIRECT("1:" &amp; LEN(A293))), 1)))), " " &amp; MID(A293, ROW(INDIRECT("1:" &amp; LEN(A293))), 1), MID(A293, ROW(INDIRECT("1:" &amp; LEN(A293))), 1))), "  ", " ")</f>
-        <v xml:space="preserve"> Other Financing Sources Abstract</v>
+        <v xml:space="preserve"> Total Capital Contributions And Transfers</v>
       </c>
       <c r="C293" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>acfr:OtherFinancingSourcesAbstract</v>
-      </c>
-      <c r="D293" s="127" t="s">
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" ht="14">
-      <c r="A294" s="127" t="s">
+        <f t="shared" si="5"/>
+        <v>acfr:TotalCapitalContributionsAndTransfers</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E293" s="121" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="14">
+      <c r="A294" s="121" t="s">
         <v>1662</v>
       </c>
       <c r="B294" s="2" t="str" cm="1">
@@ -18784,31 +19666,37 @@
         <v xml:space="preserve"> Other Financing Sources Lease Financing</v>
       </c>
       <c r="C294" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>acfr:OtherFinancingSourcesLeaseFinancing</v>
       </c>
-      <c r="D294" s="127" t="s">
+      <c r="D294" s="2" t="s">
+        <v>2210</v>
+      </c>
+      <c r="E294" s="121" t="s">
         <v>1661</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="14">
-      <c r="A295" s="127" t="s">
-        <v>1946</v>
+    <row r="295" spans="1:5" ht="14">
+      <c r="A295" s="121" t="s">
+        <v>1945</v>
       </c>
       <c r="B295" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B295" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A295, ROW(INDIRECT("1:" &amp; LEN(A295))), 1), UPPER(MID(A295, ROW(INDIRECT("1:" &amp; LEN(A295))), 1)))), " " &amp; MID(A295, ROW(INDIRECT("1:" &amp; LEN(A295))), 1), MID(A295, ROW(INDIRECT("1:" &amp; LEN(A295))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Proceeds From Sale Of Bonds Notes</v>
       </c>
       <c r="C295" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>acfr:ProceedsFromSaleOfBondsNotes</v>
       </c>
-      <c r="D295" s="127" t="s">
+      <c r="D295" s="2" t="s">
         <v>2210</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" ht="14">
-      <c r="A296" s="127" t="s">
+      <c r="E295" s="121" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="14">
+      <c r="A296" s="121" t="s">
         <v>1666</v>
       </c>
       <c r="B296" s="2" t="str" cm="1">
@@ -18816,15 +19704,18 @@
         <v xml:space="preserve"> Premium On Bonds Or Notes</v>
       </c>
       <c r="C296" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>acfr:PremiumOnBondsOrNotes</v>
       </c>
-      <c r="D296" s="127" t="s">
+      <c r="D296" s="2" t="s">
+        <v>2210</v>
+      </c>
+      <c r="E296" s="121" t="s">
         <v>1665</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="14">
-      <c r="A297" s="127" t="s">
+    <row r="297" spans="1:5" ht="14">
+      <c r="A297" s="121" t="s">
         <v>1668</v>
       </c>
       <c r="B297" s="2" t="str" cm="1">
@@ -18832,31 +19723,37 @@
         <v xml:space="preserve"> Bond Or Insurance Recoveries</v>
       </c>
       <c r="C297" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>acfr:BondOrInsuranceRecoveries</v>
       </c>
-      <c r="D297" s="127" t="s">
+      <c r="D297" s="2" t="s">
+        <v>2210</v>
+      </c>
+      <c r="E297" s="121" t="s">
         <v>1667</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="14">
-      <c r="A298" s="127" t="s">
-        <v>1947</v>
+    <row r="298" spans="1:5" ht="14">
+      <c r="A298" s="121" t="s">
+        <v>1946</v>
       </c>
       <c r="B298" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B298" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A298, ROW(INDIRECT("1:" &amp; LEN(A298))), 1), UPPER(MID(A298, ROW(INDIRECT("1:" &amp; LEN(A298))), 1)))), " " &amp; MID(A298, ROW(INDIRECT("1:" &amp; LEN(A298))), 1), MID(A298, ROW(INDIRECT("1:" &amp; LEN(A298))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Other Financing Sources</v>
       </c>
       <c r="C298" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>acfr:OtherFinancingSources</v>
       </c>
-      <c r="D298" s="127" t="s">
-        <v>2211</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" ht="14">
-      <c r="A299" s="127" t="s">
+      <c r="D298" s="2" t="s">
+        <v>2210</v>
+      </c>
+      <c r="E298" s="121" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="14">
+      <c r="A299" s="121" t="s">
         <v>1638</v>
       </c>
       <c r="B299" s="2" t="str" cm="1">
@@ -18864,107 +19761,125 @@
         <v xml:space="preserve"> Proceeds From Bond And Note Issuance</v>
       </c>
       <c r="C299" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>acfr:ProceedsFromBondAndNoteIssuance</v>
       </c>
-      <c r="D299" s="127" t="s">
+      <c r="D299" s="2" t="s">
+        <v>2210</v>
+      </c>
+      <c r="E299" s="121" t="s">
         <v>1637</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="14">
-      <c r="A300" s="127" t="s">
-        <v>1948</v>
+    <row r="300" spans="1:5" ht="14">
+      <c r="A300" s="121" t="s">
+        <v>1947</v>
       </c>
       <c r="B300" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B300" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A300, ROW(INDIRECT("1:" &amp; LEN(A300))), 1), UPPER(MID(A300, ROW(INDIRECT("1:" &amp; LEN(A300))), 1)))), " " &amp; MID(A300, ROW(INDIRECT("1:" &amp; LEN(A300))), 1), MID(A300, ROW(INDIRECT("1:" &amp; LEN(A300))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Net Position Abstract</v>
       </c>
       <c r="C300" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>acfr:NetPositionAbstract</v>
       </c>
-      <c r="D300" s="127" t="s">
-        <v>2212</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" ht="14">
-      <c r="A301" s="127" t="s">
-        <v>1949</v>
+      <c r="E300" s="121" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="14">
+      <c r="A301" s="121" t="s">
+        <v>1948</v>
       </c>
       <c r="B301" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B301" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A301, ROW(INDIRECT("1:" &amp; LEN(A301))), 1), UPPER(MID(A301, ROW(INDIRECT("1:" &amp; LEN(A301))), 1)))), " " &amp; MID(A301, ROW(INDIRECT("1:" &amp; LEN(A301))), 1), MID(A301, ROW(INDIRECT("1:" &amp; LEN(A301))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Change In Accounting Principle</v>
       </c>
       <c r="C301" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>acfr:ChangeInAccountingPrinciple</v>
       </c>
-      <c r="D301" s="127" t="s">
-        <v>2213</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" ht="14">
-      <c r="A302" s="127" t="s">
-        <v>1950</v>
+      <c r="D301" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E301" s="121" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="14">
+      <c r="A302" s="121" t="s">
+        <v>1949</v>
       </c>
       <c r="B302" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B302" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A302, ROW(INDIRECT("1:" &amp; LEN(A302))), 1), UPPER(MID(A302, ROW(INDIRECT("1:" &amp; LEN(A302))), 1)))), " " &amp; MID(A302, ROW(INDIRECT("1:" &amp; LEN(A302))), 1), MID(A302, ROW(INDIRECT("1:" &amp; LEN(A302))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Net Position Restated</v>
       </c>
       <c r="C302" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>acfr:NetPositionRestated</v>
       </c>
-      <c r="D302" s="127" t="s">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" ht="14">
-      <c r="A303" s="127" t="s">
-        <v>1951</v>
+      <c r="D302" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E302" s="121" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="14">
+      <c r="A303" s="121" t="s">
+        <v>1950</v>
       </c>
       <c r="B303" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B303" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A303, ROW(INDIRECT("1:" &amp; LEN(A303))), 1), UPPER(MID(A303, ROW(INDIRECT("1:" &amp; LEN(A303))), 1)))), " " &amp; MID(A303, ROW(INDIRECT("1:" &amp; LEN(A303))), 1), MID(A303, ROW(INDIRECT("1:" &amp; LEN(A303))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Net Position</v>
       </c>
       <c r="C303" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>acfr:NetPosition</v>
       </c>
-      <c r="D303" s="127" t="s">
-        <v>2215</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" ht="14">
-      <c r="A304" s="127" t="s">
-        <v>1951</v>
+      <c r="D303" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E303" s="121" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="14">
+      <c r="A304" s="121" t="s">
+        <v>1950</v>
       </c>
       <c r="B304" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B304" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A304, ROW(INDIRECT("1:" &amp; LEN(A304))), 1), UPPER(MID(A304, ROW(INDIRECT("1:" &amp; LEN(A304))), 1)))), " " &amp; MID(A304, ROW(INDIRECT("1:" &amp; LEN(A304))), 1), MID(A304, ROW(INDIRECT("1:" &amp; LEN(A304))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Net Position</v>
       </c>
       <c r="C304" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>acfr:NetPosition</v>
       </c>
-      <c r="D304" s="127" t="s">
-        <v>2216</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" ht="14">
-      <c r="A305" s="127" t="s">
-        <v>1952</v>
+      <c r="D304" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E304" s="121" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="14">
+      <c r="A305" s="121" t="s">
+        <v>1951</v>
       </c>
       <c r="B305" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B305" ca="1">SUBSTITUTE(_xlfn.TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A305, ROW(INDIRECT("1:" &amp; LEN(A305))), 1), UPPER(MID(A305, ROW(INDIRECT("1:" &amp; LEN(A305))), 1)))), " " &amp; MID(A305, ROW(INDIRECT("1:" &amp; LEN(A305))), 1), MID(A305, ROW(INDIRECT("1:" &amp; LEN(A305))), 1))), "  ", " ")</f>
         <v xml:space="preserve"> Changes In Net Position</v>
       </c>
       <c r="C305" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>acfr:ChangesInNetPosition</v>
       </c>
-      <c r="D305" s="127" t="s">
-        <v>2217</v>
+      <c r="D305" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E305" s="121" t="s">
+        <v>2216</v>
       </c>
     </row>
   </sheetData>
@@ -19268,12 +20183,12 @@
     </row>
     <row r="25" spans="1:5" ht="15">
       <c r="A25" s="7"/>
-      <c r="B25" s="122" t="s">
+      <c r="B25" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="124"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
     </row>
     <row r="26" spans="1:5" ht="15">
       <c r="A26" s="8" t="str">
@@ -24768,7 +25683,7 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -28675,7 +29590,7 @@
   </sheetPr>
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="66" zoomScaleNormal="94" workbookViewId="0">
+    <sheetView zoomScale="66" zoomScaleNormal="94" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
@@ -30070,8 +30985,8 @@
   </sheetPr>
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -30168,16 +31083,16 @@
       <c r="C6" s="12" t="s">
         <v>1756</v>
       </c>
-      <c r="D6" s="119" t="str">
+      <c r="D6" s="123" t="str">
         <f>IF(AND('Master Info'!C5="N",'Master Info'!C6="N"), "",  IF('Master Info'!C5="N", "Component Units", "Business-Type Activities - Enterprise Funds"))</f>
         <v>Business-Type Activities - Enterprise Funds</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="121"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="125"/>
     </row>
     <row r="7" spans="1:10" ht="15">
       <c r="A7" s="7"/>
@@ -31340,11 +32255,11 @@
     <mergeCell ref="D6:J6"/>
   </mergeCells>
   <conditionalFormatting sqref="C77:J77">
-    <cfRule type="cellIs" dxfId="28" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="4" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="3" stopIfTrue="1" operator="equal">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="4" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="26" priority="5" operator="notEqual">
       <formula>#REF!</formula>
@@ -31400,7 +32315,7 @@
   <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81:E82"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -31449,9 +32364,9 @@
         <v>1075</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C3" s="126"/>
+        <v>2219</v>
+      </c>
+      <c r="C3" s="120"/>
       <c r="D3" s="55"/>
       <c r="E3" s="55"/>
       <c r="F3" s="55"/>
@@ -31497,16 +32412,16 @@
       <c r="C6" s="12" t="s">
         <v>1756</v>
       </c>
-      <c r="D6" s="119" t="str">
+      <c r="D6" s="123" t="str">
         <f>IF(AND('Master Info'!C5="N",'Master Info'!C6="N"), "",  IF('Master Info'!C5="N", "Component Units", "Business-Type Activities - Enterprise Funds"))</f>
         <v>Business-Type Activities - Enterprise Funds</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="121"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="125"/>
     </row>
     <row r="7" spans="1:10" ht="15">
       <c r="A7" s="7"/>
@@ -31523,7 +32438,7 @@
     <row r="8" spans="1:10" ht="15">
       <c r="A8" s="7"/>
       <c r="B8" s="15" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -31538,7 +32453,7 @@
     </row>
     <row r="9" spans="1:10" ht="15">
       <c r="A9" s="8" t="str">
-        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
+        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B9" s="18"/>
@@ -31556,7 +32471,7 @@
     </row>
     <row r="10" spans="1:10" ht="15">
       <c r="A10" s="8" t="str">
-        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
+        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B10" s="18"/>
@@ -31574,10 +32489,10 @@
     </row>
     <row r="11" spans="1:10" ht="15">
       <c r="A11" s="8" t="str">
-        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B11" s="18"/>
+        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -31592,10 +32507,10 @@
     </row>
     <row r="12" spans="1:10" ht="15">
       <c r="A12" s="8" t="str">
-        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B12" s="18"/>
+        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -31610,10 +32525,10 @@
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="8" t="str">
-        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B13" s="18"/>
+        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -31628,10 +32543,10 @@
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="8" t="str">
-        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B14" s="18"/>
+        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -31646,10 +32561,10 @@
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="8" t="str">
-        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B15" s="18"/>
+        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -31664,10 +32579,10 @@
     </row>
     <row r="16" spans="1:10" ht="15">
       <c r="A16" s="8" t="str">
-        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B16" s="18"/>
+        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -31682,10 +32597,10 @@
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="8" t="str">
-        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B17" s="18"/>
+        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -31700,10 +32615,10 @@
     </row>
     <row r="18" spans="1:10" ht="15" hidden="1">
       <c r="A18" s="8" t="str">
-        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B18" s="18"/>
+        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -31718,10 +32633,10 @@
     </row>
     <row r="19" spans="1:10" ht="15" hidden="1">
       <c r="A19" s="8" t="str">
-        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B19" s="18"/>
+        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -31736,10 +32651,10 @@
     </row>
     <row r="20" spans="1:10" ht="15" hidden="1">
       <c r="A20" s="8" t="str">
-        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B20" s="18"/>
+        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -31754,10 +32669,10 @@
     </row>
     <row r="21" spans="1:10" ht="15" hidden="1">
       <c r="A21" s="8" t="str">
-        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B21" s="18"/>
+        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -31772,10 +32687,10 @@
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="8" t="str">
-        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B22" s="18"/>
+        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
@@ -31790,10 +32705,10 @@
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="8" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C23" s="17">
         <f>IF(C6="","",SUM(C9:C22))</f>
@@ -31813,7 +32728,7 @@
     <row r="24" spans="1:10" ht="15">
       <c r="A24" s="7"/>
       <c r="B24" s="15" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -31826,7 +32741,7 @@
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="8" t="str">
-        <f>IF(B25="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B25,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
+        <f>IF(B25="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B25,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B25" s="18"/>
@@ -31841,7 +32756,7 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="8" t="str">
-        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
+        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B26" s="18"/>
@@ -31856,7 +32771,7 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="8" t="str">
-        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
+        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B27" s="19"/>
@@ -31871,7 +32786,7 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="8" t="str">
-        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
+        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B28" s="19"/>
@@ -31886,7 +32801,7 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="8" t="str">
-        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
+        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B29" s="19"/>
@@ -31901,7 +32816,7 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="8" t="str">
-        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
+        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B30" s="18"/>
@@ -31916,7 +32831,7 @@
     </row>
     <row r="31" spans="1:10" ht="15">
       <c r="A31" s="8" t="str">
-        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
+        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B31" s="18"/>
@@ -32006,10 +32921,10 @@
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15">
       <c r="A37" s="8" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C37" s="17">
         <f>IF(C6="","",SUM(C25:C31))</f>
@@ -32053,7 +32968,7 @@
     <row r="40" spans="1:10" ht="15">
       <c r="A40" s="7"/>
       <c r="B40" s="15" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
@@ -32066,7 +32981,7 @@
     </row>
     <row r="41" spans="1:10" ht="15">
       <c r="A41" s="8" t="str">
-        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B41,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
+        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B41,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B41" s="18"/>
@@ -32081,7 +32996,7 @@
     </row>
     <row r="42" spans="1:10" ht="15">
       <c r="A42" s="8" t="str">
-        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
+        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B42" s="18"/>
@@ -32096,7 +33011,7 @@
     </row>
     <row r="43" spans="1:10" ht="15">
       <c r="A43" s="8" t="str">
-        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
+        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B43" s="18"/>
@@ -32111,7 +33026,7 @@
     </row>
     <row r="44" spans="1:10" ht="16" customHeight="1">
       <c r="A44" s="8" t="str">
-        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
+        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B44" s="18"/>
@@ -32126,7 +33041,7 @@
     </row>
     <row r="45" spans="1:10" ht="16" customHeight="1">
       <c r="A45" s="8" t="str">
-        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
+        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B45" s="18"/>
@@ -32141,7 +33056,7 @@
     </row>
     <row r="46" spans="1:10" ht="16" customHeight="1">
       <c r="A46" s="8" t="str">
-        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
+        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B46" s="18"/>
@@ -32231,10 +33146,10 @@
     </row>
     <row r="52" spans="1:10" ht="15">
       <c r="A52" s="8" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C52" s="17">
         <f>IF(C6="","",SUM(C41:C51))</f>
@@ -32254,7 +33169,7 @@
     <row r="53" spans="1:10" ht="15">
       <c r="A53" s="7"/>
       <c r="B53" s="15" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -32267,7 +33182,7 @@
     </row>
     <row r="54" spans="1:10" ht="15">
       <c r="A54" s="8" t="str">
-        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
+        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B54" s="18"/>
@@ -32282,7 +33197,7 @@
     </row>
     <row r="55" spans="1:10" ht="15">
       <c r="A55" s="8" t="str">
-        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
+        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B55" s="18"/>
@@ -32297,7 +33212,7 @@
     </row>
     <row r="56" spans="1:10" ht="15">
       <c r="A56" s="8" t="str">
-        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
+        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B56" s="18"/>
@@ -32312,7 +33227,7 @@
     </row>
     <row r="57" spans="1:10" ht="15">
       <c r="A57" s="8" t="str">
-        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
+        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B57" s="18"/>
@@ -32402,10 +33317,10 @@
     </row>
     <row r="63" spans="1:10" ht="15">
       <c r="A63" s="8" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C63" s="17">
         <f>IF(C6="","",SUM(C54:C57))</f>
@@ -32462,7 +33377,7 @@
     </row>
     <row r="67" spans="1:10" ht="15">
       <c r="A67" s="8" t="str">
-        <f>IF(B67="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B67,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
+        <f>IF(B67="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B67,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B67" s="18"/>
@@ -32477,7 +33392,7 @@
     </row>
     <row r="68" spans="1:10" ht="15">
       <c r="A68" s="8" t="str">
-        <f>IF(B68="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B68,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
+        <f>IF(B68="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B68,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B68" s="18"/>
@@ -32492,7 +33407,7 @@
     </row>
     <row r="69" spans="1:10" ht="15">
       <c r="A69" s="8" t="str">
-        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
+        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B69" s="18"/>
@@ -32507,7 +33422,7 @@
     </row>
     <row r="70" spans="1:10" ht="15">
       <c r="A70" s="8" t="str">
-        <f>IF(B70="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B70,'lookup prop exp'!$B$2:$B$305,'lookup prop exp'!$C$2:$C$305))</f>
+        <f>IF(B70="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B70,'Lookup PropFunds'!$B$2:$B$305,'Lookup PropFunds'!$C$2:$C$305))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B70" s="18"/>
@@ -32600,7 +33515,7 @@
         <v>51</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C76" s="23">
         <f>IF(C6="","",SUM(C67:C75))</f>
@@ -32633,13 +33548,13 @@
     <mergeCell ref="D6:J6"/>
   </mergeCells>
   <conditionalFormatting sqref="C76:J76">
-    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="notEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="19" priority="4" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32686,12 +33601,36 @@
   <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5A07C939-1CE6-3A47-8DF2-90E1F95C2B05}">
+          <x14:formula1>
+            <xm:f>'Lookup PropFunds'!$B$31:$B$88</xm:f>
+          </x14:formula1>
+          <xm:sqref>B9:B22</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{750C0F25-C194-8C4E-B42D-807F5793A098}">
           <x14:formula1>
-            <xm:f>'lookup prop exp'!$B$2:$B$305</xm:f>
+            <xm:f>'Lookup PropFunds'!$B$301:$B$305</xm:f>
           </x14:formula1>
-          <xm:sqref>B9:B22 B25:B31 B41:B46 B54:B57 B67:B70</xm:sqref>
+          <xm:sqref>B67:B70</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F40A82BF-6AC7-D240-92AC-E9E6C5980AE0}">
+          <x14:formula1>
+            <xm:f>'Lookup PropFunds'!$B$89:$B$164</xm:f>
+          </x14:formula1>
+          <xm:sqref>B25:B31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{57B790E0-A5AB-2747-B9B4-6793C9D852EF}">
+          <x14:formula1>
+            <xm:f>'Lookup PropFunds'!$B$166:$B$285</xm:f>
+          </x14:formula1>
+          <xm:sqref>B41:B46</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{070502E7-EF0D-AB48-9068-DA2F668785AD}">
+          <x14:formula1>
+            <xm:f>'Lookup PropFunds'!$B$286:$B$293</xm:f>
+          </x14:formula1>
+          <xm:sqref>B54:B57</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/static/input_files/ACFR_template.xlsx
+++ b/static/input_files/ACFR_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byflow/Documents/Research/process-xbrl/static/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1641DF-EE81-2740-AB0D-1EE563DC47B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B97CF5-9ADE-EF4F-BB45-FF715BF42DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="2022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3324" uniqueCount="2101">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -6146,6 +6146,243 @@
   </si>
   <si>
     <t>Other Cash and Cash Equivalents, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Cash and Cash Equivalents and Investments, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Restricted Investments, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Pooled Investments, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Investments, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Investments Held by Third Parties Modified Accrual</t>
+  </si>
+  <si>
+    <t>Allowance for Uncollectible Receivables, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Customer Receivable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Allowance for Customer Receivables, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Customer Receivable, Net of Allowance, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Allowance for Uncollectible Interest, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Utility Bills Receivable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Allowance for Property Taxes, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Allowance for Income Taxes, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Income Taxes Receivable, Net of Allowance, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Allowance for Special Assessment Taxes, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Special Assessment Taxes Receivable, Net of Allowance, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Allowance for Sales Taxes, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Sales Taxes Receivable, Net of Allowance, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Allowance for Other Taxes Receivable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Other Taxes Receivable, Net of Allowance, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Allowance for Taxes, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Taxes Receivable, Net of Allowance, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Allowance for Penalties Receivable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Allowance for Leases Receivable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Allowance for Grants and Contracts Receivable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Allowance for Deposits Receivable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Allowance for Loans and Notes Receivable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Allowance for Claims and Judgments Receivable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Allowance for Inter Governmental Receivable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Allowance for Receivable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Receivables (Net of Allowance), Modified Accrual</t>
+  </si>
+  <si>
+    <t>Restricted Receivables, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Allowance for Restricted Receivable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Receivables, Restricted (Net of Allowance), Modified Accrual</t>
+  </si>
+  <si>
+    <t>Investment Income Receivable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Allowance for Investment Income Receivable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Investment Income Receivable, Net of Allowance, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Allowance for Other Receivable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Other Receivables, (Net of Allowance), Modified Accrual</t>
+  </si>
+  <si>
+    <t>Receivables from Contracts, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Due from Other Government, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Due from Others, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Prepaid Insurance, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Other Prepaid Assets, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Prepaid Expenses and Other Assets, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Inventory and Prepaid Items, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Travel Advances Receivable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Derivative Instruments, Assets, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Regulatory Assets, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Assets, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Assets and Deferred Outflows of Resources, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Cash Overdraft, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Benefits Payable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Inter Governmental Payable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Claims and Judgments Payable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Payables for Others, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Accrued Payroll Taxes, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Accrued Benefits and Compensation Long Term, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Compensated Absences Payable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>All Other Accounts Payable and Accrued Liabilities, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Due to Enterprise Funds, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Advances from Component Unit, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Provision for Property Tax Refunds, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Unamortized Premium on Bonds, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Leases Payable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Bonds Payable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Loans Payable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Notes Payable, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Notes Payable, Due in More Than One Year, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Regulatory Liability, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Derivative Instruments, Liability, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Other Liabilities, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Liabilities, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Deferred Inflows of Resources, Drain Fund, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Deferred Inflows of Resources, Special Assessments, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Deferred Inflows of Resources, Unavailable Revenue, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Liabilities and Deferred Inflows of Resources, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Investment in Capital Assets, Modified Accrual</t>
+  </si>
+  <si>
+    <t>Liabilities and Deferred Inflows of Resources and Fund Balances, Modified Accrual</t>
   </si>
 </sst>
 </file>
@@ -6156,7 +6393,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6301,6 +6538,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -6658,7 +6901,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6913,6 +7156,7 @@
     </xf>
     <xf numFmtId="44" fontId="13" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="44" fontId="23" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6922,7 +7166,7 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -7530,15 +7774,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A514" zoomScale="108" workbookViewId="0">
-      <selection activeCell="B528" sqref="B528"/>
+    <sheetView tabSelected="1" topLeftCell="A518" zoomScale="108" workbookViewId="0">
+      <selection activeCell="A544" sqref="A544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.83203125" customWidth="1"/>
-    <col min="3" max="3" width="63.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
     <col min="4" max="4" width="67.1640625" customWidth="1"/>
     <col min="5" max="10" width="79.1640625" customWidth="1"/>
   </cols>
@@ -7553,7 +7797,7 @@
       <c r="C1" s="1" t="s">
         <v>1762</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="D1" s="128" t="s">
         <v>2020</v>
       </c>
     </row>
@@ -14852,7 +15096,7 @@
       </c>
     </row>
     <row r="523" spans="1:5">
-      <c r="B523" t="s">
+      <c r="B523" s="2" t="s">
         <v>2021</v>
       </c>
       <c r="D523" t="s">
@@ -14864,6 +15108,9 @@
       </c>
     </row>
     <row r="524" spans="1:5">
+      <c r="B524" s="132" t="s">
+        <v>2022</v>
+      </c>
       <c r="D524" t="s">
         <v>1764</v>
       </c>
@@ -14873,6 +15120,9 @@
       </c>
     </row>
     <row r="525" spans="1:5">
+      <c r="B525" s="132" t="s">
+        <v>2023</v>
+      </c>
       <c r="D525" t="s">
         <v>1765</v>
       </c>
@@ -14882,6 +15132,9 @@
       </c>
     </row>
     <row r="526" spans="1:5">
+      <c r="B526" s="2" t="s">
+        <v>2024</v>
+      </c>
       <c r="D526" t="s">
         <v>1766</v>
       </c>
@@ -14891,6 +15144,9 @@
       </c>
     </row>
     <row r="527" spans="1:5">
+      <c r="B527" s="132" t="s">
+        <v>2025</v>
+      </c>
       <c r="D527" t="s">
         <v>1767</v>
       </c>
@@ -14900,6 +15156,9 @@
       </c>
     </row>
     <row r="528" spans="1:5">
+      <c r="B528" s="2" t="s">
+        <v>2026</v>
+      </c>
       <c r="D528" t="s">
         <v>1768</v>
       </c>
@@ -14908,7 +15167,10 @@
         <v>Dup_1_InvestmentsHeldByThirdPartiesModifiedAccrual</v>
       </c>
     </row>
-    <row r="529" spans="4:5">
+    <row r="529" spans="2:5">
+      <c r="B529" s="2" t="s">
+        <v>2027</v>
+      </c>
       <c r="D529" t="s">
         <v>1769</v>
       </c>
@@ -14917,7 +15179,10 @@
         <v>AllowanceForUncollectibleReceivablesModifiedAccrual</v>
       </c>
     </row>
-    <row r="530" spans="4:5">
+    <row r="530" spans="2:5">
+      <c r="B530" s="2" t="s">
+        <v>2028</v>
+      </c>
       <c r="D530" t="s">
         <v>1770</v>
       </c>
@@ -14926,7 +15191,10 @@
         <v>CustomerReceivableModifiedAccrual</v>
       </c>
     </row>
-    <row r="531" spans="4:5">
+    <row r="531" spans="2:5">
+      <c r="B531" s="2" t="s">
+        <v>2029</v>
+      </c>
       <c r="D531" t="s">
         <v>1771</v>
       </c>
@@ -14935,7 +15203,10 @@
         <v>AllowanceForCustomerReceivablesModifiedAccrual</v>
       </c>
     </row>
-    <row r="532" spans="4:5">
+    <row r="532" spans="2:5">
+      <c r="B532" s="2" t="s">
+        <v>2030</v>
+      </c>
       <c r="D532" t="s">
         <v>1772</v>
       </c>
@@ -14944,7 +15215,10 @@
         <v>CustomerReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
     </row>
-    <row r="533" spans="4:5">
+    <row r="533" spans="2:5">
+      <c r="B533" s="2" t="s">
+        <v>2031</v>
+      </c>
       <c r="D533" t="s">
         <v>1773</v>
       </c>
@@ -14953,7 +15227,10 @@
         <v>AllowanceForUncollectibleInterestModifiedAccrual</v>
       </c>
     </row>
-    <row r="534" spans="4:5">
+    <row r="534" spans="2:5">
+      <c r="B534" s="2" t="s">
+        <v>2032</v>
+      </c>
       <c r="D534" t="s">
         <v>1774</v>
       </c>
@@ -14962,7 +15239,10 @@
         <v>UtilityBillsReceivableModifiedAccrual</v>
       </c>
     </row>
-    <row r="535" spans="4:5">
+    <row r="535" spans="2:5">
+      <c r="B535" s="2" t="s">
+        <v>2033</v>
+      </c>
       <c r="D535" t="s">
         <v>1775</v>
       </c>
@@ -14971,7 +15251,10 @@
         <v>AllowanceForPropertyTaxesModifiedAccrual</v>
       </c>
     </row>
-    <row r="536" spans="4:5">
+    <row r="536" spans="2:5">
+      <c r="B536" t="s">
+        <v>2034</v>
+      </c>
       <c r="D536" t="s">
         <v>1776</v>
       </c>
@@ -14980,7 +15263,10 @@
         <v>AllowanceForIncomeTaxesModifiedAccrual</v>
       </c>
     </row>
-    <row r="537" spans="4:5">
+    <row r="537" spans="2:5">
+      <c r="B537" t="s">
+        <v>2035</v>
+      </c>
       <c r="D537" t="s">
         <v>1777</v>
       </c>
@@ -14989,7 +15275,10 @@
         <v>IncomeTaxesReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
     </row>
-    <row r="538" spans="4:5">
+    <row r="538" spans="2:5">
+      <c r="B538" t="s">
+        <v>2036</v>
+      </c>
       <c r="D538" t="s">
         <v>1778</v>
       </c>
@@ -14998,7 +15287,10 @@
         <v>AllowanceForSpecialAssessmentTaxesModifiedAccrual</v>
       </c>
     </row>
-    <row r="539" spans="4:5">
+    <row r="539" spans="2:5">
+      <c r="B539" t="s">
+        <v>2037</v>
+      </c>
       <c r="D539" t="s">
         <v>1779</v>
       </c>
@@ -15007,7 +15299,10 @@
         <v>SpecialAssessmentTaxesReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
     </row>
-    <row r="540" spans="4:5">
+    <row r="540" spans="2:5">
+      <c r="B540" t="s">
+        <v>2038</v>
+      </c>
       <c r="D540" t="s">
         <v>1780</v>
       </c>
@@ -15016,7 +15311,10 @@
         <v>AllowanceForSalesTaxesModifiedAccrual</v>
       </c>
     </row>
-    <row r="541" spans="4:5">
+    <row r="541" spans="2:5">
+      <c r="B541" t="s">
+        <v>2039</v>
+      </c>
       <c r="D541" t="s">
         <v>1781</v>
       </c>
@@ -15025,7 +15323,10 @@
         <v>SalesTaxesReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
     </row>
-    <row r="542" spans="4:5">
+    <row r="542" spans="2:5">
+      <c r="B542" t="s">
+        <v>2040</v>
+      </c>
       <c r="D542" t="s">
         <v>1782</v>
       </c>
@@ -15034,7 +15335,10 @@
         <v>AllowanceForOtherTaxesReceivableModifiedAccrual</v>
       </c>
     </row>
-    <row r="543" spans="4:5">
+    <row r="543" spans="2:5">
+      <c r="B543" t="s">
+        <v>2041</v>
+      </c>
       <c r="D543" t="s">
         <v>1783</v>
       </c>
@@ -15043,7 +15347,10 @@
         <v>OtherTaxesReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
     </row>
-    <row r="544" spans="4:5">
+    <row r="544" spans="2:5">
+      <c r="B544" t="s">
+        <v>2042</v>
+      </c>
       <c r="D544" t="s">
         <v>1784</v>
       </c>
@@ -15052,7 +15359,10 @@
         <v>AllowanceForTaxesModifiedAccrual</v>
       </c>
     </row>
-    <row r="545" spans="4:5">
+    <row r="545" spans="2:5">
+      <c r="B545" t="s">
+        <v>2043</v>
+      </c>
       <c r="D545" t="s">
         <v>1785</v>
       </c>
@@ -15061,7 +15371,10 @@
         <v>TaxesReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
     </row>
-    <row r="546" spans="4:5">
+    <row r="546" spans="2:5">
+      <c r="B546" t="s">
+        <v>2044</v>
+      </c>
       <c r="D546" t="s">
         <v>1786</v>
       </c>
@@ -15070,7 +15383,10 @@
         <v>AllowanceForPenaltiesReceivableModifiedAccrual</v>
       </c>
     </row>
-    <row r="547" spans="4:5">
+    <row r="547" spans="2:5">
+      <c r="B547" t="s">
+        <v>2045</v>
+      </c>
       <c r="D547" t="s">
         <v>1787</v>
       </c>
@@ -15079,7 +15395,10 @@
         <v>AllowanceForLeasesReceivableModifiedAccrual</v>
       </c>
     </row>
-    <row r="548" spans="4:5">
+    <row r="548" spans="2:5">
+      <c r="B548" t="s">
+        <v>2046</v>
+      </c>
       <c r="D548" t="s">
         <v>1788</v>
       </c>
@@ -15088,7 +15407,10 @@
         <v>AllowanceForGrantsAndContractsReceivableModifiedAccrual</v>
       </c>
     </row>
-    <row r="549" spans="4:5">
+    <row r="549" spans="2:5">
+      <c r="B549" t="s">
+        <v>2047</v>
+      </c>
       <c r="D549" t="s">
         <v>1789</v>
       </c>
@@ -15097,7 +15419,10 @@
         <v>AllowanceForDepositsReceivableModifiedAccrual</v>
       </c>
     </row>
-    <row r="550" spans="4:5">
+    <row r="550" spans="2:5">
+      <c r="B550" t="s">
+        <v>2048</v>
+      </c>
       <c r="D550" t="s">
         <v>1790</v>
       </c>
@@ -15106,7 +15431,10 @@
         <v>AllowanceForLoansAndNotesReceivableModifiedAccrual</v>
       </c>
     </row>
-    <row r="551" spans="4:5">
+    <row r="551" spans="2:5">
+      <c r="B551" t="s">
+        <v>2049</v>
+      </c>
       <c r="D551" t="s">
         <v>1791</v>
       </c>
@@ -15115,7 +15443,10 @@
         <v>AllowanceForClaimsAndJudgmentsReceivableModifiedAccrual</v>
       </c>
     </row>
-    <row r="552" spans="4:5">
+    <row r="552" spans="2:5">
+      <c r="B552" t="s">
+        <v>2050</v>
+      </c>
       <c r="D552" t="s">
         <v>1792</v>
       </c>
@@ -15124,7 +15455,10 @@
         <v>AllowanceForInterGovernmentalReceivableModifiedAccrual</v>
       </c>
     </row>
-    <row r="553" spans="4:5">
+    <row r="553" spans="2:5">
+      <c r="B553" t="s">
+        <v>2051</v>
+      </c>
       <c r="D553" t="s">
         <v>1793</v>
       </c>
@@ -15133,7 +15467,10 @@
         <v>AllowanceForReceivableModifiedAccrual</v>
       </c>
     </row>
-    <row r="554" spans="4:5">
+    <row r="554" spans="2:5">
+      <c r="B554" t="s">
+        <v>2052</v>
+      </c>
       <c r="D554" t="s">
         <v>1794</v>
       </c>
@@ -15142,7 +15479,10 @@
         <v>ReceivablesNetOfAllowanceModifiedAccrual</v>
       </c>
     </row>
-    <row r="555" spans="4:5">
+    <row r="555" spans="2:5">
+      <c r="B555" t="s">
+        <v>2053</v>
+      </c>
       <c r="D555" t="s">
         <v>1795</v>
       </c>
@@ -15151,7 +15491,10 @@
         <v>RestrictedReceivablesModifiedAccrual</v>
       </c>
     </row>
-    <row r="556" spans="4:5">
+    <row r="556" spans="2:5">
+      <c r="B556" t="s">
+        <v>2054</v>
+      </c>
       <c r="D556" t="s">
         <v>1796</v>
       </c>
@@ -15160,7 +15503,10 @@
         <v>AllowanceForRestrictedReceivableModifiedAccrual</v>
       </c>
     </row>
-    <row r="557" spans="4:5">
+    <row r="557" spans="2:5">
+      <c r="B557" t="s">
+        <v>2055</v>
+      </c>
       <c r="D557" t="s">
         <v>1797</v>
       </c>
@@ -15169,7 +15515,10 @@
         <v>ReceivablesRestrictedNetOfAllowanceModifiedAccrual</v>
       </c>
     </row>
-    <row r="558" spans="4:5">
+    <row r="558" spans="2:5">
+      <c r="B558" t="s">
+        <v>2056</v>
+      </c>
       <c r="D558" t="s">
         <v>1798</v>
       </c>
@@ -15178,7 +15527,10 @@
         <v>InvestmentIncomeReceivableModifiedAccrual</v>
       </c>
     </row>
-    <row r="559" spans="4:5">
+    <row r="559" spans="2:5">
+      <c r="B559" t="s">
+        <v>2057</v>
+      </c>
       <c r="D559" t="s">
         <v>1799</v>
       </c>
@@ -15187,7 +15539,10 @@
         <v>AllowanceForInvestmentIncomeReceivableModifiedAccrual</v>
       </c>
     </row>
-    <row r="560" spans="4:5">
+    <row r="560" spans="2:5">
+      <c r="B560" t="s">
+        <v>2058</v>
+      </c>
       <c r="D560" t="s">
         <v>1800</v>
       </c>
@@ -15196,7 +15551,10 @@
         <v>InvestmentIncomeReceivableNetOfAllowanceModifiedAccrual</v>
       </c>
     </row>
-    <row r="561" spans="4:5">
+    <row r="561" spans="2:5">
+      <c r="B561" t="s">
+        <v>2059</v>
+      </c>
       <c r="D561" t="s">
         <v>1801</v>
       </c>
@@ -15205,7 +15563,10 @@
         <v>AllowanceForOtherReceivableModifiedAccrual</v>
       </c>
     </row>
-    <row r="562" spans="4:5">
+    <row r="562" spans="2:5">
+      <c r="B562" t="s">
+        <v>2060</v>
+      </c>
       <c r="D562" t="s">
         <v>1802</v>
       </c>
@@ -15214,7 +15575,10 @@
         <v>OtherReceivablesNetOfAllowanceModifiedAccrual</v>
       </c>
     </row>
-    <row r="563" spans="4:5">
+    <row r="563" spans="2:5">
+      <c r="B563" t="s">
+        <v>2061</v>
+      </c>
       <c r="D563" t="s">
         <v>1803</v>
       </c>
@@ -15223,7 +15587,10 @@
         <v>ReceivablesFromContractsModifiedAccrual</v>
       </c>
     </row>
-    <row r="564" spans="4:5">
+    <row r="564" spans="2:5">
+      <c r="B564" t="s">
+        <v>2062</v>
+      </c>
       <c r="D564" t="s">
         <v>1804</v>
       </c>
@@ -15232,7 +15599,10 @@
         <v>DueFromOtherGovernmentModifiedAccrual</v>
       </c>
     </row>
-    <row r="565" spans="4:5">
+    <row r="565" spans="2:5">
+      <c r="B565" t="s">
+        <v>2063</v>
+      </c>
       <c r="D565" t="s">
         <v>1805</v>
       </c>
@@ -15241,7 +15611,10 @@
         <v>DueFromOthersModifiedAccrual</v>
       </c>
     </row>
-    <row r="566" spans="4:5">
+    <row r="566" spans="2:5">
+      <c r="B566" t="s">
+        <v>2064</v>
+      </c>
       <c r="D566" t="s">
         <v>1806</v>
       </c>
@@ -15250,7 +15623,10 @@
         <v>PrepaidInsuranceModifiedAccrual</v>
       </c>
     </row>
-    <row r="567" spans="4:5">
+    <row r="567" spans="2:5">
+      <c r="B567" t="s">
+        <v>2065</v>
+      </c>
       <c r="D567" t="s">
         <v>1807</v>
       </c>
@@ -15259,7 +15635,10 @@
         <v>OtherPrepaidAssetsModifiedAccrual</v>
       </c>
     </row>
-    <row r="568" spans="4:5">
+    <row r="568" spans="2:5">
+      <c r="B568" t="s">
+        <v>2066</v>
+      </c>
       <c r="D568" t="s">
         <v>1808</v>
       </c>
@@ -15268,7 +15647,10 @@
         <v>PrepaidExpensesAndOtherAssetsModifiedAccrual</v>
       </c>
     </row>
-    <row r="569" spans="4:5">
+    <row r="569" spans="2:5">
+      <c r="B569" t="s">
+        <v>2067</v>
+      </c>
       <c r="D569" t="s">
         <v>1809</v>
       </c>
@@ -15277,7 +15659,10 @@
         <v>InventoryAndPrepaidItemsModifiedAccrual</v>
       </c>
     </row>
-    <row r="570" spans="4:5">
+    <row r="570" spans="2:5">
+      <c r="B570" t="s">
+        <v>2068</v>
+      </c>
       <c r="D570" t="s">
         <v>1810</v>
       </c>
@@ -15286,7 +15671,10 @@
         <v>TravelAdvancesReceivableModifiedAccrual</v>
       </c>
     </row>
-    <row r="571" spans="4:5">
+    <row r="571" spans="2:5">
+      <c r="B571" t="s">
+        <v>2069</v>
+      </c>
       <c r="D571" t="s">
         <v>1811</v>
       </c>
@@ -15295,7 +15683,10 @@
         <v>DerivativeInstrumentsAssetsModifiedAccrual</v>
       </c>
     </row>
-    <row r="572" spans="4:5">
+    <row r="572" spans="2:5">
+      <c r="B572" t="s">
+        <v>2070</v>
+      </c>
       <c r="D572" t="s">
         <v>1812</v>
       </c>
@@ -15304,7 +15695,10 @@
         <v>RegulatoryAssetsModifiedAccrual</v>
       </c>
     </row>
-    <row r="573" spans="4:5">
+    <row r="573" spans="2:5">
+      <c r="B573" t="s">
+        <v>2071</v>
+      </c>
       <c r="D573" t="s">
         <v>1753</v>
       </c>
@@ -15313,7 +15707,10 @@
         <v>AssetsModifiedAccrual</v>
       </c>
     </row>
-    <row r="574" spans="4:5">
+    <row r="574" spans="2:5">
+      <c r="B574" t="s">
+        <v>2072</v>
+      </c>
       <c r="D574" t="s">
         <v>1813</v>
       </c>
@@ -15322,7 +15719,10 @@
         <v>AssetsAndDeferredOutflowsOfResourcesModifiedAccrual</v>
       </c>
     </row>
-    <row r="575" spans="4:5">
+    <row r="575" spans="2:5">
+      <c r="B575" t="s">
+        <v>2073</v>
+      </c>
       <c r="D575" t="s">
         <v>1814</v>
       </c>
@@ -15331,7 +15731,10 @@
         <v>CashOverdraftModifiedAccrual</v>
       </c>
     </row>
-    <row r="576" spans="4:5">
+    <row r="576" spans="2:5">
+      <c r="B576" t="s">
+        <v>2074</v>
+      </c>
       <c r="D576" t="s">
         <v>1815</v>
       </c>
@@ -15340,7 +15743,10 @@
         <v>BenefitsPayableModifiedAccrual</v>
       </c>
     </row>
-    <row r="577" spans="4:5">
+    <row r="577" spans="2:5">
+      <c r="B577" t="s">
+        <v>2075</v>
+      </c>
       <c r="D577" t="s">
         <v>1816</v>
       </c>
@@ -15349,7 +15755,10 @@
         <v>InterGovernmentalPayableModifiedAccrual</v>
       </c>
     </row>
-    <row r="578" spans="4:5">
+    <row r="578" spans="2:5">
+      <c r="B578" t="s">
+        <v>2076</v>
+      </c>
       <c r="D578" t="s">
         <v>1817</v>
       </c>
@@ -15358,7 +15767,10 @@
         <v>ClaimsAndJudgmentsPayableModifiedAccrual</v>
       </c>
     </row>
-    <row r="579" spans="4:5">
+    <row r="579" spans="2:5">
+      <c r="B579" t="s">
+        <v>2077</v>
+      </c>
       <c r="D579" t="s">
         <v>1818</v>
       </c>
@@ -15367,7 +15779,10 @@
         <v>PayablesForOthersModifiedAccrual</v>
       </c>
     </row>
-    <row r="580" spans="4:5">
+    <row r="580" spans="2:5">
+      <c r="B580" t="s">
+        <v>2078</v>
+      </c>
       <c r="D580" t="s">
         <v>1819</v>
       </c>
@@ -15376,7 +15791,10 @@
         <v>AccruedPayrollTaxesModifiedAccrual</v>
       </c>
     </row>
-    <row r="581" spans="4:5">
+    <row r="581" spans="2:5">
+      <c r="B581" t="s">
+        <v>2079</v>
+      </c>
       <c r="D581" t="s">
         <v>1820</v>
       </c>
@@ -15385,7 +15803,10 @@
         <v>AccruedBenefitsAndCompensationLongTermModifiedAccrual</v>
       </c>
     </row>
-    <row r="582" spans="4:5">
+    <row r="582" spans="2:5">
+      <c r="B582" t="s">
+        <v>2080</v>
+      </c>
       <c r="D582" t="s">
         <v>1821</v>
       </c>
@@ -15394,7 +15815,10 @@
         <v>CompensatedAbsencesPayableModifiedAccrual</v>
       </c>
     </row>
-    <row r="583" spans="4:5">
+    <row r="583" spans="2:5">
+      <c r="B583" t="s">
+        <v>2081</v>
+      </c>
       <c r="D583" t="s">
         <v>1822</v>
       </c>
@@ -15403,7 +15827,10 @@
         <v>AllOtherAccountsPayableAndAccruedLiabilitiesModifiedAccrual</v>
       </c>
     </row>
-    <row r="584" spans="4:5">
+    <row r="584" spans="2:5">
+      <c r="B584" t="s">
+        <v>2082</v>
+      </c>
       <c r="D584" t="s">
         <v>1823</v>
       </c>
@@ -15412,7 +15839,10 @@
         <v>DueToEnterpriseFundsModifiedAccrual</v>
       </c>
     </row>
-    <row r="585" spans="4:5">
+    <row r="585" spans="2:5">
+      <c r="B585" t="s">
+        <v>2083</v>
+      </c>
       <c r="D585" t="s">
         <v>1824</v>
       </c>
@@ -15421,7 +15851,10 @@
         <v>AdvancesFromComponentUnitModifiedAccrual</v>
       </c>
     </row>
-    <row r="586" spans="4:5">
+    <row r="586" spans="2:5">
+      <c r="B586" t="s">
+        <v>2084</v>
+      </c>
       <c r="D586" t="s">
         <v>1825</v>
       </c>
@@ -15430,7 +15863,10 @@
         <v>ProvisionForPropertyTaxRefundsModifiedAccrual</v>
       </c>
     </row>
-    <row r="587" spans="4:5">
+    <row r="587" spans="2:5">
+      <c r="B587" t="s">
+        <v>2085</v>
+      </c>
       <c r="D587" t="s">
         <v>1826</v>
       </c>
@@ -15439,7 +15875,10 @@
         <v>UnamortizedPremiumOnBondsModifiedAccrual</v>
       </c>
     </row>
-    <row r="588" spans="4:5">
+    <row r="588" spans="2:5">
+      <c r="B588" t="s">
+        <v>2086</v>
+      </c>
       <c r="D588" t="s">
         <v>1827</v>
       </c>
@@ -15448,7 +15887,10 @@
         <v>LeasesPayableModifiedAccrual</v>
       </c>
     </row>
-    <row r="589" spans="4:5">
+    <row r="589" spans="2:5">
+      <c r="B589" t="s">
+        <v>2087</v>
+      </c>
       <c r="D589" t="s">
         <v>1828</v>
       </c>
@@ -15457,7 +15899,10 @@
         <v>BondsPayableModifiedAccrual</v>
       </c>
     </row>
-    <row r="590" spans="4:5">
+    <row r="590" spans="2:5">
+      <c r="B590" t="s">
+        <v>2088</v>
+      </c>
       <c r="D590" t="s">
         <v>1829</v>
       </c>
@@ -15466,7 +15911,10 @@
         <v>LoansPayableModifiedAccrual</v>
       </c>
     </row>
-    <row r="591" spans="4:5">
+    <row r="591" spans="2:5">
+      <c r="B591" t="s">
+        <v>2089</v>
+      </c>
       <c r="D591" t="s">
         <v>1830</v>
       </c>
@@ -15475,7 +15923,10 @@
         <v>NotesPayableModifiedAccrual</v>
       </c>
     </row>
-    <row r="592" spans="4:5">
+    <row r="592" spans="2:5">
+      <c r="B592" t="s">
+        <v>2090</v>
+      </c>
       <c r="D592" t="s">
         <v>1831</v>
       </c>
@@ -15484,7 +15935,10 @@
         <v>NotesAndLoansPayableDueWithinOneYearModifiedAccrual</v>
       </c>
     </row>
-    <row r="593" spans="4:5">
+    <row r="593" spans="2:5">
+      <c r="B593" t="s">
+        <v>2091</v>
+      </c>
       <c r="D593" t="s">
         <v>1832</v>
       </c>
@@ -15493,7 +15947,10 @@
         <v>RegulatoryLiabilityModifiedAccrual</v>
       </c>
     </row>
-    <row r="594" spans="4:5">
+    <row r="594" spans="2:5">
+      <c r="B594" t="s">
+        <v>2092</v>
+      </c>
       <c r="D594" t="s">
         <v>1833</v>
       </c>
@@ -15502,7 +15959,10 @@
         <v>DerivativeInstrumentsLiabilityModifiedAccrual</v>
       </c>
     </row>
-    <row r="595" spans="4:5">
+    <row r="595" spans="2:5">
+      <c r="B595" t="s">
+        <v>2093</v>
+      </c>
       <c r="D595" t="s">
         <v>1834</v>
       </c>
@@ -15511,7 +15971,10 @@
         <v>OtherLiabilitiesModifiedAccrual</v>
       </c>
     </row>
-    <row r="596" spans="4:5">
+    <row r="596" spans="2:5">
+      <c r="B596" t="s">
+        <v>2094</v>
+      </c>
       <c r="D596" t="s">
         <v>1752</v>
       </c>
@@ -15520,7 +15983,10 @@
         <v>LiabilitiesModifiedAccrual</v>
       </c>
     </row>
-    <row r="597" spans="4:5">
+    <row r="597" spans="2:5">
+      <c r="B597" t="s">
+        <v>2095</v>
+      </c>
       <c r="D597" t="s">
         <v>1835</v>
       </c>
@@ -15529,7 +15995,10 @@
         <v>DeferredInflowsOfResourcesDrainFundModifiedAccrual</v>
       </c>
     </row>
-    <row r="598" spans="4:5">
+    <row r="598" spans="2:5">
+      <c r="B598" t="s">
+        <v>2096</v>
+      </c>
       <c r="D598" t="s">
         <v>1836</v>
       </c>
@@ -15538,7 +16007,10 @@
         <v>DeferredInflowsOfResourcesSpecialAssessmentsModifiedAccrual</v>
       </c>
     </row>
-    <row r="599" spans="4:5">
+    <row r="599" spans="2:5">
+      <c r="B599" t="s">
+        <v>2097</v>
+      </c>
       <c r="D599" t="s">
         <v>1837</v>
       </c>
@@ -15547,7 +16019,10 @@
         <v>DeferredInflowsOfResourcesUnavailableRevenueModifiedAccrual</v>
       </c>
     </row>
-    <row r="600" spans="4:5">
+    <row r="600" spans="2:5">
+      <c r="B600" t="s">
+        <v>2098</v>
+      </c>
       <c r="D600" t="s">
         <v>1838</v>
       </c>
@@ -15556,7 +16031,10 @@
         <v>LiabilitiesAndDeferredInflowsOfResourcesModifiedAccrual</v>
       </c>
     </row>
-    <row r="601" spans="4:5">
+    <row r="601" spans="2:5">
+      <c r="B601" t="s">
+        <v>2099</v>
+      </c>
       <c r="D601" t="s">
         <v>1839</v>
       </c>
@@ -15565,7 +16043,10 @@
         <v>InvestmentInCapitalAssetsModifiedAccrual</v>
       </c>
     </row>
-    <row r="602" spans="4:5">
+    <row r="602" spans="2:5">
+      <c r="B602" t="s">
+        <v>2100</v>
+      </c>
       <c r="D602" t="s">
         <v>1750</v>
       </c>
@@ -26223,12 +26704,12 @@
     </row>
     <row r="25" spans="1:5" ht="15">
       <c r="A25" s="7"/>
-      <c r="B25" s="128" t="s">
+      <c r="B25" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="131"/>
     </row>
     <row r="26" spans="1:5" ht="15">
       <c r="A26" s="8" t="str">
